--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11360"/>
   </bookViews>
   <sheets>
     <sheet name="趋势分析" sheetId="1" r:id="rId1"/>
@@ -1576,11 +1576,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Helvetica Neue Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t>暂不宜入场</t>
     </r>
     <r>
@@ -2769,7 +2764,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2843,10 +2838,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3103,10 +3098,7 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3115,7 +3107,7 @@
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3127,7 +3119,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -3538,12 +3530,12 @@
   <sheetPr/>
   <dimension ref="A1:AI209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P80" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="X79" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD85" sqref="AD85"/>
+      <selection pane="bottomRight" activeCell="AA85" sqref="AA85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -8110,7 +8102,7 @@
       </c>
     </row>
     <row r="68" s="24" customFormat="1" ht="25" spans="1:34">
-      <c r="A68" s="132" t="s">
+      <c r="A68" s="131" t="s">
         <v>197</v>
       </c>
       <c r="B68" s="102" t="s">
@@ -8398,10 +8390,10 @@
       <c r="G71" s="113"/>
       <c r="H71" s="113"/>
       <c r="I71" s="113"/>
-      <c r="J71" s="123"/>
+      <c r="J71" s="122"/>
       <c r="K71" s="113"/>
       <c r="L71" s="113"/>
-      <c r="M71" s="127"/>
+      <c r="M71" s="126"/>
       <c r="N71" s="113"/>
       <c r="O71" s="113"/>
       <c r="P71" s="113"/>
@@ -8471,7 +8463,7 @@
       <c r="AH72" s="3"/>
     </row>
     <row r="73" spans="1:34">
-      <c r="A73" s="133" t="s">
+      <c r="A73" s="132" t="s">
         <v>204</v>
       </c>
       <c r="B73" s="112" t="s">
@@ -8514,7 +8506,7 @@
       <c r="AH73" s="3"/>
     </row>
     <row r="74" s="27" customFormat="1" ht="25" spans="1:34">
-      <c r="A74" s="134" t="s">
+      <c r="A74" s="133" t="s">
         <v>206</v>
       </c>
       <c r="B74" s="105" t="s">
@@ -8599,7 +8591,7 @@
       </c>
     </row>
     <row r="75" ht="25" spans="1:34">
-      <c r="A75" s="133" t="s">
+      <c r="A75" s="132" t="s">
         <v>209</v>
       </c>
       <c r="B75" s="112" t="s">
@@ -8612,7 +8604,7 @@
       <c r="G75" s="92"/>
       <c r="H75" s="92"/>
       <c r="I75" s="92"/>
-      <c r="J75" s="124"/>
+      <c r="J75" s="123"/>
       <c r="K75" s="69" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -8662,7 +8654,7 @@
       </c>
     </row>
     <row r="76" s="24" customFormat="1" ht="25" spans="1:34">
-      <c r="A76" s="135" t="s">
+      <c r="A76" s="134" t="s">
         <v>211</v>
       </c>
       <c r="B76" s="102" t="s">
@@ -8849,7 +8841,7 @@
       <c r="I78" s="92">
         <v>8.15</v>
       </c>
-      <c r="J78" s="124">
+      <c r="J78" s="123">
         <v>4.39</v>
       </c>
       <c r="K78" s="69">
@@ -8998,7 +8990,7 @@
       </c>
     </row>
     <row r="80" ht="25" spans="1:34">
-      <c r="A80" s="133" t="s">
+      <c r="A80" s="132" t="s">
         <v>218</v>
       </c>
       <c r="B80" s="112" t="s">
@@ -9081,7 +9073,7 @@
       </c>
     </row>
     <row r="81" ht="25" spans="1:34">
-      <c r="A81" s="133" t="s">
+      <c r="A81" s="132" t="s">
         <v>220</v>
       </c>
       <c r="B81" s="112" t="s">
@@ -9250,10 +9242,10 @@
       <c r="R83" s="56">
         <v>46.13</v>
       </c>
-      <c r="S83" s="129">
+      <c r="S83" s="128">
         <v>49.4</v>
       </c>
-      <c r="T83" s="129">
+      <c r="T83" s="128">
         <v>46.7</v>
       </c>
       <c r="U83" s="56"/>
@@ -9290,7 +9282,7 @@
       <c r="AG83" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="AH83" s="130" t="s">
+      <c r="AH83" s="129" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9388,4621 +9380,4625 @@
         <v>225</v>
       </c>
       <c r="AG84" s="62"/>
-      <c r="AH84" s="131" t="s">
+      <c r="AH84" s="103" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="85" s="29" customFormat="1" ht="13" spans="1:34">
-      <c r="A85" s="119" t="s">
+    <row r="85" s="29" customFormat="1" ht="25" spans="1:34">
+      <c r="A85" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="49">
         <v>14.33</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D85" s="49">
         <v>14.85</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="49">
         <v>18.11</v>
       </c>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15">
+      <c r="F85" s="49"/>
+      <c r="G85" s="49">
         <v>22.36</v>
       </c>
-      <c r="H85" s="15">
+      <c r="H85" s="49">
         <v>10.99</v>
       </c>
-      <c r="I85" s="15">
+      <c r="I85" s="49">
         <v>25.66</v>
       </c>
-      <c r="J85" s="124">
+      <c r="J85" s="76">
         <v>13.63</v>
       </c>
-      <c r="K85" s="69">
+      <c r="K85" s="72">
         <f>(G85-H85)/H85</f>
         <v>1.03457688808007</v>
       </c>
-      <c r="L85" s="69">
+      <c r="L85" s="72">
         <f>(I85-G85)/I85</f>
         <v>0.128604832424006</v>
       </c>
-      <c r="M85" s="89">
+      <c r="M85" s="88">
         <f t="shared" si="31"/>
         <v>0.882611885546588</v>
       </c>
-      <c r="N85" s="15">
+      <c r="N85" s="49">
         <v>20.89</v>
       </c>
-      <c r="O85" s="15">
+      <c r="O85" s="49">
         <v>25.3</v>
       </c>
-      <c r="P85" s="15">
+      <c r="P85" s="49">
         <v>21.24</v>
       </c>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
-      <c r="Y85" s="15" t="s">
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="49"/>
+      <c r="V85" s="49"/>
+      <c r="W85" s="49"/>
+      <c r="X85" s="49"/>
+      <c r="Y85" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="Z85" s="75">
+      <c r="Z85" s="74">
         <f t="shared" si="32"/>
         <v>0.1858924395947</v>
       </c>
-      <c r="AA85" s="75">
+      <c r="AA85" s="74">
         <f t="shared" si="33"/>
         <v>0.160474308300395</v>
       </c>
-      <c r="AB85" s="69" t="e">
+      <c r="AB85" s="72" t="e">
         <f>(Q85-R85)/Q85</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC85" s="69" t="e">
+      <c r="AC85" s="72" t="e">
         <f>(S85-T85)/S85</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD85" s="69" t="e">
+      <c r="AD85" s="72" t="e">
         <f>(U85-V85)/U85</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE85" s="3"/>
-      <c r="AF85" s="3"/>
-      <c r="AG85" s="3"/>
-      <c r="AH85" s="3"/>
-    </row>
-    <row r="86" s="30" customFormat="1" ht="12.4" spans="1:34">
-      <c r="A86" s="3">
+      <c r="AE85" s="62"/>
+      <c r="AF85" s="62"/>
+      <c r="AG85" s="62"/>
+      <c r="AH85" s="103" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" s="30" customFormat="1" ht="25" spans="1:34">
+      <c r="A86" s="62">
         <v>605028</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="C86" s="120">
+      <c r="C86" s="119">
         <v>23.08</v>
       </c>
-      <c r="D86" s="120">
+      <c r="D86" s="119">
         <v>23.65</v>
       </c>
-      <c r="E86" s="120">
+      <c r="E86" s="119">
         <v>25.28</v>
       </c>
-      <c r="F86" s="120"/>
-      <c r="G86" s="120">
+      <c r="F86" s="119"/>
+      <c r="G86" s="119">
         <v>24.48</v>
       </c>
-      <c r="H86" s="120">
+      <c r="H86" s="119">
         <v>16.52</v>
       </c>
-      <c r="I86" s="120">
+      <c r="I86" s="119">
         <v>33.51</v>
       </c>
-      <c r="J86" s="125">
+      <c r="J86" s="124">
         <v>16.52</v>
       </c>
-      <c r="K86" s="69">
+      <c r="K86" s="72">
         <f>(G86-H86)/H86</f>
         <v>0.481840193704601</v>
       </c>
-      <c r="L86" s="69">
+      <c r="L86" s="72">
         <f>(I86-G86)/I86</f>
         <v>0.269471799462847</v>
       </c>
-      <c r="M86" s="89">
+      <c r="M86" s="88">
         <f>(I86-J86)/J86</f>
         <v>1.02845036319613</v>
       </c>
-      <c r="N86" s="120">
+      <c r="N86" s="119">
         <v>19.92</v>
       </c>
-      <c r="O86" s="120">
+      <c r="O86" s="119">
         <v>26.6</v>
       </c>
-      <c r="P86" s="120">
+      <c r="P86" s="119">
         <v>20.5</v>
       </c>
-      <c r="Q86" s="120">
+      <c r="Q86" s="119">
         <v>26.17</v>
       </c>
-      <c r="R86" s="120">
+      <c r="R86" s="119">
         <v>21.62</v>
       </c>
-      <c r="S86" s="120">
+      <c r="S86" s="119">
         <v>29.5</v>
       </c>
-      <c r="T86" s="120">
+      <c r="T86" s="119">
         <v>23.34</v>
       </c>
-      <c r="U86" s="120">
+      <c r="U86" s="119">
         <v>28.3</v>
       </c>
-      <c r="V86" s="120">
+      <c r="V86" s="119">
         <v>24</v>
       </c>
-      <c r="W86" s="120"/>
-      <c r="X86" s="120"/>
-      <c r="Y86" s="120" t="s">
+      <c r="W86" s="119"/>
+      <c r="X86" s="119"/>
+      <c r="Y86" s="119" t="s">
         <v>234</v>
       </c>
-      <c r="Z86" s="75">
+      <c r="Z86" s="74">
         <f>(I86-N86)/I86</f>
         <v>0.405550581915846</v>
       </c>
-      <c r="AA86" s="75">
+      <c r="AA86" s="74">
         <f>(O86-P86)/O86</f>
         <v>0.229323308270677</v>
       </c>
-      <c r="AB86" s="69">
+      <c r="AB86" s="72">
         <f>(Q86-R86)/Q86</f>
         <v>0.173863202139855</v>
       </c>
-      <c r="AC86" s="69">
+      <c r="AC86" s="72">
         <f>(S86-T86)/S86</f>
         <v>0.208813559322034</v>
       </c>
-      <c r="AD86" s="69">
+      <c r="AD86" s="72">
         <f>(U86-V86)/U86</f>
         <v>0.151943462897527</v>
       </c>
-      <c r="AE86" s="120"/>
-      <c r="AF86" s="120"/>
-      <c r="AG86" s="120"/>
-      <c r="AH86" s="120"/>
+      <c r="AE86" s="119"/>
+      <c r="AF86" s="119"/>
+      <c r="AG86" s="119"/>
+      <c r="AH86" s="130" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="87" spans="1:34">
-      <c r="A87" s="121"/>
-      <c r="B87" s="122"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="122"/>
-      <c r="H87" s="122"/>
-      <c r="I87" s="122"/>
-      <c r="J87" s="126"/>
-      <c r="K87" s="122"/>
-      <c r="L87" s="122"/>
-      <c r="M87" s="128"/>
-      <c r="N87" s="122"/>
-      <c r="O87" s="122"/>
-      <c r="P87" s="122"/>
-      <c r="Q87" s="122"/>
-      <c r="R87" s="122"/>
-      <c r="S87" s="122"/>
-      <c r="T87" s="122"/>
-      <c r="U87" s="122"/>
-      <c r="V87" s="122"/>
-      <c r="W87" s="122"/>
-      <c r="X87" s="122"/>
-      <c r="Y87" s="122"/>
-      <c r="Z87" s="122"/>
-      <c r="AA87" s="122"/>
-      <c r="AB87" s="122"/>
-      <c r="AC87" s="122"/>
-      <c r="AD87" s="122"/>
-      <c r="AE87" s="122"/>
-      <c r="AF87" s="122"/>
-      <c r="AG87" s="122"/>
-      <c r="AH87" s="122"/>
+      <c r="A87" s="120"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="121"/>
+      <c r="G87" s="121"/>
+      <c r="H87" s="121"/>
+      <c r="I87" s="121"/>
+      <c r="J87" s="125"/>
+      <c r="K87" s="121"/>
+      <c r="L87" s="121"/>
+      <c r="M87" s="127"/>
+      <c r="N87" s="121"/>
+      <c r="O87" s="121"/>
+      <c r="P87" s="121"/>
+      <c r="Q87" s="121"/>
+      <c r="R87" s="121"/>
+      <c r="S87" s="121"/>
+      <c r="T87" s="121"/>
+      <c r="U87" s="121"/>
+      <c r="V87" s="121"/>
+      <c r="W87" s="121"/>
+      <c r="X87" s="121"/>
+      <c r="Y87" s="121"/>
+      <c r="Z87" s="121"/>
+      <c r="AA87" s="121"/>
+      <c r="AB87" s="121"/>
+      <c r="AC87" s="121"/>
+      <c r="AD87" s="121"/>
+      <c r="AE87" s="121"/>
+      <c r="AF87" s="121"/>
+      <c r="AG87" s="121"/>
+      <c r="AH87" s="121"/>
     </row>
     <row r="88" spans="1:34">
-      <c r="A88" s="121"/>
-      <c r="B88" s="122"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
-      <c r="E88" s="122"/>
-      <c r="F88" s="122"/>
-      <c r="G88" s="122"/>
-      <c r="H88" s="122"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="126"/>
-      <c r="K88" s="122"/>
-      <c r="L88" s="122"/>
-      <c r="M88" s="128"/>
-      <c r="N88" s="122"/>
-      <c r="O88" s="122"/>
-      <c r="P88" s="122"/>
-      <c r="Q88" s="122"/>
-      <c r="R88" s="122"/>
-      <c r="S88" s="122"/>
-      <c r="T88" s="122"/>
-      <c r="U88" s="122"/>
-      <c r="V88" s="122"/>
-      <c r="W88" s="122"/>
-      <c r="X88" s="122"/>
-      <c r="Y88" s="122"/>
-      <c r="Z88" s="122"/>
-      <c r="AA88" s="122"/>
-      <c r="AB88" s="122"/>
-      <c r="AC88" s="122"/>
-      <c r="AD88" s="122"/>
-      <c r="AE88" s="122"/>
-      <c r="AF88" s="122"/>
-      <c r="AG88" s="122"/>
-      <c r="AH88" s="122"/>
+      <c r="A88" s="120"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
+      <c r="G88" s="121"/>
+      <c r="H88" s="121"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="125"/>
+      <c r="K88" s="121"/>
+      <c r="L88" s="121"/>
+      <c r="M88" s="127"/>
+      <c r="N88" s="121"/>
+      <c r="O88" s="121"/>
+      <c r="P88" s="121"/>
+      <c r="Q88" s="121"/>
+      <c r="R88" s="121"/>
+      <c r="S88" s="121"/>
+      <c r="T88" s="121"/>
+      <c r="U88" s="121"/>
+      <c r="V88" s="121"/>
+      <c r="W88" s="121"/>
+      <c r="X88" s="121"/>
+      <c r="Y88" s="121"/>
+      <c r="Z88" s="121"/>
+      <c r="AA88" s="121"/>
+      <c r="AB88" s="121"/>
+      <c r="AC88" s="121"/>
+      <c r="AD88" s="121"/>
+      <c r="AE88" s="121"/>
+      <c r="AF88" s="121"/>
+      <c r="AG88" s="121"/>
+      <c r="AH88" s="121"/>
     </row>
     <row r="89" spans="1:34">
-      <c r="A89" s="121"/>
-      <c r="B89" s="122"/>
-      <c r="C89" s="122"/>
-      <c r="D89" s="122"/>
-      <c r="E89" s="122"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="122"/>
-      <c r="H89" s="122"/>
-      <c r="I89" s="122"/>
-      <c r="J89" s="126"/>
-      <c r="K89" s="122"/>
-      <c r="L89" s="122"/>
-      <c r="M89" s="128"/>
-      <c r="N89" s="122"/>
-      <c r="O89" s="122"/>
-      <c r="P89" s="122"/>
-      <c r="Q89" s="122"/>
-      <c r="R89" s="122"/>
-      <c r="S89" s="122"/>
-      <c r="T89" s="122"/>
-      <c r="U89" s="122"/>
-      <c r="V89" s="122"/>
-      <c r="W89" s="122"/>
-      <c r="X89" s="122"/>
-      <c r="Y89" s="122"/>
-      <c r="Z89" s="122"/>
-      <c r="AA89" s="122"/>
-      <c r="AB89" s="122"/>
-      <c r="AC89" s="122"/>
-      <c r="AD89" s="122"/>
-      <c r="AE89" s="122"/>
-      <c r="AF89" s="122"/>
-      <c r="AG89" s="122"/>
-      <c r="AH89" s="122"/>
+      <c r="A89" s="120"/>
+      <c r="B89" s="121"/>
+      <c r="C89" s="121"/>
+      <c r="D89" s="121"/>
+      <c r="E89" s="121"/>
+      <c r="F89" s="121"/>
+      <c r="G89" s="121"/>
+      <c r="H89" s="121"/>
+      <c r="I89" s="121"/>
+      <c r="J89" s="125"/>
+      <c r="K89" s="121"/>
+      <c r="L89" s="121"/>
+      <c r="M89" s="127"/>
+      <c r="N89" s="121"/>
+      <c r="O89" s="121"/>
+      <c r="P89" s="121"/>
+      <c r="Q89" s="121"/>
+      <c r="R89" s="121"/>
+      <c r="S89" s="121"/>
+      <c r="T89" s="121"/>
+      <c r="U89" s="121"/>
+      <c r="V89" s="121"/>
+      <c r="W89" s="121"/>
+      <c r="X89" s="121"/>
+      <c r="Y89" s="121"/>
+      <c r="Z89" s="121"/>
+      <c r="AA89" s="121"/>
+      <c r="AB89" s="121"/>
+      <c r="AC89" s="121"/>
+      <c r="AD89" s="121"/>
+      <c r="AE89" s="121"/>
+      <c r="AF89" s="121"/>
+      <c r="AG89" s="121"/>
+      <c r="AH89" s="121"/>
     </row>
     <row r="90" spans="1:34">
-      <c r="A90" s="121"/>
-      <c r="B90" s="122"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-      <c r="E90" s="122"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="122"/>
-      <c r="H90" s="122"/>
-      <c r="I90" s="122"/>
-      <c r="J90" s="126"/>
-      <c r="K90" s="122"/>
-      <c r="L90" s="122"/>
-      <c r="M90" s="128"/>
-      <c r="N90" s="122"/>
-      <c r="O90" s="122"/>
-      <c r="P90" s="122"/>
-      <c r="Q90" s="122"/>
-      <c r="R90" s="122"/>
-      <c r="S90" s="122"/>
-      <c r="T90" s="122"/>
-      <c r="U90" s="122"/>
-      <c r="V90" s="122"/>
-      <c r="W90" s="122"/>
-      <c r="X90" s="122"/>
-      <c r="Y90" s="122"/>
-      <c r="Z90" s="122"/>
-      <c r="AA90" s="122"/>
-      <c r="AB90" s="122"/>
-      <c r="AC90" s="122"/>
-      <c r="AD90" s="122"/>
-      <c r="AE90" s="122"/>
-      <c r="AF90" s="122"/>
-      <c r="AG90" s="122"/>
-      <c r="AH90" s="122"/>
+      <c r="A90" s="120"/>
+      <c r="B90" s="121"/>
+      <c r="C90" s="121"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="121"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="125"/>
+      <c r="K90" s="121"/>
+      <c r="L90" s="121"/>
+      <c r="M90" s="127"/>
+      <c r="N90" s="121"/>
+      <c r="O90" s="121"/>
+      <c r="P90" s="121"/>
+      <c r="Q90" s="121"/>
+      <c r="R90" s="121"/>
+      <c r="S90" s="121"/>
+      <c r="T90" s="121"/>
+      <c r="U90" s="121"/>
+      <c r="V90" s="121"/>
+      <c r="W90" s="121"/>
+      <c r="X90" s="121"/>
+      <c r="Y90" s="121"/>
+      <c r="Z90" s="121"/>
+      <c r="AA90" s="121"/>
+      <c r="AB90" s="121"/>
+      <c r="AC90" s="121"/>
+      <c r="AD90" s="121"/>
+      <c r="AE90" s="121"/>
+      <c r="AF90" s="121"/>
+      <c r="AG90" s="121"/>
+      <c r="AH90" s="121"/>
     </row>
     <row r="91" spans="1:34">
-      <c r="A91" s="121"/>
-      <c r="B91" s="122"/>
-      <c r="C91" s="122"/>
-      <c r="D91" s="122"/>
-      <c r="E91" s="122"/>
-      <c r="F91" s="122"/>
-      <c r="G91" s="122"/>
-      <c r="H91" s="122"/>
-      <c r="I91" s="122"/>
-      <c r="J91" s="126"/>
-      <c r="K91" s="122"/>
-      <c r="L91" s="122"/>
-      <c r="M91" s="128"/>
-      <c r="N91" s="122"/>
-      <c r="O91" s="122"/>
-      <c r="P91" s="122"/>
-      <c r="Q91" s="122"/>
-      <c r="R91" s="122"/>
-      <c r="S91" s="122"/>
-      <c r="T91" s="122"/>
-      <c r="U91" s="122"/>
-      <c r="V91" s="122"/>
-      <c r="W91" s="122"/>
-      <c r="X91" s="122"/>
-      <c r="Y91" s="122"/>
-      <c r="Z91" s="122"/>
-      <c r="AA91" s="122"/>
-      <c r="AB91" s="122"/>
-      <c r="AC91" s="122"/>
-      <c r="AD91" s="122"/>
-      <c r="AE91" s="122"/>
-      <c r="AF91" s="122"/>
-      <c r="AG91" s="122"/>
-      <c r="AH91" s="122"/>
+      <c r="A91" s="120"/>
+      <c r="B91" s="121"/>
+      <c r="C91" s="121"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="121"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="121"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="125"/>
+      <c r="K91" s="121"/>
+      <c r="L91" s="121"/>
+      <c r="M91" s="127"/>
+      <c r="N91" s="121"/>
+      <c r="O91" s="121"/>
+      <c r="P91" s="121"/>
+      <c r="Q91" s="121"/>
+      <c r="R91" s="121"/>
+      <c r="S91" s="121"/>
+      <c r="T91" s="121"/>
+      <c r="U91" s="121"/>
+      <c r="V91" s="121"/>
+      <c r="W91" s="121"/>
+      <c r="X91" s="121"/>
+      <c r="Y91" s="121"/>
+      <c r="Z91" s="121"/>
+      <c r="AA91" s="121"/>
+      <c r="AB91" s="121"/>
+      <c r="AC91" s="121"/>
+      <c r="AD91" s="121"/>
+      <c r="AE91" s="121"/>
+      <c r="AF91" s="121"/>
+      <c r="AG91" s="121"/>
+      <c r="AH91" s="121"/>
     </row>
     <row r="92" spans="1:34">
-      <c r="A92" s="121"/>
-      <c r="B92" s="122"/>
-      <c r="C92" s="122"/>
-      <c r="D92" s="122"/>
-      <c r="E92" s="122"/>
-      <c r="F92" s="122"/>
-      <c r="G92" s="122"/>
-      <c r="H92" s="122"/>
-      <c r="I92" s="122"/>
-      <c r="J92" s="126"/>
-      <c r="K92" s="122"/>
-      <c r="L92" s="122"/>
-      <c r="M92" s="128"/>
-      <c r="N92" s="122"/>
-      <c r="O92" s="122"/>
-      <c r="P92" s="122"/>
-      <c r="Q92" s="122"/>
-      <c r="R92" s="122"/>
-      <c r="S92" s="122"/>
-      <c r="T92" s="122"/>
-      <c r="U92" s="122"/>
-      <c r="V92" s="122"/>
-      <c r="W92" s="122"/>
-      <c r="X92" s="122"/>
-      <c r="Y92" s="122"/>
-      <c r="Z92" s="122"/>
-      <c r="AA92" s="122"/>
-      <c r="AB92" s="122"/>
-      <c r="AC92" s="122"/>
-      <c r="AD92" s="122"/>
-      <c r="AE92" s="122"/>
-      <c r="AF92" s="122"/>
-      <c r="AG92" s="122"/>
-      <c r="AH92" s="122"/>
+      <c r="A92" s="120"/>
+      <c r="B92" s="121"/>
+      <c r="C92" s="121"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="121"/>
+      <c r="F92" s="121"/>
+      <c r="G92" s="121"/>
+      <c r="H92" s="121"/>
+      <c r="I92" s="121"/>
+      <c r="J92" s="125"/>
+      <c r="K92" s="121"/>
+      <c r="L92" s="121"/>
+      <c r="M92" s="127"/>
+      <c r="N92" s="121"/>
+      <c r="O92" s="121"/>
+      <c r="P92" s="121"/>
+      <c r="Q92" s="121"/>
+      <c r="R92" s="121"/>
+      <c r="S92" s="121"/>
+      <c r="T92" s="121"/>
+      <c r="U92" s="121"/>
+      <c r="V92" s="121"/>
+      <c r="W92" s="121"/>
+      <c r="X92" s="121"/>
+      <c r="Y92" s="121"/>
+      <c r="Z92" s="121"/>
+      <c r="AA92" s="121"/>
+      <c r="AB92" s="121"/>
+      <c r="AC92" s="121"/>
+      <c r="AD92" s="121"/>
+      <c r="AE92" s="121"/>
+      <c r="AF92" s="121"/>
+      <c r="AG92" s="121"/>
+      <c r="AH92" s="121"/>
     </row>
     <row r="93" spans="1:34">
-      <c r="A93" s="121"/>
-      <c r="B93" s="122"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="122"/>
-      <c r="E93" s="122"/>
-      <c r="F93" s="122"/>
-      <c r="G93" s="122"/>
-      <c r="H93" s="122"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="126"/>
-      <c r="K93" s="122"/>
-      <c r="L93" s="122"/>
-      <c r="M93" s="128"/>
-      <c r="N93" s="122"/>
-      <c r="O93" s="122"/>
-      <c r="P93" s="122"/>
-      <c r="Q93" s="122"/>
-      <c r="R93" s="122"/>
-      <c r="S93" s="122"/>
-      <c r="T93" s="122"/>
-      <c r="U93" s="122"/>
-      <c r="V93" s="122"/>
-      <c r="W93" s="122"/>
-      <c r="X93" s="122"/>
-      <c r="Y93" s="122"/>
-      <c r="Z93" s="122"/>
-      <c r="AA93" s="122"/>
-      <c r="AB93" s="122"/>
-      <c r="AC93" s="122"/>
-      <c r="AD93" s="122"/>
-      <c r="AE93" s="122"/>
-      <c r="AF93" s="122"/>
-      <c r="AG93" s="122"/>
-      <c r="AH93" s="122"/>
+      <c r="A93" s="120"/>
+      <c r="B93" s="121"/>
+      <c r="C93" s="121"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="121"/>
+      <c r="G93" s="121"/>
+      <c r="H93" s="121"/>
+      <c r="I93" s="121"/>
+      <c r="J93" s="125"/>
+      <c r="K93" s="121"/>
+      <c r="L93" s="121"/>
+      <c r="M93" s="127"/>
+      <c r="N93" s="121"/>
+      <c r="O93" s="121"/>
+      <c r="P93" s="121"/>
+      <c r="Q93" s="121"/>
+      <c r="R93" s="121"/>
+      <c r="S93" s="121"/>
+      <c r="T93" s="121"/>
+      <c r="U93" s="121"/>
+      <c r="V93" s="121"/>
+      <c r="W93" s="121"/>
+      <c r="X93" s="121"/>
+      <c r="Y93" s="121"/>
+      <c r="Z93" s="121"/>
+      <c r="AA93" s="121"/>
+      <c r="AB93" s="121"/>
+      <c r="AC93" s="121"/>
+      <c r="AD93" s="121"/>
+      <c r="AE93" s="121"/>
+      <c r="AF93" s="121"/>
+      <c r="AG93" s="121"/>
+      <c r="AH93" s="121"/>
     </row>
     <row r="94" spans="1:34">
-      <c r="A94" s="121"/>
-      <c r="B94" s="122"/>
-      <c r="C94" s="122"/>
-      <c r="D94" s="122"/>
-      <c r="E94" s="122"/>
-      <c r="F94" s="122"/>
-      <c r="G94" s="122"/>
-      <c r="H94" s="122"/>
-      <c r="I94" s="122"/>
-      <c r="J94" s="126"/>
-      <c r="K94" s="122"/>
-      <c r="L94" s="122"/>
-      <c r="M94" s="128"/>
-      <c r="N94" s="122"/>
-      <c r="O94" s="122"/>
-      <c r="P94" s="122"/>
-      <c r="Q94" s="122"/>
-      <c r="R94" s="122"/>
-      <c r="S94" s="122"/>
-      <c r="T94" s="122"/>
-      <c r="U94" s="122"/>
-      <c r="V94" s="122"/>
-      <c r="W94" s="122"/>
-      <c r="X94" s="122"/>
-      <c r="Y94" s="122"/>
-      <c r="Z94" s="122"/>
-      <c r="AA94" s="122"/>
-      <c r="AB94" s="122"/>
-      <c r="AC94" s="122"/>
-      <c r="AD94" s="122"/>
-      <c r="AE94" s="122"/>
-      <c r="AF94" s="122"/>
-      <c r="AG94" s="122"/>
-      <c r="AH94" s="122"/>
+      <c r="A94" s="120"/>
+      <c r="B94" s="121"/>
+      <c r="C94" s="121"/>
+      <c r="D94" s="121"/>
+      <c r="E94" s="121"/>
+      <c r="F94" s="121"/>
+      <c r="G94" s="121"/>
+      <c r="H94" s="121"/>
+      <c r="I94" s="121"/>
+      <c r="J94" s="125"/>
+      <c r="K94" s="121"/>
+      <c r="L94" s="121"/>
+      <c r="M94" s="127"/>
+      <c r="N94" s="121"/>
+      <c r="O94" s="121"/>
+      <c r="P94" s="121"/>
+      <c r="Q94" s="121"/>
+      <c r="R94" s="121"/>
+      <c r="S94" s="121"/>
+      <c r="T94" s="121"/>
+      <c r="U94" s="121"/>
+      <c r="V94" s="121"/>
+      <c r="W94" s="121"/>
+      <c r="X94" s="121"/>
+      <c r="Y94" s="121"/>
+      <c r="Z94" s="121"/>
+      <c r="AA94" s="121"/>
+      <c r="AB94" s="121"/>
+      <c r="AC94" s="121"/>
+      <c r="AD94" s="121"/>
+      <c r="AE94" s="121"/>
+      <c r="AF94" s="121"/>
+      <c r="AG94" s="121"/>
+      <c r="AH94" s="121"/>
     </row>
     <row r="95" spans="1:34">
-      <c r="A95" s="121"/>
-      <c r="B95" s="122"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="122"/>
-      <c r="E95" s="122"/>
-      <c r="F95" s="122"/>
-      <c r="G95" s="122"/>
-      <c r="H95" s="122"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="126"/>
-      <c r="K95" s="122"/>
-      <c r="L95" s="122"/>
-      <c r="M95" s="128"/>
-      <c r="N95" s="122"/>
-      <c r="O95" s="122"/>
-      <c r="P95" s="122"/>
-      <c r="Q95" s="122"/>
-      <c r="R95" s="122"/>
-      <c r="S95" s="122"/>
-      <c r="T95" s="122"/>
-      <c r="U95" s="122"/>
-      <c r="V95" s="122"/>
-      <c r="W95" s="122"/>
-      <c r="X95" s="122"/>
-      <c r="Y95" s="122"/>
-      <c r="Z95" s="122"/>
-      <c r="AA95" s="122"/>
-      <c r="AB95" s="122"/>
-      <c r="AC95" s="122"/>
-      <c r="AD95" s="122"/>
-      <c r="AE95" s="122"/>
-      <c r="AF95" s="122"/>
-      <c r="AG95" s="122"/>
-      <c r="AH95" s="122"/>
+      <c r="A95" s="120"/>
+      <c r="B95" s="121"/>
+      <c r="C95" s="121"/>
+      <c r="D95" s="121"/>
+      <c r="E95" s="121"/>
+      <c r="F95" s="121"/>
+      <c r="G95" s="121"/>
+      <c r="H95" s="121"/>
+      <c r="I95" s="121"/>
+      <c r="J95" s="125"/>
+      <c r="K95" s="121"/>
+      <c r="L95" s="121"/>
+      <c r="M95" s="127"/>
+      <c r="N95" s="121"/>
+      <c r="O95" s="121"/>
+      <c r="P95" s="121"/>
+      <c r="Q95" s="121"/>
+      <c r="R95" s="121"/>
+      <c r="S95" s="121"/>
+      <c r="T95" s="121"/>
+      <c r="U95" s="121"/>
+      <c r="V95" s="121"/>
+      <c r="W95" s="121"/>
+      <c r="X95" s="121"/>
+      <c r="Y95" s="121"/>
+      <c r="Z95" s="121"/>
+      <c r="AA95" s="121"/>
+      <c r="AB95" s="121"/>
+      <c r="AC95" s="121"/>
+      <c r="AD95" s="121"/>
+      <c r="AE95" s="121"/>
+      <c r="AF95" s="121"/>
+      <c r="AG95" s="121"/>
+      <c r="AH95" s="121"/>
     </row>
     <row r="96" spans="1:34">
-      <c r="A96" s="121"/>
-      <c r="B96" s="122"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="122"/>
-      <c r="E96" s="122"/>
-      <c r="F96" s="122"/>
-      <c r="G96" s="122"/>
-      <c r="H96" s="122"/>
-      <c r="I96" s="122"/>
-      <c r="J96" s="126"/>
-      <c r="K96" s="122"/>
-      <c r="L96" s="122"/>
-      <c r="M96" s="128"/>
-      <c r="N96" s="122"/>
-      <c r="O96" s="122"/>
-      <c r="P96" s="122"/>
-      <c r="Q96" s="122"/>
-      <c r="R96" s="122"/>
-      <c r="S96" s="122"/>
-      <c r="T96" s="122"/>
-      <c r="U96" s="122"/>
-      <c r="V96" s="122"/>
-      <c r="W96" s="122"/>
-      <c r="X96" s="122"/>
-      <c r="Y96" s="122"/>
-      <c r="Z96" s="122"/>
-      <c r="AA96" s="122"/>
-      <c r="AB96" s="122"/>
-      <c r="AC96" s="122"/>
-      <c r="AD96" s="122"/>
-      <c r="AE96" s="122"/>
-      <c r="AF96" s="122"/>
-      <c r="AG96" s="122"/>
-      <c r="AH96" s="122"/>
+      <c r="A96" s="120"/>
+      <c r="B96" s="121"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="121"/>
+      <c r="F96" s="121"/>
+      <c r="G96" s="121"/>
+      <c r="H96" s="121"/>
+      <c r="I96" s="121"/>
+      <c r="J96" s="125"/>
+      <c r="K96" s="121"/>
+      <c r="L96" s="121"/>
+      <c r="M96" s="127"/>
+      <c r="N96" s="121"/>
+      <c r="O96" s="121"/>
+      <c r="P96" s="121"/>
+      <c r="Q96" s="121"/>
+      <c r="R96" s="121"/>
+      <c r="S96" s="121"/>
+      <c r="T96" s="121"/>
+      <c r="U96" s="121"/>
+      <c r="V96" s="121"/>
+      <c r="W96" s="121"/>
+      <c r="X96" s="121"/>
+      <c r="Y96" s="121"/>
+      <c r="Z96" s="121"/>
+      <c r="AA96" s="121"/>
+      <c r="AB96" s="121"/>
+      <c r="AC96" s="121"/>
+      <c r="AD96" s="121"/>
+      <c r="AE96" s="121"/>
+      <c r="AF96" s="121"/>
+      <c r="AG96" s="121"/>
+      <c r="AH96" s="121"/>
     </row>
     <row r="97" spans="1:34">
-      <c r="A97" s="121"/>
-      <c r="B97" s="122"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="122"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="122"/>
-      <c r="G97" s="122"/>
-      <c r="H97" s="122"/>
-      <c r="I97" s="122"/>
-      <c r="J97" s="126"/>
-      <c r="K97" s="122"/>
-      <c r="L97" s="122"/>
-      <c r="M97" s="128"/>
-      <c r="N97" s="122"/>
-      <c r="O97" s="122"/>
-      <c r="P97" s="122"/>
-      <c r="Q97" s="122"/>
-      <c r="R97" s="122"/>
-      <c r="S97" s="122"/>
-      <c r="T97" s="122"/>
-      <c r="U97" s="122"/>
-      <c r="V97" s="122"/>
-      <c r="W97" s="122"/>
-      <c r="X97" s="122"/>
-      <c r="Y97" s="122"/>
-      <c r="Z97" s="122"/>
-      <c r="AA97" s="122"/>
-      <c r="AB97" s="122"/>
-      <c r="AC97" s="122"/>
-      <c r="AD97" s="122"/>
-      <c r="AE97" s="122"/>
-      <c r="AF97" s="122"/>
-      <c r="AG97" s="122"/>
-      <c r="AH97" s="122"/>
+      <c r="A97" s="120"/>
+      <c r="B97" s="121"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="121"/>
+      <c r="I97" s="121"/>
+      <c r="J97" s="125"/>
+      <c r="K97" s="121"/>
+      <c r="L97" s="121"/>
+      <c r="M97" s="127"/>
+      <c r="N97" s="121"/>
+      <c r="O97" s="121"/>
+      <c r="P97" s="121"/>
+      <c r="Q97" s="121"/>
+      <c r="R97" s="121"/>
+      <c r="S97" s="121"/>
+      <c r="T97" s="121"/>
+      <c r="U97" s="121"/>
+      <c r="V97" s="121"/>
+      <c r="W97" s="121"/>
+      <c r="X97" s="121"/>
+      <c r="Y97" s="121"/>
+      <c r="Z97" s="121"/>
+      <c r="AA97" s="121"/>
+      <c r="AB97" s="121"/>
+      <c r="AC97" s="121"/>
+      <c r="AD97" s="121"/>
+      <c r="AE97" s="121"/>
+      <c r="AF97" s="121"/>
+      <c r="AG97" s="121"/>
+      <c r="AH97" s="121"/>
     </row>
     <row r="98" spans="1:34">
-      <c r="A98" s="121"/>
-      <c r="B98" s="122"/>
-      <c r="C98" s="122"/>
-      <c r="D98" s="122"/>
-      <c r="E98" s="122"/>
-      <c r="F98" s="122"/>
-      <c r="G98" s="122"/>
-      <c r="H98" s="122"/>
-      <c r="I98" s="122"/>
-      <c r="J98" s="126"/>
-      <c r="K98" s="122"/>
-      <c r="L98" s="122"/>
-      <c r="M98" s="128"/>
-      <c r="N98" s="122"/>
-      <c r="O98" s="122"/>
-      <c r="P98" s="122"/>
-      <c r="Q98" s="122"/>
-      <c r="R98" s="122"/>
-      <c r="S98" s="122"/>
-      <c r="T98" s="122"/>
-      <c r="U98" s="122"/>
-      <c r="V98" s="122"/>
-      <c r="W98" s="122"/>
-      <c r="X98" s="122"/>
-      <c r="Y98" s="122"/>
-      <c r="Z98" s="122"/>
-      <c r="AA98" s="122"/>
-      <c r="AB98" s="122"/>
-      <c r="AC98" s="122"/>
-      <c r="AD98" s="122"/>
-      <c r="AE98" s="122"/>
-      <c r="AF98" s="122"/>
-      <c r="AG98" s="122"/>
-      <c r="AH98" s="122"/>
+      <c r="A98" s="120"/>
+      <c r="B98" s="121"/>
+      <c r="C98" s="121"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
+      <c r="G98" s="121"/>
+      <c r="H98" s="121"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="125"/>
+      <c r="K98" s="121"/>
+      <c r="L98" s="121"/>
+      <c r="M98" s="127"/>
+      <c r="N98" s="121"/>
+      <c r="O98" s="121"/>
+      <c r="P98" s="121"/>
+      <c r="Q98" s="121"/>
+      <c r="R98" s="121"/>
+      <c r="S98" s="121"/>
+      <c r="T98" s="121"/>
+      <c r="U98" s="121"/>
+      <c r="V98" s="121"/>
+      <c r="W98" s="121"/>
+      <c r="X98" s="121"/>
+      <c r="Y98" s="121"/>
+      <c r="Z98" s="121"/>
+      <c r="AA98" s="121"/>
+      <c r="AB98" s="121"/>
+      <c r="AC98" s="121"/>
+      <c r="AD98" s="121"/>
+      <c r="AE98" s="121"/>
+      <c r="AF98" s="121"/>
+      <c r="AG98" s="121"/>
+      <c r="AH98" s="121"/>
     </row>
     <row r="99" spans="1:34">
-      <c r="A99" s="121"/>
-      <c r="B99" s="122"/>
-      <c r="C99" s="122"/>
-      <c r="D99" s="122"/>
-      <c r="E99" s="122"/>
-      <c r="F99" s="122"/>
-      <c r="G99" s="122"/>
-      <c r="H99" s="122"/>
-      <c r="I99" s="122"/>
-      <c r="J99" s="126"/>
-      <c r="K99" s="122"/>
-      <c r="L99" s="122"/>
-      <c r="M99" s="128"/>
-      <c r="N99" s="122"/>
-      <c r="O99" s="122"/>
-      <c r="P99" s="122"/>
-      <c r="Q99" s="122"/>
-      <c r="R99" s="122"/>
-      <c r="S99" s="122"/>
-      <c r="T99" s="122"/>
-      <c r="U99" s="122"/>
-      <c r="V99" s="122"/>
-      <c r="W99" s="122"/>
-      <c r="X99" s="122"/>
-      <c r="Y99" s="122"/>
-      <c r="Z99" s="122"/>
-      <c r="AA99" s="122"/>
-      <c r="AB99" s="122"/>
-      <c r="AC99" s="122"/>
-      <c r="AD99" s="122"/>
-      <c r="AE99" s="122"/>
-      <c r="AF99" s="122"/>
-      <c r="AG99" s="122"/>
-      <c r="AH99" s="122"/>
+      <c r="A99" s="120"/>
+      <c r="B99" s="121"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="121"/>
+      <c r="H99" s="121"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="125"/>
+      <c r="K99" s="121"/>
+      <c r="L99" s="121"/>
+      <c r="M99" s="127"/>
+      <c r="N99" s="121"/>
+      <c r="O99" s="121"/>
+      <c r="P99" s="121"/>
+      <c r="Q99" s="121"/>
+      <c r="R99" s="121"/>
+      <c r="S99" s="121"/>
+      <c r="T99" s="121"/>
+      <c r="U99" s="121"/>
+      <c r="V99" s="121"/>
+      <c r="W99" s="121"/>
+      <c r="X99" s="121"/>
+      <c r="Y99" s="121"/>
+      <c r="Z99" s="121"/>
+      <c r="AA99" s="121"/>
+      <c r="AB99" s="121"/>
+      <c r="AC99" s="121"/>
+      <c r="AD99" s="121"/>
+      <c r="AE99" s="121"/>
+      <c r="AF99" s="121"/>
+      <c r="AG99" s="121"/>
+      <c r="AH99" s="121"/>
     </row>
     <row r="100" spans="1:34">
-      <c r="A100" s="121"/>
-      <c r="B100" s="122"/>
-      <c r="C100" s="122"/>
-      <c r="D100" s="122"/>
-      <c r="E100" s="122"/>
-      <c r="F100" s="122"/>
-      <c r="G100" s="122"/>
-      <c r="H100" s="122"/>
-      <c r="I100" s="122"/>
-      <c r="J100" s="126"/>
-      <c r="K100" s="122"/>
-      <c r="L100" s="122"/>
-      <c r="M100" s="128"/>
-      <c r="N100" s="122"/>
-      <c r="O100" s="122"/>
-      <c r="P100" s="122"/>
-      <c r="Q100" s="122"/>
-      <c r="R100" s="122"/>
-      <c r="S100" s="122"/>
-      <c r="T100" s="122"/>
-      <c r="U100" s="122"/>
-      <c r="V100" s="122"/>
-      <c r="W100" s="122"/>
-      <c r="X100" s="122"/>
-      <c r="Y100" s="122"/>
-      <c r="Z100" s="122"/>
-      <c r="AA100" s="122"/>
-      <c r="AB100" s="122"/>
-      <c r="AC100" s="122"/>
-      <c r="AD100" s="122"/>
-      <c r="AE100" s="122"/>
-      <c r="AF100" s="122"/>
-      <c r="AG100" s="122"/>
-      <c r="AH100" s="122"/>
+      <c r="A100" s="120"/>
+      <c r="B100" s="121"/>
+      <c r="C100" s="121"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="121"/>
+      <c r="G100" s="121"/>
+      <c r="H100" s="121"/>
+      <c r="I100" s="121"/>
+      <c r="J100" s="125"/>
+      <c r="K100" s="121"/>
+      <c r="L100" s="121"/>
+      <c r="M100" s="127"/>
+      <c r="N100" s="121"/>
+      <c r="O100" s="121"/>
+      <c r="P100" s="121"/>
+      <c r="Q100" s="121"/>
+      <c r="R100" s="121"/>
+      <c r="S100" s="121"/>
+      <c r="T100" s="121"/>
+      <c r="U100" s="121"/>
+      <c r="V100" s="121"/>
+      <c r="W100" s="121"/>
+      <c r="X100" s="121"/>
+      <c r="Y100" s="121"/>
+      <c r="Z100" s="121"/>
+      <c r="AA100" s="121"/>
+      <c r="AB100" s="121"/>
+      <c r="AC100" s="121"/>
+      <c r="AD100" s="121"/>
+      <c r="AE100" s="121"/>
+      <c r="AF100" s="121"/>
+      <c r="AG100" s="121"/>
+      <c r="AH100" s="121"/>
     </row>
     <row r="101" spans="1:34">
-      <c r="A101" s="121"/>
-      <c r="B101" s="122"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="122"/>
-      <c r="E101" s="122"/>
-      <c r="F101" s="122"/>
-      <c r="G101" s="122"/>
-      <c r="H101" s="122"/>
-      <c r="I101" s="122"/>
-      <c r="J101" s="126"/>
-      <c r="K101" s="122"/>
-      <c r="L101" s="122"/>
-      <c r="M101" s="128"/>
-      <c r="N101" s="122"/>
-      <c r="O101" s="122"/>
-      <c r="P101" s="122"/>
-      <c r="Q101" s="122"/>
-      <c r="R101" s="122"/>
-      <c r="S101" s="122"/>
-      <c r="T101" s="122"/>
-      <c r="U101" s="122"/>
-      <c r="V101" s="122"/>
-      <c r="W101" s="122"/>
-      <c r="X101" s="122"/>
-      <c r="Y101" s="122"/>
-      <c r="Z101" s="122"/>
-      <c r="AA101" s="122"/>
-      <c r="AB101" s="122"/>
-      <c r="AC101" s="122"/>
-      <c r="AD101" s="122"/>
-      <c r="AE101" s="122"/>
-      <c r="AF101" s="122"/>
-      <c r="AG101" s="122"/>
-      <c r="AH101" s="122"/>
+      <c r="A101" s="120"/>
+      <c r="B101" s="121"/>
+      <c r="C101" s="121"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
+      <c r="G101" s="121"/>
+      <c r="H101" s="121"/>
+      <c r="I101" s="121"/>
+      <c r="J101" s="125"/>
+      <c r="K101" s="121"/>
+      <c r="L101" s="121"/>
+      <c r="M101" s="127"/>
+      <c r="N101" s="121"/>
+      <c r="O101" s="121"/>
+      <c r="P101" s="121"/>
+      <c r="Q101" s="121"/>
+      <c r="R101" s="121"/>
+      <c r="S101" s="121"/>
+      <c r="T101" s="121"/>
+      <c r="U101" s="121"/>
+      <c r="V101" s="121"/>
+      <c r="W101" s="121"/>
+      <c r="X101" s="121"/>
+      <c r="Y101" s="121"/>
+      <c r="Z101" s="121"/>
+      <c r="AA101" s="121"/>
+      <c r="AB101" s="121"/>
+      <c r="AC101" s="121"/>
+      <c r="AD101" s="121"/>
+      <c r="AE101" s="121"/>
+      <c r="AF101" s="121"/>
+      <c r="AG101" s="121"/>
+      <c r="AH101" s="121"/>
     </row>
     <row r="102" spans="1:34">
-      <c r="A102" s="121"/>
-      <c r="B102" s="122"/>
-      <c r="C102" s="122"/>
-      <c r="D102" s="122"/>
-      <c r="E102" s="122"/>
-      <c r="F102" s="122"/>
-      <c r="G102" s="122"/>
-      <c r="H102" s="122"/>
-      <c r="I102" s="122"/>
-      <c r="J102" s="126"/>
-      <c r="K102" s="122"/>
-      <c r="L102" s="122"/>
-      <c r="M102" s="128"/>
-      <c r="N102" s="122"/>
-      <c r="O102" s="122"/>
-      <c r="P102" s="122"/>
-      <c r="Q102" s="122"/>
-      <c r="R102" s="122"/>
-      <c r="S102" s="122"/>
-      <c r="T102" s="122"/>
-      <c r="U102" s="122"/>
-      <c r="V102" s="122"/>
-      <c r="W102" s="122"/>
-      <c r="X102" s="122"/>
-      <c r="Y102" s="122"/>
-      <c r="Z102" s="122"/>
-      <c r="AA102" s="122"/>
-      <c r="AB102" s="122"/>
-      <c r="AC102" s="122"/>
-      <c r="AD102" s="122"/>
-      <c r="AE102" s="122"/>
-      <c r="AF102" s="122"/>
-      <c r="AG102" s="122"/>
-      <c r="AH102" s="122"/>
+      <c r="A102" s="120"/>
+      <c r="B102" s="121"/>
+      <c r="C102" s="121"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="121"/>
+      <c r="H102" s="121"/>
+      <c r="I102" s="121"/>
+      <c r="J102" s="125"/>
+      <c r="K102" s="121"/>
+      <c r="L102" s="121"/>
+      <c r="M102" s="127"/>
+      <c r="N102" s="121"/>
+      <c r="O102" s="121"/>
+      <c r="P102" s="121"/>
+      <c r="Q102" s="121"/>
+      <c r="R102" s="121"/>
+      <c r="S102" s="121"/>
+      <c r="T102" s="121"/>
+      <c r="U102" s="121"/>
+      <c r="V102" s="121"/>
+      <c r="W102" s="121"/>
+      <c r="X102" s="121"/>
+      <c r="Y102" s="121"/>
+      <c r="Z102" s="121"/>
+      <c r="AA102" s="121"/>
+      <c r="AB102" s="121"/>
+      <c r="AC102" s="121"/>
+      <c r="AD102" s="121"/>
+      <c r="AE102" s="121"/>
+      <c r="AF102" s="121"/>
+      <c r="AG102" s="121"/>
+      <c r="AH102" s="121"/>
     </row>
     <row r="103" spans="1:34">
-      <c r="A103" s="121"/>
-      <c r="B103" s="122"/>
-      <c r="C103" s="122"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
-      <c r="F103" s="122"/>
-      <c r="G103" s="122"/>
-      <c r="H103" s="122"/>
-      <c r="I103" s="122"/>
-      <c r="J103" s="126"/>
-      <c r="K103" s="122"/>
-      <c r="L103" s="122"/>
-      <c r="M103" s="128"/>
-      <c r="N103" s="122"/>
-      <c r="O103" s="122"/>
-      <c r="P103" s="122"/>
-      <c r="Q103" s="122"/>
-      <c r="R103" s="122"/>
-      <c r="S103" s="122"/>
-      <c r="T103" s="122"/>
-      <c r="U103" s="122"/>
-      <c r="V103" s="122"/>
-      <c r="W103" s="122"/>
-      <c r="X103" s="122"/>
-      <c r="Y103" s="122"/>
-      <c r="Z103" s="122"/>
-      <c r="AA103" s="122"/>
-      <c r="AB103" s="122"/>
-      <c r="AC103" s="122"/>
-      <c r="AD103" s="122"/>
-      <c r="AE103" s="122"/>
-      <c r="AF103" s="122"/>
-      <c r="AG103" s="122"/>
-      <c r="AH103" s="122"/>
+      <c r="A103" s="120"/>
+      <c r="B103" s="121"/>
+      <c r="C103" s="121"/>
+      <c r="D103" s="121"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
+      <c r="G103" s="121"/>
+      <c r="H103" s="121"/>
+      <c r="I103" s="121"/>
+      <c r="J103" s="125"/>
+      <c r="K103" s="121"/>
+      <c r="L103" s="121"/>
+      <c r="M103" s="127"/>
+      <c r="N103" s="121"/>
+      <c r="O103" s="121"/>
+      <c r="P103" s="121"/>
+      <c r="Q103" s="121"/>
+      <c r="R103" s="121"/>
+      <c r="S103" s="121"/>
+      <c r="T103" s="121"/>
+      <c r="U103" s="121"/>
+      <c r="V103" s="121"/>
+      <c r="W103" s="121"/>
+      <c r="X103" s="121"/>
+      <c r="Y103" s="121"/>
+      <c r="Z103" s="121"/>
+      <c r="AA103" s="121"/>
+      <c r="AB103" s="121"/>
+      <c r="AC103" s="121"/>
+      <c r="AD103" s="121"/>
+      <c r="AE103" s="121"/>
+      <c r="AF103" s="121"/>
+      <c r="AG103" s="121"/>
+      <c r="AH103" s="121"/>
     </row>
     <row r="104" spans="1:34">
-      <c r="A104" s="121"/>
-      <c r="B104" s="122"/>
-      <c r="C104" s="122"/>
-      <c r="D104" s="122"/>
-      <c r="E104" s="122"/>
-      <c r="F104" s="122"/>
-      <c r="G104" s="122"/>
-      <c r="H104" s="122"/>
-      <c r="I104" s="122"/>
-      <c r="J104" s="126"/>
-      <c r="K104" s="122"/>
-      <c r="L104" s="122"/>
-      <c r="M104" s="128"/>
-      <c r="N104" s="122"/>
-      <c r="O104" s="122"/>
-      <c r="P104" s="122"/>
-      <c r="Q104" s="122"/>
-      <c r="R104" s="122"/>
-      <c r="S104" s="122"/>
-      <c r="T104" s="122"/>
-      <c r="U104" s="122"/>
-      <c r="V104" s="122"/>
-      <c r="W104" s="122"/>
-      <c r="X104" s="122"/>
-      <c r="Y104" s="122"/>
-      <c r="Z104" s="122"/>
-      <c r="AA104" s="122"/>
-      <c r="AB104" s="122"/>
-      <c r="AC104" s="122"/>
-      <c r="AD104" s="122"/>
-      <c r="AE104" s="122"/>
-      <c r="AF104" s="122"/>
-      <c r="AG104" s="122"/>
-      <c r="AH104" s="122"/>
+      <c r="A104" s="120"/>
+      <c r="B104" s="121"/>
+      <c r="C104" s="121"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="121"/>
+      <c r="G104" s="121"/>
+      <c r="H104" s="121"/>
+      <c r="I104" s="121"/>
+      <c r="J104" s="125"/>
+      <c r="K104" s="121"/>
+      <c r="L104" s="121"/>
+      <c r="M104" s="127"/>
+      <c r="N104" s="121"/>
+      <c r="O104" s="121"/>
+      <c r="P104" s="121"/>
+      <c r="Q104" s="121"/>
+      <c r="R104" s="121"/>
+      <c r="S104" s="121"/>
+      <c r="T104" s="121"/>
+      <c r="U104" s="121"/>
+      <c r="V104" s="121"/>
+      <c r="W104" s="121"/>
+      <c r="X104" s="121"/>
+      <c r="Y104" s="121"/>
+      <c r="Z104" s="121"/>
+      <c r="AA104" s="121"/>
+      <c r="AB104" s="121"/>
+      <c r="AC104" s="121"/>
+      <c r="AD104" s="121"/>
+      <c r="AE104" s="121"/>
+      <c r="AF104" s="121"/>
+      <c r="AG104" s="121"/>
+      <c r="AH104" s="121"/>
     </row>
     <row r="105" spans="1:34">
-      <c r="A105" s="121"/>
-      <c r="B105" s="122"/>
-      <c r="C105" s="122"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="122"/>
-      <c r="F105" s="122"/>
-      <c r="G105" s="122"/>
-      <c r="H105" s="122"/>
-      <c r="I105" s="122"/>
-      <c r="J105" s="126"/>
-      <c r="K105" s="122"/>
-      <c r="L105" s="122"/>
-      <c r="M105" s="128"/>
-      <c r="N105" s="122"/>
-      <c r="O105" s="122"/>
-      <c r="P105" s="122"/>
-      <c r="Q105" s="122"/>
-      <c r="R105" s="122"/>
-      <c r="S105" s="122"/>
-      <c r="T105" s="122"/>
-      <c r="U105" s="122"/>
-      <c r="V105" s="122"/>
-      <c r="W105" s="122"/>
-      <c r="X105" s="122"/>
-      <c r="Y105" s="122"/>
-      <c r="Z105" s="122"/>
-      <c r="AA105" s="122"/>
-      <c r="AB105" s="122"/>
-      <c r="AC105" s="122"/>
-      <c r="AD105" s="122"/>
-      <c r="AE105" s="122"/>
-      <c r="AF105" s="122"/>
-      <c r="AG105" s="122"/>
-      <c r="AH105" s="122"/>
+      <c r="A105" s="120"/>
+      <c r="B105" s="121"/>
+      <c r="C105" s="121"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="121"/>
+      <c r="G105" s="121"/>
+      <c r="H105" s="121"/>
+      <c r="I105" s="121"/>
+      <c r="J105" s="125"/>
+      <c r="K105" s="121"/>
+      <c r="L105" s="121"/>
+      <c r="M105" s="127"/>
+      <c r="N105" s="121"/>
+      <c r="O105" s="121"/>
+      <c r="P105" s="121"/>
+      <c r="Q105" s="121"/>
+      <c r="R105" s="121"/>
+      <c r="S105" s="121"/>
+      <c r="T105" s="121"/>
+      <c r="U105" s="121"/>
+      <c r="V105" s="121"/>
+      <c r="W105" s="121"/>
+      <c r="X105" s="121"/>
+      <c r="Y105" s="121"/>
+      <c r="Z105" s="121"/>
+      <c r="AA105" s="121"/>
+      <c r="AB105" s="121"/>
+      <c r="AC105" s="121"/>
+      <c r="AD105" s="121"/>
+      <c r="AE105" s="121"/>
+      <c r="AF105" s="121"/>
+      <c r="AG105" s="121"/>
+      <c r="AH105" s="121"/>
     </row>
     <row r="106" spans="1:34">
-      <c r="A106" s="121"/>
-      <c r="B106" s="122"/>
-      <c r="C106" s="122"/>
-      <c r="D106" s="122"/>
-      <c r="E106" s="122"/>
-      <c r="F106" s="122"/>
-      <c r="G106" s="122"/>
-      <c r="H106" s="122"/>
-      <c r="I106" s="122"/>
-      <c r="J106" s="126"/>
-      <c r="K106" s="122"/>
-      <c r="L106" s="122"/>
-      <c r="M106" s="128"/>
-      <c r="N106" s="122"/>
-      <c r="O106" s="122"/>
-      <c r="P106" s="122"/>
-      <c r="Q106" s="122"/>
-      <c r="R106" s="122"/>
-      <c r="S106" s="122"/>
-      <c r="T106" s="122"/>
-      <c r="U106" s="122"/>
-      <c r="V106" s="122"/>
-      <c r="W106" s="122"/>
-      <c r="X106" s="122"/>
-      <c r="Y106" s="122"/>
-      <c r="Z106" s="122"/>
-      <c r="AA106" s="122"/>
-      <c r="AB106" s="122"/>
-      <c r="AC106" s="122"/>
-      <c r="AD106" s="122"/>
-      <c r="AE106" s="122"/>
-      <c r="AF106" s="122"/>
-      <c r="AG106" s="122"/>
-      <c r="AH106" s="122"/>
+      <c r="A106" s="120"/>
+      <c r="B106" s="121"/>
+      <c r="C106" s="121"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="121"/>
+      <c r="G106" s="121"/>
+      <c r="H106" s="121"/>
+      <c r="I106" s="121"/>
+      <c r="J106" s="125"/>
+      <c r="K106" s="121"/>
+      <c r="L106" s="121"/>
+      <c r="M106" s="127"/>
+      <c r="N106" s="121"/>
+      <c r="O106" s="121"/>
+      <c r="P106" s="121"/>
+      <c r="Q106" s="121"/>
+      <c r="R106" s="121"/>
+      <c r="S106" s="121"/>
+      <c r="T106" s="121"/>
+      <c r="U106" s="121"/>
+      <c r="V106" s="121"/>
+      <c r="W106" s="121"/>
+      <c r="X106" s="121"/>
+      <c r="Y106" s="121"/>
+      <c r="Z106" s="121"/>
+      <c r="AA106" s="121"/>
+      <c r="AB106" s="121"/>
+      <c r="AC106" s="121"/>
+      <c r="AD106" s="121"/>
+      <c r="AE106" s="121"/>
+      <c r="AF106" s="121"/>
+      <c r="AG106" s="121"/>
+      <c r="AH106" s="121"/>
     </row>
     <row r="107" spans="1:34">
-      <c r="A107" s="121"/>
-      <c r="B107" s="122"/>
-      <c r="C107" s="122"/>
-      <c r="D107" s="122"/>
-      <c r="E107" s="122"/>
-      <c r="F107" s="122"/>
-      <c r="G107" s="122"/>
-      <c r="H107" s="122"/>
-      <c r="I107" s="122"/>
-      <c r="J107" s="126"/>
-      <c r="K107" s="122"/>
-      <c r="L107" s="122"/>
-      <c r="M107" s="128"/>
-      <c r="N107" s="122"/>
-      <c r="O107" s="122"/>
-      <c r="P107" s="122"/>
-      <c r="Q107" s="122"/>
-      <c r="R107" s="122"/>
-      <c r="S107" s="122"/>
-      <c r="T107" s="122"/>
-      <c r="U107" s="122"/>
-      <c r="V107" s="122"/>
-      <c r="W107" s="122"/>
-      <c r="X107" s="122"/>
-      <c r="Y107" s="122"/>
-      <c r="Z107" s="122"/>
-      <c r="AA107" s="122"/>
-      <c r="AB107" s="122"/>
-      <c r="AC107" s="122"/>
-      <c r="AD107" s="122"/>
-      <c r="AE107" s="122"/>
-      <c r="AF107" s="122"/>
-      <c r="AG107" s="122"/>
-      <c r="AH107" s="122"/>
+      <c r="A107" s="120"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="121"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
+      <c r="G107" s="121"/>
+      <c r="H107" s="121"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="125"/>
+      <c r="K107" s="121"/>
+      <c r="L107" s="121"/>
+      <c r="M107" s="127"/>
+      <c r="N107" s="121"/>
+      <c r="O107" s="121"/>
+      <c r="P107" s="121"/>
+      <c r="Q107" s="121"/>
+      <c r="R107" s="121"/>
+      <c r="S107" s="121"/>
+      <c r="T107" s="121"/>
+      <c r="U107" s="121"/>
+      <c r="V107" s="121"/>
+      <c r="W107" s="121"/>
+      <c r="X107" s="121"/>
+      <c r="Y107" s="121"/>
+      <c r="Z107" s="121"/>
+      <c r="AA107" s="121"/>
+      <c r="AB107" s="121"/>
+      <c r="AC107" s="121"/>
+      <c r="AD107" s="121"/>
+      <c r="AE107" s="121"/>
+      <c r="AF107" s="121"/>
+      <c r="AG107" s="121"/>
+      <c r="AH107" s="121"/>
     </row>
     <row r="108" spans="1:34">
-      <c r="A108" s="121"/>
-      <c r="B108" s="122"/>
-      <c r="C108" s="122"/>
-      <c r="D108" s="122"/>
-      <c r="E108" s="122"/>
-      <c r="F108" s="122"/>
-      <c r="G108" s="122"/>
-      <c r="H108" s="122"/>
-      <c r="I108" s="122"/>
-      <c r="J108" s="126"/>
-      <c r="K108" s="122"/>
-      <c r="L108" s="122"/>
-      <c r="M108" s="128"/>
-      <c r="N108" s="122"/>
-      <c r="O108" s="122"/>
-      <c r="P108" s="122"/>
-      <c r="Q108" s="122"/>
-      <c r="R108" s="122"/>
-      <c r="S108" s="122"/>
-      <c r="T108" s="122"/>
-      <c r="U108" s="122"/>
-      <c r="V108" s="122"/>
-      <c r="W108" s="122"/>
-      <c r="X108" s="122"/>
-      <c r="Y108" s="122"/>
-      <c r="Z108" s="122"/>
-      <c r="AA108" s="122"/>
-      <c r="AB108" s="122"/>
-      <c r="AC108" s="122"/>
-      <c r="AD108" s="122"/>
-      <c r="AE108" s="122"/>
-      <c r="AF108" s="122"/>
-      <c r="AG108" s="122"/>
-      <c r="AH108" s="122"/>
+      <c r="A108" s="120"/>
+      <c r="B108" s="121"/>
+      <c r="C108" s="121"/>
+      <c r="D108" s="121"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="121"/>
+      <c r="G108" s="121"/>
+      <c r="H108" s="121"/>
+      <c r="I108" s="121"/>
+      <c r="J108" s="125"/>
+      <c r="K108" s="121"/>
+      <c r="L108" s="121"/>
+      <c r="M108" s="127"/>
+      <c r="N108" s="121"/>
+      <c r="O108" s="121"/>
+      <c r="P108" s="121"/>
+      <c r="Q108" s="121"/>
+      <c r="R108" s="121"/>
+      <c r="S108" s="121"/>
+      <c r="T108" s="121"/>
+      <c r="U108" s="121"/>
+      <c r="V108" s="121"/>
+      <c r="W108" s="121"/>
+      <c r="X108" s="121"/>
+      <c r="Y108" s="121"/>
+      <c r="Z108" s="121"/>
+      <c r="AA108" s="121"/>
+      <c r="AB108" s="121"/>
+      <c r="AC108" s="121"/>
+      <c r="AD108" s="121"/>
+      <c r="AE108" s="121"/>
+      <c r="AF108" s="121"/>
+      <c r="AG108" s="121"/>
+      <c r="AH108" s="121"/>
     </row>
     <row r="109" spans="1:34">
-      <c r="A109" s="121"/>
-      <c r="B109" s="122"/>
-      <c r="C109" s="122"/>
-      <c r="D109" s="122"/>
-      <c r="E109" s="122"/>
-      <c r="F109" s="122"/>
-      <c r="G109" s="122"/>
-      <c r="H109" s="122"/>
-      <c r="I109" s="122"/>
-      <c r="J109" s="126"/>
-      <c r="K109" s="122"/>
-      <c r="L109" s="122"/>
-      <c r="M109" s="128"/>
-      <c r="N109" s="122"/>
-      <c r="O109" s="122"/>
-      <c r="P109" s="122"/>
-      <c r="Q109" s="122"/>
-      <c r="R109" s="122"/>
-      <c r="S109" s="122"/>
-      <c r="T109" s="122"/>
-      <c r="U109" s="122"/>
-      <c r="V109" s="122"/>
-      <c r="W109" s="122"/>
-      <c r="X109" s="122"/>
-      <c r="Y109" s="122"/>
-      <c r="Z109" s="122"/>
-      <c r="AA109" s="122"/>
-      <c r="AB109" s="122"/>
-      <c r="AC109" s="122"/>
-      <c r="AD109" s="122"/>
-      <c r="AE109" s="122"/>
-      <c r="AF109" s="122"/>
-      <c r="AG109" s="122"/>
-      <c r="AH109" s="122"/>
+      <c r="A109" s="120"/>
+      <c r="B109" s="121"/>
+      <c r="C109" s="121"/>
+      <c r="D109" s="121"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="121"/>
+      <c r="G109" s="121"/>
+      <c r="H109" s="121"/>
+      <c r="I109" s="121"/>
+      <c r="J109" s="125"/>
+      <c r="K109" s="121"/>
+      <c r="L109" s="121"/>
+      <c r="M109" s="127"/>
+      <c r="N109" s="121"/>
+      <c r="O109" s="121"/>
+      <c r="P109" s="121"/>
+      <c r="Q109" s="121"/>
+      <c r="R109" s="121"/>
+      <c r="S109" s="121"/>
+      <c r="T109" s="121"/>
+      <c r="U109" s="121"/>
+      <c r="V109" s="121"/>
+      <c r="W109" s="121"/>
+      <c r="X109" s="121"/>
+      <c r="Y109" s="121"/>
+      <c r="Z109" s="121"/>
+      <c r="AA109" s="121"/>
+      <c r="AB109" s="121"/>
+      <c r="AC109" s="121"/>
+      <c r="AD109" s="121"/>
+      <c r="AE109" s="121"/>
+      <c r="AF109" s="121"/>
+      <c r="AG109" s="121"/>
+      <c r="AH109" s="121"/>
     </row>
     <row r="110" spans="1:34">
-      <c r="A110" s="121"/>
-      <c r="B110" s="122"/>
-      <c r="C110" s="122"/>
-      <c r="D110" s="122"/>
-      <c r="E110" s="122"/>
-      <c r="F110" s="122"/>
-      <c r="G110" s="122"/>
-      <c r="H110" s="122"/>
-      <c r="I110" s="122"/>
-      <c r="J110" s="126"/>
-      <c r="K110" s="122"/>
-      <c r="L110" s="122"/>
-      <c r="M110" s="128"/>
-      <c r="N110" s="122"/>
-      <c r="O110" s="122"/>
-      <c r="P110" s="122"/>
-      <c r="Q110" s="122"/>
-      <c r="R110" s="122"/>
-      <c r="S110" s="122"/>
-      <c r="T110" s="122"/>
-      <c r="U110" s="122"/>
-      <c r="V110" s="122"/>
-      <c r="W110" s="122"/>
-      <c r="X110" s="122"/>
-      <c r="Y110" s="122"/>
-      <c r="Z110" s="122"/>
-      <c r="AA110" s="122"/>
-      <c r="AB110" s="122"/>
-      <c r="AC110" s="122"/>
-      <c r="AD110" s="122"/>
-      <c r="AE110" s="122"/>
-      <c r="AF110" s="122"/>
-      <c r="AG110" s="122"/>
-      <c r="AH110" s="122"/>
+      <c r="A110" s="120"/>
+      <c r="B110" s="121"/>
+      <c r="C110" s="121"/>
+      <c r="D110" s="121"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="121"/>
+      <c r="G110" s="121"/>
+      <c r="H110" s="121"/>
+      <c r="I110" s="121"/>
+      <c r="J110" s="125"/>
+      <c r="K110" s="121"/>
+      <c r="L110" s="121"/>
+      <c r="M110" s="127"/>
+      <c r="N110" s="121"/>
+      <c r="O110" s="121"/>
+      <c r="P110" s="121"/>
+      <c r="Q110" s="121"/>
+      <c r="R110" s="121"/>
+      <c r="S110" s="121"/>
+      <c r="T110" s="121"/>
+      <c r="U110" s="121"/>
+      <c r="V110" s="121"/>
+      <c r="W110" s="121"/>
+      <c r="X110" s="121"/>
+      <c r="Y110" s="121"/>
+      <c r="Z110" s="121"/>
+      <c r="AA110" s="121"/>
+      <c r="AB110" s="121"/>
+      <c r="AC110" s="121"/>
+      <c r="AD110" s="121"/>
+      <c r="AE110" s="121"/>
+      <c r="AF110" s="121"/>
+      <c r="AG110" s="121"/>
+      <c r="AH110" s="121"/>
     </row>
     <row r="111" spans="1:34">
-      <c r="A111" s="121"/>
-      <c r="B111" s="122"/>
-      <c r="C111" s="122"/>
-      <c r="D111" s="122"/>
-      <c r="E111" s="122"/>
-      <c r="F111" s="122"/>
-      <c r="G111" s="122"/>
-      <c r="H111" s="122"/>
-      <c r="I111" s="122"/>
-      <c r="J111" s="126"/>
-      <c r="K111" s="122"/>
-      <c r="L111" s="122"/>
-      <c r="M111" s="128"/>
-      <c r="N111" s="122"/>
-      <c r="O111" s="122"/>
-      <c r="P111" s="122"/>
-      <c r="Q111" s="122"/>
-      <c r="R111" s="122"/>
-      <c r="S111" s="122"/>
-      <c r="T111" s="122"/>
-      <c r="U111" s="122"/>
-      <c r="V111" s="122"/>
-      <c r="W111" s="122"/>
-      <c r="X111" s="122"/>
-      <c r="Y111" s="122"/>
-      <c r="Z111" s="122"/>
-      <c r="AA111" s="122"/>
-      <c r="AB111" s="122"/>
-      <c r="AC111" s="122"/>
-      <c r="AD111" s="122"/>
-      <c r="AE111" s="122"/>
-      <c r="AF111" s="122"/>
-      <c r="AG111" s="122"/>
-      <c r="AH111" s="122"/>
+      <c r="A111" s="120"/>
+      <c r="B111" s="121"/>
+      <c r="C111" s="121"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
+      <c r="F111" s="121"/>
+      <c r="G111" s="121"/>
+      <c r="H111" s="121"/>
+      <c r="I111" s="121"/>
+      <c r="J111" s="125"/>
+      <c r="K111" s="121"/>
+      <c r="L111" s="121"/>
+      <c r="M111" s="127"/>
+      <c r="N111" s="121"/>
+      <c r="O111" s="121"/>
+      <c r="P111" s="121"/>
+      <c r="Q111" s="121"/>
+      <c r="R111" s="121"/>
+      <c r="S111" s="121"/>
+      <c r="T111" s="121"/>
+      <c r="U111" s="121"/>
+      <c r="V111" s="121"/>
+      <c r="W111" s="121"/>
+      <c r="X111" s="121"/>
+      <c r="Y111" s="121"/>
+      <c r="Z111" s="121"/>
+      <c r="AA111" s="121"/>
+      <c r="AB111" s="121"/>
+      <c r="AC111" s="121"/>
+      <c r="AD111" s="121"/>
+      <c r="AE111" s="121"/>
+      <c r="AF111" s="121"/>
+      <c r="AG111" s="121"/>
+      <c r="AH111" s="121"/>
     </row>
     <row r="112" spans="1:34">
-      <c r="A112" s="121"/>
-      <c r="B112" s="122"/>
-      <c r="C112" s="122"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="122"/>
-      <c r="G112" s="122"/>
-      <c r="H112" s="122"/>
-      <c r="I112" s="122"/>
-      <c r="J112" s="126"/>
-      <c r="K112" s="122"/>
-      <c r="L112" s="122"/>
-      <c r="M112" s="128"/>
-      <c r="N112" s="122"/>
-      <c r="O112" s="122"/>
-      <c r="P112" s="122"/>
-      <c r="Q112" s="122"/>
-      <c r="R112" s="122"/>
-      <c r="S112" s="122"/>
-      <c r="T112" s="122"/>
-      <c r="U112" s="122"/>
-      <c r="V112" s="122"/>
-      <c r="W112" s="122"/>
-      <c r="X112" s="122"/>
-      <c r="Y112" s="122"/>
-      <c r="Z112" s="122"/>
-      <c r="AA112" s="122"/>
-      <c r="AB112" s="122"/>
-      <c r="AC112" s="122"/>
-      <c r="AD112" s="122"/>
-      <c r="AE112" s="122"/>
-      <c r="AF112" s="122"/>
-      <c r="AG112" s="122"/>
-      <c r="AH112" s="122"/>
+      <c r="A112" s="120"/>
+      <c r="B112" s="121"/>
+      <c r="C112" s="121"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
+      <c r="G112" s="121"/>
+      <c r="H112" s="121"/>
+      <c r="I112" s="121"/>
+      <c r="J112" s="125"/>
+      <c r="K112" s="121"/>
+      <c r="L112" s="121"/>
+      <c r="M112" s="127"/>
+      <c r="N112" s="121"/>
+      <c r="O112" s="121"/>
+      <c r="P112" s="121"/>
+      <c r="Q112" s="121"/>
+      <c r="R112" s="121"/>
+      <c r="S112" s="121"/>
+      <c r="T112" s="121"/>
+      <c r="U112" s="121"/>
+      <c r="V112" s="121"/>
+      <c r="W112" s="121"/>
+      <c r="X112" s="121"/>
+      <c r="Y112" s="121"/>
+      <c r="Z112" s="121"/>
+      <c r="AA112" s="121"/>
+      <c r="AB112" s="121"/>
+      <c r="AC112" s="121"/>
+      <c r="AD112" s="121"/>
+      <c r="AE112" s="121"/>
+      <c r="AF112" s="121"/>
+      <c r="AG112" s="121"/>
+      <c r="AH112" s="121"/>
     </row>
     <row r="113" spans="1:34">
-      <c r="A113" s="121"/>
-      <c r="B113" s="122"/>
-      <c r="C113" s="122"/>
-      <c r="D113" s="122"/>
-      <c r="E113" s="122"/>
-      <c r="F113" s="122"/>
-      <c r="G113" s="122"/>
-      <c r="H113" s="122"/>
-      <c r="I113" s="122"/>
-      <c r="J113" s="126"/>
-      <c r="K113" s="122"/>
-      <c r="L113" s="122"/>
-      <c r="M113" s="128"/>
-      <c r="N113" s="122"/>
-      <c r="O113" s="122"/>
-      <c r="P113" s="122"/>
-      <c r="Q113" s="122"/>
-      <c r="R113" s="122"/>
-      <c r="S113" s="122"/>
-      <c r="T113" s="122"/>
-      <c r="U113" s="122"/>
-      <c r="V113" s="122"/>
-      <c r="W113" s="122"/>
-      <c r="X113" s="122"/>
-      <c r="Y113" s="122"/>
-      <c r="Z113" s="122"/>
-      <c r="AA113" s="122"/>
-      <c r="AB113" s="122"/>
-      <c r="AC113" s="122"/>
-      <c r="AD113" s="122"/>
-      <c r="AE113" s="122"/>
-      <c r="AF113" s="122"/>
-      <c r="AG113" s="122"/>
-      <c r="AH113" s="122"/>
+      <c r="A113" s="120"/>
+      <c r="B113" s="121"/>
+      <c r="C113" s="121"/>
+      <c r="D113" s="121"/>
+      <c r="E113" s="121"/>
+      <c r="F113" s="121"/>
+      <c r="G113" s="121"/>
+      <c r="H113" s="121"/>
+      <c r="I113" s="121"/>
+      <c r="J113" s="125"/>
+      <c r="K113" s="121"/>
+      <c r="L113" s="121"/>
+      <c r="M113" s="127"/>
+      <c r="N113" s="121"/>
+      <c r="O113" s="121"/>
+      <c r="P113" s="121"/>
+      <c r="Q113" s="121"/>
+      <c r="R113" s="121"/>
+      <c r="S113" s="121"/>
+      <c r="T113" s="121"/>
+      <c r="U113" s="121"/>
+      <c r="V113" s="121"/>
+      <c r="W113" s="121"/>
+      <c r="X113" s="121"/>
+      <c r="Y113" s="121"/>
+      <c r="Z113" s="121"/>
+      <c r="AA113" s="121"/>
+      <c r="AB113" s="121"/>
+      <c r="AC113" s="121"/>
+      <c r="AD113" s="121"/>
+      <c r="AE113" s="121"/>
+      <c r="AF113" s="121"/>
+      <c r="AG113" s="121"/>
+      <c r="AH113" s="121"/>
     </row>
     <row r="114" spans="1:34">
-      <c r="A114" s="121"/>
-      <c r="B114" s="122"/>
-      <c r="C114" s="122"/>
-      <c r="D114" s="122"/>
-      <c r="E114" s="122"/>
-      <c r="F114" s="122"/>
-      <c r="G114" s="122"/>
-      <c r="H114" s="122"/>
-      <c r="I114" s="122"/>
-      <c r="J114" s="126"/>
-      <c r="K114" s="122"/>
-      <c r="L114" s="122"/>
-      <c r="M114" s="128"/>
-      <c r="N114" s="122"/>
-      <c r="O114" s="122"/>
-      <c r="P114" s="122"/>
-      <c r="Q114" s="122"/>
-      <c r="R114" s="122"/>
-      <c r="S114" s="122"/>
-      <c r="T114" s="122"/>
-      <c r="U114" s="122"/>
-      <c r="V114" s="122"/>
-      <c r="W114" s="122"/>
-      <c r="X114" s="122"/>
-      <c r="Y114" s="122"/>
-      <c r="Z114" s="122"/>
-      <c r="AA114" s="122"/>
-      <c r="AB114" s="122"/>
-      <c r="AC114" s="122"/>
-      <c r="AD114" s="122"/>
-      <c r="AE114" s="122"/>
-      <c r="AF114" s="122"/>
-      <c r="AG114" s="122"/>
-      <c r="AH114" s="122"/>
+      <c r="A114" s="120"/>
+      <c r="B114" s="121"/>
+      <c r="C114" s="121"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
+      <c r="G114" s="121"/>
+      <c r="H114" s="121"/>
+      <c r="I114" s="121"/>
+      <c r="J114" s="125"/>
+      <c r="K114" s="121"/>
+      <c r="L114" s="121"/>
+      <c r="M114" s="127"/>
+      <c r="N114" s="121"/>
+      <c r="O114" s="121"/>
+      <c r="P114" s="121"/>
+      <c r="Q114" s="121"/>
+      <c r="R114" s="121"/>
+      <c r="S114" s="121"/>
+      <c r="T114" s="121"/>
+      <c r="U114" s="121"/>
+      <c r="V114" s="121"/>
+      <c r="W114" s="121"/>
+      <c r="X114" s="121"/>
+      <c r="Y114" s="121"/>
+      <c r="Z114" s="121"/>
+      <c r="AA114" s="121"/>
+      <c r="AB114" s="121"/>
+      <c r="AC114" s="121"/>
+      <c r="AD114" s="121"/>
+      <c r="AE114" s="121"/>
+      <c r="AF114" s="121"/>
+      <c r="AG114" s="121"/>
+      <c r="AH114" s="121"/>
     </row>
     <row r="115" spans="1:34">
-      <c r="A115" s="121"/>
-      <c r="B115" s="122"/>
-      <c r="C115" s="122"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="122"/>
-      <c r="H115" s="122"/>
-      <c r="I115" s="122"/>
-      <c r="J115" s="126"/>
-      <c r="K115" s="122"/>
-      <c r="L115" s="122"/>
-      <c r="M115" s="128"/>
-      <c r="N115" s="122"/>
-      <c r="O115" s="122"/>
-      <c r="P115" s="122"/>
-      <c r="Q115" s="122"/>
-      <c r="R115" s="122"/>
-      <c r="S115" s="122"/>
-      <c r="T115" s="122"/>
-      <c r="U115" s="122"/>
-      <c r="V115" s="122"/>
-      <c r="W115" s="122"/>
-      <c r="X115" s="122"/>
-      <c r="Y115" s="122"/>
-      <c r="Z115" s="122"/>
-      <c r="AA115" s="122"/>
-      <c r="AB115" s="122"/>
-      <c r="AC115" s="122"/>
-      <c r="AD115" s="122"/>
-      <c r="AE115" s="122"/>
-      <c r="AF115" s="122"/>
-      <c r="AG115" s="122"/>
-      <c r="AH115" s="122"/>
+      <c r="A115" s="120"/>
+      <c r="B115" s="121"/>
+      <c r="C115" s="121"/>
+      <c r="D115" s="121"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="121"/>
+      <c r="G115" s="121"/>
+      <c r="H115" s="121"/>
+      <c r="I115" s="121"/>
+      <c r="J115" s="125"/>
+      <c r="K115" s="121"/>
+      <c r="L115" s="121"/>
+      <c r="M115" s="127"/>
+      <c r="N115" s="121"/>
+      <c r="O115" s="121"/>
+      <c r="P115" s="121"/>
+      <c r="Q115" s="121"/>
+      <c r="R115" s="121"/>
+      <c r="S115" s="121"/>
+      <c r="T115" s="121"/>
+      <c r="U115" s="121"/>
+      <c r="V115" s="121"/>
+      <c r="W115" s="121"/>
+      <c r="X115" s="121"/>
+      <c r="Y115" s="121"/>
+      <c r="Z115" s="121"/>
+      <c r="AA115" s="121"/>
+      <c r="AB115" s="121"/>
+      <c r="AC115" s="121"/>
+      <c r="AD115" s="121"/>
+      <c r="AE115" s="121"/>
+      <c r="AF115" s="121"/>
+      <c r="AG115" s="121"/>
+      <c r="AH115" s="121"/>
     </row>
     <row r="116" spans="1:34">
-      <c r="A116" s="121"/>
-      <c r="B116" s="122"/>
-      <c r="C116" s="122"/>
-      <c r="D116" s="122"/>
-      <c r="E116" s="122"/>
-      <c r="F116" s="122"/>
-      <c r="G116" s="122"/>
-      <c r="H116" s="122"/>
-      <c r="I116" s="122"/>
-      <c r="J116" s="126"/>
-      <c r="K116" s="122"/>
-      <c r="L116" s="122"/>
-      <c r="M116" s="128"/>
-      <c r="N116" s="122"/>
-      <c r="O116" s="122"/>
-      <c r="P116" s="122"/>
-      <c r="Q116" s="122"/>
-      <c r="R116" s="122"/>
-      <c r="S116" s="122"/>
-      <c r="T116" s="122"/>
-      <c r="U116" s="122"/>
-      <c r="V116" s="122"/>
-      <c r="W116" s="122"/>
-      <c r="X116" s="122"/>
-      <c r="Y116" s="122"/>
-      <c r="Z116" s="122"/>
-      <c r="AA116" s="122"/>
-      <c r="AB116" s="122"/>
-      <c r="AC116" s="122"/>
-      <c r="AD116" s="122"/>
-      <c r="AE116" s="122"/>
-      <c r="AF116" s="122"/>
-      <c r="AG116" s="122"/>
-      <c r="AH116" s="122"/>
+      <c r="A116" s="120"/>
+      <c r="B116" s="121"/>
+      <c r="C116" s="121"/>
+      <c r="D116" s="121"/>
+      <c r="E116" s="121"/>
+      <c r="F116" s="121"/>
+      <c r="G116" s="121"/>
+      <c r="H116" s="121"/>
+      <c r="I116" s="121"/>
+      <c r="J116" s="125"/>
+      <c r="K116" s="121"/>
+      <c r="L116" s="121"/>
+      <c r="M116" s="127"/>
+      <c r="N116" s="121"/>
+      <c r="O116" s="121"/>
+      <c r="P116" s="121"/>
+      <c r="Q116" s="121"/>
+      <c r="R116" s="121"/>
+      <c r="S116" s="121"/>
+      <c r="T116" s="121"/>
+      <c r="U116" s="121"/>
+      <c r="V116" s="121"/>
+      <c r="W116" s="121"/>
+      <c r="X116" s="121"/>
+      <c r="Y116" s="121"/>
+      <c r="Z116" s="121"/>
+      <c r="AA116" s="121"/>
+      <c r="AB116" s="121"/>
+      <c r="AC116" s="121"/>
+      <c r="AD116" s="121"/>
+      <c r="AE116" s="121"/>
+      <c r="AF116" s="121"/>
+      <c r="AG116" s="121"/>
+      <c r="AH116" s="121"/>
     </row>
     <row r="117" spans="1:34">
-      <c r="A117" s="121"/>
-      <c r="B117" s="122"/>
-      <c r="C117" s="122"/>
-      <c r="D117" s="122"/>
-      <c r="E117" s="122"/>
-      <c r="F117" s="122"/>
-      <c r="G117" s="122"/>
-      <c r="H117" s="122"/>
-      <c r="I117" s="122"/>
-      <c r="J117" s="126"/>
-      <c r="K117" s="122"/>
-      <c r="L117" s="122"/>
-      <c r="M117" s="128"/>
-      <c r="N117" s="122"/>
-      <c r="O117" s="122"/>
-      <c r="P117" s="122"/>
-      <c r="Q117" s="122"/>
-      <c r="R117" s="122"/>
-      <c r="S117" s="122"/>
-      <c r="T117" s="122"/>
-      <c r="U117" s="122"/>
-      <c r="V117" s="122"/>
-      <c r="W117" s="122"/>
-      <c r="X117" s="122"/>
-      <c r="Y117" s="122"/>
-      <c r="Z117" s="122"/>
-      <c r="AA117" s="122"/>
-      <c r="AB117" s="122"/>
-      <c r="AC117" s="122"/>
-      <c r="AD117" s="122"/>
-      <c r="AE117" s="122"/>
-      <c r="AF117" s="122"/>
-      <c r="AG117" s="122"/>
-      <c r="AH117" s="122"/>
+      <c r="A117" s="120"/>
+      <c r="B117" s="121"/>
+      <c r="C117" s="121"/>
+      <c r="D117" s="121"/>
+      <c r="E117" s="121"/>
+      <c r="F117" s="121"/>
+      <c r="G117" s="121"/>
+      <c r="H117" s="121"/>
+      <c r="I117" s="121"/>
+      <c r="J117" s="125"/>
+      <c r="K117" s="121"/>
+      <c r="L117" s="121"/>
+      <c r="M117" s="127"/>
+      <c r="N117" s="121"/>
+      <c r="O117" s="121"/>
+      <c r="P117" s="121"/>
+      <c r="Q117" s="121"/>
+      <c r="R117" s="121"/>
+      <c r="S117" s="121"/>
+      <c r="T117" s="121"/>
+      <c r="U117" s="121"/>
+      <c r="V117" s="121"/>
+      <c r="W117" s="121"/>
+      <c r="X117" s="121"/>
+      <c r="Y117" s="121"/>
+      <c r="Z117" s="121"/>
+      <c r="AA117" s="121"/>
+      <c r="AB117" s="121"/>
+      <c r="AC117" s="121"/>
+      <c r="AD117" s="121"/>
+      <c r="AE117" s="121"/>
+      <c r="AF117" s="121"/>
+      <c r="AG117" s="121"/>
+      <c r="AH117" s="121"/>
     </row>
     <row r="118" spans="1:34">
-      <c r="A118" s="121"/>
-      <c r="B118" s="122"/>
-      <c r="C118" s="122"/>
-      <c r="D118" s="122"/>
-      <c r="E118" s="122"/>
-      <c r="F118" s="122"/>
-      <c r="G118" s="122"/>
-      <c r="H118" s="122"/>
-      <c r="I118" s="122"/>
-      <c r="J118" s="126"/>
-      <c r="K118" s="122"/>
-      <c r="L118" s="122"/>
-      <c r="M118" s="128"/>
-      <c r="N118" s="122"/>
-      <c r="O118" s="122"/>
-      <c r="P118" s="122"/>
-      <c r="Q118" s="122"/>
-      <c r="R118" s="122"/>
-      <c r="S118" s="122"/>
-      <c r="T118" s="122"/>
-      <c r="U118" s="122"/>
-      <c r="V118" s="122"/>
-      <c r="W118" s="122"/>
-      <c r="X118" s="122"/>
-      <c r="Y118" s="122"/>
-      <c r="Z118" s="122"/>
-      <c r="AA118" s="122"/>
-      <c r="AB118" s="122"/>
-      <c r="AC118" s="122"/>
-      <c r="AD118" s="122"/>
-      <c r="AE118" s="122"/>
-      <c r="AF118" s="122"/>
-      <c r="AG118" s="122"/>
-      <c r="AH118" s="122"/>
+      <c r="A118" s="120"/>
+      <c r="B118" s="121"/>
+      <c r="C118" s="121"/>
+      <c r="D118" s="121"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="121"/>
+      <c r="G118" s="121"/>
+      <c r="H118" s="121"/>
+      <c r="I118" s="121"/>
+      <c r="J118" s="125"/>
+      <c r="K118" s="121"/>
+      <c r="L118" s="121"/>
+      <c r="M118" s="127"/>
+      <c r="N118" s="121"/>
+      <c r="O118" s="121"/>
+      <c r="P118" s="121"/>
+      <c r="Q118" s="121"/>
+      <c r="R118" s="121"/>
+      <c r="S118" s="121"/>
+      <c r="T118" s="121"/>
+      <c r="U118" s="121"/>
+      <c r="V118" s="121"/>
+      <c r="W118" s="121"/>
+      <c r="X118" s="121"/>
+      <c r="Y118" s="121"/>
+      <c r="Z118" s="121"/>
+      <c r="AA118" s="121"/>
+      <c r="AB118" s="121"/>
+      <c r="AC118" s="121"/>
+      <c r="AD118" s="121"/>
+      <c r="AE118" s="121"/>
+      <c r="AF118" s="121"/>
+      <c r="AG118" s="121"/>
+      <c r="AH118" s="121"/>
     </row>
     <row r="119" spans="1:34">
-      <c r="A119" s="121"/>
-      <c r="B119" s="122"/>
-      <c r="C119" s="122"/>
-      <c r="D119" s="122"/>
-      <c r="E119" s="122"/>
-      <c r="F119" s="122"/>
-      <c r="G119" s="122"/>
-      <c r="H119" s="122"/>
-      <c r="I119" s="122"/>
-      <c r="J119" s="126"/>
-      <c r="K119" s="122"/>
-      <c r="L119" s="122"/>
-      <c r="M119" s="128"/>
-      <c r="N119" s="122"/>
-      <c r="O119" s="122"/>
-      <c r="P119" s="122"/>
-      <c r="Q119" s="122"/>
-      <c r="R119" s="122"/>
-      <c r="S119" s="122"/>
-      <c r="T119" s="122"/>
-      <c r="U119" s="122"/>
-      <c r="V119" s="122"/>
-      <c r="W119" s="122"/>
-      <c r="X119" s="122"/>
-      <c r="Y119" s="122"/>
-      <c r="Z119" s="122"/>
-      <c r="AA119" s="122"/>
-      <c r="AB119" s="122"/>
-      <c r="AC119" s="122"/>
-      <c r="AD119" s="122"/>
-      <c r="AE119" s="122"/>
-      <c r="AF119" s="122"/>
-      <c r="AG119" s="122"/>
-      <c r="AH119" s="122"/>
+      <c r="A119" s="120"/>
+      <c r="B119" s="121"/>
+      <c r="C119" s="121"/>
+      <c r="D119" s="121"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="121"/>
+      <c r="G119" s="121"/>
+      <c r="H119" s="121"/>
+      <c r="I119" s="121"/>
+      <c r="J119" s="125"/>
+      <c r="K119" s="121"/>
+      <c r="L119" s="121"/>
+      <c r="M119" s="127"/>
+      <c r="N119" s="121"/>
+      <c r="O119" s="121"/>
+      <c r="P119" s="121"/>
+      <c r="Q119" s="121"/>
+      <c r="R119" s="121"/>
+      <c r="S119" s="121"/>
+      <c r="T119" s="121"/>
+      <c r="U119" s="121"/>
+      <c r="V119" s="121"/>
+      <c r="W119" s="121"/>
+      <c r="X119" s="121"/>
+      <c r="Y119" s="121"/>
+      <c r="Z119" s="121"/>
+      <c r="AA119" s="121"/>
+      <c r="AB119" s="121"/>
+      <c r="AC119" s="121"/>
+      <c r="AD119" s="121"/>
+      <c r="AE119" s="121"/>
+      <c r="AF119" s="121"/>
+      <c r="AG119" s="121"/>
+      <c r="AH119" s="121"/>
     </row>
     <row r="120" spans="1:34">
-      <c r="A120" s="121"/>
-      <c r="B120" s="122"/>
-      <c r="C120" s="122"/>
-      <c r="D120" s="122"/>
-      <c r="E120" s="122"/>
-      <c r="F120" s="122"/>
-      <c r="G120" s="122"/>
-      <c r="H120" s="122"/>
-      <c r="I120" s="122"/>
-      <c r="J120" s="126"/>
-      <c r="K120" s="122"/>
-      <c r="L120" s="122"/>
-      <c r="M120" s="128"/>
-      <c r="N120" s="122"/>
-      <c r="O120" s="122"/>
-      <c r="P120" s="122"/>
-      <c r="Q120" s="122"/>
-      <c r="R120" s="122"/>
-      <c r="S120" s="122"/>
-      <c r="T120" s="122"/>
-      <c r="U120" s="122"/>
-      <c r="V120" s="122"/>
-      <c r="W120" s="122"/>
-      <c r="X120" s="122"/>
-      <c r="Y120" s="122"/>
-      <c r="Z120" s="122"/>
-      <c r="AA120" s="122"/>
-      <c r="AB120" s="122"/>
-      <c r="AC120" s="122"/>
-      <c r="AD120" s="122"/>
-      <c r="AE120" s="122"/>
-      <c r="AF120" s="122"/>
-      <c r="AG120" s="122"/>
-      <c r="AH120" s="122"/>
+      <c r="A120" s="120"/>
+      <c r="B120" s="121"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
+      <c r="G120" s="121"/>
+      <c r="H120" s="121"/>
+      <c r="I120" s="121"/>
+      <c r="J120" s="125"/>
+      <c r="K120" s="121"/>
+      <c r="L120" s="121"/>
+      <c r="M120" s="127"/>
+      <c r="N120" s="121"/>
+      <c r="O120" s="121"/>
+      <c r="P120" s="121"/>
+      <c r="Q120" s="121"/>
+      <c r="R120" s="121"/>
+      <c r="S120" s="121"/>
+      <c r="T120" s="121"/>
+      <c r="U120" s="121"/>
+      <c r="V120" s="121"/>
+      <c r="W120" s="121"/>
+      <c r="X120" s="121"/>
+      <c r="Y120" s="121"/>
+      <c r="Z120" s="121"/>
+      <c r="AA120" s="121"/>
+      <c r="AB120" s="121"/>
+      <c r="AC120" s="121"/>
+      <c r="AD120" s="121"/>
+      <c r="AE120" s="121"/>
+      <c r="AF120" s="121"/>
+      <c r="AG120" s="121"/>
+      <c r="AH120" s="121"/>
     </row>
     <row r="121" spans="1:34">
-      <c r="A121" s="121"/>
-      <c r="B121" s="122"/>
-      <c r="C121" s="122"/>
-      <c r="D121" s="122"/>
-      <c r="E121" s="122"/>
-      <c r="F121" s="122"/>
-      <c r="G121" s="122"/>
-      <c r="H121" s="122"/>
-      <c r="I121" s="122"/>
-      <c r="J121" s="126"/>
-      <c r="K121" s="122"/>
-      <c r="L121" s="122"/>
-      <c r="M121" s="128"/>
-      <c r="N121" s="122"/>
-      <c r="O121" s="122"/>
-      <c r="P121" s="122"/>
-      <c r="Q121" s="122"/>
-      <c r="R121" s="122"/>
-      <c r="S121" s="122"/>
-      <c r="T121" s="122"/>
-      <c r="U121" s="122"/>
-      <c r="V121" s="122"/>
-      <c r="W121" s="122"/>
-      <c r="X121" s="122"/>
-      <c r="Y121" s="122"/>
-      <c r="Z121" s="122"/>
-      <c r="AA121" s="122"/>
-      <c r="AB121" s="122"/>
-      <c r="AC121" s="122"/>
-      <c r="AD121" s="122"/>
-      <c r="AE121" s="122"/>
-      <c r="AF121" s="122"/>
-      <c r="AG121" s="122"/>
-      <c r="AH121" s="122"/>
+      <c r="A121" s="120"/>
+      <c r="B121" s="121"/>
+      <c r="C121" s="121"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="121"/>
+      <c r="G121" s="121"/>
+      <c r="H121" s="121"/>
+      <c r="I121" s="121"/>
+      <c r="J121" s="125"/>
+      <c r="K121" s="121"/>
+      <c r="L121" s="121"/>
+      <c r="M121" s="127"/>
+      <c r="N121" s="121"/>
+      <c r="O121" s="121"/>
+      <c r="P121" s="121"/>
+      <c r="Q121" s="121"/>
+      <c r="R121" s="121"/>
+      <c r="S121" s="121"/>
+      <c r="T121" s="121"/>
+      <c r="U121" s="121"/>
+      <c r="V121" s="121"/>
+      <c r="W121" s="121"/>
+      <c r="X121" s="121"/>
+      <c r="Y121" s="121"/>
+      <c r="Z121" s="121"/>
+      <c r="AA121" s="121"/>
+      <c r="AB121" s="121"/>
+      <c r="AC121" s="121"/>
+      <c r="AD121" s="121"/>
+      <c r="AE121" s="121"/>
+      <c r="AF121" s="121"/>
+      <c r="AG121" s="121"/>
+      <c r="AH121" s="121"/>
     </row>
     <row r="122" spans="1:34">
-      <c r="A122" s="121"/>
-      <c r="B122" s="122"/>
-      <c r="C122" s="122"/>
-      <c r="D122" s="122"/>
-      <c r="E122" s="122"/>
-      <c r="F122" s="122"/>
-      <c r="G122" s="122"/>
-      <c r="H122" s="122"/>
-      <c r="I122" s="122"/>
-      <c r="J122" s="126"/>
-      <c r="K122" s="122"/>
-      <c r="L122" s="122"/>
-      <c r="M122" s="128"/>
-      <c r="N122" s="122"/>
-      <c r="O122" s="122"/>
-      <c r="P122" s="122"/>
-      <c r="Q122" s="122"/>
-      <c r="R122" s="122"/>
-      <c r="S122" s="122"/>
-      <c r="T122" s="122"/>
-      <c r="U122" s="122"/>
-      <c r="V122" s="122"/>
-      <c r="W122" s="122"/>
-      <c r="X122" s="122"/>
-      <c r="Y122" s="122"/>
-      <c r="Z122" s="122"/>
-      <c r="AA122" s="122"/>
-      <c r="AB122" s="122"/>
-      <c r="AC122" s="122"/>
-      <c r="AD122" s="122"/>
-      <c r="AE122" s="122"/>
-      <c r="AF122" s="122"/>
-      <c r="AG122" s="122"/>
-      <c r="AH122" s="122"/>
+      <c r="A122" s="120"/>
+      <c r="B122" s="121"/>
+      <c r="C122" s="121"/>
+      <c r="D122" s="121"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
+      <c r="G122" s="121"/>
+      <c r="H122" s="121"/>
+      <c r="I122" s="121"/>
+      <c r="J122" s="125"/>
+      <c r="K122" s="121"/>
+      <c r="L122" s="121"/>
+      <c r="M122" s="127"/>
+      <c r="N122" s="121"/>
+      <c r="O122" s="121"/>
+      <c r="P122" s="121"/>
+      <c r="Q122" s="121"/>
+      <c r="R122" s="121"/>
+      <c r="S122" s="121"/>
+      <c r="T122" s="121"/>
+      <c r="U122" s="121"/>
+      <c r="V122" s="121"/>
+      <c r="W122" s="121"/>
+      <c r="X122" s="121"/>
+      <c r="Y122" s="121"/>
+      <c r="Z122" s="121"/>
+      <c r="AA122" s="121"/>
+      <c r="AB122" s="121"/>
+      <c r="AC122" s="121"/>
+      <c r="AD122" s="121"/>
+      <c r="AE122" s="121"/>
+      <c r="AF122" s="121"/>
+      <c r="AG122" s="121"/>
+      <c r="AH122" s="121"/>
     </row>
     <row r="123" spans="1:34">
-      <c r="A123" s="121"/>
-      <c r="B123" s="122"/>
-      <c r="C123" s="122"/>
-      <c r="D123" s="122"/>
-      <c r="E123" s="122"/>
-      <c r="F123" s="122"/>
-      <c r="G123" s="122"/>
-      <c r="H123" s="122"/>
-      <c r="I123" s="122"/>
-      <c r="J123" s="126"/>
-      <c r="K123" s="122"/>
-      <c r="L123" s="122"/>
-      <c r="M123" s="128"/>
-      <c r="N123" s="122"/>
-      <c r="O123" s="122"/>
-      <c r="P123" s="122"/>
-      <c r="Q123" s="122"/>
-      <c r="R123" s="122"/>
-      <c r="S123" s="122"/>
-      <c r="T123" s="122"/>
-      <c r="U123" s="122"/>
-      <c r="V123" s="122"/>
-      <c r="W123" s="122"/>
-      <c r="X123" s="122"/>
-      <c r="Y123" s="122"/>
-      <c r="Z123" s="122"/>
-      <c r="AA123" s="122"/>
-      <c r="AB123" s="122"/>
-      <c r="AC123" s="122"/>
-      <c r="AD123" s="122"/>
-      <c r="AE123" s="122"/>
-      <c r="AF123" s="122"/>
-      <c r="AG123" s="122"/>
-      <c r="AH123" s="122"/>
+      <c r="A123" s="120"/>
+      <c r="B123" s="121"/>
+      <c r="C123" s="121"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="121"/>
+      <c r="G123" s="121"/>
+      <c r="H123" s="121"/>
+      <c r="I123" s="121"/>
+      <c r="J123" s="125"/>
+      <c r="K123" s="121"/>
+      <c r="L123" s="121"/>
+      <c r="M123" s="127"/>
+      <c r="N123" s="121"/>
+      <c r="O123" s="121"/>
+      <c r="P123" s="121"/>
+      <c r="Q123" s="121"/>
+      <c r="R123" s="121"/>
+      <c r="S123" s="121"/>
+      <c r="T123" s="121"/>
+      <c r="U123" s="121"/>
+      <c r="V123" s="121"/>
+      <c r="W123" s="121"/>
+      <c r="X123" s="121"/>
+      <c r="Y123" s="121"/>
+      <c r="Z123" s="121"/>
+      <c r="AA123" s="121"/>
+      <c r="AB123" s="121"/>
+      <c r="AC123" s="121"/>
+      <c r="AD123" s="121"/>
+      <c r="AE123" s="121"/>
+      <c r="AF123" s="121"/>
+      <c r="AG123" s="121"/>
+      <c r="AH123" s="121"/>
     </row>
     <row r="124" spans="1:34">
-      <c r="A124" s="121"/>
-      <c r="B124" s="122"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="122"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="126"/>
-      <c r="K124" s="122"/>
-      <c r="L124" s="122"/>
-      <c r="M124" s="128"/>
-      <c r="N124" s="122"/>
-      <c r="O124" s="122"/>
-      <c r="P124" s="122"/>
-      <c r="Q124" s="122"/>
-      <c r="R124" s="122"/>
-      <c r="S124" s="122"/>
-      <c r="T124" s="122"/>
-      <c r="U124" s="122"/>
-      <c r="V124" s="122"/>
-      <c r="W124" s="122"/>
-      <c r="X124" s="122"/>
-      <c r="Y124" s="122"/>
-      <c r="Z124" s="122"/>
-      <c r="AA124" s="122"/>
-      <c r="AB124" s="122"/>
-      <c r="AC124" s="122"/>
-      <c r="AD124" s="122"/>
-      <c r="AE124" s="122"/>
-      <c r="AF124" s="122"/>
-      <c r="AG124" s="122"/>
-      <c r="AH124" s="122"/>
+      <c r="A124" s="120"/>
+      <c r="B124" s="121"/>
+      <c r="C124" s="121"/>
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
+      <c r="G124" s="121"/>
+      <c r="H124" s="121"/>
+      <c r="I124" s="121"/>
+      <c r="J124" s="125"/>
+      <c r="K124" s="121"/>
+      <c r="L124" s="121"/>
+      <c r="M124" s="127"/>
+      <c r="N124" s="121"/>
+      <c r="O124" s="121"/>
+      <c r="P124" s="121"/>
+      <c r="Q124" s="121"/>
+      <c r="R124" s="121"/>
+      <c r="S124" s="121"/>
+      <c r="T124" s="121"/>
+      <c r="U124" s="121"/>
+      <c r="V124" s="121"/>
+      <c r="W124" s="121"/>
+      <c r="X124" s="121"/>
+      <c r="Y124" s="121"/>
+      <c r="Z124" s="121"/>
+      <c r="AA124" s="121"/>
+      <c r="AB124" s="121"/>
+      <c r="AC124" s="121"/>
+      <c r="AD124" s="121"/>
+      <c r="AE124" s="121"/>
+      <c r="AF124" s="121"/>
+      <c r="AG124" s="121"/>
+      <c r="AH124" s="121"/>
     </row>
     <row r="125" spans="1:34">
-      <c r="A125" s="121"/>
-      <c r="B125" s="122"/>
-      <c r="C125" s="122"/>
-      <c r="D125" s="122"/>
-      <c r="E125" s="122"/>
-      <c r="F125" s="122"/>
-      <c r="G125" s="122"/>
-      <c r="H125" s="122"/>
-      <c r="I125" s="122"/>
-      <c r="J125" s="126"/>
-      <c r="K125" s="122"/>
-      <c r="L125" s="122"/>
-      <c r="M125" s="128"/>
-      <c r="N125" s="122"/>
-      <c r="O125" s="122"/>
-      <c r="P125" s="122"/>
-      <c r="Q125" s="122"/>
-      <c r="R125" s="122"/>
-      <c r="S125" s="122"/>
-      <c r="T125" s="122"/>
-      <c r="U125" s="122"/>
-      <c r="V125" s="122"/>
-      <c r="W125" s="122"/>
-      <c r="X125" s="122"/>
-      <c r="Y125" s="122"/>
-      <c r="Z125" s="122"/>
-      <c r="AA125" s="122"/>
-      <c r="AB125" s="122"/>
-      <c r="AC125" s="122"/>
-      <c r="AD125" s="122"/>
-      <c r="AE125" s="122"/>
-      <c r="AF125" s="122"/>
-      <c r="AG125" s="122"/>
-      <c r="AH125" s="122"/>
+      <c r="A125" s="120"/>
+      <c r="B125" s="121"/>
+      <c r="C125" s="121"/>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="121"/>
+      <c r="G125" s="121"/>
+      <c r="H125" s="121"/>
+      <c r="I125" s="121"/>
+      <c r="J125" s="125"/>
+      <c r="K125" s="121"/>
+      <c r="L125" s="121"/>
+      <c r="M125" s="127"/>
+      <c r="N125" s="121"/>
+      <c r="O125" s="121"/>
+      <c r="P125" s="121"/>
+      <c r="Q125" s="121"/>
+      <c r="R125" s="121"/>
+      <c r="S125" s="121"/>
+      <c r="T125" s="121"/>
+      <c r="U125" s="121"/>
+      <c r="V125" s="121"/>
+      <c r="W125" s="121"/>
+      <c r="X125" s="121"/>
+      <c r="Y125" s="121"/>
+      <c r="Z125" s="121"/>
+      <c r="AA125" s="121"/>
+      <c r="AB125" s="121"/>
+      <c r="AC125" s="121"/>
+      <c r="AD125" s="121"/>
+      <c r="AE125" s="121"/>
+      <c r="AF125" s="121"/>
+      <c r="AG125" s="121"/>
+      <c r="AH125" s="121"/>
     </row>
     <row r="126" spans="1:34">
-      <c r="A126" s="121"/>
-      <c r="B126" s="122"/>
-      <c r="C126" s="122"/>
-      <c r="D126" s="122"/>
-      <c r="E126" s="122"/>
-      <c r="F126" s="122"/>
-      <c r="G126" s="122"/>
-      <c r="H126" s="122"/>
-      <c r="I126" s="122"/>
-      <c r="J126" s="126"/>
-      <c r="K126" s="122"/>
-      <c r="L126" s="122"/>
-      <c r="M126" s="128"/>
-      <c r="N126" s="122"/>
-      <c r="O126" s="122"/>
-      <c r="P126" s="122"/>
-      <c r="Q126" s="122"/>
-      <c r="R126" s="122"/>
-      <c r="S126" s="122"/>
-      <c r="T126" s="122"/>
-      <c r="U126" s="122"/>
-      <c r="V126" s="122"/>
-      <c r="W126" s="122"/>
-      <c r="X126" s="122"/>
-      <c r="Y126" s="122"/>
-      <c r="Z126" s="122"/>
-      <c r="AA126" s="122"/>
-      <c r="AB126" s="122"/>
-      <c r="AC126" s="122"/>
-      <c r="AD126" s="122"/>
-      <c r="AE126" s="122"/>
-      <c r="AF126" s="122"/>
-      <c r="AG126" s="122"/>
-      <c r="AH126" s="122"/>
+      <c r="A126" s="120"/>
+      <c r="B126" s="121"/>
+      <c r="C126" s="121"/>
+      <c r="D126" s="121"/>
+      <c r="E126" s="121"/>
+      <c r="F126" s="121"/>
+      <c r="G126" s="121"/>
+      <c r="H126" s="121"/>
+      <c r="I126" s="121"/>
+      <c r="J126" s="125"/>
+      <c r="K126" s="121"/>
+      <c r="L126" s="121"/>
+      <c r="M126" s="127"/>
+      <c r="N126" s="121"/>
+      <c r="O126" s="121"/>
+      <c r="P126" s="121"/>
+      <c r="Q126" s="121"/>
+      <c r="R126" s="121"/>
+      <c r="S126" s="121"/>
+      <c r="T126" s="121"/>
+      <c r="U126" s="121"/>
+      <c r="V126" s="121"/>
+      <c r="W126" s="121"/>
+      <c r="X126" s="121"/>
+      <c r="Y126" s="121"/>
+      <c r="Z126" s="121"/>
+      <c r="AA126" s="121"/>
+      <c r="AB126" s="121"/>
+      <c r="AC126" s="121"/>
+      <c r="AD126" s="121"/>
+      <c r="AE126" s="121"/>
+      <c r="AF126" s="121"/>
+      <c r="AG126" s="121"/>
+      <c r="AH126" s="121"/>
     </row>
     <row r="127" spans="1:34">
-      <c r="A127" s="121"/>
-      <c r="B127" s="122"/>
-      <c r="C127" s="122"/>
-      <c r="D127" s="122"/>
-      <c r="E127" s="122"/>
-      <c r="F127" s="122"/>
-      <c r="G127" s="122"/>
-      <c r="H127" s="122"/>
-      <c r="I127" s="122"/>
-      <c r="J127" s="126"/>
-      <c r="K127" s="122"/>
-      <c r="L127" s="122"/>
-      <c r="M127" s="128"/>
-      <c r="N127" s="122"/>
-      <c r="O127" s="122"/>
-      <c r="P127" s="122"/>
-      <c r="Q127" s="122"/>
-      <c r="R127" s="122"/>
-      <c r="S127" s="122"/>
-      <c r="T127" s="122"/>
-      <c r="U127" s="122"/>
-      <c r="V127" s="122"/>
-      <c r="W127" s="122"/>
-      <c r="X127" s="122"/>
-      <c r="Y127" s="122"/>
-      <c r="Z127" s="122"/>
-      <c r="AA127" s="122"/>
-      <c r="AB127" s="122"/>
-      <c r="AC127" s="122"/>
-      <c r="AD127" s="122"/>
-      <c r="AE127" s="122"/>
-      <c r="AF127" s="122"/>
-      <c r="AG127" s="122"/>
-      <c r="AH127" s="122"/>
+      <c r="A127" s="120"/>
+      <c r="B127" s="121"/>
+      <c r="C127" s="121"/>
+      <c r="D127" s="121"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="121"/>
+      <c r="G127" s="121"/>
+      <c r="H127" s="121"/>
+      <c r="I127" s="121"/>
+      <c r="J127" s="125"/>
+      <c r="K127" s="121"/>
+      <c r="L127" s="121"/>
+      <c r="M127" s="127"/>
+      <c r="N127" s="121"/>
+      <c r="O127" s="121"/>
+      <c r="P127" s="121"/>
+      <c r="Q127" s="121"/>
+      <c r="R127" s="121"/>
+      <c r="S127" s="121"/>
+      <c r="T127" s="121"/>
+      <c r="U127" s="121"/>
+      <c r="V127" s="121"/>
+      <c r="W127" s="121"/>
+      <c r="X127" s="121"/>
+      <c r="Y127" s="121"/>
+      <c r="Z127" s="121"/>
+      <c r="AA127" s="121"/>
+      <c r="AB127" s="121"/>
+      <c r="AC127" s="121"/>
+      <c r="AD127" s="121"/>
+      <c r="AE127" s="121"/>
+      <c r="AF127" s="121"/>
+      <c r="AG127" s="121"/>
+      <c r="AH127" s="121"/>
     </row>
     <row r="128" spans="1:34">
-      <c r="A128" s="121"/>
-      <c r="B128" s="122"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="122"/>
-      <c r="E128" s="122"/>
-      <c r="F128" s="122"/>
-      <c r="G128" s="122"/>
-      <c r="H128" s="122"/>
-      <c r="I128" s="122"/>
-      <c r="J128" s="126"/>
-      <c r="K128" s="122"/>
-      <c r="L128" s="122"/>
-      <c r="M128" s="128"/>
-      <c r="N128" s="122"/>
-      <c r="O128" s="122"/>
-      <c r="P128" s="122"/>
-      <c r="Q128" s="122"/>
-      <c r="R128" s="122"/>
-      <c r="S128" s="122"/>
-      <c r="T128" s="122"/>
-      <c r="U128" s="122"/>
-      <c r="V128" s="122"/>
-      <c r="W128" s="122"/>
-      <c r="X128" s="122"/>
-      <c r="Y128" s="122"/>
-      <c r="Z128" s="122"/>
-      <c r="AA128" s="122"/>
-      <c r="AB128" s="122"/>
-      <c r="AC128" s="122"/>
-      <c r="AD128" s="122"/>
-      <c r="AE128" s="122"/>
-      <c r="AF128" s="122"/>
-      <c r="AG128" s="122"/>
-      <c r="AH128" s="122"/>
+      <c r="A128" s="120"/>
+      <c r="B128" s="121"/>
+      <c r="C128" s="121"/>
+      <c r="D128" s="121"/>
+      <c r="E128" s="121"/>
+      <c r="F128" s="121"/>
+      <c r="G128" s="121"/>
+      <c r="H128" s="121"/>
+      <c r="I128" s="121"/>
+      <c r="J128" s="125"/>
+      <c r="K128" s="121"/>
+      <c r="L128" s="121"/>
+      <c r="M128" s="127"/>
+      <c r="N128" s="121"/>
+      <c r="O128" s="121"/>
+      <c r="P128" s="121"/>
+      <c r="Q128" s="121"/>
+      <c r="R128" s="121"/>
+      <c r="S128" s="121"/>
+      <c r="T128" s="121"/>
+      <c r="U128" s="121"/>
+      <c r="V128" s="121"/>
+      <c r="W128" s="121"/>
+      <c r="X128" s="121"/>
+      <c r="Y128" s="121"/>
+      <c r="Z128" s="121"/>
+      <c r="AA128" s="121"/>
+      <c r="AB128" s="121"/>
+      <c r="AC128" s="121"/>
+      <c r="AD128" s="121"/>
+      <c r="AE128" s="121"/>
+      <c r="AF128" s="121"/>
+      <c r="AG128" s="121"/>
+      <c r="AH128" s="121"/>
     </row>
     <row r="129" spans="1:34">
-      <c r="A129" s="121"/>
-      <c r="B129" s="122"/>
-      <c r="C129" s="122"/>
-      <c r="D129" s="122"/>
-      <c r="E129" s="122"/>
-      <c r="F129" s="122"/>
-      <c r="G129" s="122"/>
-      <c r="H129" s="122"/>
-      <c r="I129" s="122"/>
-      <c r="J129" s="126"/>
-      <c r="K129" s="122"/>
-      <c r="L129" s="122"/>
-      <c r="M129" s="128"/>
-      <c r="N129" s="122"/>
-      <c r="O129" s="122"/>
-      <c r="P129" s="122"/>
-      <c r="Q129" s="122"/>
-      <c r="R129" s="122"/>
-      <c r="S129" s="122"/>
-      <c r="T129" s="122"/>
-      <c r="U129" s="122"/>
-      <c r="V129" s="122"/>
-      <c r="W129" s="122"/>
-      <c r="X129" s="122"/>
-      <c r="Y129" s="122"/>
-      <c r="Z129" s="122"/>
-      <c r="AA129" s="122"/>
-      <c r="AB129" s="122"/>
-      <c r="AC129" s="122"/>
-      <c r="AD129" s="122"/>
-      <c r="AE129" s="122"/>
-      <c r="AF129" s="122"/>
-      <c r="AG129" s="122"/>
-      <c r="AH129" s="122"/>
+      <c r="A129" s="120"/>
+      <c r="B129" s="121"/>
+      <c r="C129" s="121"/>
+      <c r="D129" s="121"/>
+      <c r="E129" s="121"/>
+      <c r="F129" s="121"/>
+      <c r="G129" s="121"/>
+      <c r="H129" s="121"/>
+      <c r="I129" s="121"/>
+      <c r="J129" s="125"/>
+      <c r="K129" s="121"/>
+      <c r="L129" s="121"/>
+      <c r="M129" s="127"/>
+      <c r="N129" s="121"/>
+      <c r="O129" s="121"/>
+      <c r="P129" s="121"/>
+      <c r="Q129" s="121"/>
+      <c r="R129" s="121"/>
+      <c r="S129" s="121"/>
+      <c r="T129" s="121"/>
+      <c r="U129" s="121"/>
+      <c r="V129" s="121"/>
+      <c r="W129" s="121"/>
+      <c r="X129" s="121"/>
+      <c r="Y129" s="121"/>
+      <c r="Z129" s="121"/>
+      <c r="AA129" s="121"/>
+      <c r="AB129" s="121"/>
+      <c r="AC129" s="121"/>
+      <c r="AD129" s="121"/>
+      <c r="AE129" s="121"/>
+      <c r="AF129" s="121"/>
+      <c r="AG129" s="121"/>
+      <c r="AH129" s="121"/>
     </row>
     <row r="130" spans="1:34">
-      <c r="A130" s="121"/>
-      <c r="B130" s="122"/>
-      <c r="C130" s="122"/>
-      <c r="D130" s="122"/>
-      <c r="E130" s="122"/>
-      <c r="F130" s="122"/>
-      <c r="G130" s="122"/>
-      <c r="H130" s="122"/>
-      <c r="I130" s="122"/>
-      <c r="J130" s="126"/>
-      <c r="K130" s="122"/>
-      <c r="L130" s="122"/>
-      <c r="M130" s="128"/>
-      <c r="N130" s="122"/>
-      <c r="O130" s="122"/>
-      <c r="P130" s="122"/>
-      <c r="Q130" s="122"/>
-      <c r="R130" s="122"/>
-      <c r="S130" s="122"/>
-      <c r="T130" s="122"/>
-      <c r="U130" s="122"/>
-      <c r="V130" s="122"/>
-      <c r="W130" s="122"/>
-      <c r="X130" s="122"/>
-      <c r="Y130" s="122"/>
-      <c r="Z130" s="122"/>
-      <c r="AA130" s="122"/>
-      <c r="AB130" s="122"/>
-      <c r="AC130" s="122"/>
-      <c r="AD130" s="122"/>
-      <c r="AE130" s="122"/>
-      <c r="AF130" s="122"/>
-      <c r="AG130" s="122"/>
-      <c r="AH130" s="122"/>
+      <c r="A130" s="120"/>
+      <c r="B130" s="121"/>
+      <c r="C130" s="121"/>
+      <c r="D130" s="121"/>
+      <c r="E130" s="121"/>
+      <c r="F130" s="121"/>
+      <c r="G130" s="121"/>
+      <c r="H130" s="121"/>
+      <c r="I130" s="121"/>
+      <c r="J130" s="125"/>
+      <c r="K130" s="121"/>
+      <c r="L130" s="121"/>
+      <c r="M130" s="127"/>
+      <c r="N130" s="121"/>
+      <c r="O130" s="121"/>
+      <c r="P130" s="121"/>
+      <c r="Q130" s="121"/>
+      <c r="R130" s="121"/>
+      <c r="S130" s="121"/>
+      <c r="T130" s="121"/>
+      <c r="U130" s="121"/>
+      <c r="V130" s="121"/>
+      <c r="W130" s="121"/>
+      <c r="X130" s="121"/>
+      <c r="Y130" s="121"/>
+      <c r="Z130" s="121"/>
+      <c r="AA130" s="121"/>
+      <c r="AB130" s="121"/>
+      <c r="AC130" s="121"/>
+      <c r="AD130" s="121"/>
+      <c r="AE130" s="121"/>
+      <c r="AF130" s="121"/>
+      <c r="AG130" s="121"/>
+      <c r="AH130" s="121"/>
     </row>
     <row r="131" spans="1:34">
-      <c r="A131" s="121"/>
-      <c r="B131" s="122"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="122"/>
-      <c r="E131" s="122"/>
-      <c r="F131" s="122"/>
-      <c r="G131" s="122"/>
-      <c r="H131" s="122"/>
-      <c r="I131" s="122"/>
-      <c r="J131" s="126"/>
-      <c r="K131" s="122"/>
-      <c r="L131" s="122"/>
-      <c r="M131" s="128"/>
-      <c r="N131" s="122"/>
-      <c r="O131" s="122"/>
-      <c r="P131" s="122"/>
-      <c r="Q131" s="122"/>
-      <c r="R131" s="122"/>
-      <c r="S131" s="122"/>
-      <c r="T131" s="122"/>
-      <c r="U131" s="122"/>
-      <c r="V131" s="122"/>
-      <c r="W131" s="122"/>
-      <c r="X131" s="122"/>
-      <c r="Y131" s="122"/>
-      <c r="Z131" s="122"/>
-      <c r="AA131" s="122"/>
-      <c r="AB131" s="122"/>
-      <c r="AC131" s="122"/>
-      <c r="AD131" s="122"/>
-      <c r="AE131" s="122"/>
-      <c r="AF131" s="122"/>
-      <c r="AG131" s="122"/>
-      <c r="AH131" s="122"/>
+      <c r="A131" s="120"/>
+      <c r="B131" s="121"/>
+      <c r="C131" s="121"/>
+      <c r="D131" s="121"/>
+      <c r="E131" s="121"/>
+      <c r="F131" s="121"/>
+      <c r="G131" s="121"/>
+      <c r="H131" s="121"/>
+      <c r="I131" s="121"/>
+      <c r="J131" s="125"/>
+      <c r="K131" s="121"/>
+      <c r="L131" s="121"/>
+      <c r="M131" s="127"/>
+      <c r="N131" s="121"/>
+      <c r="O131" s="121"/>
+      <c r="P131" s="121"/>
+      <c r="Q131" s="121"/>
+      <c r="R131" s="121"/>
+      <c r="S131" s="121"/>
+      <c r="T131" s="121"/>
+      <c r="U131" s="121"/>
+      <c r="V131" s="121"/>
+      <c r="W131" s="121"/>
+      <c r="X131" s="121"/>
+      <c r="Y131" s="121"/>
+      <c r="Z131" s="121"/>
+      <c r="AA131" s="121"/>
+      <c r="AB131" s="121"/>
+      <c r="AC131" s="121"/>
+      <c r="AD131" s="121"/>
+      <c r="AE131" s="121"/>
+      <c r="AF131" s="121"/>
+      <c r="AG131" s="121"/>
+      <c r="AH131" s="121"/>
     </row>
     <row r="132" spans="1:34">
-      <c r="A132" s="121"/>
-      <c r="B132" s="122"/>
-      <c r="C132" s="122"/>
-      <c r="D132" s="122"/>
-      <c r="E132" s="122"/>
-      <c r="F132" s="122"/>
-      <c r="G132" s="122"/>
-      <c r="H132" s="122"/>
-      <c r="I132" s="122"/>
-      <c r="J132" s="126"/>
-      <c r="K132" s="122"/>
-      <c r="L132" s="122"/>
-      <c r="M132" s="128"/>
-      <c r="N132" s="122"/>
-      <c r="O132" s="122"/>
-      <c r="P132" s="122"/>
-      <c r="Q132" s="122"/>
-      <c r="R132" s="122"/>
-      <c r="S132" s="122"/>
-      <c r="T132" s="122"/>
-      <c r="U132" s="122"/>
-      <c r="V132" s="122"/>
-      <c r="W132" s="122"/>
-      <c r="X132" s="122"/>
-      <c r="Y132" s="122"/>
-      <c r="Z132" s="122"/>
-      <c r="AA132" s="122"/>
-      <c r="AB132" s="122"/>
-      <c r="AC132" s="122"/>
-      <c r="AD132" s="122"/>
-      <c r="AE132" s="122"/>
-      <c r="AF132" s="122"/>
-      <c r="AG132" s="122"/>
-      <c r="AH132" s="122"/>
+      <c r="A132" s="120"/>
+      <c r="B132" s="121"/>
+      <c r="C132" s="121"/>
+      <c r="D132" s="121"/>
+      <c r="E132" s="121"/>
+      <c r="F132" s="121"/>
+      <c r="G132" s="121"/>
+      <c r="H132" s="121"/>
+      <c r="I132" s="121"/>
+      <c r="J132" s="125"/>
+      <c r="K132" s="121"/>
+      <c r="L132" s="121"/>
+      <c r="M132" s="127"/>
+      <c r="N132" s="121"/>
+      <c r="O132" s="121"/>
+      <c r="P132" s="121"/>
+      <c r="Q132" s="121"/>
+      <c r="R132" s="121"/>
+      <c r="S132" s="121"/>
+      <c r="T132" s="121"/>
+      <c r="U132" s="121"/>
+      <c r="V132" s="121"/>
+      <c r="W132" s="121"/>
+      <c r="X132" s="121"/>
+      <c r="Y132" s="121"/>
+      <c r="Z132" s="121"/>
+      <c r="AA132" s="121"/>
+      <c r="AB132" s="121"/>
+      <c r="AC132" s="121"/>
+      <c r="AD132" s="121"/>
+      <c r="AE132" s="121"/>
+      <c r="AF132" s="121"/>
+      <c r="AG132" s="121"/>
+      <c r="AH132" s="121"/>
     </row>
     <row r="133" spans="1:34">
-      <c r="A133" s="121"/>
-      <c r="B133" s="122"/>
-      <c r="C133" s="122"/>
-      <c r="D133" s="122"/>
-      <c r="E133" s="122"/>
-      <c r="F133" s="122"/>
-      <c r="G133" s="122"/>
-      <c r="H133" s="122"/>
-      <c r="I133" s="122"/>
-      <c r="J133" s="126"/>
-      <c r="K133" s="122"/>
-      <c r="L133" s="122"/>
-      <c r="M133" s="128"/>
-      <c r="N133" s="122"/>
-      <c r="O133" s="122"/>
-      <c r="P133" s="122"/>
-      <c r="Q133" s="122"/>
-      <c r="R133" s="122"/>
-      <c r="S133" s="122"/>
-      <c r="T133" s="122"/>
-      <c r="U133" s="122"/>
-      <c r="V133" s="122"/>
-      <c r="W133" s="122"/>
-      <c r="X133" s="122"/>
-      <c r="Y133" s="122"/>
-      <c r="Z133" s="122"/>
-      <c r="AA133" s="122"/>
-      <c r="AB133" s="122"/>
-      <c r="AC133" s="122"/>
-      <c r="AD133" s="122"/>
-      <c r="AE133" s="122"/>
-      <c r="AF133" s="122"/>
-      <c r="AG133" s="122"/>
-      <c r="AH133" s="122"/>
+      <c r="A133" s="120"/>
+      <c r="B133" s="121"/>
+      <c r="C133" s="121"/>
+      <c r="D133" s="121"/>
+      <c r="E133" s="121"/>
+      <c r="F133" s="121"/>
+      <c r="G133" s="121"/>
+      <c r="H133" s="121"/>
+      <c r="I133" s="121"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="121"/>
+      <c r="L133" s="121"/>
+      <c r="M133" s="127"/>
+      <c r="N133" s="121"/>
+      <c r="O133" s="121"/>
+      <c r="P133" s="121"/>
+      <c r="Q133" s="121"/>
+      <c r="R133" s="121"/>
+      <c r="S133" s="121"/>
+      <c r="T133" s="121"/>
+      <c r="U133" s="121"/>
+      <c r="V133" s="121"/>
+      <c r="W133" s="121"/>
+      <c r="X133" s="121"/>
+      <c r="Y133" s="121"/>
+      <c r="Z133" s="121"/>
+      <c r="AA133" s="121"/>
+      <c r="AB133" s="121"/>
+      <c r="AC133" s="121"/>
+      <c r="AD133" s="121"/>
+      <c r="AE133" s="121"/>
+      <c r="AF133" s="121"/>
+      <c r="AG133" s="121"/>
+      <c r="AH133" s="121"/>
     </row>
     <row r="134" spans="1:34">
-      <c r="A134" s="121"/>
-      <c r="B134" s="122"/>
-      <c r="C134" s="122"/>
-      <c r="D134" s="122"/>
-      <c r="E134" s="122"/>
-      <c r="F134" s="122"/>
-      <c r="G134" s="122"/>
-      <c r="H134" s="122"/>
-      <c r="I134" s="122"/>
-      <c r="J134" s="126"/>
-      <c r="K134" s="122"/>
-      <c r="L134" s="122"/>
-      <c r="M134" s="128"/>
-      <c r="N134" s="122"/>
-      <c r="O134" s="122"/>
-      <c r="P134" s="122"/>
-      <c r="Q134" s="122"/>
-      <c r="R134" s="122"/>
-      <c r="S134" s="122"/>
-      <c r="T134" s="122"/>
-      <c r="U134" s="122"/>
-      <c r="V134" s="122"/>
-      <c r="W134" s="122"/>
-      <c r="X134" s="122"/>
-      <c r="Y134" s="122"/>
-      <c r="Z134" s="122"/>
-      <c r="AA134" s="122"/>
-      <c r="AB134" s="122"/>
-      <c r="AC134" s="122"/>
-      <c r="AD134" s="122"/>
-      <c r="AE134" s="122"/>
-      <c r="AF134" s="122"/>
-      <c r="AG134" s="122"/>
-      <c r="AH134" s="122"/>
+      <c r="A134" s="120"/>
+      <c r="B134" s="121"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="121"/>
+      <c r="E134" s="121"/>
+      <c r="F134" s="121"/>
+      <c r="G134" s="121"/>
+      <c r="H134" s="121"/>
+      <c r="I134" s="121"/>
+      <c r="J134" s="125"/>
+      <c r="K134" s="121"/>
+      <c r="L134" s="121"/>
+      <c r="M134" s="127"/>
+      <c r="N134" s="121"/>
+      <c r="O134" s="121"/>
+      <c r="P134" s="121"/>
+      <c r="Q134" s="121"/>
+      <c r="R134" s="121"/>
+      <c r="S134" s="121"/>
+      <c r="T134" s="121"/>
+      <c r="U134" s="121"/>
+      <c r="V134" s="121"/>
+      <c r="W134" s="121"/>
+      <c r="X134" s="121"/>
+      <c r="Y134" s="121"/>
+      <c r="Z134" s="121"/>
+      <c r="AA134" s="121"/>
+      <c r="AB134" s="121"/>
+      <c r="AC134" s="121"/>
+      <c r="AD134" s="121"/>
+      <c r="AE134" s="121"/>
+      <c r="AF134" s="121"/>
+      <c r="AG134" s="121"/>
+      <c r="AH134" s="121"/>
     </row>
     <row r="135" spans="1:34">
-      <c r="A135" s="121"/>
-      <c r="B135" s="122"/>
-      <c r="C135" s="122"/>
-      <c r="D135" s="122"/>
-      <c r="E135" s="122"/>
-      <c r="F135" s="122"/>
-      <c r="G135" s="122"/>
-      <c r="H135" s="122"/>
-      <c r="I135" s="122"/>
-      <c r="J135" s="126"/>
-      <c r="K135" s="122"/>
-      <c r="L135" s="122"/>
-      <c r="M135" s="128"/>
-      <c r="N135" s="122"/>
-      <c r="O135" s="122"/>
-      <c r="P135" s="122"/>
-      <c r="Q135" s="122"/>
-      <c r="R135" s="122"/>
-      <c r="S135" s="122"/>
-      <c r="T135" s="122"/>
-      <c r="U135" s="122"/>
-      <c r="V135" s="122"/>
-      <c r="W135" s="122"/>
-      <c r="X135" s="122"/>
-      <c r="Y135" s="122"/>
-      <c r="Z135" s="122"/>
-      <c r="AA135" s="122"/>
-      <c r="AB135" s="122"/>
-      <c r="AC135" s="122"/>
-      <c r="AD135" s="122"/>
-      <c r="AE135" s="122"/>
-      <c r="AF135" s="122"/>
-      <c r="AG135" s="122"/>
-      <c r="AH135" s="122"/>
+      <c r="A135" s="120"/>
+      <c r="B135" s="121"/>
+      <c r="C135" s="121"/>
+      <c r="D135" s="121"/>
+      <c r="E135" s="121"/>
+      <c r="F135" s="121"/>
+      <c r="G135" s="121"/>
+      <c r="H135" s="121"/>
+      <c r="I135" s="121"/>
+      <c r="J135" s="125"/>
+      <c r="K135" s="121"/>
+      <c r="L135" s="121"/>
+      <c r="M135" s="127"/>
+      <c r="N135" s="121"/>
+      <c r="O135" s="121"/>
+      <c r="P135" s="121"/>
+      <c r="Q135" s="121"/>
+      <c r="R135" s="121"/>
+      <c r="S135" s="121"/>
+      <c r="T135" s="121"/>
+      <c r="U135" s="121"/>
+      <c r="V135" s="121"/>
+      <c r="W135" s="121"/>
+      <c r="X135" s="121"/>
+      <c r="Y135" s="121"/>
+      <c r="Z135" s="121"/>
+      <c r="AA135" s="121"/>
+      <c r="AB135" s="121"/>
+      <c r="AC135" s="121"/>
+      <c r="AD135" s="121"/>
+      <c r="AE135" s="121"/>
+      <c r="AF135" s="121"/>
+      <c r="AG135" s="121"/>
+      <c r="AH135" s="121"/>
     </row>
     <row r="136" spans="1:34">
-      <c r="A136" s="121"/>
-      <c r="B136" s="122"/>
-      <c r="C136" s="122"/>
-      <c r="D136" s="122"/>
-      <c r="E136" s="122"/>
-      <c r="F136" s="122"/>
-      <c r="G136" s="122"/>
-      <c r="H136" s="122"/>
-      <c r="I136" s="122"/>
-      <c r="J136" s="126"/>
-      <c r="K136" s="122"/>
-      <c r="L136" s="122"/>
-      <c r="M136" s="128"/>
-      <c r="N136" s="122"/>
-      <c r="O136" s="122"/>
-      <c r="P136" s="122"/>
-      <c r="Q136" s="122"/>
-      <c r="R136" s="122"/>
-      <c r="S136" s="122"/>
-      <c r="T136" s="122"/>
-      <c r="U136" s="122"/>
-      <c r="V136" s="122"/>
-      <c r="W136" s="122"/>
-      <c r="X136" s="122"/>
-      <c r="Y136" s="122"/>
-      <c r="Z136" s="122"/>
-      <c r="AA136" s="122"/>
-      <c r="AB136" s="122"/>
-      <c r="AC136" s="122"/>
-      <c r="AD136" s="122"/>
-      <c r="AE136" s="122"/>
-      <c r="AF136" s="122"/>
-      <c r="AG136" s="122"/>
-      <c r="AH136" s="122"/>
+      <c r="A136" s="120"/>
+      <c r="B136" s="121"/>
+      <c r="C136" s="121"/>
+      <c r="D136" s="121"/>
+      <c r="E136" s="121"/>
+      <c r="F136" s="121"/>
+      <c r="G136" s="121"/>
+      <c r="H136" s="121"/>
+      <c r="I136" s="121"/>
+      <c r="J136" s="125"/>
+      <c r="K136" s="121"/>
+      <c r="L136" s="121"/>
+      <c r="M136" s="127"/>
+      <c r="N136" s="121"/>
+      <c r="O136" s="121"/>
+      <c r="P136" s="121"/>
+      <c r="Q136" s="121"/>
+      <c r="R136" s="121"/>
+      <c r="S136" s="121"/>
+      <c r="T136" s="121"/>
+      <c r="U136" s="121"/>
+      <c r="V136" s="121"/>
+      <c r="W136" s="121"/>
+      <c r="X136" s="121"/>
+      <c r="Y136" s="121"/>
+      <c r="Z136" s="121"/>
+      <c r="AA136" s="121"/>
+      <c r="AB136" s="121"/>
+      <c r="AC136" s="121"/>
+      <c r="AD136" s="121"/>
+      <c r="AE136" s="121"/>
+      <c r="AF136" s="121"/>
+      <c r="AG136" s="121"/>
+      <c r="AH136" s="121"/>
     </row>
     <row r="137" spans="1:34">
-      <c r="A137" s="121"/>
-      <c r="B137" s="122"/>
-      <c r="C137" s="122"/>
-      <c r="D137" s="122"/>
-      <c r="E137" s="122"/>
-      <c r="F137" s="122"/>
-      <c r="G137" s="122"/>
-      <c r="H137" s="122"/>
-      <c r="I137" s="122"/>
-      <c r="J137" s="126"/>
-      <c r="K137" s="122"/>
-      <c r="L137" s="122"/>
-      <c r="M137" s="128"/>
-      <c r="N137" s="122"/>
-      <c r="O137" s="122"/>
-      <c r="P137" s="122"/>
-      <c r="Q137" s="122"/>
-      <c r="R137" s="122"/>
-      <c r="S137" s="122"/>
-      <c r="T137" s="122"/>
-      <c r="U137" s="122"/>
-      <c r="V137" s="122"/>
-      <c r="W137" s="122"/>
-      <c r="X137" s="122"/>
-      <c r="Y137" s="122"/>
-      <c r="Z137" s="122"/>
-      <c r="AA137" s="122"/>
-      <c r="AB137" s="122"/>
-      <c r="AC137" s="122"/>
-      <c r="AD137" s="122"/>
-      <c r="AE137" s="122"/>
-      <c r="AF137" s="122"/>
-      <c r="AG137" s="122"/>
-      <c r="AH137" s="122"/>
+      <c r="A137" s="120"/>
+      <c r="B137" s="121"/>
+      <c r="C137" s="121"/>
+      <c r="D137" s="121"/>
+      <c r="E137" s="121"/>
+      <c r="F137" s="121"/>
+      <c r="G137" s="121"/>
+      <c r="H137" s="121"/>
+      <c r="I137" s="121"/>
+      <c r="J137" s="125"/>
+      <c r="K137" s="121"/>
+      <c r="L137" s="121"/>
+      <c r="M137" s="127"/>
+      <c r="N137" s="121"/>
+      <c r="O137" s="121"/>
+      <c r="P137" s="121"/>
+      <c r="Q137" s="121"/>
+      <c r="R137" s="121"/>
+      <c r="S137" s="121"/>
+      <c r="T137" s="121"/>
+      <c r="U137" s="121"/>
+      <c r="V137" s="121"/>
+      <c r="W137" s="121"/>
+      <c r="X137" s="121"/>
+      <c r="Y137" s="121"/>
+      <c r="Z137" s="121"/>
+      <c r="AA137" s="121"/>
+      <c r="AB137" s="121"/>
+      <c r="AC137" s="121"/>
+      <c r="AD137" s="121"/>
+      <c r="AE137" s="121"/>
+      <c r="AF137" s="121"/>
+      <c r="AG137" s="121"/>
+      <c r="AH137" s="121"/>
     </row>
     <row r="138" spans="1:34">
-      <c r="A138" s="121"/>
-      <c r="B138" s="122"/>
-      <c r="C138" s="122"/>
-      <c r="D138" s="122"/>
-      <c r="E138" s="122"/>
-      <c r="F138" s="122"/>
-      <c r="G138" s="122"/>
-      <c r="H138" s="122"/>
-      <c r="I138" s="122"/>
-      <c r="J138" s="126"/>
-      <c r="K138" s="122"/>
-      <c r="L138" s="122"/>
-      <c r="M138" s="128"/>
-      <c r="N138" s="122"/>
-      <c r="O138" s="122"/>
-      <c r="P138" s="122"/>
-      <c r="Q138" s="122"/>
-      <c r="R138" s="122"/>
-      <c r="S138" s="122"/>
-      <c r="T138" s="122"/>
-      <c r="U138" s="122"/>
-      <c r="V138" s="122"/>
-      <c r="W138" s="122"/>
-      <c r="X138" s="122"/>
-      <c r="Y138" s="122"/>
-      <c r="Z138" s="122"/>
-      <c r="AA138" s="122"/>
-      <c r="AB138" s="122"/>
-      <c r="AC138" s="122"/>
-      <c r="AD138" s="122"/>
-      <c r="AE138" s="122"/>
-      <c r="AF138" s="122"/>
-      <c r="AG138" s="122"/>
-      <c r="AH138" s="122"/>
+      <c r="A138" s="120"/>
+      <c r="B138" s="121"/>
+      <c r="C138" s="121"/>
+      <c r="D138" s="121"/>
+      <c r="E138" s="121"/>
+      <c r="F138" s="121"/>
+      <c r="G138" s="121"/>
+      <c r="H138" s="121"/>
+      <c r="I138" s="121"/>
+      <c r="J138" s="125"/>
+      <c r="K138" s="121"/>
+      <c r="L138" s="121"/>
+      <c r="M138" s="127"/>
+      <c r="N138" s="121"/>
+      <c r="O138" s="121"/>
+      <c r="P138" s="121"/>
+      <c r="Q138" s="121"/>
+      <c r="R138" s="121"/>
+      <c r="S138" s="121"/>
+      <c r="T138" s="121"/>
+      <c r="U138" s="121"/>
+      <c r="V138" s="121"/>
+      <c r="W138" s="121"/>
+      <c r="X138" s="121"/>
+      <c r="Y138" s="121"/>
+      <c r="Z138" s="121"/>
+      <c r="AA138" s="121"/>
+      <c r="AB138" s="121"/>
+      <c r="AC138" s="121"/>
+      <c r="AD138" s="121"/>
+      <c r="AE138" s="121"/>
+      <c r="AF138" s="121"/>
+      <c r="AG138" s="121"/>
+      <c r="AH138" s="121"/>
     </row>
     <row r="139" spans="1:34">
-      <c r="A139" s="121"/>
-      <c r="B139" s="122"/>
-      <c r="C139" s="122"/>
-      <c r="D139" s="122"/>
-      <c r="E139" s="122"/>
-      <c r="F139" s="122"/>
-      <c r="G139" s="122"/>
-      <c r="H139" s="122"/>
-      <c r="I139" s="122"/>
-      <c r="J139" s="126"/>
-      <c r="K139" s="122"/>
-      <c r="L139" s="122"/>
-      <c r="M139" s="128"/>
-      <c r="N139" s="122"/>
-      <c r="O139" s="122"/>
-      <c r="P139" s="122"/>
-      <c r="Q139" s="122"/>
-      <c r="R139" s="122"/>
-      <c r="S139" s="122"/>
-      <c r="T139" s="122"/>
-      <c r="U139" s="122"/>
-      <c r="V139" s="122"/>
-      <c r="W139" s="122"/>
-      <c r="X139" s="122"/>
-      <c r="Y139" s="122"/>
-      <c r="Z139" s="122"/>
-      <c r="AA139" s="122"/>
-      <c r="AB139" s="122"/>
-      <c r="AC139" s="122"/>
-      <c r="AD139" s="122"/>
-      <c r="AE139" s="122"/>
-      <c r="AF139" s="122"/>
-      <c r="AG139" s="122"/>
-      <c r="AH139" s="122"/>
+      <c r="A139" s="120"/>
+      <c r="B139" s="121"/>
+      <c r="C139" s="121"/>
+      <c r="D139" s="121"/>
+      <c r="E139" s="121"/>
+      <c r="F139" s="121"/>
+      <c r="G139" s="121"/>
+      <c r="H139" s="121"/>
+      <c r="I139" s="121"/>
+      <c r="J139" s="125"/>
+      <c r="K139" s="121"/>
+      <c r="L139" s="121"/>
+      <c r="M139" s="127"/>
+      <c r="N139" s="121"/>
+      <c r="O139" s="121"/>
+      <c r="P139" s="121"/>
+      <c r="Q139" s="121"/>
+      <c r="R139" s="121"/>
+      <c r="S139" s="121"/>
+      <c r="T139" s="121"/>
+      <c r="U139" s="121"/>
+      <c r="V139" s="121"/>
+      <c r="W139" s="121"/>
+      <c r="X139" s="121"/>
+      <c r="Y139" s="121"/>
+      <c r="Z139" s="121"/>
+      <c r="AA139" s="121"/>
+      <c r="AB139" s="121"/>
+      <c r="AC139" s="121"/>
+      <c r="AD139" s="121"/>
+      <c r="AE139" s="121"/>
+      <c r="AF139" s="121"/>
+      <c r="AG139" s="121"/>
+      <c r="AH139" s="121"/>
     </row>
     <row r="140" spans="1:34">
-      <c r="A140" s="121"/>
-      <c r="B140" s="122"/>
-      <c r="C140" s="122"/>
-      <c r="D140" s="122"/>
-      <c r="E140" s="122"/>
-      <c r="F140" s="122"/>
-      <c r="G140" s="122"/>
-      <c r="H140" s="122"/>
-      <c r="I140" s="122"/>
-      <c r="J140" s="126"/>
-      <c r="K140" s="122"/>
-      <c r="L140" s="122"/>
-      <c r="M140" s="128"/>
-      <c r="N140" s="122"/>
-      <c r="O140" s="122"/>
-      <c r="P140" s="122"/>
-      <c r="Q140" s="122"/>
-      <c r="R140" s="122"/>
-      <c r="S140" s="122"/>
-      <c r="T140" s="122"/>
-      <c r="U140" s="122"/>
-      <c r="V140" s="122"/>
-      <c r="W140" s="122"/>
-      <c r="X140" s="122"/>
-      <c r="Y140" s="122"/>
-      <c r="Z140" s="122"/>
-      <c r="AA140" s="122"/>
-      <c r="AB140" s="122"/>
-      <c r="AC140" s="122"/>
-      <c r="AD140" s="122"/>
-      <c r="AE140" s="122"/>
-      <c r="AF140" s="122"/>
-      <c r="AG140" s="122"/>
-      <c r="AH140" s="122"/>
+      <c r="A140" s="120"/>
+      <c r="B140" s="121"/>
+      <c r="C140" s="121"/>
+      <c r="D140" s="121"/>
+      <c r="E140" s="121"/>
+      <c r="F140" s="121"/>
+      <c r="G140" s="121"/>
+      <c r="H140" s="121"/>
+      <c r="I140" s="121"/>
+      <c r="J140" s="125"/>
+      <c r="K140" s="121"/>
+      <c r="L140" s="121"/>
+      <c r="M140" s="127"/>
+      <c r="N140" s="121"/>
+      <c r="O140" s="121"/>
+      <c r="P140" s="121"/>
+      <c r="Q140" s="121"/>
+      <c r="R140" s="121"/>
+      <c r="S140" s="121"/>
+      <c r="T140" s="121"/>
+      <c r="U140" s="121"/>
+      <c r="V140" s="121"/>
+      <c r="W140" s="121"/>
+      <c r="X140" s="121"/>
+      <c r="Y140" s="121"/>
+      <c r="Z140" s="121"/>
+      <c r="AA140" s="121"/>
+      <c r="AB140" s="121"/>
+      <c r="AC140" s="121"/>
+      <c r="AD140" s="121"/>
+      <c r="AE140" s="121"/>
+      <c r="AF140" s="121"/>
+      <c r="AG140" s="121"/>
+      <c r="AH140" s="121"/>
     </row>
     <row r="141" spans="1:34">
-      <c r="A141" s="121"/>
-      <c r="B141" s="122"/>
-      <c r="C141" s="122"/>
-      <c r="D141" s="122"/>
-      <c r="E141" s="122"/>
-      <c r="F141" s="122"/>
-      <c r="G141" s="122"/>
-      <c r="H141" s="122"/>
-      <c r="I141" s="122"/>
-      <c r="J141" s="126"/>
-      <c r="K141" s="122"/>
-      <c r="L141" s="122"/>
-      <c r="M141" s="128"/>
-      <c r="N141" s="122"/>
-      <c r="O141" s="122"/>
-      <c r="P141" s="122"/>
-      <c r="Q141" s="122"/>
-      <c r="R141" s="122"/>
-      <c r="S141" s="122"/>
-      <c r="T141" s="122"/>
-      <c r="U141" s="122"/>
-      <c r="V141" s="122"/>
-      <c r="W141" s="122"/>
-      <c r="X141" s="122"/>
-      <c r="Y141" s="122"/>
-      <c r="Z141" s="122"/>
-      <c r="AA141" s="122"/>
-      <c r="AB141" s="122"/>
-      <c r="AC141" s="122"/>
-      <c r="AD141" s="122"/>
-      <c r="AE141" s="122"/>
-      <c r="AF141" s="122"/>
-      <c r="AG141" s="122"/>
-      <c r="AH141" s="122"/>
+      <c r="A141" s="120"/>
+      <c r="B141" s="121"/>
+      <c r="C141" s="121"/>
+      <c r="D141" s="121"/>
+      <c r="E141" s="121"/>
+      <c r="F141" s="121"/>
+      <c r="G141" s="121"/>
+      <c r="H141" s="121"/>
+      <c r="I141" s="121"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="121"/>
+      <c r="L141" s="121"/>
+      <c r="M141" s="127"/>
+      <c r="N141" s="121"/>
+      <c r="O141" s="121"/>
+      <c r="P141" s="121"/>
+      <c r="Q141" s="121"/>
+      <c r="R141" s="121"/>
+      <c r="S141" s="121"/>
+      <c r="T141" s="121"/>
+      <c r="U141" s="121"/>
+      <c r="V141" s="121"/>
+      <c r="W141" s="121"/>
+      <c r="X141" s="121"/>
+      <c r="Y141" s="121"/>
+      <c r="Z141" s="121"/>
+      <c r="AA141" s="121"/>
+      <c r="AB141" s="121"/>
+      <c r="AC141" s="121"/>
+      <c r="AD141" s="121"/>
+      <c r="AE141" s="121"/>
+      <c r="AF141" s="121"/>
+      <c r="AG141" s="121"/>
+      <c r="AH141" s="121"/>
     </row>
     <row r="142" spans="1:34">
-      <c r="A142" s="121"/>
-      <c r="B142" s="122"/>
-      <c r="C142" s="122"/>
-      <c r="D142" s="122"/>
-      <c r="E142" s="122"/>
-      <c r="F142" s="122"/>
-      <c r="G142" s="122"/>
-      <c r="H142" s="122"/>
-      <c r="I142" s="122"/>
-      <c r="J142" s="126"/>
-      <c r="K142" s="122"/>
-      <c r="L142" s="122"/>
-      <c r="M142" s="128"/>
-      <c r="N142" s="122"/>
-      <c r="O142" s="122"/>
-      <c r="P142" s="122"/>
-      <c r="Q142" s="122"/>
-      <c r="R142" s="122"/>
-      <c r="S142" s="122"/>
-      <c r="T142" s="122"/>
-      <c r="U142" s="122"/>
-      <c r="V142" s="122"/>
-      <c r="W142" s="122"/>
-      <c r="X142" s="122"/>
-      <c r="Y142" s="122"/>
-      <c r="Z142" s="122"/>
-      <c r="AA142" s="122"/>
-      <c r="AB142" s="122"/>
-      <c r="AC142" s="122"/>
-      <c r="AD142" s="122"/>
-      <c r="AE142" s="122"/>
-      <c r="AF142" s="122"/>
-      <c r="AG142" s="122"/>
-      <c r="AH142" s="122"/>
+      <c r="A142" s="120"/>
+      <c r="B142" s="121"/>
+      <c r="C142" s="121"/>
+      <c r="D142" s="121"/>
+      <c r="E142" s="121"/>
+      <c r="F142" s="121"/>
+      <c r="G142" s="121"/>
+      <c r="H142" s="121"/>
+      <c r="I142" s="121"/>
+      <c r="J142" s="125"/>
+      <c r="K142" s="121"/>
+      <c r="L142" s="121"/>
+      <c r="M142" s="127"/>
+      <c r="N142" s="121"/>
+      <c r="O142" s="121"/>
+      <c r="P142" s="121"/>
+      <c r="Q142" s="121"/>
+      <c r="R142" s="121"/>
+      <c r="S142" s="121"/>
+      <c r="T142" s="121"/>
+      <c r="U142" s="121"/>
+      <c r="V142" s="121"/>
+      <c r="W142" s="121"/>
+      <c r="X142" s="121"/>
+      <c r="Y142" s="121"/>
+      <c r="Z142" s="121"/>
+      <c r="AA142" s="121"/>
+      <c r="AB142" s="121"/>
+      <c r="AC142" s="121"/>
+      <c r="AD142" s="121"/>
+      <c r="AE142" s="121"/>
+      <c r="AF142" s="121"/>
+      <c r="AG142" s="121"/>
+      <c r="AH142" s="121"/>
     </row>
     <row r="143" spans="1:34">
-      <c r="A143" s="121"/>
-      <c r="B143" s="122"/>
-      <c r="C143" s="122"/>
-      <c r="D143" s="122"/>
-      <c r="E143" s="122"/>
-      <c r="F143" s="122"/>
-      <c r="G143" s="122"/>
-      <c r="H143" s="122"/>
-      <c r="I143" s="122"/>
-      <c r="J143" s="126"/>
-      <c r="K143" s="122"/>
-      <c r="L143" s="122"/>
-      <c r="M143" s="128"/>
-      <c r="N143" s="122"/>
-      <c r="O143" s="122"/>
-      <c r="P143" s="122"/>
-      <c r="Q143" s="122"/>
-      <c r="R143" s="122"/>
-      <c r="S143" s="122"/>
-      <c r="T143" s="122"/>
-      <c r="U143" s="122"/>
-      <c r="V143" s="122"/>
-      <c r="W143" s="122"/>
-      <c r="X143" s="122"/>
-      <c r="Y143" s="122"/>
-      <c r="Z143" s="122"/>
-      <c r="AA143" s="122"/>
-      <c r="AB143" s="122"/>
-      <c r="AC143" s="122"/>
-      <c r="AD143" s="122"/>
-      <c r="AE143" s="122"/>
-      <c r="AF143" s="122"/>
-      <c r="AG143" s="122"/>
-      <c r="AH143" s="122"/>
+      <c r="A143" s="120"/>
+      <c r="B143" s="121"/>
+      <c r="C143" s="121"/>
+      <c r="D143" s="121"/>
+      <c r="E143" s="121"/>
+      <c r="F143" s="121"/>
+      <c r="G143" s="121"/>
+      <c r="H143" s="121"/>
+      <c r="I143" s="121"/>
+      <c r="J143" s="125"/>
+      <c r="K143" s="121"/>
+      <c r="L143" s="121"/>
+      <c r="M143" s="127"/>
+      <c r="N143" s="121"/>
+      <c r="O143" s="121"/>
+      <c r="P143" s="121"/>
+      <c r="Q143" s="121"/>
+      <c r="R143" s="121"/>
+      <c r="S143" s="121"/>
+      <c r="T143" s="121"/>
+      <c r="U143" s="121"/>
+      <c r="V143" s="121"/>
+      <c r="W143" s="121"/>
+      <c r="X143" s="121"/>
+      <c r="Y143" s="121"/>
+      <c r="Z143" s="121"/>
+      <c r="AA143" s="121"/>
+      <c r="AB143" s="121"/>
+      <c r="AC143" s="121"/>
+      <c r="AD143" s="121"/>
+      <c r="AE143" s="121"/>
+      <c r="AF143" s="121"/>
+      <c r="AG143" s="121"/>
+      <c r="AH143" s="121"/>
     </row>
     <row r="144" spans="1:34">
-      <c r="A144" s="121"/>
-      <c r="B144" s="122"/>
-      <c r="C144" s="122"/>
-      <c r="D144" s="122"/>
-      <c r="E144" s="122"/>
-      <c r="F144" s="122"/>
-      <c r="G144" s="122"/>
-      <c r="H144" s="122"/>
-      <c r="I144" s="122"/>
-      <c r="J144" s="126"/>
-      <c r="K144" s="122"/>
-      <c r="L144" s="122"/>
-      <c r="M144" s="128"/>
-      <c r="N144" s="122"/>
-      <c r="O144" s="122"/>
-      <c r="P144" s="122"/>
-      <c r="Q144" s="122"/>
-      <c r="R144" s="122"/>
-      <c r="S144" s="122"/>
-      <c r="T144" s="122"/>
-      <c r="U144" s="122"/>
-      <c r="V144" s="122"/>
-      <c r="W144" s="122"/>
-      <c r="X144" s="122"/>
-      <c r="Y144" s="122"/>
-      <c r="Z144" s="122"/>
-      <c r="AA144" s="122"/>
-      <c r="AB144" s="122"/>
-      <c r="AC144" s="122"/>
-      <c r="AD144" s="122"/>
-      <c r="AE144" s="122"/>
-      <c r="AF144" s="122"/>
-      <c r="AG144" s="122"/>
-      <c r="AH144" s="122"/>
+      <c r="A144" s="120"/>
+      <c r="B144" s="121"/>
+      <c r="C144" s="121"/>
+      <c r="D144" s="121"/>
+      <c r="E144" s="121"/>
+      <c r="F144" s="121"/>
+      <c r="G144" s="121"/>
+      <c r="H144" s="121"/>
+      <c r="I144" s="121"/>
+      <c r="J144" s="125"/>
+      <c r="K144" s="121"/>
+      <c r="L144" s="121"/>
+      <c r="M144" s="127"/>
+      <c r="N144" s="121"/>
+      <c r="O144" s="121"/>
+      <c r="P144" s="121"/>
+      <c r="Q144" s="121"/>
+      <c r="R144" s="121"/>
+      <c r="S144" s="121"/>
+      <c r="T144" s="121"/>
+      <c r="U144" s="121"/>
+      <c r="V144" s="121"/>
+      <c r="W144" s="121"/>
+      <c r="X144" s="121"/>
+      <c r="Y144" s="121"/>
+      <c r="Z144" s="121"/>
+      <c r="AA144" s="121"/>
+      <c r="AB144" s="121"/>
+      <c r="AC144" s="121"/>
+      <c r="AD144" s="121"/>
+      <c r="AE144" s="121"/>
+      <c r="AF144" s="121"/>
+      <c r="AG144" s="121"/>
+      <c r="AH144" s="121"/>
     </row>
     <row r="145" spans="1:34">
-      <c r="A145" s="121"/>
-      <c r="B145" s="122"/>
-      <c r="C145" s="122"/>
-      <c r="D145" s="122"/>
-      <c r="E145" s="122"/>
-      <c r="F145" s="122"/>
-      <c r="G145" s="122"/>
-      <c r="H145" s="122"/>
-      <c r="I145" s="122"/>
-      <c r="J145" s="126"/>
-      <c r="K145" s="122"/>
-      <c r="L145" s="122"/>
-      <c r="M145" s="128"/>
-      <c r="N145" s="122"/>
-      <c r="O145" s="122"/>
-      <c r="P145" s="122"/>
-      <c r="Q145" s="122"/>
-      <c r="R145" s="122"/>
-      <c r="S145" s="122"/>
-      <c r="T145" s="122"/>
-      <c r="U145" s="122"/>
-      <c r="V145" s="122"/>
-      <c r="W145" s="122"/>
-      <c r="X145" s="122"/>
-      <c r="Y145" s="122"/>
-      <c r="Z145" s="122"/>
-      <c r="AA145" s="122"/>
-      <c r="AB145" s="122"/>
-      <c r="AC145" s="122"/>
-      <c r="AD145" s="122"/>
-      <c r="AE145" s="122"/>
-      <c r="AF145" s="122"/>
-      <c r="AG145" s="122"/>
-      <c r="AH145" s="122"/>
+      <c r="A145" s="120"/>
+      <c r="B145" s="121"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="121"/>
+      <c r="E145" s="121"/>
+      <c r="F145" s="121"/>
+      <c r="G145" s="121"/>
+      <c r="H145" s="121"/>
+      <c r="I145" s="121"/>
+      <c r="J145" s="125"/>
+      <c r="K145" s="121"/>
+      <c r="L145" s="121"/>
+      <c r="M145" s="127"/>
+      <c r="N145" s="121"/>
+      <c r="O145" s="121"/>
+      <c r="P145" s="121"/>
+      <c r="Q145" s="121"/>
+      <c r="R145" s="121"/>
+      <c r="S145" s="121"/>
+      <c r="T145" s="121"/>
+      <c r="U145" s="121"/>
+      <c r="V145" s="121"/>
+      <c r="W145" s="121"/>
+      <c r="X145" s="121"/>
+      <c r="Y145" s="121"/>
+      <c r="Z145" s="121"/>
+      <c r="AA145" s="121"/>
+      <c r="AB145" s="121"/>
+      <c r="AC145" s="121"/>
+      <c r="AD145" s="121"/>
+      <c r="AE145" s="121"/>
+      <c r="AF145" s="121"/>
+      <c r="AG145" s="121"/>
+      <c r="AH145" s="121"/>
     </row>
     <row r="146" spans="1:34">
-      <c r="A146" s="121"/>
-      <c r="B146" s="122"/>
-      <c r="C146" s="122"/>
-      <c r="D146" s="122"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="122"/>
-      <c r="G146" s="122"/>
-      <c r="H146" s="122"/>
-      <c r="I146" s="122"/>
-      <c r="J146" s="126"/>
-      <c r="K146" s="122"/>
-      <c r="L146" s="122"/>
-      <c r="M146" s="128"/>
-      <c r="N146" s="122"/>
-      <c r="O146" s="122"/>
-      <c r="P146" s="122"/>
-      <c r="Q146" s="122"/>
-      <c r="R146" s="122"/>
-      <c r="S146" s="122"/>
-      <c r="T146" s="122"/>
-      <c r="U146" s="122"/>
-      <c r="V146" s="122"/>
-      <c r="W146" s="122"/>
-      <c r="X146" s="122"/>
-      <c r="Y146" s="122"/>
-      <c r="Z146" s="122"/>
-      <c r="AA146" s="122"/>
-      <c r="AB146" s="122"/>
-      <c r="AC146" s="122"/>
-      <c r="AD146" s="122"/>
-      <c r="AE146" s="122"/>
-      <c r="AF146" s="122"/>
-      <c r="AG146" s="122"/>
-      <c r="AH146" s="122"/>
+      <c r="A146" s="120"/>
+      <c r="B146" s="121"/>
+      <c r="C146" s="121"/>
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
+      <c r="G146" s="121"/>
+      <c r="H146" s="121"/>
+      <c r="I146" s="121"/>
+      <c r="J146" s="125"/>
+      <c r="K146" s="121"/>
+      <c r="L146" s="121"/>
+      <c r="M146" s="127"/>
+      <c r="N146" s="121"/>
+      <c r="O146" s="121"/>
+      <c r="P146" s="121"/>
+      <c r="Q146" s="121"/>
+      <c r="R146" s="121"/>
+      <c r="S146" s="121"/>
+      <c r="T146" s="121"/>
+      <c r="U146" s="121"/>
+      <c r="V146" s="121"/>
+      <c r="W146" s="121"/>
+      <c r="X146" s="121"/>
+      <c r="Y146" s="121"/>
+      <c r="Z146" s="121"/>
+      <c r="AA146" s="121"/>
+      <c r="AB146" s="121"/>
+      <c r="AC146" s="121"/>
+      <c r="AD146" s="121"/>
+      <c r="AE146" s="121"/>
+      <c r="AF146" s="121"/>
+      <c r="AG146" s="121"/>
+      <c r="AH146" s="121"/>
     </row>
     <row r="147" spans="1:34">
-      <c r="A147" s="121"/>
-      <c r="B147" s="122"/>
-      <c r="C147" s="122"/>
-      <c r="D147" s="122"/>
-      <c r="E147" s="122"/>
-      <c r="F147" s="122"/>
-      <c r="G147" s="122"/>
-      <c r="H147" s="122"/>
-      <c r="I147" s="122"/>
-      <c r="J147" s="126"/>
-      <c r="K147" s="122"/>
-      <c r="L147" s="122"/>
-      <c r="M147" s="128"/>
-      <c r="N147" s="122"/>
-      <c r="O147" s="122"/>
-      <c r="P147" s="122"/>
-      <c r="Q147" s="122"/>
-      <c r="R147" s="122"/>
-      <c r="S147" s="122"/>
-      <c r="T147" s="122"/>
-      <c r="U147" s="122"/>
-      <c r="V147" s="122"/>
-      <c r="W147" s="122"/>
-      <c r="X147" s="122"/>
-      <c r="Y147" s="122"/>
-      <c r="Z147" s="122"/>
-      <c r="AA147" s="122"/>
-      <c r="AB147" s="122"/>
-      <c r="AC147" s="122"/>
-      <c r="AD147" s="122"/>
-      <c r="AE147" s="122"/>
-      <c r="AF147" s="122"/>
-      <c r="AG147" s="122"/>
-      <c r="AH147" s="122"/>
+      <c r="A147" s="120"/>
+      <c r="B147" s="121"/>
+      <c r="C147" s="121"/>
+      <c r="D147" s="121"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="121"/>
+      <c r="G147" s="121"/>
+      <c r="H147" s="121"/>
+      <c r="I147" s="121"/>
+      <c r="J147" s="125"/>
+      <c r="K147" s="121"/>
+      <c r="L147" s="121"/>
+      <c r="M147" s="127"/>
+      <c r="N147" s="121"/>
+      <c r="O147" s="121"/>
+      <c r="P147" s="121"/>
+      <c r="Q147" s="121"/>
+      <c r="R147" s="121"/>
+      <c r="S147" s="121"/>
+      <c r="T147" s="121"/>
+      <c r="U147" s="121"/>
+      <c r="V147" s="121"/>
+      <c r="W147" s="121"/>
+      <c r="X147" s="121"/>
+      <c r="Y147" s="121"/>
+      <c r="Z147" s="121"/>
+      <c r="AA147" s="121"/>
+      <c r="AB147" s="121"/>
+      <c r="AC147" s="121"/>
+      <c r="AD147" s="121"/>
+      <c r="AE147" s="121"/>
+      <c r="AF147" s="121"/>
+      <c r="AG147" s="121"/>
+      <c r="AH147" s="121"/>
     </row>
     <row r="148" spans="1:34">
-      <c r="A148" s="121"/>
-      <c r="B148" s="122"/>
-      <c r="C148" s="122"/>
-      <c r="D148" s="122"/>
-      <c r="E148" s="122"/>
-      <c r="F148" s="122"/>
-      <c r="G148" s="122"/>
-      <c r="H148" s="122"/>
-      <c r="I148" s="122"/>
-      <c r="J148" s="126"/>
-      <c r="K148" s="122"/>
-      <c r="L148" s="122"/>
-      <c r="M148" s="128"/>
-      <c r="N148" s="122"/>
-      <c r="O148" s="122"/>
-      <c r="P148" s="122"/>
-      <c r="Q148" s="122"/>
-      <c r="R148" s="122"/>
-      <c r="S148" s="122"/>
-      <c r="T148" s="122"/>
-      <c r="U148" s="122"/>
-      <c r="V148" s="122"/>
-      <c r="W148" s="122"/>
-      <c r="X148" s="122"/>
-      <c r="Y148" s="122"/>
-      <c r="Z148" s="122"/>
-      <c r="AA148" s="122"/>
-      <c r="AB148" s="122"/>
-      <c r="AC148" s="122"/>
-      <c r="AD148" s="122"/>
-      <c r="AE148" s="122"/>
-      <c r="AF148" s="122"/>
-      <c r="AG148" s="122"/>
-      <c r="AH148" s="122"/>
+      <c r="A148" s="120"/>
+      <c r="B148" s="121"/>
+      <c r="C148" s="121"/>
+      <c r="D148" s="121"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="121"/>
+      <c r="G148" s="121"/>
+      <c r="H148" s="121"/>
+      <c r="I148" s="121"/>
+      <c r="J148" s="125"/>
+      <c r="K148" s="121"/>
+      <c r="L148" s="121"/>
+      <c r="M148" s="127"/>
+      <c r="N148" s="121"/>
+      <c r="O148" s="121"/>
+      <c r="P148" s="121"/>
+      <c r="Q148" s="121"/>
+      <c r="R148" s="121"/>
+      <c r="S148" s="121"/>
+      <c r="T148" s="121"/>
+      <c r="U148" s="121"/>
+      <c r="V148" s="121"/>
+      <c r="W148" s="121"/>
+      <c r="X148" s="121"/>
+      <c r="Y148" s="121"/>
+      <c r="Z148" s="121"/>
+      <c r="AA148" s="121"/>
+      <c r="AB148" s="121"/>
+      <c r="AC148" s="121"/>
+      <c r="AD148" s="121"/>
+      <c r="AE148" s="121"/>
+      <c r="AF148" s="121"/>
+      <c r="AG148" s="121"/>
+      <c r="AH148" s="121"/>
     </row>
     <row r="149" spans="1:34">
-      <c r="A149" s="121"/>
-      <c r="B149" s="122"/>
-      <c r="C149" s="122"/>
-      <c r="D149" s="122"/>
-      <c r="E149" s="122"/>
-      <c r="F149" s="122"/>
-      <c r="G149" s="122"/>
-      <c r="H149" s="122"/>
-      <c r="I149" s="122"/>
-      <c r="J149" s="126"/>
-      <c r="K149" s="122"/>
-      <c r="L149" s="122"/>
-      <c r="M149" s="128"/>
-      <c r="N149" s="122"/>
-      <c r="O149" s="122"/>
-      <c r="P149" s="122"/>
-      <c r="Q149" s="122"/>
-      <c r="R149" s="122"/>
-      <c r="S149" s="122"/>
-      <c r="T149" s="122"/>
-      <c r="U149" s="122"/>
-      <c r="V149" s="122"/>
-      <c r="W149" s="122"/>
-      <c r="X149" s="122"/>
-      <c r="Y149" s="122"/>
-      <c r="Z149" s="122"/>
-      <c r="AA149" s="122"/>
-      <c r="AB149" s="122"/>
-      <c r="AC149" s="122"/>
-      <c r="AD149" s="122"/>
-      <c r="AE149" s="122"/>
-      <c r="AF149" s="122"/>
-      <c r="AG149" s="122"/>
-      <c r="AH149" s="122"/>
+      <c r="A149" s="120"/>
+      <c r="B149" s="121"/>
+      <c r="C149" s="121"/>
+      <c r="D149" s="121"/>
+      <c r="E149" s="121"/>
+      <c r="F149" s="121"/>
+      <c r="G149" s="121"/>
+      <c r="H149" s="121"/>
+      <c r="I149" s="121"/>
+      <c r="J149" s="125"/>
+      <c r="K149" s="121"/>
+      <c r="L149" s="121"/>
+      <c r="M149" s="127"/>
+      <c r="N149" s="121"/>
+      <c r="O149" s="121"/>
+      <c r="P149" s="121"/>
+      <c r="Q149" s="121"/>
+      <c r="R149" s="121"/>
+      <c r="S149" s="121"/>
+      <c r="T149" s="121"/>
+      <c r="U149" s="121"/>
+      <c r="V149" s="121"/>
+      <c r="W149" s="121"/>
+      <c r="X149" s="121"/>
+      <c r="Y149" s="121"/>
+      <c r="Z149" s="121"/>
+      <c r="AA149" s="121"/>
+      <c r="AB149" s="121"/>
+      <c r="AC149" s="121"/>
+      <c r="AD149" s="121"/>
+      <c r="AE149" s="121"/>
+      <c r="AF149" s="121"/>
+      <c r="AG149" s="121"/>
+      <c r="AH149" s="121"/>
     </row>
     <row r="150" spans="1:34">
-      <c r="A150" s="121"/>
-      <c r="B150" s="122"/>
-      <c r="C150" s="122"/>
-      <c r="D150" s="122"/>
-      <c r="E150" s="122"/>
-      <c r="F150" s="122"/>
-      <c r="G150" s="122"/>
-      <c r="H150" s="122"/>
-      <c r="I150" s="122"/>
-      <c r="J150" s="126"/>
-      <c r="K150" s="122"/>
-      <c r="L150" s="122"/>
-      <c r="M150" s="128"/>
-      <c r="N150" s="122"/>
-      <c r="O150" s="122"/>
-      <c r="P150" s="122"/>
-      <c r="Q150" s="122"/>
-      <c r="R150" s="122"/>
-      <c r="S150" s="122"/>
-      <c r="T150" s="122"/>
-      <c r="U150" s="122"/>
-      <c r="V150" s="122"/>
-      <c r="W150" s="122"/>
-      <c r="X150" s="122"/>
-      <c r="Y150" s="122"/>
-      <c r="Z150" s="122"/>
-      <c r="AA150" s="122"/>
-      <c r="AB150" s="122"/>
-      <c r="AC150" s="122"/>
-      <c r="AD150" s="122"/>
-      <c r="AE150" s="122"/>
-      <c r="AF150" s="122"/>
-      <c r="AG150" s="122"/>
-      <c r="AH150" s="122"/>
+      <c r="A150" s="120"/>
+      <c r="B150" s="121"/>
+      <c r="C150" s="121"/>
+      <c r="D150" s="121"/>
+      <c r="E150" s="121"/>
+      <c r="F150" s="121"/>
+      <c r="G150" s="121"/>
+      <c r="H150" s="121"/>
+      <c r="I150" s="121"/>
+      <c r="J150" s="125"/>
+      <c r="K150" s="121"/>
+      <c r="L150" s="121"/>
+      <c r="M150" s="127"/>
+      <c r="N150" s="121"/>
+      <c r="O150" s="121"/>
+      <c r="P150" s="121"/>
+      <c r="Q150" s="121"/>
+      <c r="R150" s="121"/>
+      <c r="S150" s="121"/>
+      <c r="T150" s="121"/>
+      <c r="U150" s="121"/>
+      <c r="V150" s="121"/>
+      <c r="W150" s="121"/>
+      <c r="X150" s="121"/>
+      <c r="Y150" s="121"/>
+      <c r="Z150" s="121"/>
+      <c r="AA150" s="121"/>
+      <c r="AB150" s="121"/>
+      <c r="AC150" s="121"/>
+      <c r="AD150" s="121"/>
+      <c r="AE150" s="121"/>
+      <c r="AF150" s="121"/>
+      <c r="AG150" s="121"/>
+      <c r="AH150" s="121"/>
     </row>
     <row r="151" spans="1:34">
-      <c r="A151" s="121"/>
-      <c r="B151" s="122"/>
-      <c r="C151" s="122"/>
-      <c r="D151" s="122"/>
-      <c r="E151" s="122"/>
-      <c r="F151" s="122"/>
-      <c r="G151" s="122"/>
-      <c r="H151" s="122"/>
-      <c r="I151" s="122"/>
-      <c r="J151" s="126"/>
-      <c r="K151" s="122"/>
-      <c r="L151" s="122"/>
-      <c r="M151" s="128"/>
-      <c r="N151" s="122"/>
-      <c r="O151" s="122"/>
-      <c r="P151" s="122"/>
-      <c r="Q151" s="122"/>
-      <c r="R151" s="122"/>
-      <c r="S151" s="122"/>
-      <c r="T151" s="122"/>
-      <c r="U151" s="122"/>
-      <c r="V151" s="122"/>
-      <c r="W151" s="122"/>
-      <c r="X151" s="122"/>
-      <c r="Y151" s="122"/>
-      <c r="Z151" s="122"/>
-      <c r="AA151" s="122"/>
-      <c r="AB151" s="122"/>
-      <c r="AC151" s="122"/>
-      <c r="AD151" s="122"/>
-      <c r="AE151" s="122"/>
-      <c r="AF151" s="122"/>
-      <c r="AG151" s="122"/>
-      <c r="AH151" s="122"/>
+      <c r="A151" s="120"/>
+      <c r="B151" s="121"/>
+      <c r="C151" s="121"/>
+      <c r="D151" s="121"/>
+      <c r="E151" s="121"/>
+      <c r="F151" s="121"/>
+      <c r="G151" s="121"/>
+      <c r="H151" s="121"/>
+      <c r="I151" s="121"/>
+      <c r="J151" s="125"/>
+      <c r="K151" s="121"/>
+      <c r="L151" s="121"/>
+      <c r="M151" s="127"/>
+      <c r="N151" s="121"/>
+      <c r="O151" s="121"/>
+      <c r="P151" s="121"/>
+      <c r="Q151" s="121"/>
+      <c r="R151" s="121"/>
+      <c r="S151" s="121"/>
+      <c r="T151" s="121"/>
+      <c r="U151" s="121"/>
+      <c r="V151" s="121"/>
+      <c r="W151" s="121"/>
+      <c r="X151" s="121"/>
+      <c r="Y151" s="121"/>
+      <c r="Z151" s="121"/>
+      <c r="AA151" s="121"/>
+      <c r="AB151" s="121"/>
+      <c r="AC151" s="121"/>
+      <c r="AD151" s="121"/>
+      <c r="AE151" s="121"/>
+      <c r="AF151" s="121"/>
+      <c r="AG151" s="121"/>
+      <c r="AH151" s="121"/>
     </row>
     <row r="152" spans="1:34">
-      <c r="A152" s="121"/>
-      <c r="B152" s="122"/>
-      <c r="C152" s="122"/>
-      <c r="D152" s="122"/>
-      <c r="E152" s="122"/>
-      <c r="F152" s="122"/>
-      <c r="G152" s="122"/>
-      <c r="H152" s="122"/>
-      <c r="I152" s="122"/>
-      <c r="J152" s="126"/>
-      <c r="K152" s="122"/>
-      <c r="L152" s="122"/>
-      <c r="M152" s="128"/>
-      <c r="N152" s="122"/>
-      <c r="O152" s="122"/>
-      <c r="P152" s="122"/>
-      <c r="Q152" s="122"/>
-      <c r="R152" s="122"/>
-      <c r="S152" s="122"/>
-      <c r="T152" s="122"/>
-      <c r="U152" s="122"/>
-      <c r="V152" s="122"/>
-      <c r="W152" s="122"/>
-      <c r="X152" s="122"/>
-      <c r="Y152" s="122"/>
-      <c r="Z152" s="122"/>
-      <c r="AA152" s="122"/>
-      <c r="AB152" s="122"/>
-      <c r="AC152" s="122"/>
-      <c r="AD152" s="122"/>
-      <c r="AE152" s="122"/>
-      <c r="AF152" s="122"/>
-      <c r="AG152" s="122"/>
-      <c r="AH152" s="122"/>
+      <c r="A152" s="120"/>
+      <c r="B152" s="121"/>
+      <c r="C152" s="121"/>
+      <c r="D152" s="121"/>
+      <c r="E152" s="121"/>
+      <c r="F152" s="121"/>
+      <c r="G152" s="121"/>
+      <c r="H152" s="121"/>
+      <c r="I152" s="121"/>
+      <c r="J152" s="125"/>
+      <c r="K152" s="121"/>
+      <c r="L152" s="121"/>
+      <c r="M152" s="127"/>
+      <c r="N152" s="121"/>
+      <c r="O152" s="121"/>
+      <c r="P152" s="121"/>
+      <c r="Q152" s="121"/>
+      <c r="R152" s="121"/>
+      <c r="S152" s="121"/>
+      <c r="T152" s="121"/>
+      <c r="U152" s="121"/>
+      <c r="V152" s="121"/>
+      <c r="W152" s="121"/>
+      <c r="X152" s="121"/>
+      <c r="Y152" s="121"/>
+      <c r="Z152" s="121"/>
+      <c r="AA152" s="121"/>
+      <c r="AB152" s="121"/>
+      <c r="AC152" s="121"/>
+      <c r="AD152" s="121"/>
+      <c r="AE152" s="121"/>
+      <c r="AF152" s="121"/>
+      <c r="AG152" s="121"/>
+      <c r="AH152" s="121"/>
     </row>
     <row r="153" spans="1:34">
-      <c r="A153" s="121"/>
-      <c r="B153" s="122"/>
-      <c r="C153" s="122"/>
-      <c r="D153" s="122"/>
-      <c r="E153" s="122"/>
-      <c r="F153" s="122"/>
-      <c r="G153" s="122"/>
-      <c r="H153" s="122"/>
-      <c r="I153" s="122"/>
-      <c r="J153" s="126"/>
-      <c r="K153" s="122"/>
-      <c r="L153" s="122"/>
-      <c r="M153" s="128"/>
-      <c r="N153" s="122"/>
-      <c r="O153" s="122"/>
-      <c r="P153" s="122"/>
-      <c r="Q153" s="122"/>
-      <c r="R153" s="122"/>
-      <c r="S153" s="122"/>
-      <c r="T153" s="122"/>
-      <c r="U153" s="122"/>
-      <c r="V153" s="122"/>
-      <c r="W153" s="122"/>
-      <c r="X153" s="122"/>
-      <c r="Y153" s="122"/>
-      <c r="Z153" s="122"/>
-      <c r="AA153" s="122"/>
-      <c r="AB153" s="122"/>
-      <c r="AC153" s="122"/>
-      <c r="AD153" s="122"/>
-      <c r="AE153" s="122"/>
-      <c r="AF153" s="122"/>
-      <c r="AG153" s="122"/>
-      <c r="AH153" s="122"/>
+      <c r="A153" s="120"/>
+      <c r="B153" s="121"/>
+      <c r="C153" s="121"/>
+      <c r="D153" s="121"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="121"/>
+      <c r="G153" s="121"/>
+      <c r="H153" s="121"/>
+      <c r="I153" s="121"/>
+      <c r="J153" s="125"/>
+      <c r="K153" s="121"/>
+      <c r="L153" s="121"/>
+      <c r="M153" s="127"/>
+      <c r="N153" s="121"/>
+      <c r="O153" s="121"/>
+      <c r="P153" s="121"/>
+      <c r="Q153" s="121"/>
+      <c r="R153" s="121"/>
+      <c r="S153" s="121"/>
+      <c r="T153" s="121"/>
+      <c r="U153" s="121"/>
+      <c r="V153" s="121"/>
+      <c r="W153" s="121"/>
+      <c r="X153" s="121"/>
+      <c r="Y153" s="121"/>
+      <c r="Z153" s="121"/>
+      <c r="AA153" s="121"/>
+      <c r="AB153" s="121"/>
+      <c r="AC153" s="121"/>
+      <c r="AD153" s="121"/>
+      <c r="AE153" s="121"/>
+      <c r="AF153" s="121"/>
+      <c r="AG153" s="121"/>
+      <c r="AH153" s="121"/>
     </row>
     <row r="154" spans="1:34">
-      <c r="A154" s="121"/>
-      <c r="B154" s="122"/>
-      <c r="C154" s="122"/>
-      <c r="D154" s="122"/>
-      <c r="E154" s="122"/>
-      <c r="F154" s="122"/>
-      <c r="G154" s="122"/>
-      <c r="H154" s="122"/>
-      <c r="I154" s="122"/>
-      <c r="J154" s="126"/>
-      <c r="K154" s="122"/>
-      <c r="L154" s="122"/>
-      <c r="M154" s="128"/>
-      <c r="N154" s="122"/>
-      <c r="O154" s="122"/>
-      <c r="P154" s="122"/>
-      <c r="Q154" s="122"/>
-      <c r="R154" s="122"/>
-      <c r="S154" s="122"/>
-      <c r="T154" s="122"/>
-      <c r="U154" s="122"/>
-      <c r="V154" s="122"/>
-      <c r="W154" s="122"/>
-      <c r="X154" s="122"/>
-      <c r="Y154" s="122"/>
-      <c r="Z154" s="122"/>
-      <c r="AA154" s="122"/>
-      <c r="AB154" s="122"/>
-      <c r="AC154" s="122"/>
-      <c r="AD154" s="122"/>
-      <c r="AE154" s="122"/>
-      <c r="AF154" s="122"/>
-      <c r="AG154" s="122"/>
-      <c r="AH154" s="122"/>
+      <c r="A154" s="120"/>
+      <c r="B154" s="121"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="121"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="121"/>
+      <c r="H154" s="121"/>
+      <c r="I154" s="121"/>
+      <c r="J154" s="125"/>
+      <c r="K154" s="121"/>
+      <c r="L154" s="121"/>
+      <c r="M154" s="127"/>
+      <c r="N154" s="121"/>
+      <c r="O154" s="121"/>
+      <c r="P154" s="121"/>
+      <c r="Q154" s="121"/>
+      <c r="R154" s="121"/>
+      <c r="S154" s="121"/>
+      <c r="T154" s="121"/>
+      <c r="U154" s="121"/>
+      <c r="V154" s="121"/>
+      <c r="W154" s="121"/>
+      <c r="X154" s="121"/>
+      <c r="Y154" s="121"/>
+      <c r="Z154" s="121"/>
+      <c r="AA154" s="121"/>
+      <c r="AB154" s="121"/>
+      <c r="AC154" s="121"/>
+      <c r="AD154" s="121"/>
+      <c r="AE154" s="121"/>
+      <c r="AF154" s="121"/>
+      <c r="AG154" s="121"/>
+      <c r="AH154" s="121"/>
     </row>
     <row r="155" spans="1:34">
-      <c r="A155" s="121"/>
-      <c r="B155" s="122"/>
-      <c r="C155" s="122"/>
-      <c r="D155" s="122"/>
-      <c r="E155" s="122"/>
-      <c r="F155" s="122"/>
-      <c r="G155" s="122"/>
-      <c r="H155" s="122"/>
-      <c r="I155" s="122"/>
-      <c r="J155" s="126"/>
-      <c r="K155" s="122"/>
-      <c r="L155" s="122"/>
-      <c r="M155" s="128"/>
-      <c r="N155" s="122"/>
-      <c r="O155" s="122"/>
-      <c r="P155" s="122"/>
-      <c r="Q155" s="122"/>
-      <c r="R155" s="122"/>
-      <c r="S155" s="122"/>
-      <c r="T155" s="122"/>
-      <c r="U155" s="122"/>
-      <c r="V155" s="122"/>
-      <c r="W155" s="122"/>
-      <c r="X155" s="122"/>
-      <c r="Y155" s="122"/>
-      <c r="Z155" s="122"/>
-      <c r="AA155" s="122"/>
-      <c r="AB155" s="122"/>
-      <c r="AC155" s="122"/>
-      <c r="AD155" s="122"/>
-      <c r="AE155" s="122"/>
-      <c r="AF155" s="122"/>
-      <c r="AG155" s="122"/>
-      <c r="AH155" s="122"/>
+      <c r="A155" s="120"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="121"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="121"/>
+      <c r="G155" s="121"/>
+      <c r="H155" s="121"/>
+      <c r="I155" s="121"/>
+      <c r="J155" s="125"/>
+      <c r="K155" s="121"/>
+      <c r="L155" s="121"/>
+      <c r="M155" s="127"/>
+      <c r="N155" s="121"/>
+      <c r="O155" s="121"/>
+      <c r="P155" s="121"/>
+      <c r="Q155" s="121"/>
+      <c r="R155" s="121"/>
+      <c r="S155" s="121"/>
+      <c r="T155" s="121"/>
+      <c r="U155" s="121"/>
+      <c r="V155" s="121"/>
+      <c r="W155" s="121"/>
+      <c r="X155" s="121"/>
+      <c r="Y155" s="121"/>
+      <c r="Z155" s="121"/>
+      <c r="AA155" s="121"/>
+      <c r="AB155" s="121"/>
+      <c r="AC155" s="121"/>
+      <c r="AD155" s="121"/>
+      <c r="AE155" s="121"/>
+      <c r="AF155" s="121"/>
+      <c r="AG155" s="121"/>
+      <c r="AH155" s="121"/>
     </row>
     <row r="156" spans="1:34">
-      <c r="A156" s="121"/>
-      <c r="B156" s="122"/>
-      <c r="C156" s="122"/>
-      <c r="D156" s="122"/>
-      <c r="E156" s="122"/>
-      <c r="F156" s="122"/>
-      <c r="G156" s="122"/>
-      <c r="H156" s="122"/>
-      <c r="I156" s="122"/>
-      <c r="J156" s="126"/>
-      <c r="K156" s="122"/>
-      <c r="L156" s="122"/>
-      <c r="M156" s="128"/>
-      <c r="N156" s="122"/>
-      <c r="O156" s="122"/>
-      <c r="P156" s="122"/>
-      <c r="Q156" s="122"/>
-      <c r="R156" s="122"/>
-      <c r="S156" s="122"/>
-      <c r="T156" s="122"/>
-      <c r="U156" s="122"/>
-      <c r="V156" s="122"/>
-      <c r="W156" s="122"/>
-      <c r="X156" s="122"/>
-      <c r="Y156" s="122"/>
-      <c r="Z156" s="122"/>
-      <c r="AA156" s="122"/>
-      <c r="AB156" s="122"/>
-      <c r="AC156" s="122"/>
-      <c r="AD156" s="122"/>
-      <c r="AE156" s="122"/>
-      <c r="AF156" s="122"/>
-      <c r="AG156" s="122"/>
-      <c r="AH156" s="122"/>
+      <c r="A156" s="120"/>
+      <c r="B156" s="121"/>
+      <c r="C156" s="121"/>
+      <c r="D156" s="121"/>
+      <c r="E156" s="121"/>
+      <c r="F156" s="121"/>
+      <c r="G156" s="121"/>
+      <c r="H156" s="121"/>
+      <c r="I156" s="121"/>
+      <c r="J156" s="125"/>
+      <c r="K156" s="121"/>
+      <c r="L156" s="121"/>
+      <c r="M156" s="127"/>
+      <c r="N156" s="121"/>
+      <c r="O156" s="121"/>
+      <c r="P156" s="121"/>
+      <c r="Q156" s="121"/>
+      <c r="R156" s="121"/>
+      <c r="S156" s="121"/>
+      <c r="T156" s="121"/>
+      <c r="U156" s="121"/>
+      <c r="V156" s="121"/>
+      <c r="W156" s="121"/>
+      <c r="X156" s="121"/>
+      <c r="Y156" s="121"/>
+      <c r="Z156" s="121"/>
+      <c r="AA156" s="121"/>
+      <c r="AB156" s="121"/>
+      <c r="AC156" s="121"/>
+      <c r="AD156" s="121"/>
+      <c r="AE156" s="121"/>
+      <c r="AF156" s="121"/>
+      <c r="AG156" s="121"/>
+      <c r="AH156" s="121"/>
     </row>
     <row r="157" spans="1:34">
-      <c r="A157" s="121"/>
-      <c r="B157" s="122"/>
-      <c r="C157" s="122"/>
-      <c r="D157" s="122"/>
-      <c r="E157" s="122"/>
-      <c r="F157" s="122"/>
-      <c r="G157" s="122"/>
-      <c r="H157" s="122"/>
-      <c r="I157" s="122"/>
-      <c r="J157" s="126"/>
-      <c r="K157" s="122"/>
-      <c r="L157" s="122"/>
-      <c r="M157" s="128"/>
-      <c r="N157" s="122"/>
-      <c r="O157" s="122"/>
-      <c r="P157" s="122"/>
-      <c r="Q157" s="122"/>
-      <c r="R157" s="122"/>
-      <c r="S157" s="122"/>
-      <c r="T157" s="122"/>
-      <c r="U157" s="122"/>
-      <c r="V157" s="122"/>
-      <c r="W157" s="122"/>
-      <c r="X157" s="122"/>
-      <c r="Y157" s="122"/>
-      <c r="Z157" s="122"/>
-      <c r="AA157" s="122"/>
-      <c r="AB157" s="122"/>
-      <c r="AC157" s="122"/>
-      <c r="AD157" s="122"/>
-      <c r="AE157" s="122"/>
-      <c r="AF157" s="122"/>
-      <c r="AG157" s="122"/>
-      <c r="AH157" s="122"/>
+      <c r="A157" s="120"/>
+      <c r="B157" s="121"/>
+      <c r="C157" s="121"/>
+      <c r="D157" s="121"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="121"/>
+      <c r="G157" s="121"/>
+      <c r="H157" s="121"/>
+      <c r="I157" s="121"/>
+      <c r="J157" s="125"/>
+      <c r="K157" s="121"/>
+      <c r="L157" s="121"/>
+      <c r="M157" s="127"/>
+      <c r="N157" s="121"/>
+      <c r="O157" s="121"/>
+      <c r="P157" s="121"/>
+      <c r="Q157" s="121"/>
+      <c r="R157" s="121"/>
+      <c r="S157" s="121"/>
+      <c r="T157" s="121"/>
+      <c r="U157" s="121"/>
+      <c r="V157" s="121"/>
+      <c r="W157" s="121"/>
+      <c r="X157" s="121"/>
+      <c r="Y157" s="121"/>
+      <c r="Z157" s="121"/>
+      <c r="AA157" s="121"/>
+      <c r="AB157" s="121"/>
+      <c r="AC157" s="121"/>
+      <c r="AD157" s="121"/>
+      <c r="AE157" s="121"/>
+      <c r="AF157" s="121"/>
+      <c r="AG157" s="121"/>
+      <c r="AH157" s="121"/>
     </row>
     <row r="158" spans="1:34">
-      <c r="A158" s="121"/>
-      <c r="B158" s="122"/>
-      <c r="C158" s="122"/>
-      <c r="D158" s="122"/>
-      <c r="E158" s="122"/>
-      <c r="F158" s="122"/>
-      <c r="G158" s="122"/>
-      <c r="H158" s="122"/>
-      <c r="I158" s="122"/>
-      <c r="J158" s="126"/>
-      <c r="K158" s="122"/>
-      <c r="L158" s="122"/>
-      <c r="M158" s="128"/>
-      <c r="N158" s="122"/>
-      <c r="O158" s="122"/>
-      <c r="P158" s="122"/>
-      <c r="Q158" s="122"/>
-      <c r="R158" s="122"/>
-      <c r="S158" s="122"/>
-      <c r="T158" s="122"/>
-      <c r="U158" s="122"/>
-      <c r="V158" s="122"/>
-      <c r="W158" s="122"/>
-      <c r="X158" s="122"/>
-      <c r="Y158" s="122"/>
-      <c r="Z158" s="122"/>
-      <c r="AA158" s="122"/>
-      <c r="AB158" s="122"/>
-      <c r="AC158" s="122"/>
-      <c r="AD158" s="122"/>
-      <c r="AE158" s="122"/>
-      <c r="AF158" s="122"/>
-      <c r="AG158" s="122"/>
-      <c r="AH158" s="122"/>
+      <c r="A158" s="120"/>
+      <c r="B158" s="121"/>
+      <c r="C158" s="121"/>
+      <c r="D158" s="121"/>
+      <c r="E158" s="121"/>
+      <c r="F158" s="121"/>
+      <c r="G158" s="121"/>
+      <c r="H158" s="121"/>
+      <c r="I158" s="121"/>
+      <c r="J158" s="125"/>
+      <c r="K158" s="121"/>
+      <c r="L158" s="121"/>
+      <c r="M158" s="127"/>
+      <c r="N158" s="121"/>
+      <c r="O158" s="121"/>
+      <c r="P158" s="121"/>
+      <c r="Q158" s="121"/>
+      <c r="R158" s="121"/>
+      <c r="S158" s="121"/>
+      <c r="T158" s="121"/>
+      <c r="U158" s="121"/>
+      <c r="V158" s="121"/>
+      <c r="W158" s="121"/>
+      <c r="X158" s="121"/>
+      <c r="Y158" s="121"/>
+      <c r="Z158" s="121"/>
+      <c r="AA158" s="121"/>
+      <c r="AB158" s="121"/>
+      <c r="AC158" s="121"/>
+      <c r="AD158" s="121"/>
+      <c r="AE158" s="121"/>
+      <c r="AF158" s="121"/>
+      <c r="AG158" s="121"/>
+      <c r="AH158" s="121"/>
     </row>
     <row r="159" spans="1:34">
-      <c r="A159" s="121"/>
-      <c r="B159" s="122"/>
-      <c r="C159" s="122"/>
-      <c r="D159" s="122"/>
-      <c r="E159" s="122"/>
-      <c r="F159" s="122"/>
-      <c r="G159" s="122"/>
-      <c r="H159" s="122"/>
-      <c r="I159" s="122"/>
-      <c r="J159" s="126"/>
-      <c r="K159" s="122"/>
-      <c r="L159" s="122"/>
-      <c r="M159" s="128"/>
-      <c r="N159" s="122"/>
-      <c r="O159" s="122"/>
-      <c r="P159" s="122"/>
-      <c r="Q159" s="122"/>
-      <c r="R159" s="122"/>
-      <c r="S159" s="122"/>
-      <c r="T159" s="122"/>
-      <c r="U159" s="122"/>
-      <c r="V159" s="122"/>
-      <c r="W159" s="122"/>
-      <c r="X159" s="122"/>
-      <c r="Y159" s="122"/>
-      <c r="Z159" s="122"/>
-      <c r="AA159" s="122"/>
-      <c r="AB159" s="122"/>
-      <c r="AC159" s="122"/>
-      <c r="AD159" s="122"/>
-      <c r="AE159" s="122"/>
-      <c r="AF159" s="122"/>
-      <c r="AG159" s="122"/>
-      <c r="AH159" s="122"/>
+      <c r="A159" s="120"/>
+      <c r="B159" s="121"/>
+      <c r="C159" s="121"/>
+      <c r="D159" s="121"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="121"/>
+      <c r="G159" s="121"/>
+      <c r="H159" s="121"/>
+      <c r="I159" s="121"/>
+      <c r="J159" s="125"/>
+      <c r="K159" s="121"/>
+      <c r="L159" s="121"/>
+      <c r="M159" s="127"/>
+      <c r="N159" s="121"/>
+      <c r="O159" s="121"/>
+      <c r="P159" s="121"/>
+      <c r="Q159" s="121"/>
+      <c r="R159" s="121"/>
+      <c r="S159" s="121"/>
+      <c r="T159" s="121"/>
+      <c r="U159" s="121"/>
+      <c r="V159" s="121"/>
+      <c r="W159" s="121"/>
+      <c r="X159" s="121"/>
+      <c r="Y159" s="121"/>
+      <c r="Z159" s="121"/>
+      <c r="AA159" s="121"/>
+      <c r="AB159" s="121"/>
+      <c r="AC159" s="121"/>
+      <c r="AD159" s="121"/>
+      <c r="AE159" s="121"/>
+      <c r="AF159" s="121"/>
+      <c r="AG159" s="121"/>
+      <c r="AH159" s="121"/>
     </row>
     <row r="160" spans="1:34">
-      <c r="A160" s="121"/>
-      <c r="B160" s="122"/>
-      <c r="C160" s="122"/>
-      <c r="D160" s="122"/>
-      <c r="E160" s="122"/>
-      <c r="F160" s="122"/>
-      <c r="G160" s="122"/>
-      <c r="H160" s="122"/>
-      <c r="I160" s="122"/>
-      <c r="J160" s="126"/>
-      <c r="K160" s="122"/>
-      <c r="L160" s="122"/>
-      <c r="M160" s="128"/>
-      <c r="N160" s="122"/>
-      <c r="O160" s="122"/>
-      <c r="P160" s="122"/>
-      <c r="Q160" s="122"/>
-      <c r="R160" s="122"/>
-      <c r="S160" s="122"/>
-      <c r="T160" s="122"/>
-      <c r="U160" s="122"/>
-      <c r="V160" s="122"/>
-      <c r="W160" s="122"/>
-      <c r="X160" s="122"/>
-      <c r="Y160" s="122"/>
-      <c r="Z160" s="122"/>
-      <c r="AA160" s="122"/>
-      <c r="AB160" s="122"/>
-      <c r="AC160" s="122"/>
-      <c r="AD160" s="122"/>
-      <c r="AE160" s="122"/>
-      <c r="AF160" s="122"/>
-      <c r="AG160" s="122"/>
-      <c r="AH160" s="122"/>
+      <c r="A160" s="120"/>
+      <c r="B160" s="121"/>
+      <c r="C160" s="121"/>
+      <c r="D160" s="121"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="121"/>
+      <c r="G160" s="121"/>
+      <c r="H160" s="121"/>
+      <c r="I160" s="121"/>
+      <c r="J160" s="125"/>
+      <c r="K160" s="121"/>
+      <c r="L160" s="121"/>
+      <c r="M160" s="127"/>
+      <c r="N160" s="121"/>
+      <c r="O160" s="121"/>
+      <c r="P160" s="121"/>
+      <c r="Q160" s="121"/>
+      <c r="R160" s="121"/>
+      <c r="S160" s="121"/>
+      <c r="T160" s="121"/>
+      <c r="U160" s="121"/>
+      <c r="V160" s="121"/>
+      <c r="W160" s="121"/>
+      <c r="X160" s="121"/>
+      <c r="Y160" s="121"/>
+      <c r="Z160" s="121"/>
+      <c r="AA160" s="121"/>
+      <c r="AB160" s="121"/>
+      <c r="AC160" s="121"/>
+      <c r="AD160" s="121"/>
+      <c r="AE160" s="121"/>
+      <c r="AF160" s="121"/>
+      <c r="AG160" s="121"/>
+      <c r="AH160" s="121"/>
     </row>
     <row r="161" spans="1:34">
-      <c r="A161" s="121"/>
-      <c r="B161" s="122"/>
-      <c r="C161" s="122"/>
-      <c r="D161" s="122"/>
-      <c r="E161" s="122"/>
-      <c r="F161" s="122"/>
-      <c r="G161" s="122"/>
-      <c r="H161" s="122"/>
-      <c r="I161" s="122"/>
-      <c r="J161" s="126"/>
-      <c r="K161" s="122"/>
-      <c r="L161" s="122"/>
-      <c r="M161" s="128"/>
-      <c r="N161" s="122"/>
-      <c r="O161" s="122"/>
-      <c r="P161" s="122"/>
-      <c r="Q161" s="122"/>
-      <c r="R161" s="122"/>
-      <c r="S161" s="122"/>
-      <c r="T161" s="122"/>
-      <c r="U161" s="122"/>
-      <c r="V161" s="122"/>
-      <c r="W161" s="122"/>
-      <c r="X161" s="122"/>
-      <c r="Y161" s="122"/>
-      <c r="Z161" s="122"/>
-      <c r="AA161" s="122"/>
-      <c r="AB161" s="122"/>
-      <c r="AC161" s="122"/>
-      <c r="AD161" s="122"/>
-      <c r="AE161" s="122"/>
-      <c r="AF161" s="122"/>
-      <c r="AG161" s="122"/>
-      <c r="AH161" s="122"/>
+      <c r="A161" s="120"/>
+      <c r="B161" s="121"/>
+      <c r="C161" s="121"/>
+      <c r="D161" s="121"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="121"/>
+      <c r="G161" s="121"/>
+      <c r="H161" s="121"/>
+      <c r="I161" s="121"/>
+      <c r="J161" s="125"/>
+      <c r="K161" s="121"/>
+      <c r="L161" s="121"/>
+      <c r="M161" s="127"/>
+      <c r="N161" s="121"/>
+      <c r="O161" s="121"/>
+      <c r="P161" s="121"/>
+      <c r="Q161" s="121"/>
+      <c r="R161" s="121"/>
+      <c r="S161" s="121"/>
+      <c r="T161" s="121"/>
+      <c r="U161" s="121"/>
+      <c r="V161" s="121"/>
+      <c r="W161" s="121"/>
+      <c r="X161" s="121"/>
+      <c r="Y161" s="121"/>
+      <c r="Z161" s="121"/>
+      <c r="AA161" s="121"/>
+      <c r="AB161" s="121"/>
+      <c r="AC161" s="121"/>
+      <c r="AD161" s="121"/>
+      <c r="AE161" s="121"/>
+      <c r="AF161" s="121"/>
+      <c r="AG161" s="121"/>
+      <c r="AH161" s="121"/>
     </row>
     <row r="162" spans="1:34">
-      <c r="A162" s="121"/>
-      <c r="B162" s="122"/>
-      <c r="C162" s="122"/>
-      <c r="D162" s="122"/>
-      <c r="E162" s="122"/>
-      <c r="F162" s="122"/>
-      <c r="G162" s="122"/>
-      <c r="H162" s="122"/>
-      <c r="I162" s="122"/>
-      <c r="J162" s="126"/>
-      <c r="K162" s="122"/>
-      <c r="L162" s="122"/>
-      <c r="M162" s="128"/>
-      <c r="N162" s="122"/>
-      <c r="O162" s="122"/>
-      <c r="P162" s="122"/>
-      <c r="Q162" s="122"/>
-      <c r="R162" s="122"/>
-      <c r="S162" s="122"/>
-      <c r="T162" s="122"/>
-      <c r="U162" s="122"/>
-      <c r="V162" s="122"/>
-      <c r="W162" s="122"/>
-      <c r="X162" s="122"/>
-      <c r="Y162" s="122"/>
-      <c r="Z162" s="122"/>
-      <c r="AA162" s="122"/>
-      <c r="AB162" s="122"/>
-      <c r="AC162" s="122"/>
-      <c r="AD162" s="122"/>
-      <c r="AE162" s="122"/>
-      <c r="AF162" s="122"/>
-      <c r="AG162" s="122"/>
-      <c r="AH162" s="122"/>
+      <c r="A162" s="120"/>
+      <c r="B162" s="121"/>
+      <c r="C162" s="121"/>
+      <c r="D162" s="121"/>
+      <c r="E162" s="121"/>
+      <c r="F162" s="121"/>
+      <c r="G162" s="121"/>
+      <c r="H162" s="121"/>
+      <c r="I162" s="121"/>
+      <c r="J162" s="125"/>
+      <c r="K162" s="121"/>
+      <c r="L162" s="121"/>
+      <c r="M162" s="127"/>
+      <c r="N162" s="121"/>
+      <c r="O162" s="121"/>
+      <c r="P162" s="121"/>
+      <c r="Q162" s="121"/>
+      <c r="R162" s="121"/>
+      <c r="S162" s="121"/>
+      <c r="T162" s="121"/>
+      <c r="U162" s="121"/>
+      <c r="V162" s="121"/>
+      <c r="W162" s="121"/>
+      <c r="X162" s="121"/>
+      <c r="Y162" s="121"/>
+      <c r="Z162" s="121"/>
+      <c r="AA162" s="121"/>
+      <c r="AB162" s="121"/>
+      <c r="AC162" s="121"/>
+      <c r="AD162" s="121"/>
+      <c r="AE162" s="121"/>
+      <c r="AF162" s="121"/>
+      <c r="AG162" s="121"/>
+      <c r="AH162" s="121"/>
     </row>
     <row r="163" spans="1:34">
-      <c r="A163" s="121"/>
-      <c r="B163" s="122"/>
-      <c r="C163" s="122"/>
-      <c r="D163" s="122"/>
-      <c r="E163" s="122"/>
-      <c r="F163" s="122"/>
-      <c r="G163" s="122"/>
-      <c r="H163" s="122"/>
-      <c r="I163" s="122"/>
-      <c r="J163" s="126"/>
-      <c r="K163" s="122"/>
-      <c r="L163" s="122"/>
-      <c r="M163" s="128"/>
-      <c r="N163" s="122"/>
-      <c r="O163" s="122"/>
-      <c r="P163" s="122"/>
-      <c r="Q163" s="122"/>
-      <c r="R163" s="122"/>
-      <c r="S163" s="122"/>
-      <c r="T163" s="122"/>
-      <c r="U163" s="122"/>
-      <c r="V163" s="122"/>
-      <c r="W163" s="122"/>
-      <c r="X163" s="122"/>
-      <c r="Y163" s="122"/>
-      <c r="Z163" s="122"/>
-      <c r="AA163" s="122"/>
-      <c r="AB163" s="122"/>
-      <c r="AC163" s="122"/>
-      <c r="AD163" s="122"/>
-      <c r="AE163" s="122"/>
-      <c r="AF163" s="122"/>
-      <c r="AG163" s="122"/>
-      <c r="AH163" s="122"/>
+      <c r="A163" s="120"/>
+      <c r="B163" s="121"/>
+      <c r="C163" s="121"/>
+      <c r="D163" s="121"/>
+      <c r="E163" s="121"/>
+      <c r="F163" s="121"/>
+      <c r="G163" s="121"/>
+      <c r="H163" s="121"/>
+      <c r="I163" s="121"/>
+      <c r="J163" s="125"/>
+      <c r="K163" s="121"/>
+      <c r="L163" s="121"/>
+      <c r="M163" s="127"/>
+      <c r="N163" s="121"/>
+      <c r="O163" s="121"/>
+      <c r="P163" s="121"/>
+      <c r="Q163" s="121"/>
+      <c r="R163" s="121"/>
+      <c r="S163" s="121"/>
+      <c r="T163" s="121"/>
+      <c r="U163" s="121"/>
+      <c r="V163" s="121"/>
+      <c r="W163" s="121"/>
+      <c r="X163" s="121"/>
+      <c r="Y163" s="121"/>
+      <c r="Z163" s="121"/>
+      <c r="AA163" s="121"/>
+      <c r="AB163" s="121"/>
+      <c r="AC163" s="121"/>
+      <c r="AD163" s="121"/>
+      <c r="AE163" s="121"/>
+      <c r="AF163" s="121"/>
+      <c r="AG163" s="121"/>
+      <c r="AH163" s="121"/>
     </row>
     <row r="164" spans="1:34">
-      <c r="A164" s="121"/>
-      <c r="B164" s="122"/>
-      <c r="C164" s="122"/>
-      <c r="D164" s="122"/>
-      <c r="E164" s="122"/>
-      <c r="F164" s="122"/>
-      <c r="G164" s="122"/>
-      <c r="H164" s="122"/>
-      <c r="I164" s="122"/>
-      <c r="J164" s="126"/>
-      <c r="K164" s="122"/>
-      <c r="L164" s="122"/>
-      <c r="M164" s="128"/>
-      <c r="N164" s="122"/>
-      <c r="O164" s="122"/>
-      <c r="P164" s="122"/>
-      <c r="Q164" s="122"/>
-      <c r="R164" s="122"/>
-      <c r="S164" s="122"/>
-      <c r="T164" s="122"/>
-      <c r="U164" s="122"/>
-      <c r="V164" s="122"/>
-      <c r="W164" s="122"/>
-      <c r="X164" s="122"/>
-      <c r="Y164" s="122"/>
-      <c r="Z164" s="122"/>
-      <c r="AA164" s="122"/>
-      <c r="AB164" s="122"/>
-      <c r="AC164" s="122"/>
-      <c r="AD164" s="122"/>
-      <c r="AE164" s="122"/>
-      <c r="AF164" s="122"/>
-      <c r="AG164" s="122"/>
-      <c r="AH164" s="122"/>
+      <c r="A164" s="120"/>
+      <c r="B164" s="121"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="121"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="121"/>
+      <c r="G164" s="121"/>
+      <c r="H164" s="121"/>
+      <c r="I164" s="121"/>
+      <c r="J164" s="125"/>
+      <c r="K164" s="121"/>
+      <c r="L164" s="121"/>
+      <c r="M164" s="127"/>
+      <c r="N164" s="121"/>
+      <c r="O164" s="121"/>
+      <c r="P164" s="121"/>
+      <c r="Q164" s="121"/>
+      <c r="R164" s="121"/>
+      <c r="S164" s="121"/>
+      <c r="T164" s="121"/>
+      <c r="U164" s="121"/>
+      <c r="V164" s="121"/>
+      <c r="W164" s="121"/>
+      <c r="X164" s="121"/>
+      <c r="Y164" s="121"/>
+      <c r="Z164" s="121"/>
+      <c r="AA164" s="121"/>
+      <c r="AB164" s="121"/>
+      <c r="AC164" s="121"/>
+      <c r="AD164" s="121"/>
+      <c r="AE164" s="121"/>
+      <c r="AF164" s="121"/>
+      <c r="AG164" s="121"/>
+      <c r="AH164" s="121"/>
     </row>
     <row r="165" spans="1:34">
-      <c r="A165" s="121"/>
-      <c r="B165" s="122"/>
-      <c r="C165" s="122"/>
-      <c r="D165" s="122"/>
-      <c r="E165" s="122"/>
-      <c r="F165" s="122"/>
-      <c r="G165" s="122"/>
-      <c r="H165" s="122"/>
-      <c r="I165" s="122"/>
-      <c r="J165" s="126"/>
-      <c r="K165" s="122"/>
-      <c r="L165" s="122"/>
-      <c r="M165" s="128"/>
-      <c r="N165" s="122"/>
-      <c r="O165" s="122"/>
-      <c r="P165" s="122"/>
-      <c r="Q165" s="122"/>
-      <c r="R165" s="122"/>
-      <c r="S165" s="122"/>
-      <c r="T165" s="122"/>
-      <c r="U165" s="122"/>
-      <c r="V165" s="122"/>
-      <c r="W165" s="122"/>
-      <c r="X165" s="122"/>
-      <c r="Y165" s="122"/>
-      <c r="Z165" s="122"/>
-      <c r="AA165" s="122"/>
-      <c r="AB165" s="122"/>
-      <c r="AC165" s="122"/>
-      <c r="AD165" s="122"/>
-      <c r="AE165" s="122"/>
-      <c r="AF165" s="122"/>
-      <c r="AG165" s="122"/>
-      <c r="AH165" s="122"/>
+      <c r="A165" s="120"/>
+      <c r="B165" s="121"/>
+      <c r="C165" s="121"/>
+      <c r="D165" s="121"/>
+      <c r="E165" s="121"/>
+      <c r="F165" s="121"/>
+      <c r="G165" s="121"/>
+      <c r="H165" s="121"/>
+      <c r="I165" s="121"/>
+      <c r="J165" s="125"/>
+      <c r="K165" s="121"/>
+      <c r="L165" s="121"/>
+      <c r="M165" s="127"/>
+      <c r="N165" s="121"/>
+      <c r="O165" s="121"/>
+      <c r="P165" s="121"/>
+      <c r="Q165" s="121"/>
+      <c r="R165" s="121"/>
+      <c r="S165" s="121"/>
+      <c r="T165" s="121"/>
+      <c r="U165" s="121"/>
+      <c r="V165" s="121"/>
+      <c r="W165" s="121"/>
+      <c r="X165" s="121"/>
+      <c r="Y165" s="121"/>
+      <c r="Z165" s="121"/>
+      <c r="AA165" s="121"/>
+      <c r="AB165" s="121"/>
+      <c r="AC165" s="121"/>
+      <c r="AD165" s="121"/>
+      <c r="AE165" s="121"/>
+      <c r="AF165" s="121"/>
+      <c r="AG165" s="121"/>
+      <c r="AH165" s="121"/>
     </row>
     <row r="166" spans="1:34">
-      <c r="A166" s="121"/>
-      <c r="B166" s="122"/>
-      <c r="C166" s="122"/>
-      <c r="D166" s="122"/>
-      <c r="E166" s="122"/>
-      <c r="F166" s="122"/>
-      <c r="G166" s="122"/>
-      <c r="H166" s="122"/>
-      <c r="I166" s="122"/>
-      <c r="J166" s="126"/>
-      <c r="K166" s="122"/>
-      <c r="L166" s="122"/>
-      <c r="M166" s="128"/>
-      <c r="N166" s="122"/>
-      <c r="O166" s="122"/>
-      <c r="P166" s="122"/>
-      <c r="Q166" s="122"/>
-      <c r="R166" s="122"/>
-      <c r="S166" s="122"/>
-      <c r="T166" s="122"/>
-      <c r="U166" s="122"/>
-      <c r="V166" s="122"/>
-      <c r="W166" s="122"/>
-      <c r="X166" s="122"/>
-      <c r="Y166" s="122"/>
-      <c r="Z166" s="122"/>
-      <c r="AA166" s="122"/>
-      <c r="AB166" s="122"/>
-      <c r="AC166" s="122"/>
-      <c r="AD166" s="122"/>
-      <c r="AE166" s="122"/>
-      <c r="AF166" s="122"/>
-      <c r="AG166" s="122"/>
-      <c r="AH166" s="122"/>
+      <c r="A166" s="120"/>
+      <c r="B166" s="121"/>
+      <c r="C166" s="121"/>
+      <c r="D166" s="121"/>
+      <c r="E166" s="121"/>
+      <c r="F166" s="121"/>
+      <c r="G166" s="121"/>
+      <c r="H166" s="121"/>
+      <c r="I166" s="121"/>
+      <c r="J166" s="125"/>
+      <c r="K166" s="121"/>
+      <c r="L166" s="121"/>
+      <c r="M166" s="127"/>
+      <c r="N166" s="121"/>
+      <c r="O166" s="121"/>
+      <c r="P166" s="121"/>
+      <c r="Q166" s="121"/>
+      <c r="R166" s="121"/>
+      <c r="S166" s="121"/>
+      <c r="T166" s="121"/>
+      <c r="U166" s="121"/>
+      <c r="V166" s="121"/>
+      <c r="W166" s="121"/>
+      <c r="X166" s="121"/>
+      <c r="Y166" s="121"/>
+      <c r="Z166" s="121"/>
+      <c r="AA166" s="121"/>
+      <c r="AB166" s="121"/>
+      <c r="AC166" s="121"/>
+      <c r="AD166" s="121"/>
+      <c r="AE166" s="121"/>
+      <c r="AF166" s="121"/>
+      <c r="AG166" s="121"/>
+      <c r="AH166" s="121"/>
     </row>
     <row r="167" spans="1:34">
-      <c r="A167" s="121"/>
-      <c r="B167" s="122"/>
-      <c r="C167" s="122"/>
-      <c r="D167" s="122"/>
-      <c r="E167" s="122"/>
-      <c r="F167" s="122"/>
-      <c r="G167" s="122"/>
-      <c r="H167" s="122"/>
-      <c r="I167" s="122"/>
-      <c r="J167" s="126"/>
-      <c r="K167" s="122"/>
-      <c r="L167" s="122"/>
-      <c r="M167" s="128"/>
-      <c r="N167" s="122"/>
-      <c r="O167" s="122"/>
-      <c r="P167" s="122"/>
-      <c r="Q167" s="122"/>
-      <c r="R167" s="122"/>
-      <c r="S167" s="122"/>
-      <c r="T167" s="122"/>
-      <c r="U167" s="122"/>
-      <c r="V167" s="122"/>
-      <c r="W167" s="122"/>
-      <c r="X167" s="122"/>
-      <c r="Y167" s="122"/>
-      <c r="Z167" s="122"/>
-      <c r="AA167" s="122"/>
-      <c r="AB167" s="122"/>
-      <c r="AC167" s="122"/>
-      <c r="AD167" s="122"/>
-      <c r="AE167" s="122"/>
-      <c r="AF167" s="122"/>
-      <c r="AG167" s="122"/>
-      <c r="AH167" s="122"/>
+      <c r="A167" s="120"/>
+      <c r="B167" s="121"/>
+      <c r="C167" s="121"/>
+      <c r="D167" s="121"/>
+      <c r="E167" s="121"/>
+      <c r="F167" s="121"/>
+      <c r="G167" s="121"/>
+      <c r="H167" s="121"/>
+      <c r="I167" s="121"/>
+      <c r="J167" s="125"/>
+      <c r="K167" s="121"/>
+      <c r="L167" s="121"/>
+      <c r="M167" s="127"/>
+      <c r="N167" s="121"/>
+      <c r="O167" s="121"/>
+      <c r="P167" s="121"/>
+      <c r="Q167" s="121"/>
+      <c r="R167" s="121"/>
+      <c r="S167" s="121"/>
+      <c r="T167" s="121"/>
+      <c r="U167" s="121"/>
+      <c r="V167" s="121"/>
+      <c r="W167" s="121"/>
+      <c r="X167" s="121"/>
+      <c r="Y167" s="121"/>
+      <c r="Z167" s="121"/>
+      <c r="AA167" s="121"/>
+      <c r="AB167" s="121"/>
+      <c r="AC167" s="121"/>
+      <c r="AD167" s="121"/>
+      <c r="AE167" s="121"/>
+      <c r="AF167" s="121"/>
+      <c r="AG167" s="121"/>
+      <c r="AH167" s="121"/>
     </row>
     <row r="168" spans="1:34">
-      <c r="A168" s="121"/>
-      <c r="B168" s="122"/>
-      <c r="C168" s="122"/>
-      <c r="D168" s="122"/>
-      <c r="E168" s="122"/>
-      <c r="F168" s="122"/>
-      <c r="G168" s="122"/>
-      <c r="H168" s="122"/>
-      <c r="I168" s="122"/>
-      <c r="J168" s="126"/>
-      <c r="K168" s="122"/>
-      <c r="L168" s="122"/>
-      <c r="M168" s="128"/>
-      <c r="N168" s="122"/>
-      <c r="O168" s="122"/>
-      <c r="P168" s="122"/>
-      <c r="Q168" s="122"/>
-      <c r="R168" s="122"/>
-      <c r="S168" s="122"/>
-      <c r="T168" s="122"/>
-      <c r="U168" s="122"/>
-      <c r="V168" s="122"/>
-      <c r="W168" s="122"/>
-      <c r="X168" s="122"/>
-      <c r="Y168" s="122"/>
-      <c r="Z168" s="122"/>
-      <c r="AA168" s="122"/>
-      <c r="AB168" s="122"/>
-      <c r="AC168" s="122"/>
-      <c r="AD168" s="122"/>
-      <c r="AE168" s="122"/>
-      <c r="AF168" s="122"/>
-      <c r="AG168" s="122"/>
-      <c r="AH168" s="122"/>
+      <c r="A168" s="120"/>
+      <c r="B168" s="121"/>
+      <c r="C168" s="121"/>
+      <c r="D168" s="121"/>
+      <c r="E168" s="121"/>
+      <c r="F168" s="121"/>
+      <c r="G168" s="121"/>
+      <c r="H168" s="121"/>
+      <c r="I168" s="121"/>
+      <c r="J168" s="125"/>
+      <c r="K168" s="121"/>
+      <c r="L168" s="121"/>
+      <c r="M168" s="127"/>
+      <c r="N168" s="121"/>
+      <c r="O168" s="121"/>
+      <c r="P168" s="121"/>
+      <c r="Q168" s="121"/>
+      <c r="R168" s="121"/>
+      <c r="S168" s="121"/>
+      <c r="T168" s="121"/>
+      <c r="U168" s="121"/>
+      <c r="V168" s="121"/>
+      <c r="W168" s="121"/>
+      <c r="X168" s="121"/>
+      <c r="Y168" s="121"/>
+      <c r="Z168" s="121"/>
+      <c r="AA168" s="121"/>
+      <c r="AB168" s="121"/>
+      <c r="AC168" s="121"/>
+      <c r="AD168" s="121"/>
+      <c r="AE168" s="121"/>
+      <c r="AF168" s="121"/>
+      <c r="AG168" s="121"/>
+      <c r="AH168" s="121"/>
     </row>
     <row r="169" spans="1:34">
-      <c r="A169" s="121"/>
-      <c r="B169" s="122"/>
-      <c r="C169" s="122"/>
-      <c r="D169" s="122"/>
-      <c r="E169" s="122"/>
-      <c r="F169" s="122"/>
-      <c r="G169" s="122"/>
-      <c r="H169" s="122"/>
-      <c r="I169" s="122"/>
-      <c r="J169" s="126"/>
-      <c r="K169" s="122"/>
-      <c r="L169" s="122"/>
-      <c r="M169" s="128"/>
-      <c r="N169" s="122"/>
-      <c r="O169" s="122"/>
-      <c r="P169" s="122"/>
-      <c r="Q169" s="122"/>
-      <c r="R169" s="122"/>
-      <c r="S169" s="122"/>
-      <c r="T169" s="122"/>
-      <c r="U169" s="122"/>
-      <c r="V169" s="122"/>
-      <c r="W169" s="122"/>
-      <c r="X169" s="122"/>
-      <c r="Y169" s="122"/>
-      <c r="Z169" s="122"/>
-      <c r="AA169" s="122"/>
-      <c r="AB169" s="122"/>
-      <c r="AC169" s="122"/>
-      <c r="AD169" s="122"/>
-      <c r="AE169" s="122"/>
-      <c r="AF169" s="122"/>
-      <c r="AG169" s="122"/>
-      <c r="AH169" s="122"/>
+      <c r="A169" s="120"/>
+      <c r="B169" s="121"/>
+      <c r="C169" s="121"/>
+      <c r="D169" s="121"/>
+      <c r="E169" s="121"/>
+      <c r="F169" s="121"/>
+      <c r="G169" s="121"/>
+      <c r="H169" s="121"/>
+      <c r="I169" s="121"/>
+      <c r="J169" s="125"/>
+      <c r="K169" s="121"/>
+      <c r="L169" s="121"/>
+      <c r="M169" s="127"/>
+      <c r="N169" s="121"/>
+      <c r="O169" s="121"/>
+      <c r="P169" s="121"/>
+      <c r="Q169" s="121"/>
+      <c r="R169" s="121"/>
+      <c r="S169" s="121"/>
+      <c r="T169" s="121"/>
+      <c r="U169" s="121"/>
+      <c r="V169" s="121"/>
+      <c r="W169" s="121"/>
+      <c r="X169" s="121"/>
+      <c r="Y169" s="121"/>
+      <c r="Z169" s="121"/>
+      <c r="AA169" s="121"/>
+      <c r="AB169" s="121"/>
+      <c r="AC169" s="121"/>
+      <c r="AD169" s="121"/>
+      <c r="AE169" s="121"/>
+      <c r="AF169" s="121"/>
+      <c r="AG169" s="121"/>
+      <c r="AH169" s="121"/>
     </row>
     <row r="170" spans="1:34">
-      <c r="A170" s="121"/>
-      <c r="B170" s="122"/>
-      <c r="C170" s="122"/>
-      <c r="D170" s="122"/>
-      <c r="E170" s="122"/>
-      <c r="F170" s="122"/>
-      <c r="G170" s="122"/>
-      <c r="H170" s="122"/>
-      <c r="I170" s="122"/>
-      <c r="J170" s="126"/>
-      <c r="K170" s="122"/>
-      <c r="L170" s="122"/>
-      <c r="M170" s="128"/>
-      <c r="N170" s="122"/>
-      <c r="O170" s="122"/>
-      <c r="P170" s="122"/>
-      <c r="Q170" s="122"/>
-      <c r="R170" s="122"/>
-      <c r="S170" s="122"/>
-      <c r="T170" s="122"/>
-      <c r="U170" s="122"/>
-      <c r="V170" s="122"/>
-      <c r="W170" s="122"/>
-      <c r="X170" s="122"/>
-      <c r="Y170" s="122"/>
-      <c r="Z170" s="122"/>
-      <c r="AA170" s="122"/>
-      <c r="AB170" s="122"/>
-      <c r="AC170" s="122"/>
-      <c r="AD170" s="122"/>
-      <c r="AE170" s="122"/>
-      <c r="AF170" s="122"/>
-      <c r="AG170" s="122"/>
-      <c r="AH170" s="122"/>
+      <c r="A170" s="120"/>
+      <c r="B170" s="121"/>
+      <c r="C170" s="121"/>
+      <c r="D170" s="121"/>
+      <c r="E170" s="121"/>
+      <c r="F170" s="121"/>
+      <c r="G170" s="121"/>
+      <c r="H170" s="121"/>
+      <c r="I170" s="121"/>
+      <c r="J170" s="125"/>
+      <c r="K170" s="121"/>
+      <c r="L170" s="121"/>
+      <c r="M170" s="127"/>
+      <c r="N170" s="121"/>
+      <c r="O170" s="121"/>
+      <c r="P170" s="121"/>
+      <c r="Q170" s="121"/>
+      <c r="R170" s="121"/>
+      <c r="S170" s="121"/>
+      <c r="T170" s="121"/>
+      <c r="U170" s="121"/>
+      <c r="V170" s="121"/>
+      <c r="W170" s="121"/>
+      <c r="X170" s="121"/>
+      <c r="Y170" s="121"/>
+      <c r="Z170" s="121"/>
+      <c r="AA170" s="121"/>
+      <c r="AB170" s="121"/>
+      <c r="AC170" s="121"/>
+      <c r="AD170" s="121"/>
+      <c r="AE170" s="121"/>
+      <c r="AF170" s="121"/>
+      <c r="AG170" s="121"/>
+      <c r="AH170" s="121"/>
     </row>
     <row r="171" spans="1:34">
-      <c r="A171" s="121"/>
-      <c r="B171" s="122"/>
-      <c r="C171" s="122"/>
-      <c r="D171" s="122"/>
-      <c r="E171" s="122"/>
-      <c r="F171" s="122"/>
-      <c r="G171" s="122"/>
-      <c r="H171" s="122"/>
-      <c r="I171" s="122"/>
-      <c r="J171" s="126"/>
-      <c r="K171" s="122"/>
-      <c r="L171" s="122"/>
-      <c r="M171" s="128"/>
-      <c r="N171" s="122"/>
-      <c r="O171" s="122"/>
-      <c r="P171" s="122"/>
-      <c r="Q171" s="122"/>
-      <c r="R171" s="122"/>
-      <c r="S171" s="122"/>
-      <c r="T171" s="122"/>
-      <c r="U171" s="122"/>
-      <c r="V171" s="122"/>
-      <c r="W171" s="122"/>
-      <c r="X171" s="122"/>
-      <c r="Y171" s="122"/>
-      <c r="Z171" s="122"/>
-      <c r="AA171" s="122"/>
-      <c r="AB171" s="122"/>
-      <c r="AC171" s="122"/>
-      <c r="AD171" s="122"/>
-      <c r="AE171" s="122"/>
-      <c r="AF171" s="122"/>
-      <c r="AG171" s="122"/>
-      <c r="AH171" s="122"/>
+      <c r="A171" s="120"/>
+      <c r="B171" s="121"/>
+      <c r="C171" s="121"/>
+      <c r="D171" s="121"/>
+      <c r="E171" s="121"/>
+      <c r="F171" s="121"/>
+      <c r="G171" s="121"/>
+      <c r="H171" s="121"/>
+      <c r="I171" s="121"/>
+      <c r="J171" s="125"/>
+      <c r="K171" s="121"/>
+      <c r="L171" s="121"/>
+      <c r="M171" s="127"/>
+      <c r="N171" s="121"/>
+      <c r="O171" s="121"/>
+      <c r="P171" s="121"/>
+      <c r="Q171" s="121"/>
+      <c r="R171" s="121"/>
+      <c r="S171" s="121"/>
+      <c r="T171" s="121"/>
+      <c r="U171" s="121"/>
+      <c r="V171" s="121"/>
+      <c r="W171" s="121"/>
+      <c r="X171" s="121"/>
+      <c r="Y171" s="121"/>
+      <c r="Z171" s="121"/>
+      <c r="AA171" s="121"/>
+      <c r="AB171" s="121"/>
+      <c r="AC171" s="121"/>
+      <c r="AD171" s="121"/>
+      <c r="AE171" s="121"/>
+      <c r="AF171" s="121"/>
+      <c r="AG171" s="121"/>
+      <c r="AH171" s="121"/>
     </row>
     <row r="172" spans="1:34">
-      <c r="A172" s="121"/>
-      <c r="B172" s="122"/>
-      <c r="C172" s="122"/>
-      <c r="D172" s="122"/>
-      <c r="E172" s="122"/>
-      <c r="F172" s="122"/>
-      <c r="G172" s="122"/>
-      <c r="H172" s="122"/>
-      <c r="I172" s="122"/>
-      <c r="J172" s="126"/>
-      <c r="K172" s="122"/>
-      <c r="L172" s="122"/>
-      <c r="M172" s="128"/>
-      <c r="N172" s="122"/>
-      <c r="O172" s="122"/>
-      <c r="P172" s="122"/>
-      <c r="Q172" s="122"/>
-      <c r="R172" s="122"/>
-      <c r="S172" s="122"/>
-      <c r="T172" s="122"/>
-      <c r="U172" s="122"/>
-      <c r="V172" s="122"/>
-      <c r="W172" s="122"/>
-      <c r="X172" s="122"/>
-      <c r="Y172" s="122"/>
-      <c r="Z172" s="122"/>
-      <c r="AA172" s="122"/>
-      <c r="AB172" s="122"/>
-      <c r="AC172" s="122"/>
-      <c r="AD172" s="122"/>
-      <c r="AE172" s="122"/>
-      <c r="AF172" s="122"/>
-      <c r="AG172" s="122"/>
-      <c r="AH172" s="122"/>
+      <c r="A172" s="120"/>
+      <c r="B172" s="121"/>
+      <c r="C172" s="121"/>
+      <c r="D172" s="121"/>
+      <c r="E172" s="121"/>
+      <c r="F172" s="121"/>
+      <c r="G172" s="121"/>
+      <c r="H172" s="121"/>
+      <c r="I172" s="121"/>
+      <c r="J172" s="125"/>
+      <c r="K172" s="121"/>
+      <c r="L172" s="121"/>
+      <c r="M172" s="127"/>
+      <c r="N172" s="121"/>
+      <c r="O172" s="121"/>
+      <c r="P172" s="121"/>
+      <c r="Q172" s="121"/>
+      <c r="R172" s="121"/>
+      <c r="S172" s="121"/>
+      <c r="T172" s="121"/>
+      <c r="U172" s="121"/>
+      <c r="V172" s="121"/>
+      <c r="W172" s="121"/>
+      <c r="X172" s="121"/>
+      <c r="Y172" s="121"/>
+      <c r="Z172" s="121"/>
+      <c r="AA172" s="121"/>
+      <c r="AB172" s="121"/>
+      <c r="AC172" s="121"/>
+      <c r="AD172" s="121"/>
+      <c r="AE172" s="121"/>
+      <c r="AF172" s="121"/>
+      <c r="AG172" s="121"/>
+      <c r="AH172" s="121"/>
     </row>
     <row r="173" spans="1:34">
-      <c r="A173" s="121"/>
-      <c r="B173" s="122"/>
-      <c r="C173" s="122"/>
-      <c r="D173" s="122"/>
-      <c r="E173" s="122"/>
-      <c r="F173" s="122"/>
-      <c r="G173" s="122"/>
-      <c r="H173" s="122"/>
-      <c r="I173" s="122"/>
-      <c r="J173" s="126"/>
-      <c r="K173" s="122"/>
-      <c r="L173" s="122"/>
-      <c r="M173" s="128"/>
-      <c r="N173" s="122"/>
-      <c r="O173" s="122"/>
-      <c r="P173" s="122"/>
-      <c r="Q173" s="122"/>
-      <c r="R173" s="122"/>
-      <c r="S173" s="122"/>
-      <c r="T173" s="122"/>
-      <c r="U173" s="122"/>
-      <c r="V173" s="122"/>
-      <c r="W173" s="122"/>
-      <c r="X173" s="122"/>
-      <c r="Y173" s="122"/>
-      <c r="Z173" s="122"/>
-      <c r="AA173" s="122"/>
-      <c r="AB173" s="122"/>
-      <c r="AC173" s="122"/>
-      <c r="AD173" s="122"/>
-      <c r="AE173" s="122"/>
-      <c r="AF173" s="122"/>
-      <c r="AG173" s="122"/>
-      <c r="AH173" s="122"/>
+      <c r="A173" s="120"/>
+      <c r="B173" s="121"/>
+      <c r="C173" s="121"/>
+      <c r="D173" s="121"/>
+      <c r="E173" s="121"/>
+      <c r="F173" s="121"/>
+      <c r="G173" s="121"/>
+      <c r="H173" s="121"/>
+      <c r="I173" s="121"/>
+      <c r="J173" s="125"/>
+      <c r="K173" s="121"/>
+      <c r="L173" s="121"/>
+      <c r="M173" s="127"/>
+      <c r="N173" s="121"/>
+      <c r="O173" s="121"/>
+      <c r="P173" s="121"/>
+      <c r="Q173" s="121"/>
+      <c r="R173" s="121"/>
+      <c r="S173" s="121"/>
+      <c r="T173" s="121"/>
+      <c r="U173" s="121"/>
+      <c r="V173" s="121"/>
+      <c r="W173" s="121"/>
+      <c r="X173" s="121"/>
+      <c r="Y173" s="121"/>
+      <c r="Z173" s="121"/>
+      <c r="AA173" s="121"/>
+      <c r="AB173" s="121"/>
+      <c r="AC173" s="121"/>
+      <c r="AD173" s="121"/>
+      <c r="AE173" s="121"/>
+      <c r="AF173" s="121"/>
+      <c r="AG173" s="121"/>
+      <c r="AH173" s="121"/>
     </row>
     <row r="174" spans="1:34">
-      <c r="A174" s="121"/>
-      <c r="B174" s="122"/>
-      <c r="C174" s="122"/>
-      <c r="D174" s="122"/>
-      <c r="E174" s="122"/>
-      <c r="F174" s="122"/>
-      <c r="G174" s="122"/>
-      <c r="H174" s="122"/>
-      <c r="I174" s="122"/>
-      <c r="J174" s="126"/>
-      <c r="K174" s="122"/>
-      <c r="L174" s="122"/>
-      <c r="M174" s="128"/>
-      <c r="N174" s="122"/>
-      <c r="O174" s="122"/>
-      <c r="P174" s="122"/>
-      <c r="Q174" s="122"/>
-      <c r="R174" s="122"/>
-      <c r="S174" s="122"/>
-      <c r="T174" s="122"/>
-      <c r="U174" s="122"/>
-      <c r="V174" s="122"/>
-      <c r="W174" s="122"/>
-      <c r="X174" s="122"/>
-      <c r="Y174" s="122"/>
-      <c r="Z174" s="122"/>
-      <c r="AA174" s="122"/>
-      <c r="AB174" s="122"/>
-      <c r="AC174" s="122"/>
-      <c r="AD174" s="122"/>
-      <c r="AE174" s="122"/>
-      <c r="AF174" s="122"/>
-      <c r="AG174" s="122"/>
-      <c r="AH174" s="122"/>
+      <c r="A174" s="120"/>
+      <c r="B174" s="121"/>
+      <c r="C174" s="121"/>
+      <c r="D174" s="121"/>
+      <c r="E174" s="121"/>
+      <c r="F174" s="121"/>
+      <c r="G174" s="121"/>
+      <c r="H174" s="121"/>
+      <c r="I174" s="121"/>
+      <c r="J174" s="125"/>
+      <c r="K174" s="121"/>
+      <c r="L174" s="121"/>
+      <c r="M174" s="127"/>
+      <c r="N174" s="121"/>
+      <c r="O174" s="121"/>
+      <c r="P174" s="121"/>
+      <c r="Q174" s="121"/>
+      <c r="R174" s="121"/>
+      <c r="S174" s="121"/>
+      <c r="T174" s="121"/>
+      <c r="U174" s="121"/>
+      <c r="V174" s="121"/>
+      <c r="W174" s="121"/>
+      <c r="X174" s="121"/>
+      <c r="Y174" s="121"/>
+      <c r="Z174" s="121"/>
+      <c r="AA174" s="121"/>
+      <c r="AB174" s="121"/>
+      <c r="AC174" s="121"/>
+      <c r="AD174" s="121"/>
+      <c r="AE174" s="121"/>
+      <c r="AF174" s="121"/>
+      <c r="AG174" s="121"/>
+      <c r="AH174" s="121"/>
     </row>
     <row r="175" spans="1:34">
-      <c r="A175" s="121"/>
-      <c r="B175" s="122"/>
-      <c r="C175" s="122"/>
-      <c r="D175" s="122"/>
-      <c r="E175" s="122"/>
-      <c r="F175" s="122"/>
-      <c r="G175" s="122"/>
-      <c r="H175" s="122"/>
-      <c r="I175" s="122"/>
-      <c r="J175" s="126"/>
-      <c r="K175" s="122"/>
-      <c r="L175" s="122"/>
-      <c r="M175" s="128"/>
-      <c r="N175" s="122"/>
-      <c r="O175" s="122"/>
-      <c r="P175" s="122"/>
-      <c r="Q175" s="122"/>
-      <c r="R175" s="122"/>
-      <c r="S175" s="122"/>
-      <c r="T175" s="122"/>
-      <c r="U175" s="122"/>
-      <c r="V175" s="122"/>
-      <c r="W175" s="122"/>
-      <c r="X175" s="122"/>
-      <c r="Y175" s="122"/>
-      <c r="Z175" s="122"/>
-      <c r="AA175" s="122"/>
-      <c r="AB175" s="122"/>
-      <c r="AC175" s="122"/>
-      <c r="AD175" s="122"/>
-      <c r="AE175" s="122"/>
-      <c r="AF175" s="122"/>
-      <c r="AG175" s="122"/>
-      <c r="AH175" s="122"/>
+      <c r="A175" s="120"/>
+      <c r="B175" s="121"/>
+      <c r="C175" s="121"/>
+      <c r="D175" s="121"/>
+      <c r="E175" s="121"/>
+      <c r="F175" s="121"/>
+      <c r="G175" s="121"/>
+      <c r="H175" s="121"/>
+      <c r="I175" s="121"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="121"/>
+      <c r="L175" s="121"/>
+      <c r="M175" s="127"/>
+      <c r="N175" s="121"/>
+      <c r="O175" s="121"/>
+      <c r="P175" s="121"/>
+      <c r="Q175" s="121"/>
+      <c r="R175" s="121"/>
+      <c r="S175" s="121"/>
+      <c r="T175" s="121"/>
+      <c r="U175" s="121"/>
+      <c r="V175" s="121"/>
+      <c r="W175" s="121"/>
+      <c r="X175" s="121"/>
+      <c r="Y175" s="121"/>
+      <c r="Z175" s="121"/>
+      <c r="AA175" s="121"/>
+      <c r="AB175" s="121"/>
+      <c r="AC175" s="121"/>
+      <c r="AD175" s="121"/>
+      <c r="AE175" s="121"/>
+      <c r="AF175" s="121"/>
+      <c r="AG175" s="121"/>
+      <c r="AH175" s="121"/>
     </row>
     <row r="176" spans="1:34">
-      <c r="A176" s="121"/>
-      <c r="B176" s="122"/>
-      <c r="C176" s="122"/>
-      <c r="D176" s="122"/>
-      <c r="E176" s="122"/>
-      <c r="F176" s="122"/>
-      <c r="G176" s="122"/>
-      <c r="H176" s="122"/>
-      <c r="I176" s="122"/>
-      <c r="J176" s="126"/>
-      <c r="K176" s="122"/>
-      <c r="L176" s="122"/>
-      <c r="M176" s="128"/>
-      <c r="N176" s="122"/>
-      <c r="O176" s="122"/>
-      <c r="P176" s="122"/>
-      <c r="Q176" s="122"/>
-      <c r="R176" s="122"/>
-      <c r="S176" s="122"/>
-      <c r="T176" s="122"/>
-      <c r="U176" s="122"/>
-      <c r="V176" s="122"/>
-      <c r="W176" s="122"/>
-      <c r="X176" s="122"/>
-      <c r="Y176" s="122"/>
-      <c r="Z176" s="122"/>
-      <c r="AA176" s="122"/>
-      <c r="AB176" s="122"/>
-      <c r="AC176" s="122"/>
-      <c r="AD176" s="122"/>
-      <c r="AE176" s="122"/>
-      <c r="AF176" s="122"/>
-      <c r="AG176" s="122"/>
-      <c r="AH176" s="122"/>
+      <c r="A176" s="120"/>
+      <c r="B176" s="121"/>
+      <c r="C176" s="121"/>
+      <c r="D176" s="121"/>
+      <c r="E176" s="121"/>
+      <c r="F176" s="121"/>
+      <c r="G176" s="121"/>
+      <c r="H176" s="121"/>
+      <c r="I176" s="121"/>
+      <c r="J176" s="125"/>
+      <c r="K176" s="121"/>
+      <c r="L176" s="121"/>
+      <c r="M176" s="127"/>
+      <c r="N176" s="121"/>
+      <c r="O176" s="121"/>
+      <c r="P176" s="121"/>
+      <c r="Q176" s="121"/>
+      <c r="R176" s="121"/>
+      <c r="S176" s="121"/>
+      <c r="T176" s="121"/>
+      <c r="U176" s="121"/>
+      <c r="V176" s="121"/>
+      <c r="W176" s="121"/>
+      <c r="X176" s="121"/>
+      <c r="Y176" s="121"/>
+      <c r="Z176" s="121"/>
+      <c r="AA176" s="121"/>
+      <c r="AB176" s="121"/>
+      <c r="AC176" s="121"/>
+      <c r="AD176" s="121"/>
+      <c r="AE176" s="121"/>
+      <c r="AF176" s="121"/>
+      <c r="AG176" s="121"/>
+      <c r="AH176" s="121"/>
     </row>
     <row r="177" spans="1:34">
-      <c r="A177" s="121"/>
-      <c r="B177" s="122"/>
-      <c r="C177" s="122"/>
-      <c r="D177" s="122"/>
-      <c r="E177" s="122"/>
-      <c r="F177" s="122"/>
-      <c r="G177" s="122"/>
-      <c r="H177" s="122"/>
-      <c r="I177" s="122"/>
-      <c r="J177" s="126"/>
-      <c r="K177" s="122"/>
-      <c r="L177" s="122"/>
-      <c r="M177" s="128"/>
-      <c r="N177" s="122"/>
-      <c r="O177" s="122"/>
-      <c r="P177" s="122"/>
-      <c r="Q177" s="122"/>
-      <c r="R177" s="122"/>
-      <c r="S177" s="122"/>
-      <c r="T177" s="122"/>
-      <c r="U177" s="122"/>
-      <c r="V177" s="122"/>
-      <c r="W177" s="122"/>
-      <c r="X177" s="122"/>
-      <c r="Y177" s="122"/>
-      <c r="Z177" s="122"/>
-      <c r="AA177" s="122"/>
-      <c r="AB177" s="122"/>
-      <c r="AC177" s="122"/>
-      <c r="AD177" s="122"/>
-      <c r="AE177" s="122"/>
-      <c r="AF177" s="122"/>
-      <c r="AG177" s="122"/>
-      <c r="AH177" s="122"/>
+      <c r="A177" s="120"/>
+      <c r="B177" s="121"/>
+      <c r="C177" s="121"/>
+      <c r="D177" s="121"/>
+      <c r="E177" s="121"/>
+      <c r="F177" s="121"/>
+      <c r="G177" s="121"/>
+      <c r="H177" s="121"/>
+      <c r="I177" s="121"/>
+      <c r="J177" s="125"/>
+      <c r="K177" s="121"/>
+      <c r="L177" s="121"/>
+      <c r="M177" s="127"/>
+      <c r="N177" s="121"/>
+      <c r="O177" s="121"/>
+      <c r="P177" s="121"/>
+      <c r="Q177" s="121"/>
+      <c r="R177" s="121"/>
+      <c r="S177" s="121"/>
+      <c r="T177" s="121"/>
+      <c r="U177" s="121"/>
+      <c r="V177" s="121"/>
+      <c r="W177" s="121"/>
+      <c r="X177" s="121"/>
+      <c r="Y177" s="121"/>
+      <c r="Z177" s="121"/>
+      <c r="AA177" s="121"/>
+      <c r="AB177" s="121"/>
+      <c r="AC177" s="121"/>
+      <c r="AD177" s="121"/>
+      <c r="AE177" s="121"/>
+      <c r="AF177" s="121"/>
+      <c r="AG177" s="121"/>
+      <c r="AH177" s="121"/>
     </row>
     <row r="178" spans="1:34">
-      <c r="A178" s="121"/>
-      <c r="B178" s="122"/>
-      <c r="C178" s="122"/>
-      <c r="D178" s="122"/>
-      <c r="E178" s="122"/>
-      <c r="F178" s="122"/>
-      <c r="G178" s="122"/>
-      <c r="H178" s="122"/>
-      <c r="I178" s="122"/>
-      <c r="J178" s="126"/>
-      <c r="K178" s="122"/>
-      <c r="L178" s="122"/>
-      <c r="M178" s="128"/>
-      <c r="N178" s="122"/>
-      <c r="O178" s="122"/>
-      <c r="P178" s="122"/>
-      <c r="Q178" s="122"/>
-      <c r="R178" s="122"/>
-      <c r="S178" s="122"/>
-      <c r="T178" s="122"/>
-      <c r="U178" s="122"/>
-      <c r="V178" s="122"/>
-      <c r="W178" s="122"/>
-      <c r="X178" s="122"/>
-      <c r="Y178" s="122"/>
-      <c r="Z178" s="122"/>
-      <c r="AA178" s="122"/>
-      <c r="AB178" s="122"/>
-      <c r="AC178" s="122"/>
-      <c r="AD178" s="122"/>
-      <c r="AE178" s="122"/>
-      <c r="AF178" s="122"/>
-      <c r="AG178" s="122"/>
-      <c r="AH178" s="122"/>
+      <c r="A178" s="120"/>
+      <c r="B178" s="121"/>
+      <c r="C178" s="121"/>
+      <c r="D178" s="121"/>
+      <c r="E178" s="121"/>
+      <c r="F178" s="121"/>
+      <c r="G178" s="121"/>
+      <c r="H178" s="121"/>
+      <c r="I178" s="121"/>
+      <c r="J178" s="125"/>
+      <c r="K178" s="121"/>
+      <c r="L178" s="121"/>
+      <c r="M178" s="127"/>
+      <c r="N178" s="121"/>
+      <c r="O178" s="121"/>
+      <c r="P178" s="121"/>
+      <c r="Q178" s="121"/>
+      <c r="R178" s="121"/>
+      <c r="S178" s="121"/>
+      <c r="T178" s="121"/>
+      <c r="U178" s="121"/>
+      <c r="V178" s="121"/>
+      <c r="W178" s="121"/>
+      <c r="X178" s="121"/>
+      <c r="Y178" s="121"/>
+      <c r="Z178" s="121"/>
+      <c r="AA178" s="121"/>
+      <c r="AB178" s="121"/>
+      <c r="AC178" s="121"/>
+      <c r="AD178" s="121"/>
+      <c r="AE178" s="121"/>
+      <c r="AF178" s="121"/>
+      <c r="AG178" s="121"/>
+      <c r="AH178" s="121"/>
     </row>
     <row r="179" spans="1:34">
-      <c r="A179" s="121"/>
-      <c r="B179" s="122"/>
-      <c r="C179" s="122"/>
-      <c r="D179" s="122"/>
-      <c r="E179" s="122"/>
-      <c r="F179" s="122"/>
-      <c r="G179" s="122"/>
-      <c r="H179" s="122"/>
-      <c r="I179" s="122"/>
-      <c r="J179" s="126"/>
-      <c r="K179" s="122"/>
-      <c r="L179" s="122"/>
-      <c r="M179" s="128"/>
-      <c r="N179" s="122"/>
-      <c r="O179" s="122"/>
-      <c r="P179" s="122"/>
-      <c r="Q179" s="122"/>
-      <c r="R179" s="122"/>
-      <c r="S179" s="122"/>
-      <c r="T179" s="122"/>
-      <c r="U179" s="122"/>
-      <c r="V179" s="122"/>
-      <c r="W179" s="122"/>
-      <c r="X179" s="122"/>
-      <c r="Y179" s="122"/>
-      <c r="Z179" s="122"/>
-      <c r="AA179" s="122"/>
-      <c r="AB179" s="122"/>
-      <c r="AC179" s="122"/>
-      <c r="AD179" s="122"/>
-      <c r="AE179" s="122"/>
-      <c r="AF179" s="122"/>
-      <c r="AG179" s="122"/>
-      <c r="AH179" s="122"/>
+      <c r="A179" s="120"/>
+      <c r="B179" s="121"/>
+      <c r="C179" s="121"/>
+      <c r="D179" s="121"/>
+      <c r="E179" s="121"/>
+      <c r="F179" s="121"/>
+      <c r="G179" s="121"/>
+      <c r="H179" s="121"/>
+      <c r="I179" s="121"/>
+      <c r="J179" s="125"/>
+      <c r="K179" s="121"/>
+      <c r="L179" s="121"/>
+      <c r="M179" s="127"/>
+      <c r="N179" s="121"/>
+      <c r="O179" s="121"/>
+      <c r="P179" s="121"/>
+      <c r="Q179" s="121"/>
+      <c r="R179" s="121"/>
+      <c r="S179" s="121"/>
+      <c r="T179" s="121"/>
+      <c r="U179" s="121"/>
+      <c r="V179" s="121"/>
+      <c r="W179" s="121"/>
+      <c r="X179" s="121"/>
+      <c r="Y179" s="121"/>
+      <c r="Z179" s="121"/>
+      <c r="AA179" s="121"/>
+      <c r="AB179" s="121"/>
+      <c r="AC179" s="121"/>
+      <c r="AD179" s="121"/>
+      <c r="AE179" s="121"/>
+      <c r="AF179" s="121"/>
+      <c r="AG179" s="121"/>
+      <c r="AH179" s="121"/>
     </row>
     <row r="180" spans="1:34">
-      <c r="A180" s="121"/>
-      <c r="B180" s="122"/>
-      <c r="C180" s="122"/>
-      <c r="D180" s="122"/>
-      <c r="E180" s="122"/>
-      <c r="F180" s="122"/>
-      <c r="G180" s="122"/>
-      <c r="H180" s="122"/>
-      <c r="I180" s="122"/>
-      <c r="J180" s="126"/>
-      <c r="K180" s="122"/>
-      <c r="L180" s="122"/>
-      <c r="M180" s="128"/>
-      <c r="N180" s="122"/>
-      <c r="O180" s="122"/>
-      <c r="P180" s="122"/>
-      <c r="Q180" s="122"/>
-      <c r="R180" s="122"/>
-      <c r="S180" s="122"/>
-      <c r="T180" s="122"/>
-      <c r="U180" s="122"/>
-      <c r="V180" s="122"/>
-      <c r="W180" s="122"/>
-      <c r="X180" s="122"/>
-      <c r="Y180" s="122"/>
-      <c r="Z180" s="122"/>
-      <c r="AA180" s="122"/>
-      <c r="AB180" s="122"/>
-      <c r="AC180" s="122"/>
-      <c r="AD180" s="122"/>
-      <c r="AE180" s="122"/>
-      <c r="AF180" s="122"/>
-      <c r="AG180" s="122"/>
-      <c r="AH180" s="122"/>
+      <c r="A180" s="120"/>
+      <c r="B180" s="121"/>
+      <c r="C180" s="121"/>
+      <c r="D180" s="121"/>
+      <c r="E180" s="121"/>
+      <c r="F180" s="121"/>
+      <c r="G180" s="121"/>
+      <c r="H180" s="121"/>
+      <c r="I180" s="121"/>
+      <c r="J180" s="125"/>
+      <c r="K180" s="121"/>
+      <c r="L180" s="121"/>
+      <c r="M180" s="127"/>
+      <c r="N180" s="121"/>
+      <c r="O180" s="121"/>
+      <c r="P180" s="121"/>
+      <c r="Q180" s="121"/>
+      <c r="R180" s="121"/>
+      <c r="S180" s="121"/>
+      <c r="T180" s="121"/>
+      <c r="U180" s="121"/>
+      <c r="V180" s="121"/>
+      <c r="W180" s="121"/>
+      <c r="X180" s="121"/>
+      <c r="Y180" s="121"/>
+      <c r="Z180" s="121"/>
+      <c r="AA180" s="121"/>
+      <c r="AB180" s="121"/>
+      <c r="AC180" s="121"/>
+      <c r="AD180" s="121"/>
+      <c r="AE180" s="121"/>
+      <c r="AF180" s="121"/>
+      <c r="AG180" s="121"/>
+      <c r="AH180" s="121"/>
     </row>
     <row r="181" spans="1:34">
-      <c r="A181" s="121"/>
-      <c r="B181" s="122"/>
-      <c r="C181" s="122"/>
-      <c r="D181" s="122"/>
-      <c r="E181" s="122"/>
-      <c r="F181" s="122"/>
-      <c r="G181" s="122"/>
-      <c r="H181" s="122"/>
-      <c r="I181" s="122"/>
-      <c r="J181" s="126"/>
-      <c r="K181" s="122"/>
-      <c r="L181" s="122"/>
-      <c r="M181" s="128"/>
-      <c r="N181" s="122"/>
-      <c r="O181" s="122"/>
-      <c r="P181" s="122"/>
-      <c r="Q181" s="122"/>
-      <c r="R181" s="122"/>
-      <c r="S181" s="122"/>
-      <c r="T181" s="122"/>
-      <c r="U181" s="122"/>
-      <c r="V181" s="122"/>
-      <c r="W181" s="122"/>
-      <c r="X181" s="122"/>
-      <c r="Y181" s="122"/>
-      <c r="Z181" s="122"/>
-      <c r="AA181" s="122"/>
-      <c r="AB181" s="122"/>
-      <c r="AC181" s="122"/>
-      <c r="AD181" s="122"/>
-      <c r="AE181" s="122"/>
-      <c r="AF181" s="122"/>
-      <c r="AG181" s="122"/>
-      <c r="AH181" s="122"/>
+      <c r="A181" s="120"/>
+      <c r="B181" s="121"/>
+      <c r="C181" s="121"/>
+      <c r="D181" s="121"/>
+      <c r="E181" s="121"/>
+      <c r="F181" s="121"/>
+      <c r="G181" s="121"/>
+      <c r="H181" s="121"/>
+      <c r="I181" s="121"/>
+      <c r="J181" s="125"/>
+      <c r="K181" s="121"/>
+      <c r="L181" s="121"/>
+      <c r="M181" s="127"/>
+      <c r="N181" s="121"/>
+      <c r="O181" s="121"/>
+      <c r="P181" s="121"/>
+      <c r="Q181" s="121"/>
+      <c r="R181" s="121"/>
+      <c r="S181" s="121"/>
+      <c r="T181" s="121"/>
+      <c r="U181" s="121"/>
+      <c r="V181" s="121"/>
+      <c r="W181" s="121"/>
+      <c r="X181" s="121"/>
+      <c r="Y181" s="121"/>
+      <c r="Z181" s="121"/>
+      <c r="AA181" s="121"/>
+      <c r="AB181" s="121"/>
+      <c r="AC181" s="121"/>
+      <c r="AD181" s="121"/>
+      <c r="AE181" s="121"/>
+      <c r="AF181" s="121"/>
+      <c r="AG181" s="121"/>
+      <c r="AH181" s="121"/>
     </row>
     <row r="182" spans="1:34">
-      <c r="A182" s="121"/>
-      <c r="B182" s="122"/>
-      <c r="C182" s="122"/>
-      <c r="D182" s="122"/>
-      <c r="E182" s="122"/>
-      <c r="F182" s="122"/>
-      <c r="G182" s="122"/>
-      <c r="H182" s="122"/>
-      <c r="I182" s="122"/>
-      <c r="J182" s="126"/>
-      <c r="K182" s="122"/>
-      <c r="L182" s="122"/>
-      <c r="M182" s="128"/>
-      <c r="N182" s="122"/>
-      <c r="O182" s="122"/>
-      <c r="P182" s="122"/>
-      <c r="Q182" s="122"/>
-      <c r="R182" s="122"/>
-      <c r="S182" s="122"/>
-      <c r="T182" s="122"/>
-      <c r="U182" s="122"/>
-      <c r="V182" s="122"/>
-      <c r="W182" s="122"/>
-      <c r="X182" s="122"/>
-      <c r="Y182" s="122"/>
-      <c r="Z182" s="122"/>
-      <c r="AA182" s="122"/>
-      <c r="AB182" s="122"/>
-      <c r="AC182" s="122"/>
-      <c r="AD182" s="122"/>
-      <c r="AE182" s="122"/>
-      <c r="AF182" s="122"/>
-      <c r="AG182" s="122"/>
-      <c r="AH182" s="122"/>
+      <c r="A182" s="120"/>
+      <c r="B182" s="121"/>
+      <c r="C182" s="121"/>
+      <c r="D182" s="121"/>
+      <c r="E182" s="121"/>
+      <c r="F182" s="121"/>
+      <c r="G182" s="121"/>
+      <c r="H182" s="121"/>
+      <c r="I182" s="121"/>
+      <c r="J182" s="125"/>
+      <c r="K182" s="121"/>
+      <c r="L182" s="121"/>
+      <c r="M182" s="127"/>
+      <c r="N182" s="121"/>
+      <c r="O182" s="121"/>
+      <c r="P182" s="121"/>
+      <c r="Q182" s="121"/>
+      <c r="R182" s="121"/>
+      <c r="S182" s="121"/>
+      <c r="T182" s="121"/>
+      <c r="U182" s="121"/>
+      <c r="V182" s="121"/>
+      <c r="W182" s="121"/>
+      <c r="X182" s="121"/>
+      <c r="Y182" s="121"/>
+      <c r="Z182" s="121"/>
+      <c r="AA182" s="121"/>
+      <c r="AB182" s="121"/>
+      <c r="AC182" s="121"/>
+      <c r="AD182" s="121"/>
+      <c r="AE182" s="121"/>
+      <c r="AF182" s="121"/>
+      <c r="AG182" s="121"/>
+      <c r="AH182" s="121"/>
     </row>
     <row r="183" spans="1:34">
-      <c r="A183" s="121"/>
-      <c r="B183" s="122"/>
-      <c r="C183" s="122"/>
-      <c r="D183" s="122"/>
-      <c r="E183" s="122"/>
-      <c r="F183" s="122"/>
-      <c r="G183" s="122"/>
-      <c r="H183" s="122"/>
-      <c r="I183" s="122"/>
-      <c r="J183" s="126"/>
-      <c r="K183" s="122"/>
-      <c r="L183" s="122"/>
-      <c r="M183" s="128"/>
-      <c r="N183" s="122"/>
-      <c r="O183" s="122"/>
-      <c r="P183" s="122"/>
-      <c r="Q183" s="122"/>
-      <c r="R183" s="122"/>
-      <c r="S183" s="122"/>
-      <c r="T183" s="122"/>
-      <c r="U183" s="122"/>
-      <c r="V183" s="122"/>
-      <c r="W183" s="122"/>
-      <c r="X183" s="122"/>
-      <c r="Y183" s="122"/>
-      <c r="Z183" s="122"/>
-      <c r="AA183" s="122"/>
-      <c r="AB183" s="122"/>
-      <c r="AC183" s="122"/>
-      <c r="AD183" s="122"/>
-      <c r="AE183" s="122"/>
-      <c r="AF183" s="122"/>
-      <c r="AG183" s="122"/>
-      <c r="AH183" s="122"/>
+      <c r="A183" s="120"/>
+      <c r="B183" s="121"/>
+      <c r="C183" s="121"/>
+      <c r="D183" s="121"/>
+      <c r="E183" s="121"/>
+      <c r="F183" s="121"/>
+      <c r="G183" s="121"/>
+      <c r="H183" s="121"/>
+      <c r="I183" s="121"/>
+      <c r="J183" s="125"/>
+      <c r="K183" s="121"/>
+      <c r="L183" s="121"/>
+      <c r="M183" s="127"/>
+      <c r="N183" s="121"/>
+      <c r="O183" s="121"/>
+      <c r="P183" s="121"/>
+      <c r="Q183" s="121"/>
+      <c r="R183" s="121"/>
+      <c r="S183" s="121"/>
+      <c r="T183" s="121"/>
+      <c r="U183" s="121"/>
+      <c r="V183" s="121"/>
+      <c r="W183" s="121"/>
+      <c r="X183" s="121"/>
+      <c r="Y183" s="121"/>
+      <c r="Z183" s="121"/>
+      <c r="AA183" s="121"/>
+      <c r="AB183" s="121"/>
+      <c r="AC183" s="121"/>
+      <c r="AD183" s="121"/>
+      <c r="AE183" s="121"/>
+      <c r="AF183" s="121"/>
+      <c r="AG183" s="121"/>
+      <c r="AH183" s="121"/>
     </row>
     <row r="184" spans="1:34">
-      <c r="A184" s="121"/>
-      <c r="B184" s="122"/>
-      <c r="C184" s="122"/>
-      <c r="D184" s="122"/>
-      <c r="E184" s="122"/>
-      <c r="F184" s="122"/>
-      <c r="G184" s="122"/>
-      <c r="H184" s="122"/>
-      <c r="I184" s="122"/>
-      <c r="J184" s="126"/>
-      <c r="K184" s="122"/>
-      <c r="L184" s="122"/>
-      <c r="M184" s="128"/>
-      <c r="N184" s="122"/>
-      <c r="O184" s="122"/>
-      <c r="P184" s="122"/>
-      <c r="Q184" s="122"/>
-      <c r="R184" s="122"/>
-      <c r="S184" s="122"/>
-      <c r="T184" s="122"/>
-      <c r="U184" s="122"/>
-      <c r="V184" s="122"/>
-      <c r="W184" s="122"/>
-      <c r="X184" s="122"/>
-      <c r="Y184" s="122"/>
-      <c r="Z184" s="122"/>
-      <c r="AA184" s="122"/>
-      <c r="AB184" s="122"/>
-      <c r="AC184" s="122"/>
-      <c r="AD184" s="122"/>
-      <c r="AE184" s="122"/>
-      <c r="AF184" s="122"/>
-      <c r="AG184" s="122"/>
-      <c r="AH184" s="122"/>
+      <c r="A184" s="120"/>
+      <c r="B184" s="121"/>
+      <c r="C184" s="121"/>
+      <c r="D184" s="121"/>
+      <c r="E184" s="121"/>
+      <c r="F184" s="121"/>
+      <c r="G184" s="121"/>
+      <c r="H184" s="121"/>
+      <c r="I184" s="121"/>
+      <c r="J184" s="125"/>
+      <c r="K184" s="121"/>
+      <c r="L184" s="121"/>
+      <c r="M184" s="127"/>
+      <c r="N184" s="121"/>
+      <c r="O184" s="121"/>
+      <c r="P184" s="121"/>
+      <c r="Q184" s="121"/>
+      <c r="R184" s="121"/>
+      <c r="S184" s="121"/>
+      <c r="T184" s="121"/>
+      <c r="U184" s="121"/>
+      <c r="V184" s="121"/>
+      <c r="W184" s="121"/>
+      <c r="X184" s="121"/>
+      <c r="Y184" s="121"/>
+      <c r="Z184" s="121"/>
+      <c r="AA184" s="121"/>
+      <c r="AB184" s="121"/>
+      <c r="AC184" s="121"/>
+      <c r="AD184" s="121"/>
+      <c r="AE184" s="121"/>
+      <c r="AF184" s="121"/>
+      <c r="AG184" s="121"/>
+      <c r="AH184" s="121"/>
     </row>
     <row r="185" spans="1:34">
-      <c r="A185" s="121"/>
-      <c r="B185" s="122"/>
-      <c r="C185" s="122"/>
-      <c r="D185" s="122"/>
-      <c r="E185" s="122"/>
-      <c r="F185" s="122"/>
-      <c r="G185" s="122"/>
-      <c r="H185" s="122"/>
-      <c r="I185" s="122"/>
-      <c r="J185" s="126"/>
-      <c r="K185" s="122"/>
-      <c r="L185" s="122"/>
-      <c r="M185" s="128"/>
-      <c r="N185" s="122"/>
-      <c r="O185" s="122"/>
-      <c r="P185" s="122"/>
-      <c r="Q185" s="122"/>
-      <c r="R185" s="122"/>
-      <c r="S185" s="122"/>
-      <c r="T185" s="122"/>
-      <c r="U185" s="122"/>
-      <c r="V185" s="122"/>
-      <c r="W185" s="122"/>
-      <c r="X185" s="122"/>
-      <c r="Y185" s="122"/>
-      <c r="Z185" s="122"/>
-      <c r="AA185" s="122"/>
-      <c r="AB185" s="122"/>
-      <c r="AC185" s="122"/>
-      <c r="AD185" s="122"/>
-      <c r="AE185" s="122"/>
-      <c r="AF185" s="122"/>
-      <c r="AG185" s="122"/>
-      <c r="AH185" s="122"/>
+      <c r="A185" s="120"/>
+      <c r="B185" s="121"/>
+      <c r="C185" s="121"/>
+      <c r="D185" s="121"/>
+      <c r="E185" s="121"/>
+      <c r="F185" s="121"/>
+      <c r="G185" s="121"/>
+      <c r="H185" s="121"/>
+      <c r="I185" s="121"/>
+      <c r="J185" s="125"/>
+      <c r="K185" s="121"/>
+      <c r="L185" s="121"/>
+      <c r="M185" s="127"/>
+      <c r="N185" s="121"/>
+      <c r="O185" s="121"/>
+      <c r="P185" s="121"/>
+      <c r="Q185" s="121"/>
+      <c r="R185" s="121"/>
+      <c r="S185" s="121"/>
+      <c r="T185" s="121"/>
+      <c r="U185" s="121"/>
+      <c r="V185" s="121"/>
+      <c r="W185" s="121"/>
+      <c r="X185" s="121"/>
+      <c r="Y185" s="121"/>
+      <c r="Z185" s="121"/>
+      <c r="AA185" s="121"/>
+      <c r="AB185" s="121"/>
+      <c r="AC185" s="121"/>
+      <c r="AD185" s="121"/>
+      <c r="AE185" s="121"/>
+      <c r="AF185" s="121"/>
+      <c r="AG185" s="121"/>
+      <c r="AH185" s="121"/>
     </row>
     <row r="186" spans="1:34">
-      <c r="A186" s="121"/>
-      <c r="B186" s="122"/>
-      <c r="C186" s="122"/>
-      <c r="D186" s="122"/>
-      <c r="E186" s="122"/>
-      <c r="F186" s="122"/>
-      <c r="G186" s="122"/>
-      <c r="H186" s="122"/>
-      <c r="I186" s="122"/>
-      <c r="J186" s="126"/>
-      <c r="K186" s="122"/>
-      <c r="L186" s="122"/>
-      <c r="M186" s="128"/>
-      <c r="N186" s="122"/>
-      <c r="O186" s="122"/>
-      <c r="P186" s="122"/>
-      <c r="Q186" s="122"/>
-      <c r="R186" s="122"/>
-      <c r="S186" s="122"/>
-      <c r="T186" s="122"/>
-      <c r="U186" s="122"/>
-      <c r="V186" s="122"/>
-      <c r="W186" s="122"/>
-      <c r="X186" s="122"/>
-      <c r="Y186" s="122"/>
-      <c r="Z186" s="122"/>
-      <c r="AA186" s="122"/>
-      <c r="AB186" s="122"/>
-      <c r="AC186" s="122"/>
-      <c r="AD186" s="122"/>
-      <c r="AE186" s="122"/>
-      <c r="AF186" s="122"/>
-      <c r="AG186" s="122"/>
-      <c r="AH186" s="122"/>
+      <c r="A186" s="120"/>
+      <c r="B186" s="121"/>
+      <c r="C186" s="121"/>
+      <c r="D186" s="121"/>
+      <c r="E186" s="121"/>
+      <c r="F186" s="121"/>
+      <c r="G186" s="121"/>
+      <c r="H186" s="121"/>
+      <c r="I186" s="121"/>
+      <c r="J186" s="125"/>
+      <c r="K186" s="121"/>
+      <c r="L186" s="121"/>
+      <c r="M186" s="127"/>
+      <c r="N186" s="121"/>
+      <c r="O186" s="121"/>
+      <c r="P186" s="121"/>
+      <c r="Q186" s="121"/>
+      <c r="R186" s="121"/>
+      <c r="S186" s="121"/>
+      <c r="T186" s="121"/>
+      <c r="U186" s="121"/>
+      <c r="V186" s="121"/>
+      <c r="W186" s="121"/>
+      <c r="X186" s="121"/>
+      <c r="Y186" s="121"/>
+      <c r="Z186" s="121"/>
+      <c r="AA186" s="121"/>
+      <c r="AB186" s="121"/>
+      <c r="AC186" s="121"/>
+      <c r="AD186" s="121"/>
+      <c r="AE186" s="121"/>
+      <c r="AF186" s="121"/>
+      <c r="AG186" s="121"/>
+      <c r="AH186" s="121"/>
     </row>
     <row r="187" spans="1:34">
-      <c r="A187" s="121"/>
-      <c r="B187" s="122"/>
-      <c r="C187" s="122"/>
-      <c r="D187" s="122"/>
-      <c r="E187" s="122"/>
-      <c r="F187" s="122"/>
-      <c r="G187" s="122"/>
-      <c r="H187" s="122"/>
-      <c r="I187" s="122"/>
-      <c r="J187" s="126"/>
-      <c r="K187" s="122"/>
-      <c r="L187" s="122"/>
-      <c r="M187" s="128"/>
-      <c r="N187" s="122"/>
-      <c r="O187" s="122"/>
-      <c r="P187" s="122"/>
-      <c r="Q187" s="122"/>
-      <c r="R187" s="122"/>
-      <c r="S187" s="122"/>
-      <c r="T187" s="122"/>
-      <c r="U187" s="122"/>
-      <c r="V187" s="122"/>
-      <c r="W187" s="122"/>
-      <c r="X187" s="122"/>
-      <c r="Y187" s="122"/>
-      <c r="Z187" s="122"/>
-      <c r="AA187" s="122"/>
-      <c r="AB187" s="122"/>
-      <c r="AC187" s="122"/>
-      <c r="AD187" s="122"/>
-      <c r="AE187" s="122"/>
-      <c r="AF187" s="122"/>
-      <c r="AG187" s="122"/>
-      <c r="AH187" s="122"/>
+      <c r="A187" s="120"/>
+      <c r="B187" s="121"/>
+      <c r="C187" s="121"/>
+      <c r="D187" s="121"/>
+      <c r="E187" s="121"/>
+      <c r="F187" s="121"/>
+      <c r="G187" s="121"/>
+      <c r="H187" s="121"/>
+      <c r="I187" s="121"/>
+      <c r="J187" s="125"/>
+      <c r="K187" s="121"/>
+      <c r="L187" s="121"/>
+      <c r="M187" s="127"/>
+      <c r="N187" s="121"/>
+      <c r="O187" s="121"/>
+      <c r="P187" s="121"/>
+      <c r="Q187" s="121"/>
+      <c r="R187" s="121"/>
+      <c r="S187" s="121"/>
+      <c r="T187" s="121"/>
+      <c r="U187" s="121"/>
+      <c r="V187" s="121"/>
+      <c r="W187" s="121"/>
+      <c r="X187" s="121"/>
+      <c r="Y187" s="121"/>
+      <c r="Z187" s="121"/>
+      <c r="AA187" s="121"/>
+      <c r="AB187" s="121"/>
+      <c r="AC187" s="121"/>
+      <c r="AD187" s="121"/>
+      <c r="AE187" s="121"/>
+      <c r="AF187" s="121"/>
+      <c r="AG187" s="121"/>
+      <c r="AH187" s="121"/>
     </row>
     <row r="188" spans="1:34">
-      <c r="A188" s="121"/>
-      <c r="B188" s="122"/>
-      <c r="C188" s="122"/>
-      <c r="D188" s="122"/>
-      <c r="E188" s="122"/>
-      <c r="F188" s="122"/>
-      <c r="G188" s="122"/>
-      <c r="H188" s="122"/>
-      <c r="I188" s="122"/>
-      <c r="J188" s="126"/>
-      <c r="K188" s="122"/>
-      <c r="L188" s="122"/>
-      <c r="M188" s="128"/>
-      <c r="N188" s="122"/>
-      <c r="O188" s="122"/>
-      <c r="P188" s="122"/>
-      <c r="Q188" s="122"/>
-      <c r="R188" s="122"/>
-      <c r="S188" s="122"/>
-      <c r="T188" s="122"/>
-      <c r="U188" s="122"/>
-      <c r="V188" s="122"/>
-      <c r="W188" s="122"/>
-      <c r="X188" s="122"/>
-      <c r="Y188" s="122"/>
-      <c r="Z188" s="122"/>
-      <c r="AA188" s="122"/>
-      <c r="AB188" s="122"/>
-      <c r="AC188" s="122"/>
-      <c r="AD188" s="122"/>
-      <c r="AE188" s="122"/>
-      <c r="AF188" s="122"/>
-      <c r="AG188" s="122"/>
-      <c r="AH188" s="122"/>
+      <c r="A188" s="120"/>
+      <c r="B188" s="121"/>
+      <c r="C188" s="121"/>
+      <c r="D188" s="121"/>
+      <c r="E188" s="121"/>
+      <c r="F188" s="121"/>
+      <c r="G188" s="121"/>
+      <c r="H188" s="121"/>
+      <c r="I188" s="121"/>
+      <c r="J188" s="125"/>
+      <c r="K188" s="121"/>
+      <c r="L188" s="121"/>
+      <c r="M188" s="127"/>
+      <c r="N188" s="121"/>
+      <c r="O188" s="121"/>
+      <c r="P188" s="121"/>
+      <c r="Q188" s="121"/>
+      <c r="R188" s="121"/>
+      <c r="S188" s="121"/>
+      <c r="T188" s="121"/>
+      <c r="U188" s="121"/>
+      <c r="V188" s="121"/>
+      <c r="W188" s="121"/>
+      <c r="X188" s="121"/>
+      <c r="Y188" s="121"/>
+      <c r="Z188" s="121"/>
+      <c r="AA188" s="121"/>
+      <c r="AB188" s="121"/>
+      <c r="AC188" s="121"/>
+      <c r="AD188" s="121"/>
+      <c r="AE188" s="121"/>
+      <c r="AF188" s="121"/>
+      <c r="AG188" s="121"/>
+      <c r="AH188" s="121"/>
     </row>
     <row r="189" spans="1:34">
-      <c r="A189" s="121"/>
-      <c r="B189" s="122"/>
-      <c r="C189" s="122"/>
-      <c r="D189" s="122"/>
-      <c r="E189" s="122"/>
-      <c r="F189" s="122"/>
-      <c r="G189" s="122"/>
-      <c r="H189" s="122"/>
-      <c r="I189" s="122"/>
-      <c r="J189" s="126"/>
-      <c r="K189" s="122"/>
-      <c r="L189" s="122"/>
-      <c r="M189" s="128"/>
-      <c r="N189" s="122"/>
-      <c r="O189" s="122"/>
-      <c r="P189" s="122"/>
-      <c r="Q189" s="122"/>
-      <c r="R189" s="122"/>
-      <c r="S189" s="122"/>
-      <c r="T189" s="122"/>
-      <c r="U189" s="122"/>
-      <c r="V189" s="122"/>
-      <c r="W189" s="122"/>
-      <c r="X189" s="122"/>
-      <c r="Y189" s="122"/>
-      <c r="Z189" s="122"/>
-      <c r="AA189" s="122"/>
-      <c r="AB189" s="122"/>
-      <c r="AC189" s="122"/>
-      <c r="AD189" s="122"/>
-      <c r="AE189" s="122"/>
-      <c r="AF189" s="122"/>
-      <c r="AG189" s="122"/>
-      <c r="AH189" s="122"/>
+      <c r="A189" s="120"/>
+      <c r="B189" s="121"/>
+      <c r="C189" s="121"/>
+      <c r="D189" s="121"/>
+      <c r="E189" s="121"/>
+      <c r="F189" s="121"/>
+      <c r="G189" s="121"/>
+      <c r="H189" s="121"/>
+      <c r="I189" s="121"/>
+      <c r="J189" s="125"/>
+      <c r="K189" s="121"/>
+      <c r="L189" s="121"/>
+      <c r="M189" s="127"/>
+      <c r="N189" s="121"/>
+      <c r="O189" s="121"/>
+      <c r="P189" s="121"/>
+      <c r="Q189" s="121"/>
+      <c r="R189" s="121"/>
+      <c r="S189" s="121"/>
+      <c r="T189" s="121"/>
+      <c r="U189" s="121"/>
+      <c r="V189" s="121"/>
+      <c r="W189" s="121"/>
+      <c r="X189" s="121"/>
+      <c r="Y189" s="121"/>
+      <c r="Z189" s="121"/>
+      <c r="AA189" s="121"/>
+      <c r="AB189" s="121"/>
+      <c r="AC189" s="121"/>
+      <c r="AD189" s="121"/>
+      <c r="AE189" s="121"/>
+      <c r="AF189" s="121"/>
+      <c r="AG189" s="121"/>
+      <c r="AH189" s="121"/>
     </row>
     <row r="190" spans="1:34">
-      <c r="A190" s="121"/>
-      <c r="B190" s="122"/>
-      <c r="C190" s="122"/>
-      <c r="D190" s="122"/>
-      <c r="E190" s="122"/>
-      <c r="F190" s="122"/>
-      <c r="G190" s="122"/>
-      <c r="H190" s="122"/>
-      <c r="I190" s="122"/>
-      <c r="J190" s="126"/>
-      <c r="K190" s="122"/>
-      <c r="L190" s="122"/>
-      <c r="M190" s="128"/>
-      <c r="N190" s="122"/>
-      <c r="O190" s="122"/>
-      <c r="P190" s="122"/>
-      <c r="Q190" s="122"/>
-      <c r="R190" s="122"/>
-      <c r="S190" s="122"/>
-      <c r="T190" s="122"/>
-      <c r="U190" s="122"/>
-      <c r="V190" s="122"/>
-      <c r="W190" s="122"/>
-      <c r="X190" s="122"/>
-      <c r="Y190" s="122"/>
-      <c r="Z190" s="122"/>
-      <c r="AA190" s="122"/>
-      <c r="AB190" s="122"/>
-      <c r="AC190" s="122"/>
-      <c r="AD190" s="122"/>
-      <c r="AE190" s="122"/>
-      <c r="AF190" s="122"/>
-      <c r="AG190" s="122"/>
-      <c r="AH190" s="122"/>
+      <c r="A190" s="120"/>
+      <c r="B190" s="121"/>
+      <c r="C190" s="121"/>
+      <c r="D190" s="121"/>
+      <c r="E190" s="121"/>
+      <c r="F190" s="121"/>
+      <c r="G190" s="121"/>
+      <c r="H190" s="121"/>
+      <c r="I190" s="121"/>
+      <c r="J190" s="125"/>
+      <c r="K190" s="121"/>
+      <c r="L190" s="121"/>
+      <c r="M190" s="127"/>
+      <c r="N190" s="121"/>
+      <c r="O190" s="121"/>
+      <c r="P190" s="121"/>
+      <c r="Q190" s="121"/>
+      <c r="R190" s="121"/>
+      <c r="S190" s="121"/>
+      <c r="T190" s="121"/>
+      <c r="U190" s="121"/>
+      <c r="V190" s="121"/>
+      <c r="W190" s="121"/>
+      <c r="X190" s="121"/>
+      <c r="Y190" s="121"/>
+      <c r="Z190" s="121"/>
+      <c r="AA190" s="121"/>
+      <c r="AB190" s="121"/>
+      <c r="AC190" s="121"/>
+      <c r="AD190" s="121"/>
+      <c r="AE190" s="121"/>
+      <c r="AF190" s="121"/>
+      <c r="AG190" s="121"/>
+      <c r="AH190" s="121"/>
     </row>
     <row r="191" spans="1:34">
-      <c r="A191" s="121"/>
-      <c r="B191" s="122"/>
-      <c r="C191" s="122"/>
-      <c r="D191" s="122"/>
-      <c r="E191" s="122"/>
-      <c r="F191" s="122"/>
-      <c r="G191" s="122"/>
-      <c r="H191" s="122"/>
-      <c r="I191" s="122"/>
-      <c r="J191" s="126"/>
-      <c r="K191" s="122"/>
-      <c r="L191" s="122"/>
-      <c r="M191" s="128"/>
-      <c r="N191" s="122"/>
-      <c r="O191" s="122"/>
-      <c r="P191" s="122"/>
-      <c r="Q191" s="122"/>
-      <c r="R191" s="122"/>
-      <c r="S191" s="122"/>
-      <c r="T191" s="122"/>
-      <c r="U191" s="122"/>
-      <c r="V191" s="122"/>
-      <c r="W191" s="122"/>
-      <c r="X191" s="122"/>
-      <c r="Y191" s="122"/>
-      <c r="Z191" s="122"/>
-      <c r="AA191" s="122"/>
-      <c r="AB191" s="122"/>
-      <c r="AC191" s="122"/>
-      <c r="AD191" s="122"/>
-      <c r="AE191" s="122"/>
-      <c r="AF191" s="122"/>
-      <c r="AG191" s="122"/>
-      <c r="AH191" s="122"/>
+      <c r="A191" s="120"/>
+      <c r="B191" s="121"/>
+      <c r="C191" s="121"/>
+      <c r="D191" s="121"/>
+      <c r="E191" s="121"/>
+      <c r="F191" s="121"/>
+      <c r="G191" s="121"/>
+      <c r="H191" s="121"/>
+      <c r="I191" s="121"/>
+      <c r="J191" s="125"/>
+      <c r="K191" s="121"/>
+      <c r="L191" s="121"/>
+      <c r="M191" s="127"/>
+      <c r="N191" s="121"/>
+      <c r="O191" s="121"/>
+      <c r="P191" s="121"/>
+      <c r="Q191" s="121"/>
+      <c r="R191" s="121"/>
+      <c r="S191" s="121"/>
+      <c r="T191" s="121"/>
+      <c r="U191" s="121"/>
+      <c r="V191" s="121"/>
+      <c r="W191" s="121"/>
+      <c r="X191" s="121"/>
+      <c r="Y191" s="121"/>
+      <c r="Z191" s="121"/>
+      <c r="AA191" s="121"/>
+      <c r="AB191" s="121"/>
+      <c r="AC191" s="121"/>
+      <c r="AD191" s="121"/>
+      <c r="AE191" s="121"/>
+      <c r="AF191" s="121"/>
+      <c r="AG191" s="121"/>
+      <c r="AH191" s="121"/>
     </row>
     <row r="192" spans="1:34">
-      <c r="A192" s="121"/>
-      <c r="B192" s="122"/>
-      <c r="C192" s="122"/>
-      <c r="D192" s="122"/>
-      <c r="E192" s="122"/>
-      <c r="F192" s="122"/>
-      <c r="G192" s="122"/>
-      <c r="H192" s="122"/>
-      <c r="I192" s="122"/>
-      <c r="J192" s="126"/>
-      <c r="K192" s="122"/>
-      <c r="L192" s="122"/>
-      <c r="M192" s="128"/>
-      <c r="N192" s="122"/>
-      <c r="O192" s="122"/>
-      <c r="P192" s="122"/>
-      <c r="Q192" s="122"/>
-      <c r="R192" s="122"/>
-      <c r="S192" s="122"/>
-      <c r="T192" s="122"/>
-      <c r="U192" s="122"/>
-      <c r="V192" s="122"/>
-      <c r="W192" s="122"/>
-      <c r="X192" s="122"/>
-      <c r="Y192" s="122"/>
-      <c r="Z192" s="122"/>
-      <c r="AA192" s="122"/>
-      <c r="AB192" s="122"/>
-      <c r="AC192" s="122"/>
-      <c r="AD192" s="122"/>
-      <c r="AE192" s="122"/>
-      <c r="AF192" s="122"/>
-      <c r="AG192" s="122"/>
-      <c r="AH192" s="122"/>
+      <c r="A192" s="120"/>
+      <c r="B192" s="121"/>
+      <c r="C192" s="121"/>
+      <c r="D192" s="121"/>
+      <c r="E192" s="121"/>
+      <c r="F192" s="121"/>
+      <c r="G192" s="121"/>
+      <c r="H192" s="121"/>
+      <c r="I192" s="121"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="121"/>
+      <c r="L192" s="121"/>
+      <c r="M192" s="127"/>
+      <c r="N192" s="121"/>
+      <c r="O192" s="121"/>
+      <c r="P192" s="121"/>
+      <c r="Q192" s="121"/>
+      <c r="R192" s="121"/>
+      <c r="S192" s="121"/>
+      <c r="T192" s="121"/>
+      <c r="U192" s="121"/>
+      <c r="V192" s="121"/>
+      <c r="W192" s="121"/>
+      <c r="X192" s="121"/>
+      <c r="Y192" s="121"/>
+      <c r="Z192" s="121"/>
+      <c r="AA192" s="121"/>
+      <c r="AB192" s="121"/>
+      <c r="AC192" s="121"/>
+      <c r="AD192" s="121"/>
+      <c r="AE192" s="121"/>
+      <c r="AF192" s="121"/>
+      <c r="AG192" s="121"/>
+      <c r="AH192" s="121"/>
     </row>
     <row r="193" spans="1:34">
-      <c r="A193" s="121"/>
-      <c r="B193" s="122"/>
-      <c r="C193" s="122"/>
-      <c r="D193" s="122"/>
-      <c r="E193" s="122"/>
-      <c r="F193" s="122"/>
-      <c r="G193" s="122"/>
-      <c r="H193" s="122"/>
-      <c r="I193" s="122"/>
-      <c r="J193" s="126"/>
-      <c r="K193" s="122"/>
-      <c r="L193" s="122"/>
-      <c r="M193" s="128"/>
-      <c r="N193" s="122"/>
-      <c r="O193" s="122"/>
-      <c r="P193" s="122"/>
-      <c r="Q193" s="122"/>
-      <c r="R193" s="122"/>
-      <c r="S193" s="122"/>
-      <c r="T193" s="122"/>
-      <c r="U193" s="122"/>
-      <c r="V193" s="122"/>
-      <c r="W193" s="122"/>
-      <c r="X193" s="122"/>
-      <c r="Y193" s="122"/>
-      <c r="Z193" s="122"/>
-      <c r="AA193" s="122"/>
-      <c r="AB193" s="122"/>
-      <c r="AC193" s="122"/>
-      <c r="AD193" s="122"/>
-      <c r="AE193" s="122"/>
-      <c r="AF193" s="122"/>
-      <c r="AG193" s="122"/>
-      <c r="AH193" s="122"/>
+      <c r="A193" s="120"/>
+      <c r="B193" s="121"/>
+      <c r="C193" s="121"/>
+      <c r="D193" s="121"/>
+      <c r="E193" s="121"/>
+      <c r="F193" s="121"/>
+      <c r="G193" s="121"/>
+      <c r="H193" s="121"/>
+      <c r="I193" s="121"/>
+      <c r="J193" s="125"/>
+      <c r="K193" s="121"/>
+      <c r="L193" s="121"/>
+      <c r="M193" s="127"/>
+      <c r="N193" s="121"/>
+      <c r="O193" s="121"/>
+      <c r="P193" s="121"/>
+      <c r="Q193" s="121"/>
+      <c r="R193" s="121"/>
+      <c r="S193" s="121"/>
+      <c r="T193" s="121"/>
+      <c r="U193" s="121"/>
+      <c r="V193" s="121"/>
+      <c r="W193" s="121"/>
+      <c r="X193" s="121"/>
+      <c r="Y193" s="121"/>
+      <c r="Z193" s="121"/>
+      <c r="AA193" s="121"/>
+      <c r="AB193" s="121"/>
+      <c r="AC193" s="121"/>
+      <c r="AD193" s="121"/>
+      <c r="AE193" s="121"/>
+      <c r="AF193" s="121"/>
+      <c r="AG193" s="121"/>
+      <c r="AH193" s="121"/>
     </row>
     <row r="194" spans="1:34">
-      <c r="A194" s="121"/>
-      <c r="B194" s="122"/>
-      <c r="C194" s="122"/>
-      <c r="D194" s="122"/>
-      <c r="E194" s="122"/>
-      <c r="F194" s="122"/>
-      <c r="G194" s="122"/>
-      <c r="H194" s="122"/>
-      <c r="I194" s="122"/>
-      <c r="J194" s="126"/>
-      <c r="K194" s="122"/>
-      <c r="L194" s="122"/>
-      <c r="M194" s="128"/>
-      <c r="N194" s="122"/>
-      <c r="O194" s="122"/>
-      <c r="P194" s="122"/>
-      <c r="Q194" s="122"/>
-      <c r="R194" s="122"/>
-      <c r="S194" s="122"/>
-      <c r="T194" s="122"/>
-      <c r="U194" s="122"/>
-      <c r="V194" s="122"/>
-      <c r="W194" s="122"/>
-      <c r="X194" s="122"/>
-      <c r="Y194" s="122"/>
-      <c r="Z194" s="122"/>
-      <c r="AA194" s="122"/>
-      <c r="AB194" s="122"/>
-      <c r="AC194" s="122"/>
-      <c r="AD194" s="122"/>
-      <c r="AE194" s="122"/>
-      <c r="AF194" s="122"/>
-      <c r="AG194" s="122"/>
-      <c r="AH194" s="122"/>
+      <c r="A194" s="120"/>
+      <c r="B194" s="121"/>
+      <c r="C194" s="121"/>
+      <c r="D194" s="121"/>
+      <c r="E194" s="121"/>
+      <c r="F194" s="121"/>
+      <c r="G194" s="121"/>
+      <c r="H194" s="121"/>
+      <c r="I194" s="121"/>
+      <c r="J194" s="125"/>
+      <c r="K194" s="121"/>
+      <c r="L194" s="121"/>
+      <c r="M194" s="127"/>
+      <c r="N194" s="121"/>
+      <c r="O194" s="121"/>
+      <c r="P194" s="121"/>
+      <c r="Q194" s="121"/>
+      <c r="R194" s="121"/>
+      <c r="S194" s="121"/>
+      <c r="T194" s="121"/>
+      <c r="U194" s="121"/>
+      <c r="V194" s="121"/>
+      <c r="W194" s="121"/>
+      <c r="X194" s="121"/>
+      <c r="Y194" s="121"/>
+      <c r="Z194" s="121"/>
+      <c r="AA194" s="121"/>
+      <c r="AB194" s="121"/>
+      <c r="AC194" s="121"/>
+      <c r="AD194" s="121"/>
+      <c r="AE194" s="121"/>
+      <c r="AF194" s="121"/>
+      <c r="AG194" s="121"/>
+      <c r="AH194" s="121"/>
     </row>
     <row r="195" spans="1:34">
-      <c r="A195" s="121"/>
-      <c r="B195" s="122"/>
-      <c r="C195" s="122"/>
-      <c r="D195" s="122"/>
-      <c r="E195" s="122"/>
-      <c r="F195" s="122"/>
-      <c r="G195" s="122"/>
-      <c r="H195" s="122"/>
-      <c r="I195" s="122"/>
-      <c r="J195" s="126"/>
-      <c r="K195" s="122"/>
-      <c r="L195" s="122"/>
-      <c r="M195" s="128"/>
-      <c r="N195" s="122"/>
-      <c r="O195" s="122"/>
-      <c r="P195" s="122"/>
-      <c r="Q195" s="122"/>
-      <c r="R195" s="122"/>
-      <c r="S195" s="122"/>
-      <c r="T195" s="122"/>
-      <c r="U195" s="122"/>
-      <c r="V195" s="122"/>
-      <c r="W195" s="122"/>
-      <c r="X195" s="122"/>
-      <c r="Y195" s="122"/>
-      <c r="Z195" s="122"/>
-      <c r="AA195" s="122"/>
-      <c r="AB195" s="122"/>
-      <c r="AC195" s="122"/>
-      <c r="AD195" s="122"/>
-      <c r="AE195" s="122"/>
-      <c r="AF195" s="122"/>
-      <c r="AG195" s="122"/>
-      <c r="AH195" s="122"/>
+      <c r="A195" s="120"/>
+      <c r="B195" s="121"/>
+      <c r="C195" s="121"/>
+      <c r="D195" s="121"/>
+      <c r="E195" s="121"/>
+      <c r="F195" s="121"/>
+      <c r="G195" s="121"/>
+      <c r="H195" s="121"/>
+      <c r="I195" s="121"/>
+      <c r="J195" s="125"/>
+      <c r="K195" s="121"/>
+      <c r="L195" s="121"/>
+      <c r="M195" s="127"/>
+      <c r="N195" s="121"/>
+      <c r="O195" s="121"/>
+      <c r="P195" s="121"/>
+      <c r="Q195" s="121"/>
+      <c r="R195" s="121"/>
+      <c r="S195" s="121"/>
+      <c r="T195" s="121"/>
+      <c r="U195" s="121"/>
+      <c r="V195" s="121"/>
+      <c r="W195" s="121"/>
+      <c r="X195" s="121"/>
+      <c r="Y195" s="121"/>
+      <c r="Z195" s="121"/>
+      <c r="AA195" s="121"/>
+      <c r="AB195" s="121"/>
+      <c r="AC195" s="121"/>
+      <c r="AD195" s="121"/>
+      <c r="AE195" s="121"/>
+      <c r="AF195" s="121"/>
+      <c r="AG195" s="121"/>
+      <c r="AH195" s="121"/>
     </row>
     <row r="196" spans="1:34">
-      <c r="A196" s="121"/>
-      <c r="B196" s="122"/>
-      <c r="C196" s="122"/>
-      <c r="D196" s="122"/>
-      <c r="E196" s="122"/>
-      <c r="F196" s="122"/>
-      <c r="G196" s="122"/>
-      <c r="H196" s="122"/>
-      <c r="I196" s="122"/>
-      <c r="J196" s="126"/>
-      <c r="K196" s="122"/>
-      <c r="L196" s="122"/>
-      <c r="M196" s="128"/>
-      <c r="N196" s="122"/>
-      <c r="O196" s="122"/>
-      <c r="P196" s="122"/>
-      <c r="Q196" s="122"/>
-      <c r="R196" s="122"/>
-      <c r="S196" s="122"/>
-      <c r="T196" s="122"/>
-      <c r="U196" s="122"/>
-      <c r="V196" s="122"/>
-      <c r="W196" s="122"/>
-      <c r="X196" s="122"/>
-      <c r="Y196" s="122"/>
-      <c r="Z196" s="122"/>
-      <c r="AA196" s="122"/>
-      <c r="AB196" s="122"/>
-      <c r="AC196" s="122"/>
-      <c r="AD196" s="122"/>
-      <c r="AE196" s="122"/>
-      <c r="AF196" s="122"/>
-      <c r="AG196" s="122"/>
-      <c r="AH196" s="122"/>
+      <c r="A196" s="120"/>
+      <c r="B196" s="121"/>
+      <c r="C196" s="121"/>
+      <c r="D196" s="121"/>
+      <c r="E196" s="121"/>
+      <c r="F196" s="121"/>
+      <c r="G196" s="121"/>
+      <c r="H196" s="121"/>
+      <c r="I196" s="121"/>
+      <c r="J196" s="125"/>
+      <c r="K196" s="121"/>
+      <c r="L196" s="121"/>
+      <c r="M196" s="127"/>
+      <c r="N196" s="121"/>
+      <c r="O196" s="121"/>
+      <c r="P196" s="121"/>
+      <c r="Q196" s="121"/>
+      <c r="R196" s="121"/>
+      <c r="S196" s="121"/>
+      <c r="T196" s="121"/>
+      <c r="U196" s="121"/>
+      <c r="V196" s="121"/>
+      <c r="W196" s="121"/>
+      <c r="X196" s="121"/>
+      <c r="Y196" s="121"/>
+      <c r="Z196" s="121"/>
+      <c r="AA196" s="121"/>
+      <c r="AB196" s="121"/>
+      <c r="AC196" s="121"/>
+      <c r="AD196" s="121"/>
+      <c r="AE196" s="121"/>
+      <c r="AF196" s="121"/>
+      <c r="AG196" s="121"/>
+      <c r="AH196" s="121"/>
     </row>
     <row r="197" spans="1:34">
-      <c r="A197" s="121"/>
-      <c r="B197" s="122"/>
-      <c r="C197" s="122"/>
-      <c r="D197" s="122"/>
-      <c r="E197" s="122"/>
-      <c r="F197" s="122"/>
-      <c r="G197" s="122"/>
-      <c r="H197" s="122"/>
-      <c r="I197" s="122"/>
-      <c r="J197" s="126"/>
-      <c r="K197" s="122"/>
-      <c r="L197" s="122"/>
-      <c r="M197" s="128"/>
-      <c r="N197" s="122"/>
-      <c r="O197" s="122"/>
-      <c r="P197" s="122"/>
-      <c r="Q197" s="122"/>
-      <c r="R197" s="122"/>
-      <c r="S197" s="122"/>
-      <c r="T197" s="122"/>
-      <c r="U197" s="122"/>
-      <c r="V197" s="122"/>
-      <c r="W197" s="122"/>
-      <c r="X197" s="122"/>
-      <c r="Y197" s="122"/>
-      <c r="Z197" s="122"/>
-      <c r="AA197" s="122"/>
-      <c r="AB197" s="122"/>
-      <c r="AC197" s="122"/>
-      <c r="AD197" s="122"/>
-      <c r="AE197" s="122"/>
-      <c r="AF197" s="122"/>
-      <c r="AG197" s="122"/>
-      <c r="AH197" s="122"/>
+      <c r="A197" s="120"/>
+      <c r="B197" s="121"/>
+      <c r="C197" s="121"/>
+      <c r="D197" s="121"/>
+      <c r="E197" s="121"/>
+      <c r="F197" s="121"/>
+      <c r="G197" s="121"/>
+      <c r="H197" s="121"/>
+      <c r="I197" s="121"/>
+      <c r="J197" s="125"/>
+      <c r="K197" s="121"/>
+      <c r="L197" s="121"/>
+      <c r="M197" s="127"/>
+      <c r="N197" s="121"/>
+      <c r="O197" s="121"/>
+      <c r="P197" s="121"/>
+      <c r="Q197" s="121"/>
+      <c r="R197" s="121"/>
+      <c r="S197" s="121"/>
+      <c r="T197" s="121"/>
+      <c r="U197" s="121"/>
+      <c r="V197" s="121"/>
+      <c r="W197" s="121"/>
+      <c r="X197" s="121"/>
+      <c r="Y197" s="121"/>
+      <c r="Z197" s="121"/>
+      <c r="AA197" s="121"/>
+      <c r="AB197" s="121"/>
+      <c r="AC197" s="121"/>
+      <c r="AD197" s="121"/>
+      <c r="AE197" s="121"/>
+      <c r="AF197" s="121"/>
+      <c r="AG197" s="121"/>
+      <c r="AH197" s="121"/>
     </row>
     <row r="198" spans="1:34">
-      <c r="A198" s="121"/>
-      <c r="B198" s="122"/>
-      <c r="C198" s="122"/>
-      <c r="D198" s="122"/>
-      <c r="E198" s="122"/>
-      <c r="F198" s="122"/>
-      <c r="G198" s="122"/>
-      <c r="H198" s="122"/>
-      <c r="I198" s="122"/>
-      <c r="J198" s="126"/>
-      <c r="K198" s="122"/>
-      <c r="L198" s="122"/>
-      <c r="M198" s="128"/>
-      <c r="N198" s="122"/>
-      <c r="O198" s="122"/>
-      <c r="P198" s="122"/>
-      <c r="Q198" s="122"/>
-      <c r="R198" s="122"/>
-      <c r="S198" s="122"/>
-      <c r="T198" s="122"/>
-      <c r="U198" s="122"/>
-      <c r="V198" s="122"/>
-      <c r="W198" s="122"/>
-      <c r="X198" s="122"/>
-      <c r="Y198" s="122"/>
-      <c r="Z198" s="122"/>
-      <c r="AA198" s="122"/>
-      <c r="AB198" s="122"/>
-      <c r="AC198" s="122"/>
-      <c r="AD198" s="122"/>
-      <c r="AE198" s="122"/>
-      <c r="AF198" s="122"/>
-      <c r="AG198" s="122"/>
-      <c r="AH198" s="122"/>
+      <c r="A198" s="120"/>
+      <c r="B198" s="121"/>
+      <c r="C198" s="121"/>
+      <c r="D198" s="121"/>
+      <c r="E198" s="121"/>
+      <c r="F198" s="121"/>
+      <c r="G198" s="121"/>
+      <c r="H198" s="121"/>
+      <c r="I198" s="121"/>
+      <c r="J198" s="125"/>
+      <c r="K198" s="121"/>
+      <c r="L198" s="121"/>
+      <c r="M198" s="127"/>
+      <c r="N198" s="121"/>
+      <c r="O198" s="121"/>
+      <c r="P198" s="121"/>
+      <c r="Q198" s="121"/>
+      <c r="R198" s="121"/>
+      <c r="S198" s="121"/>
+      <c r="T198" s="121"/>
+      <c r="U198" s="121"/>
+      <c r="V198" s="121"/>
+      <c r="W198" s="121"/>
+      <c r="X198" s="121"/>
+      <c r="Y198" s="121"/>
+      <c r="Z198" s="121"/>
+      <c r="AA198" s="121"/>
+      <c r="AB198" s="121"/>
+      <c r="AC198" s="121"/>
+      <c r="AD198" s="121"/>
+      <c r="AE198" s="121"/>
+      <c r="AF198" s="121"/>
+      <c r="AG198" s="121"/>
+      <c r="AH198" s="121"/>
     </row>
     <row r="199" spans="1:34">
-      <c r="A199" s="121"/>
-      <c r="B199" s="122"/>
-      <c r="C199" s="122"/>
-      <c r="D199" s="122"/>
-      <c r="E199" s="122"/>
-      <c r="F199" s="122"/>
-      <c r="G199" s="122"/>
-      <c r="H199" s="122"/>
-      <c r="I199" s="122"/>
-      <c r="J199" s="126"/>
-      <c r="K199" s="122"/>
-      <c r="L199" s="122"/>
-      <c r="M199" s="128"/>
-      <c r="N199" s="122"/>
-      <c r="O199" s="122"/>
-      <c r="P199" s="122"/>
-      <c r="Q199" s="122"/>
-      <c r="R199" s="122"/>
-      <c r="S199" s="122"/>
-      <c r="T199" s="122"/>
-      <c r="U199" s="122"/>
-      <c r="V199" s="122"/>
-      <c r="W199" s="122"/>
-      <c r="X199" s="122"/>
-      <c r="Y199" s="122"/>
-      <c r="Z199" s="122"/>
-      <c r="AA199" s="122"/>
-      <c r="AB199" s="122"/>
-      <c r="AC199" s="122"/>
-      <c r="AD199" s="122"/>
-      <c r="AE199" s="122"/>
-      <c r="AF199" s="122"/>
-      <c r="AG199" s="122"/>
-      <c r="AH199" s="122"/>
+      <c r="A199" s="120"/>
+      <c r="B199" s="121"/>
+      <c r="C199" s="121"/>
+      <c r="D199" s="121"/>
+      <c r="E199" s="121"/>
+      <c r="F199" s="121"/>
+      <c r="G199" s="121"/>
+      <c r="H199" s="121"/>
+      <c r="I199" s="121"/>
+      <c r="J199" s="125"/>
+      <c r="K199" s="121"/>
+      <c r="L199" s="121"/>
+      <c r="M199" s="127"/>
+      <c r="N199" s="121"/>
+      <c r="O199" s="121"/>
+      <c r="P199" s="121"/>
+      <c r="Q199" s="121"/>
+      <c r="R199" s="121"/>
+      <c r="S199" s="121"/>
+      <c r="T199" s="121"/>
+      <c r="U199" s="121"/>
+      <c r="V199" s="121"/>
+      <c r="W199" s="121"/>
+      <c r="X199" s="121"/>
+      <c r="Y199" s="121"/>
+      <c r="Z199" s="121"/>
+      <c r="AA199" s="121"/>
+      <c r="AB199" s="121"/>
+      <c r="AC199" s="121"/>
+      <c r="AD199" s="121"/>
+      <c r="AE199" s="121"/>
+      <c r="AF199" s="121"/>
+      <c r="AG199" s="121"/>
+      <c r="AH199" s="121"/>
     </row>
     <row r="200" spans="1:34">
-      <c r="A200" s="121"/>
-      <c r="B200" s="122"/>
-      <c r="C200" s="122"/>
-      <c r="D200" s="122"/>
-      <c r="E200" s="122"/>
-      <c r="F200" s="122"/>
-      <c r="G200" s="122"/>
-      <c r="H200" s="122"/>
-      <c r="I200" s="122"/>
-      <c r="J200" s="126"/>
-      <c r="K200" s="122"/>
-      <c r="L200" s="122"/>
-      <c r="M200" s="128"/>
-      <c r="N200" s="122"/>
-      <c r="O200" s="122"/>
-      <c r="P200" s="122"/>
-      <c r="Q200" s="122"/>
-      <c r="R200" s="122"/>
-      <c r="S200" s="122"/>
-      <c r="T200" s="122"/>
-      <c r="U200" s="122"/>
-      <c r="V200" s="122"/>
-      <c r="W200" s="122"/>
-      <c r="X200" s="122"/>
-      <c r="Y200" s="122"/>
-      <c r="Z200" s="122"/>
-      <c r="AA200" s="122"/>
-      <c r="AB200" s="122"/>
-      <c r="AC200" s="122"/>
-      <c r="AD200" s="122"/>
-      <c r="AE200" s="122"/>
-      <c r="AF200" s="122"/>
-      <c r="AG200" s="122"/>
-      <c r="AH200" s="122"/>
+      <c r="A200" s="120"/>
+      <c r="B200" s="121"/>
+      <c r="C200" s="121"/>
+      <c r="D200" s="121"/>
+      <c r="E200" s="121"/>
+      <c r="F200" s="121"/>
+      <c r="G200" s="121"/>
+      <c r="H200" s="121"/>
+      <c r="I200" s="121"/>
+      <c r="J200" s="125"/>
+      <c r="K200" s="121"/>
+      <c r="L200" s="121"/>
+      <c r="M200" s="127"/>
+      <c r="N200" s="121"/>
+      <c r="O200" s="121"/>
+      <c r="P200" s="121"/>
+      <c r="Q200" s="121"/>
+      <c r="R200" s="121"/>
+      <c r="S200" s="121"/>
+      <c r="T200" s="121"/>
+      <c r="U200" s="121"/>
+      <c r="V200" s="121"/>
+      <c r="W200" s="121"/>
+      <c r="X200" s="121"/>
+      <c r="Y200" s="121"/>
+      <c r="Z200" s="121"/>
+      <c r="AA200" s="121"/>
+      <c r="AB200" s="121"/>
+      <c r="AC200" s="121"/>
+      <c r="AD200" s="121"/>
+      <c r="AE200" s="121"/>
+      <c r="AF200" s="121"/>
+      <c r="AG200" s="121"/>
+      <c r="AH200" s="121"/>
     </row>
     <row r="201" spans="1:34">
-      <c r="A201" s="121"/>
-      <c r="B201" s="122"/>
-      <c r="C201" s="122"/>
-      <c r="D201" s="122"/>
-      <c r="E201" s="122"/>
-      <c r="F201" s="122"/>
-      <c r="G201" s="122"/>
-      <c r="H201" s="122"/>
-      <c r="I201" s="122"/>
-      <c r="J201" s="126"/>
-      <c r="K201" s="122"/>
-      <c r="L201" s="122"/>
-      <c r="M201" s="128"/>
-      <c r="N201" s="122"/>
-      <c r="O201" s="122"/>
-      <c r="P201" s="122"/>
-      <c r="Q201" s="122"/>
-      <c r="R201" s="122"/>
-      <c r="S201" s="122"/>
-      <c r="T201" s="122"/>
-      <c r="U201" s="122"/>
-      <c r="V201" s="122"/>
-      <c r="W201" s="122"/>
-      <c r="X201" s="122"/>
-      <c r="Y201" s="122"/>
-      <c r="Z201" s="122"/>
-      <c r="AA201" s="122"/>
-      <c r="AB201" s="122"/>
-      <c r="AC201" s="122"/>
-      <c r="AD201" s="122"/>
-      <c r="AE201" s="122"/>
-      <c r="AF201" s="122"/>
-      <c r="AG201" s="122"/>
-      <c r="AH201" s="122"/>
+      <c r="A201" s="120"/>
+      <c r="B201" s="121"/>
+      <c r="C201" s="121"/>
+      <c r="D201" s="121"/>
+      <c r="E201" s="121"/>
+      <c r="F201" s="121"/>
+      <c r="G201" s="121"/>
+      <c r="H201" s="121"/>
+      <c r="I201" s="121"/>
+      <c r="J201" s="125"/>
+      <c r="K201" s="121"/>
+      <c r="L201" s="121"/>
+      <c r="M201" s="127"/>
+      <c r="N201" s="121"/>
+      <c r="O201" s="121"/>
+      <c r="P201" s="121"/>
+      <c r="Q201" s="121"/>
+      <c r="R201" s="121"/>
+      <c r="S201" s="121"/>
+      <c r="T201" s="121"/>
+      <c r="U201" s="121"/>
+      <c r="V201" s="121"/>
+      <c r="W201" s="121"/>
+      <c r="X201" s="121"/>
+      <c r="Y201" s="121"/>
+      <c r="Z201" s="121"/>
+      <c r="AA201" s="121"/>
+      <c r="AB201" s="121"/>
+      <c r="AC201" s="121"/>
+      <c r="AD201" s="121"/>
+      <c r="AE201" s="121"/>
+      <c r="AF201" s="121"/>
+      <c r="AG201" s="121"/>
+      <c r="AH201" s="121"/>
     </row>
     <row r="202" spans="1:34">
-      <c r="A202" s="121"/>
-      <c r="B202" s="122"/>
-      <c r="C202" s="122"/>
-      <c r="D202" s="122"/>
-      <c r="E202" s="122"/>
-      <c r="F202" s="122"/>
-      <c r="G202" s="122"/>
-      <c r="H202" s="122"/>
-      <c r="I202" s="122"/>
-      <c r="J202" s="126"/>
-      <c r="K202" s="122"/>
-      <c r="L202" s="122"/>
-      <c r="M202" s="128"/>
-      <c r="N202" s="122"/>
-      <c r="O202" s="122"/>
-      <c r="P202" s="122"/>
-      <c r="Q202" s="122"/>
-      <c r="R202" s="122"/>
-      <c r="S202" s="122"/>
-      <c r="T202" s="122"/>
-      <c r="U202" s="122"/>
-      <c r="V202" s="122"/>
-      <c r="W202" s="122"/>
-      <c r="X202" s="122"/>
-      <c r="Y202" s="122"/>
-      <c r="Z202" s="122"/>
-      <c r="AA202" s="122"/>
-      <c r="AB202" s="122"/>
-      <c r="AC202" s="122"/>
-      <c r="AD202" s="122"/>
-      <c r="AE202" s="122"/>
-      <c r="AF202" s="122"/>
-      <c r="AG202" s="122"/>
-      <c r="AH202" s="122"/>
+      <c r="A202" s="120"/>
+      <c r="B202" s="121"/>
+      <c r="C202" s="121"/>
+      <c r="D202" s="121"/>
+      <c r="E202" s="121"/>
+      <c r="F202" s="121"/>
+      <c r="G202" s="121"/>
+      <c r="H202" s="121"/>
+      <c r="I202" s="121"/>
+      <c r="J202" s="125"/>
+      <c r="K202" s="121"/>
+      <c r="L202" s="121"/>
+      <c r="M202" s="127"/>
+      <c r="N202" s="121"/>
+      <c r="O202" s="121"/>
+      <c r="P202" s="121"/>
+      <c r="Q202" s="121"/>
+      <c r="R202" s="121"/>
+      <c r="S202" s="121"/>
+      <c r="T202" s="121"/>
+      <c r="U202" s="121"/>
+      <c r="V202" s="121"/>
+      <c r="W202" s="121"/>
+      <c r="X202" s="121"/>
+      <c r="Y202" s="121"/>
+      <c r="Z202" s="121"/>
+      <c r="AA202" s="121"/>
+      <c r="AB202" s="121"/>
+      <c r="AC202" s="121"/>
+      <c r="AD202" s="121"/>
+      <c r="AE202" s="121"/>
+      <c r="AF202" s="121"/>
+      <c r="AG202" s="121"/>
+      <c r="AH202" s="121"/>
     </row>
     <row r="203" spans="1:34">
-      <c r="A203" s="121"/>
-      <c r="B203" s="122"/>
-      <c r="C203" s="122"/>
-      <c r="D203" s="122"/>
-      <c r="E203" s="122"/>
-      <c r="F203" s="122"/>
-      <c r="G203" s="122"/>
-      <c r="H203" s="122"/>
-      <c r="I203" s="122"/>
-      <c r="J203" s="126"/>
-      <c r="K203" s="122"/>
-      <c r="L203" s="122"/>
-      <c r="M203" s="128"/>
-      <c r="N203" s="122"/>
-      <c r="O203" s="122"/>
-      <c r="P203" s="122"/>
-      <c r="Q203" s="122"/>
-      <c r="R203" s="122"/>
-      <c r="S203" s="122"/>
-      <c r="T203" s="122"/>
-      <c r="U203" s="122"/>
-      <c r="V203" s="122"/>
-      <c r="W203" s="122"/>
-      <c r="X203" s="122"/>
-      <c r="Y203" s="122"/>
-      <c r="Z203" s="122"/>
-      <c r="AA203" s="122"/>
-      <c r="AB203" s="122"/>
-      <c r="AC203" s="122"/>
-      <c r="AD203" s="122"/>
-      <c r="AE203" s="122"/>
-      <c r="AF203" s="122"/>
-      <c r="AG203" s="122"/>
-      <c r="AH203" s="122"/>
+      <c r="A203" s="120"/>
+      <c r="B203" s="121"/>
+      <c r="C203" s="121"/>
+      <c r="D203" s="121"/>
+      <c r="E203" s="121"/>
+      <c r="F203" s="121"/>
+      <c r="G203" s="121"/>
+      <c r="H203" s="121"/>
+      <c r="I203" s="121"/>
+      <c r="J203" s="125"/>
+      <c r="K203" s="121"/>
+      <c r="L203" s="121"/>
+      <c r="M203" s="127"/>
+      <c r="N203" s="121"/>
+      <c r="O203" s="121"/>
+      <c r="P203" s="121"/>
+      <c r="Q203" s="121"/>
+      <c r="R203" s="121"/>
+      <c r="S203" s="121"/>
+      <c r="T203" s="121"/>
+      <c r="U203" s="121"/>
+      <c r="V203" s="121"/>
+      <c r="W203" s="121"/>
+      <c r="X203" s="121"/>
+      <c r="Y203" s="121"/>
+      <c r="Z203" s="121"/>
+      <c r="AA203" s="121"/>
+      <c r="AB203" s="121"/>
+      <c r="AC203" s="121"/>
+      <c r="AD203" s="121"/>
+      <c r="AE203" s="121"/>
+      <c r="AF203" s="121"/>
+      <c r="AG203" s="121"/>
+      <c r="AH203" s="121"/>
     </row>
     <row r="204" spans="1:34">
-      <c r="A204" s="121"/>
-      <c r="B204" s="122"/>
-      <c r="C204" s="122"/>
-      <c r="D204" s="122"/>
-      <c r="E204" s="122"/>
-      <c r="F204" s="122"/>
-      <c r="G204" s="122"/>
-      <c r="H204" s="122"/>
-      <c r="I204" s="122"/>
-      <c r="J204" s="126"/>
-      <c r="K204" s="122"/>
-      <c r="L204" s="122"/>
-      <c r="M204" s="128"/>
-      <c r="N204" s="122"/>
-      <c r="O204" s="122"/>
-      <c r="P204" s="122"/>
-      <c r="Q204" s="122"/>
-      <c r="R204" s="122"/>
-      <c r="S204" s="122"/>
-      <c r="T204" s="122"/>
-      <c r="U204" s="122"/>
-      <c r="V204" s="122"/>
-      <c r="W204" s="122"/>
-      <c r="X204" s="122"/>
-      <c r="Y204" s="122"/>
-      <c r="Z204" s="122"/>
-      <c r="AA204" s="122"/>
-      <c r="AB204" s="122"/>
-      <c r="AC204" s="122"/>
-      <c r="AD204" s="122"/>
-      <c r="AE204" s="122"/>
-      <c r="AF204" s="122"/>
-      <c r="AG204" s="122"/>
-      <c r="AH204" s="122"/>
+      <c r="A204" s="120"/>
+      <c r="B204" s="121"/>
+      <c r="C204" s="121"/>
+      <c r="D204" s="121"/>
+      <c r="E204" s="121"/>
+      <c r="F204" s="121"/>
+      <c r="G204" s="121"/>
+      <c r="H204" s="121"/>
+      <c r="I204" s="121"/>
+      <c r="J204" s="125"/>
+      <c r="K204" s="121"/>
+      <c r="L204" s="121"/>
+      <c r="M204" s="127"/>
+      <c r="N204" s="121"/>
+      <c r="O204" s="121"/>
+      <c r="P204" s="121"/>
+      <c r="Q204" s="121"/>
+      <c r="R204" s="121"/>
+      <c r="S204" s="121"/>
+      <c r="T204" s="121"/>
+      <c r="U204" s="121"/>
+      <c r="V204" s="121"/>
+      <c r="W204" s="121"/>
+      <c r="X204" s="121"/>
+      <c r="Y204" s="121"/>
+      <c r="Z204" s="121"/>
+      <c r="AA204" s="121"/>
+      <c r="AB204" s="121"/>
+      <c r="AC204" s="121"/>
+      <c r="AD204" s="121"/>
+      <c r="AE204" s="121"/>
+      <c r="AF204" s="121"/>
+      <c r="AG204" s="121"/>
+      <c r="AH204" s="121"/>
     </row>
     <row r="205" spans="1:34">
-      <c r="A205" s="121"/>
-      <c r="B205" s="122"/>
-      <c r="C205" s="122"/>
-      <c r="D205" s="122"/>
-      <c r="E205" s="122"/>
-      <c r="F205" s="122"/>
-      <c r="G205" s="122"/>
-      <c r="H205" s="122"/>
-      <c r="I205" s="122"/>
-      <c r="J205" s="126"/>
-      <c r="K205" s="122"/>
-      <c r="L205" s="122"/>
-      <c r="M205" s="128"/>
-      <c r="N205" s="122"/>
-      <c r="O205" s="122"/>
-      <c r="P205" s="122"/>
-      <c r="Q205" s="122"/>
-      <c r="R205" s="122"/>
-      <c r="S205" s="122"/>
-      <c r="T205" s="122"/>
-      <c r="U205" s="122"/>
-      <c r="V205" s="122"/>
-      <c r="W205" s="122"/>
-      <c r="X205" s="122"/>
-      <c r="Y205" s="122"/>
-      <c r="Z205" s="122"/>
-      <c r="AA205" s="122"/>
-      <c r="AB205" s="122"/>
-      <c r="AC205" s="122"/>
-      <c r="AD205" s="122"/>
-      <c r="AE205" s="122"/>
-      <c r="AF205" s="122"/>
-      <c r="AG205" s="122"/>
-      <c r="AH205" s="122"/>
+      <c r="A205" s="120"/>
+      <c r="B205" s="121"/>
+      <c r="C205" s="121"/>
+      <c r="D205" s="121"/>
+      <c r="E205" s="121"/>
+      <c r="F205" s="121"/>
+      <c r="G205" s="121"/>
+      <c r="H205" s="121"/>
+      <c r="I205" s="121"/>
+      <c r="J205" s="125"/>
+      <c r="K205" s="121"/>
+      <c r="L205" s="121"/>
+      <c r="M205" s="127"/>
+      <c r="N205" s="121"/>
+      <c r="O205" s="121"/>
+      <c r="P205" s="121"/>
+      <c r="Q205" s="121"/>
+      <c r="R205" s="121"/>
+      <c r="S205" s="121"/>
+      <c r="T205" s="121"/>
+      <c r="U205" s="121"/>
+      <c r="V205" s="121"/>
+      <c r="W205" s="121"/>
+      <c r="X205" s="121"/>
+      <c r="Y205" s="121"/>
+      <c r="Z205" s="121"/>
+      <c r="AA205" s="121"/>
+      <c r="AB205" s="121"/>
+      <c r="AC205" s="121"/>
+      <c r="AD205" s="121"/>
+      <c r="AE205" s="121"/>
+      <c r="AF205" s="121"/>
+      <c r="AG205" s="121"/>
+      <c r="AH205" s="121"/>
     </row>
     <row r="206" spans="1:34">
-      <c r="A206" s="121"/>
-      <c r="B206" s="122"/>
-      <c r="C206" s="122"/>
-      <c r="D206" s="122"/>
-      <c r="E206" s="122"/>
-      <c r="F206" s="122"/>
-      <c r="G206" s="122"/>
-      <c r="H206" s="122"/>
-      <c r="I206" s="122"/>
-      <c r="J206" s="126"/>
-      <c r="K206" s="122"/>
-      <c r="L206" s="122"/>
-      <c r="M206" s="128"/>
-      <c r="N206" s="122"/>
-      <c r="O206" s="122"/>
-      <c r="P206" s="122"/>
-      <c r="Q206" s="122"/>
-      <c r="R206" s="122"/>
-      <c r="S206" s="122"/>
-      <c r="T206" s="122"/>
-      <c r="U206" s="122"/>
-      <c r="V206" s="122"/>
-      <c r="W206" s="122"/>
-      <c r="X206" s="122"/>
-      <c r="Y206" s="122"/>
-      <c r="Z206" s="122"/>
-      <c r="AA206" s="122"/>
-      <c r="AB206" s="122"/>
-      <c r="AC206" s="122"/>
-      <c r="AD206" s="122"/>
-      <c r="AE206" s="122"/>
-      <c r="AF206" s="122"/>
-      <c r="AG206" s="122"/>
-      <c r="AH206" s="122"/>
+      <c r="A206" s="120"/>
+      <c r="B206" s="121"/>
+      <c r="C206" s="121"/>
+      <c r="D206" s="121"/>
+      <c r="E206" s="121"/>
+      <c r="F206" s="121"/>
+      <c r="G206" s="121"/>
+      <c r="H206" s="121"/>
+      <c r="I206" s="121"/>
+      <c r="J206" s="125"/>
+      <c r="K206" s="121"/>
+      <c r="L206" s="121"/>
+      <c r="M206" s="127"/>
+      <c r="N206" s="121"/>
+      <c r="O206" s="121"/>
+      <c r="P206" s="121"/>
+      <c r="Q206" s="121"/>
+      <c r="R206" s="121"/>
+      <c r="S206" s="121"/>
+      <c r="T206" s="121"/>
+      <c r="U206" s="121"/>
+      <c r="V206" s="121"/>
+      <c r="W206" s="121"/>
+      <c r="X206" s="121"/>
+      <c r="Y206" s="121"/>
+      <c r="Z206" s="121"/>
+      <c r="AA206" s="121"/>
+      <c r="AB206" s="121"/>
+      <c r="AC206" s="121"/>
+      <c r="AD206" s="121"/>
+      <c r="AE206" s="121"/>
+      <c r="AF206" s="121"/>
+      <c r="AG206" s="121"/>
+      <c r="AH206" s="121"/>
     </row>
     <row r="207" spans="1:34">
-      <c r="A207" s="121"/>
-      <c r="B207" s="122"/>
-      <c r="C207" s="122"/>
-      <c r="D207" s="122"/>
-      <c r="E207" s="122"/>
-      <c r="F207" s="122"/>
-      <c r="G207" s="122"/>
-      <c r="H207" s="122"/>
-      <c r="I207" s="122"/>
-      <c r="J207" s="126"/>
-      <c r="K207" s="122"/>
-      <c r="L207" s="122"/>
-      <c r="M207" s="128"/>
-      <c r="N207" s="122"/>
-      <c r="O207" s="122"/>
-      <c r="P207" s="122"/>
-      <c r="Q207" s="122"/>
-      <c r="R207" s="122"/>
-      <c r="S207" s="122"/>
-      <c r="T207" s="122"/>
-      <c r="U207" s="122"/>
-      <c r="V207" s="122"/>
-      <c r="W207" s="122"/>
-      <c r="X207" s="122"/>
-      <c r="Y207" s="122"/>
-      <c r="Z207" s="122"/>
-      <c r="AA207" s="122"/>
-      <c r="AB207" s="122"/>
-      <c r="AC207" s="122"/>
-      <c r="AD207" s="122"/>
-      <c r="AE207" s="122"/>
-      <c r="AF207" s="122"/>
-      <c r="AG207" s="122"/>
-      <c r="AH207" s="122"/>
+      <c r="A207" s="120"/>
+      <c r="B207" s="121"/>
+      <c r="C207" s="121"/>
+      <c r="D207" s="121"/>
+      <c r="E207" s="121"/>
+      <c r="F207" s="121"/>
+      <c r="G207" s="121"/>
+      <c r="H207" s="121"/>
+      <c r="I207" s="121"/>
+      <c r="J207" s="125"/>
+      <c r="K207" s="121"/>
+      <c r="L207" s="121"/>
+      <c r="M207" s="127"/>
+      <c r="N207" s="121"/>
+      <c r="O207" s="121"/>
+      <c r="P207" s="121"/>
+      <c r="Q207" s="121"/>
+      <c r="R207" s="121"/>
+      <c r="S207" s="121"/>
+      <c r="T207" s="121"/>
+      <c r="U207" s="121"/>
+      <c r="V207" s="121"/>
+      <c r="W207" s="121"/>
+      <c r="X207" s="121"/>
+      <c r="Y207" s="121"/>
+      <c r="Z207" s="121"/>
+      <c r="AA207" s="121"/>
+      <c r="AB207" s="121"/>
+      <c r="AC207" s="121"/>
+      <c r="AD207" s="121"/>
+      <c r="AE207" s="121"/>
+      <c r="AF207" s="121"/>
+      <c r="AG207" s="121"/>
+      <c r="AH207" s="121"/>
     </row>
     <row r="208" spans="1:34">
-      <c r="A208" s="121"/>
-      <c r="B208" s="122"/>
-      <c r="C208" s="122"/>
-      <c r="D208" s="122"/>
-      <c r="E208" s="122"/>
-      <c r="F208" s="122"/>
-      <c r="G208" s="122"/>
-      <c r="H208" s="122"/>
-      <c r="I208" s="122"/>
-      <c r="J208" s="126"/>
-      <c r="K208" s="122"/>
-      <c r="L208" s="122"/>
-      <c r="M208" s="128"/>
-      <c r="N208" s="122"/>
-      <c r="O208" s="122"/>
-      <c r="P208" s="122"/>
-      <c r="Q208" s="122"/>
-      <c r="R208" s="122"/>
-      <c r="S208" s="122"/>
-      <c r="T208" s="122"/>
-      <c r="U208" s="122"/>
-      <c r="V208" s="122"/>
-      <c r="W208" s="122"/>
-      <c r="X208" s="122"/>
-      <c r="Y208" s="122"/>
-      <c r="Z208" s="122"/>
-      <c r="AA208" s="122"/>
-      <c r="AB208" s="122"/>
-      <c r="AC208" s="122"/>
-      <c r="AD208" s="122"/>
-      <c r="AE208" s="122"/>
-      <c r="AF208" s="122"/>
-      <c r="AG208" s="122"/>
-      <c r="AH208" s="122"/>
+      <c r="A208" s="120"/>
+      <c r="B208" s="121"/>
+      <c r="C208" s="121"/>
+      <c r="D208" s="121"/>
+      <c r="E208" s="121"/>
+      <c r="F208" s="121"/>
+      <c r="G208" s="121"/>
+      <c r="H208" s="121"/>
+      <c r="I208" s="121"/>
+      <c r="J208" s="125"/>
+      <c r="K208" s="121"/>
+      <c r="L208" s="121"/>
+      <c r="M208" s="127"/>
+      <c r="N208" s="121"/>
+      <c r="O208" s="121"/>
+      <c r="P208" s="121"/>
+      <c r="Q208" s="121"/>
+      <c r="R208" s="121"/>
+      <c r="S208" s="121"/>
+      <c r="T208" s="121"/>
+      <c r="U208" s="121"/>
+      <c r="V208" s="121"/>
+      <c r="W208" s="121"/>
+      <c r="X208" s="121"/>
+      <c r="Y208" s="121"/>
+      <c r="Z208" s="121"/>
+      <c r="AA208" s="121"/>
+      <c r="AB208" s="121"/>
+      <c r="AC208" s="121"/>
+      <c r="AD208" s="121"/>
+      <c r="AE208" s="121"/>
+      <c r="AF208" s="121"/>
+      <c r="AG208" s="121"/>
+      <c r="AH208" s="121"/>
     </row>
     <row r="209" spans="1:34">
-      <c r="A209" s="121"/>
-      <c r="B209" s="122"/>
-      <c r="C209" s="122"/>
-      <c r="D209" s="122"/>
-      <c r="E209" s="122"/>
-      <c r="F209" s="122"/>
-      <c r="G209" s="122"/>
-      <c r="H209" s="122"/>
-      <c r="I209" s="122"/>
-      <c r="J209" s="126"/>
-      <c r="K209" s="122"/>
-      <c r="L209" s="122"/>
-      <c r="M209" s="128"/>
-      <c r="N209" s="122"/>
-      <c r="O209" s="122"/>
-      <c r="P209" s="122"/>
-      <c r="Q209" s="122"/>
-      <c r="R209" s="122"/>
-      <c r="S209" s="122"/>
-      <c r="T209" s="122"/>
-      <c r="U209" s="122"/>
-      <c r="V209" s="122"/>
-      <c r="W209" s="122"/>
-      <c r="X209" s="122"/>
-      <c r="Y209" s="122"/>
-      <c r="Z209" s="122"/>
-      <c r="AA209" s="122"/>
-      <c r="AB209" s="122"/>
-      <c r="AC209" s="122"/>
-      <c r="AD209" s="122"/>
-      <c r="AE209" s="122"/>
-      <c r="AF209" s="122"/>
-      <c r="AG209" s="122"/>
-      <c r="AH209" s="122"/>
+      <c r="A209" s="120"/>
+      <c r="B209" s="121"/>
+      <c r="C209" s="121"/>
+      <c r="D209" s="121"/>
+      <c r="E209" s="121"/>
+      <c r="F209" s="121"/>
+      <c r="G209" s="121"/>
+      <c r="H209" s="121"/>
+      <c r="I209" s="121"/>
+      <c r="J209" s="125"/>
+      <c r="K209" s="121"/>
+      <c r="L209" s="121"/>
+      <c r="M209" s="127"/>
+      <c r="N209" s="121"/>
+      <c r="O209" s="121"/>
+      <c r="P209" s="121"/>
+      <c r="Q209" s="121"/>
+      <c r="R209" s="121"/>
+      <c r="S209" s="121"/>
+      <c r="T209" s="121"/>
+      <c r="U209" s="121"/>
+      <c r="V209" s="121"/>
+      <c r="W209" s="121"/>
+      <c r="X209" s="121"/>
+      <c r="Y209" s="121"/>
+      <c r="Z209" s="121"/>
+      <c r="AA209" s="121"/>
+      <c r="AB209" s="121"/>
+      <c r="AC209" s="121"/>
+      <c r="AD209" s="121"/>
+      <c r="AE209" s="121"/>
+      <c r="AF209" s="121"/>
+      <c r="AG209" s="121"/>
+      <c r="AH209" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -14035,7 +14031,7 @@
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -14080,7 +14076,7 @@
       <c r="A2" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="135" t="s">
         <v>243</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -14254,7 +14250,7 @@
       <c r="A8" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="136" t="s">
         <v>206</v>
       </c>
       <c r="C8" s="18" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -14044,7 +14044,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -14677,11 +14677,21 @@
       <c r="D22" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="E22" s="30">
+        <v>44389</v>
+      </c>
+      <c r="F22" s="3">
+        <v>10.95</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -14410,11 +14410,11 @@
   <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AT11" sqref="AT11"/>
+      <selection pane="bottomRight" activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506">
   <si>
     <t>股票代码</t>
   </si>
@@ -176,7 +176,11 @@
   </si>
   <si>
     <t>是否有网球行为出现
-(最后的收缩)</t>
+(最后的收缩应该有网球行为出现)</t>
+  </si>
+  <si>
+    <t>上涨天数是否大于下跌天数
+(最后的收缩应该出现上涨天数大于下跌天数的行为)</t>
   </si>
   <si>
     <t>支撑位1</t>
@@ -3428,7 +3432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3964,6 +3968,9 @@
     <xf numFmtId="49" fontId="30" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3971,6 +3978,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6227,14 +6237,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ209"/>
+  <dimension ref="A1:AK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2:AH3"/>
+      <selection pane="bottomRight" activeCell="AI2" sqref="AI2:AI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -6252,10 +6262,11 @@
     <col min="26" max="26" width="7.71323529411765" customWidth="1"/>
     <col min="33" max="33" width="14.8235294117647" customWidth="1"/>
     <col min="34" max="34" width="14.3308823529412" customWidth="1"/>
-    <col min="35" max="35" width="35.4117647058824" customWidth="1"/>
+    <col min="35" max="35" width="19.8455882352941" customWidth="1"/>
+    <col min="36" max="36" width="35.4117647058824" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.6" spans="1:35">
+    <row r="1" ht="23.6" spans="1:36">
       <c r="A1" s="126" t="s">
         <v>0</v>
       </c>
@@ -6298,11 +6309,12 @@
       <c r="AF1" s="172"/>
       <c r="AG1" s="172"/>
       <c r="AH1" s="172"/>
-      <c r="AI1" s="189" t="s">
+      <c r="AI1" s="172"/>
+      <c r="AJ1" s="189" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="18.8" spans="1:35">
+    <row r="2" ht="18.8" spans="1:36">
       <c r="A2" s="126"/>
       <c r="B2" s="127"/>
       <c r="C2" s="130" t="s">
@@ -6365,9 +6377,12 @@
       <c r="AH2" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="191"/>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AI2" s="191" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" s="192"/>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="131"/>
       <c r="B3" s="132"/>
       <c r="C3" s="133"/>
@@ -6382,72 +6397,73 @@
       <c r="L3" s="133"/>
       <c r="M3" s="175"/>
       <c r="N3" s="176" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" s="176" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P3" s="176" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="176" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R3" s="176" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" s="176" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T3" s="176" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="U3" s="176" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V3" s="176" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="W3" s="176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X3" s="176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB3" s="151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC3" s="151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD3" s="186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE3" s="151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF3" s="151" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="192"/>
-      <c r="AH3" s="193"/>
-      <c r="AI3" s="191"/>
-    </row>
-    <row r="4" ht="38" spans="1:35">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="194"/>
+      <c r="AI3" s="195"/>
+      <c r="AJ3" s="192"/>
+    </row>
+    <row r="4" ht="38" spans="1:36">
       <c r="A4" s="134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="136">
         <v>15.56</v>
@@ -6501,7 +6517,7 @@
       <c r="W4" s="136"/>
       <c r="X4" s="136"/>
       <c r="Y4" s="136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z4" s="167">
         <f t="shared" ref="Z4:Z12" si="3">(I4-N4)/I4</f>
@@ -6524,16 +6540,17 @@
       <c r="AF4" s="136"/>
       <c r="AG4" s="51"/>
       <c r="AH4" s="136"/>
-      <c r="AI4" s="194" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" ht="38" spans="1:35">
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="196" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" ht="38" spans="1:36">
       <c r="A5" s="134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="137">
         <v>16.82</v>
@@ -6591,7 +6608,7 @@
       <c r="W5" s="51"/>
       <c r="X5" s="51"/>
       <c r="Y5" s="51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="167">
         <f t="shared" si="3"/>
@@ -6611,16 +6628,17 @@
       <c r="AF5" s="51"/>
       <c r="AG5" s="51"/>
       <c r="AH5" s="51"/>
-      <c r="AI5" s="194" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" s="117" customFormat="1" ht="25" spans="1:35">
+      <c r="AI5" s="51"/>
+      <c r="AJ5" s="196" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" s="117" customFormat="1" ht="25" spans="1:36">
       <c r="A6" s="52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="139">
         <v>175.79</v>
@@ -6674,7 +6692,7 @@
       <c r="W6" s="139"/>
       <c r="X6" s="139"/>
       <c r="Y6" s="139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="167">
         <f t="shared" si="3"/>
@@ -6697,16 +6715,17 @@
       <c r="AF6" s="139"/>
       <c r="AG6" s="59"/>
       <c r="AH6" s="139"/>
-      <c r="AI6" s="195" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" ht="38" spans="1:35">
+      <c r="AI6" s="59"/>
+      <c r="AJ6" s="197" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" ht="38" spans="1:36">
       <c r="A7" s="134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="137">
         <v>60.53</v>
@@ -6756,7 +6775,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
       <c r="Y7" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z7" s="167">
         <f t="shared" si="3"/>
@@ -6770,16 +6789,17 @@
       <c r="AF7" s="51"/>
       <c r="AG7" s="51"/>
       <c r="AH7" s="51"/>
-      <c r="AI7" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" s="118" customFormat="1" ht="25" spans="1:35">
+      <c r="AI7" s="51"/>
+      <c r="AJ7" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" s="118" customFormat="1" ht="25" spans="1:36">
       <c r="A8" s="140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="142">
         <v>38.63</v>
@@ -6833,7 +6853,7 @@
       <c r="W8" s="142"/>
       <c r="X8" s="142"/>
       <c r="Y8" s="146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="166">
         <f t="shared" si="3"/>
@@ -6854,18 +6874,19 @@
       <c r="AD8" s="164"/>
       <c r="AE8" s="142"/>
       <c r="AF8" s="142"/>
-      <c r="AG8" s="196"/>
+      <c r="AG8" s="198"/>
       <c r="AH8" s="142"/>
-      <c r="AI8" s="197" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" ht="38" spans="1:35">
+      <c r="AI8" s="198"/>
+      <c r="AJ8" s="199" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" ht="38" spans="1:36">
       <c r="A9" s="134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" s="135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" s="137">
         <v>15.18</v>
@@ -6915,7 +6936,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
       <c r="Y9" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z9" s="167">
         <f t="shared" si="3"/>
@@ -6929,16 +6950,17 @@
       <c r="AF9" s="51"/>
       <c r="AG9" s="51"/>
       <c r="AH9" s="51"/>
-      <c r="AI9" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" ht="38" spans="1:35">
+      <c r="AI9" s="51"/>
+      <c r="AJ9" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" ht="38" spans="1:36">
       <c r="A10" s="134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="136">
         <v>78.97</v>
@@ -7000,7 +7022,7 @@
       <c r="W10" s="136"/>
       <c r="X10" s="136"/>
       <c r="Y10" s="136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z10" s="167">
         <f t="shared" si="3"/>
@@ -7023,16 +7045,17 @@
       <c r="AF10" s="136"/>
       <c r="AG10" s="51"/>
       <c r="AH10" s="136"/>
-      <c r="AI10" s="194" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" s="117" customFormat="1" ht="38" spans="1:35">
+      <c r="AI10" s="51"/>
+      <c r="AJ10" s="196" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" s="117" customFormat="1" ht="38" spans="1:36">
       <c r="A11" s="52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="139">
         <v>26.22</v>
@@ -7082,7 +7105,7 @@
       <c r="W11" s="139"/>
       <c r="X11" s="139"/>
       <c r="Y11" s="53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z11" s="167">
         <f t="shared" si="3"/>
@@ -7102,16 +7125,17 @@
       <c r="AF11" s="139"/>
       <c r="AG11" s="59"/>
       <c r="AH11" s="139"/>
-      <c r="AI11" s="195" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" s="119" customFormat="1" ht="38" spans="1:35">
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="197" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" s="119" customFormat="1" ht="38" spans="1:36">
       <c r="A12" s="143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="144" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="145">
         <v>17.38</v>
@@ -7169,7 +7193,7 @@
       <c r="W12" s="153"/>
       <c r="X12" s="153"/>
       <c r="Y12" s="153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="166">
         <f t="shared" si="3"/>
@@ -7187,20 +7211,21 @@
       <c r="AD12" s="153"/>
       <c r="AE12" s="153"/>
       <c r="AF12" s="153"/>
-      <c r="AG12" s="198" t="s">
-        <v>68</v>
+      <c r="AG12" s="200" t="s">
+        <v>69</v>
       </c>
       <c r="AH12" s="153"/>
-      <c r="AI12" s="144" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" ht="38" spans="1:35">
+      <c r="AI12" s="200"/>
+      <c r="AJ12" s="144" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="38" spans="1:36">
       <c r="A13" s="134" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="135" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="137">
         <v>22.79</v>
@@ -7263,16 +7288,17 @@
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
       <c r="AH13" s="51"/>
-      <c r="AI13" s="194" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" ht="38" spans="1:35">
+      <c r="AI13" s="51"/>
+      <c r="AJ13" s="196" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" ht="38" spans="1:36">
       <c r="A14" s="134" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B14" s="135" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="137">
         <v>20.53</v>
@@ -7322,7 +7348,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
       <c r="Y14" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z14" s="167">
         <f t="shared" ref="Z14:Z29" si="9">(I14-N14)/I14</f>
@@ -7342,16 +7368,17 @@
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
       <c r="AH14" s="51"/>
-      <c r="AI14" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" ht="25" spans="1:35">
+      <c r="AI14" s="51"/>
+      <c r="AJ14" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" ht="25" spans="1:36">
       <c r="A15" s="134" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="135" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="137"/>
       <c r="D15" s="137"/>
@@ -7403,16 +7430,17 @@
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
       <c r="AH15" s="51"/>
-      <c r="AI15" s="194" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" s="119" customFormat="1" ht="25" spans="1:35">
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="196" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" s="119" customFormat="1" ht="25" spans="1:36">
       <c r="A16" s="143" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="145">
         <v>35.16</v>
@@ -7466,7 +7494,7 @@
       <c r="W16" s="153"/>
       <c r="X16" s="153"/>
       <c r="Y16" s="153" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z16" s="166">
         <f t="shared" si="9"/>
@@ -7486,16 +7514,17 @@
       <c r="AF16" s="153"/>
       <c r="AG16" s="153"/>
       <c r="AH16" s="153"/>
-      <c r="AI16" s="144" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" s="118" customFormat="1" ht="25" spans="1:35">
+      <c r="AI16" s="153"/>
+      <c r="AJ16" s="144" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" s="118" customFormat="1" ht="25" spans="1:36">
       <c r="A17" s="140" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="141" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="146">
         <v>71.53</v>
@@ -7553,7 +7582,7 @@
       <c r="W17" s="154"/>
       <c r="X17" s="154"/>
       <c r="Y17" s="154" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z17" s="166">
         <f t="shared" si="9"/>
@@ -7573,16 +7602,17 @@
       <c r="AF17" s="154"/>
       <c r="AG17" s="154"/>
       <c r="AH17" s="154"/>
-      <c r="AI17" s="197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" ht="25" spans="1:35">
+      <c r="AI17" s="154"/>
+      <c r="AJ17" s="199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" ht="25" spans="1:36">
       <c r="A18" s="134" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="135" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="137">
         <v>30.69</v>
@@ -7640,16 +7670,17 @@
       <c r="AF18" s="51"/>
       <c r="AG18" s="51"/>
       <c r="AH18" s="51"/>
-      <c r="AI18" s="194" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" ht="38" spans="1:35">
+      <c r="AI18" s="51"/>
+      <c r="AJ18" s="196" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" ht="38" spans="1:36">
       <c r="A19" s="134" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="135" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="137">
         <v>16.77</v>
@@ -7699,7 +7730,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
       <c r="Y19" s="51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z19" s="167">
         <f t="shared" si="9"/>
@@ -7719,16 +7750,17 @@
       <c r="AF19" s="51"/>
       <c r="AG19" s="51"/>
       <c r="AH19" s="51"/>
-      <c r="AI19" s="194" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" ht="38" spans="1:35">
+      <c r="AI19" s="51"/>
+      <c r="AJ19" s="196" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" ht="38" spans="1:36">
       <c r="A20" s="134" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B20" s="135" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C20" s="137">
         <v>85.08</v>
@@ -7778,7 +7810,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
       <c r="Y20" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z20" s="167">
         <f t="shared" si="9"/>
@@ -7798,22 +7830,23 @@
       <c r="AF20" s="51"/>
       <c r="AG20" s="51"/>
       <c r="AH20" s="51"/>
-      <c r="AI20" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="25" spans="1:35">
+      <c r="AI20" s="51"/>
+      <c r="AJ20" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" ht="25" spans="1:36">
       <c r="A21" s="134" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" s="135" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="137"/>
       <c r="D21" s="137"/>
       <c r="E21" s="137"/>
       <c r="F21" s="135" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G21" s="51"/>
       <c r="H21" s="51"/>
@@ -7855,16 +7888,17 @@
       <c r="AF21" s="51"/>
       <c r="AG21" s="51"/>
       <c r="AH21" s="51"/>
-      <c r="AI21" s="194" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" ht="25" spans="1:35">
+      <c r="AI21" s="51"/>
+      <c r="AJ21" s="196" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" ht="25" spans="1:36">
       <c r="A22" s="134" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="135" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C22" s="137"/>
       <c r="D22" s="137"/>
@@ -7910,16 +7944,17 @@
       <c r="AF22" s="51"/>
       <c r="AG22" s="51"/>
       <c r="AH22" s="51"/>
-      <c r="AI22" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" ht="25" spans="1:35">
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" ht="25" spans="1:36">
       <c r="A23" s="134" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B23" s="135" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" s="137"/>
       <c r="D23" s="137"/>
@@ -7965,16 +8000,17 @@
       <c r="AF23" s="51"/>
       <c r="AG23" s="51"/>
       <c r="AH23" s="51"/>
-      <c r="AI23" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" ht="25" spans="1:35">
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" ht="25" spans="1:36">
       <c r="A24" s="134" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="135" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C24" s="137"/>
       <c r="D24" s="137"/>
@@ -8020,16 +8056,17 @@
       <c r="AF24" s="51"/>
       <c r="AG24" s="51"/>
       <c r="AH24" s="51"/>
-      <c r="AI24" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" s="118" customFormat="1" ht="25" spans="1:35">
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" s="118" customFormat="1" ht="25" spans="1:36">
       <c r="A25" s="140" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B25" s="141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="142">
         <v>38.23</v>
@@ -8087,7 +8124,7 @@
       <c r="W25" s="142"/>
       <c r="X25" s="142"/>
       <c r="Y25" s="146" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z25" s="166">
         <f t="shared" si="9"/>
@@ -8107,16 +8144,17 @@
       <c r="AF25" s="142"/>
       <c r="AG25" s="154"/>
       <c r="AH25" s="142"/>
-      <c r="AI25" s="197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" ht="25" spans="1:35">
+      <c r="AI25" s="154"/>
+      <c r="AJ25" s="199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" ht="25" spans="1:36">
       <c r="A26" s="134" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="135" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="137">
         <v>22.8</v>
@@ -8162,16 +8200,17 @@
       <c r="AF26" s="51"/>
       <c r="AG26" s="51"/>
       <c r="AH26" s="51"/>
-      <c r="AI26" s="194" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" ht="25" spans="1:35">
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="196" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" ht="25" spans="1:36">
       <c r="A27" s="134" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B27" s="135" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C27" s="137"/>
       <c r="D27" s="137"/>
@@ -8211,16 +8250,17 @@
       <c r="AF27" s="51"/>
       <c r="AG27" s="51"/>
       <c r="AH27" s="51"/>
-      <c r="AI27" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" s="120" customFormat="1" ht="25" spans="1:36">
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" s="120" customFormat="1" ht="25" spans="1:37">
       <c r="A28" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="147" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C28" s="148">
         <v>11.65</v>
@@ -8282,7 +8322,7 @@
       <c r="W28" s="148"/>
       <c r="X28" s="148"/>
       <c r="Y28" s="148" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z28" s="183">
         <f t="shared" si="9"/>
@@ -8306,21 +8346,22 @@
       </c>
       <c r="AE28" s="148"/>
       <c r="AF28" s="148"/>
-      <c r="AG28" s="199" t="s">
-        <v>68</v>
+      <c r="AG28" s="201" t="s">
+        <v>69</v>
       </c>
       <c r="AH28" s="148"/>
-      <c r="AI28" s="200" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ28" s="201"/>
-    </row>
-    <row r="29" s="118" customFormat="1" ht="25" spans="1:35">
+      <c r="AI28" s="201"/>
+      <c r="AJ28" s="202" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK28" s="203"/>
+    </row>
+    <row r="29" s="118" customFormat="1" ht="25" spans="1:36">
       <c r="A29" s="140" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" s="141" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C29" s="146">
         <v>97.03</v>
@@ -8386,7 +8427,7 @@
       <c r="W29" s="154"/>
       <c r="X29" s="154"/>
       <c r="Y29" s="154" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z29" s="166">
         <f t="shared" si="9"/>
@@ -8412,16 +8453,17 @@
       <c r="AF29" s="154"/>
       <c r="AG29" s="154"/>
       <c r="AH29" s="154"/>
-      <c r="AI29" s="197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" ht="25" spans="1:35">
+      <c r="AI29" s="154"/>
+      <c r="AJ29" s="199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" ht="25" spans="1:36">
       <c r="A30" s="134" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B30" s="135" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C30" s="137"/>
       <c r="D30" s="137"/>
@@ -8476,16 +8518,17 @@
       <c r="AF30" s="51"/>
       <c r="AG30" s="51"/>
       <c r="AH30" s="51"/>
-      <c r="AI30" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" ht="25" spans="1:35">
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" ht="25" spans="1:36">
       <c r="A31" s="134" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B31" s="135" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C31" s="137">
         <v>18.54</v>
@@ -8548,16 +8591,17 @@
       <c r="AF31" s="51"/>
       <c r="AG31" s="51"/>
       <c r="AH31" s="51"/>
-      <c r="AI31" s="194" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" ht="38" spans="1:35">
+      <c r="AI31" s="51"/>
+      <c r="AJ31" s="196" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" ht="38" spans="1:36">
       <c r="A32" s="134" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B32" s="135" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C32" s="137"/>
       <c r="D32" s="137"/>
@@ -8612,16 +8656,17 @@
       <c r="AF32" s="51"/>
       <c r="AG32" s="51"/>
       <c r="AH32" s="51"/>
-      <c r="AI32" s="194" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" ht="38" spans="1:35">
+      <c r="AI32" s="51"/>
+      <c r="AJ32" s="196" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" ht="38" spans="1:36">
       <c r="A33" s="134" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" s="135" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C33" s="137"/>
       <c r="D33" s="137"/>
@@ -8676,16 +8721,17 @@
       <c r="AF33" s="51"/>
       <c r="AG33" s="51"/>
       <c r="AH33" s="51"/>
-      <c r="AI33" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" ht="38" spans="1:35">
+      <c r="AI33" s="51"/>
+      <c r="AJ33" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" ht="38" spans="1:36">
       <c r="A34" s="134" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34" s="135" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" s="137">
         <v>58.83</v>
@@ -8733,7 +8779,7 @@
       <c r="W34" s="51"/>
       <c r="X34" s="51"/>
       <c r="Y34" s="51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z34" s="167">
         <f t="shared" si="14"/>
@@ -8756,16 +8802,17 @@
       <c r="AF34" s="51"/>
       <c r="AG34" s="51"/>
       <c r="AH34" s="51"/>
-      <c r="AI34" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" ht="38" spans="1:35">
+      <c r="AI34" s="51"/>
+      <c r="AJ34" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" ht="38" spans="1:36">
       <c r="A35" s="134" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B35" s="135" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35" s="137"/>
       <c r="D35" s="137"/>
@@ -8820,16 +8867,17 @@
       <c r="AF35" s="51"/>
       <c r="AG35" s="51"/>
       <c r="AH35" s="51"/>
-      <c r="AI35" s="194" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" ht="25" spans="1:35">
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="196" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="25" spans="1:36">
       <c r="A36" s="134" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B36" s="135" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" s="137"/>
       <c r="D36" s="137"/>
@@ -8884,16 +8932,17 @@
       <c r="AF36" s="51"/>
       <c r="AG36" s="51"/>
       <c r="AH36" s="51"/>
-      <c r="AI36" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" ht="25" spans="1:35">
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" ht="25" spans="1:36">
       <c r="A37" s="134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" s="135" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" s="137">
         <v>85.78</v>
@@ -8947,7 +8996,7 @@
       <c r="W37" s="51"/>
       <c r="X37" s="51"/>
       <c r="Y37" s="51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z37" s="167">
         <f t="shared" si="14"/>
@@ -8970,16 +9019,17 @@
       <c r="AF37" s="51"/>
       <c r="AG37" s="51"/>
       <c r="AH37" s="51"/>
-      <c r="AI37" s="194" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" ht="25" spans="1:35">
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="196" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" ht="25" spans="1:36">
       <c r="A38" s="134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C38" s="137"/>
       <c r="D38" s="137"/>
@@ -9031,16 +9081,17 @@
       <c r="AF38" s="51"/>
       <c r="AG38" s="51"/>
       <c r="AH38" s="51"/>
-      <c r="AI38" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" ht="38" spans="1:35">
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" ht="38" spans="1:36">
       <c r="A39" s="134" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B39" s="135" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C39" s="137"/>
       <c r="D39" s="137"/>
@@ -9092,16 +9143,17 @@
       <c r="AF39" s="51"/>
       <c r="AG39" s="51"/>
       <c r="AH39" s="51"/>
-      <c r="AI39" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" ht="25" spans="1:35">
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" ht="25" spans="1:36">
       <c r="A40" s="134" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B40" s="135" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C40" s="137"/>
       <c r="D40" s="137"/>
@@ -9153,16 +9205,17 @@
       <c r="AF40" s="51"/>
       <c r="AG40" s="51"/>
       <c r="AH40" s="51"/>
-      <c r="AI40" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" ht="25" spans="1:35">
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" ht="25" spans="1:36">
       <c r="A41" s="134" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B41" s="135" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C41" s="137"/>
       <c r="D41" s="137"/>
@@ -9214,16 +9267,17 @@
       <c r="AF41" s="51"/>
       <c r="AG41" s="51"/>
       <c r="AH41" s="51"/>
-      <c r="AI41" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" ht="38" spans="1:35">
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" ht="38" spans="1:36">
       <c r="A42" s="134" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B42" s="135" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C42" s="137"/>
       <c r="D42" s="137"/>
@@ -9275,16 +9329,17 @@
       <c r="AF42" s="51"/>
       <c r="AG42" s="51"/>
       <c r="AH42" s="51"/>
-      <c r="AI42" s="194" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" ht="25" spans="1:35">
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="196" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" ht="25" spans="1:36">
       <c r="A43" s="134" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B43" s="135" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C43" s="137"/>
       <c r="D43" s="137"/>
@@ -9336,16 +9391,17 @@
       <c r="AF43" s="51"/>
       <c r="AG43" s="51"/>
       <c r="AH43" s="51"/>
-      <c r="AI43" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" ht="25" spans="1:35">
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" ht="25" spans="1:36">
       <c r="A44" s="134" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" s="135" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C44" s="137"/>
       <c r="D44" s="137"/>
@@ -9397,16 +9453,17 @@
       <c r="AF44" s="51"/>
       <c r="AG44" s="51"/>
       <c r="AH44" s="51"/>
-      <c r="AI44" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45" ht="25" spans="1:35">
+      <c r="AI44" s="51"/>
+      <c r="AJ44" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" ht="25" spans="1:36">
       <c r="A45" s="134" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B45" s="135" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C45" s="137"/>
       <c r="D45" s="137"/>
@@ -9458,16 +9515,17 @@
       <c r="AF45" s="51"/>
       <c r="AG45" s="51"/>
       <c r="AH45" s="51"/>
-      <c r="AI45" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" ht="38" spans="1:35">
+      <c r="AI45" s="51"/>
+      <c r="AJ45" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" ht="38" spans="1:36">
       <c r="A46" s="134" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B46" s="135" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" s="137"/>
       <c r="D46" s="137"/>
@@ -9519,16 +9577,17 @@
       <c r="AF46" s="51"/>
       <c r="AG46" s="51"/>
       <c r="AH46" s="51"/>
-      <c r="AI46" s="194" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" ht="25" spans="1:35">
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="196" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" ht="25" spans="1:36">
       <c r="A47" s="134" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B47" s="135" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C47" s="137"/>
       <c r="D47" s="137"/>
@@ -9580,16 +9639,17 @@
       <c r="AF47" s="51"/>
       <c r="AG47" s="51"/>
       <c r="AH47" s="51"/>
-      <c r="AI47" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" ht="25" spans="1:35">
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" ht="25" spans="1:36">
       <c r="A48" s="134" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" s="135" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C48" s="137"/>
       <c r="D48" s="137"/>
@@ -9641,16 +9701,17 @@
       <c r="AF48" s="51"/>
       <c r="AG48" s="51"/>
       <c r="AH48" s="51"/>
-      <c r="AI48" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" ht="38" spans="1:35">
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" ht="38" spans="1:36">
       <c r="A49" s="134" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" s="135" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" s="137"/>
       <c r="D49" s="137"/>
@@ -9702,16 +9763,17 @@
       <c r="AF49" s="51"/>
       <c r="AG49" s="51"/>
       <c r="AH49" s="51"/>
-      <c r="AI49" s="194" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" ht="25" spans="1:35">
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="196" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" ht="25" spans="1:36">
       <c r="A50" s="134" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" s="135" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C50" s="137"/>
       <c r="D50" s="137"/>
@@ -9763,16 +9825,17 @@
       <c r="AF50" s="51"/>
       <c r="AG50" s="51"/>
       <c r="AH50" s="51"/>
-      <c r="AI50" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" ht="25" spans="1:35">
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" ht="25" spans="1:36">
       <c r="A51" s="134" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B51" s="135" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51" s="137"/>
       <c r="D51" s="137"/>
@@ -9824,16 +9887,17 @@
       <c r="AF51" s="51"/>
       <c r="AG51" s="51"/>
       <c r="AH51" s="51"/>
-      <c r="AI51" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" ht="25" spans="1:35">
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" ht="25" spans="1:36">
       <c r="A52" s="134" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" s="135" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C52" s="137"/>
       <c r="D52" s="137"/>
@@ -9885,16 +9949,17 @@
       <c r="AF52" s="51"/>
       <c r="AG52" s="51"/>
       <c r="AH52" s="51"/>
-      <c r="AI52" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" ht="25" spans="1:35">
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" ht="25" spans="1:36">
       <c r="A53" s="134" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B53" s="135" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C53" s="137"/>
       <c r="D53" s="137"/>
@@ -9946,16 +10011,17 @@
       <c r="AF53" s="51"/>
       <c r="AG53" s="51"/>
       <c r="AH53" s="51"/>
-      <c r="AI53" s="194" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" ht="25" spans="1:35">
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="196" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" ht="25" spans="1:36">
       <c r="A54" s="134" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" s="135" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C54" s="137"/>
       <c r="D54" s="137"/>
@@ -10007,16 +10073,17 @@
       <c r="AF54" s="51"/>
       <c r="AG54" s="51"/>
       <c r="AH54" s="51"/>
-      <c r="AI54" s="194" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" ht="38" spans="1:35">
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="196" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" ht="38" spans="1:36">
       <c r="A55" s="134" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B55" s="135" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C55" s="137">
         <v>7.48</v>
@@ -10082,16 +10149,17 @@
       <c r="AF55" s="51"/>
       <c r="AG55" s="51"/>
       <c r="AH55" s="51"/>
-      <c r="AI55" s="194" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" ht="38" spans="1:35">
+      <c r="AI55" s="51"/>
+      <c r="AJ55" s="196" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" ht="38" spans="1:36">
       <c r="A56" s="134" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B56" s="135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C56" s="137"/>
       <c r="D56" s="137"/>
@@ -10143,16 +10211,17 @@
       <c r="AF56" s="51"/>
       <c r="AG56" s="51"/>
       <c r="AH56" s="51"/>
-      <c r="AI56" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" ht="38" spans="1:35">
+      <c r="AI56" s="51"/>
+      <c r="AJ56" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" ht="38" spans="1:36">
       <c r="A57" s="134" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B57" s="135" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C57" s="137"/>
       <c r="D57" s="137"/>
@@ -10204,16 +10273,17 @@
       <c r="AF57" s="51"/>
       <c r="AG57" s="51"/>
       <c r="AH57" s="51"/>
-      <c r="AI57" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" ht="25" spans="1:35">
+      <c r="AI57" s="51"/>
+      <c r="AJ57" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" ht="25" spans="1:36">
       <c r="A58" s="134" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B58" s="135" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C58" s="137"/>
       <c r="D58" s="137"/>
@@ -10265,16 +10335,17 @@
       <c r="AF58" s="51"/>
       <c r="AG58" s="51"/>
       <c r="AH58" s="51"/>
-      <c r="AI58" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" ht="38" spans="1:35">
+      <c r="AI58" s="51"/>
+      <c r="AJ58" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" ht="38" spans="1:36">
       <c r="A59" s="134" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B59" s="135" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C59" s="137"/>
       <c r="D59" s="137"/>
@@ -10326,16 +10397,17 @@
       <c r="AF59" s="51"/>
       <c r="AG59" s="51"/>
       <c r="AH59" s="51"/>
-      <c r="AI59" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" ht="25" spans="1:35">
+      <c r="AI59" s="51"/>
+      <c r="AJ59" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" ht="25" spans="1:36">
       <c r="A60" s="134" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B60" s="135" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C60" s="137">
         <v>14.81</v>
@@ -10393,7 +10465,7 @@
       <c r="W60" s="51"/>
       <c r="X60" s="51"/>
       <c r="Y60" s="51" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Z60" s="167">
         <f t="shared" ref="Z60:Z70" si="23">(I60-N60)/I60</f>
@@ -10416,16 +10488,17 @@
       <c r="AF60" s="51"/>
       <c r="AG60" s="51"/>
       <c r="AH60" s="51"/>
-      <c r="AI60" s="194" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" ht="25" spans="1:35">
+      <c r="AI60" s="51"/>
+      <c r="AJ60" s="196" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" ht="25" spans="1:36">
       <c r="A61" s="134" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B61" s="135" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" s="137"/>
       <c r="D61" s="137"/>
@@ -10474,16 +10547,17 @@
       <c r="AF61" s="51"/>
       <c r="AG61" s="51"/>
       <c r="AH61" s="51"/>
-      <c r="AI61" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" ht="25" spans="1:35">
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" ht="25" spans="1:36">
       <c r="A62" s="134" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B62" s="135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C62" s="137"/>
       <c r="D62" s="137"/>
@@ -10532,16 +10606,17 @@
       <c r="AF62" s="51"/>
       <c r="AG62" s="51"/>
       <c r="AH62" s="51"/>
-      <c r="AI62" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" ht="25" spans="1:35">
+      <c r="AI62" s="51"/>
+      <c r="AJ62" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" ht="25" spans="1:36">
       <c r="A63" s="134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B63" s="135" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C63" s="137"/>
       <c r="D63" s="137"/>
@@ -10590,16 +10665,17 @@
       <c r="AF63" s="51"/>
       <c r="AG63" s="51"/>
       <c r="AH63" s="51"/>
-      <c r="AI63" s="194" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" ht="25" spans="1:35">
+      <c r="AI63" s="51"/>
+      <c r="AJ63" s="196" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" ht="25" spans="1:36">
       <c r="A64" s="134" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64" s="135" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" s="136">
         <v>15.34</v>
@@ -10651,7 +10727,7 @@
       <c r="W64" s="136"/>
       <c r="X64" s="136"/>
       <c r="Y64" s="184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z64" s="167">
         <f t="shared" si="23"/>
@@ -10674,16 +10750,17 @@
       <c r="AF64" s="136"/>
       <c r="AG64" s="51"/>
       <c r="AH64" s="136"/>
-      <c r="AI64" s="194" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" ht="38" spans="1:35">
+      <c r="AI64" s="51"/>
+      <c r="AJ64" s="196" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" ht="38" spans="1:36">
       <c r="A65" s="134" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B65" s="135" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C65" s="137"/>
       <c r="D65" s="137"/>
@@ -10738,16 +10815,17 @@
       <c r="AF65" s="51"/>
       <c r="AG65" s="51"/>
       <c r="AH65" s="51"/>
-      <c r="AI65" s="194" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" ht="25" spans="1:35">
+      <c r="AI65" s="51"/>
+      <c r="AJ65" s="196" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" ht="25" spans="1:36">
       <c r="A66" s="134" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B66" s="135" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C66" s="137"/>
       <c r="D66" s="137"/>
@@ -10802,16 +10880,17 @@
       <c r="AF66" s="51"/>
       <c r="AG66" s="51"/>
       <c r="AH66" s="51"/>
-      <c r="AI66" s="194" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" ht="25" spans="1:35">
+      <c r="AI66" s="51"/>
+      <c r="AJ66" s="196" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" ht="25" spans="1:36">
       <c r="A67" s="134" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B67" s="135" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C67" s="137"/>
       <c r="D67" s="137"/>
@@ -10866,16 +10945,17 @@
       <c r="AF67" s="51"/>
       <c r="AG67" s="51"/>
       <c r="AH67" s="51"/>
-      <c r="AI67" s="194" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="68" s="118" customFormat="1" ht="25" spans="1:35">
-      <c r="A68" s="219" t="s">
+      <c r="AI67" s="51"/>
+      <c r="AJ67" s="196" t="s">
         <v>198</v>
       </c>
-      <c r="B68" s="196" t="s">
+    </row>
+    <row r="68" s="118" customFormat="1" ht="25" spans="1:36">
+      <c r="A68" s="221" t="s">
         <v>199</v>
+      </c>
+      <c r="B68" s="198" t="s">
+        <v>200</v>
       </c>
       <c r="C68" s="154">
         <v>20.66</v>
@@ -10929,7 +11009,7 @@
       <c r="W68" s="154"/>
       <c r="X68" s="154"/>
       <c r="Y68" s="154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z68" s="166">
         <f t="shared" si="23"/>
@@ -10952,16 +11032,17 @@
       <c r="AF68" s="154"/>
       <c r="AG68" s="154"/>
       <c r="AH68" s="154"/>
-      <c r="AI68" s="197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" s="9" customFormat="1" ht="25" spans="1:35">
-      <c r="A69" s="203">
+      <c r="AI68" s="154"/>
+      <c r="AJ68" s="199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" s="9" customFormat="1" ht="25" spans="1:36">
+      <c r="A69" s="205">
         <v>603688</v>
       </c>
-      <c r="B69" s="199" t="s">
-        <v>200</v>
+      <c r="B69" s="201" t="s">
+        <v>201</v>
       </c>
       <c r="C69" s="27">
         <v>37.35</v>
@@ -11019,7 +11100,7 @@
       <c r="W69" s="27"/>
       <c r="X69" s="27"/>
       <c r="Y69" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z69" s="183">
         <f t="shared" si="23"/>
@@ -11040,20 +11121,21 @@
       <c r="AD69" s="27"/>
       <c r="AE69" s="27"/>
       <c r="AF69" s="27"/>
-      <c r="AG69" s="199" t="s">
-        <v>201</v>
+      <c r="AG69" s="201" t="s">
+        <v>202</v>
       </c>
       <c r="AH69" s="27"/>
-      <c r="AI69" s="200" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" s="121" customFormat="1" ht="25" spans="1:35">
-      <c r="A70" s="203">
+      <c r="AI69" s="201"/>
+      <c r="AJ69" s="202" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" s="121" customFormat="1" ht="25" spans="1:36">
+      <c r="A70" s="205">
         <v>601677</v>
       </c>
-      <c r="B70" s="199" t="s">
-        <v>202</v>
+      <c r="B70" s="201" t="s">
+        <v>203</v>
       </c>
       <c r="C70" s="27">
         <v>28.03</v>
@@ -11119,7 +11201,7 @@
       <c r="W70" s="27"/>
       <c r="X70" s="27"/>
       <c r="Y70" s="27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z70" s="183">
         <f t="shared" si="23"/>
@@ -11140,64 +11222,66 @@
       <c r="AD70" s="27"/>
       <c r="AE70" s="27"/>
       <c r="AF70" s="27"/>
-      <c r="AG70" s="199" t="s">
-        <v>201</v>
+      <c r="AG70" s="201" t="s">
+        <v>202</v>
       </c>
       <c r="AH70" s="27"/>
-      <c r="AI70" s="200" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35">
-      <c r="A71" s="204">
+      <c r="AI70" s="201"/>
+      <c r="AJ70" s="202" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36">
+      <c r="A71" s="206">
         <v>600089</v>
       </c>
-      <c r="B71" s="205" t="s">
-        <v>203</v>
-      </c>
-      <c r="C71" s="206"/>
-      <c r="D71" s="206"/>
-      <c r="E71" s="206"/>
-      <c r="F71" s="206"/>
-      <c r="G71" s="206"/>
-      <c r="H71" s="206"/>
-      <c r="I71" s="206"/>
-      <c r="J71" s="212"/>
-      <c r="K71" s="206"/>
-      <c r="L71" s="206"/>
-      <c r="M71" s="215"/>
-      <c r="N71" s="206"/>
-      <c r="O71" s="206"/>
-      <c r="P71" s="206"/>
-      <c r="Q71" s="206"/>
-      <c r="R71" s="206"/>
-      <c r="S71" s="206"/>
-      <c r="T71" s="206"/>
-      <c r="U71" s="206"/>
-      <c r="V71" s="206"/>
-      <c r="W71" s="206"/>
-      <c r="X71" s="206"/>
-      <c r="Y71" s="206"/>
-      <c r="Z71" s="206"/>
-      <c r="AA71" s="206"/>
-      <c r="AB71" s="206"/>
+      <c r="B71" s="207" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="208"/>
+      <c r="D71" s="208"/>
+      <c r="E71" s="208"/>
+      <c r="F71" s="208"/>
+      <c r="G71" s="208"/>
+      <c r="H71" s="208"/>
+      <c r="I71" s="208"/>
+      <c r="J71" s="214"/>
+      <c r="K71" s="208"/>
+      <c r="L71" s="208"/>
+      <c r="M71" s="217"/>
+      <c r="N71" s="208"/>
+      <c r="O71" s="208"/>
+      <c r="P71" s="208"/>
+      <c r="Q71" s="208"/>
+      <c r="R71" s="208"/>
+      <c r="S71" s="208"/>
+      <c r="T71" s="208"/>
+      <c r="U71" s="208"/>
+      <c r="V71" s="208"/>
+      <c r="W71" s="208"/>
+      <c r="X71" s="208"/>
+      <c r="Y71" s="208"/>
+      <c r="Z71" s="208"/>
+      <c r="AA71" s="208"/>
+      <c r="AB71" s="208"/>
       <c r="AC71" s="161" t="e">
         <f t="shared" ref="AC71:AC86" si="28">(S71-T71)/S71</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD71" s="206"/>
-      <c r="AE71" s="206"/>
-      <c r="AF71" s="206"/>
-      <c r="AG71" s="206"/>
-      <c r="AH71" s="206"/>
-      <c r="AI71" s="206"/>
-    </row>
-    <row r="72" spans="1:35">
-      <c r="A72" s="204">
+      <c r="AD71" s="208"/>
+      <c r="AE71" s="208"/>
+      <c r="AF71" s="208"/>
+      <c r="AG71" s="208"/>
+      <c r="AH71" s="208"/>
+      <c r="AI71" s="208"/>
+      <c r="AJ71" s="208"/>
+    </row>
+    <row r="72" spans="1:36">
+      <c r="A72" s="206">
         <v>605369</v>
       </c>
-      <c r="B72" s="205" t="s">
-        <v>204</v>
+      <c r="B72" s="207" t="s">
+        <v>205</v>
       </c>
       <c r="C72" s="51"/>
       <c r="D72" s="51"/>
@@ -11235,13 +11319,14 @@
       <c r="AG72" s="51"/>
       <c r="AH72" s="51"/>
       <c r="AI72" s="51"/>
-    </row>
-    <row r="73" spans="1:35">
-      <c r="A73" s="220" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" s="205" t="s">
+      <c r="AJ72" s="51"/>
+    </row>
+    <row r="73" spans="1:36">
+      <c r="A73" s="222" t="s">
         <v>206</v>
+      </c>
+      <c r="B73" s="207" t="s">
+        <v>207</v>
       </c>
       <c r="C73" s="51"/>
       <c r="D73" s="51"/>
@@ -11279,13 +11364,14 @@
       <c r="AG73" s="51"/>
       <c r="AH73" s="51"/>
       <c r="AI73" s="51"/>
-    </row>
-    <row r="74" s="9" customFormat="1" ht="25" spans="1:35">
-      <c r="A74" s="221" t="s">
-        <v>207</v>
-      </c>
-      <c r="B74" s="199" t="s">
+      <c r="AJ73" s="51"/>
+    </row>
+    <row r="74" s="9" customFormat="1" ht="25" spans="1:36">
+      <c r="A74" s="223" t="s">
         <v>208</v>
+      </c>
+      <c r="B74" s="201" t="s">
+        <v>209</v>
       </c>
       <c r="C74" s="27">
         <v>86.16</v>
@@ -11339,7 +11425,7 @@
       <c r="W74" s="27"/>
       <c r="X74" s="27"/>
       <c r="Y74" s="27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Z74" s="183">
         <f t="shared" ref="Z74:Z86" si="32">(I74-N74)/I74</f>
@@ -11362,16 +11448,17 @@
       <c r="AF74" s="27"/>
       <c r="AG74" s="27"/>
       <c r="AH74" s="27"/>
-      <c r="AI74" s="200" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" ht="25" spans="1:35">
-      <c r="A75" s="220" t="s">
-        <v>210</v>
-      </c>
-      <c r="B75" s="205" t="s">
+      <c r="AI74" s="27"/>
+      <c r="AJ74" s="202" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" ht="25" spans="1:36">
+      <c r="A75" s="222" t="s">
         <v>211</v>
+      </c>
+      <c r="B75" s="207" t="s">
+        <v>212</v>
       </c>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
@@ -11380,7 +11467,7 @@
       <c r="G75" s="59"/>
       <c r="H75" s="59"/>
       <c r="I75" s="59"/>
-      <c r="J75" s="213"/>
+      <c r="J75" s="215"/>
       <c r="K75" s="161" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -11426,16 +11513,17 @@
       <c r="AF75" s="51"/>
       <c r="AG75" s="51"/>
       <c r="AH75" s="51"/>
-      <c r="AI75" s="194" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" s="118" customFormat="1" ht="25" spans="1:35">
-      <c r="A76" s="222" t="s">
-        <v>212</v>
-      </c>
-      <c r="B76" s="196" t="s">
+      <c r="AI75" s="51"/>
+      <c r="AJ75" s="196" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" s="118" customFormat="1" ht="25" spans="1:36">
+      <c r="A76" s="224" t="s">
         <v>213</v>
+      </c>
+      <c r="B76" s="198" t="s">
+        <v>214</v>
       </c>
       <c r="C76" s="154">
         <v>13.54</v>
@@ -11489,7 +11577,7 @@
       <c r="W76" s="154"/>
       <c r="X76" s="154"/>
       <c r="Y76" s="154" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z76" s="166">
         <f t="shared" si="32"/>
@@ -11512,16 +11600,17 @@
       <c r="AF76" s="154"/>
       <c r="AG76" s="154"/>
       <c r="AH76" s="154"/>
-      <c r="AI76" s="197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" ht="38" spans="1:35">
-      <c r="A77" s="204">
+      <c r="AI76" s="154"/>
+      <c r="AJ76" s="199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" ht="38" spans="1:36">
+      <c r="A77" s="206">
         <v>600392</v>
       </c>
-      <c r="B77" s="205" t="s">
-        <v>214</v>
+      <c r="B77" s="207" t="s">
+        <v>215</v>
       </c>
       <c r="C77" s="51">
         <v>21.01</v>
@@ -11590,16 +11679,17 @@
       <c r="AF77" s="51"/>
       <c r="AG77" s="51"/>
       <c r="AH77" s="51"/>
-      <c r="AI77" s="194" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="78" s="117" customFormat="1" ht="25" spans="1:35">
+      <c r="AI77" s="51"/>
+      <c r="AJ77" s="196" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" s="117" customFormat="1" ht="25" spans="1:36">
       <c r="A78" s="60">
         <v>601016</v>
       </c>
-      <c r="B78" s="208" t="s">
-        <v>216</v>
+      <c r="B78" s="210" t="s">
+        <v>217</v>
       </c>
       <c r="C78" s="59">
         <v>5.14</v>
@@ -11620,7 +11710,7 @@
       <c r="I78" s="59">
         <v>8.15</v>
       </c>
-      <c r="J78" s="213">
+      <c r="J78" s="215">
         <v>4.39</v>
       </c>
       <c r="K78" s="161">
@@ -11657,7 +11747,7 @@
       <c r="W78" s="59"/>
       <c r="X78" s="59"/>
       <c r="Y78" s="59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z78" s="167">
         <f t="shared" si="32"/>
@@ -11680,16 +11770,17 @@
       <c r="AF78" s="59"/>
       <c r="AG78" s="59"/>
       <c r="AH78" s="59"/>
-      <c r="AI78" s="195" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" s="118" customFormat="1" ht="25" spans="1:35">
-      <c r="A79" s="207">
+      <c r="AI78" s="59"/>
+      <c r="AJ78" s="197" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" s="118" customFormat="1" ht="25" spans="1:36">
+      <c r="A79" s="209">
         <v>600821</v>
       </c>
-      <c r="B79" s="196" t="s">
-        <v>217</v>
+      <c r="B79" s="198" t="s">
+        <v>218</v>
       </c>
       <c r="C79" s="154"/>
       <c r="D79" s="154"/>
@@ -11741,7 +11832,7 @@
       <c r="W79" s="154"/>
       <c r="X79" s="154"/>
       <c r="Y79" s="154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z79" s="166">
         <f t="shared" si="32"/>
@@ -11762,20 +11853,21 @@
       <c r="AD79" s="154"/>
       <c r="AE79" s="154"/>
       <c r="AF79" s="154"/>
-      <c r="AG79" s="196" t="s">
-        <v>201</v>
+      <c r="AG79" s="198" t="s">
+        <v>202</v>
       </c>
       <c r="AH79" s="154"/>
-      <c r="AI79" s="197" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" ht="25" spans="1:35">
-      <c r="A80" s="220" t="s">
+      <c r="AI79" s="198"/>
+      <c r="AJ79" s="199" t="s">
         <v>219</v>
       </c>
-      <c r="B80" s="205" t="s">
+    </row>
+    <row r="80" ht="25" spans="1:36">
+      <c r="A80" s="222" t="s">
         <v>220</v>
+      </c>
+      <c r="B80" s="207" t="s">
+        <v>221</v>
       </c>
       <c r="C80" s="51"/>
       <c r="D80" s="51"/>
@@ -11827,7 +11919,7 @@
       <c r="W80" s="51"/>
       <c r="X80" s="51"/>
       <c r="Y80" s="51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z80" s="167">
         <f t="shared" si="32"/>
@@ -11850,16 +11942,17 @@
       <c r="AF80" s="51"/>
       <c r="AG80" s="51"/>
       <c r="AH80" s="51"/>
-      <c r="AI80" s="194" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" ht="25" spans="1:35">
-      <c r="A81" s="220" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="205" t="s">
+      <c r="AI80" s="51"/>
+      <c r="AJ80" s="196" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" ht="25" spans="1:36">
+      <c r="A81" s="222" t="s">
         <v>222</v>
+      </c>
+      <c r="B81" s="207" t="s">
+        <v>223</v>
       </c>
       <c r="C81" s="51"/>
       <c r="D81" s="51"/>
@@ -11908,16 +12001,17 @@
       <c r="AF81" s="51"/>
       <c r="AG81" s="51"/>
       <c r="AH81" s="51"/>
-      <c r="AI81" s="194" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="82" ht="25" spans="1:35">
-      <c r="A82" s="204">
+      <c r="AI81" s="51"/>
+      <c r="AJ81" s="196" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" ht="25" spans="1:36">
+      <c r="A82" s="206">
         <v>600956</v>
       </c>
-      <c r="B82" s="205" t="s">
-        <v>223</v>
+      <c r="B82" s="207" t="s">
+        <v>224</v>
       </c>
       <c r="C82" s="51"/>
       <c r="D82" s="51"/>
@@ -11966,16 +12060,17 @@
       <c r="AF82" s="51"/>
       <c r="AG82" s="51"/>
       <c r="AH82" s="51"/>
-      <c r="AI82" s="194" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="83" s="9" customFormat="1" ht="25" spans="1:35">
-      <c r="A83" s="209" t="s">
-        <v>224</v>
-      </c>
-      <c r="B83" s="199" t="s">
+      <c r="AI82" s="51"/>
+      <c r="AJ82" s="196" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="83" s="9" customFormat="1" ht="25" spans="1:36">
+      <c r="A83" s="211" t="s">
         <v>225</v>
+      </c>
+      <c r="B83" s="201" t="s">
+        <v>226</v>
       </c>
       <c r="C83" s="148">
         <v>44.31</v>
@@ -12026,10 +12121,10 @@
       <c r="R83" s="148">
         <v>46.13</v>
       </c>
-      <c r="S83" s="217">
+      <c r="S83" s="219">
         <v>49.4</v>
       </c>
-      <c r="T83" s="217">
+      <c r="T83" s="219">
         <v>46.7</v>
       </c>
       <c r="U83" s="148"/>
@@ -12037,7 +12132,7 @@
       <c r="W83" s="148"/>
       <c r="X83" s="148"/>
       <c r="Y83" s="148" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z83" s="183">
         <f t="shared" si="32"/>
@@ -12061,22 +12156,23 @@
       </c>
       <c r="AE83" s="148"/>
       <c r="AF83" s="148" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG83" s="199" t="s">
         <v>227</v>
       </c>
+      <c r="AG83" s="201" t="s">
+        <v>228</v>
+      </c>
       <c r="AH83" s="148"/>
-      <c r="AI83" s="218" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" s="118" customFormat="1" ht="25" spans="1:35">
-      <c r="A84" s="210" t="s">
+      <c r="AI83" s="201"/>
+      <c r="AJ83" s="220" t="s">
         <v>229</v>
       </c>
-      <c r="B84" s="196" t="s">
+    </row>
+    <row r="84" s="118" customFormat="1" ht="25" spans="1:36">
+      <c r="A84" s="212" t="s">
         <v>230</v>
+      </c>
+      <c r="B84" s="198" t="s">
+        <v>231</v>
       </c>
       <c r="C84" s="142">
         <v>7.39</v>
@@ -12138,7 +12234,7 @@
       <c r="W84" s="142"/>
       <c r="X84" s="142"/>
       <c r="Y84" s="146" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z84" s="164">
         <f t="shared" si="32"/>
@@ -12162,20 +12258,21 @@
       </c>
       <c r="AE84" s="142"/>
       <c r="AF84" s="142" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG84" s="154"/>
       <c r="AH84" s="142"/>
-      <c r="AI84" s="197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" s="122" customFormat="1" ht="25" spans="1:35">
-      <c r="A85" s="210" t="s">
-        <v>231</v>
+      <c r="AI84" s="154"/>
+      <c r="AJ84" s="199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" s="122" customFormat="1" ht="25" spans="1:36">
+      <c r="A85" s="212" t="s">
+        <v>232</v>
       </c>
       <c r="B85" s="154" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C85" s="142">
         <v>14.33</v>
@@ -12229,7 +12326,7 @@
       <c r="W85" s="142"/>
       <c r="X85" s="142"/>
       <c r="Y85" s="142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z85" s="166">
         <f t="shared" si="32"/>
@@ -12255,16 +12352,17 @@
       <c r="AF85" s="154"/>
       <c r="AG85" s="154"/>
       <c r="AH85" s="154"/>
-      <c r="AI85" s="197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" s="122" customFormat="1" ht="25" spans="1:35">
+      <c r="AI85" s="154"/>
+      <c r="AJ85" s="199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" s="122" customFormat="1" ht="25" spans="1:36">
       <c r="A86" s="154">
         <v>605028</v>
       </c>
-      <c r="B86" s="196" t="s">
-        <v>233</v>
+      <c r="B86" s="198" t="s">
+        <v>234</v>
       </c>
       <c r="C86" s="154">
         <v>23.08</v>
@@ -12330,7 +12428,7 @@
       <c r="W86" s="154"/>
       <c r="X86" s="154"/>
       <c r="Y86" s="154" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z86" s="166">
         <f t="shared" si="32"/>
@@ -12356,12 +12454,13 @@
       <c r="AF86" s="154"/>
       <c r="AG86" s="154"/>
       <c r="AH86" s="154"/>
-      <c r="AI86" s="197" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" spans="1:35">
-      <c r="A87" s="211"/>
+      <c r="AI86" s="154"/>
+      <c r="AJ86" s="199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36">
+      <c r="A87" s="213"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -12370,10 +12469,10 @@
       <c r="G87" s="8"/>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
-      <c r="J87" s="214"/>
+      <c r="J87" s="216"/>
       <c r="K87" s="8"/>
       <c r="L87" s="8"/>
-      <c r="M87" s="216"/>
+      <c r="M87" s="218"/>
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
@@ -12396,9 +12495,10 @@
       <c r="AG87" s="8"/>
       <c r="AH87" s="8"/>
       <c r="AI87" s="8"/>
-    </row>
-    <row r="88" spans="1:35">
-      <c r="A88" s="211"/>
+      <c r="AJ87" s="8"/>
+    </row>
+    <row r="88" spans="1:36">
+      <c r="A88" s="213"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -12407,10 +12507,10 @@
       <c r="G88" s="8"/>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="214"/>
+      <c r="J88" s="216"/>
       <c r="K88" s="8"/>
       <c r="L88" s="8"/>
-      <c r="M88" s="216"/>
+      <c r="M88" s="218"/>
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
@@ -12433,9 +12533,10 @@
       <c r="AG88" s="8"/>
       <c r="AH88" s="8"/>
       <c r="AI88" s="8"/>
-    </row>
-    <row r="89" spans="1:35">
-      <c r="A89" s="211"/>
+      <c r="AJ88" s="8"/>
+    </row>
+    <row r="89" spans="1:36">
+      <c r="A89" s="213"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -12444,10 +12545,10 @@
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="214"/>
+      <c r="J89" s="216"/>
       <c r="K89" s="8"/>
       <c r="L89" s="8"/>
-      <c r="M89" s="216"/>
+      <c r="M89" s="218"/>
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
@@ -12470,9 +12571,10 @@
       <c r="AG89" s="8"/>
       <c r="AH89" s="8"/>
       <c r="AI89" s="8"/>
-    </row>
-    <row r="90" spans="1:35">
-      <c r="A90" s="211"/>
+      <c r="AJ89" s="8"/>
+    </row>
+    <row r="90" spans="1:36">
+      <c r="A90" s="213"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
@@ -12481,10 +12583,10 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
-      <c r="J90" s="214"/>
+      <c r="J90" s="216"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8"/>
-      <c r="M90" s="216"/>
+      <c r="M90" s="218"/>
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
@@ -12507,9 +12609,10 @@
       <c r="AG90" s="8"/>
       <c r="AH90" s="8"/>
       <c r="AI90" s="8"/>
-    </row>
-    <row r="91" spans="1:35">
-      <c r="A91" s="211"/>
+      <c r="AJ90" s="8"/>
+    </row>
+    <row r="91" spans="1:36">
+      <c r="A91" s="213"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
@@ -12518,10 +12621,10 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
-      <c r="J91" s="214"/>
+      <c r="J91" s="216"/>
       <c r="K91" s="8"/>
       <c r="L91" s="8"/>
-      <c r="M91" s="216"/>
+      <c r="M91" s="218"/>
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
@@ -12544,9 +12647,10 @@
       <c r="AG91" s="8"/>
       <c r="AH91" s="8"/>
       <c r="AI91" s="8"/>
-    </row>
-    <row r="92" spans="1:35">
-      <c r="A92" s="211"/>
+      <c r="AJ91" s="8"/>
+    </row>
+    <row r="92" spans="1:36">
+      <c r="A92" s="213"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
@@ -12555,10 +12659,10 @@
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>
-      <c r="J92" s="214"/>
+      <c r="J92" s="216"/>
       <c r="K92" s="8"/>
       <c r="L92" s="8"/>
-      <c r="M92" s="216"/>
+      <c r="M92" s="218"/>
       <c r="N92" s="8"/>
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
@@ -12581,9 +12685,10 @@
       <c r="AG92" s="8"/>
       <c r="AH92" s="8"/>
       <c r="AI92" s="8"/>
-    </row>
-    <row r="93" spans="1:35">
-      <c r="A93" s="211"/>
+      <c r="AJ92" s="8"/>
+    </row>
+    <row r="93" spans="1:36">
+      <c r="A93" s="213"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -12592,10 +12697,10 @@
       <c r="G93" s="8"/>
       <c r="H93" s="8"/>
       <c r="I93" s="8"/>
-      <c r="J93" s="214"/>
+      <c r="J93" s="216"/>
       <c r="K93" s="8"/>
       <c r="L93" s="8"/>
-      <c r="M93" s="216"/>
+      <c r="M93" s="218"/>
       <c r="N93" s="8"/>
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
@@ -12618,9 +12723,10 @@
       <c r="AG93" s="8"/>
       <c r="AH93" s="8"/>
       <c r="AI93" s="8"/>
-    </row>
-    <row r="94" spans="1:35">
-      <c r="A94" s="211"/>
+      <c r="AJ93" s="8"/>
+    </row>
+    <row r="94" spans="1:36">
+      <c r="A94" s="213"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
@@ -12629,10 +12735,10 @@
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="8"/>
-      <c r="J94" s="214"/>
+      <c r="J94" s="216"/>
       <c r="K94" s="8"/>
       <c r="L94" s="8"/>
-      <c r="M94" s="216"/>
+      <c r="M94" s="218"/>
       <c r="N94" s="8"/>
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
@@ -12655,9 +12761,10 @@
       <c r="AG94" s="8"/>
       <c r="AH94" s="8"/>
       <c r="AI94" s="8"/>
-    </row>
-    <row r="95" spans="1:35">
-      <c r="A95" s="211"/>
+      <c r="AJ94" s="8"/>
+    </row>
+    <row r="95" spans="1:36">
+      <c r="A95" s="213"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
@@ -12666,10 +12773,10 @@
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" s="8"/>
-      <c r="J95" s="214"/>
+      <c r="J95" s="216"/>
       <c r="K95" s="8"/>
       <c r="L95" s="8"/>
-      <c r="M95" s="216"/>
+      <c r="M95" s="218"/>
       <c r="N95" s="8"/>
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
@@ -12692,9 +12799,10 @@
       <c r="AG95" s="8"/>
       <c r="AH95" s="8"/>
       <c r="AI95" s="8"/>
-    </row>
-    <row r="96" spans="1:35">
-      <c r="A96" s="211"/>
+      <c r="AJ95" s="8"/>
+    </row>
+    <row r="96" spans="1:36">
+      <c r="A96" s="213"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -12703,10 +12811,10 @@
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" s="8"/>
-      <c r="J96" s="214"/>
+      <c r="J96" s="216"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8"/>
-      <c r="M96" s="216"/>
+      <c r="M96" s="218"/>
       <c r="N96" s="8"/>
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
@@ -12729,9 +12837,10 @@
       <c r="AG96" s="8"/>
       <c r="AH96" s="8"/>
       <c r="AI96" s="8"/>
-    </row>
-    <row r="97" spans="1:35">
-      <c r="A97" s="211"/>
+      <c r="AJ96" s="8"/>
+    </row>
+    <row r="97" spans="1:36">
+      <c r="A97" s="213"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
@@ -12740,10 +12849,10 @@
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="8"/>
-      <c r="J97" s="214"/>
+      <c r="J97" s="216"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8"/>
-      <c r="M97" s="216"/>
+      <c r="M97" s="218"/>
       <c r="N97" s="8"/>
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
@@ -12766,9 +12875,10 @@
       <c r="AG97" s="8"/>
       <c r="AH97" s="8"/>
       <c r="AI97" s="8"/>
-    </row>
-    <row r="98" spans="1:35">
-      <c r="A98" s="211"/>
+      <c r="AJ97" s="8"/>
+    </row>
+    <row r="98" spans="1:36">
+      <c r="A98" s="213"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
@@ -12777,10 +12887,10 @@
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="8"/>
-      <c r="J98" s="214"/>
+      <c r="J98" s="216"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8"/>
-      <c r="M98" s="216"/>
+      <c r="M98" s="218"/>
       <c r="N98" s="8"/>
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
@@ -12803,9 +12913,10 @@
       <c r="AG98" s="8"/>
       <c r="AH98" s="8"/>
       <c r="AI98" s="8"/>
-    </row>
-    <row r="99" spans="1:35">
-      <c r="A99" s="211"/>
+      <c r="AJ98" s="8"/>
+    </row>
+    <row r="99" spans="1:36">
+      <c r="A99" s="213"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
@@ -12814,10 +12925,10 @@
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="8"/>
-      <c r="J99" s="214"/>
+      <c r="J99" s="216"/>
       <c r="K99" s="8"/>
       <c r="L99" s="8"/>
-      <c r="M99" s="216"/>
+      <c r="M99" s="218"/>
       <c r="N99" s="8"/>
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
@@ -12840,9 +12951,10 @@
       <c r="AG99" s="8"/>
       <c r="AH99" s="8"/>
       <c r="AI99" s="8"/>
-    </row>
-    <row r="100" spans="1:35">
-      <c r="A100" s="211"/>
+      <c r="AJ99" s="8"/>
+    </row>
+    <row r="100" spans="1:36">
+      <c r="A100" s="213"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
@@ -12851,10 +12963,10 @@
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="8"/>
-      <c r="J100" s="214"/>
+      <c r="J100" s="216"/>
       <c r="K100" s="8"/>
       <c r="L100" s="8"/>
-      <c r="M100" s="216"/>
+      <c r="M100" s="218"/>
       <c r="N100" s="8"/>
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
@@ -12877,9 +12989,10 @@
       <c r="AG100" s="8"/>
       <c r="AH100" s="8"/>
       <c r="AI100" s="8"/>
-    </row>
-    <row r="101" spans="1:35">
-      <c r="A101" s="211"/>
+      <c r="AJ100" s="8"/>
+    </row>
+    <row r="101" spans="1:36">
+      <c r="A101" s="213"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
@@ -12888,10 +13001,10 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
       <c r="I101" s="8"/>
-      <c r="J101" s="214"/>
+      <c r="J101" s="216"/>
       <c r="K101" s="8"/>
       <c r="L101" s="8"/>
-      <c r="M101" s="216"/>
+      <c r="M101" s="218"/>
       <c r="N101" s="8"/>
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
@@ -12914,9 +13027,10 @@
       <c r="AG101" s="8"/>
       <c r="AH101" s="8"/>
       <c r="AI101" s="8"/>
-    </row>
-    <row r="102" spans="1:35">
-      <c r="A102" s="211"/>
+      <c r="AJ101" s="8"/>
+    </row>
+    <row r="102" spans="1:36">
+      <c r="A102" s="213"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
@@ -12925,10 +13039,10 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
       <c r="I102" s="8"/>
-      <c r="J102" s="214"/>
+      <c r="J102" s="216"/>
       <c r="K102" s="8"/>
       <c r="L102" s="8"/>
-      <c r="M102" s="216"/>
+      <c r="M102" s="218"/>
       <c r="N102" s="8"/>
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
@@ -12951,9 +13065,10 @@
       <c r="AG102" s="8"/>
       <c r="AH102" s="8"/>
       <c r="AI102" s="8"/>
-    </row>
-    <row r="103" spans="1:35">
-      <c r="A103" s="211"/>
+      <c r="AJ102" s="8"/>
+    </row>
+    <row r="103" spans="1:36">
+      <c r="A103" s="213"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
@@ -12962,10 +13077,10 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
       <c r="I103" s="8"/>
-      <c r="J103" s="214"/>
+      <c r="J103" s="216"/>
       <c r="K103" s="8"/>
       <c r="L103" s="8"/>
-      <c r="M103" s="216"/>
+      <c r="M103" s="218"/>
       <c r="N103" s="8"/>
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
@@ -12988,9 +13103,10 @@
       <c r="AG103" s="8"/>
       <c r="AH103" s="8"/>
       <c r="AI103" s="8"/>
-    </row>
-    <row r="104" spans="1:35">
-      <c r="A104" s="211"/>
+      <c r="AJ103" s="8"/>
+    </row>
+    <row r="104" spans="1:36">
+      <c r="A104" s="213"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
@@ -12999,10 +13115,10 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
       <c r="I104" s="8"/>
-      <c r="J104" s="214"/>
+      <c r="J104" s="216"/>
       <c r="K104" s="8"/>
       <c r="L104" s="8"/>
-      <c r="M104" s="216"/>
+      <c r="M104" s="218"/>
       <c r="N104" s="8"/>
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
@@ -13025,9 +13141,10 @@
       <c r="AG104" s="8"/>
       <c r="AH104" s="8"/>
       <c r="AI104" s="8"/>
-    </row>
-    <row r="105" spans="1:35">
-      <c r="A105" s="211"/>
+      <c r="AJ104" s="8"/>
+    </row>
+    <row r="105" spans="1:36">
+      <c r="A105" s="213"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
@@ -13036,10 +13153,10 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
       <c r="I105" s="8"/>
-      <c r="J105" s="214"/>
+      <c r="J105" s="216"/>
       <c r="K105" s="8"/>
       <c r="L105" s="8"/>
-      <c r="M105" s="216"/>
+      <c r="M105" s="218"/>
       <c r="N105" s="8"/>
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
@@ -13062,9 +13179,10 @@
       <c r="AG105" s="8"/>
       <c r="AH105" s="8"/>
       <c r="AI105" s="8"/>
-    </row>
-    <row r="106" spans="1:35">
-      <c r="A106" s="211"/>
+      <c r="AJ105" s="8"/>
+    </row>
+    <row r="106" spans="1:36">
+      <c r="A106" s="213"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -13073,10 +13191,10 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
       <c r="I106" s="8"/>
-      <c r="J106" s="214"/>
+      <c r="J106" s="216"/>
       <c r="K106" s="8"/>
       <c r="L106" s="8"/>
-      <c r="M106" s="216"/>
+      <c r="M106" s="218"/>
       <c r="N106" s="8"/>
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
@@ -13099,9 +13217,10 @@
       <c r="AG106" s="8"/>
       <c r="AH106" s="8"/>
       <c r="AI106" s="8"/>
-    </row>
-    <row r="107" spans="1:35">
-      <c r="A107" s="211"/>
+      <c r="AJ106" s="8"/>
+    </row>
+    <row r="107" spans="1:36">
+      <c r="A107" s="213"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
@@ -13110,10 +13229,10 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
       <c r="I107" s="8"/>
-      <c r="J107" s="214"/>
+      <c r="J107" s="216"/>
       <c r="K107" s="8"/>
       <c r="L107" s="8"/>
-      <c r="M107" s="216"/>
+      <c r="M107" s="218"/>
       <c r="N107" s="8"/>
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
@@ -13136,9 +13255,10 @@
       <c r="AG107" s="8"/>
       <c r="AH107" s="8"/>
       <c r="AI107" s="8"/>
-    </row>
-    <row r="108" spans="1:35">
-      <c r="A108" s="211"/>
+      <c r="AJ107" s="8"/>
+    </row>
+    <row r="108" spans="1:36">
+      <c r="A108" s="213"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
@@ -13147,10 +13267,10 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
       <c r="I108" s="8"/>
-      <c r="J108" s="214"/>
+      <c r="J108" s="216"/>
       <c r="K108" s="8"/>
       <c r="L108" s="8"/>
-      <c r="M108" s="216"/>
+      <c r="M108" s="218"/>
       <c r="N108" s="8"/>
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
@@ -13173,9 +13293,10 @@
       <c r="AG108" s="8"/>
       <c r="AH108" s="8"/>
       <c r="AI108" s="8"/>
-    </row>
-    <row r="109" spans="1:35">
-      <c r="A109" s="211"/>
+      <c r="AJ108" s="8"/>
+    </row>
+    <row r="109" spans="1:36">
+      <c r="A109" s="213"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
@@ -13184,10 +13305,10 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
       <c r="I109" s="8"/>
-      <c r="J109" s="214"/>
+      <c r="J109" s="216"/>
       <c r="K109" s="8"/>
       <c r="L109" s="8"/>
-      <c r="M109" s="216"/>
+      <c r="M109" s="218"/>
       <c r="N109" s="8"/>
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
@@ -13210,9 +13331,10 @@
       <c r="AG109" s="8"/>
       <c r="AH109" s="8"/>
       <c r="AI109" s="8"/>
-    </row>
-    <row r="110" spans="1:35">
-      <c r="A110" s="211"/>
+      <c r="AJ109" s="8"/>
+    </row>
+    <row r="110" spans="1:36">
+      <c r="A110" s="213"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
@@ -13221,10 +13343,10 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
       <c r="I110" s="8"/>
-      <c r="J110" s="214"/>
+      <c r="J110" s="216"/>
       <c r="K110" s="8"/>
       <c r="L110" s="8"/>
-      <c r="M110" s="216"/>
+      <c r="M110" s="218"/>
       <c r="N110" s="8"/>
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
@@ -13247,9 +13369,10 @@
       <c r="AG110" s="8"/>
       <c r="AH110" s="8"/>
       <c r="AI110" s="8"/>
-    </row>
-    <row r="111" spans="1:35">
-      <c r="A111" s="211"/>
+      <c r="AJ110" s="8"/>
+    </row>
+    <row r="111" spans="1:36">
+      <c r="A111" s="213"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
@@ -13258,10 +13381,10 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
       <c r="I111" s="8"/>
-      <c r="J111" s="214"/>
+      <c r="J111" s="216"/>
       <c r="K111" s="8"/>
       <c r="L111" s="8"/>
-      <c r="M111" s="216"/>
+      <c r="M111" s="218"/>
       <c r="N111" s="8"/>
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
@@ -13284,9 +13407,10 @@
       <c r="AG111" s="8"/>
       <c r="AH111" s="8"/>
       <c r="AI111" s="8"/>
-    </row>
-    <row r="112" spans="1:35">
-      <c r="A112" s="211"/>
+      <c r="AJ111" s="8"/>
+    </row>
+    <row r="112" spans="1:36">
+      <c r="A112" s="213"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -13295,10 +13419,10 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
       <c r="I112" s="8"/>
-      <c r="J112" s="214"/>
+      <c r="J112" s="216"/>
       <c r="K112" s="8"/>
       <c r="L112" s="8"/>
-      <c r="M112" s="216"/>
+      <c r="M112" s="218"/>
       <c r="N112" s="8"/>
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
@@ -13321,9 +13445,10 @@
       <c r="AG112" s="8"/>
       <c r="AH112" s="8"/>
       <c r="AI112" s="8"/>
-    </row>
-    <row r="113" spans="1:35">
-      <c r="A113" s="211"/>
+      <c r="AJ112" s="8"/>
+    </row>
+    <row r="113" spans="1:36">
+      <c r="A113" s="213"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
@@ -13332,10 +13457,10 @@
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
       <c r="I113" s="8"/>
-      <c r="J113" s="214"/>
+      <c r="J113" s="216"/>
       <c r="K113" s="8"/>
       <c r="L113" s="8"/>
-      <c r="M113" s="216"/>
+      <c r="M113" s="218"/>
       <c r="N113" s="8"/>
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
@@ -13358,9 +13483,10 @@
       <c r="AG113" s="8"/>
       <c r="AH113" s="8"/>
       <c r="AI113" s="8"/>
-    </row>
-    <row r="114" spans="1:35">
-      <c r="A114" s="211"/>
+      <c r="AJ113" s="8"/>
+    </row>
+    <row r="114" spans="1:36">
+      <c r="A114" s="213"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
@@ -13369,10 +13495,10 @@
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
       <c r="I114" s="8"/>
-      <c r="J114" s="214"/>
+      <c r="J114" s="216"/>
       <c r="K114" s="8"/>
       <c r="L114" s="8"/>
-      <c r="M114" s="216"/>
+      <c r="M114" s="218"/>
       <c r="N114" s="8"/>
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
@@ -13395,9 +13521,10 @@
       <c r="AG114" s="8"/>
       <c r="AH114" s="8"/>
       <c r="AI114" s="8"/>
-    </row>
-    <row r="115" spans="1:35">
-      <c r="A115" s="211"/>
+      <c r="AJ114" s="8"/>
+    </row>
+    <row r="115" spans="1:36">
+      <c r="A115" s="213"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
@@ -13406,10 +13533,10 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
       <c r="I115" s="8"/>
-      <c r="J115" s="214"/>
+      <c r="J115" s="216"/>
       <c r="K115" s="8"/>
       <c r="L115" s="8"/>
-      <c r="M115" s="216"/>
+      <c r="M115" s="218"/>
       <c r="N115" s="8"/>
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
@@ -13432,9 +13559,10 @@
       <c r="AG115" s="8"/>
       <c r="AH115" s="8"/>
       <c r="AI115" s="8"/>
-    </row>
-    <row r="116" spans="1:35">
-      <c r="A116" s="211"/>
+      <c r="AJ115" s="8"/>
+    </row>
+    <row r="116" spans="1:36">
+      <c r="A116" s="213"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
@@ -13443,10 +13571,10 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
       <c r="I116" s="8"/>
-      <c r="J116" s="214"/>
+      <c r="J116" s="216"/>
       <c r="K116" s="8"/>
       <c r="L116" s="8"/>
-      <c r="M116" s="216"/>
+      <c r="M116" s="218"/>
       <c r="N116" s="8"/>
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
@@ -13469,9 +13597,10 @@
       <c r="AG116" s="8"/>
       <c r="AH116" s="8"/>
       <c r="AI116" s="8"/>
-    </row>
-    <row r="117" spans="1:35">
-      <c r="A117" s="211"/>
+      <c r="AJ116" s="8"/>
+    </row>
+    <row r="117" spans="1:36">
+      <c r="A117" s="213"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
@@ -13480,10 +13609,10 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
       <c r="I117" s="8"/>
-      <c r="J117" s="214"/>
+      <c r="J117" s="216"/>
       <c r="K117" s="8"/>
       <c r="L117" s="8"/>
-      <c r="M117" s="216"/>
+      <c r="M117" s="218"/>
       <c r="N117" s="8"/>
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
@@ -13506,9 +13635,10 @@
       <c r="AG117" s="8"/>
       <c r="AH117" s="8"/>
       <c r="AI117" s="8"/>
-    </row>
-    <row r="118" spans="1:35">
-      <c r="A118" s="211"/>
+      <c r="AJ117" s="8"/>
+    </row>
+    <row r="118" spans="1:36">
+      <c r="A118" s="213"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -13517,10 +13647,10 @@
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
       <c r="I118" s="8"/>
-      <c r="J118" s="214"/>
+      <c r="J118" s="216"/>
       <c r="K118" s="8"/>
       <c r="L118" s="8"/>
-      <c r="M118" s="216"/>
+      <c r="M118" s="218"/>
       <c r="N118" s="8"/>
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
@@ -13543,9 +13673,10 @@
       <c r="AG118" s="8"/>
       <c r="AH118" s="8"/>
       <c r="AI118" s="8"/>
-    </row>
-    <row r="119" spans="1:35">
-      <c r="A119" s="211"/>
+      <c r="AJ118" s="8"/>
+    </row>
+    <row r="119" spans="1:36">
+      <c r="A119" s="213"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -13554,10 +13685,10 @@
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
       <c r="I119" s="8"/>
-      <c r="J119" s="214"/>
+      <c r="J119" s="216"/>
       <c r="K119" s="8"/>
       <c r="L119" s="8"/>
-      <c r="M119" s="216"/>
+      <c r="M119" s="218"/>
       <c r="N119" s="8"/>
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
@@ -13580,9 +13711,10 @@
       <c r="AG119" s="8"/>
       <c r="AH119" s="8"/>
       <c r="AI119" s="8"/>
-    </row>
-    <row r="120" spans="1:35">
-      <c r="A120" s="211"/>
+      <c r="AJ119" s="8"/>
+    </row>
+    <row r="120" spans="1:36">
+      <c r="A120" s="213"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -13591,10 +13723,10 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
       <c r="I120" s="8"/>
-      <c r="J120" s="214"/>
+      <c r="J120" s="216"/>
       <c r="K120" s="8"/>
       <c r="L120" s="8"/>
-      <c r="M120" s="216"/>
+      <c r="M120" s="218"/>
       <c r="N120" s="8"/>
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
@@ -13617,9 +13749,10 @@
       <c r="AG120" s="8"/>
       <c r="AH120" s="8"/>
       <c r="AI120" s="8"/>
-    </row>
-    <row r="121" spans="1:35">
-      <c r="A121" s="211"/>
+      <c r="AJ120" s="8"/>
+    </row>
+    <row r="121" spans="1:36">
+      <c r="A121" s="213"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
@@ -13628,10 +13761,10 @@
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
       <c r="I121" s="8"/>
-      <c r="J121" s="214"/>
+      <c r="J121" s="216"/>
       <c r="K121" s="8"/>
       <c r="L121" s="8"/>
-      <c r="M121" s="216"/>
+      <c r="M121" s="218"/>
       <c r="N121" s="8"/>
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
@@ -13654,9 +13787,10 @@
       <c r="AG121" s="8"/>
       <c r="AH121" s="8"/>
       <c r="AI121" s="8"/>
-    </row>
-    <row r="122" spans="1:35">
-      <c r="A122" s="211"/>
+      <c r="AJ121" s="8"/>
+    </row>
+    <row r="122" spans="1:36">
+      <c r="A122" s="213"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
@@ -13665,10 +13799,10 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
       <c r="I122" s="8"/>
-      <c r="J122" s="214"/>
+      <c r="J122" s="216"/>
       <c r="K122" s="8"/>
       <c r="L122" s="8"/>
-      <c r="M122" s="216"/>
+      <c r="M122" s="218"/>
       <c r="N122" s="8"/>
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
@@ -13691,9 +13825,10 @@
       <c r="AG122" s="8"/>
       <c r="AH122" s="8"/>
       <c r="AI122" s="8"/>
-    </row>
-    <row r="123" spans="1:35">
-      <c r="A123" s="211"/>
+      <c r="AJ122" s="8"/>
+    </row>
+    <row r="123" spans="1:36">
+      <c r="A123" s="213"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
@@ -13702,10 +13837,10 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
       <c r="I123" s="8"/>
-      <c r="J123" s="214"/>
+      <c r="J123" s="216"/>
       <c r="K123" s="8"/>
       <c r="L123" s="8"/>
-      <c r="M123" s="216"/>
+      <c r="M123" s="218"/>
       <c r="N123" s="8"/>
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
@@ -13728,9 +13863,10 @@
       <c r="AG123" s="8"/>
       <c r="AH123" s="8"/>
       <c r="AI123" s="8"/>
-    </row>
-    <row r="124" spans="1:35">
-      <c r="A124" s="211"/>
+      <c r="AJ123" s="8"/>
+    </row>
+    <row r="124" spans="1:36">
+      <c r="A124" s="213"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -13739,10 +13875,10 @@
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
       <c r="I124" s="8"/>
-      <c r="J124" s="214"/>
+      <c r="J124" s="216"/>
       <c r="K124" s="8"/>
       <c r="L124" s="8"/>
-      <c r="M124" s="216"/>
+      <c r="M124" s="218"/>
       <c r="N124" s="8"/>
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
@@ -13765,9 +13901,10 @@
       <c r="AG124" s="8"/>
       <c r="AH124" s="8"/>
       <c r="AI124" s="8"/>
-    </row>
-    <row r="125" spans="1:35">
-      <c r="A125" s="211"/>
+      <c r="AJ124" s="8"/>
+    </row>
+    <row r="125" spans="1:36">
+      <c r="A125" s="213"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
@@ -13776,10 +13913,10 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
-      <c r="J125" s="214"/>
+      <c r="J125" s="216"/>
       <c r="K125" s="8"/>
       <c r="L125" s="8"/>
-      <c r="M125" s="216"/>
+      <c r="M125" s="218"/>
       <c r="N125" s="8"/>
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
@@ -13802,9 +13939,10 @@
       <c r="AG125" s="8"/>
       <c r="AH125" s="8"/>
       <c r="AI125" s="8"/>
-    </row>
-    <row r="126" spans="1:35">
-      <c r="A126" s="211"/>
+      <c r="AJ125" s="8"/>
+    </row>
+    <row r="126" spans="1:36">
+      <c r="A126" s="213"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
@@ -13813,10 +13951,10 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" s="8"/>
-      <c r="J126" s="214"/>
+      <c r="J126" s="216"/>
       <c r="K126" s="8"/>
       <c r="L126" s="8"/>
-      <c r="M126" s="216"/>
+      <c r="M126" s="218"/>
       <c r="N126" s="8"/>
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
@@ -13839,9 +13977,10 @@
       <c r="AG126" s="8"/>
       <c r="AH126" s="8"/>
       <c r="AI126" s="8"/>
-    </row>
-    <row r="127" spans="1:35">
-      <c r="A127" s="211"/>
+      <c r="AJ126" s="8"/>
+    </row>
+    <row r="127" spans="1:36">
+      <c r="A127" s="213"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
@@ -13850,10 +13989,10 @@
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
       <c r="I127" s="8"/>
-      <c r="J127" s="214"/>
+      <c r="J127" s="216"/>
       <c r="K127" s="8"/>
       <c r="L127" s="8"/>
-      <c r="M127" s="216"/>
+      <c r="M127" s="218"/>
       <c r="N127" s="8"/>
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
@@ -13876,9 +14015,10 @@
       <c r="AG127" s="8"/>
       <c r="AH127" s="8"/>
       <c r="AI127" s="8"/>
-    </row>
-    <row r="128" spans="1:35">
-      <c r="A128" s="211"/>
+      <c r="AJ127" s="8"/>
+    </row>
+    <row r="128" spans="1:36">
+      <c r="A128" s="213"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -13887,10 +14027,10 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
       <c r="I128" s="8"/>
-      <c r="J128" s="214"/>
+      <c r="J128" s="216"/>
       <c r="K128" s="8"/>
       <c r="L128" s="8"/>
-      <c r="M128" s="216"/>
+      <c r="M128" s="218"/>
       <c r="N128" s="8"/>
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
@@ -13913,9 +14053,10 @@
       <c r="AG128" s="8"/>
       <c r="AH128" s="8"/>
       <c r="AI128" s="8"/>
-    </row>
-    <row r="129" spans="1:35">
-      <c r="A129" s="211"/>
+      <c r="AJ128" s="8"/>
+    </row>
+    <row r="129" spans="1:36">
+      <c r="A129" s="213"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
@@ -13924,10 +14065,10 @@
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" s="8"/>
-      <c r="J129" s="214"/>
+      <c r="J129" s="216"/>
       <c r="K129" s="8"/>
       <c r="L129" s="8"/>
-      <c r="M129" s="216"/>
+      <c r="M129" s="218"/>
       <c r="N129" s="8"/>
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
@@ -13950,9 +14091,10 @@
       <c r="AG129" s="8"/>
       <c r="AH129" s="8"/>
       <c r="AI129" s="8"/>
-    </row>
-    <row r="130" spans="1:35">
-      <c r="A130" s="211"/>
+      <c r="AJ129" s="8"/>
+    </row>
+    <row r="130" spans="1:36">
+      <c r="A130" s="213"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -13961,10 +14103,10 @@
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
       <c r="I130" s="8"/>
-      <c r="J130" s="214"/>
+      <c r="J130" s="216"/>
       <c r="K130" s="8"/>
       <c r="L130" s="8"/>
-      <c r="M130" s="216"/>
+      <c r="M130" s="218"/>
       <c r="N130" s="8"/>
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
@@ -13987,9 +14129,10 @@
       <c r="AG130" s="8"/>
       <c r="AH130" s="8"/>
       <c r="AI130" s="8"/>
-    </row>
-    <row r="131" spans="1:35">
-      <c r="A131" s="211"/>
+      <c r="AJ130" s="8"/>
+    </row>
+    <row r="131" spans="1:36">
+      <c r="A131" s="213"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
@@ -13998,10 +14141,10 @@
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
       <c r="I131" s="8"/>
-      <c r="J131" s="214"/>
+      <c r="J131" s="216"/>
       <c r="K131" s="8"/>
       <c r="L131" s="8"/>
-      <c r="M131" s="216"/>
+      <c r="M131" s="218"/>
       <c r="N131" s="8"/>
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
@@ -14024,9 +14167,10 @@
       <c r="AG131" s="8"/>
       <c r="AH131" s="8"/>
       <c r="AI131" s="8"/>
-    </row>
-    <row r="132" spans="1:35">
-      <c r="A132" s="211"/>
+      <c r="AJ131" s="8"/>
+    </row>
+    <row r="132" spans="1:36">
+      <c r="A132" s="213"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
@@ -14035,10 +14179,10 @@
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
-      <c r="J132" s="214"/>
+      <c r="J132" s="216"/>
       <c r="K132" s="8"/>
       <c r="L132" s="8"/>
-      <c r="M132" s="216"/>
+      <c r="M132" s="218"/>
       <c r="N132" s="8"/>
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
@@ -14061,9 +14205,10 @@
       <c r="AG132" s="8"/>
       <c r="AH132" s="8"/>
       <c r="AI132" s="8"/>
-    </row>
-    <row r="133" spans="1:35">
-      <c r="A133" s="211"/>
+      <c r="AJ132" s="8"/>
+    </row>
+    <row r="133" spans="1:36">
+      <c r="A133" s="213"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
@@ -14072,10 +14217,10 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
-      <c r="J133" s="214"/>
+      <c r="J133" s="216"/>
       <c r="K133" s="8"/>
       <c r="L133" s="8"/>
-      <c r="M133" s="216"/>
+      <c r="M133" s="218"/>
       <c r="N133" s="8"/>
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
@@ -14098,9 +14243,10 @@
       <c r="AG133" s="8"/>
       <c r="AH133" s="8"/>
       <c r="AI133" s="8"/>
-    </row>
-    <row r="134" spans="1:35">
-      <c r="A134" s="211"/>
+      <c r="AJ133" s="8"/>
+    </row>
+    <row r="134" spans="1:36">
+      <c r="A134" s="213"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
@@ -14109,10 +14255,10 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
-      <c r="J134" s="214"/>
+      <c r="J134" s="216"/>
       <c r="K134" s="8"/>
       <c r="L134" s="8"/>
-      <c r="M134" s="216"/>
+      <c r="M134" s="218"/>
       <c r="N134" s="8"/>
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
@@ -14135,9 +14281,10 @@
       <c r="AG134" s="8"/>
       <c r="AH134" s="8"/>
       <c r="AI134" s="8"/>
-    </row>
-    <row r="135" spans="1:35">
-      <c r="A135" s="211"/>
+      <c r="AJ134" s="8"/>
+    </row>
+    <row r="135" spans="1:36">
+      <c r="A135" s="213"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
@@ -14146,10 +14293,10 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
-      <c r="J135" s="214"/>
+      <c r="J135" s="216"/>
       <c r="K135" s="8"/>
       <c r="L135" s="8"/>
-      <c r="M135" s="216"/>
+      <c r="M135" s="218"/>
       <c r="N135" s="8"/>
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
@@ -14172,9 +14319,10 @@
       <c r="AG135" s="8"/>
       <c r="AH135" s="8"/>
       <c r="AI135" s="8"/>
-    </row>
-    <row r="136" spans="1:35">
-      <c r="A136" s="211"/>
+      <c r="AJ135" s="8"/>
+    </row>
+    <row r="136" spans="1:36">
+      <c r="A136" s="213"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
@@ -14183,10 +14331,10 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
-      <c r="J136" s="214"/>
+      <c r="J136" s="216"/>
       <c r="K136" s="8"/>
       <c r="L136" s="8"/>
-      <c r="M136" s="216"/>
+      <c r="M136" s="218"/>
       <c r="N136" s="8"/>
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
@@ -14209,9 +14357,10 @@
       <c r="AG136" s="8"/>
       <c r="AH136" s="8"/>
       <c r="AI136" s="8"/>
-    </row>
-    <row r="137" spans="1:35">
-      <c r="A137" s="211"/>
+      <c r="AJ136" s="8"/>
+    </row>
+    <row r="137" spans="1:36">
+      <c r="A137" s="213"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
@@ -14220,10 +14369,10 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
       <c r="I137" s="8"/>
-      <c r="J137" s="214"/>
+      <c r="J137" s="216"/>
       <c r="K137" s="8"/>
       <c r="L137" s="8"/>
-      <c r="M137" s="216"/>
+      <c r="M137" s="218"/>
       <c r="N137" s="8"/>
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
@@ -14246,9 +14395,10 @@
       <c r="AG137" s="8"/>
       <c r="AH137" s="8"/>
       <c r="AI137" s="8"/>
-    </row>
-    <row r="138" spans="1:35">
-      <c r="A138" s="211"/>
+      <c r="AJ137" s="8"/>
+    </row>
+    <row r="138" spans="1:36">
+      <c r="A138" s="213"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
@@ -14257,10 +14407,10 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
-      <c r="J138" s="214"/>
+      <c r="J138" s="216"/>
       <c r="K138" s="8"/>
       <c r="L138" s="8"/>
-      <c r="M138" s="216"/>
+      <c r="M138" s="218"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
@@ -14283,9 +14433,10 @@
       <c r="AG138" s="8"/>
       <c r="AH138" s="8"/>
       <c r="AI138" s="8"/>
-    </row>
-    <row r="139" spans="1:35">
-      <c r="A139" s="211"/>
+      <c r="AJ138" s="8"/>
+    </row>
+    <row r="139" spans="1:36">
+      <c r="A139" s="213"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -14294,10 +14445,10 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
       <c r="I139" s="8"/>
-      <c r="J139" s="214"/>
+      <c r="J139" s="216"/>
       <c r="K139" s="8"/>
       <c r="L139" s="8"/>
-      <c r="M139" s="216"/>
+      <c r="M139" s="218"/>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
@@ -14320,9 +14471,10 @@
       <c r="AG139" s="8"/>
       <c r="AH139" s="8"/>
       <c r="AI139" s="8"/>
-    </row>
-    <row r="140" spans="1:35">
-      <c r="A140" s="211"/>
+      <c r="AJ139" s="8"/>
+    </row>
+    <row r="140" spans="1:36">
+      <c r="A140" s="213"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
@@ -14331,10 +14483,10 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
       <c r="I140" s="8"/>
-      <c r="J140" s="214"/>
+      <c r="J140" s="216"/>
       <c r="K140" s="8"/>
       <c r="L140" s="8"/>
-      <c r="M140" s="216"/>
+      <c r="M140" s="218"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
@@ -14357,9 +14509,10 @@
       <c r="AG140" s="8"/>
       <c r="AH140" s="8"/>
       <c r="AI140" s="8"/>
-    </row>
-    <row r="141" spans="1:35">
-      <c r="A141" s="211"/>
+      <c r="AJ140" s="8"/>
+    </row>
+    <row r="141" spans="1:36">
+      <c r="A141" s="213"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
@@ -14368,10 +14521,10 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
       <c r="I141" s="8"/>
-      <c r="J141" s="214"/>
+      <c r="J141" s="216"/>
       <c r="K141" s="8"/>
       <c r="L141" s="8"/>
-      <c r="M141" s="216"/>
+      <c r="M141" s="218"/>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
@@ -14394,9 +14547,10 @@
       <c r="AG141" s="8"/>
       <c r="AH141" s="8"/>
       <c r="AI141" s="8"/>
-    </row>
-    <row r="142" spans="1:35">
-      <c r="A142" s="211"/>
+      <c r="AJ141" s="8"/>
+    </row>
+    <row r="142" spans="1:36">
+      <c r="A142" s="213"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
@@ -14405,10 +14559,10 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
       <c r="I142" s="8"/>
-      <c r="J142" s="214"/>
+      <c r="J142" s="216"/>
       <c r="K142" s="8"/>
       <c r="L142" s="8"/>
-      <c r="M142" s="216"/>
+      <c r="M142" s="218"/>
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
@@ -14431,9 +14585,10 @@
       <c r="AG142" s="8"/>
       <c r="AH142" s="8"/>
       <c r="AI142" s="8"/>
-    </row>
-    <row r="143" spans="1:35">
-      <c r="A143" s="211"/>
+      <c r="AJ142" s="8"/>
+    </row>
+    <row r="143" spans="1:36">
+      <c r="A143" s="213"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
@@ -14442,10 +14597,10 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
       <c r="I143" s="8"/>
-      <c r="J143" s="214"/>
+      <c r="J143" s="216"/>
       <c r="K143" s="8"/>
       <c r="L143" s="8"/>
-      <c r="M143" s="216"/>
+      <c r="M143" s="218"/>
       <c r="N143" s="8"/>
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
@@ -14468,9 +14623,10 @@
       <c r="AG143" s="8"/>
       <c r="AH143" s="8"/>
       <c r="AI143" s="8"/>
-    </row>
-    <row r="144" spans="1:35">
-      <c r="A144" s="211"/>
+      <c r="AJ143" s="8"/>
+    </row>
+    <row r="144" spans="1:36">
+      <c r="A144" s="213"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
@@ -14479,10 +14635,10 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
       <c r="I144" s="8"/>
-      <c r="J144" s="214"/>
+      <c r="J144" s="216"/>
       <c r="K144" s="8"/>
       <c r="L144" s="8"/>
-      <c r="M144" s="216"/>
+      <c r="M144" s="218"/>
       <c r="N144" s="8"/>
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
@@ -14505,9 +14661,10 @@
       <c r="AG144" s="8"/>
       <c r="AH144" s="8"/>
       <c r="AI144" s="8"/>
-    </row>
-    <row r="145" spans="1:35">
-      <c r="A145" s="211"/>
+      <c r="AJ144" s="8"/>
+    </row>
+    <row r="145" spans="1:36">
+      <c r="A145" s="213"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
@@ -14516,10 +14673,10 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
       <c r="I145" s="8"/>
-      <c r="J145" s="214"/>
+      <c r="J145" s="216"/>
       <c r="K145" s="8"/>
       <c r="L145" s="8"/>
-      <c r="M145" s="216"/>
+      <c r="M145" s="218"/>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
@@ -14542,9 +14699,10 @@
       <c r="AG145" s="8"/>
       <c r="AH145" s="8"/>
       <c r="AI145" s="8"/>
-    </row>
-    <row r="146" spans="1:35">
-      <c r="A146" s="211"/>
+      <c r="AJ145" s="8"/>
+    </row>
+    <row r="146" spans="1:36">
+      <c r="A146" s="213"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
@@ -14553,10 +14711,10 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
       <c r="I146" s="8"/>
-      <c r="J146" s="214"/>
+      <c r="J146" s="216"/>
       <c r="K146" s="8"/>
       <c r="L146" s="8"/>
-      <c r="M146" s="216"/>
+      <c r="M146" s="218"/>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
@@ -14579,9 +14737,10 @@
       <c r="AG146" s="8"/>
       <c r="AH146" s="8"/>
       <c r="AI146" s="8"/>
-    </row>
-    <row r="147" spans="1:35">
-      <c r="A147" s="211"/>
+      <c r="AJ146" s="8"/>
+    </row>
+    <row r="147" spans="1:36">
+      <c r="A147" s="213"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
@@ -14590,10 +14749,10 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
       <c r="I147" s="8"/>
-      <c r="J147" s="214"/>
+      <c r="J147" s="216"/>
       <c r="K147" s="8"/>
       <c r="L147" s="8"/>
-      <c r="M147" s="216"/>
+      <c r="M147" s="218"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
@@ -14616,9 +14775,10 @@
       <c r="AG147" s="8"/>
       <c r="AH147" s="8"/>
       <c r="AI147" s="8"/>
-    </row>
-    <row r="148" spans="1:35">
-      <c r="A148" s="211"/>
+      <c r="AJ147" s="8"/>
+    </row>
+    <row r="148" spans="1:36">
+      <c r="A148" s="213"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
@@ -14627,10 +14787,10 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
       <c r="I148" s="8"/>
-      <c r="J148" s="214"/>
+      <c r="J148" s="216"/>
       <c r="K148" s="8"/>
       <c r="L148" s="8"/>
-      <c r="M148" s="216"/>
+      <c r="M148" s="218"/>
       <c r="N148" s="8"/>
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
@@ -14653,9 +14813,10 @@
       <c r="AG148" s="8"/>
       <c r="AH148" s="8"/>
       <c r="AI148" s="8"/>
-    </row>
-    <row r="149" spans="1:35">
-      <c r="A149" s="211"/>
+      <c r="AJ148" s="8"/>
+    </row>
+    <row r="149" spans="1:36">
+      <c r="A149" s="213"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
@@ -14664,10 +14825,10 @@
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
       <c r="I149" s="8"/>
-      <c r="J149" s="214"/>
+      <c r="J149" s="216"/>
       <c r="K149" s="8"/>
       <c r="L149" s="8"/>
-      <c r="M149" s="216"/>
+      <c r="M149" s="218"/>
       <c r="N149" s="8"/>
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
@@ -14690,9 +14851,10 @@
       <c r="AG149" s="8"/>
       <c r="AH149" s="8"/>
       <c r="AI149" s="8"/>
-    </row>
-    <row r="150" spans="1:35">
-      <c r="A150" s="211"/>
+      <c r="AJ149" s="8"/>
+    </row>
+    <row r="150" spans="1:36">
+      <c r="A150" s="213"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
@@ -14701,10 +14863,10 @@
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
       <c r="I150" s="8"/>
-      <c r="J150" s="214"/>
+      <c r="J150" s="216"/>
       <c r="K150" s="8"/>
       <c r="L150" s="8"/>
-      <c r="M150" s="216"/>
+      <c r="M150" s="218"/>
       <c r="N150" s="8"/>
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
@@ -14727,9 +14889,10 @@
       <c r="AG150" s="8"/>
       <c r="AH150" s="8"/>
       <c r="AI150" s="8"/>
-    </row>
-    <row r="151" spans="1:35">
-      <c r="A151" s="211"/>
+      <c r="AJ150" s="8"/>
+    </row>
+    <row r="151" spans="1:36">
+      <c r="A151" s="213"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -14738,10 +14901,10 @@
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
       <c r="I151" s="8"/>
-      <c r="J151" s="214"/>
+      <c r="J151" s="216"/>
       <c r="K151" s="8"/>
       <c r="L151" s="8"/>
-      <c r="M151" s="216"/>
+      <c r="M151" s="218"/>
       <c r="N151" s="8"/>
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
@@ -14764,9 +14927,10 @@
       <c r="AG151" s="8"/>
       <c r="AH151" s="8"/>
       <c r="AI151" s="8"/>
-    </row>
-    <row r="152" spans="1:35">
-      <c r="A152" s="211"/>
+      <c r="AJ151" s="8"/>
+    </row>
+    <row r="152" spans="1:36">
+      <c r="A152" s="213"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
@@ -14775,10 +14939,10 @@
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
       <c r="I152" s="8"/>
-      <c r="J152" s="214"/>
+      <c r="J152" s="216"/>
       <c r="K152" s="8"/>
       <c r="L152" s="8"/>
-      <c r="M152" s="216"/>
+      <c r="M152" s="218"/>
       <c r="N152" s="8"/>
       <c r="O152" s="8"/>
       <c r="P152" s="8"/>
@@ -14801,9 +14965,10 @@
       <c r="AG152" s="8"/>
       <c r="AH152" s="8"/>
       <c r="AI152" s="8"/>
-    </row>
-    <row r="153" spans="1:35">
-      <c r="A153" s="211"/>
+      <c r="AJ152" s="8"/>
+    </row>
+    <row r="153" spans="1:36">
+      <c r="A153" s="213"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
@@ -14812,10 +14977,10 @@
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
       <c r="I153" s="8"/>
-      <c r="J153" s="214"/>
+      <c r="J153" s="216"/>
       <c r="K153" s="8"/>
       <c r="L153" s="8"/>
-      <c r="M153" s="216"/>
+      <c r="M153" s="218"/>
       <c r="N153" s="8"/>
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
@@ -14838,9 +15003,10 @@
       <c r="AG153" s="8"/>
       <c r="AH153" s="8"/>
       <c r="AI153" s="8"/>
-    </row>
-    <row r="154" spans="1:35">
-      <c r="A154" s="211"/>
+      <c r="AJ153" s="8"/>
+    </row>
+    <row r="154" spans="1:36">
+      <c r="A154" s="213"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -14849,10 +15015,10 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
       <c r="I154" s="8"/>
-      <c r="J154" s="214"/>
+      <c r="J154" s="216"/>
       <c r="K154" s="8"/>
       <c r="L154" s="8"/>
-      <c r="M154" s="216"/>
+      <c r="M154" s="218"/>
       <c r="N154" s="8"/>
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
@@ -14875,9 +15041,10 @@
       <c r="AG154" s="8"/>
       <c r="AH154" s="8"/>
       <c r="AI154" s="8"/>
-    </row>
-    <row r="155" spans="1:35">
-      <c r="A155" s="211"/>
+      <c r="AJ154" s="8"/>
+    </row>
+    <row r="155" spans="1:36">
+      <c r="A155" s="213"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
@@ -14886,10 +15053,10 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
       <c r="I155" s="8"/>
-      <c r="J155" s="214"/>
+      <c r="J155" s="216"/>
       <c r="K155" s="8"/>
       <c r="L155" s="8"/>
-      <c r="M155" s="216"/>
+      <c r="M155" s="218"/>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
       <c r="P155" s="8"/>
@@ -14912,9 +15079,10 @@
       <c r="AG155" s="8"/>
       <c r="AH155" s="8"/>
       <c r="AI155" s="8"/>
-    </row>
-    <row r="156" spans="1:35">
-      <c r="A156" s="211"/>
+      <c r="AJ155" s="8"/>
+    </row>
+    <row r="156" spans="1:36">
+      <c r="A156" s="213"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
@@ -14923,10 +15091,10 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
       <c r="I156" s="8"/>
-      <c r="J156" s="214"/>
+      <c r="J156" s="216"/>
       <c r="K156" s="8"/>
       <c r="L156" s="8"/>
-      <c r="M156" s="216"/>
+      <c r="M156" s="218"/>
       <c r="N156" s="8"/>
       <c r="O156" s="8"/>
       <c r="P156" s="8"/>
@@ -14949,9 +15117,10 @@
       <c r="AG156" s="8"/>
       <c r="AH156" s="8"/>
       <c r="AI156" s="8"/>
-    </row>
-    <row r="157" spans="1:35">
-      <c r="A157" s="211"/>
+      <c r="AJ156" s="8"/>
+    </row>
+    <row r="157" spans="1:36">
+      <c r="A157" s="213"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
@@ -14960,10 +15129,10 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
       <c r="I157" s="8"/>
-      <c r="J157" s="214"/>
+      <c r="J157" s="216"/>
       <c r="K157" s="8"/>
       <c r="L157" s="8"/>
-      <c r="M157" s="216"/>
+      <c r="M157" s="218"/>
       <c r="N157" s="8"/>
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
@@ -14986,9 +15155,10 @@
       <c r="AG157" s="8"/>
       <c r="AH157" s="8"/>
       <c r="AI157" s="8"/>
-    </row>
-    <row r="158" spans="1:35">
-      <c r="A158" s="211"/>
+      <c r="AJ157" s="8"/>
+    </row>
+    <row r="158" spans="1:36">
+      <c r="A158" s="213"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
@@ -14997,10 +15167,10 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
       <c r="I158" s="8"/>
-      <c r="J158" s="214"/>
+      <c r="J158" s="216"/>
       <c r="K158" s="8"/>
       <c r="L158" s="8"/>
-      <c r="M158" s="216"/>
+      <c r="M158" s="218"/>
       <c r="N158" s="8"/>
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
@@ -15023,9 +15193,10 @@
       <c r="AG158" s="8"/>
       <c r="AH158" s="8"/>
       <c r="AI158" s="8"/>
-    </row>
-    <row r="159" spans="1:35">
-      <c r="A159" s="211"/>
+      <c r="AJ158" s="8"/>
+    </row>
+    <row r="159" spans="1:36">
+      <c r="A159" s="213"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
@@ -15034,10 +15205,10 @@
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
       <c r="I159" s="8"/>
-      <c r="J159" s="214"/>
+      <c r="J159" s="216"/>
       <c r="K159" s="8"/>
       <c r="L159" s="8"/>
-      <c r="M159" s="216"/>
+      <c r="M159" s="218"/>
       <c r="N159" s="8"/>
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
@@ -15060,9 +15231,10 @@
       <c r="AG159" s="8"/>
       <c r="AH159" s="8"/>
       <c r="AI159" s="8"/>
-    </row>
-    <row r="160" spans="1:35">
-      <c r="A160" s="211"/>
+      <c r="AJ159" s="8"/>
+    </row>
+    <row r="160" spans="1:36">
+      <c r="A160" s="213"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
@@ -15071,10 +15243,10 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
       <c r="I160" s="8"/>
-      <c r="J160" s="214"/>
+      <c r="J160" s="216"/>
       <c r="K160" s="8"/>
       <c r="L160" s="8"/>
-      <c r="M160" s="216"/>
+      <c r="M160" s="218"/>
       <c r="N160" s="8"/>
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
@@ -15097,9 +15269,10 @@
       <c r="AG160" s="8"/>
       <c r="AH160" s="8"/>
       <c r="AI160" s="8"/>
-    </row>
-    <row r="161" spans="1:35">
-      <c r="A161" s="211"/>
+      <c r="AJ160" s="8"/>
+    </row>
+    <row r="161" spans="1:36">
+      <c r="A161" s="213"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
@@ -15108,10 +15281,10 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
       <c r="I161" s="8"/>
-      <c r="J161" s="214"/>
+      <c r="J161" s="216"/>
       <c r="K161" s="8"/>
       <c r="L161" s="8"/>
-      <c r="M161" s="216"/>
+      <c r="M161" s="218"/>
       <c r="N161" s="8"/>
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
@@ -15134,9 +15307,10 @@
       <c r="AG161" s="8"/>
       <c r="AH161" s="8"/>
       <c r="AI161" s="8"/>
-    </row>
-    <row r="162" spans="1:35">
-      <c r="A162" s="211"/>
+      <c r="AJ161" s="8"/>
+    </row>
+    <row r="162" spans="1:36">
+      <c r="A162" s="213"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
@@ -15145,10 +15319,10 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
       <c r="I162" s="8"/>
-      <c r="J162" s="214"/>
+      <c r="J162" s="216"/>
       <c r="K162" s="8"/>
       <c r="L162" s="8"/>
-      <c r="M162" s="216"/>
+      <c r="M162" s="218"/>
       <c r="N162" s="8"/>
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
@@ -15171,9 +15345,10 @@
       <c r="AG162" s="8"/>
       <c r="AH162" s="8"/>
       <c r="AI162" s="8"/>
-    </row>
-    <row r="163" spans="1:35">
-      <c r="A163" s="211"/>
+      <c r="AJ162" s="8"/>
+    </row>
+    <row r="163" spans="1:36">
+      <c r="A163" s="213"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
@@ -15182,10 +15357,10 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
       <c r="I163" s="8"/>
-      <c r="J163" s="214"/>
+      <c r="J163" s="216"/>
       <c r="K163" s="8"/>
       <c r="L163" s="8"/>
-      <c r="M163" s="216"/>
+      <c r="M163" s="218"/>
       <c r="N163" s="8"/>
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
@@ -15208,9 +15383,10 @@
       <c r="AG163" s="8"/>
       <c r="AH163" s="8"/>
       <c r="AI163" s="8"/>
-    </row>
-    <row r="164" spans="1:35">
-      <c r="A164" s="211"/>
+      <c r="AJ163" s="8"/>
+    </row>
+    <row r="164" spans="1:36">
+      <c r="A164" s="213"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -15219,10 +15395,10 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
       <c r="I164" s="8"/>
-      <c r="J164" s="214"/>
+      <c r="J164" s="216"/>
       <c r="K164" s="8"/>
       <c r="L164" s="8"/>
-      <c r="M164" s="216"/>
+      <c r="M164" s="218"/>
       <c r="N164" s="8"/>
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
@@ -15245,9 +15421,10 @@
       <c r="AG164" s="8"/>
       <c r="AH164" s="8"/>
       <c r="AI164" s="8"/>
-    </row>
-    <row r="165" spans="1:35">
-      <c r="A165" s="211"/>
+      <c r="AJ164" s="8"/>
+    </row>
+    <row r="165" spans="1:36">
+      <c r="A165" s="213"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
@@ -15256,10 +15433,10 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
       <c r="I165" s="8"/>
-      <c r="J165" s="214"/>
+      <c r="J165" s="216"/>
       <c r="K165" s="8"/>
       <c r="L165" s="8"/>
-      <c r="M165" s="216"/>
+      <c r="M165" s="218"/>
       <c r="N165" s="8"/>
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
@@ -15282,9 +15459,10 @@
       <c r="AG165" s="8"/>
       <c r="AH165" s="8"/>
       <c r="AI165" s="8"/>
-    </row>
-    <row r="166" spans="1:35">
-      <c r="A166" s="211"/>
+      <c r="AJ165" s="8"/>
+    </row>
+    <row r="166" spans="1:36">
+      <c r="A166" s="213"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
@@ -15293,10 +15471,10 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
       <c r="I166" s="8"/>
-      <c r="J166" s="214"/>
+      <c r="J166" s="216"/>
       <c r="K166" s="8"/>
       <c r="L166" s="8"/>
-      <c r="M166" s="216"/>
+      <c r="M166" s="218"/>
       <c r="N166" s="8"/>
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
@@ -15319,9 +15497,10 @@
       <c r="AG166" s="8"/>
       <c r="AH166" s="8"/>
       <c r="AI166" s="8"/>
-    </row>
-    <row r="167" spans="1:35">
-      <c r="A167" s="211"/>
+      <c r="AJ166" s="8"/>
+    </row>
+    <row r="167" spans="1:36">
+      <c r="A167" s="213"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
@@ -15330,10 +15509,10 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
       <c r="I167" s="8"/>
-      <c r="J167" s="214"/>
+      <c r="J167" s="216"/>
       <c r="K167" s="8"/>
       <c r="L167" s="8"/>
-      <c r="M167" s="216"/>
+      <c r="M167" s="218"/>
       <c r="N167" s="8"/>
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
@@ -15356,9 +15535,10 @@
       <c r="AG167" s="8"/>
       <c r="AH167" s="8"/>
       <c r="AI167" s="8"/>
-    </row>
-    <row r="168" spans="1:35">
-      <c r="A168" s="211"/>
+      <c r="AJ167" s="8"/>
+    </row>
+    <row r="168" spans="1:36">
+      <c r="A168" s="213"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
@@ -15367,10 +15547,10 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
       <c r="I168" s="8"/>
-      <c r="J168" s="214"/>
+      <c r="J168" s="216"/>
       <c r="K168" s="8"/>
       <c r="L168" s="8"/>
-      <c r="M168" s="216"/>
+      <c r="M168" s="218"/>
       <c r="N168" s="8"/>
       <c r="O168" s="8"/>
       <c r="P168" s="8"/>
@@ -15393,9 +15573,10 @@
       <c r="AG168" s="8"/>
       <c r="AH168" s="8"/>
       <c r="AI168" s="8"/>
-    </row>
-    <row r="169" spans="1:35">
-      <c r="A169" s="211"/>
+      <c r="AJ168" s="8"/>
+    </row>
+    <row r="169" spans="1:36">
+      <c r="A169" s="213"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -15404,10 +15585,10 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
       <c r="I169" s="8"/>
-      <c r="J169" s="214"/>
+      <c r="J169" s="216"/>
       <c r="K169" s="8"/>
       <c r="L169" s="8"/>
-      <c r="M169" s="216"/>
+      <c r="M169" s="218"/>
       <c r="N169" s="8"/>
       <c r="O169" s="8"/>
       <c r="P169" s="8"/>
@@ -15430,9 +15611,10 @@
       <c r="AG169" s="8"/>
       <c r="AH169" s="8"/>
       <c r="AI169" s="8"/>
-    </row>
-    <row r="170" spans="1:35">
-      <c r="A170" s="211"/>
+      <c r="AJ169" s="8"/>
+    </row>
+    <row r="170" spans="1:36">
+      <c r="A170" s="213"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
@@ -15441,10 +15623,10 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
       <c r="I170" s="8"/>
-      <c r="J170" s="214"/>
+      <c r="J170" s="216"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
-      <c r="M170" s="216"/>
+      <c r="M170" s="218"/>
       <c r="N170" s="8"/>
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
@@ -15467,9 +15649,10 @@
       <c r="AG170" s="8"/>
       <c r="AH170" s="8"/>
       <c r="AI170" s="8"/>
-    </row>
-    <row r="171" spans="1:35">
-      <c r="A171" s="211"/>
+      <c r="AJ170" s="8"/>
+    </row>
+    <row r="171" spans="1:36">
+      <c r="A171" s="213"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
@@ -15478,10 +15661,10 @@
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
-      <c r="J171" s="214"/>
+      <c r="J171" s="216"/>
       <c r="K171" s="8"/>
       <c r="L171" s="8"/>
-      <c r="M171" s="216"/>
+      <c r="M171" s="218"/>
       <c r="N171" s="8"/>
       <c r="O171" s="8"/>
       <c r="P171" s="8"/>
@@ -15504,9 +15687,10 @@
       <c r="AG171" s="8"/>
       <c r="AH171" s="8"/>
       <c r="AI171" s="8"/>
-    </row>
-    <row r="172" spans="1:35">
-      <c r="A172" s="211"/>
+      <c r="AJ171" s="8"/>
+    </row>
+    <row r="172" spans="1:36">
+      <c r="A172" s="213"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
@@ -15515,10 +15699,10 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
       <c r="I172" s="8"/>
-      <c r="J172" s="214"/>
+      <c r="J172" s="216"/>
       <c r="K172" s="8"/>
       <c r="L172" s="8"/>
-      <c r="M172" s="216"/>
+      <c r="M172" s="218"/>
       <c r="N172" s="8"/>
       <c r="O172" s="8"/>
       <c r="P172" s="8"/>
@@ -15541,9 +15725,10 @@
       <c r="AG172" s="8"/>
       <c r="AH172" s="8"/>
       <c r="AI172" s="8"/>
-    </row>
-    <row r="173" spans="1:35">
-      <c r="A173" s="211"/>
+      <c r="AJ172" s="8"/>
+    </row>
+    <row r="173" spans="1:36">
+      <c r="A173" s="213"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
@@ -15552,10 +15737,10 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
       <c r="I173" s="8"/>
-      <c r="J173" s="214"/>
+      <c r="J173" s="216"/>
       <c r="K173" s="8"/>
       <c r="L173" s="8"/>
-      <c r="M173" s="216"/>
+      <c r="M173" s="218"/>
       <c r="N173" s="8"/>
       <c r="O173" s="8"/>
       <c r="P173" s="8"/>
@@ -15578,9 +15763,10 @@
       <c r="AG173" s="8"/>
       <c r="AH173" s="8"/>
       <c r="AI173" s="8"/>
-    </row>
-    <row r="174" spans="1:35">
-      <c r="A174" s="211"/>
+      <c r="AJ173" s="8"/>
+    </row>
+    <row r="174" spans="1:36">
+      <c r="A174" s="213"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
@@ -15589,10 +15775,10 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
       <c r="I174" s="8"/>
-      <c r="J174" s="214"/>
+      <c r="J174" s="216"/>
       <c r="K174" s="8"/>
       <c r="L174" s="8"/>
-      <c r="M174" s="216"/>
+      <c r="M174" s="218"/>
       <c r="N174" s="8"/>
       <c r="O174" s="8"/>
       <c r="P174" s="8"/>
@@ -15615,9 +15801,10 @@
       <c r="AG174" s="8"/>
       <c r="AH174" s="8"/>
       <c r="AI174" s="8"/>
-    </row>
-    <row r="175" spans="1:35">
-      <c r="A175" s="211"/>
+      <c r="AJ174" s="8"/>
+    </row>
+    <row r="175" spans="1:36">
+      <c r="A175" s="213"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
@@ -15626,10 +15813,10 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
       <c r="I175" s="8"/>
-      <c r="J175" s="214"/>
+      <c r="J175" s="216"/>
       <c r="K175" s="8"/>
       <c r="L175" s="8"/>
-      <c r="M175" s="216"/>
+      <c r="M175" s="218"/>
       <c r="N175" s="8"/>
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
@@ -15652,9 +15839,10 @@
       <c r="AG175" s="8"/>
       <c r="AH175" s="8"/>
       <c r="AI175" s="8"/>
-    </row>
-    <row r="176" spans="1:35">
-      <c r="A176" s="211"/>
+      <c r="AJ175" s="8"/>
+    </row>
+    <row r="176" spans="1:36">
+      <c r="A176" s="213"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
@@ -15663,10 +15851,10 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
       <c r="I176" s="8"/>
-      <c r="J176" s="214"/>
+      <c r="J176" s="216"/>
       <c r="K176" s="8"/>
       <c r="L176" s="8"/>
-      <c r="M176" s="216"/>
+      <c r="M176" s="218"/>
       <c r="N176" s="8"/>
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
@@ -15689,9 +15877,10 @@
       <c r="AG176" s="8"/>
       <c r="AH176" s="8"/>
       <c r="AI176" s="8"/>
-    </row>
-    <row r="177" spans="1:35">
-      <c r="A177" s="211"/>
+      <c r="AJ176" s="8"/>
+    </row>
+    <row r="177" spans="1:36">
+      <c r="A177" s="213"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
@@ -15700,10 +15889,10 @@
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
       <c r="I177" s="8"/>
-      <c r="J177" s="214"/>
+      <c r="J177" s="216"/>
       <c r="K177" s="8"/>
       <c r="L177" s="8"/>
-      <c r="M177" s="216"/>
+      <c r="M177" s="218"/>
       <c r="N177" s="8"/>
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
@@ -15726,9 +15915,10 @@
       <c r="AG177" s="8"/>
       <c r="AH177" s="8"/>
       <c r="AI177" s="8"/>
-    </row>
-    <row r="178" spans="1:35">
-      <c r="A178" s="211"/>
+      <c r="AJ177" s="8"/>
+    </row>
+    <row r="178" spans="1:36">
+      <c r="A178" s="213"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
@@ -15737,10 +15927,10 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
       <c r="I178" s="8"/>
-      <c r="J178" s="214"/>
+      <c r="J178" s="216"/>
       <c r="K178" s="8"/>
       <c r="L178" s="8"/>
-      <c r="M178" s="216"/>
+      <c r="M178" s="218"/>
       <c r="N178" s="8"/>
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
@@ -15763,9 +15953,10 @@
       <c r="AG178" s="8"/>
       <c r="AH178" s="8"/>
       <c r="AI178" s="8"/>
-    </row>
-    <row r="179" spans="1:35">
-      <c r="A179" s="211"/>
+      <c r="AJ178" s="8"/>
+    </row>
+    <row r="179" spans="1:36">
+      <c r="A179" s="213"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
@@ -15774,10 +15965,10 @@
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
       <c r="I179" s="8"/>
-      <c r="J179" s="214"/>
+      <c r="J179" s="216"/>
       <c r="K179" s="8"/>
       <c r="L179" s="8"/>
-      <c r="M179" s="216"/>
+      <c r="M179" s="218"/>
       <c r="N179" s="8"/>
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
@@ -15800,9 +15991,10 @@
       <c r="AG179" s="8"/>
       <c r="AH179" s="8"/>
       <c r="AI179" s="8"/>
-    </row>
-    <row r="180" spans="1:35">
-      <c r="A180" s="211"/>
+      <c r="AJ179" s="8"/>
+    </row>
+    <row r="180" spans="1:36">
+      <c r="A180" s="213"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
@@ -15811,10 +16003,10 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
       <c r="I180" s="8"/>
-      <c r="J180" s="214"/>
+      <c r="J180" s="216"/>
       <c r="K180" s="8"/>
       <c r="L180" s="8"/>
-      <c r="M180" s="216"/>
+      <c r="M180" s="218"/>
       <c r="N180" s="8"/>
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
@@ -15837,9 +16029,10 @@
       <c r="AG180" s="8"/>
       <c r="AH180" s="8"/>
       <c r="AI180" s="8"/>
-    </row>
-    <row r="181" spans="1:35">
-      <c r="A181" s="211"/>
+      <c r="AJ180" s="8"/>
+    </row>
+    <row r="181" spans="1:36">
+      <c r="A181" s="213"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
@@ -15848,10 +16041,10 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
       <c r="I181" s="8"/>
-      <c r="J181" s="214"/>
+      <c r="J181" s="216"/>
       <c r="K181" s="8"/>
       <c r="L181" s="8"/>
-      <c r="M181" s="216"/>
+      <c r="M181" s="218"/>
       <c r="N181" s="8"/>
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
@@ -15874,9 +16067,10 @@
       <c r="AG181" s="8"/>
       <c r="AH181" s="8"/>
       <c r="AI181" s="8"/>
-    </row>
-    <row r="182" spans="1:35">
-      <c r="A182" s="211"/>
+      <c r="AJ181" s="8"/>
+    </row>
+    <row r="182" spans="1:36">
+      <c r="A182" s="213"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
@@ -15885,10 +16079,10 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
       <c r="I182" s="8"/>
-      <c r="J182" s="214"/>
+      <c r="J182" s="216"/>
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
-      <c r="M182" s="216"/>
+      <c r="M182" s="218"/>
       <c r="N182" s="8"/>
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
@@ -15911,9 +16105,10 @@
       <c r="AG182" s="8"/>
       <c r="AH182" s="8"/>
       <c r="AI182" s="8"/>
-    </row>
-    <row r="183" spans="1:35">
-      <c r="A183" s="211"/>
+      <c r="AJ182" s="8"/>
+    </row>
+    <row r="183" spans="1:36">
+      <c r="A183" s="213"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
@@ -15922,10 +16117,10 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
       <c r="I183" s="8"/>
-      <c r="J183" s="214"/>
+      <c r="J183" s="216"/>
       <c r="K183" s="8"/>
       <c r="L183" s="8"/>
-      <c r="M183" s="216"/>
+      <c r="M183" s="218"/>
       <c r="N183" s="8"/>
       <c r="O183" s="8"/>
       <c r="P183" s="8"/>
@@ -15948,9 +16143,10 @@
       <c r="AG183" s="8"/>
       <c r="AH183" s="8"/>
       <c r="AI183" s="8"/>
-    </row>
-    <row r="184" spans="1:35">
-      <c r="A184" s="211"/>
+      <c r="AJ183" s="8"/>
+    </row>
+    <row r="184" spans="1:36">
+      <c r="A184" s="213"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
@@ -15959,10 +16155,10 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
       <c r="I184" s="8"/>
-      <c r="J184" s="214"/>
+      <c r="J184" s="216"/>
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
-      <c r="M184" s="216"/>
+      <c r="M184" s="218"/>
       <c r="N184" s="8"/>
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
@@ -15985,9 +16181,10 @@
       <c r="AG184" s="8"/>
       <c r="AH184" s="8"/>
       <c r="AI184" s="8"/>
-    </row>
-    <row r="185" spans="1:35">
-      <c r="A185" s="211"/>
+      <c r="AJ184" s="8"/>
+    </row>
+    <row r="185" spans="1:36">
+      <c r="A185" s="213"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
@@ -15996,10 +16193,10 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
       <c r="I185" s="8"/>
-      <c r="J185" s="214"/>
+      <c r="J185" s="216"/>
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
-      <c r="M185" s="216"/>
+      <c r="M185" s="218"/>
       <c r="N185" s="8"/>
       <c r="O185" s="8"/>
       <c r="P185" s="8"/>
@@ -16022,9 +16219,10 @@
       <c r="AG185" s="8"/>
       <c r="AH185" s="8"/>
       <c r="AI185" s="8"/>
-    </row>
-    <row r="186" spans="1:35">
-      <c r="A186" s="211"/>
+      <c r="AJ185" s="8"/>
+    </row>
+    <row r="186" spans="1:36">
+      <c r="A186" s="213"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
@@ -16033,10 +16231,10 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
       <c r="I186" s="8"/>
-      <c r="J186" s="214"/>
+      <c r="J186" s="216"/>
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
-      <c r="M186" s="216"/>
+      <c r="M186" s="218"/>
       <c r="N186" s="8"/>
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
@@ -16059,9 +16257,10 @@
       <c r="AG186" s="8"/>
       <c r="AH186" s="8"/>
       <c r="AI186" s="8"/>
-    </row>
-    <row r="187" spans="1:35">
-      <c r="A187" s="211"/>
+      <c r="AJ186" s="8"/>
+    </row>
+    <row r="187" spans="1:36">
+      <c r="A187" s="213"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
@@ -16070,10 +16269,10 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
       <c r="I187" s="8"/>
-      <c r="J187" s="214"/>
+      <c r="J187" s="216"/>
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
-      <c r="M187" s="216"/>
+      <c r="M187" s="218"/>
       <c r="N187" s="8"/>
       <c r="O187" s="8"/>
       <c r="P187" s="8"/>
@@ -16096,9 +16295,10 @@
       <c r="AG187" s="8"/>
       <c r="AH187" s="8"/>
       <c r="AI187" s="8"/>
-    </row>
-    <row r="188" spans="1:35">
-      <c r="A188" s="211"/>
+      <c r="AJ187" s="8"/>
+    </row>
+    <row r="188" spans="1:36">
+      <c r="A188" s="213"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
@@ -16107,10 +16307,10 @@
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
       <c r="I188" s="8"/>
-      <c r="J188" s="214"/>
+      <c r="J188" s="216"/>
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
-      <c r="M188" s="216"/>
+      <c r="M188" s="218"/>
       <c r="N188" s="8"/>
       <c r="O188" s="8"/>
       <c r="P188" s="8"/>
@@ -16133,9 +16333,10 @@
       <c r="AG188" s="8"/>
       <c r="AH188" s="8"/>
       <c r="AI188" s="8"/>
-    </row>
-    <row r="189" spans="1:35">
-      <c r="A189" s="211"/>
+      <c r="AJ188" s="8"/>
+    </row>
+    <row r="189" spans="1:36">
+      <c r="A189" s="213"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
@@ -16144,10 +16345,10 @@
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
       <c r="I189" s="8"/>
-      <c r="J189" s="214"/>
+      <c r="J189" s="216"/>
       <c r="K189" s="8"/>
       <c r="L189" s="8"/>
-      <c r="M189" s="216"/>
+      <c r="M189" s="218"/>
       <c r="N189" s="8"/>
       <c r="O189" s="8"/>
       <c r="P189" s="8"/>
@@ -16170,9 +16371,10 @@
       <c r="AG189" s="8"/>
       <c r="AH189" s="8"/>
       <c r="AI189" s="8"/>
-    </row>
-    <row r="190" spans="1:35">
-      <c r="A190" s="211"/>
+      <c r="AJ189" s="8"/>
+    </row>
+    <row r="190" spans="1:36">
+      <c r="A190" s="213"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
@@ -16181,10 +16383,10 @@
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
       <c r="I190" s="8"/>
-      <c r="J190" s="214"/>
+      <c r="J190" s="216"/>
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
-      <c r="M190" s="216"/>
+      <c r="M190" s="218"/>
       <c r="N190" s="8"/>
       <c r="O190" s="8"/>
       <c r="P190" s="8"/>
@@ -16207,9 +16409,10 @@
       <c r="AG190" s="8"/>
       <c r="AH190" s="8"/>
       <c r="AI190" s="8"/>
-    </row>
-    <row r="191" spans="1:35">
-      <c r="A191" s="211"/>
+      <c r="AJ190" s="8"/>
+    </row>
+    <row r="191" spans="1:36">
+      <c r="A191" s="213"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
@@ -16218,10 +16421,10 @@
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
       <c r="I191" s="8"/>
-      <c r="J191" s="214"/>
+      <c r="J191" s="216"/>
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
-      <c r="M191" s="216"/>
+      <c r="M191" s="218"/>
       <c r="N191" s="8"/>
       <c r="O191" s="8"/>
       <c r="P191" s="8"/>
@@ -16244,9 +16447,10 @@
       <c r="AG191" s="8"/>
       <c r="AH191" s="8"/>
       <c r="AI191" s="8"/>
-    </row>
-    <row r="192" spans="1:35">
-      <c r="A192" s="211"/>
+      <c r="AJ191" s="8"/>
+    </row>
+    <row r="192" spans="1:36">
+      <c r="A192" s="213"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
@@ -16255,10 +16459,10 @@
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
       <c r="I192" s="8"/>
-      <c r="J192" s="214"/>
+      <c r="J192" s="216"/>
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
-      <c r="M192" s="216"/>
+      <c r="M192" s="218"/>
       <c r="N192" s="8"/>
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
@@ -16281,9 +16485,10 @@
       <c r="AG192" s="8"/>
       <c r="AH192" s="8"/>
       <c r="AI192" s="8"/>
-    </row>
-    <row r="193" spans="1:35">
-      <c r="A193" s="211"/>
+      <c r="AJ192" s="8"/>
+    </row>
+    <row r="193" spans="1:36">
+      <c r="A193" s="213"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
@@ -16292,10 +16497,10 @@
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
       <c r="I193" s="8"/>
-      <c r="J193" s="214"/>
+      <c r="J193" s="216"/>
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
-      <c r="M193" s="216"/>
+      <c r="M193" s="218"/>
       <c r="N193" s="8"/>
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
@@ -16318,9 +16523,10 @@
       <c r="AG193" s="8"/>
       <c r="AH193" s="8"/>
       <c r="AI193" s="8"/>
-    </row>
-    <row r="194" spans="1:35">
-      <c r="A194" s="211"/>
+      <c r="AJ193" s="8"/>
+    </row>
+    <row r="194" spans="1:36">
+      <c r="A194" s="213"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
@@ -16329,10 +16535,10 @@
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
       <c r="I194" s="8"/>
-      <c r="J194" s="214"/>
+      <c r="J194" s="216"/>
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
-      <c r="M194" s="216"/>
+      <c r="M194" s="218"/>
       <c r="N194" s="8"/>
       <c r="O194" s="8"/>
       <c r="P194" s="8"/>
@@ -16355,9 +16561,10 @@
       <c r="AG194" s="8"/>
       <c r="AH194" s="8"/>
       <c r="AI194" s="8"/>
-    </row>
-    <row r="195" spans="1:35">
-      <c r="A195" s="211"/>
+      <c r="AJ194" s="8"/>
+    </row>
+    <row r="195" spans="1:36">
+      <c r="A195" s="213"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
@@ -16366,10 +16573,10 @@
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
       <c r="I195" s="8"/>
-      <c r="J195" s="214"/>
+      <c r="J195" s="216"/>
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
-      <c r="M195" s="216"/>
+      <c r="M195" s="218"/>
       <c r="N195" s="8"/>
       <c r="O195" s="8"/>
       <c r="P195" s="8"/>
@@ -16392,9 +16599,10 @@
       <c r="AG195" s="8"/>
       <c r="AH195" s="8"/>
       <c r="AI195" s="8"/>
-    </row>
-    <row r="196" spans="1:35">
-      <c r="A196" s="211"/>
+      <c r="AJ195" s="8"/>
+    </row>
+    <row r="196" spans="1:36">
+      <c r="A196" s="213"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
@@ -16403,10 +16611,10 @@
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
       <c r="I196" s="8"/>
-      <c r="J196" s="214"/>
+      <c r="J196" s="216"/>
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
-      <c r="M196" s="216"/>
+      <c r="M196" s="218"/>
       <c r="N196" s="8"/>
       <c r="O196" s="8"/>
       <c r="P196" s="8"/>
@@ -16429,9 +16637,10 @@
       <c r="AG196" s="8"/>
       <c r="AH196" s="8"/>
       <c r="AI196" s="8"/>
-    </row>
-    <row r="197" spans="1:35">
-      <c r="A197" s="211"/>
+      <c r="AJ196" s="8"/>
+    </row>
+    <row r="197" spans="1:36">
+      <c r="A197" s="213"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
@@ -16440,10 +16649,10 @@
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
       <c r="I197" s="8"/>
-      <c r="J197" s="214"/>
+      <c r="J197" s="216"/>
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
-      <c r="M197" s="216"/>
+      <c r="M197" s="218"/>
       <c r="N197" s="8"/>
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
@@ -16466,9 +16675,10 @@
       <c r="AG197" s="8"/>
       <c r="AH197" s="8"/>
       <c r="AI197" s="8"/>
-    </row>
-    <row r="198" spans="1:35">
-      <c r="A198" s="211"/>
+      <c r="AJ197" s="8"/>
+    </row>
+    <row r="198" spans="1:36">
+      <c r="A198" s="213"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
@@ -16477,10 +16687,10 @@
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
       <c r="I198" s="8"/>
-      <c r="J198" s="214"/>
+      <c r="J198" s="216"/>
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
-      <c r="M198" s="216"/>
+      <c r="M198" s="218"/>
       <c r="N198" s="8"/>
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
@@ -16503,9 +16713,10 @@
       <c r="AG198" s="8"/>
       <c r="AH198" s="8"/>
       <c r="AI198" s="8"/>
-    </row>
-    <row r="199" spans="1:35">
-      <c r="A199" s="211"/>
+      <c r="AJ198" s="8"/>
+    </row>
+    <row r="199" spans="1:36">
+      <c r="A199" s="213"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
@@ -16514,10 +16725,10 @@
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
       <c r="I199" s="8"/>
-      <c r="J199" s="214"/>
+      <c r="J199" s="216"/>
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
-      <c r="M199" s="216"/>
+      <c r="M199" s="218"/>
       <c r="N199" s="8"/>
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
@@ -16540,9 +16751,10 @@
       <c r="AG199" s="8"/>
       <c r="AH199" s="8"/>
       <c r="AI199" s="8"/>
-    </row>
-    <row r="200" spans="1:35">
-      <c r="A200" s="211"/>
+      <c r="AJ199" s="8"/>
+    </row>
+    <row r="200" spans="1:36">
+      <c r="A200" s="213"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -16551,10 +16763,10 @@
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
       <c r="I200" s="8"/>
-      <c r="J200" s="214"/>
+      <c r="J200" s="216"/>
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
-      <c r="M200" s="216"/>
+      <c r="M200" s="218"/>
       <c r="N200" s="8"/>
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
@@ -16577,9 +16789,10 @@
       <c r="AG200" s="8"/>
       <c r="AH200" s="8"/>
       <c r="AI200" s="8"/>
-    </row>
-    <row r="201" spans="1:35">
-      <c r="A201" s="211"/>
+      <c r="AJ200" s="8"/>
+    </row>
+    <row r="201" spans="1:36">
+      <c r="A201" s="213"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
@@ -16588,10 +16801,10 @@
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
       <c r="I201" s="8"/>
-      <c r="J201" s="214"/>
+      <c r="J201" s="216"/>
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
-      <c r="M201" s="216"/>
+      <c r="M201" s="218"/>
       <c r="N201" s="8"/>
       <c r="O201" s="8"/>
       <c r="P201" s="8"/>
@@ -16614,9 +16827,10 @@
       <c r="AG201" s="8"/>
       <c r="AH201" s="8"/>
       <c r="AI201" s="8"/>
-    </row>
-    <row r="202" spans="1:35">
-      <c r="A202" s="211"/>
+      <c r="AJ201" s="8"/>
+    </row>
+    <row r="202" spans="1:36">
+      <c r="A202" s="213"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
@@ -16625,10 +16839,10 @@
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
       <c r="I202" s="8"/>
-      <c r="J202" s="214"/>
+      <c r="J202" s="216"/>
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
-      <c r="M202" s="216"/>
+      <c r="M202" s="218"/>
       <c r="N202" s="8"/>
       <c r="O202" s="8"/>
       <c r="P202" s="8"/>
@@ -16651,9 +16865,10 @@
       <c r="AG202" s="8"/>
       <c r="AH202" s="8"/>
       <c r="AI202" s="8"/>
-    </row>
-    <row r="203" spans="1:35">
-      <c r="A203" s="211"/>
+      <c r="AJ202" s="8"/>
+    </row>
+    <row r="203" spans="1:36">
+      <c r="A203" s="213"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
@@ -16662,10 +16877,10 @@
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
       <c r="I203" s="8"/>
-      <c r="J203" s="214"/>
+      <c r="J203" s="216"/>
       <c r="K203" s="8"/>
       <c r="L203" s="8"/>
-      <c r="M203" s="216"/>
+      <c r="M203" s="218"/>
       <c r="N203" s="8"/>
       <c r="O203" s="8"/>
       <c r="P203" s="8"/>
@@ -16688,9 +16903,10 @@
       <c r="AG203" s="8"/>
       <c r="AH203" s="8"/>
       <c r="AI203" s="8"/>
-    </row>
-    <row r="204" spans="1:35">
-      <c r="A204" s="211"/>
+      <c r="AJ203" s="8"/>
+    </row>
+    <row r="204" spans="1:36">
+      <c r="A204" s="213"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
@@ -16699,10 +16915,10 @@
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
       <c r="I204" s="8"/>
-      <c r="J204" s="214"/>
+      <c r="J204" s="216"/>
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
-      <c r="M204" s="216"/>
+      <c r="M204" s="218"/>
       <c r="N204" s="8"/>
       <c r="O204" s="8"/>
       <c r="P204" s="8"/>
@@ -16725,9 +16941,10 @@
       <c r="AG204" s="8"/>
       <c r="AH204" s="8"/>
       <c r="AI204" s="8"/>
-    </row>
-    <row r="205" spans="1:35">
-      <c r="A205" s="211"/>
+      <c r="AJ204" s="8"/>
+    </row>
+    <row r="205" spans="1:36">
+      <c r="A205" s="213"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
@@ -16736,10 +16953,10 @@
       <c r="G205" s="8"/>
       <c r="H205" s="8"/>
       <c r="I205" s="8"/>
-      <c r="J205" s="214"/>
+      <c r="J205" s="216"/>
       <c r="K205" s="8"/>
       <c r="L205" s="8"/>
-      <c r="M205" s="216"/>
+      <c r="M205" s="218"/>
       <c r="N205" s="8"/>
       <c r="O205" s="8"/>
       <c r="P205" s="8"/>
@@ -16762,9 +16979,10 @@
       <c r="AG205" s="8"/>
       <c r="AH205" s="8"/>
       <c r="AI205" s="8"/>
-    </row>
-    <row r="206" spans="1:35">
-      <c r="A206" s="211"/>
+      <c r="AJ205" s="8"/>
+    </row>
+    <row r="206" spans="1:36">
+      <c r="A206" s="213"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
@@ -16773,10 +16991,10 @@
       <c r="G206" s="8"/>
       <c r="H206" s="8"/>
       <c r="I206" s="8"/>
-      <c r="J206" s="214"/>
+      <c r="J206" s="216"/>
       <c r="K206" s="8"/>
       <c r="L206" s="8"/>
-      <c r="M206" s="216"/>
+      <c r="M206" s="218"/>
       <c r="N206" s="8"/>
       <c r="O206" s="8"/>
       <c r="P206" s="8"/>
@@ -16799,9 +17017,10 @@
       <c r="AG206" s="8"/>
       <c r="AH206" s="8"/>
       <c r="AI206" s="8"/>
-    </row>
-    <row r="207" spans="1:35">
-      <c r="A207" s="211"/>
+      <c r="AJ206" s="8"/>
+    </row>
+    <row r="207" spans="1:36">
+      <c r="A207" s="213"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
@@ -16810,10 +17029,10 @@
       <c r="G207" s="8"/>
       <c r="H207" s="8"/>
       <c r="I207" s="8"/>
-      <c r="J207" s="214"/>
+      <c r="J207" s="216"/>
       <c r="K207" s="8"/>
       <c r="L207" s="8"/>
-      <c r="M207" s="216"/>
+      <c r="M207" s="218"/>
       <c r="N207" s="8"/>
       <c r="O207" s="8"/>
       <c r="P207" s="8"/>
@@ -16836,9 +17055,10 @@
       <c r="AG207" s="8"/>
       <c r="AH207" s="8"/>
       <c r="AI207" s="8"/>
-    </row>
-    <row r="208" spans="1:35">
-      <c r="A208" s="211"/>
+      <c r="AJ207" s="8"/>
+    </row>
+    <row r="208" spans="1:36">
+      <c r="A208" s="213"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
@@ -16847,10 +17067,10 @@
       <c r="G208" s="8"/>
       <c r="H208" s="8"/>
       <c r="I208" s="8"/>
-      <c r="J208" s="214"/>
+      <c r="J208" s="216"/>
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
-      <c r="M208" s="216"/>
+      <c r="M208" s="218"/>
       <c r="N208" s="8"/>
       <c r="O208" s="8"/>
       <c r="P208" s="8"/>
@@ -16873,9 +17093,10 @@
       <c r="AG208" s="8"/>
       <c r="AH208" s="8"/>
       <c r="AI208" s="8"/>
-    </row>
-    <row r="209" spans="1:35">
-      <c r="A209" s="211"/>
+      <c r="AJ208" s="8"/>
+    </row>
+    <row r="209" spans="1:36">
+      <c r="A209" s="213"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
@@ -16884,10 +17105,10 @@
       <c r="G209" s="8"/>
       <c r="H209" s="8"/>
       <c r="I209" s="8"/>
-      <c r="J209" s="214"/>
+      <c r="J209" s="216"/>
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
-      <c r="M209" s="216"/>
+      <c r="M209" s="218"/>
       <c r="N209" s="8"/>
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
@@ -16910,11 +17131,12 @@
       <c r="AG209" s="8"/>
       <c r="AH209" s="8"/>
       <c r="AI209" s="8"/>
+      <c r="AJ209" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="C1:M1"/>
-    <mergeCell ref="N1:AH1"/>
+    <mergeCell ref="N1:AI1"/>
     <mergeCell ref="N2:AF2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
@@ -16931,7 +17153,8 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI1:AI3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ1:AJ3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -16981,7 +17204,7 @@
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -16990,36 +17213,36 @@
         <v>1</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
       <c r="O1" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
       <c r="R1" s="20"/>
       <c r="S1" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
       <c r="V1" s="20"/>
       <c r="W1" s="62" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="X1" s="63"/>
       <c r="Y1" s="63"/>
@@ -17033,7 +17256,7 @@
       <c r="AG1" s="78"/>
       <c r="AH1" s="86"/>
       <c r="AI1" s="62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AJ1" s="63"/>
       <c r="AK1" s="63"/>
@@ -17047,19 +17270,19 @@
       <c r="AS1" s="98"/>
       <c r="AT1" s="106"/>
       <c r="AU1" s="107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AV1" s="108" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AW1" s="108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AX1" s="108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AY1" s="108" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" ht="24" spans="1:51">
@@ -17068,34 +17291,34 @@
       <c r="C2" s="25"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F2" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>251</v>
-      </c>
       <c r="N2" s="26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
@@ -17105,76 +17328,76 @@
       <c r="U2" s="26"/>
       <c r="V2" s="26"/>
       <c r="W2" s="64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X2" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y2" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z2" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA2" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="AB2" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="AC2" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD2" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="AE2" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF2" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="AG2" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH2" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI2" s="88" t="s">
         <v>254</v>
       </c>
-      <c r="Y2" s="64" t="s">
+      <c r="AJ2" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="Z2" s="64" t="s">
+      <c r="AK2" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="AA2" s="64" t="s">
+      <c r="AL2" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="AB2" s="64" t="s">
+      <c r="AM2" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="AC2" s="64" t="s">
+      <c r="AN2" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="AD2" s="64" t="s">
+      <c r="AO2" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="AE2" s="79" t="s">
+      <c r="AP2" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="AF2" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG2" s="79" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH2" s="87" t="s">
-        <v>264</v>
-      </c>
-      <c r="AI2" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ2" s="64" t="s">
-        <v>254</v>
-      </c>
-      <c r="AK2" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL2" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="AM2" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="AN2" s="64" t="s">
-        <v>258</v>
-      </c>
-      <c r="AO2" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="AP2" s="64" t="s">
-        <v>260</v>
-      </c>
       <c r="AQ2" s="99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AR2" s="99" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AS2" s="99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AT2" s="109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AU2" s="110"/>
       <c r="AV2" s="111"/>
@@ -17184,16 +17407,16 @@
     </row>
     <row r="3" s="9" customFormat="1" spans="1:51">
       <c r="A3" s="27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
@@ -17311,16 +17534,16 @@
     </row>
     <row r="4" s="10" customFormat="1" ht="15" spans="1:51">
       <c r="A4" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -17353,16 +17576,16 @@
         <v>0.4914</v>
       </c>
       <c r="AA4" s="66" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AB4" s="66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AC4" s="66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AD4" s="66" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AE4" s="81">
         <f t="shared" si="0"/>
@@ -17393,16 +17616,16 @@
         <v>0.1314</v>
       </c>
       <c r="AM4" s="91" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN4" s="91" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO4" s="91" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP4" s="91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AQ4" s="101">
         <f t="shared" si="4"/>
@@ -17438,16 +17661,16 @@
     </row>
     <row r="5" s="10" customFormat="1" ht="15" spans="1:51">
       <c r="A5" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="B5" s="223" t="s">
         <v>286</v>
       </c>
+      <c r="B5" s="225" t="s">
+        <v>287</v>
+      </c>
       <c r="C5" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="36"/>
@@ -17480,16 +17703,16 @@
         <v>6.8573</v>
       </c>
       <c r="AA5" s="66" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AB5" s="66">
         <v>162.8225</v>
       </c>
       <c r="AC5" s="66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD5" s="66" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AE5" s="81">
         <f t="shared" si="0"/>
@@ -17520,16 +17743,16 @@
         <v>2.8798</v>
       </c>
       <c r="AM5" s="91" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN5" s="91" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO5" s="91" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP5" s="91" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AQ5" s="101">
         <f t="shared" si="4"/>
@@ -17565,16 +17788,16 @@
     </row>
     <row r="6" s="11" customFormat="1" spans="1:51">
       <c r="A6" s="37" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B6" s="38">
         <v>603688</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
@@ -17692,16 +17915,16 @@
     </row>
     <row r="7" s="9" customFormat="1" spans="1:51">
       <c r="A7" s="27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B7" s="40">
         <v>601677</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
@@ -17819,16 +18042,16 @@
     </row>
     <row r="8" s="9" customFormat="1" spans="1:51">
       <c r="A8" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="B8" s="224" t="s">
-        <v>207</v>
+        <v>301</v>
+      </c>
+      <c r="B8" s="226" t="s">
+        <v>208</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E8" s="42"/>
       <c r="F8" s="42"/>
@@ -17946,16 +18169,16 @@
     </row>
     <row r="9" s="12" customFormat="1" spans="1:51">
       <c r="A9" s="43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="44">
         <v>600955</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
@@ -18073,16 +18296,16 @@
     </row>
     <row r="10" s="11" customFormat="1" spans="1:51">
       <c r="A10" s="37" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B10" s="46">
         <v>600779</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -18200,16 +18423,16 @@
     </row>
     <row r="11" s="12" customFormat="1" spans="1:51">
       <c r="A11" s="43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B11" s="49">
         <v>600032</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
@@ -18327,16 +18550,16 @@
     </row>
     <row r="12" spans="1:51">
       <c r="A12" s="51" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
@@ -18398,16 +18621,16 @@
     </row>
     <row r="13" spans="1:51">
       <c r="A13" s="51" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C13" s="56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="54"/>
@@ -18469,16 +18692,16 @@
     </row>
     <row r="14" spans="1:51">
       <c r="A14" s="51" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B14" s="55" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C14" s="56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
@@ -18540,16 +18763,16 @@
     </row>
     <row r="15" spans="1:51">
       <c r="A15" s="51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
@@ -18611,16 +18834,16 @@
     </row>
     <row r="16" spans="1:51">
       <c r="A16" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="57" t="s">
         <v>320</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="57" t="s">
-        <v>319</v>
       </c>
       <c r="E16" s="57"/>
       <c r="F16" s="57"/>
@@ -18682,16 +18905,16 @@
     </row>
     <row r="17" spans="1:51">
       <c r="A17" s="51" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
@@ -18753,16 +18976,16 @@
     </row>
     <row r="18" spans="1:51">
       <c r="A18" s="51" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="225" t="s">
-        <v>198</v>
+        <v>326</v>
+      </c>
+      <c r="B18" s="227" t="s">
+        <v>199</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="54"/>
@@ -18824,16 +19047,16 @@
     </row>
     <row r="19" spans="1:51">
       <c r="A19" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="226" t="s">
-        <v>212</v>
+        <v>328</v>
+      </c>
+      <c r="B19" s="228" t="s">
+        <v>213</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
@@ -18895,16 +19118,16 @@
     </row>
     <row r="20" spans="1:51">
       <c r="A20" s="51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B20" s="60">
         <v>600821</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
@@ -18966,16 +19189,16 @@
     </row>
     <row r="21" spans="1:51">
       <c r="A21" s="51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B21" s="61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
@@ -19037,16 +19260,16 @@
     </row>
     <row r="22" spans="1:51">
       <c r="A22" s="51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="54"/>
@@ -19108,16 +19331,16 @@
     </row>
     <row r="23" spans="1:51">
       <c r="A23" s="51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B23" s="59">
         <v>605028</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
@@ -19179,7 +19402,7 @@
     </row>
     <row r="24" spans="1:51">
       <c r="A24" s="51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -19234,7 +19457,7 @@
     </row>
     <row r="25" spans="1:51">
       <c r="A25" s="51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -19289,7 +19512,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -19345,31 +19568,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4">
         <v>24.93</v>
@@ -19381,13 +19604,13 @@
         <v>704.193548387097</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="8">
         <f>COUNTIF(G:G,H2)</f>
@@ -19396,10 +19619,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4">
         <v>23.9</v>
@@ -19411,13 +19634,13 @@
         <v>656.329113924051</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="I3" s="8">
         <f>COUNTIF(G:G,H3)</f>
@@ -19426,10 +19649,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4">
         <v>287.9</v>
@@ -19441,13 +19664,13 @@
         <v>647.986489997402</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I4" s="8">
         <f>COUNTIF(G:G,H4)</f>
@@ -19456,10 +19679,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4">
         <v>86.94</v>
@@ -19471,13 +19694,13 @@
         <v>573.953488372093</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I5" s="8">
         <f>COUNTIF(G:G,H5)</f>
@@ -19486,10 +19709,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4">
         <v>60.42</v>
@@ -19501,13 +19724,13 @@
         <v>527.414330218068</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I6" s="8">
         <f>COUNTIF(G:G,H6)</f>
@@ -19516,10 +19739,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C7" s="4">
         <v>20.51</v>
@@ -19531,13 +19754,13 @@
         <v>449.865951742627</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I7" s="8">
         <f>COUNTIF(G:G,H7)</f>
@@ -19546,10 +19769,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="4">
         <v>30.27</v>
@@ -19561,13 +19784,13 @@
         <v>444.424460431655</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I8" s="8">
         <f>COUNTIF(G:G,H8)</f>
@@ -19576,10 +19799,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="4">
         <v>83.72</v>
@@ -19591,13 +19814,13 @@
         <v>434.269304403318</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I9" s="8">
         <f>COUNTIF(G:G,H9)</f>
@@ -19606,10 +19829,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4">
         <v>53.52</v>
@@ -19621,13 +19844,13 @@
         <v>432.537313432836</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I10" s="8">
         <f>COUNTIF(G:G,H10)</f>
@@ -19636,10 +19859,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="4">
         <v>29.61</v>
@@ -19651,13 +19874,13 @@
         <v>408.762886597938</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I11" s="8">
         <f>COUNTIF(G:G,H11)</f>
@@ -19666,10 +19889,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4">
         <v>27.46</v>
@@ -19681,13 +19904,13 @@
         <v>402.930402930403</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I12" s="8">
         <f>COUNTIF(G:G,H12)</f>
@@ -19696,10 +19919,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="4">
         <v>43.9</v>
@@ -19711,13 +19934,13 @@
         <v>400.455996352029</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I13" s="8">
         <f>COUNTIF(G:G,H13)</f>
@@ -19726,10 +19949,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C14" s="4">
         <v>98.2</v>
@@ -19741,13 +19964,13 @@
         <v>397.971602434077</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I14" s="8">
         <f>COUNTIF(G:G,H14)</f>
@@ -19756,10 +19979,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="4">
         <v>8.19</v>
@@ -19771,13 +19994,13 @@
         <v>390.595423505451</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I15" s="8">
         <f>COUNTIF(G:G,H15)</f>
@@ -19786,10 +20009,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4">
         <v>46.67</v>
@@ -19801,13 +20024,13 @@
         <v>390.231092436975</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I16" s="8">
         <f>COUNTIF(G:G,H16)</f>
@@ -19816,10 +20039,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C17" s="4">
         <v>139.05</v>
@@ -19831,13 +20054,13 @@
         <v>381.141868512111</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I17" s="8">
         <f>COUNTIF(G:G,H17)</f>
@@ -19846,10 +20069,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" s="4">
         <v>78.3</v>
@@ -19861,13 +20084,13 @@
         <v>373.111782477341</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I18" s="8">
         <f>COUNTIF(G:G,H18)</f>
@@ -19876,10 +20099,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4">
         <v>31.21</v>
@@ -19891,13 +20114,13 @@
         <v>351.92586156965</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I19" s="8">
         <f>COUNTIF(G:G,H19)</f>
@@ -19906,10 +20129,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="4">
         <v>25.22</v>
@@ -19921,13 +20144,13 @@
         <v>342.456140350877</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I20" s="8">
         <f>COUNTIF(G:G,H20)</f>
@@ -19936,10 +20159,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C21" s="4">
         <v>136.1</v>
@@ -19951,13 +20174,13 @@
         <v>340.595662026546</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I21" s="8">
         <f>COUNTIF(G:G,H21)</f>
@@ -19966,10 +20189,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="4">
         <v>197.8</v>
@@ -19981,13 +20204,13 @@
         <v>318.181818181818</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I22" s="8">
         <f>COUNTIF(G:G,H22)</f>
@@ -19996,10 +20219,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C23" s="4">
         <v>53.57</v>
@@ -20011,13 +20234,13 @@
         <v>315.593483320403</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I23" s="8">
         <f>COUNTIF(G:G,H23)</f>
@@ -20026,10 +20249,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C24" s="4">
         <v>26.71</v>
@@ -20041,13 +20264,13 @@
         <v>314.108527131783</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I24" s="8">
         <f>COUNTIF(G:G,H24)</f>
@@ -20056,10 +20279,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="4">
         <v>71.69</v>
@@ -20071,13 +20294,13 @@
         <v>309.89136649514</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I25" s="8">
         <f>COUNTIF(G:G,H25)</f>
@@ -20086,10 +20309,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4">
         <v>52.47</v>
@@ -20101,13 +20324,13 @@
         <v>304.548959136469</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I26" s="8">
         <f>COUNTIF(G:G,H26)</f>
@@ -20116,10 +20339,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4">
         <v>26.5</v>
@@ -20131,13 +20354,13 @@
         <v>303.963414634146</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I27" s="8">
         <f>COUNTIF(G:G,H27)</f>
@@ -20146,10 +20369,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" s="4">
         <v>126</v>
@@ -20161,13 +20384,13 @@
         <v>299.873056172644</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I28" s="8">
         <f>COUNTIF(G:G,H28)</f>
@@ -20176,10 +20399,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C29" s="4">
         <v>59.54</v>
@@ -20191,13 +20414,13 @@
         <v>296.794107330754</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I29" s="8">
         <f>COUNTIF(G:G,H29)</f>
@@ -20206,10 +20429,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C30" s="4">
         <v>16.63</v>
@@ -20221,13 +20444,13 @@
         <v>295.011876484561</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I30" s="8">
         <f>COUNTIF(G:G,H30)</f>
@@ -20236,10 +20459,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C31" s="4">
         <v>142.1</v>
@@ -20251,13 +20474,13 @@
         <v>293.737877528401</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I31" s="8">
         <f>COUNTIF(G:G,H31)</f>
@@ -20266,10 +20489,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" s="4">
         <v>32.71</v>
@@ -20281,13 +20504,13 @@
         <v>293.149038461538</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I32" s="8">
         <f>COUNTIF(G:G,H32)</f>
@@ -20296,10 +20519,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4">
         <v>23.13</v>
@@ -20311,20 +20534,20 @@
         <v>291.370558375634</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="4">
         <v>15.71</v>
@@ -20336,20 +20559,20 @@
         <v>289.826302729528</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4">
         <v>15.09</v>
@@ -20361,20 +20584,20 @@
         <v>288.917525773196</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4">
         <v>92.41</v>
@@ -20386,20 +20609,20 @@
         <v>288.76735380732</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C37" s="4">
         <v>196.55</v>
@@ -20411,20 +20634,20 @@
         <v>286.985627091947</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4">
         <v>28.59</v>
@@ -20436,20 +20659,20 @@
         <v>286.874154262517</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C39" s="4">
         <v>29.1</v>
@@ -20461,20 +20684,20 @@
         <v>277.431906614786</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="4">
         <v>33.77</v>
@@ -20486,20 +20709,20 @@
         <v>276.897321428571</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C41" s="4">
         <v>69.29</v>
@@ -20511,20 +20734,20 @@
         <v>276.576086956522</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4">
         <v>110.02</v>
@@ -20536,20 +20759,20 @@
         <v>272.318104906937</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C43" s="4">
         <v>75.2</v>
@@ -20561,20 +20784,20 @@
         <v>272.093023255814</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4">
         <v>15.92</v>
@@ -20586,20 +20809,20 @@
         <v>270.232558139535</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C45" s="4">
         <v>23.79</v>
@@ -20611,20 +20834,20 @@
         <v>269.984447900467</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C46" s="4">
         <v>251.3</v>
@@ -20636,20 +20859,20 @@
         <v>266.861313868613</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C47" s="4">
         <v>7.89</v>
@@ -20661,20 +20884,20 @@
         <v>265.277777777778</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C48" s="4">
         <v>34.48</v>
@@ -20686,20 +20909,20 @@
         <v>264.482029598309</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" s="4">
         <v>23.1</v>
@@ -20711,20 +20934,20 @@
         <v>264.353312302839</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C50" s="4">
         <v>243.47</v>
@@ -20736,20 +20959,20 @@
         <v>261.445961995249</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C51" s="4">
         <v>614</v>
@@ -20761,20 +20984,20 @@
         <v>261.112744809739</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" s="4">
         <v>136.3</v>
@@ -20786,20 +21009,20 @@
         <v>257.180293501048</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C53" s="4">
         <v>540.64</v>
@@ -20811,20 +21034,20 @@
         <v>255.754425215503</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C54" s="4">
         <v>377.25</v>
@@ -20836,20 +21059,20 @@
         <v>253.657507663751</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C55" s="4">
         <v>190.6</v>
@@ -20861,20 +21084,20 @@
         <v>252.832284339134</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C56" s="4">
         <v>76.54</v>
@@ -20886,20 +21109,20 @@
         <v>252.718894009217</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C57" s="4">
         <v>151</v>
@@ -20911,20 +21134,20 @@
         <v>252.14552238806</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" s="4">
         <v>19.91</v>
@@ -20936,20 +21159,20 @@
         <v>251.146384479718</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C59" s="4">
         <v>31.9</v>
@@ -20961,20 +21184,20 @@
         <v>250.549450549451</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C60" s="4">
         <v>89.22</v>
@@ -20986,20 +21209,20 @@
         <v>249.471210340776</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C61" s="4">
         <v>39.72</v>
@@ -21011,20 +21234,20 @@
         <v>246.294681778553</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C62" s="4">
         <v>77.33</v>
@@ -21036,20 +21259,20 @@
         <v>243.231247225921</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63" s="4">
         <v>19.57</v>
@@ -21061,20 +21284,20 @@
         <v>241.535776614311</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C64" s="4">
         <v>57.15</v>
@@ -21086,20 +21309,20 @@
         <v>240.178571428571</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C65" s="4">
         <v>48.6</v>
@@ -21111,20 +21334,20 @@
         <v>239.148639218423</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C66" s="4">
         <v>25.31</v>
@@ -21136,20 +21359,20 @@
         <v>238.821954484605</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4">
         <v>74.83</v>
@@ -21161,20 +21384,20 @@
         <v>236.768676867687</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C68" s="4">
         <v>63.42</v>
@@ -21186,20 +21409,20 @@
         <v>236.445623342175</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C69" s="4">
         <v>127.5</v>
@@ -21211,20 +21434,20 @@
         <v>236.322869955157</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4">
         <v>15.28</v>
@@ -21236,20 +21459,20 @@
         <v>235.087719298246</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C71" s="4">
         <v>8.26</v>
@@ -21261,20 +21484,20 @@
         <v>233.064516129032</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C72" s="4">
         <v>60.14</v>
@@ -21286,20 +21509,20 @@
         <v>230.621220450797</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73" s="4">
         <v>64.26</v>
@@ -21311,20 +21534,20 @@
         <v>230.385604113111</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H73" s="8"/>
       <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" s="4">
         <v>29.11</v>
@@ -21336,20 +21559,20 @@
         <v>229.298642533937</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C75" s="4">
         <v>24.54</v>
@@ -21361,20 +21584,20 @@
         <v>226.76431424767</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C76" s="4">
         <v>11.3</v>
@@ -21386,20 +21609,20 @@
         <v>226.589595375723</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" s="4">
         <v>22.7</v>
@@ -21411,20 +21634,20 @@
         <v>224.982104509664</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C78" s="4">
         <v>23.35</v>
@@ -21436,20 +21659,20 @@
         <v>223.407202216067</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C79" s="4">
         <v>53.93</v>
@@ -21461,20 +21684,20 @@
         <v>223.236561153774</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C80" s="4">
         <v>85.26</v>
@@ -21486,20 +21709,20 @@
         <v>221.614485099962</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C81" s="4">
         <v>23.54</v>
@@ -21511,20 +21734,20 @@
         <v>219.099905110479</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C82" s="4">
         <v>217.49</v>
@@ -21536,20 +21759,20 @@
         <v>217.781998831093</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C83" s="4">
         <v>39.7</v>
@@ -21561,20 +21784,20 @@
         <v>216.625766871154</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H83" s="8"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C84" s="4">
         <v>34.49</v>
@@ -21586,20 +21809,20 @@
         <v>216.131989000917</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C85" s="4">
         <v>46.49</v>
@@ -21611,20 +21834,20 @@
         <v>214.972899728997</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H85" s="8"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C86" s="4">
         <v>26.06</v>
@@ -21636,20 +21859,20 @@
         <v>213.975903614458</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H86" s="8"/>
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C87" s="4">
         <v>18.85</v>
@@ -21661,20 +21884,20 @@
         <v>213.12292358804</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H87" s="8"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="4">
         <v>22.45</v>
@@ -21686,20 +21909,20 @@
         <v>212.239221140473</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H88" s="8"/>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C89" s="4">
         <v>114.36</v>
@@ -21711,20 +21934,20 @@
         <v>211.607629427793</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H89" s="8"/>
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C90" s="4">
         <v>28.91</v>
@@ -21736,20 +21959,20 @@
         <v>209.528907922912</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H90" s="8"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C91" s="4">
         <v>108.8</v>
@@ -21761,20 +21984,20 @@
         <v>208.390022675737</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H91" s="8"/>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C92" s="4">
         <v>241.14</v>
@@ -21786,10 +22009,10 @@
         <v>207.458880530409</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H92" s="8"/>
       <c r="I92" s="8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -17481,11 +17481,11 @@
   <dimension ref="A1:BA26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AV4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW7" sqref="AW7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -17401,11 +17401,11 @@
   <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BF10" sqref="BF10"/>
+      <selection pane="bottomRight" activeCell="BF11" sqref="BF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518">
   <si>
     <t>股票代码</t>
   </si>
@@ -2215,6 +2215,15 @@
       </rPr>
       <t>1w)</t>
     </r>
+  </si>
+  <si>
+    <t>600888</t>
+  </si>
+  <si>
+    <t>新疆众和</t>
+  </si>
+  <si>
+    <t>3T</t>
   </si>
   <si>
     <t>分析编号</t>
@@ -3885,7 +3894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4587,6 +4596,9 @@
     <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4598,8 +4610,14 @@
     <xf numFmtId="10" fontId="16" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="16" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6842,55 +6860,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="55" spans="1:9">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="265" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="262" t="s">
+      <c r="B1" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="263" t="s">
+      <c r="C1" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="263" t="s">
+      <c r="D1" s="266" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="263" t="s">
+      <c r="E1" s="266" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="262" t="s">
+      <c r="F1" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="266" t="s">
+      <c r="G1" s="269" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="267" t="s">
+      <c r="H1" s="270" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="68"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="264" t="s">
+      <c r="B2" s="267" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="265">
+      <c r="C2" s="268">
         <v>24.93</v>
       </c>
-      <c r="D2" s="265">
+      <c r="D2" s="268">
         <v>1.548</v>
       </c>
-      <c r="E2" s="265">
+      <c r="E2" s="268">
         <v>704.193548387097</v>
       </c>
-      <c r="F2" s="264" t="s">
+      <c r="F2" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="268" t="s">
+      <c r="G2" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="268" t="s">
+      <c r="H2" s="271" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="68">
@@ -6899,28 +6917,28 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="264" t="s">
+      <c r="A3" s="267" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="264" t="s">
+      <c r="B3" s="267" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="265">
+      <c r="C3" s="268">
         <v>23.9</v>
       </c>
-      <c r="D3" s="265">
+      <c r="D3" s="268">
         <v>1.963</v>
       </c>
-      <c r="E3" s="265">
+      <c r="E3" s="268">
         <v>656.329113924051</v>
       </c>
-      <c r="F3" s="264" t="s">
+      <c r="F3" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="268" t="s">
+      <c r="G3" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="268" t="s">
+      <c r="H3" s="271" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="68">
@@ -6929,28 +6947,28 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="267" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="264" t="s">
+      <c r="B4" s="267" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="265">
+      <c r="C4" s="268">
         <v>287.9</v>
       </c>
-      <c r="D4" s="265">
+      <c r="D4" s="268">
         <v>4.801</v>
       </c>
-      <c r="E4" s="265">
+      <c r="E4" s="268">
         <v>647.986489997402</v>
       </c>
-      <c r="F4" s="264" t="s">
+      <c r="F4" s="267" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="268" t="s">
+      <c r="G4" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="268" t="s">
+      <c r="H4" s="271" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="68">
@@ -6959,28 +6977,28 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="267" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="264" t="s">
+      <c r="B5" s="267" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="265">
+      <c r="C5" s="268">
         <v>86.94</v>
       </c>
-      <c r="D5" s="265">
+      <c r="D5" s="268">
         <v>4.621</v>
       </c>
-      <c r="E5" s="265">
+      <c r="E5" s="268">
         <v>573.953488372093</v>
       </c>
-      <c r="F5" s="264" t="s">
+      <c r="F5" s="267" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="268" t="s">
+      <c r="G5" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="268" t="s">
+      <c r="H5" s="271" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="68">
@@ -6989,28 +7007,28 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="264" t="s">
+      <c r="B6" s="267" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="265">
+      <c r="C6" s="268">
         <v>60.42</v>
       </c>
-      <c r="D6" s="265">
+      <c r="D6" s="268">
         <v>3.636</v>
       </c>
-      <c r="E6" s="265">
+      <c r="E6" s="268">
         <v>527.414330218068</v>
       </c>
-      <c r="F6" s="264" t="s">
+      <c r="F6" s="267" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="268" t="s">
+      <c r="G6" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="268" t="s">
+      <c r="H6" s="271" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="68">
@@ -7019,28 +7037,28 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="267" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="264" t="s">
+      <c r="B7" s="267" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="265">
+      <c r="C7" s="268">
         <v>20.51</v>
       </c>
-      <c r="D7" s="265">
+      <c r="D7" s="268">
         <v>2.091</v>
       </c>
-      <c r="E7" s="265">
+      <c r="E7" s="268">
         <v>449.865951742627</v>
       </c>
-      <c r="F7" s="264" t="s">
+      <c r="F7" s="267" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="268" t="s">
+      <c r="G7" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="268" t="s">
+      <c r="H7" s="271" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="68">
@@ -7049,28 +7067,28 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="264" t="s">
+      <c r="A8" s="267" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="264" t="s">
+      <c r="B8" s="267" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="265">
+      <c r="C8" s="268">
         <v>30.27</v>
       </c>
-      <c r="D8" s="265">
+      <c r="D8" s="268">
         <v>-0.296</v>
       </c>
-      <c r="E8" s="265">
+      <c r="E8" s="268">
         <v>444.424460431655</v>
       </c>
-      <c r="F8" s="264" t="s">
+      <c r="F8" s="267" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="268" t="s">
+      <c r="G8" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="268" t="s">
+      <c r="H8" s="271" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="68">
@@ -7079,28 +7097,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="264" t="s">
+      <c r="A9" s="267" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="264" t="s">
+      <c r="B9" s="267" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="265">
+      <c r="C9" s="268">
         <v>83.72</v>
       </c>
-      <c r="D9" s="265">
+      <c r="D9" s="268">
         <v>2.774</v>
       </c>
-      <c r="E9" s="265">
+      <c r="E9" s="268">
         <v>434.269304403318</v>
       </c>
-      <c r="F9" s="264" t="s">
+      <c r="F9" s="267" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="268" t="s">
+      <c r="G9" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="268" t="s">
+      <c r="H9" s="271" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="68">
@@ -7109,28 +7127,28 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="264" t="s">
+      <c r="B10" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="265">
+      <c r="C10" s="268">
         <v>53.52</v>
       </c>
-      <c r="D10" s="265">
+      <c r="D10" s="268">
         <v>10.01</v>
       </c>
-      <c r="E10" s="265">
+      <c r="E10" s="268">
         <v>432.537313432836</v>
       </c>
-      <c r="F10" s="264" t="s">
+      <c r="F10" s="267" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="268" t="s">
+      <c r="G10" s="271" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="268" t="s">
+      <c r="H10" s="271" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="68">
@@ -7139,28 +7157,28 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="264" t="s">
+      <c r="A11" s="267" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="264" t="s">
+      <c r="B11" s="267" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="265">
+      <c r="C11" s="268">
         <v>29.61</v>
       </c>
-      <c r="D11" s="265">
+      <c r="D11" s="268">
         <v>0.271</v>
       </c>
-      <c r="E11" s="265">
+      <c r="E11" s="268">
         <v>408.762886597938</v>
       </c>
-      <c r="F11" s="264" t="s">
+      <c r="F11" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="268" t="s">
+      <c r="G11" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="268" t="s">
+      <c r="H11" s="271" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="68">
@@ -7169,28 +7187,28 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="264" t="s">
+      <c r="A12" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="264" t="s">
+      <c r="B12" s="267" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="265">
+      <c r="C12" s="268">
         <v>27.46</v>
       </c>
-      <c r="D12" s="265">
+      <c r="D12" s="268">
         <v>0.109</v>
       </c>
-      <c r="E12" s="265">
+      <c r="E12" s="268">
         <v>402.930402930403</v>
       </c>
-      <c r="F12" s="264" t="s">
+      <c r="F12" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="268" t="s">
+      <c r="G12" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="268" t="s">
+      <c r="H12" s="271" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="68">
@@ -7199,28 +7217,28 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="264" t="s">
+      <c r="A13" s="267" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="264" t="s">
+      <c r="B13" s="267" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="265">
+      <c r="C13" s="268">
         <v>43.9</v>
       </c>
-      <c r="D13" s="265">
+      <c r="D13" s="268">
         <v>6.528</v>
       </c>
-      <c r="E13" s="265">
+      <c r="E13" s="268">
         <v>400.455996352029</v>
       </c>
-      <c r="F13" s="264" t="s">
+      <c r="F13" s="267" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="268" t="s">
+      <c r="G13" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="268" t="s">
+      <c r="H13" s="271" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="68">
@@ -7229,28 +7247,28 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="264" t="s">
+      <c r="A14" s="267" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="267" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="265">
+      <c r="C14" s="268">
         <v>98.2</v>
       </c>
-      <c r="D14" s="265">
+      <c r="D14" s="268">
         <v>0.102</v>
       </c>
-      <c r="E14" s="265">
+      <c r="E14" s="268">
         <v>397.971602434077</v>
       </c>
-      <c r="F14" s="264" t="s">
+      <c r="F14" s="267" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="268" t="s">
+      <c r="G14" s="271" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="268" t="s">
+      <c r="H14" s="271" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="68">
@@ -7259,28 +7277,28 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="264" t="s">
+      <c r="A15" s="267" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="264" t="s">
+      <c r="B15" s="267" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="265">
+      <c r="C15" s="268">
         <v>8.19</v>
       </c>
-      <c r="D15" s="265">
+      <c r="D15" s="268">
         <v>0.122</v>
       </c>
-      <c r="E15" s="265">
+      <c r="E15" s="268">
         <v>390.595423505451</v>
       </c>
-      <c r="F15" s="264" t="s">
+      <c r="F15" s="267" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="268" t="s">
+      <c r="H15" s="271" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="68">
@@ -7289,28 +7307,28 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="264" t="s">
+      <c r="A16" s="267" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="264" t="s">
+      <c r="B16" s="267" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="265">
+      <c r="C16" s="268">
         <v>46.67</v>
       </c>
-      <c r="D16" s="265">
+      <c r="D16" s="268">
         <v>-2.527</v>
       </c>
-      <c r="E16" s="265">
+      <c r="E16" s="268">
         <v>390.231092436975</v>
       </c>
-      <c r="F16" s="264" t="s">
+      <c r="F16" s="267" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="268" t="s">
+      <c r="G16" s="271" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="268" t="s">
+      <c r="H16" s="271" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="68">
@@ -7319,28 +7337,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="264" t="s">
+      <c r="A17" s="267" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="264" t="s">
+      <c r="B17" s="267" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="265">
+      <c r="C17" s="268">
         <v>139.05</v>
       </c>
-      <c r="D17" s="265">
+      <c r="D17" s="268">
         <v>4.943</v>
       </c>
-      <c r="E17" s="265">
+      <c r="E17" s="268">
         <v>381.141868512111</v>
       </c>
-      <c r="F17" s="264" t="s">
+      <c r="F17" s="267" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="268" t="s">
+      <c r="G17" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="268" t="s">
+      <c r="H17" s="271" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="68">
@@ -7349,28 +7367,28 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="264" t="s">
+      <c r="A18" s="267" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="264" t="s">
+      <c r="B18" s="267" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="265">
+      <c r="C18" s="268">
         <v>78.3</v>
       </c>
-      <c r="D18" s="265">
+      <c r="D18" s="268">
         <v>3.407</v>
       </c>
-      <c r="E18" s="265">
+      <c r="E18" s="268">
         <v>373.111782477341</v>
       </c>
-      <c r="F18" s="264" t="s">
+      <c r="F18" s="267" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="268" t="s">
+      <c r="G18" s="271" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="268" t="s">
+      <c r="H18" s="271" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="68">
@@ -7379,28 +7397,28 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="264" t="s">
+      <c r="A19" s="267" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="264" t="s">
+      <c r="B19" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="265">
+      <c r="C19" s="268">
         <v>31.21</v>
       </c>
-      <c r="D19" s="265">
+      <c r="D19" s="268">
         <v>-0.032</v>
       </c>
-      <c r="E19" s="265">
+      <c r="E19" s="268">
         <v>351.92586156965</v>
       </c>
-      <c r="F19" s="264" t="s">
+      <c r="F19" s="267" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="268" t="s">
+      <c r="G19" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="268" t="s">
+      <c r="H19" s="271" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="68">
@@ -7409,28 +7427,28 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="264" t="s">
+      <c r="A20" s="267" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="264" t="s">
+      <c r="B20" s="267" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="265">
+      <c r="C20" s="268">
         <v>25.22</v>
       </c>
-      <c r="D20" s="265">
+      <c r="D20" s="268">
         <v>9.987</v>
       </c>
-      <c r="E20" s="265">
+      <c r="E20" s="268">
         <v>342.456140350877</v>
       </c>
-      <c r="F20" s="264" t="s">
+      <c r="F20" s="267" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="268" t="s">
+      <c r="G20" s="271" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="268" t="s">
+      <c r="H20" s="271" t="s">
         <v>83</v>
       </c>
       <c r="I20" s="68">
@@ -7439,28 +7457,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="264" t="s">
+      <c r="A21" s="267" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="264" t="s">
+      <c r="B21" s="267" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="265">
+      <c r="C21" s="268">
         <v>136.1</v>
       </c>
-      <c r="D21" s="265">
+      <c r="D21" s="268">
         <v>3.656</v>
       </c>
-      <c r="E21" s="265">
+      <c r="E21" s="268">
         <v>340.595662026546</v>
       </c>
-      <c r="F21" s="264" t="s">
+      <c r="F21" s="267" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="268" t="s">
+      <c r="G21" s="271" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="268" t="s">
+      <c r="H21" s="271" t="s">
         <v>87</v>
       </c>
       <c r="I21" s="68">
@@ -7469,28 +7487,28 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="264" t="s">
+      <c r="A22" s="267" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="264" t="s">
+      <c r="B22" s="267" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="265">
+      <c r="C22" s="268">
         <v>197.8</v>
       </c>
-      <c r="D22" s="265">
+      <c r="D22" s="268">
         <v>6.413</v>
       </c>
-      <c r="E22" s="265">
+      <c r="E22" s="268">
         <v>318.181818181818</v>
       </c>
-      <c r="F22" s="264" t="s">
+      <c r="F22" s="267" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="268" t="s">
+      <c r="G22" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="268" t="s">
+      <c r="H22" s="271" t="s">
         <v>91</v>
       </c>
       <c r="I22" s="68">
@@ -7499,28 +7517,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="264" t="s">
+      <c r="A23" s="267" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="265">
+      <c r="C23" s="268">
         <v>53.57</v>
       </c>
-      <c r="D23" s="265">
+      <c r="D23" s="268">
         <v>0.847</v>
       </c>
-      <c r="E23" s="265">
+      <c r="E23" s="268">
         <v>315.593483320403</v>
       </c>
-      <c r="F23" s="264" t="s">
+      <c r="F23" s="267" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="268" t="s">
+      <c r="G23" s="271" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="268" t="s">
+      <c r="H23" s="271" t="s">
         <v>95</v>
       </c>
       <c r="I23" s="68">
@@ -7529,28 +7547,28 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="264" t="s">
+      <c r="A24" s="267" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="264" t="s">
+      <c r="B24" s="267" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="265">
+      <c r="C24" s="268">
         <v>26.71</v>
       </c>
-      <c r="D24" s="265">
+      <c r="D24" s="268">
         <v>1.289</v>
       </c>
-      <c r="E24" s="265">
+      <c r="E24" s="268">
         <v>314.108527131783</v>
       </c>
-      <c r="F24" s="264" t="s">
+      <c r="F24" s="267" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="268" t="s">
+      <c r="G24" s="271" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="268" t="s">
+      <c r="H24" s="271" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="68">
@@ -7559,28 +7577,28 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="264" t="s">
+      <c r="A25" s="267" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="264" t="s">
+      <c r="B25" s="267" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="265">
+      <c r="C25" s="268">
         <v>71.69</v>
       </c>
-      <c r="D25" s="265">
+      <c r="D25" s="268">
         <v>0.252</v>
       </c>
-      <c r="E25" s="265">
+      <c r="E25" s="268">
         <v>309.89136649514</v>
       </c>
-      <c r="F25" s="264" t="s">
+      <c r="F25" s="267" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="268" t="s">
+      <c r="G25" s="271" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="268" t="s">
+      <c r="H25" s="271" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="68">
@@ -7589,28 +7607,28 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="264" t="s">
+      <c r="A26" s="267" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="264" t="s">
+      <c r="B26" s="267" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="265">
+      <c r="C26" s="268">
         <v>52.47</v>
       </c>
-      <c r="D26" s="265">
+      <c r="D26" s="268">
         <v>1.176</v>
       </c>
-      <c r="E26" s="265">
+      <c r="E26" s="268">
         <v>304.548959136469</v>
       </c>
-      <c r="F26" s="264" t="s">
+      <c r="F26" s="267" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="268" t="s">
+      <c r="G26" s="271" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="268" t="s">
+      <c r="H26" s="271" t="s">
         <v>107</v>
       </c>
       <c r="I26" s="68">
@@ -7619,28 +7637,28 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="264" t="s">
+      <c r="A27" s="267" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="264" t="s">
+      <c r="B27" s="267" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="265">
+      <c r="C27" s="268">
         <v>26.5</v>
       </c>
-      <c r="D27" s="265">
+      <c r="D27" s="268">
         <v>0.991</v>
       </c>
-      <c r="E27" s="265">
+      <c r="E27" s="268">
         <v>303.963414634146</v>
       </c>
-      <c r="F27" s="264" t="s">
+      <c r="F27" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="268" t="s">
+      <c r="G27" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="268" t="s">
+      <c r="H27" s="271" t="s">
         <v>111</v>
       </c>
       <c r="I27" s="68">
@@ -7649,28 +7667,28 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="264" t="s">
+      <c r="A28" s="267" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="264" t="s">
+      <c r="B28" s="267" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="265">
+      <c r="C28" s="268">
         <v>126</v>
       </c>
-      <c r="D28" s="265">
+      <c r="D28" s="268">
         <v>3.287</v>
       </c>
-      <c r="E28" s="265">
+      <c r="E28" s="268">
         <v>299.873056172644</v>
       </c>
-      <c r="F28" s="264" t="s">
+      <c r="F28" s="267" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="268" t="s">
+      <c r="G28" s="271" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="268" t="s">
+      <c r="H28" s="271" t="s">
         <v>115</v>
       </c>
       <c r="I28" s="68">
@@ -7679,28 +7697,28 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="264" t="s">
+      <c r="A29" s="267" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="264" t="s">
+      <c r="B29" s="267" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="265">
+      <c r="C29" s="268">
         <v>59.54</v>
       </c>
-      <c r="D29" s="265">
+      <c r="D29" s="268">
         <v>3.764</v>
       </c>
-      <c r="E29" s="265">
+      <c r="E29" s="268">
         <v>296.794107330754</v>
       </c>
-      <c r="F29" s="264" t="s">
+      <c r="F29" s="267" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="268" t="s">
+      <c r="G29" s="271" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="268" t="s">
+      <c r="H29" s="271" t="s">
         <v>119</v>
       </c>
       <c r="I29" s="68">
@@ -7709,28 +7727,28 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="264" t="s">
+      <c r="A30" s="267" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="264" t="s">
+      <c r="B30" s="267" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="265">
+      <c r="C30" s="268">
         <v>16.63</v>
       </c>
-      <c r="D30" s="265">
+      <c r="D30" s="268">
         <v>-0.894</v>
       </c>
-      <c r="E30" s="265">
+      <c r="E30" s="268">
         <v>295.011876484561</v>
       </c>
-      <c r="F30" s="264" t="s">
+      <c r="F30" s="267" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="268" t="s">
+      <c r="G30" s="271" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="268" t="s">
+      <c r="H30" s="271" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="68">
@@ -7739,28 +7757,28 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="264" t="s">
+      <c r="A31" s="267" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="264" t="s">
+      <c r="B31" s="267" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="265">
+      <c r="C31" s="268">
         <v>142.1</v>
       </c>
-      <c r="D31" s="265">
+      <c r="D31" s="268">
         <v>1.067</v>
       </c>
-      <c r="E31" s="265">
+      <c r="E31" s="268">
         <v>293.737877528401</v>
       </c>
-      <c r="F31" s="264" t="s">
+      <c r="F31" s="267" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="268" t="s">
+      <c r="G31" s="271" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="268" t="s">
+      <c r="H31" s="271" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="68">
@@ -7769,28 +7787,28 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="264" t="s">
+      <c r="A32" s="267" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="264" t="s">
+      <c r="B32" s="267" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="265">
+      <c r="C32" s="268">
         <v>32.71</v>
       </c>
-      <c r="D32" s="265">
+      <c r="D32" s="268">
         <v>3.447</v>
       </c>
-      <c r="E32" s="265">
+      <c r="E32" s="268">
         <v>293.149038461538</v>
       </c>
-      <c r="F32" s="264" t="s">
+      <c r="F32" s="267" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="268" t="s">
+      <c r="G32" s="271" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="268" t="s">
+      <c r="H32" s="271" t="s">
         <v>131</v>
       </c>
       <c r="I32" s="68">
@@ -7799,1500 +7817,1500 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="264" t="s">
+      <c r="A33" s="267" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="264" t="s">
+      <c r="B33" s="267" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="265">
+      <c r="C33" s="268">
         <v>23.13</v>
       </c>
-      <c r="D33" s="265">
+      <c r="D33" s="268">
         <v>1.27</v>
       </c>
-      <c r="E33" s="265">
+      <c r="E33" s="268">
         <v>291.370558375634</v>
       </c>
-      <c r="F33" s="264" t="s">
+      <c r="F33" s="267" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="268" t="s">
+      <c r="G33" s="271" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="68"/>
       <c r="I33" s="68"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="264" t="s">
+      <c r="A34" s="267" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="264" t="s">
+      <c r="B34" s="267" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="265">
+      <c r="C34" s="268">
         <v>15.71</v>
       </c>
-      <c r="D34" s="265">
+      <c r="D34" s="268">
         <v>10.014</v>
       </c>
-      <c r="E34" s="265">
+      <c r="E34" s="268">
         <v>289.826302729528</v>
       </c>
-      <c r="F34" s="264" t="s">
+      <c r="F34" s="267" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="268" t="s">
+      <c r="G34" s="271" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="68"/>
       <c r="I34" s="68"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="264" t="s">
+      <c r="A35" s="267" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="264" t="s">
+      <c r="B35" s="267" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="265">
+      <c r="C35" s="268">
         <v>15.09</v>
       </c>
-      <c r="D35" s="265">
+      <c r="D35" s="268">
         <v>-3.947</v>
       </c>
-      <c r="E35" s="265">
+      <c r="E35" s="268">
         <v>288.917525773196</v>
       </c>
-      <c r="F35" s="264" t="s">
+      <c r="F35" s="267" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="268" t="s">
+      <c r="G35" s="271" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="68"/>
       <c r="I35" s="68"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="264" t="s">
+      <c r="A36" s="267" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="264" t="s">
+      <c r="B36" s="267" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="265">
+      <c r="C36" s="268">
         <v>92.41</v>
       </c>
-      <c r="D36" s="265">
+      <c r="D36" s="268">
         <v>9.999</v>
       </c>
-      <c r="E36" s="265">
+      <c r="E36" s="268">
         <v>288.76735380732</v>
       </c>
-      <c r="F36" s="264" t="s">
+      <c r="F36" s="267" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="268" t="s">
+      <c r="G36" s="271" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="68"/>
       <c r="I36" s="68"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="264" t="s">
+      <c r="A37" s="267" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="264" t="s">
+      <c r="B37" s="267" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="265">
+      <c r="C37" s="268">
         <v>196.55</v>
       </c>
-      <c r="D37" s="265">
+      <c r="D37" s="268">
         <v>5.757</v>
       </c>
-      <c r="E37" s="265">
+      <c r="E37" s="268">
         <v>286.985627091947</v>
       </c>
-      <c r="F37" s="264" t="s">
+      <c r="F37" s="267" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="268" t="s">
+      <c r="G37" s="271" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="68"/>
       <c r="I37" s="68"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="264" t="s">
+      <c r="A38" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="264" t="s">
+      <c r="B38" s="267" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="265">
+      <c r="C38" s="268">
         <v>28.59</v>
       </c>
-      <c r="D38" s="265">
+      <c r="D38" s="268">
         <v>5.304</v>
       </c>
-      <c r="E38" s="265">
+      <c r="E38" s="268">
         <v>286.874154262517</v>
       </c>
-      <c r="F38" s="264" t="s">
+      <c r="F38" s="267" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="268" t="s">
+      <c r="G38" s="271" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="68"/>
       <c r="I38" s="68"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="264" t="s">
+      <c r="A39" s="267" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="264" t="s">
+      <c r="B39" s="267" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="265">
+      <c r="C39" s="268">
         <v>29.1</v>
       </c>
-      <c r="D39" s="265">
+      <c r="D39" s="268">
         <v>-1.954</v>
       </c>
-      <c r="E39" s="265">
+      <c r="E39" s="268">
         <v>277.431906614786</v>
       </c>
-      <c r="F39" s="264" t="s">
+      <c r="F39" s="267" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="268" t="s">
+      <c r="G39" s="271" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="68"/>
       <c r="I39" s="68"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="264" t="s">
+      <c r="A40" s="267" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="264" t="s">
+      <c r="B40" s="267" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="265">
+      <c r="C40" s="268">
         <v>33.77</v>
       </c>
-      <c r="D40" s="265">
+      <c r="D40" s="268">
         <v>10</v>
       </c>
-      <c r="E40" s="265">
+      <c r="E40" s="268">
         <v>276.897321428571</v>
       </c>
-      <c r="F40" s="264" t="s">
+      <c r="F40" s="267" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="268" t="s">
+      <c r="G40" s="271" t="s">
         <v>79</v>
       </c>
       <c r="H40" s="68"/>
       <c r="I40" s="68"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="264" t="s">
+      <c r="A41" s="267" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="264" t="s">
+      <c r="B41" s="267" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="265">
+      <c r="C41" s="268">
         <v>69.29</v>
       </c>
-      <c r="D41" s="265">
+      <c r="D41" s="268">
         <v>2.334</v>
       </c>
-      <c r="E41" s="265">
+      <c r="E41" s="268">
         <v>276.576086956522</v>
       </c>
-      <c r="F41" s="264" t="s">
+      <c r="F41" s="267" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="268" t="s">
+      <c r="G41" s="271" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="68"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="264" t="s">
+      <c r="A42" s="267" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="264" t="s">
+      <c r="B42" s="267" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="265">
+      <c r="C42" s="268">
         <v>110.02</v>
       </c>
-      <c r="D42" s="265">
+      <c r="D42" s="268">
         <v>3.636</v>
       </c>
-      <c r="E42" s="265">
+      <c r="E42" s="268">
         <v>272.318104906937</v>
       </c>
-      <c r="F42" s="264" t="s">
+      <c r="F42" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="268" t="s">
+      <c r="G42" s="271" t="s">
         <v>47</v>
       </c>
       <c r="H42" s="68"/>
       <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="264" t="s">
+      <c r="A43" s="267" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="264" t="s">
+      <c r="B43" s="267" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="265">
+      <c r="C43" s="268">
         <v>75.2</v>
       </c>
-      <c r="D43" s="265">
+      <c r="D43" s="268">
         <v>3.169</v>
       </c>
-      <c r="E43" s="265">
+      <c r="E43" s="268">
         <v>272.093023255814</v>
       </c>
-      <c r="F43" s="264" t="s">
+      <c r="F43" s="267" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="268" t="s">
+      <c r="G43" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="68"/>
       <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="264" t="s">
+      <c r="A44" s="267" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="264" t="s">
+      <c r="B44" s="267" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="265">
+      <c r="C44" s="268">
         <v>15.92</v>
       </c>
-      <c r="D44" s="265">
+      <c r="D44" s="268">
         <v>1.144</v>
       </c>
-      <c r="E44" s="265">
+      <c r="E44" s="268">
         <v>270.232558139535</v>
       </c>
-      <c r="F44" s="264" t="s">
+      <c r="F44" s="267" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="268" t="s">
+      <c r="G44" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="68"/>
       <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="264" t="s">
+      <c r="A45" s="267" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="264" t="s">
+      <c r="B45" s="267" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="265">
+      <c r="C45" s="268">
         <v>23.79</v>
       </c>
-      <c r="D45" s="265">
+      <c r="D45" s="268">
         <v>-1.572</v>
       </c>
-      <c r="E45" s="265">
+      <c r="E45" s="268">
         <v>269.984447900467</v>
       </c>
-      <c r="F45" s="264" t="s">
+      <c r="F45" s="267" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="268" t="s">
+      <c r="G45" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="68"/>
       <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="264" t="s">
+      <c r="A46" s="267" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="264" t="s">
+      <c r="B46" s="267" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="265">
+      <c r="C46" s="268">
         <v>251.3</v>
       </c>
-      <c r="D46" s="265">
+      <c r="D46" s="268">
         <v>2.655</v>
       </c>
-      <c r="E46" s="265">
+      <c r="E46" s="268">
         <v>266.861313868613</v>
       </c>
-      <c r="F46" s="264" t="s">
+      <c r="F46" s="267" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="268" t="s">
+      <c r="G46" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="68"/>
       <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="264" t="s">
+      <c r="A47" s="267" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="264" t="s">
+      <c r="B47" s="267" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="265">
+      <c r="C47" s="268">
         <v>7.89</v>
       </c>
-      <c r="D47" s="265">
+      <c r="D47" s="268">
         <v>-2.472</v>
       </c>
-      <c r="E47" s="265">
+      <c r="E47" s="268">
         <v>265.277777777778</v>
       </c>
-      <c r="F47" s="264" t="s">
+      <c r="F47" s="267" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="268" t="s">
+      <c r="G47" s="271" t="s">
         <v>83</v>
       </c>
       <c r="H47" s="68"/>
       <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="264" t="s">
+      <c r="A48" s="267" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="264" t="s">
+      <c r="B48" s="267" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="265">
+      <c r="C48" s="268">
         <v>34.48</v>
       </c>
-      <c r="D48" s="265">
+      <c r="D48" s="268">
         <v>2.012</v>
       </c>
-      <c r="E48" s="265">
+      <c r="E48" s="268">
         <v>264.482029598309</v>
       </c>
-      <c r="F48" s="264" t="s">
+      <c r="F48" s="267" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="268" t="s">
+      <c r="G48" s="271" t="s">
         <v>87</v>
       </c>
       <c r="H48" s="68"/>
       <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="264" t="s">
+      <c r="A49" s="267" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="264" t="s">
+      <c r="B49" s="267" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="265">
+      <c r="C49" s="268">
         <v>23.1</v>
       </c>
-      <c r="D49" s="265">
+      <c r="D49" s="268">
         <v>10</v>
       </c>
-      <c r="E49" s="265">
+      <c r="E49" s="268">
         <v>264.353312302839</v>
       </c>
-      <c r="F49" s="264" t="s">
+      <c r="F49" s="267" t="s">
         <v>182</v>
       </c>
-      <c r="G49" s="268" t="s">
+      <c r="G49" s="271" t="s">
         <v>59</v>
       </c>
       <c r="H49" s="68"/>
       <c r="I49" s="68"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="264" t="s">
+      <c r="A50" s="267" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="264" t="s">
+      <c r="B50" s="267" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="265">
+      <c r="C50" s="268">
         <v>243.47</v>
       </c>
-      <c r="D50" s="265">
+      <c r="D50" s="268">
         <v>1.193</v>
       </c>
-      <c r="E50" s="265">
+      <c r="E50" s="268">
         <v>261.445961995249</v>
       </c>
-      <c r="F50" s="264" t="s">
+      <c r="F50" s="267" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="268" t="s">
+      <c r="G50" s="271" t="s">
         <v>91</v>
       </c>
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="264" t="s">
+      <c r="A51" s="267" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="264" t="s">
+      <c r="B51" s="267" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="265">
+      <c r="C51" s="268">
         <v>614</v>
       </c>
-      <c r="D51" s="265">
+      <c r="D51" s="268">
         <v>1.207</v>
       </c>
-      <c r="E51" s="265">
+      <c r="E51" s="268">
         <v>261.112744809739</v>
       </c>
-      <c r="F51" s="264" t="s">
+      <c r="F51" s="267" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="268" t="s">
+      <c r="G51" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="68"/>
       <c r="I51" s="68"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="264" t="s">
+      <c r="A52" s="267" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="264" t="s">
+      <c r="B52" s="267" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="265">
+      <c r="C52" s="268">
         <v>136.3</v>
       </c>
-      <c r="D52" s="265">
+      <c r="D52" s="268">
         <v>0.221</v>
       </c>
-      <c r="E52" s="265">
+      <c r="E52" s="268">
         <v>257.180293501048</v>
       </c>
-      <c r="F52" s="264" t="s">
+      <c r="F52" s="267" t="s">
         <v>191</v>
       </c>
-      <c r="G52" s="268" t="s">
+      <c r="G52" s="271" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="68"/>
       <c r="I52" s="68"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="264" t="s">
+      <c r="A53" s="267" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="264" t="s">
+      <c r="B53" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="265">
+      <c r="C53" s="268">
         <v>540.64</v>
       </c>
-      <c r="D53" s="265">
+      <c r="D53" s="268">
         <v>1.529</v>
       </c>
-      <c r="E53" s="265">
+      <c r="E53" s="268">
         <v>255.754425215503</v>
       </c>
-      <c r="F53" s="264" t="s">
+      <c r="F53" s="267" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="268" t="s">
+      <c r="G53" s="271" t="s">
         <v>95</v>
       </c>
       <c r="H53" s="68"/>
       <c r="I53" s="68"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="264" t="s">
+      <c r="A54" s="267" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="264" t="s">
+      <c r="B54" s="267" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="265">
+      <c r="C54" s="268">
         <v>377.25</v>
       </c>
-      <c r="D54" s="265">
+      <c r="D54" s="268">
         <v>3.76</v>
       </c>
-      <c r="E54" s="265">
+      <c r="E54" s="268">
         <v>253.657507663751</v>
       </c>
-      <c r="F54" s="264" t="s">
+      <c r="F54" s="267" t="s">
         <v>197</v>
       </c>
-      <c r="G54" s="268" t="s">
+      <c r="G54" s="271" t="s">
         <v>99</v>
       </c>
       <c r="H54" s="68"/>
       <c r="I54" s="68"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="264" t="s">
+      <c r="A55" s="267" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="264" t="s">
+      <c r="B55" s="267" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="265">
+      <c r="C55" s="268">
         <v>190.6</v>
       </c>
-      <c r="D55" s="265">
+      <c r="D55" s="268">
         <v>3.166</v>
       </c>
-      <c r="E55" s="265">
+      <c r="E55" s="268">
         <v>252.832284339134</v>
       </c>
-      <c r="F55" s="264" t="s">
+      <c r="F55" s="267" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="268" t="s">
+      <c r="G55" s="271" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="68"/>
       <c r="I55" s="68"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="264" t="s">
+      <c r="A56" s="267" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="264" t="s">
+      <c r="B56" s="267" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="265">
+      <c r="C56" s="268">
         <v>76.54</v>
       </c>
-      <c r="D56" s="265">
+      <c r="D56" s="268">
         <v>5.485</v>
       </c>
-      <c r="E56" s="265">
+      <c r="E56" s="268">
         <v>252.718894009217</v>
       </c>
-      <c r="F56" s="264" t="s">
+      <c r="F56" s="267" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="268" t="s">
+      <c r="G56" s="271" t="s">
         <v>87</v>
       </c>
       <c r="H56" s="68"/>
       <c r="I56" s="68"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="264" t="s">
+      <c r="A57" s="267" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="264" t="s">
+      <c r="B57" s="267" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="265">
+      <c r="C57" s="268">
         <v>151</v>
       </c>
-      <c r="D57" s="265">
+      <c r="D57" s="268">
         <v>-1.307</v>
       </c>
-      <c r="E57" s="265">
+      <c r="E57" s="268">
         <v>252.14552238806</v>
       </c>
-      <c r="F57" s="264" t="s">
+      <c r="F57" s="267" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="268" t="s">
+      <c r="G57" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="68"/>
       <c r="I57" s="68"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="264" t="s">
+      <c r="A58" s="267" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="264" t="s">
+      <c r="B58" s="267" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="265">
+      <c r="C58" s="268">
         <v>19.91</v>
       </c>
-      <c r="D58" s="265">
+      <c r="D58" s="268">
         <v>4.79</v>
       </c>
-      <c r="E58" s="265">
+      <c r="E58" s="268">
         <v>251.146384479718</v>
       </c>
-      <c r="F58" s="264" t="s">
+      <c r="F58" s="267" t="s">
         <v>209</v>
       </c>
-      <c r="G58" s="268" t="s">
+      <c r="G58" s="271" t="s">
         <v>91</v>
       </c>
       <c r="H58" s="68"/>
       <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="264" t="s">
+      <c r="A59" s="267" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="264" t="s">
+      <c r="B59" s="267" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="265">
+      <c r="C59" s="268">
         <v>31.9</v>
       </c>
-      <c r="D59" s="265">
+      <c r="D59" s="268">
         <v>6.725</v>
       </c>
-      <c r="E59" s="265">
+      <c r="E59" s="268">
         <v>250.549450549451</v>
       </c>
-      <c r="F59" s="264" t="s">
+      <c r="F59" s="267" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="268" t="s">
+      <c r="G59" s="271" t="s">
         <v>31</v>
       </c>
       <c r="H59" s="68"/>
       <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="264" t="s">
+      <c r="A60" s="267" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="264" t="s">
+      <c r="B60" s="267" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="265">
+      <c r="C60" s="268">
         <v>89.22</v>
       </c>
-      <c r="D60" s="265">
+      <c r="D60" s="268">
         <v>0.259</v>
       </c>
-      <c r="E60" s="265">
+      <c r="E60" s="268">
         <v>249.471210340776</v>
       </c>
-      <c r="F60" s="264" t="s">
+      <c r="F60" s="267" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="268" t="s">
+      <c r="G60" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="68"/>
       <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="264" t="s">
+      <c r="A61" s="267" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="264" t="s">
+      <c r="B61" s="267" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="265">
+      <c r="C61" s="268">
         <v>39.72</v>
       </c>
-      <c r="D61" s="265">
+      <c r="D61" s="268">
         <v>5.892</v>
       </c>
-      <c r="E61" s="265">
+      <c r="E61" s="268">
         <v>246.294681778553</v>
       </c>
-      <c r="F61" s="264" t="s">
+      <c r="F61" s="267" t="s">
         <v>218</v>
       </c>
-      <c r="G61" s="268" t="s">
+      <c r="G61" s="271" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="68"/>
       <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="264" t="s">
+      <c r="A62" s="267" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="264" t="s">
+      <c r="B62" s="267" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="265">
+      <c r="C62" s="268">
         <v>77.33</v>
       </c>
-      <c r="D62" s="265">
+      <c r="D62" s="268">
         <v>1.603</v>
       </c>
-      <c r="E62" s="265">
+      <c r="E62" s="268">
         <v>243.231247225921</v>
       </c>
-      <c r="F62" s="264" t="s">
+      <c r="F62" s="267" t="s">
         <v>221</v>
       </c>
-      <c r="G62" s="268" t="s">
+      <c r="G62" s="271" t="s">
         <v>75</v>
       </c>
       <c r="H62" s="68"/>
       <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="264" t="s">
+      <c r="A63" s="267" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="264" t="s">
+      <c r="B63" s="267" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="265">
+      <c r="C63" s="268">
         <v>19.57</v>
       </c>
-      <c r="D63" s="265">
+      <c r="D63" s="268">
         <v>0.772</v>
       </c>
-      <c r="E63" s="265">
+      <c r="E63" s="268">
         <v>241.535776614311</v>
       </c>
-      <c r="F63" s="264" t="s">
+      <c r="F63" s="267" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="268" t="s">
+      <c r="G63" s="271" t="s">
         <v>67</v>
       </c>
       <c r="H63" s="68"/>
       <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="264" t="s">
+      <c r="A64" s="267" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="264" t="s">
+      <c r="B64" s="267" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="265">
+      <c r="C64" s="268">
         <v>57.15</v>
       </c>
-      <c r="D64" s="265">
+      <c r="D64" s="268">
         <v>4.061</v>
       </c>
-      <c r="E64" s="265">
+      <c r="E64" s="268">
         <v>240.178571428571</v>
       </c>
-      <c r="F64" s="264" t="s">
+      <c r="F64" s="267" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="268" t="s">
+      <c r="G64" s="271" t="s">
         <v>103</v>
       </c>
       <c r="H64" s="68"/>
       <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="264" t="s">
+      <c r="A65" s="267" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="264" t="s">
+      <c r="B65" s="267" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="265">
+      <c r="C65" s="268">
         <v>48.6</v>
       </c>
-      <c r="D65" s="265">
+      <c r="D65" s="268">
         <v>-1.46</v>
       </c>
-      <c r="E65" s="265">
+      <c r="E65" s="268">
         <v>239.148639218423</v>
       </c>
-      <c r="F65" s="264" t="s">
+      <c r="F65" s="267" t="s">
         <v>230</v>
       </c>
-      <c r="G65" s="268" t="s">
+      <c r="G65" s="271" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="68"/>
       <c r="I65" s="68"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="264" t="s">
+      <c r="A66" s="267" t="s">
         <v>231</v>
       </c>
-      <c r="B66" s="264" t="s">
+      <c r="B66" s="267" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="265">
+      <c r="C66" s="268">
         <v>25.31</v>
       </c>
-      <c r="D66" s="265">
+      <c r="D66" s="268">
         <v>4.89</v>
       </c>
-      <c r="E66" s="265">
+      <c r="E66" s="268">
         <v>238.821954484605</v>
       </c>
-      <c r="F66" s="264" t="s">
+      <c r="F66" s="267" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="268" t="s">
+      <c r="G66" s="271" t="s">
         <v>91</v>
       </c>
       <c r="H66" s="68"/>
       <c r="I66" s="68"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="264" t="s">
+      <c r="A67" s="267" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="264" t="s">
+      <c r="B67" s="267" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="265">
+      <c r="C67" s="268">
         <v>74.83</v>
       </c>
-      <c r="D67" s="265">
+      <c r="D67" s="268">
         <v>6.885</v>
       </c>
-      <c r="E67" s="265">
+      <c r="E67" s="268">
         <v>236.768676867687</v>
       </c>
-      <c r="F67" s="264" t="s">
+      <c r="F67" s="267" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="268" t="s">
+      <c r="G67" s="271" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="68"/>
       <c r="I67" s="68"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="264" t="s">
+      <c r="A68" s="267" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="264" t="s">
+      <c r="B68" s="267" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="265">
+      <c r="C68" s="268">
         <v>63.42</v>
       </c>
-      <c r="D68" s="265">
+      <c r="D68" s="268">
         <v>3.021</v>
       </c>
-      <c r="E68" s="265">
+      <c r="E68" s="268">
         <v>236.445623342175</v>
       </c>
-      <c r="F68" s="264" t="s">
+      <c r="F68" s="267" t="s">
         <v>239</v>
       </c>
-      <c r="G68" s="268" t="s">
+      <c r="G68" s="271" t="s">
         <v>107</v>
       </c>
       <c r="H68" s="68"/>
       <c r="I68" s="68"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="264" t="s">
+      <c r="A69" s="267" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="264" t="s">
+      <c r="B69" s="267" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="265">
+      <c r="C69" s="268">
         <v>127.5</v>
       </c>
-      <c r="D69" s="265">
+      <c r="D69" s="268">
         <v>2.831</v>
       </c>
-      <c r="E69" s="265">
+      <c r="E69" s="268">
         <v>236.322869955157</v>
       </c>
-      <c r="F69" s="264" t="s">
+      <c r="F69" s="267" t="s">
         <v>242</v>
       </c>
-      <c r="G69" s="268" t="s">
+      <c r="G69" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="68"/>
       <c r="I69" s="68"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="264" t="s">
+      <c r="A70" s="267" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="264" t="s">
+      <c r="B70" s="267" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="265">
+      <c r="C70" s="268">
         <v>15.28</v>
       </c>
-      <c r="D70" s="265">
+      <c r="D70" s="268">
         <v>0.066</v>
       </c>
-      <c r="E70" s="265">
+      <c r="E70" s="268">
         <v>235.087719298246</v>
       </c>
-      <c r="F70" s="264" t="s">
+      <c r="F70" s="267" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="268" t="s">
+      <c r="G70" s="271" t="s">
         <v>83</v>
       </c>
       <c r="H70" s="68"/>
       <c r="I70" s="68"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="264" t="s">
+      <c r="A71" s="267" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="264" t="s">
+      <c r="B71" s="267" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="265">
+      <c r="C71" s="268">
         <v>8.26</v>
       </c>
-      <c r="D71" s="265">
+      <c r="D71" s="268">
         <v>2.481</v>
       </c>
-      <c r="E71" s="265">
+      <c r="E71" s="268">
         <v>233.064516129032</v>
       </c>
-      <c r="F71" s="264" t="s">
+      <c r="F71" s="267" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="268" t="s">
+      <c r="G71" s="271" t="s">
         <v>75</v>
       </c>
       <c r="H71" s="68"/>
       <c r="I71" s="68"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="264" t="s">
+      <c r="A72" s="267" t="s">
         <v>249</v>
       </c>
-      <c r="B72" s="264" t="s">
+      <c r="B72" s="267" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="265">
+      <c r="C72" s="268">
         <v>60.14</v>
       </c>
-      <c r="D72" s="265">
+      <c r="D72" s="268">
         <v>1.11</v>
       </c>
-      <c r="E72" s="265">
+      <c r="E72" s="268">
         <v>230.621220450797</v>
       </c>
-      <c r="F72" s="264" t="s">
+      <c r="F72" s="267" t="s">
         <v>251</v>
       </c>
-      <c r="G72" s="268" t="s">
+      <c r="G72" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="68"/>
       <c r="I72" s="68"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="264" t="s">
+      <c r="A73" s="267" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="264" t="s">
+      <c r="B73" s="267" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="265">
+      <c r="C73" s="268">
         <v>64.26</v>
       </c>
-      <c r="D73" s="265">
+      <c r="D73" s="268">
         <v>5.691</v>
       </c>
-      <c r="E73" s="265">
+      <c r="E73" s="268">
         <v>230.385604113111</v>
       </c>
-      <c r="F73" s="264" t="s">
+      <c r="F73" s="267" t="s">
         <v>254</v>
       </c>
-      <c r="G73" s="268" t="s">
+      <c r="G73" s="271" t="s">
         <v>75</v>
       </c>
       <c r="H73" s="68"/>
       <c r="I73" s="68"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="264" t="s">
+      <c r="A74" s="267" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="264" t="s">
+      <c r="B74" s="267" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="265">
+      <c r="C74" s="268">
         <v>29.11</v>
       </c>
-      <c r="D74" s="265">
+      <c r="D74" s="268">
         <v>7.022</v>
       </c>
-      <c r="E74" s="265">
+      <c r="E74" s="268">
         <v>229.298642533937</v>
       </c>
-      <c r="F74" s="264" t="s">
+      <c r="F74" s="267" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="268" t="s">
+      <c r="G74" s="271" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="68"/>
       <c r="I74" s="68"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="264" t="s">
+      <c r="A75" s="267" t="s">
         <v>258</v>
       </c>
-      <c r="B75" s="264" t="s">
+      <c r="B75" s="267" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="265">
+      <c r="C75" s="268">
         <v>24.54</v>
       </c>
-      <c r="D75" s="265">
+      <c r="D75" s="268">
         <v>3.763</v>
       </c>
-      <c r="E75" s="265">
+      <c r="E75" s="268">
         <v>226.76431424767</v>
       </c>
-      <c r="F75" s="264" t="s">
+      <c r="F75" s="267" t="s">
         <v>260</v>
       </c>
-      <c r="G75" s="268" t="s">
+      <c r="G75" s="271" t="s">
         <v>75</v>
       </c>
       <c r="H75" s="68"/>
       <c r="I75" s="68"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="264" t="s">
+      <c r="A76" s="267" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="264" t="s">
+      <c r="B76" s="267" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="265">
+      <c r="C76" s="268">
         <v>11.3</v>
       </c>
-      <c r="D76" s="265">
+      <c r="D76" s="268">
         <v>4.63</v>
       </c>
-      <c r="E76" s="265">
+      <c r="E76" s="268">
         <v>226.589595375723</v>
       </c>
-      <c r="F76" s="264" t="s">
+      <c r="F76" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="268" t="s">
+      <c r="G76" s="271" t="s">
         <v>107</v>
       </c>
       <c r="H76" s="68"/>
       <c r="I76" s="68"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="264" t="s">
+      <c r="A77" s="267" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="264" t="s">
+      <c r="B77" s="267" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="265">
+      <c r="C77" s="268">
         <v>22.7</v>
       </c>
-      <c r="D77" s="265">
+      <c r="D77" s="268">
         <v>3.606</v>
       </c>
-      <c r="E77" s="265">
+      <c r="E77" s="268">
         <v>224.982104509664</v>
       </c>
-      <c r="F77" s="264" t="s">
+      <c r="F77" s="267" t="s">
         <v>266</v>
       </c>
-      <c r="G77" s="268" t="s">
+      <c r="G77" s="271" t="s">
         <v>79</v>
       </c>
       <c r="H77" s="68"/>
       <c r="I77" s="68"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="264" t="s">
+      <c r="A78" s="267" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="264" t="s">
+      <c r="B78" s="267" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="265">
+      <c r="C78" s="268">
         <v>23.35</v>
       </c>
-      <c r="D78" s="265">
+      <c r="D78" s="268">
         <v>-1.101</v>
       </c>
-      <c r="E78" s="265">
+      <c r="E78" s="268">
         <v>223.407202216067</v>
       </c>
-      <c r="F78" s="264" t="s">
+      <c r="F78" s="267" t="s">
         <v>269</v>
       </c>
-      <c r="G78" s="268" t="s">
+      <c r="G78" s="271" t="s">
         <v>67</v>
       </c>
       <c r="H78" s="68"/>
       <c r="I78" s="68"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="264" t="s">
+      <c r="A79" s="267" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="264" t="s">
+      <c r="B79" s="267" t="s">
         <v>271</v>
       </c>
-      <c r="C79" s="265">
+      <c r="C79" s="268">
         <v>53.93</v>
       </c>
-      <c r="D79" s="265">
+      <c r="D79" s="268">
         <v>2.94</v>
       </c>
-      <c r="E79" s="265">
+      <c r="E79" s="268">
         <v>223.236561153774</v>
       </c>
-      <c r="F79" s="264" t="s">
+      <c r="F79" s="267" t="s">
         <v>272</v>
       </c>
-      <c r="G79" s="268" t="s">
+      <c r="G79" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="68"/>
       <c r="I79" s="68"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="264" t="s">
+      <c r="A80" s="267" t="s">
         <v>273</v>
       </c>
-      <c r="B80" s="264" t="s">
+      <c r="B80" s="267" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="265">
+      <c r="C80" s="268">
         <v>85.26</v>
       </c>
-      <c r="D80" s="265">
+      <c r="D80" s="268">
         <v>4.23</v>
       </c>
-      <c r="E80" s="265">
+      <c r="E80" s="268">
         <v>221.614485099962</v>
       </c>
-      <c r="F80" s="264" t="s">
+      <c r="F80" s="267" t="s">
         <v>275</v>
       </c>
-      <c r="G80" s="268" t="s">
+      <c r="G80" s="271" t="s">
         <v>99</v>
       </c>
       <c r="H80" s="68"/>
       <c r="I80" s="68"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="264" t="s">
+      <c r="A81" s="267" t="s">
         <v>276</v>
       </c>
-      <c r="B81" s="264" t="s">
+      <c r="B81" s="267" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="265">
+      <c r="C81" s="268">
         <v>23.54</v>
       </c>
-      <c r="D81" s="265">
+      <c r="D81" s="268">
         <v>-9.981</v>
       </c>
-      <c r="E81" s="265">
+      <c r="E81" s="268">
         <v>219.099905110479</v>
       </c>
-      <c r="F81" s="264" t="s">
+      <c r="F81" s="267" t="s">
         <v>278</v>
       </c>
-      <c r="G81" s="268" t="s">
+      <c r="G81" s="271" t="s">
         <v>27</v>
       </c>
       <c r="H81" s="68"/>
       <c r="I81" s="68"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="264" t="s">
+      <c r="A82" s="267" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="264" t="s">
+      <c r="B82" s="267" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="265">
+      <c r="C82" s="268">
         <v>217.49</v>
       </c>
-      <c r="D82" s="265">
+      <c r="D82" s="268">
         <v>0.467</v>
       </c>
-      <c r="E82" s="265">
+      <c r="E82" s="268">
         <v>217.781998831093</v>
       </c>
-      <c r="F82" s="264" t="s">
+      <c r="F82" s="267" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="268" t="s">
+      <c r="G82" s="271" t="s">
         <v>111</v>
       </c>
       <c r="H82" s="68"/>
       <c r="I82" s="68"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="264" t="s">
+      <c r="A83" s="267" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="264" t="s">
+      <c r="B83" s="267" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="265">
+      <c r="C83" s="268">
         <v>39.7</v>
       </c>
-      <c r="D83" s="265">
+      <c r="D83" s="268">
         <v>6.15</v>
       </c>
-      <c r="E83" s="265">
+      <c r="E83" s="268">
         <v>216.625766871154</v>
       </c>
-      <c r="F83" s="264" t="s">
+      <c r="F83" s="267" t="s">
         <v>284</v>
       </c>
-      <c r="G83" s="268" t="s">
+      <c r="G83" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="68"/>
       <c r="I83" s="68"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="264" t="s">
+      <c r="A84" s="267" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="264" t="s">
+      <c r="B84" s="267" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="265">
+      <c r="C84" s="268">
         <v>34.49</v>
       </c>
-      <c r="D84" s="265">
+      <c r="D84" s="268">
         <v>2.162</v>
       </c>
-      <c r="E84" s="265">
+      <c r="E84" s="268">
         <v>216.131989000917</v>
       </c>
-      <c r="F84" s="264" t="s">
+      <c r="F84" s="267" t="s">
         <v>287</v>
       </c>
-      <c r="G84" s="268" t="s">
+      <c r="G84" s="271" t="s">
         <v>115</v>
       </c>
       <c r="H84" s="68"/>
       <c r="I84" s="68"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="264" t="s">
+      <c r="A85" s="267" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="267" t="s">
         <v>289</v>
       </c>
-      <c r="C85" s="265">
+      <c r="C85" s="268">
         <v>46.49</v>
       </c>
-      <c r="D85" s="265">
+      <c r="D85" s="268">
         <v>3.518</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="268">
         <v>214.972899728997</v>
       </c>
-      <c r="F85" s="264" t="s">
+      <c r="F85" s="267" t="s">
         <v>290</v>
       </c>
-      <c r="G85" s="268" t="s">
+      <c r="G85" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="68"/>
       <c r="I85" s="68"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="264" t="s">
+      <c r="A86" s="267" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="264" t="s">
+      <c r="B86" s="267" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="265">
+      <c r="C86" s="268">
         <v>26.06</v>
       </c>
-      <c r="D86" s="265">
+      <c r="D86" s="268">
         <v>-0.077</v>
       </c>
-      <c r="E86" s="265">
+      <c r="E86" s="268">
         <v>213.975903614458</v>
       </c>
-      <c r="F86" s="264" t="s">
+      <c r="F86" s="267" t="s">
         <v>293</v>
       </c>
-      <c r="G86" s="268" t="s">
+      <c r="G86" s="271" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="68"/>
       <c r="I86" s="68"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="264" t="s">
+      <c r="A87" s="267" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="264" t="s">
+      <c r="B87" s="267" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="265">
+      <c r="C87" s="268">
         <v>18.85</v>
       </c>
-      <c r="D87" s="265">
+      <c r="D87" s="268">
         <v>4.144</v>
       </c>
-      <c r="E87" s="265">
+      <c r="E87" s="268">
         <v>213.12292358804</v>
       </c>
-      <c r="F87" s="264" t="s">
+      <c r="F87" s="267" t="s">
         <v>296</v>
       </c>
-      <c r="G87" s="268" t="s">
+      <c r="G87" s="271" t="s">
         <v>119</v>
       </c>
       <c r="H87" s="68"/>
       <c r="I87" s="68"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="264" t="s">
+      <c r="A88" s="267" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="264" t="s">
+      <c r="B88" s="267" t="s">
         <v>298</v>
       </c>
-      <c r="C88" s="265">
+      <c r="C88" s="268">
         <v>22.45</v>
       </c>
-      <c r="D88" s="265">
+      <c r="D88" s="268">
         <v>9.995</v>
       </c>
-      <c r="E88" s="265">
+      <c r="E88" s="268">
         <v>212.239221140473</v>
       </c>
-      <c r="F88" s="264" t="s">
+      <c r="F88" s="267" t="s">
         <v>299</v>
       </c>
-      <c r="G88" s="268" t="s">
+      <c r="G88" s="271" t="s">
         <v>83</v>
       </c>
       <c r="H88" s="68"/>
       <c r="I88" s="68"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="264" t="s">
+      <c r="A89" s="267" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="264" t="s">
+      <c r="B89" s="267" t="s">
         <v>301</v>
       </c>
-      <c r="C89" s="265">
+      <c r="C89" s="268">
         <v>114.36</v>
       </c>
-      <c r="D89" s="265">
+      <c r="D89" s="268">
         <v>5.518</v>
       </c>
-      <c r="E89" s="265">
+      <c r="E89" s="268">
         <v>211.607629427793</v>
       </c>
-      <c r="F89" s="264" t="s">
+      <c r="F89" s="267" t="s">
         <v>302</v>
       </c>
-      <c r="G89" s="268" t="s">
+      <c r="G89" s="271" t="s">
         <v>123</v>
       </c>
       <c r="H89" s="68"/>
       <c r="I89" s="68"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="264" t="s">
+      <c r="A90" s="267" t="s">
         <v>303</v>
       </c>
-      <c r="B90" s="264" t="s">
+      <c r="B90" s="267" t="s">
         <v>304</v>
       </c>
-      <c r="C90" s="265">
+      <c r="C90" s="268">
         <v>28.91</v>
       </c>
-      <c r="D90" s="265">
+      <c r="D90" s="268">
         <v>4.898</v>
       </c>
-      <c r="E90" s="265">
+      <c r="E90" s="268">
         <v>209.528907922912</v>
       </c>
-      <c r="F90" s="264" t="s">
+      <c r="F90" s="267" t="s">
         <v>305</v>
       </c>
-      <c r="G90" s="268" t="s">
+      <c r="G90" s="271" t="s">
         <v>127</v>
       </c>
       <c r="H90" s="68"/>
       <c r="I90" s="68"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="264" t="s">
+      <c r="A91" s="267" t="s">
         <v>306</v>
       </c>
-      <c r="B91" s="264" t="s">
+      <c r="B91" s="267" t="s">
         <v>307</v>
       </c>
-      <c r="C91" s="265">
+      <c r="C91" s="268">
         <v>108.8</v>
       </c>
-      <c r="D91" s="265">
+      <c r="D91" s="268">
         <v>0.946</v>
       </c>
-      <c r="E91" s="265">
+      <c r="E91" s="268">
         <v>208.390022675737</v>
       </c>
-      <c r="F91" s="264" t="s">
+      <c r="F91" s="267" t="s">
         <v>308</v>
       </c>
-      <c r="G91" s="268" t="s">
+      <c r="G91" s="271" t="s">
         <v>131</v>
       </c>
       <c r="H91" s="68"/>
       <c r="I91" s="68"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="264" t="s">
+      <c r="A92" s="267" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="264" t="s">
+      <c r="B92" s="267" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="265">
+      <c r="C92" s="268">
         <v>241.14</v>
       </c>
-      <c r="D92" s="265">
+      <c r="D92" s="268">
         <v>3.904</v>
       </c>
-      <c r="E92" s="265">
+      <c r="E92" s="268">
         <v>207.458880530409</v>
       </c>
-      <c r="F92" s="264" t="s">
+      <c r="F92" s="267" t="s">
         <v>311</v>
       </c>
-      <c r="G92" s="268" t="s">
+      <c r="G92" s="271" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="68"/>
@@ -9310,12 +9328,12 @@
   <sheetPr/>
   <dimension ref="A1:AK209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W77" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="V80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG85" sqref="AG85"/>
+      <selection pane="bottomRight" activeCell="Y88" sqref="Y88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -14022,7 +14040,7 @@
       </c>
     </row>
     <row r="68" s="158" customFormat="1" ht="25" spans="1:36">
-      <c r="A68" s="269" t="s">
+      <c r="A68" s="272" t="s">
         <v>381</v>
       </c>
       <c r="B68" s="234" t="s">
@@ -14316,10 +14334,10 @@
       <c r="G71" s="243"/>
       <c r="H71" s="243"/>
       <c r="I71" s="243"/>
-      <c r="J71" s="250"/>
+      <c r="J71" s="251"/>
       <c r="K71" s="243"/>
       <c r="L71" s="243"/>
-      <c r="M71" s="255"/>
+      <c r="M71" s="257"/>
       <c r="N71" s="243"/>
       <c r="O71" s="243"/>
       <c r="P71" s="243"/>
@@ -14393,7 +14411,7 @@
       <c r="AJ72" s="50"/>
     </row>
     <row r="73" spans="1:36">
-      <c r="A73" s="270" t="s">
+      <c r="A73" s="273" t="s">
         <v>388</v>
       </c>
       <c r="B73" s="242" t="s">
@@ -14438,7 +14456,7 @@
       <c r="AJ73" s="50"/>
     </row>
     <row r="74" s="4" customFormat="1" ht="25" spans="1:36">
-      <c r="A74" s="271" t="s">
+      <c r="A74" s="274" t="s">
         <v>390</v>
       </c>
       <c r="B74" s="237" t="s">
@@ -14525,7 +14543,7 @@
       </c>
     </row>
     <row r="75" ht="25" spans="1:36">
-      <c r="A75" s="270" t="s">
+      <c r="A75" s="273" t="s">
         <v>393</v>
       </c>
       <c r="B75" s="242" t="s">
@@ -14538,7 +14556,7 @@
       <c r="G75" s="63"/>
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
-      <c r="J75" s="251"/>
+      <c r="J75" s="252"/>
       <c r="K75" s="200" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -14590,7 +14608,7 @@
       </c>
     </row>
     <row r="76" s="158" customFormat="1" ht="25" spans="1:36">
-      <c r="A76" s="272" t="s">
+      <c r="A76" s="275" t="s">
         <v>395</v>
       </c>
       <c r="B76" s="234" t="s">
@@ -14781,7 +14799,7 @@
       <c r="I78" s="63">
         <v>8.15</v>
       </c>
-      <c r="J78" s="251">
+      <c r="J78" s="252">
         <v>4.39</v>
       </c>
       <c r="K78" s="200">
@@ -14934,7 +14952,7 @@
       </c>
     </row>
     <row r="80" ht="25" spans="1:36">
-      <c r="A80" s="270" t="s">
+      <c r="A80" s="273" t="s">
         <v>402</v>
       </c>
       <c r="B80" s="242" t="s">
@@ -15019,7 +15037,7 @@
       </c>
     </row>
     <row r="81" ht="25" spans="1:36">
-      <c r="A81" s="270" t="s">
+      <c r="A81" s="273" t="s">
         <v>404</v>
       </c>
       <c r="B81" s="242" t="s">
@@ -15192,10 +15210,10 @@
       <c r="R83" s="187">
         <v>46.13</v>
       </c>
-      <c r="S83" s="257">
+      <c r="S83" s="260">
         <v>49.4</v>
       </c>
-      <c r="T83" s="257">
+      <c r="T83" s="260">
         <v>46.7</v>
       </c>
       <c r="U83" s="187"/>
@@ -15234,7 +15252,7 @@
       </c>
       <c r="AH83" s="187"/>
       <c r="AI83" s="237"/>
-      <c r="AJ83" s="259" t="s">
+      <c r="AJ83" s="262" t="s">
         <v>411</v>
       </c>
     </row>
@@ -15323,7 +15341,7 @@
         <f t="shared" si="28"/>
         <v>0.112214498510427</v>
       </c>
-      <c r="AD84" s="209" t="e">
+      <c r="AD84" s="203" t="e">
         <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
@@ -15556,14 +15574,14 @@
       <c r="I87" s="248">
         <v>31.94</v>
       </c>
-      <c r="J87" s="252">
+      <c r="J87" s="253">
         <v>21.54</v>
       </c>
-      <c r="K87" s="253">
+      <c r="K87" s="254">
         <f>(G87-H87)/H87</f>
         <v>0.879668049792531</v>
       </c>
-      <c r="L87" s="253">
+      <c r="L87" s="254">
         <f>(I87-G87)/I87</f>
         <v>0.149029430181591</v>
       </c>
@@ -15619,60 +15637,110 @@
         <f>(U87-V87)/U87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE87" s="258" t="e">
+      <c r="AE87" s="261" t="e">
         <f>(W87-X87)/W87</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AF87" s="248" t="s">
         <v>409</v>
       </c>
-      <c r="AG87" s="260"/>
-      <c r="AH87" s="260"/>
-      <c r="AI87" s="260"/>
-      <c r="AJ87" s="261" t="s">
+      <c r="AG87" s="263"/>
+      <c r="AH87" s="263"/>
+      <c r="AI87" s="263"/>
+      <c r="AJ87" s="264" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
-      <c r="A88" s="249"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="254"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="256"/>
-      <c r="N88" s="68"/>
-      <c r="O88" s="68"/>
-      <c r="P88" s="68"/>
-      <c r="Q88" s="68"/>
-      <c r="R88" s="68"/>
-      <c r="S88" s="68"/>
-      <c r="T88" s="68"/>
-      <c r="U88" s="68"/>
-      <c r="V88" s="68"/>
-      <c r="W88" s="68"/>
-      <c r="X88" s="68"/>
-      <c r="Y88" s="68"/>
-      <c r="Z88" s="68"/>
-      <c r="AA88" s="68"/>
-      <c r="AB88" s="68"/>
-      <c r="AC88" s="68"/>
-      <c r="AD88" s="68"/>
-      <c r="AE88" s="68"/>
-      <c r="AF88" s="68"/>
-      <c r="AG88" s="68"/>
-      <c r="AH88" s="68"/>
-      <c r="AI88" s="68"/>
-      <c r="AJ88" s="68"/>
+    <row r="88" s="163" customFormat="1" ht="25" spans="1:36">
+      <c r="A88" s="247" t="s">
+        <v>423</v>
+      </c>
+      <c r="B88" s="249" t="s">
+        <v>424</v>
+      </c>
+      <c r="C88" s="248">
+        <v>7.83</v>
+      </c>
+      <c r="D88" s="248">
+        <v>8.24</v>
+      </c>
+      <c r="E88" s="248">
+        <v>9.27</v>
+      </c>
+      <c r="F88" s="248"/>
+      <c r="G88" s="248">
+        <v>9.6</v>
+      </c>
+      <c r="H88" s="248">
+        <v>4.83</v>
+      </c>
+      <c r="I88" s="248">
+        <v>11.8</v>
+      </c>
+      <c r="J88" s="253"/>
+      <c r="K88" s="255">
+        <f>(G88-H88)/H88</f>
+        <v>0.987577639751553</v>
+      </c>
+      <c r="L88" s="255">
+        <f>(I88-G88)/I88</f>
+        <v>0.186440677966102</v>
+      </c>
+      <c r="M88" s="258"/>
+      <c r="N88" s="248">
+        <v>7.6</v>
+      </c>
+      <c r="O88" s="248">
+        <v>9.65</v>
+      </c>
+      <c r="P88" s="248">
+        <v>8.03</v>
+      </c>
+      <c r="Q88" s="248">
+        <v>10.28</v>
+      </c>
+      <c r="R88" s="248">
+        <v>8.9</v>
+      </c>
+      <c r="S88" s="248"/>
+      <c r="T88" s="248"/>
+      <c r="U88" s="248"/>
+      <c r="V88" s="248"/>
+      <c r="W88" s="248"/>
+      <c r="X88" s="248"/>
+      <c r="Y88" s="248" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z88" s="205">
+        <f>(I88-N88)/I88</f>
+        <v>0.355932203389831</v>
+      </c>
+      <c r="AA88" s="255">
+        <f>(O88-P88)/O88</f>
+        <v>0.167875647668394</v>
+      </c>
+      <c r="AB88" s="255">
+        <f>(Q88-R88)/Q88</f>
+        <v>0.134241245136187</v>
+      </c>
+      <c r="AC88" s="248"/>
+      <c r="AD88" s="254" t="e">
+        <f>(U88-V88)/U88</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE88" s="248"/>
+      <c r="AF88" s="248" t="s">
+        <v>425</v>
+      </c>
+      <c r="AG88" s="263"/>
+      <c r="AH88" s="263"/>
+      <c r="AI88" s="263"/>
+      <c r="AJ88" s="264" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="89" spans="1:36">
-      <c r="A89" s="249"/>
+      <c r="A89" s="250"/>
       <c r="B89" s="68"/>
       <c r="C89" s="68"/>
       <c r="D89" s="68"/>
@@ -15681,10 +15749,10 @@
       <c r="G89" s="68"/>
       <c r="H89" s="68"/>
       <c r="I89" s="68"/>
-      <c r="J89" s="254"/>
+      <c r="J89" s="256"/>
       <c r="K89" s="68"/>
       <c r="L89" s="68"/>
-      <c r="M89" s="256"/>
+      <c r="M89" s="259"/>
       <c r="N89" s="68"/>
       <c r="O89" s="68"/>
       <c r="P89" s="68"/>
@@ -15710,7 +15778,7 @@
       <c r="AJ89" s="68"/>
     </row>
     <row r="90" spans="1:36">
-      <c r="A90" s="249"/>
+      <c r="A90" s="250"/>
       <c r="B90" s="68"/>
       <c r="C90" s="68"/>
       <c r="D90" s="68"/>
@@ -15719,10 +15787,10 @@
       <c r="G90" s="68"/>
       <c r="H90" s="68"/>
       <c r="I90" s="68"/>
-      <c r="J90" s="254"/>
+      <c r="J90" s="256"/>
       <c r="K90" s="68"/>
       <c r="L90" s="68"/>
-      <c r="M90" s="256"/>
+      <c r="M90" s="259"/>
       <c r="N90" s="68"/>
       <c r="O90" s="68"/>
       <c r="P90" s="68"/>
@@ -15748,7 +15816,7 @@
       <c r="AJ90" s="68"/>
     </row>
     <row r="91" spans="1:36">
-      <c r="A91" s="249"/>
+      <c r="A91" s="250"/>
       <c r="B91" s="68"/>
       <c r="C91" s="68"/>
       <c r="D91" s="68"/>
@@ -15757,10 +15825,10 @@
       <c r="G91" s="68"/>
       <c r="H91" s="68"/>
       <c r="I91" s="68"/>
-      <c r="J91" s="254"/>
+      <c r="J91" s="256"/>
       <c r="K91" s="68"/>
       <c r="L91" s="68"/>
-      <c r="M91" s="256"/>
+      <c r="M91" s="259"/>
       <c r="N91" s="68"/>
       <c r="O91" s="68"/>
       <c r="P91" s="68"/>
@@ -15786,7 +15854,7 @@
       <c r="AJ91" s="68"/>
     </row>
     <row r="92" spans="1:36">
-      <c r="A92" s="249"/>
+      <c r="A92" s="250"/>
       <c r="B92" s="68"/>
       <c r="C92" s="68"/>
       <c r="D92" s="68"/>
@@ -15795,10 +15863,10 @@
       <c r="G92" s="68"/>
       <c r="H92" s="68"/>
       <c r="I92" s="68"/>
-      <c r="J92" s="254"/>
+      <c r="J92" s="256"/>
       <c r="K92" s="68"/>
       <c r="L92" s="68"/>
-      <c r="M92" s="256"/>
+      <c r="M92" s="259"/>
       <c r="N92" s="68"/>
       <c r="O92" s="68"/>
       <c r="P92" s="68"/>
@@ -15824,7 +15892,7 @@
       <c r="AJ92" s="68"/>
     </row>
     <row r="93" spans="1:36">
-      <c r="A93" s="249"/>
+      <c r="A93" s="250"/>
       <c r="B93" s="68"/>
       <c r="C93" s="68"/>
       <c r="D93" s="68"/>
@@ -15833,10 +15901,10 @@
       <c r="G93" s="68"/>
       <c r="H93" s="68"/>
       <c r="I93" s="68"/>
-      <c r="J93" s="254"/>
+      <c r="J93" s="256"/>
       <c r="K93" s="68"/>
       <c r="L93" s="68"/>
-      <c r="M93" s="256"/>
+      <c r="M93" s="259"/>
       <c r="N93" s="68"/>
       <c r="O93" s="68"/>
       <c r="P93" s="68"/>
@@ -15862,7 +15930,7 @@
       <c r="AJ93" s="68"/>
     </row>
     <row r="94" spans="1:36">
-      <c r="A94" s="249"/>
+      <c r="A94" s="250"/>
       <c r="B94" s="68"/>
       <c r="C94" s="68"/>
       <c r="D94" s="68"/>
@@ -15871,10 +15939,10 @@
       <c r="G94" s="68"/>
       <c r="H94" s="68"/>
       <c r="I94" s="68"/>
-      <c r="J94" s="254"/>
+      <c r="J94" s="256"/>
       <c r="K94" s="68"/>
       <c r="L94" s="68"/>
-      <c r="M94" s="256"/>
+      <c r="M94" s="259"/>
       <c r="N94" s="68"/>
       <c r="O94" s="68"/>
       <c r="P94" s="68"/>
@@ -15900,7 +15968,7 @@
       <c r="AJ94" s="68"/>
     </row>
     <row r="95" spans="1:36">
-      <c r="A95" s="249"/>
+      <c r="A95" s="250"/>
       <c r="B95" s="68"/>
       <c r="C95" s="68"/>
       <c r="D95" s="68"/>
@@ -15909,10 +15977,10 @@
       <c r="G95" s="68"/>
       <c r="H95" s="68"/>
       <c r="I95" s="68"/>
-      <c r="J95" s="254"/>
+      <c r="J95" s="256"/>
       <c r="K95" s="68"/>
       <c r="L95" s="68"/>
-      <c r="M95" s="256"/>
+      <c r="M95" s="259"/>
       <c r="N95" s="68"/>
       <c r="O95" s="68"/>
       <c r="P95" s="68"/>
@@ -15938,7 +16006,7 @@
       <c r="AJ95" s="68"/>
     </row>
     <row r="96" spans="1:36">
-      <c r="A96" s="249"/>
+      <c r="A96" s="250"/>
       <c r="B96" s="68"/>
       <c r="C96" s="68"/>
       <c r="D96" s="68"/>
@@ -15947,10 +16015,10 @@
       <c r="G96" s="68"/>
       <c r="H96" s="68"/>
       <c r="I96" s="68"/>
-      <c r="J96" s="254"/>
+      <c r="J96" s="256"/>
       <c r="K96" s="68"/>
       <c r="L96" s="68"/>
-      <c r="M96" s="256"/>
+      <c r="M96" s="259"/>
       <c r="N96" s="68"/>
       <c r="O96" s="68"/>
       <c r="P96" s="68"/>
@@ -15976,7 +16044,7 @@
       <c r="AJ96" s="68"/>
     </row>
     <row r="97" spans="1:36">
-      <c r="A97" s="249"/>
+      <c r="A97" s="250"/>
       <c r="B97" s="68"/>
       <c r="C97" s="68"/>
       <c r="D97" s="68"/>
@@ -15985,10 +16053,10 @@
       <c r="G97" s="68"/>
       <c r="H97" s="68"/>
       <c r="I97" s="68"/>
-      <c r="J97" s="254"/>
+      <c r="J97" s="256"/>
       <c r="K97" s="68"/>
       <c r="L97" s="68"/>
-      <c r="M97" s="256"/>
+      <c r="M97" s="259"/>
       <c r="N97" s="68"/>
       <c r="O97" s="68"/>
       <c r="P97" s="68"/>
@@ -16014,7 +16082,7 @@
       <c r="AJ97" s="68"/>
     </row>
     <row r="98" spans="1:36">
-      <c r="A98" s="249"/>
+      <c r="A98" s="250"/>
       <c r="B98" s="68"/>
       <c r="C98" s="68"/>
       <c r="D98" s="68"/>
@@ -16023,10 +16091,10 @@
       <c r="G98" s="68"/>
       <c r="H98" s="68"/>
       <c r="I98" s="68"/>
-      <c r="J98" s="254"/>
+      <c r="J98" s="256"/>
       <c r="K98" s="68"/>
       <c r="L98" s="68"/>
-      <c r="M98" s="256"/>
+      <c r="M98" s="259"/>
       <c r="N98" s="68"/>
       <c r="O98" s="68"/>
       <c r="P98" s="68"/>
@@ -16052,7 +16120,7 @@
       <c r="AJ98" s="68"/>
     </row>
     <row r="99" spans="1:36">
-      <c r="A99" s="249"/>
+      <c r="A99" s="250"/>
       <c r="B99" s="68"/>
       <c r="C99" s="68"/>
       <c r="D99" s="68"/>
@@ -16061,10 +16129,10 @@
       <c r="G99" s="68"/>
       <c r="H99" s="68"/>
       <c r="I99" s="68"/>
-      <c r="J99" s="254"/>
+      <c r="J99" s="256"/>
       <c r="K99" s="68"/>
       <c r="L99" s="68"/>
-      <c r="M99" s="256"/>
+      <c r="M99" s="259"/>
       <c r="N99" s="68"/>
       <c r="O99" s="68"/>
       <c r="P99" s="68"/>
@@ -16090,7 +16158,7 @@
       <c r="AJ99" s="68"/>
     </row>
     <row r="100" spans="1:36">
-      <c r="A100" s="249"/>
+      <c r="A100" s="250"/>
       <c r="B100" s="68"/>
       <c r="C100" s="68"/>
       <c r="D100" s="68"/>
@@ -16099,10 +16167,10 @@
       <c r="G100" s="68"/>
       <c r="H100" s="68"/>
       <c r="I100" s="68"/>
-      <c r="J100" s="254"/>
+      <c r="J100" s="256"/>
       <c r="K100" s="68"/>
       <c r="L100" s="68"/>
-      <c r="M100" s="256"/>
+      <c r="M100" s="259"/>
       <c r="N100" s="68"/>
       <c r="O100" s="68"/>
       <c r="P100" s="68"/>
@@ -16128,7 +16196,7 @@
       <c r="AJ100" s="68"/>
     </row>
     <row r="101" spans="1:36">
-      <c r="A101" s="249"/>
+      <c r="A101" s="250"/>
       <c r="B101" s="68"/>
       <c r="C101" s="68"/>
       <c r="D101" s="68"/>
@@ -16137,10 +16205,10 @@
       <c r="G101" s="68"/>
       <c r="H101" s="68"/>
       <c r="I101" s="68"/>
-      <c r="J101" s="254"/>
+      <c r="J101" s="256"/>
       <c r="K101" s="68"/>
       <c r="L101" s="68"/>
-      <c r="M101" s="256"/>
+      <c r="M101" s="259"/>
       <c r="N101" s="68"/>
       <c r="O101" s="68"/>
       <c r="P101" s="68"/>
@@ -16166,7 +16234,7 @@
       <c r="AJ101" s="68"/>
     </row>
     <row r="102" spans="1:36">
-      <c r="A102" s="249"/>
+      <c r="A102" s="250"/>
       <c r="B102" s="68"/>
       <c r="C102" s="68"/>
       <c r="D102" s="68"/>
@@ -16175,10 +16243,10 @@
       <c r="G102" s="68"/>
       <c r="H102" s="68"/>
       <c r="I102" s="68"/>
-      <c r="J102" s="254"/>
+      <c r="J102" s="256"/>
       <c r="K102" s="68"/>
       <c r="L102" s="68"/>
-      <c r="M102" s="256"/>
+      <c r="M102" s="259"/>
       <c r="N102" s="68"/>
       <c r="O102" s="68"/>
       <c r="P102" s="68"/>
@@ -16204,7 +16272,7 @@
       <c r="AJ102" s="68"/>
     </row>
     <row r="103" spans="1:36">
-      <c r="A103" s="249"/>
+      <c r="A103" s="250"/>
       <c r="B103" s="68"/>
       <c r="C103" s="68"/>
       <c r="D103" s="68"/>
@@ -16213,10 +16281,10 @@
       <c r="G103" s="68"/>
       <c r="H103" s="68"/>
       <c r="I103" s="68"/>
-      <c r="J103" s="254"/>
+      <c r="J103" s="256"/>
       <c r="K103" s="68"/>
       <c r="L103" s="68"/>
-      <c r="M103" s="256"/>
+      <c r="M103" s="259"/>
       <c r="N103" s="68"/>
       <c r="O103" s="68"/>
       <c r="P103" s="68"/>
@@ -16242,7 +16310,7 @@
       <c r="AJ103" s="68"/>
     </row>
     <row r="104" spans="1:36">
-      <c r="A104" s="249"/>
+      <c r="A104" s="250"/>
       <c r="B104" s="68"/>
       <c r="C104" s="68"/>
       <c r="D104" s="68"/>
@@ -16251,10 +16319,10 @@
       <c r="G104" s="68"/>
       <c r="H104" s="68"/>
       <c r="I104" s="68"/>
-      <c r="J104" s="254"/>
+      <c r="J104" s="256"/>
       <c r="K104" s="68"/>
       <c r="L104" s="68"/>
-      <c r="M104" s="256"/>
+      <c r="M104" s="259"/>
       <c r="N104" s="68"/>
       <c r="O104" s="68"/>
       <c r="P104" s="68"/>
@@ -16280,7 +16348,7 @@
       <c r="AJ104" s="68"/>
     </row>
     <row r="105" spans="1:36">
-      <c r="A105" s="249"/>
+      <c r="A105" s="250"/>
       <c r="B105" s="68"/>
       <c r="C105" s="68"/>
       <c r="D105" s="68"/>
@@ -16289,10 +16357,10 @@
       <c r="G105" s="68"/>
       <c r="H105" s="68"/>
       <c r="I105" s="68"/>
-      <c r="J105" s="254"/>
+      <c r="J105" s="256"/>
       <c r="K105" s="68"/>
       <c r="L105" s="68"/>
-      <c r="M105" s="256"/>
+      <c r="M105" s="259"/>
       <c r="N105" s="68"/>
       <c r="O105" s="68"/>
       <c r="P105" s="68"/>
@@ -16318,7 +16386,7 @@
       <c r="AJ105" s="68"/>
     </row>
     <row r="106" spans="1:36">
-      <c r="A106" s="249"/>
+      <c r="A106" s="250"/>
       <c r="B106" s="68"/>
       <c r="C106" s="68"/>
       <c r="D106" s="68"/>
@@ -16327,10 +16395,10 @@
       <c r="G106" s="68"/>
       <c r="H106" s="68"/>
       <c r="I106" s="68"/>
-      <c r="J106" s="254"/>
+      <c r="J106" s="256"/>
       <c r="K106" s="68"/>
       <c r="L106" s="68"/>
-      <c r="M106" s="256"/>
+      <c r="M106" s="259"/>
       <c r="N106" s="68"/>
       <c r="O106" s="68"/>
       <c r="P106" s="68"/>
@@ -16356,7 +16424,7 @@
       <c r="AJ106" s="68"/>
     </row>
     <row r="107" spans="1:36">
-      <c r="A107" s="249"/>
+      <c r="A107" s="250"/>
       <c r="B107" s="68"/>
       <c r="C107" s="68"/>
       <c r="D107" s="68"/>
@@ -16365,10 +16433,10 @@
       <c r="G107" s="68"/>
       <c r="H107" s="68"/>
       <c r="I107" s="68"/>
-      <c r="J107" s="254"/>
+      <c r="J107" s="256"/>
       <c r="K107" s="68"/>
       <c r="L107" s="68"/>
-      <c r="M107" s="256"/>
+      <c r="M107" s="259"/>
       <c r="N107" s="68"/>
       <c r="O107" s="68"/>
       <c r="P107" s="68"/>
@@ -16394,7 +16462,7 @@
       <c r="AJ107" s="68"/>
     </row>
     <row r="108" spans="1:36">
-      <c r="A108" s="249"/>
+      <c r="A108" s="250"/>
       <c r="B108" s="68"/>
       <c r="C108" s="68"/>
       <c r="D108" s="68"/>
@@ -16403,10 +16471,10 @@
       <c r="G108" s="68"/>
       <c r="H108" s="68"/>
       <c r="I108" s="68"/>
-      <c r="J108" s="254"/>
+      <c r="J108" s="256"/>
       <c r="K108" s="68"/>
       <c r="L108" s="68"/>
-      <c r="M108" s="256"/>
+      <c r="M108" s="259"/>
       <c r="N108" s="68"/>
       <c r="O108" s="68"/>
       <c r="P108" s="68"/>
@@ -16432,7 +16500,7 @@
       <c r="AJ108" s="68"/>
     </row>
     <row r="109" spans="1:36">
-      <c r="A109" s="249"/>
+      <c r="A109" s="250"/>
       <c r="B109" s="68"/>
       <c r="C109" s="68"/>
       <c r="D109" s="68"/>
@@ -16441,10 +16509,10 @@
       <c r="G109" s="68"/>
       <c r="H109" s="68"/>
       <c r="I109" s="68"/>
-      <c r="J109" s="254"/>
+      <c r="J109" s="256"/>
       <c r="K109" s="68"/>
       <c r="L109" s="68"/>
-      <c r="M109" s="256"/>
+      <c r="M109" s="259"/>
       <c r="N109" s="68"/>
       <c r="O109" s="68"/>
       <c r="P109" s="68"/>
@@ -16470,7 +16538,7 @@
       <c r="AJ109" s="68"/>
     </row>
     <row r="110" spans="1:36">
-      <c r="A110" s="249"/>
+      <c r="A110" s="250"/>
       <c r="B110" s="68"/>
       <c r="C110" s="68"/>
       <c r="D110" s="68"/>
@@ -16479,10 +16547,10 @@
       <c r="G110" s="68"/>
       <c r="H110" s="68"/>
       <c r="I110" s="68"/>
-      <c r="J110" s="254"/>
+      <c r="J110" s="256"/>
       <c r="K110" s="68"/>
       <c r="L110" s="68"/>
-      <c r="M110" s="256"/>
+      <c r="M110" s="259"/>
       <c r="N110" s="68"/>
       <c r="O110" s="68"/>
       <c r="P110" s="68"/>
@@ -16508,7 +16576,7 @@
       <c r="AJ110" s="68"/>
     </row>
     <row r="111" spans="1:36">
-      <c r="A111" s="249"/>
+      <c r="A111" s="250"/>
       <c r="B111" s="68"/>
       <c r="C111" s="68"/>
       <c r="D111" s="68"/>
@@ -16517,10 +16585,10 @@
       <c r="G111" s="68"/>
       <c r="H111" s="68"/>
       <c r="I111" s="68"/>
-      <c r="J111" s="254"/>
+      <c r="J111" s="256"/>
       <c r="K111" s="68"/>
       <c r="L111" s="68"/>
-      <c r="M111" s="256"/>
+      <c r="M111" s="259"/>
       <c r="N111" s="68"/>
       <c r="O111" s="68"/>
       <c r="P111" s="68"/>
@@ -16546,7 +16614,7 @@
       <c r="AJ111" s="68"/>
     </row>
     <row r="112" spans="1:36">
-      <c r="A112" s="249"/>
+      <c r="A112" s="250"/>
       <c r="B112" s="68"/>
       <c r="C112" s="68"/>
       <c r="D112" s="68"/>
@@ -16555,10 +16623,10 @@
       <c r="G112" s="68"/>
       <c r="H112" s="68"/>
       <c r="I112" s="68"/>
-      <c r="J112" s="254"/>
+      <c r="J112" s="256"/>
       <c r="K112" s="68"/>
       <c r="L112" s="68"/>
-      <c r="M112" s="256"/>
+      <c r="M112" s="259"/>
       <c r="N112" s="68"/>
       <c r="O112" s="68"/>
       <c r="P112" s="68"/>
@@ -16584,7 +16652,7 @@
       <c r="AJ112" s="68"/>
     </row>
     <row r="113" spans="1:36">
-      <c r="A113" s="249"/>
+      <c r="A113" s="250"/>
       <c r="B113" s="68"/>
       <c r="C113" s="68"/>
       <c r="D113" s="68"/>
@@ -16593,10 +16661,10 @@
       <c r="G113" s="68"/>
       <c r="H113" s="68"/>
       <c r="I113" s="68"/>
-      <c r="J113" s="254"/>
+      <c r="J113" s="256"/>
       <c r="K113" s="68"/>
       <c r="L113" s="68"/>
-      <c r="M113" s="256"/>
+      <c r="M113" s="259"/>
       <c r="N113" s="68"/>
       <c r="O113" s="68"/>
       <c r="P113" s="68"/>
@@ -16622,7 +16690,7 @@
       <c r="AJ113" s="68"/>
     </row>
     <row r="114" spans="1:36">
-      <c r="A114" s="249"/>
+      <c r="A114" s="250"/>
       <c r="B114" s="68"/>
       <c r="C114" s="68"/>
       <c r="D114" s="68"/>
@@ -16631,10 +16699,10 @@
       <c r="G114" s="68"/>
       <c r="H114" s="68"/>
       <c r="I114" s="68"/>
-      <c r="J114" s="254"/>
+      <c r="J114" s="256"/>
       <c r="K114" s="68"/>
       <c r="L114" s="68"/>
-      <c r="M114" s="256"/>
+      <c r="M114" s="259"/>
       <c r="N114" s="68"/>
       <c r="O114" s="68"/>
       <c r="P114" s="68"/>
@@ -16660,7 +16728,7 @@
       <c r="AJ114" s="68"/>
     </row>
     <row r="115" spans="1:36">
-      <c r="A115" s="249"/>
+      <c r="A115" s="250"/>
       <c r="B115" s="68"/>
       <c r="C115" s="68"/>
       <c r="D115" s="68"/>
@@ -16669,10 +16737,10 @@
       <c r="G115" s="68"/>
       <c r="H115" s="68"/>
       <c r="I115" s="68"/>
-      <c r="J115" s="254"/>
+      <c r="J115" s="256"/>
       <c r="K115" s="68"/>
       <c r="L115" s="68"/>
-      <c r="M115" s="256"/>
+      <c r="M115" s="259"/>
       <c r="N115" s="68"/>
       <c r="O115" s="68"/>
       <c r="P115" s="68"/>
@@ -16698,7 +16766,7 @@
       <c r="AJ115" s="68"/>
     </row>
     <row r="116" spans="1:36">
-      <c r="A116" s="249"/>
+      <c r="A116" s="250"/>
       <c r="B116" s="68"/>
       <c r="C116" s="68"/>
       <c r="D116" s="68"/>
@@ -16707,10 +16775,10 @@
       <c r="G116" s="68"/>
       <c r="H116" s="68"/>
       <c r="I116" s="68"/>
-      <c r="J116" s="254"/>
+      <c r="J116" s="256"/>
       <c r="K116" s="68"/>
       <c r="L116" s="68"/>
-      <c r="M116" s="256"/>
+      <c r="M116" s="259"/>
       <c r="N116" s="68"/>
       <c r="O116" s="68"/>
       <c r="P116" s="68"/>
@@ -16736,7 +16804,7 @@
       <c r="AJ116" s="68"/>
     </row>
     <row r="117" spans="1:36">
-      <c r="A117" s="249"/>
+      <c r="A117" s="250"/>
       <c r="B117" s="68"/>
       <c r="C117" s="68"/>
       <c r="D117" s="68"/>
@@ -16745,10 +16813,10 @@
       <c r="G117" s="68"/>
       <c r="H117" s="68"/>
       <c r="I117" s="68"/>
-      <c r="J117" s="254"/>
+      <c r="J117" s="256"/>
       <c r="K117" s="68"/>
       <c r="L117" s="68"/>
-      <c r="M117" s="256"/>
+      <c r="M117" s="259"/>
       <c r="N117" s="68"/>
       <c r="O117" s="68"/>
       <c r="P117" s="68"/>
@@ -16774,7 +16842,7 @@
       <c r="AJ117" s="68"/>
     </row>
     <row r="118" spans="1:36">
-      <c r="A118" s="249"/>
+      <c r="A118" s="250"/>
       <c r="B118" s="68"/>
       <c r="C118" s="68"/>
       <c r="D118" s="68"/>
@@ -16783,10 +16851,10 @@
       <c r="G118" s="68"/>
       <c r="H118" s="68"/>
       <c r="I118" s="68"/>
-      <c r="J118" s="254"/>
+      <c r="J118" s="256"/>
       <c r="K118" s="68"/>
       <c r="L118" s="68"/>
-      <c r="M118" s="256"/>
+      <c r="M118" s="259"/>
       <c r="N118" s="68"/>
       <c r="O118" s="68"/>
       <c r="P118" s="68"/>
@@ -16812,7 +16880,7 @@
       <c r="AJ118" s="68"/>
     </row>
     <row r="119" spans="1:36">
-      <c r="A119" s="249"/>
+      <c r="A119" s="250"/>
       <c r="B119" s="68"/>
       <c r="C119" s="68"/>
       <c r="D119" s="68"/>
@@ -16821,10 +16889,10 @@
       <c r="G119" s="68"/>
       <c r="H119" s="68"/>
       <c r="I119" s="68"/>
-      <c r="J119" s="254"/>
+      <c r="J119" s="256"/>
       <c r="K119" s="68"/>
       <c r="L119" s="68"/>
-      <c r="M119" s="256"/>
+      <c r="M119" s="259"/>
       <c r="N119" s="68"/>
       <c r="O119" s="68"/>
       <c r="P119" s="68"/>
@@ -16850,7 +16918,7 @@
       <c r="AJ119" s="68"/>
     </row>
     <row r="120" spans="1:36">
-      <c r="A120" s="249"/>
+      <c r="A120" s="250"/>
       <c r="B120" s="68"/>
       <c r="C120" s="68"/>
       <c r="D120" s="68"/>
@@ -16859,10 +16927,10 @@
       <c r="G120" s="68"/>
       <c r="H120" s="68"/>
       <c r="I120" s="68"/>
-      <c r="J120" s="254"/>
+      <c r="J120" s="256"/>
       <c r="K120" s="68"/>
       <c r="L120" s="68"/>
-      <c r="M120" s="256"/>
+      <c r="M120" s="259"/>
       <c r="N120" s="68"/>
       <c r="O120" s="68"/>
       <c r="P120" s="68"/>
@@ -16888,7 +16956,7 @@
       <c r="AJ120" s="68"/>
     </row>
     <row r="121" spans="1:36">
-      <c r="A121" s="249"/>
+      <c r="A121" s="250"/>
       <c r="B121" s="68"/>
       <c r="C121" s="68"/>
       <c r="D121" s="68"/>
@@ -16897,10 +16965,10 @@
       <c r="G121" s="68"/>
       <c r="H121" s="68"/>
       <c r="I121" s="68"/>
-      <c r="J121" s="254"/>
+      <c r="J121" s="256"/>
       <c r="K121" s="68"/>
       <c r="L121" s="68"/>
-      <c r="M121" s="256"/>
+      <c r="M121" s="259"/>
       <c r="N121" s="68"/>
       <c r="O121" s="68"/>
       <c r="P121" s="68"/>
@@ -16926,7 +16994,7 @@
       <c r="AJ121" s="68"/>
     </row>
     <row r="122" spans="1:36">
-      <c r="A122" s="249"/>
+      <c r="A122" s="250"/>
       <c r="B122" s="68"/>
       <c r="C122" s="68"/>
       <c r="D122" s="68"/>
@@ -16935,10 +17003,10 @@
       <c r="G122" s="68"/>
       <c r="H122" s="68"/>
       <c r="I122" s="68"/>
-      <c r="J122" s="254"/>
+      <c r="J122" s="256"/>
       <c r="K122" s="68"/>
       <c r="L122" s="68"/>
-      <c r="M122" s="256"/>
+      <c r="M122" s="259"/>
       <c r="N122" s="68"/>
       <c r="O122" s="68"/>
       <c r="P122" s="68"/>
@@ -16964,7 +17032,7 @@
       <c r="AJ122" s="68"/>
     </row>
     <row r="123" spans="1:36">
-      <c r="A123" s="249"/>
+      <c r="A123" s="250"/>
       <c r="B123" s="68"/>
       <c r="C123" s="68"/>
       <c r="D123" s="68"/>
@@ -16973,10 +17041,10 @@
       <c r="G123" s="68"/>
       <c r="H123" s="68"/>
       <c r="I123" s="68"/>
-      <c r="J123" s="254"/>
+      <c r="J123" s="256"/>
       <c r="K123" s="68"/>
       <c r="L123" s="68"/>
-      <c r="M123" s="256"/>
+      <c r="M123" s="259"/>
       <c r="N123" s="68"/>
       <c r="O123" s="68"/>
       <c r="P123" s="68"/>
@@ -17002,7 +17070,7 @@
       <c r="AJ123" s="68"/>
     </row>
     <row r="124" spans="1:36">
-      <c r="A124" s="249"/>
+      <c r="A124" s="250"/>
       <c r="B124" s="68"/>
       <c r="C124" s="68"/>
       <c r="D124" s="68"/>
@@ -17011,10 +17079,10 @@
       <c r="G124" s="68"/>
       <c r="H124" s="68"/>
       <c r="I124" s="68"/>
-      <c r="J124" s="254"/>
+      <c r="J124" s="256"/>
       <c r="K124" s="68"/>
       <c r="L124" s="68"/>
-      <c r="M124" s="256"/>
+      <c r="M124" s="259"/>
       <c r="N124" s="68"/>
       <c r="O124" s="68"/>
       <c r="P124" s="68"/>
@@ -17040,7 +17108,7 @@
       <c r="AJ124" s="68"/>
     </row>
     <row r="125" spans="1:36">
-      <c r="A125" s="249"/>
+      <c r="A125" s="250"/>
       <c r="B125" s="68"/>
       <c r="C125" s="68"/>
       <c r="D125" s="68"/>
@@ -17049,10 +17117,10 @@
       <c r="G125" s="68"/>
       <c r="H125" s="68"/>
       <c r="I125" s="68"/>
-      <c r="J125" s="254"/>
+      <c r="J125" s="256"/>
       <c r="K125" s="68"/>
       <c r="L125" s="68"/>
-      <c r="M125" s="256"/>
+      <c r="M125" s="259"/>
       <c r="N125" s="68"/>
       <c r="O125" s="68"/>
       <c r="P125" s="68"/>
@@ -17078,7 +17146,7 @@
       <c r="AJ125" s="68"/>
     </row>
     <row r="126" spans="1:36">
-      <c r="A126" s="249"/>
+      <c r="A126" s="250"/>
       <c r="B126" s="68"/>
       <c r="C126" s="68"/>
       <c r="D126" s="68"/>
@@ -17087,10 +17155,10 @@
       <c r="G126" s="68"/>
       <c r="H126" s="68"/>
       <c r="I126" s="68"/>
-      <c r="J126" s="254"/>
+      <c r="J126" s="256"/>
       <c r="K126" s="68"/>
       <c r="L126" s="68"/>
-      <c r="M126" s="256"/>
+      <c r="M126" s="259"/>
       <c r="N126" s="68"/>
       <c r="O126" s="68"/>
       <c r="P126" s="68"/>
@@ -17116,7 +17184,7 @@
       <c r="AJ126" s="68"/>
     </row>
     <row r="127" spans="1:36">
-      <c r="A127" s="249"/>
+      <c r="A127" s="250"/>
       <c r="B127" s="68"/>
       <c r="C127" s="68"/>
       <c r="D127" s="68"/>
@@ -17125,10 +17193,10 @@
       <c r="G127" s="68"/>
       <c r="H127" s="68"/>
       <c r="I127" s="68"/>
-      <c r="J127" s="254"/>
+      <c r="J127" s="256"/>
       <c r="K127" s="68"/>
       <c r="L127" s="68"/>
-      <c r="M127" s="256"/>
+      <c r="M127" s="259"/>
       <c r="N127" s="68"/>
       <c r="O127" s="68"/>
       <c r="P127" s="68"/>
@@ -17154,7 +17222,7 @@
       <c r="AJ127" s="68"/>
     </row>
     <row r="128" spans="1:36">
-      <c r="A128" s="249"/>
+      <c r="A128" s="250"/>
       <c r="B128" s="68"/>
       <c r="C128" s="68"/>
       <c r="D128" s="68"/>
@@ -17163,10 +17231,10 @@
       <c r="G128" s="68"/>
       <c r="H128" s="68"/>
       <c r="I128" s="68"/>
-      <c r="J128" s="254"/>
+      <c r="J128" s="256"/>
       <c r="K128" s="68"/>
       <c r="L128" s="68"/>
-      <c r="M128" s="256"/>
+      <c r="M128" s="259"/>
       <c r="N128" s="68"/>
       <c r="O128" s="68"/>
       <c r="P128" s="68"/>
@@ -17192,7 +17260,7 @@
       <c r="AJ128" s="68"/>
     </row>
     <row r="129" spans="1:36">
-      <c r="A129" s="249"/>
+      <c r="A129" s="250"/>
       <c r="B129" s="68"/>
       <c r="C129" s="68"/>
       <c r="D129" s="68"/>
@@ -17201,10 +17269,10 @@
       <c r="G129" s="68"/>
       <c r="H129" s="68"/>
       <c r="I129" s="68"/>
-      <c r="J129" s="254"/>
+      <c r="J129" s="256"/>
       <c r="K129" s="68"/>
       <c r="L129" s="68"/>
-      <c r="M129" s="256"/>
+      <c r="M129" s="259"/>
       <c r="N129" s="68"/>
       <c r="O129" s="68"/>
       <c r="P129" s="68"/>
@@ -17230,7 +17298,7 @@
       <c r="AJ129" s="68"/>
     </row>
     <row r="130" spans="1:36">
-      <c r="A130" s="249"/>
+      <c r="A130" s="250"/>
       <c r="B130" s="68"/>
       <c r="C130" s="68"/>
       <c r="D130" s="68"/>
@@ -17239,10 +17307,10 @@
       <c r="G130" s="68"/>
       <c r="H130" s="68"/>
       <c r="I130" s="68"/>
-      <c r="J130" s="254"/>
+      <c r="J130" s="256"/>
       <c r="K130" s="68"/>
       <c r="L130" s="68"/>
-      <c r="M130" s="256"/>
+      <c r="M130" s="259"/>
       <c r="N130" s="68"/>
       <c r="O130" s="68"/>
       <c r="P130" s="68"/>
@@ -17268,7 +17336,7 @@
       <c r="AJ130" s="68"/>
     </row>
     <row r="131" spans="1:36">
-      <c r="A131" s="249"/>
+      <c r="A131" s="250"/>
       <c r="B131" s="68"/>
       <c r="C131" s="68"/>
       <c r="D131" s="68"/>
@@ -17277,10 +17345,10 @@
       <c r="G131" s="68"/>
       <c r="H131" s="68"/>
       <c r="I131" s="68"/>
-      <c r="J131" s="254"/>
+      <c r="J131" s="256"/>
       <c r="K131" s="68"/>
       <c r="L131" s="68"/>
-      <c r="M131" s="256"/>
+      <c r="M131" s="259"/>
       <c r="N131" s="68"/>
       <c r="O131" s="68"/>
       <c r="P131" s="68"/>
@@ -17306,7 +17374,7 @@
       <c r="AJ131" s="68"/>
     </row>
     <row r="132" spans="1:36">
-      <c r="A132" s="249"/>
+      <c r="A132" s="250"/>
       <c r="B132" s="68"/>
       <c r="C132" s="68"/>
       <c r="D132" s="68"/>
@@ -17315,10 +17383,10 @@
       <c r="G132" s="68"/>
       <c r="H132" s="68"/>
       <c r="I132" s="68"/>
-      <c r="J132" s="254"/>
+      <c r="J132" s="256"/>
       <c r="K132" s="68"/>
       <c r="L132" s="68"/>
-      <c r="M132" s="256"/>
+      <c r="M132" s="259"/>
       <c r="N132" s="68"/>
       <c r="O132" s="68"/>
       <c r="P132" s="68"/>
@@ -17344,7 +17412,7 @@
       <c r="AJ132" s="68"/>
     </row>
     <row r="133" spans="1:36">
-      <c r="A133" s="249"/>
+      <c r="A133" s="250"/>
       <c r="B133" s="68"/>
       <c r="C133" s="68"/>
       <c r="D133" s="68"/>
@@ -17353,10 +17421,10 @@
       <c r="G133" s="68"/>
       <c r="H133" s="68"/>
       <c r="I133" s="68"/>
-      <c r="J133" s="254"/>
+      <c r="J133" s="256"/>
       <c r="K133" s="68"/>
       <c r="L133" s="68"/>
-      <c r="M133" s="256"/>
+      <c r="M133" s="259"/>
       <c r="N133" s="68"/>
       <c r="O133" s="68"/>
       <c r="P133" s="68"/>
@@ -17382,7 +17450,7 @@
       <c r="AJ133" s="68"/>
     </row>
     <row r="134" spans="1:36">
-      <c r="A134" s="249"/>
+      <c r="A134" s="250"/>
       <c r="B134" s="68"/>
       <c r="C134" s="68"/>
       <c r="D134" s="68"/>
@@ -17391,10 +17459,10 @@
       <c r="G134" s="68"/>
       <c r="H134" s="68"/>
       <c r="I134" s="68"/>
-      <c r="J134" s="254"/>
+      <c r="J134" s="256"/>
       <c r="K134" s="68"/>
       <c r="L134" s="68"/>
-      <c r="M134" s="256"/>
+      <c r="M134" s="259"/>
       <c r="N134" s="68"/>
       <c r="O134" s="68"/>
       <c r="P134" s="68"/>
@@ -17420,7 +17488,7 @@
       <c r="AJ134" s="68"/>
     </row>
     <row r="135" spans="1:36">
-      <c r="A135" s="249"/>
+      <c r="A135" s="250"/>
       <c r="B135" s="68"/>
       <c r="C135" s="68"/>
       <c r="D135" s="68"/>
@@ -17429,10 +17497,10 @@
       <c r="G135" s="68"/>
       <c r="H135" s="68"/>
       <c r="I135" s="68"/>
-      <c r="J135" s="254"/>
+      <c r="J135" s="256"/>
       <c r="K135" s="68"/>
       <c r="L135" s="68"/>
-      <c r="M135" s="256"/>
+      <c r="M135" s="259"/>
       <c r="N135" s="68"/>
       <c r="O135" s="68"/>
       <c r="P135" s="68"/>
@@ -17458,7 +17526,7 @@
       <c r="AJ135" s="68"/>
     </row>
     <row r="136" spans="1:36">
-      <c r="A136" s="249"/>
+      <c r="A136" s="250"/>
       <c r="B136" s="68"/>
       <c r="C136" s="68"/>
       <c r="D136" s="68"/>
@@ -17467,10 +17535,10 @@
       <c r="G136" s="68"/>
       <c r="H136" s="68"/>
       <c r="I136" s="68"/>
-      <c r="J136" s="254"/>
+      <c r="J136" s="256"/>
       <c r="K136" s="68"/>
       <c r="L136" s="68"/>
-      <c r="M136" s="256"/>
+      <c r="M136" s="259"/>
       <c r="N136" s="68"/>
       <c r="O136" s="68"/>
       <c r="P136" s="68"/>
@@ -17496,7 +17564,7 @@
       <c r="AJ136" s="68"/>
     </row>
     <row r="137" spans="1:36">
-      <c r="A137" s="249"/>
+      <c r="A137" s="250"/>
       <c r="B137" s="68"/>
       <c r="C137" s="68"/>
       <c r="D137" s="68"/>
@@ -17505,10 +17573,10 @@
       <c r="G137" s="68"/>
       <c r="H137" s="68"/>
       <c r="I137" s="68"/>
-      <c r="J137" s="254"/>
+      <c r="J137" s="256"/>
       <c r="K137" s="68"/>
       <c r="L137" s="68"/>
-      <c r="M137" s="256"/>
+      <c r="M137" s="259"/>
       <c r="N137" s="68"/>
       <c r="O137" s="68"/>
       <c r="P137" s="68"/>
@@ -17534,7 +17602,7 @@
       <c r="AJ137" s="68"/>
     </row>
     <row r="138" spans="1:36">
-      <c r="A138" s="249"/>
+      <c r="A138" s="250"/>
       <c r="B138" s="68"/>
       <c r="C138" s="68"/>
       <c r="D138" s="68"/>
@@ -17543,10 +17611,10 @@
       <c r="G138" s="68"/>
       <c r="H138" s="68"/>
       <c r="I138" s="68"/>
-      <c r="J138" s="254"/>
+      <c r="J138" s="256"/>
       <c r="K138" s="68"/>
       <c r="L138" s="68"/>
-      <c r="M138" s="256"/>
+      <c r="M138" s="259"/>
       <c r="N138" s="68"/>
       <c r="O138" s="68"/>
       <c r="P138" s="68"/>
@@ -17572,7 +17640,7 @@
       <c r="AJ138" s="68"/>
     </row>
     <row r="139" spans="1:36">
-      <c r="A139" s="249"/>
+      <c r="A139" s="250"/>
       <c r="B139" s="68"/>
       <c r="C139" s="68"/>
       <c r="D139" s="68"/>
@@ -17581,10 +17649,10 @@
       <c r="G139" s="68"/>
       <c r="H139" s="68"/>
       <c r="I139" s="68"/>
-      <c r="J139" s="254"/>
+      <c r="J139" s="256"/>
       <c r="K139" s="68"/>
       <c r="L139" s="68"/>
-      <c r="M139" s="256"/>
+      <c r="M139" s="259"/>
       <c r="N139" s="68"/>
       <c r="O139" s="68"/>
       <c r="P139" s="68"/>
@@ -17610,7 +17678,7 @@
       <c r="AJ139" s="68"/>
     </row>
     <row r="140" spans="1:36">
-      <c r="A140" s="249"/>
+      <c r="A140" s="250"/>
       <c r="B140" s="68"/>
       <c r="C140" s="68"/>
       <c r="D140" s="68"/>
@@ -17619,10 +17687,10 @@
       <c r="G140" s="68"/>
       <c r="H140" s="68"/>
       <c r="I140" s="68"/>
-      <c r="J140" s="254"/>
+      <c r="J140" s="256"/>
       <c r="K140" s="68"/>
       <c r="L140" s="68"/>
-      <c r="M140" s="256"/>
+      <c r="M140" s="259"/>
       <c r="N140" s="68"/>
       <c r="O140" s="68"/>
       <c r="P140" s="68"/>
@@ -17648,7 +17716,7 @@
       <c r="AJ140" s="68"/>
     </row>
     <row r="141" spans="1:36">
-      <c r="A141" s="249"/>
+      <c r="A141" s="250"/>
       <c r="B141" s="68"/>
       <c r="C141" s="68"/>
       <c r="D141" s="68"/>
@@ -17657,10 +17725,10 @@
       <c r="G141" s="68"/>
       <c r="H141" s="68"/>
       <c r="I141" s="68"/>
-      <c r="J141" s="254"/>
+      <c r="J141" s="256"/>
       <c r="K141" s="68"/>
       <c r="L141" s="68"/>
-      <c r="M141" s="256"/>
+      <c r="M141" s="259"/>
       <c r="N141" s="68"/>
       <c r="O141" s="68"/>
       <c r="P141" s="68"/>
@@ -17686,7 +17754,7 @@
       <c r="AJ141" s="68"/>
     </row>
     <row r="142" spans="1:36">
-      <c r="A142" s="249"/>
+      <c r="A142" s="250"/>
       <c r="B142" s="68"/>
       <c r="C142" s="68"/>
       <c r="D142" s="68"/>
@@ -17695,10 +17763,10 @@
       <c r="G142" s="68"/>
       <c r="H142" s="68"/>
       <c r="I142" s="68"/>
-      <c r="J142" s="254"/>
+      <c r="J142" s="256"/>
       <c r="K142" s="68"/>
       <c r="L142" s="68"/>
-      <c r="M142" s="256"/>
+      <c r="M142" s="259"/>
       <c r="N142" s="68"/>
       <c r="O142" s="68"/>
       <c r="P142" s="68"/>
@@ -17724,7 +17792,7 @@
       <c r="AJ142" s="68"/>
     </row>
     <row r="143" spans="1:36">
-      <c r="A143" s="249"/>
+      <c r="A143" s="250"/>
       <c r="B143" s="68"/>
       <c r="C143" s="68"/>
       <c r="D143" s="68"/>
@@ -17733,10 +17801,10 @@
       <c r="G143" s="68"/>
       <c r="H143" s="68"/>
       <c r="I143" s="68"/>
-      <c r="J143" s="254"/>
+      <c r="J143" s="256"/>
       <c r="K143" s="68"/>
       <c r="L143" s="68"/>
-      <c r="M143" s="256"/>
+      <c r="M143" s="259"/>
       <c r="N143" s="68"/>
       <c r="O143" s="68"/>
       <c r="P143" s="68"/>
@@ -17762,7 +17830,7 @@
       <c r="AJ143" s="68"/>
     </row>
     <row r="144" spans="1:36">
-      <c r="A144" s="249"/>
+      <c r="A144" s="250"/>
       <c r="B144" s="68"/>
       <c r="C144" s="68"/>
       <c r="D144" s="68"/>
@@ -17771,10 +17839,10 @@
       <c r="G144" s="68"/>
       <c r="H144" s="68"/>
       <c r="I144" s="68"/>
-      <c r="J144" s="254"/>
+      <c r="J144" s="256"/>
       <c r="K144" s="68"/>
       <c r="L144" s="68"/>
-      <c r="M144" s="256"/>
+      <c r="M144" s="259"/>
       <c r="N144" s="68"/>
       <c r="O144" s="68"/>
       <c r="P144" s="68"/>
@@ -17800,7 +17868,7 @@
       <c r="AJ144" s="68"/>
     </row>
     <row r="145" spans="1:36">
-      <c r="A145" s="249"/>
+      <c r="A145" s="250"/>
       <c r="B145" s="68"/>
       <c r="C145" s="68"/>
       <c r="D145" s="68"/>
@@ -17809,10 +17877,10 @@
       <c r="G145" s="68"/>
       <c r="H145" s="68"/>
       <c r="I145" s="68"/>
-      <c r="J145" s="254"/>
+      <c r="J145" s="256"/>
       <c r="K145" s="68"/>
       <c r="L145" s="68"/>
-      <c r="M145" s="256"/>
+      <c r="M145" s="259"/>
       <c r="N145" s="68"/>
       <c r="O145" s="68"/>
       <c r="P145" s="68"/>
@@ -17838,7 +17906,7 @@
       <c r="AJ145" s="68"/>
     </row>
     <row r="146" spans="1:36">
-      <c r="A146" s="249"/>
+      <c r="A146" s="250"/>
       <c r="B146" s="68"/>
       <c r="C146" s="68"/>
       <c r="D146" s="68"/>
@@ -17847,10 +17915,10 @@
       <c r="G146" s="68"/>
       <c r="H146" s="68"/>
       <c r="I146" s="68"/>
-      <c r="J146" s="254"/>
+      <c r="J146" s="256"/>
       <c r="K146" s="68"/>
       <c r="L146" s="68"/>
-      <c r="M146" s="256"/>
+      <c r="M146" s="259"/>
       <c r="N146" s="68"/>
       <c r="O146" s="68"/>
       <c r="P146" s="68"/>
@@ -17876,7 +17944,7 @@
       <c r="AJ146" s="68"/>
     </row>
     <row r="147" spans="1:36">
-      <c r="A147" s="249"/>
+      <c r="A147" s="250"/>
       <c r="B147" s="68"/>
       <c r="C147" s="68"/>
       <c r="D147" s="68"/>
@@ -17885,10 +17953,10 @@
       <c r="G147" s="68"/>
       <c r="H147" s="68"/>
       <c r="I147" s="68"/>
-      <c r="J147" s="254"/>
+      <c r="J147" s="256"/>
       <c r="K147" s="68"/>
       <c r="L147" s="68"/>
-      <c r="M147" s="256"/>
+      <c r="M147" s="259"/>
       <c r="N147" s="68"/>
       <c r="O147" s="68"/>
       <c r="P147" s="68"/>
@@ -17914,7 +17982,7 @@
       <c r="AJ147" s="68"/>
     </row>
     <row r="148" spans="1:36">
-      <c r="A148" s="249"/>
+      <c r="A148" s="250"/>
       <c r="B148" s="68"/>
       <c r="C148" s="68"/>
       <c r="D148" s="68"/>
@@ -17923,10 +17991,10 @@
       <c r="G148" s="68"/>
       <c r="H148" s="68"/>
       <c r="I148" s="68"/>
-      <c r="J148" s="254"/>
+      <c r="J148" s="256"/>
       <c r="K148" s="68"/>
       <c r="L148" s="68"/>
-      <c r="M148" s="256"/>
+      <c r="M148" s="259"/>
       <c r="N148" s="68"/>
       <c r="O148" s="68"/>
       <c r="P148" s="68"/>
@@ -17952,7 +18020,7 @@
       <c r="AJ148" s="68"/>
     </row>
     <row r="149" spans="1:36">
-      <c r="A149" s="249"/>
+      <c r="A149" s="250"/>
       <c r="B149" s="68"/>
       <c r="C149" s="68"/>
       <c r="D149" s="68"/>
@@ -17961,10 +18029,10 @@
       <c r="G149" s="68"/>
       <c r="H149" s="68"/>
       <c r="I149" s="68"/>
-      <c r="J149" s="254"/>
+      <c r="J149" s="256"/>
       <c r="K149" s="68"/>
       <c r="L149" s="68"/>
-      <c r="M149" s="256"/>
+      <c r="M149" s="259"/>
       <c r="N149" s="68"/>
       <c r="O149" s="68"/>
       <c r="P149" s="68"/>
@@ -17990,7 +18058,7 @@
       <c r="AJ149" s="68"/>
     </row>
     <row r="150" spans="1:36">
-      <c r="A150" s="249"/>
+      <c r="A150" s="250"/>
       <c r="B150" s="68"/>
       <c r="C150" s="68"/>
       <c r="D150" s="68"/>
@@ -17999,10 +18067,10 @@
       <c r="G150" s="68"/>
       <c r="H150" s="68"/>
       <c r="I150" s="68"/>
-      <c r="J150" s="254"/>
+      <c r="J150" s="256"/>
       <c r="K150" s="68"/>
       <c r="L150" s="68"/>
-      <c r="M150" s="256"/>
+      <c r="M150" s="259"/>
       <c r="N150" s="68"/>
       <c r="O150" s="68"/>
       <c r="P150" s="68"/>
@@ -18028,7 +18096,7 @@
       <c r="AJ150" s="68"/>
     </row>
     <row r="151" spans="1:36">
-      <c r="A151" s="249"/>
+      <c r="A151" s="250"/>
       <c r="B151" s="68"/>
       <c r="C151" s="68"/>
       <c r="D151" s="68"/>
@@ -18037,10 +18105,10 @@
       <c r="G151" s="68"/>
       <c r="H151" s="68"/>
       <c r="I151" s="68"/>
-      <c r="J151" s="254"/>
+      <c r="J151" s="256"/>
       <c r="K151" s="68"/>
       <c r="L151" s="68"/>
-      <c r="M151" s="256"/>
+      <c r="M151" s="259"/>
       <c r="N151" s="68"/>
       <c r="O151" s="68"/>
       <c r="P151" s="68"/>
@@ -18066,7 +18134,7 @@
       <c r="AJ151" s="68"/>
     </row>
     <row r="152" spans="1:36">
-      <c r="A152" s="249"/>
+      <c r="A152" s="250"/>
       <c r="B152" s="68"/>
       <c r="C152" s="68"/>
       <c r="D152" s="68"/>
@@ -18075,10 +18143,10 @@
       <c r="G152" s="68"/>
       <c r="H152" s="68"/>
       <c r="I152" s="68"/>
-      <c r="J152" s="254"/>
+      <c r="J152" s="256"/>
       <c r="K152" s="68"/>
       <c r="L152" s="68"/>
-      <c r="M152" s="256"/>
+      <c r="M152" s="259"/>
       <c r="N152" s="68"/>
       <c r="O152" s="68"/>
       <c r="P152" s="68"/>
@@ -18104,7 +18172,7 @@
       <c r="AJ152" s="68"/>
     </row>
     <row r="153" spans="1:36">
-      <c r="A153" s="249"/>
+      <c r="A153" s="250"/>
       <c r="B153" s="68"/>
       <c r="C153" s="68"/>
       <c r="D153" s="68"/>
@@ -18113,10 +18181,10 @@
       <c r="G153" s="68"/>
       <c r="H153" s="68"/>
       <c r="I153" s="68"/>
-      <c r="J153" s="254"/>
+      <c r="J153" s="256"/>
       <c r="K153" s="68"/>
       <c r="L153" s="68"/>
-      <c r="M153" s="256"/>
+      <c r="M153" s="259"/>
       <c r="N153" s="68"/>
       <c r="O153" s="68"/>
       <c r="P153" s="68"/>
@@ -18142,7 +18210,7 @@
       <c r="AJ153" s="68"/>
     </row>
     <row r="154" spans="1:36">
-      <c r="A154" s="249"/>
+      <c r="A154" s="250"/>
       <c r="B154" s="68"/>
       <c r="C154" s="68"/>
       <c r="D154" s="68"/>
@@ -18151,10 +18219,10 @@
       <c r="G154" s="68"/>
       <c r="H154" s="68"/>
       <c r="I154" s="68"/>
-      <c r="J154" s="254"/>
+      <c r="J154" s="256"/>
       <c r="K154" s="68"/>
       <c r="L154" s="68"/>
-      <c r="M154" s="256"/>
+      <c r="M154" s="259"/>
       <c r="N154" s="68"/>
       <c r="O154" s="68"/>
       <c r="P154" s="68"/>
@@ -18180,7 +18248,7 @@
       <c r="AJ154" s="68"/>
     </row>
     <row r="155" spans="1:36">
-      <c r="A155" s="249"/>
+      <c r="A155" s="250"/>
       <c r="B155" s="68"/>
       <c r="C155" s="68"/>
       <c r="D155" s="68"/>
@@ -18189,10 +18257,10 @@
       <c r="G155" s="68"/>
       <c r="H155" s="68"/>
       <c r="I155" s="68"/>
-      <c r="J155" s="254"/>
+      <c r="J155" s="256"/>
       <c r="K155" s="68"/>
       <c r="L155" s="68"/>
-      <c r="M155" s="256"/>
+      <c r="M155" s="259"/>
       <c r="N155" s="68"/>
       <c r="O155" s="68"/>
       <c r="P155" s="68"/>
@@ -18218,7 +18286,7 @@
       <c r="AJ155" s="68"/>
     </row>
     <row r="156" spans="1:36">
-      <c r="A156" s="249"/>
+      <c r="A156" s="250"/>
       <c r="B156" s="68"/>
       <c r="C156" s="68"/>
       <c r="D156" s="68"/>
@@ -18227,10 +18295,10 @@
       <c r="G156" s="68"/>
       <c r="H156" s="68"/>
       <c r="I156" s="68"/>
-      <c r="J156" s="254"/>
+      <c r="J156" s="256"/>
       <c r="K156" s="68"/>
       <c r="L156" s="68"/>
-      <c r="M156" s="256"/>
+      <c r="M156" s="259"/>
       <c r="N156" s="68"/>
       <c r="O156" s="68"/>
       <c r="P156" s="68"/>
@@ -18256,7 +18324,7 @@
       <c r="AJ156" s="68"/>
     </row>
     <row r="157" spans="1:36">
-      <c r="A157" s="249"/>
+      <c r="A157" s="250"/>
       <c r="B157" s="68"/>
       <c r="C157" s="68"/>
       <c r="D157" s="68"/>
@@ -18265,10 +18333,10 @@
       <c r="G157" s="68"/>
       <c r="H157" s="68"/>
       <c r="I157" s="68"/>
-      <c r="J157" s="254"/>
+      <c r="J157" s="256"/>
       <c r="K157" s="68"/>
       <c r="L157" s="68"/>
-      <c r="M157" s="256"/>
+      <c r="M157" s="259"/>
       <c r="N157" s="68"/>
       <c r="O157" s="68"/>
       <c r="P157" s="68"/>
@@ -18294,7 +18362,7 @@
       <c r="AJ157" s="68"/>
     </row>
     <row r="158" spans="1:36">
-      <c r="A158" s="249"/>
+      <c r="A158" s="250"/>
       <c r="B158" s="68"/>
       <c r="C158" s="68"/>
       <c r="D158" s="68"/>
@@ -18303,10 +18371,10 @@
       <c r="G158" s="68"/>
       <c r="H158" s="68"/>
       <c r="I158" s="68"/>
-      <c r="J158" s="254"/>
+      <c r="J158" s="256"/>
       <c r="K158" s="68"/>
       <c r="L158" s="68"/>
-      <c r="M158" s="256"/>
+      <c r="M158" s="259"/>
       <c r="N158" s="68"/>
       <c r="O158" s="68"/>
       <c r="P158" s="68"/>
@@ -18332,7 +18400,7 @@
       <c r="AJ158" s="68"/>
     </row>
     <row r="159" spans="1:36">
-      <c r="A159" s="249"/>
+      <c r="A159" s="250"/>
       <c r="B159" s="68"/>
       <c r="C159" s="68"/>
       <c r="D159" s="68"/>
@@ -18341,10 +18409,10 @@
       <c r="G159" s="68"/>
       <c r="H159" s="68"/>
       <c r="I159" s="68"/>
-      <c r="J159" s="254"/>
+      <c r="J159" s="256"/>
       <c r="K159" s="68"/>
       <c r="L159" s="68"/>
-      <c r="M159" s="256"/>
+      <c r="M159" s="259"/>
       <c r="N159" s="68"/>
       <c r="O159" s="68"/>
       <c r="P159" s="68"/>
@@ -18370,7 +18438,7 @@
       <c r="AJ159" s="68"/>
     </row>
     <row r="160" spans="1:36">
-      <c r="A160" s="249"/>
+      <c r="A160" s="250"/>
       <c r="B160" s="68"/>
       <c r="C160" s="68"/>
       <c r="D160" s="68"/>
@@ -18379,10 +18447,10 @@
       <c r="G160" s="68"/>
       <c r="H160" s="68"/>
       <c r="I160" s="68"/>
-      <c r="J160" s="254"/>
+      <c r="J160" s="256"/>
       <c r="K160" s="68"/>
       <c r="L160" s="68"/>
-      <c r="M160" s="256"/>
+      <c r="M160" s="259"/>
       <c r="N160" s="68"/>
       <c r="O160" s="68"/>
       <c r="P160" s="68"/>
@@ -18408,7 +18476,7 @@
       <c r="AJ160" s="68"/>
     </row>
     <row r="161" spans="1:36">
-      <c r="A161" s="249"/>
+      <c r="A161" s="250"/>
       <c r="B161" s="68"/>
       <c r="C161" s="68"/>
       <c r="D161" s="68"/>
@@ -18417,10 +18485,10 @@
       <c r="G161" s="68"/>
       <c r="H161" s="68"/>
       <c r="I161" s="68"/>
-      <c r="J161" s="254"/>
+      <c r="J161" s="256"/>
       <c r="K161" s="68"/>
       <c r="L161" s="68"/>
-      <c r="M161" s="256"/>
+      <c r="M161" s="259"/>
       <c r="N161" s="68"/>
       <c r="O161" s="68"/>
       <c r="P161" s="68"/>
@@ -18446,7 +18514,7 @@
       <c r="AJ161" s="68"/>
     </row>
     <row r="162" spans="1:36">
-      <c r="A162" s="249"/>
+      <c r="A162" s="250"/>
       <c r="B162" s="68"/>
       <c r="C162" s="68"/>
       <c r="D162" s="68"/>
@@ -18455,10 +18523,10 @@
       <c r="G162" s="68"/>
       <c r="H162" s="68"/>
       <c r="I162" s="68"/>
-      <c r="J162" s="254"/>
+      <c r="J162" s="256"/>
       <c r="K162" s="68"/>
       <c r="L162" s="68"/>
-      <c r="M162" s="256"/>
+      <c r="M162" s="259"/>
       <c r="N162" s="68"/>
       <c r="O162" s="68"/>
       <c r="P162" s="68"/>
@@ -18484,7 +18552,7 @@
       <c r="AJ162" s="68"/>
     </row>
     <row r="163" spans="1:36">
-      <c r="A163" s="249"/>
+      <c r="A163" s="250"/>
       <c r="B163" s="68"/>
       <c r="C163" s="68"/>
       <c r="D163" s="68"/>
@@ -18493,10 +18561,10 @@
       <c r="G163" s="68"/>
       <c r="H163" s="68"/>
       <c r="I163" s="68"/>
-      <c r="J163" s="254"/>
+      <c r="J163" s="256"/>
       <c r="K163" s="68"/>
       <c r="L163" s="68"/>
-      <c r="M163" s="256"/>
+      <c r="M163" s="259"/>
       <c r="N163" s="68"/>
       <c r="O163" s="68"/>
       <c r="P163" s="68"/>
@@ -18522,7 +18590,7 @@
       <c r="AJ163" s="68"/>
     </row>
     <row r="164" spans="1:36">
-      <c r="A164" s="249"/>
+      <c r="A164" s="250"/>
       <c r="B164" s="68"/>
       <c r="C164" s="68"/>
       <c r="D164" s="68"/>
@@ -18531,10 +18599,10 @@
       <c r="G164" s="68"/>
       <c r="H164" s="68"/>
       <c r="I164" s="68"/>
-      <c r="J164" s="254"/>
+      <c r="J164" s="256"/>
       <c r="K164" s="68"/>
       <c r="L164" s="68"/>
-      <c r="M164" s="256"/>
+      <c r="M164" s="259"/>
       <c r="N164" s="68"/>
       <c r="O164" s="68"/>
       <c r="P164" s="68"/>
@@ -18560,7 +18628,7 @@
       <c r="AJ164" s="68"/>
     </row>
     <row r="165" spans="1:36">
-      <c r="A165" s="249"/>
+      <c r="A165" s="250"/>
       <c r="B165" s="68"/>
       <c r="C165" s="68"/>
       <c r="D165" s="68"/>
@@ -18569,10 +18637,10 @@
       <c r="G165" s="68"/>
       <c r="H165" s="68"/>
       <c r="I165" s="68"/>
-      <c r="J165" s="254"/>
+      <c r="J165" s="256"/>
       <c r="K165" s="68"/>
       <c r="L165" s="68"/>
-      <c r="M165" s="256"/>
+      <c r="M165" s="259"/>
       <c r="N165" s="68"/>
       <c r="O165" s="68"/>
       <c r="P165" s="68"/>
@@ -18598,7 +18666,7 @@
       <c r="AJ165" s="68"/>
     </row>
     <row r="166" spans="1:36">
-      <c r="A166" s="249"/>
+      <c r="A166" s="250"/>
       <c r="B166" s="68"/>
       <c r="C166" s="68"/>
       <c r="D166" s="68"/>
@@ -18607,10 +18675,10 @@
       <c r="G166" s="68"/>
       <c r="H166" s="68"/>
       <c r="I166" s="68"/>
-      <c r="J166" s="254"/>
+      <c r="J166" s="256"/>
       <c r="K166" s="68"/>
       <c r="L166" s="68"/>
-      <c r="M166" s="256"/>
+      <c r="M166" s="259"/>
       <c r="N166" s="68"/>
       <c r="O166" s="68"/>
       <c r="P166" s="68"/>
@@ -18636,7 +18704,7 @@
       <c r="AJ166" s="68"/>
     </row>
     <row r="167" spans="1:36">
-      <c r="A167" s="249"/>
+      <c r="A167" s="250"/>
       <c r="B167" s="68"/>
       <c r="C167" s="68"/>
       <c r="D167" s="68"/>
@@ -18645,10 +18713,10 @@
       <c r="G167" s="68"/>
       <c r="H167" s="68"/>
       <c r="I167" s="68"/>
-      <c r="J167" s="254"/>
+      <c r="J167" s="256"/>
       <c r="K167" s="68"/>
       <c r="L167" s="68"/>
-      <c r="M167" s="256"/>
+      <c r="M167" s="259"/>
       <c r="N167" s="68"/>
       <c r="O167" s="68"/>
       <c r="P167" s="68"/>
@@ -18674,7 +18742,7 @@
       <c r="AJ167" s="68"/>
     </row>
     <row r="168" spans="1:36">
-      <c r="A168" s="249"/>
+      <c r="A168" s="250"/>
       <c r="B168" s="68"/>
       <c r="C168" s="68"/>
       <c r="D168" s="68"/>
@@ -18683,10 +18751,10 @@
       <c r="G168" s="68"/>
       <c r="H168" s="68"/>
       <c r="I168" s="68"/>
-      <c r="J168" s="254"/>
+      <c r="J168" s="256"/>
       <c r="K168" s="68"/>
       <c r="L168" s="68"/>
-      <c r="M168" s="256"/>
+      <c r="M168" s="259"/>
       <c r="N168" s="68"/>
       <c r="O168" s="68"/>
       <c r="P168" s="68"/>
@@ -18712,7 +18780,7 @@
       <c r="AJ168" s="68"/>
     </row>
     <row r="169" spans="1:36">
-      <c r="A169" s="249"/>
+      <c r="A169" s="250"/>
       <c r="B169" s="68"/>
       <c r="C169" s="68"/>
       <c r="D169" s="68"/>
@@ -18721,10 +18789,10 @@
       <c r="G169" s="68"/>
       <c r="H169" s="68"/>
       <c r="I169" s="68"/>
-      <c r="J169" s="254"/>
+      <c r="J169" s="256"/>
       <c r="K169" s="68"/>
       <c r="L169" s="68"/>
-      <c r="M169" s="256"/>
+      <c r="M169" s="259"/>
       <c r="N169" s="68"/>
       <c r="O169" s="68"/>
       <c r="P169" s="68"/>
@@ -18750,7 +18818,7 @@
       <c r="AJ169" s="68"/>
     </row>
     <row r="170" spans="1:36">
-      <c r="A170" s="249"/>
+      <c r="A170" s="250"/>
       <c r="B170" s="68"/>
       <c r="C170" s="68"/>
       <c r="D170" s="68"/>
@@ -18759,10 +18827,10 @@
       <c r="G170" s="68"/>
       <c r="H170" s="68"/>
       <c r="I170" s="68"/>
-      <c r="J170" s="254"/>
+      <c r="J170" s="256"/>
       <c r="K170" s="68"/>
       <c r="L170" s="68"/>
-      <c r="M170" s="256"/>
+      <c r="M170" s="259"/>
       <c r="N170" s="68"/>
       <c r="O170" s="68"/>
       <c r="P170" s="68"/>
@@ -18788,7 +18856,7 @@
       <c r="AJ170" s="68"/>
     </row>
     <row r="171" spans="1:36">
-      <c r="A171" s="249"/>
+      <c r="A171" s="250"/>
       <c r="B171" s="68"/>
       <c r="C171" s="68"/>
       <c r="D171" s="68"/>
@@ -18797,10 +18865,10 @@
       <c r="G171" s="68"/>
       <c r="H171" s="68"/>
       <c r="I171" s="68"/>
-      <c r="J171" s="254"/>
+      <c r="J171" s="256"/>
       <c r="K171" s="68"/>
       <c r="L171" s="68"/>
-      <c r="M171" s="256"/>
+      <c r="M171" s="259"/>
       <c r="N171" s="68"/>
       <c r="O171" s="68"/>
       <c r="P171" s="68"/>
@@ -18826,7 +18894,7 @@
       <c r="AJ171" s="68"/>
     </row>
     <row r="172" spans="1:36">
-      <c r="A172" s="249"/>
+      <c r="A172" s="250"/>
       <c r="B172" s="68"/>
       <c r="C172" s="68"/>
       <c r="D172" s="68"/>
@@ -18835,10 +18903,10 @@
       <c r="G172" s="68"/>
       <c r="H172" s="68"/>
       <c r="I172" s="68"/>
-      <c r="J172" s="254"/>
+      <c r="J172" s="256"/>
       <c r="K172" s="68"/>
       <c r="L172" s="68"/>
-      <c r="M172" s="256"/>
+      <c r="M172" s="259"/>
       <c r="N172" s="68"/>
       <c r="O172" s="68"/>
       <c r="P172" s="68"/>
@@ -18864,7 +18932,7 @@
       <c r="AJ172" s="68"/>
     </row>
     <row r="173" spans="1:36">
-      <c r="A173" s="249"/>
+      <c r="A173" s="250"/>
       <c r="B173" s="68"/>
       <c r="C173" s="68"/>
       <c r="D173" s="68"/>
@@ -18873,10 +18941,10 @@
       <c r="G173" s="68"/>
       <c r="H173" s="68"/>
       <c r="I173" s="68"/>
-      <c r="J173" s="254"/>
+      <c r="J173" s="256"/>
       <c r="K173" s="68"/>
       <c r="L173" s="68"/>
-      <c r="M173" s="256"/>
+      <c r="M173" s="259"/>
       <c r="N173" s="68"/>
       <c r="O173" s="68"/>
       <c r="P173" s="68"/>
@@ -18902,7 +18970,7 @@
       <c r="AJ173" s="68"/>
     </row>
     <row r="174" spans="1:36">
-      <c r="A174" s="249"/>
+      <c r="A174" s="250"/>
       <c r="B174" s="68"/>
       <c r="C174" s="68"/>
       <c r="D174" s="68"/>
@@ -18911,10 +18979,10 @@
       <c r="G174" s="68"/>
       <c r="H174" s="68"/>
       <c r="I174" s="68"/>
-      <c r="J174" s="254"/>
+      <c r="J174" s="256"/>
       <c r="K174" s="68"/>
       <c r="L174" s="68"/>
-      <c r="M174" s="256"/>
+      <c r="M174" s="259"/>
       <c r="N174" s="68"/>
       <c r="O174" s="68"/>
       <c r="P174" s="68"/>
@@ -18940,7 +19008,7 @@
       <c r="AJ174" s="68"/>
     </row>
     <row r="175" spans="1:36">
-      <c r="A175" s="249"/>
+      <c r="A175" s="250"/>
       <c r="B175" s="68"/>
       <c r="C175" s="68"/>
       <c r="D175" s="68"/>
@@ -18949,10 +19017,10 @@
       <c r="G175" s="68"/>
       <c r="H175" s="68"/>
       <c r="I175" s="68"/>
-      <c r="J175" s="254"/>
+      <c r="J175" s="256"/>
       <c r="K175" s="68"/>
       <c r="L175" s="68"/>
-      <c r="M175" s="256"/>
+      <c r="M175" s="259"/>
       <c r="N175" s="68"/>
       <c r="O175" s="68"/>
       <c r="P175" s="68"/>
@@ -18978,7 +19046,7 @@
       <c r="AJ175" s="68"/>
     </row>
     <row r="176" spans="1:36">
-      <c r="A176" s="249"/>
+      <c r="A176" s="250"/>
       <c r="B176" s="68"/>
       <c r="C176" s="68"/>
       <c r="D176" s="68"/>
@@ -18987,10 +19055,10 @@
       <c r="G176" s="68"/>
       <c r="H176" s="68"/>
       <c r="I176" s="68"/>
-      <c r="J176" s="254"/>
+      <c r="J176" s="256"/>
       <c r="K176" s="68"/>
       <c r="L176" s="68"/>
-      <c r="M176" s="256"/>
+      <c r="M176" s="259"/>
       <c r="N176" s="68"/>
       <c r="O176" s="68"/>
       <c r="P176" s="68"/>
@@ -19016,7 +19084,7 @@
       <c r="AJ176" s="68"/>
     </row>
     <row r="177" spans="1:36">
-      <c r="A177" s="249"/>
+      <c r="A177" s="250"/>
       <c r="B177" s="68"/>
       <c r="C177" s="68"/>
       <c r="D177" s="68"/>
@@ -19025,10 +19093,10 @@
       <c r="G177" s="68"/>
       <c r="H177" s="68"/>
       <c r="I177" s="68"/>
-      <c r="J177" s="254"/>
+      <c r="J177" s="256"/>
       <c r="K177" s="68"/>
       <c r="L177" s="68"/>
-      <c r="M177" s="256"/>
+      <c r="M177" s="259"/>
       <c r="N177" s="68"/>
       <c r="O177" s="68"/>
       <c r="P177" s="68"/>
@@ -19054,7 +19122,7 @@
       <c r="AJ177" s="68"/>
     </row>
     <row r="178" spans="1:36">
-      <c r="A178" s="249"/>
+      <c r="A178" s="250"/>
       <c r="B178" s="68"/>
       <c r="C178" s="68"/>
       <c r="D178" s="68"/>
@@ -19063,10 +19131,10 @@
       <c r="G178" s="68"/>
       <c r="H178" s="68"/>
       <c r="I178" s="68"/>
-      <c r="J178" s="254"/>
+      <c r="J178" s="256"/>
       <c r="K178" s="68"/>
       <c r="L178" s="68"/>
-      <c r="M178" s="256"/>
+      <c r="M178" s="259"/>
       <c r="N178" s="68"/>
       <c r="O178" s="68"/>
       <c r="P178" s="68"/>
@@ -19092,7 +19160,7 @@
       <c r="AJ178" s="68"/>
     </row>
     <row r="179" spans="1:36">
-      <c r="A179" s="249"/>
+      <c r="A179" s="250"/>
       <c r="B179" s="68"/>
       <c r="C179" s="68"/>
       <c r="D179" s="68"/>
@@ -19101,10 +19169,10 @@
       <c r="G179" s="68"/>
       <c r="H179" s="68"/>
       <c r="I179" s="68"/>
-      <c r="J179" s="254"/>
+      <c r="J179" s="256"/>
       <c r="K179" s="68"/>
       <c r="L179" s="68"/>
-      <c r="M179" s="256"/>
+      <c r="M179" s="259"/>
       <c r="N179" s="68"/>
       <c r="O179" s="68"/>
       <c r="P179" s="68"/>
@@ -19130,7 +19198,7 @@
       <c r="AJ179" s="68"/>
     </row>
     <row r="180" spans="1:36">
-      <c r="A180" s="249"/>
+      <c r="A180" s="250"/>
       <c r="B180" s="68"/>
       <c r="C180" s="68"/>
       <c r="D180" s="68"/>
@@ -19139,10 +19207,10 @@
       <c r="G180" s="68"/>
       <c r="H180" s="68"/>
       <c r="I180" s="68"/>
-      <c r="J180" s="254"/>
+      <c r="J180" s="256"/>
       <c r="K180" s="68"/>
       <c r="L180" s="68"/>
-      <c r="M180" s="256"/>
+      <c r="M180" s="259"/>
       <c r="N180" s="68"/>
       <c r="O180" s="68"/>
       <c r="P180" s="68"/>
@@ -19168,7 +19236,7 @@
       <c r="AJ180" s="68"/>
     </row>
     <row r="181" spans="1:36">
-      <c r="A181" s="249"/>
+      <c r="A181" s="250"/>
       <c r="B181" s="68"/>
       <c r="C181" s="68"/>
       <c r="D181" s="68"/>
@@ -19177,10 +19245,10 @@
       <c r="G181" s="68"/>
       <c r="H181" s="68"/>
       <c r="I181" s="68"/>
-      <c r="J181" s="254"/>
+      <c r="J181" s="256"/>
       <c r="K181" s="68"/>
       <c r="L181" s="68"/>
-      <c r="M181" s="256"/>
+      <c r="M181" s="259"/>
       <c r="N181" s="68"/>
       <c r="O181" s="68"/>
       <c r="P181" s="68"/>
@@ -19206,7 +19274,7 @@
       <c r="AJ181" s="68"/>
     </row>
     <row r="182" spans="1:36">
-      <c r="A182" s="249"/>
+      <c r="A182" s="250"/>
       <c r="B182" s="68"/>
       <c r="C182" s="68"/>
       <c r="D182" s="68"/>
@@ -19215,10 +19283,10 @@
       <c r="G182" s="68"/>
       <c r="H182" s="68"/>
       <c r="I182" s="68"/>
-      <c r="J182" s="254"/>
+      <c r="J182" s="256"/>
       <c r="K182" s="68"/>
       <c r="L182" s="68"/>
-      <c r="M182" s="256"/>
+      <c r="M182" s="259"/>
       <c r="N182" s="68"/>
       <c r="O182" s="68"/>
       <c r="P182" s="68"/>
@@ -19244,7 +19312,7 @@
       <c r="AJ182" s="68"/>
     </row>
     <row r="183" spans="1:36">
-      <c r="A183" s="249"/>
+      <c r="A183" s="250"/>
       <c r="B183" s="68"/>
       <c r="C183" s="68"/>
       <c r="D183" s="68"/>
@@ -19253,10 +19321,10 @@
       <c r="G183" s="68"/>
       <c r="H183" s="68"/>
       <c r="I183" s="68"/>
-      <c r="J183" s="254"/>
+      <c r="J183" s="256"/>
       <c r="K183" s="68"/>
       <c r="L183" s="68"/>
-      <c r="M183" s="256"/>
+      <c r="M183" s="259"/>
       <c r="N183" s="68"/>
       <c r="O183" s="68"/>
       <c r="P183" s="68"/>
@@ -19282,7 +19350,7 @@
       <c r="AJ183" s="68"/>
     </row>
     <row r="184" spans="1:36">
-      <c r="A184" s="249"/>
+      <c r="A184" s="250"/>
       <c r="B184" s="68"/>
       <c r="C184" s="68"/>
       <c r="D184" s="68"/>
@@ -19291,10 +19359,10 @@
       <c r="G184" s="68"/>
       <c r="H184" s="68"/>
       <c r="I184" s="68"/>
-      <c r="J184" s="254"/>
+      <c r="J184" s="256"/>
       <c r="K184" s="68"/>
       <c r="L184" s="68"/>
-      <c r="M184" s="256"/>
+      <c r="M184" s="259"/>
       <c r="N184" s="68"/>
       <c r="O184" s="68"/>
       <c r="P184" s="68"/>
@@ -19320,7 +19388,7 @@
       <c r="AJ184" s="68"/>
     </row>
     <row r="185" spans="1:36">
-      <c r="A185" s="249"/>
+      <c r="A185" s="250"/>
       <c r="B185" s="68"/>
       <c r="C185" s="68"/>
       <c r="D185" s="68"/>
@@ -19329,10 +19397,10 @@
       <c r="G185" s="68"/>
       <c r="H185" s="68"/>
       <c r="I185" s="68"/>
-      <c r="J185" s="254"/>
+      <c r="J185" s="256"/>
       <c r="K185" s="68"/>
       <c r="L185" s="68"/>
-      <c r="M185" s="256"/>
+      <c r="M185" s="259"/>
       <c r="N185" s="68"/>
       <c r="O185" s="68"/>
       <c r="P185" s="68"/>
@@ -19358,7 +19426,7 @@
       <c r="AJ185" s="68"/>
     </row>
     <row r="186" spans="1:36">
-      <c r="A186" s="249"/>
+      <c r="A186" s="250"/>
       <c r="B186" s="68"/>
       <c r="C186" s="68"/>
       <c r="D186" s="68"/>
@@ -19367,10 +19435,10 @@
       <c r="G186" s="68"/>
       <c r="H186" s="68"/>
       <c r="I186" s="68"/>
-      <c r="J186" s="254"/>
+      <c r="J186" s="256"/>
       <c r="K186" s="68"/>
       <c r="L186" s="68"/>
-      <c r="M186" s="256"/>
+      <c r="M186" s="259"/>
       <c r="N186" s="68"/>
       <c r="O186" s="68"/>
       <c r="P186" s="68"/>
@@ -19396,7 +19464,7 @@
       <c r="AJ186" s="68"/>
     </row>
     <row r="187" spans="1:36">
-      <c r="A187" s="249"/>
+      <c r="A187" s="250"/>
       <c r="B187" s="68"/>
       <c r="C187" s="68"/>
       <c r="D187" s="68"/>
@@ -19405,10 +19473,10 @@
       <c r="G187" s="68"/>
       <c r="H187" s="68"/>
       <c r="I187" s="68"/>
-      <c r="J187" s="254"/>
+      <c r="J187" s="256"/>
       <c r="K187" s="68"/>
       <c r="L187" s="68"/>
-      <c r="M187" s="256"/>
+      <c r="M187" s="259"/>
       <c r="N187" s="68"/>
       <c r="O187" s="68"/>
       <c r="P187" s="68"/>
@@ -19434,7 +19502,7 @@
       <c r="AJ187" s="68"/>
     </row>
     <row r="188" spans="1:36">
-      <c r="A188" s="249"/>
+      <c r="A188" s="250"/>
       <c r="B188" s="68"/>
       <c r="C188" s="68"/>
       <c r="D188" s="68"/>
@@ -19443,10 +19511,10 @@
       <c r="G188" s="68"/>
       <c r="H188" s="68"/>
       <c r="I188" s="68"/>
-      <c r="J188" s="254"/>
+      <c r="J188" s="256"/>
       <c r="K188" s="68"/>
       <c r="L188" s="68"/>
-      <c r="M188" s="256"/>
+      <c r="M188" s="259"/>
       <c r="N188" s="68"/>
       <c r="O188" s="68"/>
       <c r="P188" s="68"/>
@@ -19472,7 +19540,7 @@
       <c r="AJ188" s="68"/>
     </row>
     <row r="189" spans="1:36">
-      <c r="A189" s="249"/>
+      <c r="A189" s="250"/>
       <c r="B189" s="68"/>
       <c r="C189" s="68"/>
       <c r="D189" s="68"/>
@@ -19481,10 +19549,10 @@
       <c r="G189" s="68"/>
       <c r="H189" s="68"/>
       <c r="I189" s="68"/>
-      <c r="J189" s="254"/>
+      <c r="J189" s="256"/>
       <c r="K189" s="68"/>
       <c r="L189" s="68"/>
-      <c r="M189" s="256"/>
+      <c r="M189" s="259"/>
       <c r="N189" s="68"/>
       <c r="O189" s="68"/>
       <c r="P189" s="68"/>
@@ -19510,7 +19578,7 @@
       <c r="AJ189" s="68"/>
     </row>
     <row r="190" spans="1:36">
-      <c r="A190" s="249"/>
+      <c r="A190" s="250"/>
       <c r="B190" s="68"/>
       <c r="C190" s="68"/>
       <c r="D190" s="68"/>
@@ -19519,10 +19587,10 @@
       <c r="G190" s="68"/>
       <c r="H190" s="68"/>
       <c r="I190" s="68"/>
-      <c r="J190" s="254"/>
+      <c r="J190" s="256"/>
       <c r="K190" s="68"/>
       <c r="L190" s="68"/>
-      <c r="M190" s="256"/>
+      <c r="M190" s="259"/>
       <c r="N190" s="68"/>
       <c r="O190" s="68"/>
       <c r="P190" s="68"/>
@@ -19548,7 +19616,7 @@
       <c r="AJ190" s="68"/>
     </row>
     <row r="191" spans="1:36">
-      <c r="A191" s="249"/>
+      <c r="A191" s="250"/>
       <c r="B191" s="68"/>
       <c r="C191" s="68"/>
       <c r="D191" s="68"/>
@@ -19557,10 +19625,10 @@
       <c r="G191" s="68"/>
       <c r="H191" s="68"/>
       <c r="I191" s="68"/>
-      <c r="J191" s="254"/>
+      <c r="J191" s="256"/>
       <c r="K191" s="68"/>
       <c r="L191" s="68"/>
-      <c r="M191" s="256"/>
+      <c r="M191" s="259"/>
       <c r="N191" s="68"/>
       <c r="O191" s="68"/>
       <c r="P191" s="68"/>
@@ -19586,7 +19654,7 @@
       <c r="AJ191" s="68"/>
     </row>
     <row r="192" spans="1:36">
-      <c r="A192" s="249"/>
+      <c r="A192" s="250"/>
       <c r="B192" s="68"/>
       <c r="C192" s="68"/>
       <c r="D192" s="68"/>
@@ -19595,10 +19663,10 @@
       <c r="G192" s="68"/>
       <c r="H192" s="68"/>
       <c r="I192" s="68"/>
-      <c r="J192" s="254"/>
+      <c r="J192" s="256"/>
       <c r="K192" s="68"/>
       <c r="L192" s="68"/>
-      <c r="M192" s="256"/>
+      <c r="M192" s="259"/>
       <c r="N192" s="68"/>
       <c r="O192" s="68"/>
       <c r="P192" s="68"/>
@@ -19624,7 +19692,7 @@
       <c r="AJ192" s="68"/>
     </row>
     <row r="193" spans="1:36">
-      <c r="A193" s="249"/>
+      <c r="A193" s="250"/>
       <c r="B193" s="68"/>
       <c r="C193" s="68"/>
       <c r="D193" s="68"/>
@@ -19633,10 +19701,10 @@
       <c r="G193" s="68"/>
       <c r="H193" s="68"/>
       <c r="I193" s="68"/>
-      <c r="J193" s="254"/>
+      <c r="J193" s="256"/>
       <c r="K193" s="68"/>
       <c r="L193" s="68"/>
-      <c r="M193" s="256"/>
+      <c r="M193" s="259"/>
       <c r="N193" s="68"/>
       <c r="O193" s="68"/>
       <c r="P193" s="68"/>
@@ -19662,7 +19730,7 @@
       <c r="AJ193" s="68"/>
     </row>
     <row r="194" spans="1:36">
-      <c r="A194" s="249"/>
+      <c r="A194" s="250"/>
       <c r="B194" s="68"/>
       <c r="C194" s="68"/>
       <c r="D194" s="68"/>
@@ -19671,10 +19739,10 @@
       <c r="G194" s="68"/>
       <c r="H194" s="68"/>
       <c r="I194" s="68"/>
-      <c r="J194" s="254"/>
+      <c r="J194" s="256"/>
       <c r="K194" s="68"/>
       <c r="L194" s="68"/>
-      <c r="M194" s="256"/>
+      <c r="M194" s="259"/>
       <c r="N194" s="68"/>
       <c r="O194" s="68"/>
       <c r="P194" s="68"/>
@@ -19700,7 +19768,7 @@
       <c r="AJ194" s="68"/>
     </row>
     <row r="195" spans="1:36">
-      <c r="A195" s="249"/>
+      <c r="A195" s="250"/>
       <c r="B195" s="68"/>
       <c r="C195" s="68"/>
       <c r="D195" s="68"/>
@@ -19709,10 +19777,10 @@
       <c r="G195" s="68"/>
       <c r="H195" s="68"/>
       <c r="I195" s="68"/>
-      <c r="J195" s="254"/>
+      <c r="J195" s="256"/>
       <c r="K195" s="68"/>
       <c r="L195" s="68"/>
-      <c r="M195" s="256"/>
+      <c r="M195" s="259"/>
       <c r="N195" s="68"/>
       <c r="O195" s="68"/>
       <c r="P195" s="68"/>
@@ -19738,7 +19806,7 @@
       <c r="AJ195" s="68"/>
     </row>
     <row r="196" spans="1:36">
-      <c r="A196" s="249"/>
+      <c r="A196" s="250"/>
       <c r="B196" s="68"/>
       <c r="C196" s="68"/>
       <c r="D196" s="68"/>
@@ -19747,10 +19815,10 @@
       <c r="G196" s="68"/>
       <c r="H196" s="68"/>
       <c r="I196" s="68"/>
-      <c r="J196" s="254"/>
+      <c r="J196" s="256"/>
       <c r="K196" s="68"/>
       <c r="L196" s="68"/>
-      <c r="M196" s="256"/>
+      <c r="M196" s="259"/>
       <c r="N196" s="68"/>
       <c r="O196" s="68"/>
       <c r="P196" s="68"/>
@@ -19776,7 +19844,7 @@
       <c r="AJ196" s="68"/>
     </row>
     <row r="197" spans="1:36">
-      <c r="A197" s="249"/>
+      <c r="A197" s="250"/>
       <c r="B197" s="68"/>
       <c r="C197" s="68"/>
       <c r="D197" s="68"/>
@@ -19785,10 +19853,10 @@
       <c r="G197" s="68"/>
       <c r="H197" s="68"/>
       <c r="I197" s="68"/>
-      <c r="J197" s="254"/>
+      <c r="J197" s="256"/>
       <c r="K197" s="68"/>
       <c r="L197" s="68"/>
-      <c r="M197" s="256"/>
+      <c r="M197" s="259"/>
       <c r="N197" s="68"/>
       <c r="O197" s="68"/>
       <c r="P197" s="68"/>
@@ -19814,7 +19882,7 @@
       <c r="AJ197" s="68"/>
     </row>
     <row r="198" spans="1:36">
-      <c r="A198" s="249"/>
+      <c r="A198" s="250"/>
       <c r="B198" s="68"/>
       <c r="C198" s="68"/>
       <c r="D198" s="68"/>
@@ -19823,10 +19891,10 @@
       <c r="G198" s="68"/>
       <c r="H198" s="68"/>
       <c r="I198" s="68"/>
-      <c r="J198" s="254"/>
+      <c r="J198" s="256"/>
       <c r="K198" s="68"/>
       <c r="L198" s="68"/>
-      <c r="M198" s="256"/>
+      <c r="M198" s="259"/>
       <c r="N198" s="68"/>
       <c r="O198" s="68"/>
       <c r="P198" s="68"/>
@@ -19852,7 +19920,7 @@
       <c r="AJ198" s="68"/>
     </row>
     <row r="199" spans="1:36">
-      <c r="A199" s="249"/>
+      <c r="A199" s="250"/>
       <c r="B199" s="68"/>
       <c r="C199" s="68"/>
       <c r="D199" s="68"/>
@@ -19861,10 +19929,10 @@
       <c r="G199" s="68"/>
       <c r="H199" s="68"/>
       <c r="I199" s="68"/>
-      <c r="J199" s="254"/>
+      <c r="J199" s="256"/>
       <c r="K199" s="68"/>
       <c r="L199" s="68"/>
-      <c r="M199" s="256"/>
+      <c r="M199" s="259"/>
       <c r="N199" s="68"/>
       <c r="O199" s="68"/>
       <c r="P199" s="68"/>
@@ -19890,7 +19958,7 @@
       <c r="AJ199" s="68"/>
     </row>
     <row r="200" spans="1:36">
-      <c r="A200" s="249"/>
+      <c r="A200" s="250"/>
       <c r="B200" s="68"/>
       <c r="C200" s="68"/>
       <c r="D200" s="68"/>
@@ -19899,10 +19967,10 @@
       <c r="G200" s="68"/>
       <c r="H200" s="68"/>
       <c r="I200" s="68"/>
-      <c r="J200" s="254"/>
+      <c r="J200" s="256"/>
       <c r="K200" s="68"/>
       <c r="L200" s="68"/>
-      <c r="M200" s="256"/>
+      <c r="M200" s="259"/>
       <c r="N200" s="68"/>
       <c r="O200" s="68"/>
       <c r="P200" s="68"/>
@@ -19928,7 +19996,7 @@
       <c r="AJ200" s="68"/>
     </row>
     <row r="201" spans="1:36">
-      <c r="A201" s="249"/>
+      <c r="A201" s="250"/>
       <c r="B201" s="68"/>
       <c r="C201" s="68"/>
       <c r="D201" s="68"/>
@@ -19937,10 +20005,10 @@
       <c r="G201" s="68"/>
       <c r="H201" s="68"/>
       <c r="I201" s="68"/>
-      <c r="J201" s="254"/>
+      <c r="J201" s="256"/>
       <c r="K201" s="68"/>
       <c r="L201" s="68"/>
-      <c r="M201" s="256"/>
+      <c r="M201" s="259"/>
       <c r="N201" s="68"/>
       <c r="O201" s="68"/>
       <c r="P201" s="68"/>
@@ -19966,7 +20034,7 @@
       <c r="AJ201" s="68"/>
     </row>
     <row r="202" spans="1:36">
-      <c r="A202" s="249"/>
+      <c r="A202" s="250"/>
       <c r="B202" s="68"/>
       <c r="C202" s="68"/>
       <c r="D202" s="68"/>
@@ -19975,10 +20043,10 @@
       <c r="G202" s="68"/>
       <c r="H202" s="68"/>
       <c r="I202" s="68"/>
-      <c r="J202" s="254"/>
+      <c r="J202" s="256"/>
       <c r="K202" s="68"/>
       <c r="L202" s="68"/>
-      <c r="M202" s="256"/>
+      <c r="M202" s="259"/>
       <c r="N202" s="68"/>
       <c r="O202" s="68"/>
       <c r="P202" s="68"/>
@@ -20004,7 +20072,7 @@
       <c r="AJ202" s="68"/>
     </row>
     <row r="203" spans="1:36">
-      <c r="A203" s="249"/>
+      <c r="A203" s="250"/>
       <c r="B203" s="68"/>
       <c r="C203" s="68"/>
       <c r="D203" s="68"/>
@@ -20013,10 +20081,10 @@
       <c r="G203" s="68"/>
       <c r="H203" s="68"/>
       <c r="I203" s="68"/>
-      <c r="J203" s="254"/>
+      <c r="J203" s="256"/>
       <c r="K203" s="68"/>
       <c r="L203" s="68"/>
-      <c r="M203" s="256"/>
+      <c r="M203" s="259"/>
       <c r="N203" s="68"/>
       <c r="O203" s="68"/>
       <c r="P203" s="68"/>
@@ -20042,7 +20110,7 @@
       <c r="AJ203" s="68"/>
     </row>
     <row r="204" spans="1:36">
-      <c r="A204" s="249"/>
+      <c r="A204" s="250"/>
       <c r="B204" s="68"/>
       <c r="C204" s="68"/>
       <c r="D204" s="68"/>
@@ -20051,10 +20119,10 @@
       <c r="G204" s="68"/>
       <c r="H204" s="68"/>
       <c r="I204" s="68"/>
-      <c r="J204" s="254"/>
+      <c r="J204" s="256"/>
       <c r="K204" s="68"/>
       <c r="L204" s="68"/>
-      <c r="M204" s="256"/>
+      <c r="M204" s="259"/>
       <c r="N204" s="68"/>
       <c r="O204" s="68"/>
       <c r="P204" s="68"/>
@@ -20080,7 +20148,7 @@
       <c r="AJ204" s="68"/>
     </row>
     <row r="205" spans="1:36">
-      <c r="A205" s="249"/>
+      <c r="A205" s="250"/>
       <c r="B205" s="68"/>
       <c r="C205" s="68"/>
       <c r="D205" s="68"/>
@@ -20089,10 +20157,10 @@
       <c r="G205" s="68"/>
       <c r="H205" s="68"/>
       <c r="I205" s="68"/>
-      <c r="J205" s="254"/>
+      <c r="J205" s="256"/>
       <c r="K205" s="68"/>
       <c r="L205" s="68"/>
-      <c r="M205" s="256"/>
+      <c r="M205" s="259"/>
       <c r="N205" s="68"/>
       <c r="O205" s="68"/>
       <c r="P205" s="68"/>
@@ -20118,7 +20186,7 @@
       <c r="AJ205" s="68"/>
     </row>
     <row r="206" spans="1:36">
-      <c r="A206" s="249"/>
+      <c r="A206" s="250"/>
       <c r="B206" s="68"/>
       <c r="C206" s="68"/>
       <c r="D206" s="68"/>
@@ -20127,10 +20195,10 @@
       <c r="G206" s="68"/>
       <c r="H206" s="68"/>
       <c r="I206" s="68"/>
-      <c r="J206" s="254"/>
+      <c r="J206" s="256"/>
       <c r="K206" s="68"/>
       <c r="L206" s="68"/>
-      <c r="M206" s="256"/>
+      <c r="M206" s="259"/>
       <c r="N206" s="68"/>
       <c r="O206" s="68"/>
       <c r="P206" s="68"/>
@@ -20156,7 +20224,7 @@
       <c r="AJ206" s="68"/>
     </row>
     <row r="207" spans="1:36">
-      <c r="A207" s="249"/>
+      <c r="A207" s="250"/>
       <c r="B207" s="68"/>
       <c r="C207" s="68"/>
       <c r="D207" s="68"/>
@@ -20165,10 +20233,10 @@
       <c r="G207" s="68"/>
       <c r="H207" s="68"/>
       <c r="I207" s="68"/>
-      <c r="J207" s="254"/>
+      <c r="J207" s="256"/>
       <c r="K207" s="68"/>
       <c r="L207" s="68"/>
-      <c r="M207" s="256"/>
+      <c r="M207" s="259"/>
       <c r="N207" s="68"/>
       <c r="O207" s="68"/>
       <c r="P207" s="68"/>
@@ -20194,7 +20262,7 @@
       <c r="AJ207" s="68"/>
     </row>
     <row r="208" spans="1:36">
-      <c r="A208" s="249"/>
+      <c r="A208" s="250"/>
       <c r="B208" s="68"/>
       <c r="C208" s="68"/>
       <c r="D208" s="68"/>
@@ -20203,10 +20271,10 @@
       <c r="G208" s="68"/>
       <c r="H208" s="68"/>
       <c r="I208" s="68"/>
-      <c r="J208" s="254"/>
+      <c r="J208" s="256"/>
       <c r="K208" s="68"/>
       <c r="L208" s="68"/>
-      <c r="M208" s="256"/>
+      <c r="M208" s="259"/>
       <c r="N208" s="68"/>
       <c r="O208" s="68"/>
       <c r="P208" s="68"/>
@@ -20232,7 +20300,7 @@
       <c r="AJ208" s="68"/>
     </row>
     <row r="209" spans="1:36">
-      <c r="A209" s="249"/>
+      <c r="A209" s="250"/>
       <c r="B209" s="68"/>
       <c r="C209" s="68"/>
       <c r="D209" s="68"/>
@@ -20241,10 +20309,10 @@
       <c r="G209" s="68"/>
       <c r="H209" s="68"/>
       <c r="I209" s="68"/>
-      <c r="J209" s="254"/>
+      <c r="J209" s="256"/>
       <c r="K209" s="68"/>
       <c r="L209" s="68"/>
-      <c r="M209" s="256"/>
+      <c r="M209" s="259"/>
       <c r="N209" s="68"/>
       <c r="O209" s="68"/>
       <c r="P209" s="68"/>
@@ -20302,12 +20370,12 @@
   <sheetPr/>
   <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="V12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="L11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -20367,7 +20435,7 @@
   <sheetData>
     <row r="1" spans="1:65">
       <c r="A1" s="17" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -20379,33 +20447,33 @@
         <v>7</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
       <c r="O1" s="17" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="P1" s="17"/>
       <c r="Q1" s="17"/>
       <c r="R1" s="17"/>
       <c r="S1" s="17" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="T1" s="17"/>
       <c r="U1" s="17"/>
       <c r="V1" s="17"/>
       <c r="W1" s="69" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="X1" s="69"/>
       <c r="Y1" s="69"/>
@@ -20419,7 +20487,7 @@
       <c r="AG1" s="84"/>
       <c r="AH1" s="84"/>
       <c r="AI1" s="70" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="AJ1" s="70"/>
       <c r="AK1" s="70"/>
@@ -20433,7 +20501,7 @@
       <c r="AS1" s="107"/>
       <c r="AT1" s="107"/>
       <c r="AU1" s="111" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AV1" s="111"/>
       <c r="AW1" s="111"/>
@@ -20447,22 +20515,22 @@
       <c r="BE1" s="111"/>
       <c r="BF1" s="111"/>
       <c r="BG1" s="117" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="BH1" s="118" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="BI1" s="118" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="BJ1" s="118" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="BK1" s="118" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="BL1" s="127" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="BM1" s="127"/>
     </row>
@@ -20472,34 +20540,34 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="H2" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>438</v>
-      </c>
       <c r="L2" s="17" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="O2" s="68"/>
       <c r="P2" s="17"/>
@@ -20510,112 +20578,112 @@
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="70" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="X2" s="71" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Y2" s="71" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="Z2" s="71" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA2" s="71" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB2" s="71" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC2" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD2" s="71" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE2" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF2" s="85" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG2" s="85" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH2" s="94" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI2" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="AA2" s="71" t="s">
+      <c r="AJ2" s="71" t="s">
         <v>446</v>
       </c>
-      <c r="AB2" s="71" t="s">
+      <c r="AK2" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="AC2" s="71" t="s">
+      <c r="AL2" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="AD2" s="71" t="s">
+      <c r="AM2" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="AE2" s="85" t="s">
+      <c r="AN2" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="AF2" s="85" t="s">
+      <c r="AO2" s="71" t="s">
         <v>451</v>
       </c>
-      <c r="AG2" s="85" t="s">
+      <c r="AP2" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="AH2" s="94" t="s">
+      <c r="AQ2" s="85" t="s">
         <v>453</v>
       </c>
-      <c r="AI2" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="AJ2" s="71" t="s">
-        <v>443</v>
-      </c>
-      <c r="AK2" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="AL2" s="71" t="s">
+      <c r="AR2" s="85" t="s">
+        <v>454</v>
+      </c>
+      <c r="AS2" s="85" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT2" s="94" t="s">
+        <v>456</v>
+      </c>
+      <c r="AU2" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="AM2" s="71" t="s">
+      <c r="AV2" s="71" t="s">
         <v>446</v>
       </c>
-      <c r="AN2" s="71" t="s">
+      <c r="AW2" s="71" t="s">
         <v>447</v>
       </c>
-      <c r="AO2" s="71" t="s">
+      <c r="AX2" s="71" t="s">
         <v>448</v>
       </c>
-      <c r="AP2" s="71" t="s">
+      <c r="AY2" s="71" t="s">
         <v>449</v>
       </c>
-      <c r="AQ2" s="85" t="s">
+      <c r="AZ2" s="71" t="s">
         <v>450</v>
       </c>
-      <c r="AR2" s="85" t="s">
+      <c r="BA2" s="71" t="s">
         <v>451</v>
       </c>
-      <c r="AS2" s="85" t="s">
+      <c r="BB2" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="AT2" s="94" t="s">
+      <c r="BC2" s="85" t="s">
         <v>453</v>
       </c>
-      <c r="AU2" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="AV2" s="71" t="s">
-        <v>443</v>
-      </c>
-      <c r="AW2" s="71" t="s">
-        <v>444</v>
-      </c>
-      <c r="AX2" s="71" t="s">
-        <v>445</v>
-      </c>
-      <c r="AY2" s="71" t="s">
-        <v>446</v>
-      </c>
-      <c r="AZ2" s="71" t="s">
-        <v>447</v>
-      </c>
-      <c r="BA2" s="71" t="s">
-        <v>448</v>
-      </c>
-      <c r="BB2" s="71" t="s">
-        <v>449</v>
-      </c>
-      <c r="BC2" s="85" t="s">
-        <v>450</v>
-      </c>
       <c r="BD2" s="85" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="BE2" s="85" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="BF2" s="94" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="BG2" s="117"/>
       <c r="BH2" s="118"/>
@@ -20627,16 +20695,16 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="38" customHeight="1" spans="1:65">
       <c r="A3" s="19" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -20792,19 +20860,19 @@
         <v>0.671</v>
       </c>
       <c r="BL3" s="128" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="BM3" s="143"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="31" customHeight="1" spans="1:65">
       <c r="A4" s="22" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>11</v>
@@ -20880,16 +20948,16 @@
         <v>0.1314</v>
       </c>
       <c r="AM4" s="97" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="AN4" s="97" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AO4" s="97" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AP4" s="97" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AQ4" s="73">
         <f t="shared" si="4"/>
@@ -20963,19 +21031,19 @@
         <v>0.78</v>
       </c>
       <c r="BL4" s="129" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="BM4" s="144"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="31" customHeight="1" spans="1:65">
       <c r="A5" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="273" t="s">
-        <v>468</v>
+        <v>470</v>
+      </c>
+      <c r="B5" s="276" t="s">
+        <v>471</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>131</v>
@@ -21051,16 +21119,16 @@
         <v>2.8798</v>
       </c>
       <c r="AM5" s="105" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AN5" s="105" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AO5" s="105" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AP5" s="105" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AQ5" s="74">
         <f t="shared" si="4"/>
@@ -21134,13 +21202,13 @@
         <v>9.587</v>
       </c>
       <c r="BL5" s="130" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BM5" s="145"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="36" customHeight="1" spans="1:65">
       <c r="A6" s="22" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B6" s="29">
         <v>603688</v>
@@ -21149,7 +21217,7 @@
         <v>383</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -21305,13 +21373,13 @@
         <v>0.5</v>
       </c>
       <c r="BL6" s="129" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="BM6" s="144"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="34" customHeight="1" spans="1:65">
       <c r="A7" s="19" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B7" s="31">
         <v>601677</v>
@@ -21476,22 +21544,22 @@
         <v>2.12</v>
       </c>
       <c r="BL7" s="128" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="BM7" s="146"/>
     </row>
     <row r="8" s="4" customFormat="1" ht="32" customHeight="1" spans="1:65">
       <c r="A8" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="B8" s="274" t="s">
+        <v>483</v>
+      </c>
+      <c r="B8" s="277" t="s">
         <v>390</v>
       </c>
       <c r="C8" s="32" t="s">
         <v>391</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
@@ -21647,13 +21715,13 @@
         <v>1.857</v>
       </c>
       <c r="BL8" s="131" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="BM8" s="147"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="26" customHeight="1" spans="1:65">
       <c r="A9" s="34" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B9" s="35">
         <v>600955</v>
@@ -21786,19 +21854,19 @@
         <v>4.3</v>
       </c>
       <c r="BL9" s="132" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="BM9" s="148"/>
     </row>
     <row r="10" s="6" customFormat="1" ht="35" customHeight="1" spans="1:65">
       <c r="A10" s="37" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B10" s="38">
         <v>600779</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D10" s="40" t="s">
         <v>91</v>
@@ -21957,13 +22025,13 @@
         <v>2.053</v>
       </c>
       <c r="BL10" s="133" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="BM10" s="149"/>
     </row>
     <row r="11" s="7" customFormat="1" ht="40" customHeight="1" spans="1:65">
       <c r="A11" s="41" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B11" s="42">
         <v>600032</v>
@@ -22128,16 +22196,16 @@
         <v>0.21</v>
       </c>
       <c r="BL11" s="134" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="BM11" s="150"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="47" customHeight="1" spans="1:65">
       <c r="A12" s="37" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C12" s="45" t="s">
         <v>25</v>
@@ -22299,16 +22367,16 @@
         <v>0.428</v>
       </c>
       <c r="BL12" s="135" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="BM12" s="151"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="37" customHeight="1" spans="1:65">
       <c r="A13" s="22" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>45</v>
@@ -22470,16 +22538,16 @@
         <v>-0.192</v>
       </c>
       <c r="BL13" s="136" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="BM13" s="152"/>
     </row>
     <row r="14" spans="1:65">
       <c r="A14" s="50" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C14" s="52" t="s">
         <v>65</v>
@@ -22597,10 +22665,10 @@
     </row>
     <row r="15" spans="1:65">
       <c r="A15" s="50" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C15" s="55" t="s">
         <v>73</v>
@@ -22718,10 +22786,10 @@
     </row>
     <row r="16" s="4" customFormat="1" ht="45" customHeight="1" spans="1:65">
       <c r="A16" s="19" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>105</v>
@@ -22883,16 +22951,16 @@
         <v>0.871</v>
       </c>
       <c r="BL16" s="139" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="BM16" s="155"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="44" customHeight="1" spans="1:65">
       <c r="A17" s="26" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C17" s="60" t="s">
         <v>125</v>
@@ -23054,15 +23122,15 @@
         <v>0.72</v>
       </c>
       <c r="BL17" s="140" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="BM17" s="156"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="35" customHeight="1" spans="1:65">
       <c r="A18" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="B18" s="275" t="s">
+        <v>508</v>
+      </c>
+      <c r="B18" s="278" t="s">
         <v>381</v>
       </c>
       <c r="C18" s="26" t="s">
@@ -23225,15 +23293,15 @@
         <v>0.842</v>
       </c>
       <c r="BL18" s="141" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="BM18" s="157"/>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="B19" s="276" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" s="279" t="s">
         <v>395</v>
       </c>
       <c r="C19" s="63" t="s">
@@ -23400,7 +23468,7 @@
     </row>
     <row r="20" spans="1:65">
       <c r="A20" s="50" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B20" s="62">
         <v>600821</v>
@@ -23569,7 +23637,7 @@
     </row>
     <row r="21" spans="1:65">
       <c r="A21" s="50" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B21" s="64" t="s">
         <v>412</v>
@@ -23654,7 +23722,7 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" s="50" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B22" s="64" t="s">
         <v>414</v>
@@ -23739,7 +23807,7 @@
     </row>
     <row r="23" spans="1:65">
       <c r="A23" s="50" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B23" s="63">
         <v>605028</v>
@@ -23824,7 +23892,7 @@
     </row>
     <row r="24" s="8" customFormat="1" spans="1:65">
       <c r="A24" s="63" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>419</v>
@@ -23915,7 +23983,7 @@
     </row>
     <row r="25" spans="1:65">
       <c r="A25" s="50" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="50"/>
@@ -23984,7 +24052,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="50" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -9329,11 +9329,11 @@
   <dimension ref="A1:AK209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T77" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y88" sqref="Y88"/>
+      <selection pane="bottomRight" activeCell="AJ83" sqref="AJ83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -9366,11 +9366,11 @@
   <dimension ref="A1:AM208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG1" sqref="AG1:AH1"/>
+      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -20985,7 +20985,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BY4" sqref="BY4"/>
+      <selection pane="bottomRight" activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -9640,11 +9640,11 @@
   <dimension ref="A1:AN208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AH35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AA35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B3"/>
+      <selection pane="bottomRight" activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541">
   <si>
     <t>股票代码</t>
   </si>
@@ -1200,7 +1200,8 @@
     <t>收缩量6</t>
   </si>
   <si>
-    <t>收缩数量</t>
+    <t>收缩数量
+(至少大于3T)</t>
   </si>
   <si>
     <t>5w</t>
@@ -1244,7 +1245,8 @@
     <t>11w</t>
   </si>
   <si>
-    <t>大部分情况收盘好时交易量放大，收盘坏时交易量萎缩；但近期仍有收盘好时交易量萎缩，收盘坏时交易量放大的情况出现</t>
+    <t>否
+（大部分情况收盘好时交易量放大，收盘坏时交易量萎缩；但近期仍有收盘好时交易量萎缩，收盘坏时交易量放大的情况出现）</t>
   </si>
   <si>
     <t>是</t>
@@ -1253,7 +1255,9 @@
     <t>仅支撑位出现略微抬升</t>
   </si>
   <si>
-    <t>有但不明显，应谨慎</t>
+    <t xml:space="preserve">有
+（有但不明显，应谨慎）
+</t>
   </si>
   <si>
     <t>否</t>
@@ -1381,7 +1385,8 @@
     <t>3w</t>
   </si>
   <si>
-    <t>收盘好时交易量放大，收盘坏时交易量萎缩</t>
+    <t>是
+（收盘好时交易量放大，收盘坏时交易量萎缩）</t>
   </si>
   <si>
     <t>数据量太小，无法判断</t>
@@ -1828,7 +1833,12 @@
     <t>8w</t>
   </si>
   <si>
-    <t>好的收盘时，交易量增大，坏的收盘时，交易量萎缩</t>
+    <t>是
+（好的收盘时，交易量增大，坏的收盘时，交易量萎缩）</t>
+  </si>
+  <si>
+    <t>是
+（成交量减少明显）</t>
   </si>
   <si>
     <r>
@@ -2069,19 +2079,54 @@
     <t>石英股份</t>
   </si>
   <si>
-    <t>好的收盘时，成交量减少；
-坏的收盘时，成交量增大</t>
+    <t>否
+（好的收盘时，成交量减少；
+坏的收盘时，成交量增大）</t>
+  </si>
+  <si>
+    <t>否
+（成交量减少不明显）</t>
+  </si>
+  <si>
+    <t>有同步抬升迹象</t>
+  </si>
+  <si>
+    <r>
+      <t>暂不宜入场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满足普通收缩幅度收窄形态，但成交量和价格行为不满足，应继续观察1w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>明泰铝业</t>
   </si>
   <si>
     <t>成交量减少不明显</t>
   </si>
   <si>
-    <t>有同步抬升迹象</t>
-  </si>
-  <si>
-    <t>明泰铝业</t>
-  </si>
-  <si>
     <t>特变电工</t>
   </si>
   <si>
@@ -2098,6 +2143,12 @@
   </si>
   <si>
     <t>振华科技</t>
+  </si>
+  <si>
+    <t>2T</t>
+  </si>
+  <si>
+    <t>数据量太少不足以判断</t>
   </si>
   <si>
     <t>002810</t>
@@ -2215,16 +2266,12 @@
     <t>4T</t>
   </si>
   <si>
-    <t>成交量减少明显，几乎枯竭</t>
+    <t>否
+（好的收盘时，交易量萎缩，坏的收盘时，交易量放大）</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Helvetica Neue Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>可以入场</t>
+      <t>暂不宜入场</t>
     </r>
     <r>
       <rPr>
@@ -2241,7 +2288,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>满足普通收缩幅度收窄形态，应寻找有利身位入场</t>
+      <t>满足普通收缩幅度收窄形态，但成交量行为和价格行为不符合，应持续观察</t>
     </r>
     <r>
       <rPr>
@@ -4058,7 +4105,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4850,7 +4897,7 @@
     <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4932,9 +4979,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7171,55 +7215,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="55" spans="1:9">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="321" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="322" t="s">
+      <c r="B1" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="323" t="s">
+      <c r="C1" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="323" t="s">
+      <c r="D1" s="322" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="323" t="s">
+      <c r="E1" s="322" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="322" t="s">
+      <c r="F1" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="326" t="s">
+      <c r="G1" s="325" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="327" t="s">
+      <c r="H1" s="326" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="78"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="324" t="s">
+      <c r="A2" s="323" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="323" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="325">
+      <c r="C2" s="324">
         <v>24.93</v>
       </c>
-      <c r="D2" s="325">
+      <c r="D2" s="324">
         <v>1.548</v>
       </c>
-      <c r="E2" s="325">
+      <c r="E2" s="324">
         <v>704.193548387097</v>
       </c>
-      <c r="F2" s="324" t="s">
+      <c r="F2" s="323" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="328" t="s">
+      <c r="G2" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="328" t="s">
+      <c r="H2" s="327" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="78">
@@ -7228,28 +7272,28 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="323" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="324" t="s">
+      <c r="B3" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="325">
+      <c r="C3" s="324">
         <v>23.9</v>
       </c>
-      <c r="D3" s="325">
+      <c r="D3" s="324">
         <v>1.963</v>
       </c>
-      <c r="E3" s="325">
+      <c r="E3" s="324">
         <v>656.329113924051</v>
       </c>
-      <c r="F3" s="324" t="s">
+      <c r="F3" s="323" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="328" t="s">
+      <c r="G3" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="328" t="s">
+      <c r="H3" s="327" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="78">
@@ -7258,28 +7302,28 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="324" t="s">
+      <c r="A4" s="323" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="324" t="s">
+      <c r="B4" s="323" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="325">
+      <c r="C4" s="324">
         <v>287.9</v>
       </c>
-      <c r="D4" s="325">
+      <c r="D4" s="324">
         <v>4.801</v>
       </c>
-      <c r="E4" s="325">
+      <c r="E4" s="324">
         <v>647.986489997402</v>
       </c>
-      <c r="F4" s="324" t="s">
+      <c r="F4" s="323" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="328" t="s">
+      <c r="G4" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="328" t="s">
+      <c r="H4" s="327" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="78">
@@ -7288,28 +7332,28 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="323" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="324" t="s">
+      <c r="B5" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="325">
+      <c r="C5" s="324">
         <v>86.94</v>
       </c>
-      <c r="D5" s="325">
+      <c r="D5" s="324">
         <v>4.621</v>
       </c>
-      <c r="E5" s="325">
+      <c r="E5" s="324">
         <v>573.953488372093</v>
       </c>
-      <c r="F5" s="324" t="s">
+      <c r="F5" s="323" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="328" t="s">
+      <c r="G5" s="327" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="328" t="s">
+      <c r="H5" s="327" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="78">
@@ -7318,28 +7362,28 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="324" t="s">
+      <c r="A6" s="323" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="324" t="s">
+      <c r="B6" s="323" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="325">
+      <c r="C6" s="324">
         <v>60.42</v>
       </c>
-      <c r="D6" s="325">
+      <c r="D6" s="324">
         <v>3.636</v>
       </c>
-      <c r="E6" s="325">
+      <c r="E6" s="324">
         <v>527.414330218068</v>
       </c>
-      <c r="F6" s="324" t="s">
+      <c r="F6" s="323" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="328" t="s">
+      <c r="G6" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="328" t="s">
+      <c r="H6" s="327" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="78">
@@ -7348,28 +7392,28 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="324" t="s">
+      <c r="A7" s="323" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="324" t="s">
+      <c r="B7" s="323" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="325">
+      <c r="C7" s="324">
         <v>20.51</v>
       </c>
-      <c r="D7" s="325">
+      <c r="D7" s="324">
         <v>2.091</v>
       </c>
-      <c r="E7" s="325">
+      <c r="E7" s="324">
         <v>449.865951742627</v>
       </c>
-      <c r="F7" s="324" t="s">
+      <c r="F7" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="328" t="s">
+      <c r="G7" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="328" t="s">
+      <c r="H7" s="327" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="78">
@@ -7378,28 +7422,28 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="324" t="s">
+      <c r="A8" s="323" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="324" t="s">
+      <c r="B8" s="323" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="325">
+      <c r="C8" s="324">
         <v>30.27</v>
       </c>
-      <c r="D8" s="325">
+      <c r="D8" s="324">
         <v>-0.296</v>
       </c>
-      <c r="E8" s="325">
+      <c r="E8" s="324">
         <v>444.424460431655</v>
       </c>
-      <c r="F8" s="324" t="s">
+      <c r="F8" s="323" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="328" t="s">
+      <c r="G8" s="327" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="328" t="s">
+      <c r="H8" s="327" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="78">
@@ -7408,28 +7452,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="324" t="s">
+      <c r="A9" s="323" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="324" t="s">
+      <c r="B9" s="323" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="325">
+      <c r="C9" s="324">
         <v>83.72</v>
       </c>
-      <c r="D9" s="325">
+      <c r="D9" s="324">
         <v>2.774</v>
       </c>
-      <c r="E9" s="325">
+      <c r="E9" s="324">
         <v>434.269304403318</v>
       </c>
-      <c r="F9" s="324" t="s">
+      <c r="F9" s="323" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="328" t="s">
+      <c r="G9" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="328" t="s">
+      <c r="H9" s="327" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="78">
@@ -7438,28 +7482,28 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="324" t="s">
+      <c r="A10" s="323" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="324" t="s">
+      <c r="B10" s="323" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="325">
+      <c r="C10" s="324">
         <v>53.52</v>
       </c>
-      <c r="D10" s="325">
+      <c r="D10" s="324">
         <v>10.01</v>
       </c>
-      <c r="E10" s="325">
+      <c r="E10" s="324">
         <v>432.537313432836</v>
       </c>
-      <c r="F10" s="324" t="s">
+      <c r="F10" s="323" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="328" t="s">
+      <c r="G10" s="327" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="328" t="s">
+      <c r="H10" s="327" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="78">
@@ -7468,28 +7512,28 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="324" t="s">
+      <c r="A11" s="323" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="324" t="s">
+      <c r="B11" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="325">
+      <c r="C11" s="324">
         <v>29.61</v>
       </c>
-      <c r="D11" s="325">
+      <c r="D11" s="324">
         <v>0.271</v>
       </c>
-      <c r="E11" s="325">
+      <c r="E11" s="324">
         <v>408.762886597938</v>
       </c>
-      <c r="F11" s="324" t="s">
+      <c r="F11" s="323" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="328" t="s">
+      <c r="G11" s="327" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="328" t="s">
+      <c r="H11" s="327" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="78">
@@ -7498,28 +7542,28 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="324" t="s">
+      <c r="A12" s="323" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="324" t="s">
+      <c r="B12" s="323" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="325">
+      <c r="C12" s="324">
         <v>27.46</v>
       </c>
-      <c r="D12" s="325">
+      <c r="D12" s="324">
         <v>0.109</v>
       </c>
-      <c r="E12" s="325">
+      <c r="E12" s="324">
         <v>402.930402930403</v>
       </c>
-      <c r="F12" s="324" t="s">
+      <c r="F12" s="323" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="328" t="s">
+      <c r="G12" s="327" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="328" t="s">
+      <c r="H12" s="327" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="78">
@@ -7528,28 +7572,28 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="324" t="s">
+      <c r="A13" s="323" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="324" t="s">
+      <c r="B13" s="323" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="325">
+      <c r="C13" s="324">
         <v>43.9</v>
       </c>
-      <c r="D13" s="325">
+      <c r="D13" s="324">
         <v>6.528</v>
       </c>
-      <c r="E13" s="325">
+      <c r="E13" s="324">
         <v>400.455996352029</v>
       </c>
-      <c r="F13" s="324" t="s">
+      <c r="F13" s="323" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="328" t="s">
+      <c r="G13" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="328" t="s">
+      <c r="H13" s="327" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="78">
@@ -7558,28 +7602,28 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="324" t="s">
+      <c r="A14" s="323" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="324" t="s">
+      <c r="B14" s="323" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="325">
+      <c r="C14" s="324">
         <v>98.2</v>
       </c>
-      <c r="D14" s="325">
+      <c r="D14" s="324">
         <v>0.102</v>
       </c>
-      <c r="E14" s="325">
+      <c r="E14" s="324">
         <v>397.971602434077</v>
       </c>
-      <c r="F14" s="324" t="s">
+      <c r="F14" s="323" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="328" t="s">
+      <c r="G14" s="327" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="328" t="s">
+      <c r="H14" s="327" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="78">
@@ -7588,28 +7632,28 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="324" t="s">
+      <c r="A15" s="323" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="324" t="s">
+      <c r="B15" s="323" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="325">
+      <c r="C15" s="324">
         <v>8.19</v>
       </c>
-      <c r="D15" s="325">
+      <c r="D15" s="324">
         <v>0.122</v>
       </c>
-      <c r="E15" s="325">
+      <c r="E15" s="324">
         <v>390.595423505451</v>
       </c>
-      <c r="F15" s="324" t="s">
+      <c r="F15" s="323" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="328" t="s">
+      <c r="H15" s="327" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="78">
@@ -7618,28 +7662,28 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="324" t="s">
+      <c r="A16" s="323" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="324" t="s">
+      <c r="B16" s="323" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="325">
+      <c r="C16" s="324">
         <v>46.67</v>
       </c>
-      <c r="D16" s="325">
+      <c r="D16" s="324">
         <v>-2.527</v>
       </c>
-      <c r="E16" s="325">
+      <c r="E16" s="324">
         <v>390.231092436975</v>
       </c>
-      <c r="F16" s="324" t="s">
+      <c r="F16" s="323" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="328" t="s">
+      <c r="G16" s="327" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="328" t="s">
+      <c r="H16" s="327" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="78">
@@ -7648,28 +7692,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="324" t="s">
+      <c r="A17" s="323" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="324" t="s">
+      <c r="B17" s="323" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="325">
+      <c r="C17" s="324">
         <v>139.05</v>
       </c>
-      <c r="D17" s="325">
+      <c r="D17" s="324">
         <v>4.943</v>
       </c>
-      <c r="E17" s="325">
+      <c r="E17" s="324">
         <v>381.141868512111</v>
       </c>
-      <c r="F17" s="324" t="s">
+      <c r="F17" s="323" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="328" t="s">
+      <c r="G17" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="328" t="s">
+      <c r="H17" s="327" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="78">
@@ -7678,28 +7722,28 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="324" t="s">
+      <c r="A18" s="323" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="324" t="s">
+      <c r="B18" s="323" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="325">
+      <c r="C18" s="324">
         <v>78.3</v>
       </c>
-      <c r="D18" s="325">
+      <c r="D18" s="324">
         <v>3.407</v>
       </c>
-      <c r="E18" s="325">
+      <c r="E18" s="324">
         <v>373.111782477341</v>
       </c>
-      <c r="F18" s="324" t="s">
+      <c r="F18" s="323" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="328" t="s">
+      <c r="G18" s="327" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="328" t="s">
+      <c r="H18" s="327" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="78">
@@ -7708,28 +7752,28 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="324" t="s">
+      <c r="A19" s="323" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="324" t="s">
+      <c r="B19" s="323" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="325">
+      <c r="C19" s="324">
         <v>31.21</v>
       </c>
-      <c r="D19" s="325">
+      <c r="D19" s="324">
         <v>-0.032</v>
       </c>
-      <c r="E19" s="325">
+      <c r="E19" s="324">
         <v>351.92586156965</v>
       </c>
-      <c r="F19" s="324" t="s">
+      <c r="F19" s="323" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="328" t="s">
+      <c r="G19" s="327" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="328" t="s">
+      <c r="H19" s="327" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="78">
@@ -7738,28 +7782,28 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="324" t="s">
+      <c r="A20" s="323" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="324" t="s">
+      <c r="B20" s="323" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="325">
+      <c r="C20" s="324">
         <v>25.22</v>
       </c>
-      <c r="D20" s="325">
+      <c r="D20" s="324">
         <v>9.987</v>
       </c>
-      <c r="E20" s="325">
+      <c r="E20" s="324">
         <v>342.456140350877</v>
       </c>
-      <c r="F20" s="324" t="s">
+      <c r="F20" s="323" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="328" t="s">
+      <c r="G20" s="327" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="328" t="s">
+      <c r="H20" s="327" t="s">
         <v>83</v>
       </c>
       <c r="I20" s="78">
@@ -7768,28 +7812,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="323" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="324" t="s">
+      <c r="B21" s="323" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="325">
+      <c r="C21" s="324">
         <v>136.1</v>
       </c>
-      <c r="D21" s="325">
+      <c r="D21" s="324">
         <v>3.656</v>
       </c>
-      <c r="E21" s="325">
+      <c r="E21" s="324">
         <v>340.595662026546</v>
       </c>
-      <c r="F21" s="324" t="s">
+      <c r="F21" s="323" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="328" t="s">
+      <c r="G21" s="327" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="328" t="s">
+      <c r="H21" s="327" t="s">
         <v>87</v>
       </c>
       <c r="I21" s="78">
@@ -7798,28 +7842,28 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="324" t="s">
+      <c r="A22" s="323" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="324" t="s">
+      <c r="B22" s="323" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="325">
+      <c r="C22" s="324">
         <v>197.8</v>
       </c>
-      <c r="D22" s="325">
+      <c r="D22" s="324">
         <v>6.413</v>
       </c>
-      <c r="E22" s="325">
+      <c r="E22" s="324">
         <v>318.181818181818</v>
       </c>
-      <c r="F22" s="324" t="s">
+      <c r="F22" s="323" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="328" t="s">
+      <c r="G22" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="328" t="s">
+      <c r="H22" s="327" t="s">
         <v>91</v>
       </c>
       <c r="I22" s="78">
@@ -7828,28 +7872,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="324" t="s">
+      <c r="A23" s="323" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="324" t="s">
+      <c r="B23" s="323" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="325">
+      <c r="C23" s="324">
         <v>53.57</v>
       </c>
-      <c r="D23" s="325">
+      <c r="D23" s="324">
         <v>0.847</v>
       </c>
-      <c r="E23" s="325">
+      <c r="E23" s="324">
         <v>315.593483320403</v>
       </c>
-      <c r="F23" s="324" t="s">
+      <c r="F23" s="323" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="328" t="s">
+      <c r="G23" s="327" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="328" t="s">
+      <c r="H23" s="327" t="s">
         <v>95</v>
       </c>
       <c r="I23" s="78">
@@ -7858,28 +7902,28 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="324" t="s">
+      <c r="A24" s="323" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="324" t="s">
+      <c r="B24" s="323" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="325">
+      <c r="C24" s="324">
         <v>26.71</v>
       </c>
-      <c r="D24" s="325">
+      <c r="D24" s="324">
         <v>1.289</v>
       </c>
-      <c r="E24" s="325">
+      <c r="E24" s="324">
         <v>314.108527131783</v>
       </c>
-      <c r="F24" s="324" t="s">
+      <c r="F24" s="323" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="328" t="s">
+      <c r="G24" s="327" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="328" t="s">
+      <c r="H24" s="327" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="78">
@@ -7888,28 +7932,28 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="324" t="s">
+      <c r="A25" s="323" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="324" t="s">
+      <c r="B25" s="323" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="325">
+      <c r="C25" s="324">
         <v>71.69</v>
       </c>
-      <c r="D25" s="325">
+      <c r="D25" s="324">
         <v>0.252</v>
       </c>
-      <c r="E25" s="325">
+      <c r="E25" s="324">
         <v>309.89136649514</v>
       </c>
-      <c r="F25" s="324" t="s">
+      <c r="F25" s="323" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="328" t="s">
+      <c r="G25" s="327" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="328" t="s">
+      <c r="H25" s="327" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="78">
@@ -7918,28 +7962,28 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="324" t="s">
+      <c r="A26" s="323" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="324" t="s">
+      <c r="B26" s="323" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="325">
+      <c r="C26" s="324">
         <v>52.47</v>
       </c>
-      <c r="D26" s="325">
+      <c r="D26" s="324">
         <v>1.176</v>
       </c>
-      <c r="E26" s="325">
+      <c r="E26" s="324">
         <v>304.548959136469</v>
       </c>
-      <c r="F26" s="324" t="s">
+      <c r="F26" s="323" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="328" t="s">
+      <c r="G26" s="327" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="328" t="s">
+      <c r="H26" s="327" t="s">
         <v>107</v>
       </c>
       <c r="I26" s="78">
@@ -7948,28 +7992,28 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="324" t="s">
+      <c r="A27" s="323" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="324" t="s">
+      <c r="B27" s="323" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="325">
+      <c r="C27" s="324">
         <v>26.5</v>
       </c>
-      <c r="D27" s="325">
+      <c r="D27" s="324">
         <v>0.991</v>
       </c>
-      <c r="E27" s="325">
+      <c r="E27" s="324">
         <v>303.963414634146</v>
       </c>
-      <c r="F27" s="324" t="s">
+      <c r="F27" s="323" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="328" t="s">
+      <c r="G27" s="327" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="328" t="s">
+      <c r="H27" s="327" t="s">
         <v>111</v>
       </c>
       <c r="I27" s="78">
@@ -7978,28 +8022,28 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="324" t="s">
+      <c r="A28" s="323" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="324" t="s">
+      <c r="B28" s="323" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="325">
+      <c r="C28" s="324">
         <v>126</v>
       </c>
-      <c r="D28" s="325">
+      <c r="D28" s="324">
         <v>3.287</v>
       </c>
-      <c r="E28" s="325">
+      <c r="E28" s="324">
         <v>299.873056172644</v>
       </c>
-      <c r="F28" s="324" t="s">
+      <c r="F28" s="323" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="328" t="s">
+      <c r="G28" s="327" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="328" t="s">
+      <c r="H28" s="327" t="s">
         <v>115</v>
       </c>
       <c r="I28" s="78">
@@ -8008,28 +8052,28 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="324" t="s">
+      <c r="A29" s="323" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="324" t="s">
+      <c r="B29" s="323" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="325">
+      <c r="C29" s="324">
         <v>59.54</v>
       </c>
-      <c r="D29" s="325">
+      <c r="D29" s="324">
         <v>3.764</v>
       </c>
-      <c r="E29" s="325">
+      <c r="E29" s="324">
         <v>296.794107330754</v>
       </c>
-      <c r="F29" s="324" t="s">
+      <c r="F29" s="323" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="328" t="s">
+      <c r="G29" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="328" t="s">
+      <c r="H29" s="327" t="s">
         <v>119</v>
       </c>
       <c r="I29" s="78">
@@ -8038,28 +8082,28 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="324" t="s">
+      <c r="A30" s="323" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="324" t="s">
+      <c r="B30" s="323" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="325">
+      <c r="C30" s="324">
         <v>16.63</v>
       </c>
-      <c r="D30" s="325">
+      <c r="D30" s="324">
         <v>-0.894</v>
       </c>
-      <c r="E30" s="325">
+      <c r="E30" s="324">
         <v>295.011876484561</v>
       </c>
-      <c r="F30" s="324" t="s">
+      <c r="F30" s="323" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="328" t="s">
+      <c r="G30" s="327" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="328" t="s">
+      <c r="H30" s="327" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="78">
@@ -8068,28 +8112,28 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="324" t="s">
+      <c r="A31" s="323" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="324" t="s">
+      <c r="B31" s="323" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="325">
+      <c r="C31" s="324">
         <v>142.1</v>
       </c>
-      <c r="D31" s="325">
+      <c r="D31" s="324">
         <v>1.067</v>
       </c>
-      <c r="E31" s="325">
+      <c r="E31" s="324">
         <v>293.737877528401</v>
       </c>
-      <c r="F31" s="324" t="s">
+      <c r="F31" s="323" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="328" t="s">
+      <c r="G31" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="328" t="s">
+      <c r="H31" s="327" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="78">
@@ -8098,28 +8142,28 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="324" t="s">
+      <c r="A32" s="323" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="324" t="s">
+      <c r="B32" s="323" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="325">
+      <c r="C32" s="324">
         <v>32.71</v>
       </c>
-      <c r="D32" s="325">
+      <c r="D32" s="324">
         <v>3.447</v>
       </c>
-      <c r="E32" s="325">
+      <c r="E32" s="324">
         <v>293.149038461538</v>
       </c>
-      <c r="F32" s="324" t="s">
+      <c r="F32" s="323" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="328" t="s">
+      <c r="G32" s="327" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="328" t="s">
+      <c r="H32" s="327" t="s">
         <v>131</v>
       </c>
       <c r="I32" s="78">
@@ -8128,1500 +8172,1500 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="324" t="s">
+      <c r="A33" s="323" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="324" t="s">
+      <c r="B33" s="323" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="325">
+      <c r="C33" s="324">
         <v>23.13</v>
       </c>
-      <c r="D33" s="325">
+      <c r="D33" s="324">
         <v>1.27</v>
       </c>
-      <c r="E33" s="325">
+      <c r="E33" s="324">
         <v>291.370558375634</v>
       </c>
-      <c r="F33" s="324" t="s">
+      <c r="F33" s="323" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="328" t="s">
+      <c r="G33" s="327" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="324" t="s">
+      <c r="A34" s="323" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="324" t="s">
+      <c r="B34" s="323" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="325">
+      <c r="C34" s="324">
         <v>15.71</v>
       </c>
-      <c r="D34" s="325">
+      <c r="D34" s="324">
         <v>10.014</v>
       </c>
-      <c r="E34" s="325">
+      <c r="E34" s="324">
         <v>289.826302729528</v>
       </c>
-      <c r="F34" s="324" t="s">
+      <c r="F34" s="323" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="328" t="s">
+      <c r="G34" s="327" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="78"/>
       <c r="I34" s="78"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="324" t="s">
+      <c r="A35" s="323" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="324" t="s">
+      <c r="B35" s="323" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="325">
+      <c r="C35" s="324">
         <v>15.09</v>
       </c>
-      <c r="D35" s="325">
+      <c r="D35" s="324">
         <v>-3.947</v>
       </c>
-      <c r="E35" s="325">
+      <c r="E35" s="324">
         <v>288.917525773196</v>
       </c>
-      <c r="F35" s="324" t="s">
+      <c r="F35" s="323" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="328" t="s">
+      <c r="G35" s="327" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="78"/>
       <c r="I35" s="78"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="324" t="s">
+      <c r="A36" s="323" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="324" t="s">
+      <c r="B36" s="323" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="325">
+      <c r="C36" s="324">
         <v>92.41</v>
       </c>
-      <c r="D36" s="325">
+      <c r="D36" s="324">
         <v>9.999</v>
       </c>
-      <c r="E36" s="325">
+      <c r="E36" s="324">
         <v>288.76735380732</v>
       </c>
-      <c r="F36" s="324" t="s">
+      <c r="F36" s="323" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="328" t="s">
+      <c r="G36" s="327" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="78"/>
       <c r="I36" s="78"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="324" t="s">
+      <c r="A37" s="323" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="324" t="s">
+      <c r="B37" s="323" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="325">
+      <c r="C37" s="324">
         <v>196.55</v>
       </c>
-      <c r="D37" s="325">
+      <c r="D37" s="324">
         <v>5.757</v>
       </c>
-      <c r="E37" s="325">
+      <c r="E37" s="324">
         <v>286.985627091947</v>
       </c>
-      <c r="F37" s="324" t="s">
+      <c r="F37" s="323" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="328" t="s">
+      <c r="G37" s="327" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="78"/>
       <c r="I37" s="78"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="324" t="s">
+      <c r="A38" s="323" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="324" t="s">
+      <c r="B38" s="323" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="325">
+      <c r="C38" s="324">
         <v>28.59</v>
       </c>
-      <c r="D38" s="325">
+      <c r="D38" s="324">
         <v>5.304</v>
       </c>
-      <c r="E38" s="325">
+      <c r="E38" s="324">
         <v>286.874154262517</v>
       </c>
-      <c r="F38" s="324" t="s">
+      <c r="F38" s="323" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="328" t="s">
+      <c r="G38" s="327" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="78"/>
       <c r="I38" s="78"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="324" t="s">
+      <c r="A39" s="323" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="324" t="s">
+      <c r="B39" s="323" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="325">
+      <c r="C39" s="324">
         <v>29.1</v>
       </c>
-      <c r="D39" s="325">
+      <c r="D39" s="324">
         <v>-1.954</v>
       </c>
-      <c r="E39" s="325">
+      <c r="E39" s="324">
         <v>277.431906614786</v>
       </c>
-      <c r="F39" s="324" t="s">
+      <c r="F39" s="323" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="328" t="s">
+      <c r="G39" s="327" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="78"/>
       <c r="I39" s="78"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="324" t="s">
+      <c r="A40" s="323" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="324" t="s">
+      <c r="B40" s="323" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="325">
+      <c r="C40" s="324">
         <v>33.77</v>
       </c>
-      <c r="D40" s="325">
+      <c r="D40" s="324">
         <v>10</v>
       </c>
-      <c r="E40" s="325">
+      <c r="E40" s="324">
         <v>276.897321428571</v>
       </c>
-      <c r="F40" s="324" t="s">
+      <c r="F40" s="323" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="328" t="s">
+      <c r="G40" s="327" t="s">
         <v>79</v>
       </c>
       <c r="H40" s="78"/>
       <c r="I40" s="78"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="324" t="s">
+      <c r="A41" s="323" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="324" t="s">
+      <c r="B41" s="323" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="325">
+      <c r="C41" s="324">
         <v>69.29</v>
       </c>
-      <c r="D41" s="325">
+      <c r="D41" s="324">
         <v>2.334</v>
       </c>
-      <c r="E41" s="325">
+      <c r="E41" s="324">
         <v>276.576086956522</v>
       </c>
-      <c r="F41" s="324" t="s">
+      <c r="F41" s="323" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="328" t="s">
+      <c r="G41" s="327" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="78"/>
       <c r="I41" s="78"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="324" t="s">
+      <c r="A42" s="323" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="324" t="s">
+      <c r="B42" s="323" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="325">
+      <c r="C42" s="324">
         <v>110.02</v>
       </c>
-      <c r="D42" s="325">
+      <c r="D42" s="324">
         <v>3.636</v>
       </c>
-      <c r="E42" s="325">
+      <c r="E42" s="324">
         <v>272.318104906937</v>
       </c>
-      <c r="F42" s="324" t="s">
+      <c r="F42" s="323" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="328" t="s">
+      <c r="G42" s="327" t="s">
         <v>47</v>
       </c>
       <c r="H42" s="78"/>
       <c r="I42" s="78"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="324" t="s">
+      <c r="A43" s="323" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="324" t="s">
+      <c r="B43" s="323" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="325">
+      <c r="C43" s="324">
         <v>75.2</v>
       </c>
-      <c r="D43" s="325">
+      <c r="D43" s="324">
         <v>3.169</v>
       </c>
-      <c r="E43" s="325">
+      <c r="E43" s="324">
         <v>272.093023255814</v>
       </c>
-      <c r="F43" s="324" t="s">
+      <c r="F43" s="323" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="328" t="s">
+      <c r="G43" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="78"/>
       <c r="I43" s="78"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="324" t="s">
+      <c r="A44" s="323" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="324" t="s">
+      <c r="B44" s="323" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="325">
+      <c r="C44" s="324">
         <v>15.92</v>
       </c>
-      <c r="D44" s="325">
+      <c r="D44" s="324">
         <v>1.144</v>
       </c>
-      <c r="E44" s="325">
+      <c r="E44" s="324">
         <v>270.232558139535</v>
       </c>
-      <c r="F44" s="324" t="s">
+      <c r="F44" s="323" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="328" t="s">
+      <c r="G44" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="78"/>
       <c r="I44" s="78"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="324" t="s">
+      <c r="A45" s="323" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="324" t="s">
+      <c r="B45" s="323" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="325">
+      <c r="C45" s="324">
         <v>23.79</v>
       </c>
-      <c r="D45" s="325">
+      <c r="D45" s="324">
         <v>-1.572</v>
       </c>
-      <c r="E45" s="325">
+      <c r="E45" s="324">
         <v>269.984447900467</v>
       </c>
-      <c r="F45" s="324" t="s">
+      <c r="F45" s="323" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="328" t="s">
+      <c r="G45" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="78"/>
       <c r="I45" s="78"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="324" t="s">
+      <c r="A46" s="323" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="324" t="s">
+      <c r="B46" s="323" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="325">
+      <c r="C46" s="324">
         <v>251.3</v>
       </c>
-      <c r="D46" s="325">
+      <c r="D46" s="324">
         <v>2.655</v>
       </c>
-      <c r="E46" s="325">
+      <c r="E46" s="324">
         <v>266.861313868613</v>
       </c>
-      <c r="F46" s="324" t="s">
+      <c r="F46" s="323" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="328" t="s">
+      <c r="G46" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="78"/>
       <c r="I46" s="78"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="324" t="s">
+      <c r="A47" s="323" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="324" t="s">
+      <c r="B47" s="323" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="325">
+      <c r="C47" s="324">
         <v>7.89</v>
       </c>
-      <c r="D47" s="325">
+      <c r="D47" s="324">
         <v>-2.472</v>
       </c>
-      <c r="E47" s="325">
+      <c r="E47" s="324">
         <v>265.277777777778</v>
       </c>
-      <c r="F47" s="324" t="s">
+      <c r="F47" s="323" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="328" t="s">
+      <c r="G47" s="327" t="s">
         <v>83</v>
       </c>
       <c r="H47" s="78"/>
       <c r="I47" s="78"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="324" t="s">
+      <c r="A48" s="323" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="324" t="s">
+      <c r="B48" s="323" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="325">
+      <c r="C48" s="324">
         <v>34.48</v>
       </c>
-      <c r="D48" s="325">
+      <c r="D48" s="324">
         <v>2.012</v>
       </c>
-      <c r="E48" s="325">
+      <c r="E48" s="324">
         <v>264.482029598309</v>
       </c>
-      <c r="F48" s="324" t="s">
+      <c r="F48" s="323" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="328" t="s">
+      <c r="G48" s="327" t="s">
         <v>87</v>
       </c>
       <c r="H48" s="78"/>
       <c r="I48" s="78"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="324" t="s">
+      <c r="A49" s="323" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="324" t="s">
+      <c r="B49" s="323" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="325">
+      <c r="C49" s="324">
         <v>23.1</v>
       </c>
-      <c r="D49" s="325">
+      <c r="D49" s="324">
         <v>10</v>
       </c>
-      <c r="E49" s="325">
+      <c r="E49" s="324">
         <v>264.353312302839</v>
       </c>
-      <c r="F49" s="324" t="s">
+      <c r="F49" s="323" t="s">
         <v>182</v>
       </c>
-      <c r="G49" s="328" t="s">
+      <c r="G49" s="327" t="s">
         <v>59</v>
       </c>
       <c r="H49" s="78"/>
       <c r="I49" s="78"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="324" t="s">
+      <c r="A50" s="323" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="324" t="s">
+      <c r="B50" s="323" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="325">
+      <c r="C50" s="324">
         <v>243.47</v>
       </c>
-      <c r="D50" s="325">
+      <c r="D50" s="324">
         <v>1.193</v>
       </c>
-      <c r="E50" s="325">
+      <c r="E50" s="324">
         <v>261.445961995249</v>
       </c>
-      <c r="F50" s="324" t="s">
+      <c r="F50" s="323" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="328" t="s">
+      <c r="G50" s="327" t="s">
         <v>91</v>
       </c>
       <c r="H50" s="78"/>
       <c r="I50" s="78"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="324" t="s">
+      <c r="A51" s="323" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="324" t="s">
+      <c r="B51" s="323" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="325">
+      <c r="C51" s="324">
         <v>614</v>
       </c>
-      <c r="D51" s="325">
+      <c r="D51" s="324">
         <v>1.207</v>
       </c>
-      <c r="E51" s="325">
+      <c r="E51" s="324">
         <v>261.112744809739</v>
       </c>
-      <c r="F51" s="324" t="s">
+      <c r="F51" s="323" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="328" t="s">
+      <c r="G51" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="78"/>
       <c r="I51" s="78"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="324" t="s">
+      <c r="A52" s="323" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="324" t="s">
+      <c r="B52" s="323" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="325">
+      <c r="C52" s="324">
         <v>136.3</v>
       </c>
-      <c r="D52" s="325">
+      <c r="D52" s="324">
         <v>0.221</v>
       </c>
-      <c r="E52" s="325">
+      <c r="E52" s="324">
         <v>257.180293501048</v>
       </c>
-      <c r="F52" s="324" t="s">
+      <c r="F52" s="323" t="s">
         <v>191</v>
       </c>
-      <c r="G52" s="328" t="s">
+      <c r="G52" s="327" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="78"/>
       <c r="I52" s="78"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="324" t="s">
+      <c r="A53" s="323" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="324" t="s">
+      <c r="B53" s="323" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="325">
+      <c r="C53" s="324">
         <v>540.64</v>
       </c>
-      <c r="D53" s="325">
+      <c r="D53" s="324">
         <v>1.529</v>
       </c>
-      <c r="E53" s="325">
+      <c r="E53" s="324">
         <v>255.754425215503</v>
       </c>
-      <c r="F53" s="324" t="s">
+      <c r="F53" s="323" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="328" t="s">
+      <c r="G53" s="327" t="s">
         <v>95</v>
       </c>
       <c r="H53" s="78"/>
       <c r="I53" s="78"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="324" t="s">
+      <c r="A54" s="323" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="324" t="s">
+      <c r="B54" s="323" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="325">
+      <c r="C54" s="324">
         <v>377.25</v>
       </c>
-      <c r="D54" s="325">
+      <c r="D54" s="324">
         <v>3.76</v>
       </c>
-      <c r="E54" s="325">
+      <c r="E54" s="324">
         <v>253.657507663751</v>
       </c>
-      <c r="F54" s="324" t="s">
+      <c r="F54" s="323" t="s">
         <v>197</v>
       </c>
-      <c r="G54" s="328" t="s">
+      <c r="G54" s="327" t="s">
         <v>99</v>
       </c>
       <c r="H54" s="78"/>
       <c r="I54" s="78"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="324" t="s">
+      <c r="A55" s="323" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="324" t="s">
+      <c r="B55" s="323" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="325">
+      <c r="C55" s="324">
         <v>190.6</v>
       </c>
-      <c r="D55" s="325">
+      <c r="D55" s="324">
         <v>3.166</v>
       </c>
-      <c r="E55" s="325">
+      <c r="E55" s="324">
         <v>252.832284339134</v>
       </c>
-      <c r="F55" s="324" t="s">
+      <c r="F55" s="323" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="328" t="s">
+      <c r="G55" s="327" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="78"/>
       <c r="I55" s="78"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="324" t="s">
+      <c r="A56" s="323" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="324" t="s">
+      <c r="B56" s="323" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="325">
+      <c r="C56" s="324">
         <v>76.54</v>
       </c>
-      <c r="D56" s="325">
+      <c r="D56" s="324">
         <v>5.485</v>
       </c>
-      <c r="E56" s="325">
+      <c r="E56" s="324">
         <v>252.718894009217</v>
       </c>
-      <c r="F56" s="324" t="s">
+      <c r="F56" s="323" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="328" t="s">
+      <c r="G56" s="327" t="s">
         <v>87</v>
       </c>
       <c r="H56" s="78"/>
       <c r="I56" s="78"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="324" t="s">
+      <c r="A57" s="323" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="324" t="s">
+      <c r="B57" s="323" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="325">
+      <c r="C57" s="324">
         <v>151</v>
       </c>
-      <c r="D57" s="325">
+      <c r="D57" s="324">
         <v>-1.307</v>
       </c>
-      <c r="E57" s="325">
+      <c r="E57" s="324">
         <v>252.14552238806</v>
       </c>
-      <c r="F57" s="324" t="s">
+      <c r="F57" s="323" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="328" t="s">
+      <c r="G57" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="78"/>
       <c r="I57" s="78"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="324" t="s">
+      <c r="A58" s="323" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="324" t="s">
+      <c r="B58" s="323" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="325">
+      <c r="C58" s="324">
         <v>19.91</v>
       </c>
-      <c r="D58" s="325">
+      <c r="D58" s="324">
         <v>4.79</v>
       </c>
-      <c r="E58" s="325">
+      <c r="E58" s="324">
         <v>251.146384479718</v>
       </c>
-      <c r="F58" s="324" t="s">
+      <c r="F58" s="323" t="s">
         <v>209</v>
       </c>
-      <c r="G58" s="328" t="s">
+      <c r="G58" s="327" t="s">
         <v>91</v>
       </c>
       <c r="H58" s="78"/>
       <c r="I58" s="78"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="324" t="s">
+      <c r="A59" s="323" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="324" t="s">
+      <c r="B59" s="323" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="325">
+      <c r="C59" s="324">
         <v>31.9</v>
       </c>
-      <c r="D59" s="325">
+      <c r="D59" s="324">
         <v>6.725</v>
       </c>
-      <c r="E59" s="325">
+      <c r="E59" s="324">
         <v>250.549450549451</v>
       </c>
-      <c r="F59" s="324" t="s">
+      <c r="F59" s="323" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="328" t="s">
+      <c r="G59" s="327" t="s">
         <v>31</v>
       </c>
       <c r="H59" s="78"/>
       <c r="I59" s="78"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="324" t="s">
+      <c r="A60" s="323" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="324" t="s">
+      <c r="B60" s="323" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="325">
+      <c r="C60" s="324">
         <v>89.22</v>
       </c>
-      <c r="D60" s="325">
+      <c r="D60" s="324">
         <v>0.259</v>
       </c>
-      <c r="E60" s="325">
+      <c r="E60" s="324">
         <v>249.471210340776</v>
       </c>
-      <c r="F60" s="324" t="s">
+      <c r="F60" s="323" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="328" t="s">
+      <c r="G60" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="78"/>
       <c r="I60" s="78"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="324" t="s">
+      <c r="A61" s="323" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="324" t="s">
+      <c r="B61" s="323" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="325">
+      <c r="C61" s="324">
         <v>39.72</v>
       </c>
-      <c r="D61" s="325">
+      <c r="D61" s="324">
         <v>5.892</v>
       </c>
-      <c r="E61" s="325">
+      <c r="E61" s="324">
         <v>246.294681778553</v>
       </c>
-      <c r="F61" s="324" t="s">
+      <c r="F61" s="323" t="s">
         <v>218</v>
       </c>
-      <c r="G61" s="328" t="s">
+      <c r="G61" s="327" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="78"/>
       <c r="I61" s="78"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="324" t="s">
+      <c r="A62" s="323" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="324" t="s">
+      <c r="B62" s="323" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="325">
+      <c r="C62" s="324">
         <v>77.33</v>
       </c>
-      <c r="D62" s="325">
+      <c r="D62" s="324">
         <v>1.603</v>
       </c>
-      <c r="E62" s="325">
+      <c r="E62" s="324">
         <v>243.231247225921</v>
       </c>
-      <c r="F62" s="324" t="s">
+      <c r="F62" s="323" t="s">
         <v>221</v>
       </c>
-      <c r="G62" s="328" t="s">
+      <c r="G62" s="327" t="s">
         <v>75</v>
       </c>
       <c r="H62" s="78"/>
       <c r="I62" s="78"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="324" t="s">
+      <c r="A63" s="323" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="324" t="s">
+      <c r="B63" s="323" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="325">
+      <c r="C63" s="324">
         <v>19.57</v>
       </c>
-      <c r="D63" s="325">
+      <c r="D63" s="324">
         <v>0.772</v>
       </c>
-      <c r="E63" s="325">
+      <c r="E63" s="324">
         <v>241.535776614311</v>
       </c>
-      <c r="F63" s="324" t="s">
+      <c r="F63" s="323" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="328" t="s">
+      <c r="G63" s="327" t="s">
         <v>67</v>
       </c>
       <c r="H63" s="78"/>
       <c r="I63" s="78"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="324" t="s">
+      <c r="A64" s="323" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="324" t="s">
+      <c r="B64" s="323" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="325">
+      <c r="C64" s="324">
         <v>57.15</v>
       </c>
-      <c r="D64" s="325">
+      <c r="D64" s="324">
         <v>4.061</v>
       </c>
-      <c r="E64" s="325">
+      <c r="E64" s="324">
         <v>240.178571428571</v>
       </c>
-      <c r="F64" s="324" t="s">
+      <c r="F64" s="323" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="328" t="s">
+      <c r="G64" s="327" t="s">
         <v>103</v>
       </c>
       <c r="H64" s="78"/>
       <c r="I64" s="78"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="324" t="s">
+      <c r="A65" s="323" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="324" t="s">
+      <c r="B65" s="323" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="325">
+      <c r="C65" s="324">
         <v>48.6</v>
       </c>
-      <c r="D65" s="325">
+      <c r="D65" s="324">
         <v>-1.46</v>
       </c>
-      <c r="E65" s="325">
+      <c r="E65" s="324">
         <v>239.148639218423</v>
       </c>
-      <c r="F65" s="324" t="s">
+      <c r="F65" s="323" t="s">
         <v>230</v>
       </c>
-      <c r="G65" s="328" t="s">
+      <c r="G65" s="327" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="78"/>
       <c r="I65" s="78"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="324" t="s">
+      <c r="A66" s="323" t="s">
         <v>231</v>
       </c>
-      <c r="B66" s="324" t="s">
+      <c r="B66" s="323" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="325">
+      <c r="C66" s="324">
         <v>25.31</v>
       </c>
-      <c r="D66" s="325">
+      <c r="D66" s="324">
         <v>4.89</v>
       </c>
-      <c r="E66" s="325">
+      <c r="E66" s="324">
         <v>238.821954484605</v>
       </c>
-      <c r="F66" s="324" t="s">
+      <c r="F66" s="323" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="328" t="s">
+      <c r="G66" s="327" t="s">
         <v>91</v>
       </c>
       <c r="H66" s="78"/>
       <c r="I66" s="78"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="324" t="s">
+      <c r="A67" s="323" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="324" t="s">
+      <c r="B67" s="323" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="325">
+      <c r="C67" s="324">
         <v>74.83</v>
       </c>
-      <c r="D67" s="325">
+      <c r="D67" s="324">
         <v>6.885</v>
       </c>
-      <c r="E67" s="325">
+      <c r="E67" s="324">
         <v>236.768676867687</v>
       </c>
-      <c r="F67" s="324" t="s">
+      <c r="F67" s="323" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="328" t="s">
+      <c r="G67" s="327" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="78"/>
       <c r="I67" s="78"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="324" t="s">
+      <c r="A68" s="323" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="324" t="s">
+      <c r="B68" s="323" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="325">
+      <c r="C68" s="324">
         <v>63.42</v>
       </c>
-      <c r="D68" s="325">
+      <c r="D68" s="324">
         <v>3.021</v>
       </c>
-      <c r="E68" s="325">
+      <c r="E68" s="324">
         <v>236.445623342175</v>
       </c>
-      <c r="F68" s="324" t="s">
+      <c r="F68" s="323" t="s">
         <v>239</v>
       </c>
-      <c r="G68" s="328" t="s">
+      <c r="G68" s="327" t="s">
         <v>107</v>
       </c>
       <c r="H68" s="78"/>
       <c r="I68" s="78"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="324" t="s">
+      <c r="A69" s="323" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="324" t="s">
+      <c r="B69" s="323" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="325">
+      <c r="C69" s="324">
         <v>127.5</v>
       </c>
-      <c r="D69" s="325">
+      <c r="D69" s="324">
         <v>2.831</v>
       </c>
-      <c r="E69" s="325">
+      <c r="E69" s="324">
         <v>236.322869955157</v>
       </c>
-      <c r="F69" s="324" t="s">
+      <c r="F69" s="323" t="s">
         <v>242</v>
       </c>
-      <c r="G69" s="328" t="s">
+      <c r="G69" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="78"/>
       <c r="I69" s="78"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="324" t="s">
+      <c r="A70" s="323" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="324" t="s">
+      <c r="B70" s="323" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="325">
+      <c r="C70" s="324">
         <v>15.28</v>
       </c>
-      <c r="D70" s="325">
+      <c r="D70" s="324">
         <v>0.066</v>
       </c>
-      <c r="E70" s="325">
+      <c r="E70" s="324">
         <v>235.087719298246</v>
       </c>
-      <c r="F70" s="324" t="s">
+      <c r="F70" s="323" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="328" t="s">
+      <c r="G70" s="327" t="s">
         <v>83</v>
       </c>
       <c r="H70" s="78"/>
       <c r="I70" s="78"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="324" t="s">
+      <c r="A71" s="323" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="324" t="s">
+      <c r="B71" s="323" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="325">
+      <c r="C71" s="324">
         <v>8.26</v>
       </c>
-      <c r="D71" s="325">
+      <c r="D71" s="324">
         <v>2.481</v>
       </c>
-      <c r="E71" s="325">
+      <c r="E71" s="324">
         <v>233.064516129032</v>
       </c>
-      <c r="F71" s="324" t="s">
+      <c r="F71" s="323" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="328" t="s">
+      <c r="G71" s="327" t="s">
         <v>75</v>
       </c>
       <c r="H71" s="78"/>
       <c r="I71" s="78"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="324" t="s">
+      <c r="A72" s="323" t="s">
         <v>249</v>
       </c>
-      <c r="B72" s="324" t="s">
+      <c r="B72" s="323" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="325">
+      <c r="C72" s="324">
         <v>60.14</v>
       </c>
-      <c r="D72" s="325">
+      <c r="D72" s="324">
         <v>1.11</v>
       </c>
-      <c r="E72" s="325">
+      <c r="E72" s="324">
         <v>230.621220450797</v>
       </c>
-      <c r="F72" s="324" t="s">
+      <c r="F72" s="323" t="s">
         <v>251</v>
       </c>
-      <c r="G72" s="328" t="s">
+      <c r="G72" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="78"/>
       <c r="I72" s="78"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="324" t="s">
+      <c r="A73" s="323" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="324" t="s">
+      <c r="B73" s="323" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="325">
+      <c r="C73" s="324">
         <v>64.26</v>
       </c>
-      <c r="D73" s="325">
+      <c r="D73" s="324">
         <v>5.691</v>
       </c>
-      <c r="E73" s="325">
+      <c r="E73" s="324">
         <v>230.385604113111</v>
       </c>
-      <c r="F73" s="324" t="s">
+      <c r="F73" s="323" t="s">
         <v>254</v>
       </c>
-      <c r="G73" s="328" t="s">
+      <c r="G73" s="327" t="s">
         <v>75</v>
       </c>
       <c r="H73" s="78"/>
       <c r="I73" s="78"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="324" t="s">
+      <c r="A74" s="323" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="324" t="s">
+      <c r="B74" s="323" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="325">
+      <c r="C74" s="324">
         <v>29.11</v>
       </c>
-      <c r="D74" s="325">
+      <c r="D74" s="324">
         <v>7.022</v>
       </c>
-      <c r="E74" s="325">
+      <c r="E74" s="324">
         <v>229.298642533937</v>
       </c>
-      <c r="F74" s="324" t="s">
+      <c r="F74" s="323" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="328" t="s">
+      <c r="G74" s="327" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="78"/>
       <c r="I74" s="78"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="324" t="s">
+      <c r="A75" s="323" t="s">
         <v>258</v>
       </c>
-      <c r="B75" s="324" t="s">
+      <c r="B75" s="323" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="325">
+      <c r="C75" s="324">
         <v>24.54</v>
       </c>
-      <c r="D75" s="325">
+      <c r="D75" s="324">
         <v>3.763</v>
       </c>
-      <c r="E75" s="325">
+      <c r="E75" s="324">
         <v>226.76431424767</v>
       </c>
-      <c r="F75" s="324" t="s">
+      <c r="F75" s="323" t="s">
         <v>260</v>
       </c>
-      <c r="G75" s="328" t="s">
+      <c r="G75" s="327" t="s">
         <v>75</v>
       </c>
       <c r="H75" s="78"/>
       <c r="I75" s="78"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="324" t="s">
+      <c r="A76" s="323" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="324" t="s">
+      <c r="B76" s="323" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="325">
+      <c r="C76" s="324">
         <v>11.3</v>
       </c>
-      <c r="D76" s="325">
+      <c r="D76" s="324">
         <v>4.63</v>
       </c>
-      <c r="E76" s="325">
+      <c r="E76" s="324">
         <v>226.589595375723</v>
       </c>
-      <c r="F76" s="324" t="s">
+      <c r="F76" s="323" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="328" t="s">
+      <c r="G76" s="327" t="s">
         <v>107</v>
       </c>
       <c r="H76" s="78"/>
       <c r="I76" s="78"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="324" t="s">
+      <c r="A77" s="323" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="324" t="s">
+      <c r="B77" s="323" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="325">
+      <c r="C77" s="324">
         <v>22.7</v>
       </c>
-      <c r="D77" s="325">
+      <c r="D77" s="324">
         <v>3.606</v>
       </c>
-      <c r="E77" s="325">
+      <c r="E77" s="324">
         <v>224.982104509664</v>
       </c>
-      <c r="F77" s="324" t="s">
+      <c r="F77" s="323" t="s">
         <v>266</v>
       </c>
-      <c r="G77" s="328" t="s">
+      <c r="G77" s="327" t="s">
         <v>79</v>
       </c>
       <c r="H77" s="78"/>
       <c r="I77" s="78"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="324" t="s">
+      <c r="A78" s="323" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="324" t="s">
+      <c r="B78" s="323" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="325">
+      <c r="C78" s="324">
         <v>23.35</v>
       </c>
-      <c r="D78" s="325">
+      <c r="D78" s="324">
         <v>-1.101</v>
       </c>
-      <c r="E78" s="325">
+      <c r="E78" s="324">
         <v>223.407202216067</v>
       </c>
-      <c r="F78" s="324" t="s">
+      <c r="F78" s="323" t="s">
         <v>269</v>
       </c>
-      <c r="G78" s="328" t="s">
+      <c r="G78" s="327" t="s">
         <v>67</v>
       </c>
       <c r="H78" s="78"/>
       <c r="I78" s="78"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="324" t="s">
+      <c r="A79" s="323" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="324" t="s">
+      <c r="B79" s="323" t="s">
         <v>271</v>
       </c>
-      <c r="C79" s="325">
+      <c r="C79" s="324">
         <v>53.93</v>
       </c>
-      <c r="D79" s="325">
+      <c r="D79" s="324">
         <v>2.94</v>
       </c>
-      <c r="E79" s="325">
+      <c r="E79" s="324">
         <v>223.236561153774</v>
       </c>
-      <c r="F79" s="324" t="s">
+      <c r="F79" s="323" t="s">
         <v>272</v>
       </c>
-      <c r="G79" s="328" t="s">
+      <c r="G79" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="78"/>
       <c r="I79" s="78"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="324" t="s">
+      <c r="A80" s="323" t="s">
         <v>273</v>
       </c>
-      <c r="B80" s="324" t="s">
+      <c r="B80" s="323" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="325">
+      <c r="C80" s="324">
         <v>85.26</v>
       </c>
-      <c r="D80" s="325">
+      <c r="D80" s="324">
         <v>4.23</v>
       </c>
-      <c r="E80" s="325">
+      <c r="E80" s="324">
         <v>221.614485099962</v>
       </c>
-      <c r="F80" s="324" t="s">
+      <c r="F80" s="323" t="s">
         <v>275</v>
       </c>
-      <c r="G80" s="328" t="s">
+      <c r="G80" s="327" t="s">
         <v>99</v>
       </c>
       <c r="H80" s="78"/>
       <c r="I80" s="78"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="324" t="s">
+      <c r="A81" s="323" t="s">
         <v>276</v>
       </c>
-      <c r="B81" s="324" t="s">
+      <c r="B81" s="323" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="325">
+      <c r="C81" s="324">
         <v>23.54</v>
       </c>
-      <c r="D81" s="325">
+      <c r="D81" s="324">
         <v>-9.981</v>
       </c>
-      <c r="E81" s="325">
+      <c r="E81" s="324">
         <v>219.099905110479</v>
       </c>
-      <c r="F81" s="324" t="s">
+      <c r="F81" s="323" t="s">
         <v>278</v>
       </c>
-      <c r="G81" s="328" t="s">
+      <c r="G81" s="327" t="s">
         <v>27</v>
       </c>
       <c r="H81" s="78"/>
       <c r="I81" s="78"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="324" t="s">
+      <c r="A82" s="323" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="324" t="s">
+      <c r="B82" s="323" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="325">
+      <c r="C82" s="324">
         <v>217.49</v>
       </c>
-      <c r="D82" s="325">
+      <c r="D82" s="324">
         <v>0.467</v>
       </c>
-      <c r="E82" s="325">
+      <c r="E82" s="324">
         <v>217.781998831093</v>
       </c>
-      <c r="F82" s="324" t="s">
+      <c r="F82" s="323" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="328" t="s">
+      <c r="G82" s="327" t="s">
         <v>111</v>
       </c>
       <c r="H82" s="78"/>
       <c r="I82" s="78"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="324" t="s">
+      <c r="A83" s="323" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="324" t="s">
+      <c r="B83" s="323" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="325">
+      <c r="C83" s="324">
         <v>39.7</v>
       </c>
-      <c r="D83" s="325">
+      <c r="D83" s="324">
         <v>6.15</v>
       </c>
-      <c r="E83" s="325">
+      <c r="E83" s="324">
         <v>216.625766871154</v>
       </c>
-      <c r="F83" s="324" t="s">
+      <c r="F83" s="323" t="s">
         <v>284</v>
       </c>
-      <c r="G83" s="328" t="s">
+      <c r="G83" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="78"/>
       <c r="I83" s="78"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="324" t="s">
+      <c r="A84" s="323" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="324" t="s">
+      <c r="B84" s="323" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="325">
+      <c r="C84" s="324">
         <v>34.49</v>
       </c>
-      <c r="D84" s="325">
+      <c r="D84" s="324">
         <v>2.162</v>
       </c>
-      <c r="E84" s="325">
+      <c r="E84" s="324">
         <v>216.131989000917</v>
       </c>
-      <c r="F84" s="324" t="s">
+      <c r="F84" s="323" t="s">
         <v>287</v>
       </c>
-      <c r="G84" s="328" t="s">
+      <c r="G84" s="327" t="s">
         <v>115</v>
       </c>
       <c r="H84" s="78"/>
       <c r="I84" s="78"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="324" t="s">
+      <c r="A85" s="323" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="324" t="s">
+      <c r="B85" s="323" t="s">
         <v>289</v>
       </c>
-      <c r="C85" s="325">
+      <c r="C85" s="324">
         <v>46.49</v>
       </c>
-      <c r="D85" s="325">
+      <c r="D85" s="324">
         <v>3.518</v>
       </c>
-      <c r="E85" s="325">
+      <c r="E85" s="324">
         <v>214.972899728997</v>
       </c>
-      <c r="F85" s="324" t="s">
+      <c r="F85" s="323" t="s">
         <v>290</v>
       </c>
-      <c r="G85" s="328" t="s">
+      <c r="G85" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="78"/>
       <c r="I85" s="78"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="324" t="s">
+      <c r="A86" s="323" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="324" t="s">
+      <c r="B86" s="323" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="325">
+      <c r="C86" s="324">
         <v>26.06</v>
       </c>
-      <c r="D86" s="325">
+      <c r="D86" s="324">
         <v>-0.077</v>
       </c>
-      <c r="E86" s="325">
+      <c r="E86" s="324">
         <v>213.975903614458</v>
       </c>
-      <c r="F86" s="324" t="s">
+      <c r="F86" s="323" t="s">
         <v>293</v>
       </c>
-      <c r="G86" s="328" t="s">
+      <c r="G86" s="327" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="78"/>
       <c r="I86" s="78"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="324" t="s">
+      <c r="A87" s="323" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="324" t="s">
+      <c r="B87" s="323" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="325">
+      <c r="C87" s="324">
         <v>18.85</v>
       </c>
-      <c r="D87" s="325">
+      <c r="D87" s="324">
         <v>4.144</v>
       </c>
-      <c r="E87" s="325">
+      <c r="E87" s="324">
         <v>213.12292358804</v>
       </c>
-      <c r="F87" s="324" t="s">
+      <c r="F87" s="323" t="s">
         <v>296</v>
       </c>
-      <c r="G87" s="328" t="s">
+      <c r="G87" s="327" t="s">
         <v>119</v>
       </c>
       <c r="H87" s="78"/>
       <c r="I87" s="78"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="324" t="s">
+      <c r="A88" s="323" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="324" t="s">
+      <c r="B88" s="323" t="s">
         <v>298</v>
       </c>
-      <c r="C88" s="325">
+      <c r="C88" s="324">
         <v>22.45</v>
       </c>
-      <c r="D88" s="325">
+      <c r="D88" s="324">
         <v>9.995</v>
       </c>
-      <c r="E88" s="325">
+      <c r="E88" s="324">
         <v>212.239221140473</v>
       </c>
-      <c r="F88" s="324" t="s">
+      <c r="F88" s="323" t="s">
         <v>299</v>
       </c>
-      <c r="G88" s="328" t="s">
+      <c r="G88" s="327" t="s">
         <v>83</v>
       </c>
       <c r="H88" s="78"/>
       <c r="I88" s="78"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="324" t="s">
+      <c r="A89" s="323" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="324" t="s">
+      <c r="B89" s="323" t="s">
         <v>301</v>
       </c>
-      <c r="C89" s="325">
+      <c r="C89" s="324">
         <v>114.36</v>
       </c>
-      <c r="D89" s="325">
+      <c r="D89" s="324">
         <v>5.518</v>
       </c>
-      <c r="E89" s="325">
+      <c r="E89" s="324">
         <v>211.607629427793</v>
       </c>
-      <c r="F89" s="324" t="s">
+      <c r="F89" s="323" t="s">
         <v>302</v>
       </c>
-      <c r="G89" s="328" t="s">
+      <c r="G89" s="327" t="s">
         <v>123</v>
       </c>
       <c r="H89" s="78"/>
       <c r="I89" s="78"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="324" t="s">
+      <c r="A90" s="323" t="s">
         <v>303</v>
       </c>
-      <c r="B90" s="324" t="s">
+      <c r="B90" s="323" t="s">
         <v>304</v>
       </c>
-      <c r="C90" s="325">
+      <c r="C90" s="324">
         <v>28.91</v>
       </c>
-      <c r="D90" s="325">
+      <c r="D90" s="324">
         <v>4.898</v>
       </c>
-      <c r="E90" s="325">
+      <c r="E90" s="324">
         <v>209.528907922912</v>
       </c>
-      <c r="F90" s="324" t="s">
+      <c r="F90" s="323" t="s">
         <v>305</v>
       </c>
-      <c r="G90" s="328" t="s">
+      <c r="G90" s="327" t="s">
         <v>127</v>
       </c>
       <c r="H90" s="78"/>
       <c r="I90" s="78"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="324" t="s">
+      <c r="A91" s="323" t="s">
         <v>306</v>
       </c>
-      <c r="B91" s="324" t="s">
+      <c r="B91" s="323" t="s">
         <v>307</v>
       </c>
-      <c r="C91" s="325">
+      <c r="C91" s="324">
         <v>108.8</v>
       </c>
-      <c r="D91" s="325">
+      <c r="D91" s="324">
         <v>0.946</v>
       </c>
-      <c r="E91" s="325">
+      <c r="E91" s="324">
         <v>208.390022675737</v>
       </c>
-      <c r="F91" s="324" t="s">
+      <c r="F91" s="323" t="s">
         <v>308</v>
       </c>
-      <c r="G91" s="328" t="s">
+      <c r="G91" s="327" t="s">
         <v>131</v>
       </c>
       <c r="H91" s="78"/>
       <c r="I91" s="78"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="324" t="s">
+      <c r="A92" s="323" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="324" t="s">
+      <c r="B92" s="323" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="325">
+      <c r="C92" s="324">
         <v>241.14</v>
       </c>
-      <c r="D92" s="325">
+      <c r="D92" s="324">
         <v>3.904</v>
       </c>
-      <c r="E92" s="325">
+      <c r="E92" s="324">
         <v>207.458880530409</v>
       </c>
-      <c r="F92" s="324" t="s">
+      <c r="F92" s="323" t="s">
         <v>311</v>
       </c>
-      <c r="G92" s="328" t="s">
+      <c r="G92" s="327" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="78"/>
@@ -9640,11 +9684,11 @@
   <dimension ref="A1:AN208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AA35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AG75" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF3" sqref="AF3"/>
+      <selection pane="bottomRight" activeCell="AK83" sqref="AK83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -9660,9 +9704,11 @@
     <col min="12" max="12" width="10.9044117647059" customWidth="1"/>
     <col min="13" max="13" width="13.2352941176471" style="17" customWidth="1"/>
     <col min="26" max="26" width="7.71323529411765" customWidth="1"/>
+    <col min="32" max="32" width="13.1102941176471" customWidth="1"/>
     <col min="33" max="33" width="21.8088235294118" customWidth="1"/>
-    <col min="34" max="35" width="14.8235294117647" customWidth="1"/>
-    <col min="36" max="36" width="14.3308823529412" customWidth="1"/>
+    <col min="34" max="34" width="14.8235294117647" customWidth="1"/>
+    <col min="35" max="35" width="15.9264705882353" customWidth="1"/>
+    <col min="36" max="36" width="18.0147058823529" customWidth="1"/>
     <col min="37" max="37" width="19.8455882352941" customWidth="1"/>
     <col min="38" max="38" width="35.4117647058824" customWidth="1"/>
     <col min="39" max="39" width="10.6470588235294" style="207"/>
@@ -9800,7 +9846,7 @@
       <c r="AL2" s="271"/>
       <c r="AM2" s="272"/>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" ht="24" spans="1:39">
       <c r="A3" s="212"/>
       <c r="B3" s="213"/>
       <c r="C3" s="214"/>
@@ -9868,7 +9914,7 @@
       <c r="AE3" s="211" t="s">
         <v>352</v>
       </c>
-      <c r="AF3" s="211" t="s">
+      <c r="AF3" s="227" t="s">
         <v>353</v>
       </c>
       <c r="AG3" s="265"/>
@@ -10060,7 +10106,7 @@
       </c>
       <c r="AM5" s="274"/>
     </row>
-    <row r="6" s="4" customFormat="1" ht="48" spans="1:39">
+    <row r="6" s="4" customFormat="1" ht="60" spans="1:39">
       <c r="A6" s="63" t="s">
         <v>16</v>
       </c>
@@ -11790,7 +11836,7 @@
       </c>
       <c r="AM27" s="274"/>
     </row>
-    <row r="28" s="200" customFormat="1" ht="25" spans="1:40">
+    <row r="28" s="200" customFormat="1" ht="36" spans="1:40">
       <c r="A28" s="63" t="s">
         <v>120</v>
       </c>
@@ -11884,8 +11930,8 @@
       <c r="AG28" s="219" t="s">
         <v>391</v>
       </c>
-      <c r="AH28" s="266" t="s">
-        <v>376</v>
+      <c r="AH28" s="177" t="s">
+        <v>392</v>
       </c>
       <c r="AI28" s="266" t="s">
         <v>358</v>
@@ -11897,9 +11943,11 @@
         <v>358</v>
       </c>
       <c r="AL28" s="177" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM28" s="283"/>
+        <v>393</v>
+      </c>
+      <c r="AM28" s="283">
+        <v>44545</v>
+      </c>
       <c r="AN28" s="284"/>
     </row>
     <row r="29" s="197" customFormat="1" ht="25" spans="1:39">
@@ -11973,7 +12021,7 @@
       <c r="W29" s="231"/>
       <c r="X29" s="231"/>
       <c r="Y29" s="231" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z29" s="245">
         <f t="shared" si="9"/>
@@ -12215,7 +12263,7 @@
       <c r="AJ32" s="57"/>
       <c r="AK32" s="57"/>
       <c r="AL32" s="273" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM32" s="274"/>
     </row>
@@ -12557,8 +12605,12 @@
       <c r="P37" s="57">
         <v>92.04</v>
       </c>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
+      <c r="Q37" s="57">
+        <v>124.9</v>
+      </c>
+      <c r="R37" s="57">
+        <v>102.8</v>
+      </c>
       <c r="S37" s="57"/>
       <c r="T37" s="57"/>
       <c r="U37" s="57"/>
@@ -12566,7 +12618,7 @@
       <c r="W37" s="57"/>
       <c r="X37" s="57"/>
       <c r="Y37" s="57" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="Z37" s="246">
         <f t="shared" si="14"/>
@@ -12576,9 +12628,9 @@
         <f t="shared" si="15"/>
         <v>0.159068067610781</v>
       </c>
-      <c r="AB37" s="238" t="e">
+      <c r="AB37" s="238">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.176941553242594</v>
       </c>
       <c r="AC37" s="238" t="e">
         <f t="shared" si="17"/>
@@ -12595,7 +12647,9 @@
       <c r="AL37" s="273" t="s">
         <v>382</v>
       </c>
-      <c r="AM37" s="274"/>
+      <c r="AM37" s="278">
+        <v>44545</v>
+      </c>
     </row>
     <row r="38" ht="25" spans="1:39">
       <c r="A38" s="215" t="s">
@@ -12918,7 +12972,7 @@
       <c r="AJ42" s="57"/>
       <c r="AK42" s="57"/>
       <c r="AL42" s="273" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM42" s="274"/>
     </row>
@@ -13178,7 +13232,7 @@
       <c r="AJ46" s="57"/>
       <c r="AK46" s="57"/>
       <c r="AL46" s="273" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM46" s="274"/>
     </row>
@@ -13373,7 +13427,7 @@
       <c r="AJ49" s="57"/>
       <c r="AK49" s="57"/>
       <c r="AL49" s="273" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM49" s="274"/>
     </row>
@@ -13633,7 +13687,7 @@
       <c r="AJ53" s="57"/>
       <c r="AK53" s="57"/>
       <c r="AL53" s="273" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM53" s="274"/>
     </row>
@@ -14405,7 +14459,7 @@
       <c r="AJ64" s="217"/>
       <c r="AK64" s="57"/>
       <c r="AL64" s="273" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM64" s="274"/>
     </row>
@@ -14541,7 +14595,7 @@
       <c r="AJ66" s="57"/>
       <c r="AK66" s="57"/>
       <c r="AL66" s="273" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM66" s="274"/>
     </row>
@@ -14609,16 +14663,16 @@
       <c r="AJ67" s="57"/>
       <c r="AK67" s="57"/>
       <c r="AL67" s="273" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM67" s="274"/>
     </row>
     <row r="68" s="197" customFormat="1" ht="25" spans="1:39">
-      <c r="A68" s="329" t="s">
-        <v>399</v>
+      <c r="A68" s="328" t="s">
+        <v>400</v>
       </c>
       <c r="B68" s="267" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C68" s="231">
         <v>20.66</v>
@@ -14703,12 +14757,12 @@
       </c>
       <c r="AM68" s="277"/>
     </row>
-    <row r="69" s="4" customFormat="1" ht="25" spans="1:39">
+    <row r="69" s="4" customFormat="1" ht="38" spans="1:39">
       <c r="A69" s="286">
         <v>603688</v>
       </c>
       <c r="B69" s="266" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C69" s="34">
         <v>37.35</v>
@@ -14790,13 +14844,13 @@
       <c r="AE69" s="34"/>
       <c r="AF69" s="34"/>
       <c r="AG69" s="177" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH69" s="266" t="s">
         <v>403</v>
       </c>
+      <c r="AH69" s="177" t="s">
+        <v>404</v>
+      </c>
       <c r="AI69" s="266" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ69" s="266" t="s">
         <v>361</v>
@@ -14805,7 +14859,7 @@
         <v>358</v>
       </c>
       <c r="AL69" s="177" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="AM69" s="275">
         <v>44545</v>
@@ -14816,7 +14870,7 @@
         <v>601677</v>
       </c>
       <c r="B70" s="266" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C70" s="34">
         <v>28.03</v>
@@ -14905,13 +14959,13 @@
       <c r="AF70" s="34"/>
       <c r="AG70" s="34"/>
       <c r="AH70" s="266" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AI70" s="266"/>
       <c r="AJ70" s="34"/>
       <c r="AK70" s="266"/>
       <c r="AL70" s="177" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM70" s="310"/>
     </row>
@@ -14920,7 +14974,7 @@
         <v>600089</v>
       </c>
       <c r="B71" s="288" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="C71" s="289"/>
       <c r="D71" s="289"/>
@@ -14968,7 +15022,7 @@
         <v>605369</v>
       </c>
       <c r="B72" s="288" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C72" s="57"/>
       <c r="D72" s="57"/>
@@ -15012,11 +15066,11 @@
       <c r="AM72" s="274"/>
     </row>
     <row r="73" spans="1:39">
-      <c r="A73" s="330" t="s">
-        <v>408</v>
+      <c r="A73" s="329" t="s">
+        <v>411</v>
       </c>
       <c r="B73" s="288" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C73" s="57"/>
       <c r="D73" s="57"/>
@@ -15059,12 +15113,12 @@
       <c r="AL73" s="57"/>
       <c r="AM73" s="274"/>
     </row>
-    <row r="74" s="4" customFormat="1" ht="25" spans="1:39">
-      <c r="A74" s="331" t="s">
-        <v>410</v>
+    <row r="74" s="4" customFormat="1" ht="36" spans="1:39">
+      <c r="A74" s="330" t="s">
+        <v>413</v>
       </c>
       <c r="B74" s="266" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C74" s="34">
         <v>86.16</v>
@@ -15138,25 +15192,35 @@
       </c>
       <c r="AD74" s="34"/>
       <c r="AE74" s="34"/>
-      <c r="AF74" s="34"/>
-      <c r="AG74" s="34"/>
-      <c r="AH74" s="34"/>
-      <c r="AI74" s="34"/>
-      <c r="AJ74" s="34"/>
+      <c r="AF74" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="AG74" s="177" t="s">
+        <v>403</v>
+      </c>
+      <c r="AH74" s="266" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI74" s="266" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ74" s="266" t="s">
+        <v>361</v>
+      </c>
       <c r="AK74" s="34"/>
       <c r="AL74" s="177" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM74" s="275">
         <v>44545</v>
       </c>
     </row>
     <row r="75" ht="25" spans="1:39">
-      <c r="A75" s="330" t="s">
-        <v>412</v>
+      <c r="A75" s="329" t="s">
+        <v>417</v>
       </c>
       <c r="B75" s="288" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
@@ -15220,11 +15284,11 @@
       <c r="AM75" s="274"/>
     </row>
     <row r="76" s="197" customFormat="1" ht="25" spans="1:39">
-      <c r="A76" s="332" t="s">
-        <v>414</v>
+      <c r="A76" s="331" t="s">
+        <v>419</v>
       </c>
       <c r="B76" s="267" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="C76" s="231">
         <v>13.54</v>
@@ -15314,7 +15378,7 @@
         <v>600392</v>
       </c>
       <c r="B77" s="288" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C77" s="57">
         <v>21.01</v>
@@ -15387,7 +15451,7 @@
       <c r="AJ77" s="57"/>
       <c r="AK77" s="57"/>
       <c r="AL77" s="273" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AM77" s="274"/>
     </row>
@@ -15396,7 +15460,7 @@
         <v>601016</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C78" s="72">
         <v>5.14</v>
@@ -15481,7 +15545,7 @@
       <c r="AJ78" s="72"/>
       <c r="AK78" s="72"/>
       <c r="AL78" s="316" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM78" s="317"/>
     </row>
@@ -15490,7 +15554,7 @@
         <v>600821</v>
       </c>
       <c r="B79" s="267" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="C79" s="231"/>
       <c r="D79" s="231"/>
@@ -15565,22 +15629,22 @@
       <c r="AF79" s="231"/>
       <c r="AG79" s="231"/>
       <c r="AH79" s="267" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AI79" s="267"/>
       <c r="AJ79" s="231"/>
       <c r="AK79" s="267"/>
       <c r="AL79" s="276" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="AM79" s="277"/>
     </row>
     <row r="80" ht="25" spans="1:39">
-      <c r="A80" s="330" t="s">
-        <v>421</v>
+      <c r="A80" s="329" t="s">
+        <v>426</v>
       </c>
       <c r="B80" s="288" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C80" s="57"/>
       <c r="D80" s="57"/>
@@ -15659,16 +15723,16 @@
       <c r="AJ80" s="57"/>
       <c r="AK80" s="57"/>
       <c r="AL80" s="273" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM80" s="274"/>
     </row>
     <row r="81" ht="25" spans="1:39">
-      <c r="A81" s="330" t="s">
-        <v>423</v>
+      <c r="A81" s="329" t="s">
+        <v>428</v>
       </c>
       <c r="B81" s="288" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="C81" s="57"/>
       <c r="D81" s="57"/>
@@ -15721,7 +15785,7 @@
       <c r="AJ81" s="57"/>
       <c r="AK81" s="57"/>
       <c r="AL81" s="273" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM81" s="274"/>
     </row>
@@ -15730,7 +15794,7 @@
         <v>600956</v>
       </c>
       <c r="B82" s="288" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C82" s="57"/>
       <c r="D82" s="57"/>
@@ -15783,16 +15847,16 @@
       <c r="AJ82" s="57"/>
       <c r="AK82" s="57"/>
       <c r="AL82" s="273" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM82" s="274"/>
     </row>
-    <row r="83" s="4" customFormat="1" ht="25" spans="1:39">
+    <row r="83" s="4" customFormat="1" ht="38" spans="1:39">
       <c r="A83" s="291" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B83" s="266" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C83" s="44">
         <v>44.31</v>
@@ -15847,14 +15911,14 @@
         <v>49.4</v>
       </c>
       <c r="T83" s="311">
-        <v>46.7</v>
+        <v>46.15</v>
       </c>
       <c r="U83" s="44"/>
       <c r="V83" s="44"/>
       <c r="W83" s="44"/>
       <c r="X83" s="44"/>
       <c r="Y83" s="44" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="Z83" s="258">
         <f t="shared" si="32"/>
@@ -15870,7 +15934,7 @@
       </c>
       <c r="AC83" s="241">
         <f t="shared" si="28"/>
-        <v>0.054655870445344</v>
+        <v>0.0657894736842105</v>
       </c>
       <c r="AD83" s="241" t="e">
         <f t="shared" ref="AD83:AD87" si="37">(U83-V83)/U83</f>
@@ -15878,26 +15942,34 @@
       </c>
       <c r="AE83" s="44"/>
       <c r="AF83" s="44" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG83" s="44"/>
-      <c r="AH83" s="266" t="s">
-        <v>429</v>
-      </c>
-      <c r="AI83" s="266"/>
-      <c r="AJ83" s="44"/>
-      <c r="AK83" s="266"/>
-      <c r="AL83" s="318" t="s">
-        <v>430</v>
-      </c>
-      <c r="AM83" s="319"/>
+        <v>433</v>
+      </c>
+      <c r="AG83" s="219" t="s">
+        <v>434</v>
+      </c>
+      <c r="AH83" s="177" t="s">
+        <v>392</v>
+      </c>
+      <c r="AI83" s="266" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ83" s="219" t="s">
+        <v>361</v>
+      </c>
+      <c r="AK83" s="266" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL83" s="177" t="s">
+        <v>435</v>
+      </c>
+      <c r="AM83" s="318"/>
     </row>
     <row r="84" s="197" customFormat="1" ht="25" spans="1:39">
       <c r="A84" s="292" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B84" s="267" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C84" s="222">
         <v>7.39</v>
@@ -15983,7 +16055,7 @@
       </c>
       <c r="AE84" s="222"/>
       <c r="AF84" s="222" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AG84" s="222"/>
       <c r="AH84" s="231"/>
@@ -15997,10 +16069,10 @@
     </row>
     <row r="85" s="202" customFormat="1" ht="25" spans="1:39">
       <c r="A85" s="292" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B85" s="231" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C85" s="222">
         <v>14.33</v>
@@ -16086,14 +16158,14 @@
       <c r="AL85" s="276" t="s">
         <v>382</v>
       </c>
-      <c r="AM85" s="320"/>
+      <c r="AM85" s="319"/>
     </row>
     <row r="86" s="202" customFormat="1" ht="25" spans="1:39">
       <c r="A86" s="231">
         <v>605028</v>
       </c>
       <c r="B86" s="267" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C86" s="231">
         <v>23.08</v>
@@ -16159,7 +16231,7 @@
       <c r="W86" s="231"/>
       <c r="X86" s="231"/>
       <c r="Y86" s="231" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="Z86" s="245">
         <f t="shared" si="32"/>
@@ -16191,14 +16263,14 @@
       <c r="AL86" s="276" t="s">
         <v>382</v>
       </c>
-      <c r="AM86" s="320"/>
+      <c r="AM86" s="319"/>
     </row>
     <row r="87" s="203" customFormat="1" ht="25" spans="1:39">
       <c r="A87" s="293" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B87" s="221" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C87" s="294">
         <v>22.99</v>
@@ -16260,7 +16332,7 @@
       <c r="W87" s="294"/>
       <c r="X87" s="294"/>
       <c r="Y87" s="294" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Z87" s="245">
         <f t="shared" si="32"/>
@@ -16287,7 +16359,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AF87" s="294" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AG87" s="294"/>
       <c r="AH87" s="314"/>
@@ -16295,16 +16367,16 @@
       <c r="AJ87" s="314"/>
       <c r="AK87" s="314"/>
       <c r="AL87" s="276" t="s">
-        <v>440</v>
-      </c>
-      <c r="AM87" s="321"/>
+        <v>445</v>
+      </c>
+      <c r="AM87" s="320"/>
     </row>
     <row r="88" s="204" customFormat="1" ht="25" spans="1:39">
       <c r="A88" s="295" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B88" s="267" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="C88" s="294">
         <v>7.83</v>
@@ -16381,7 +16453,7 @@
       </c>
       <c r="AE88" s="294"/>
       <c r="AF88" s="294" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AG88" s="294"/>
       <c r="AH88" s="315"/>
@@ -16389,16 +16461,16 @@
       <c r="AJ88" s="315"/>
       <c r="AK88" s="315"/>
       <c r="AL88" s="276" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM88" s="312"/>
     </row>
     <row r="89" s="204" customFormat="1" ht="25" spans="1:39">
       <c r="A89" s="295" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B89" s="267" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C89" s="294">
         <v>18.62</v>
@@ -16478,7 +16550,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AF89" s="294" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="AG89" s="294"/>
       <c r="AH89" s="315"/>
@@ -16486,7 +16558,7 @@
       <c r="AJ89" s="315"/>
       <c r="AK89" s="315"/>
       <c r="AL89" s="276" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="AM89" s="312"/>
     </row>
@@ -21375,7 +21447,7 @@
   <sheetData>
     <row r="1" spans="1:85">
       <c r="A1" s="23" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
@@ -21387,33 +21459,33 @@
         <v>7</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="23"/>
       <c r="J1" s="23" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K1" s="23"/>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
       <c r="O1" s="23" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P1" s="23"/>
       <c r="Q1" s="23"/>
       <c r="R1" s="23"/>
       <c r="S1" s="23" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="T1" s="23"/>
       <c r="U1" s="23"/>
       <c r="V1" s="23"/>
       <c r="W1" s="79" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="X1" s="79"/>
       <c r="Y1" s="79"/>
@@ -21433,7 +21505,7 @@
       <c r="AM1" s="79"/>
       <c r="AN1" s="79"/>
       <c r="AO1" s="79" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="AP1" s="79"/>
       <c r="AQ1" s="79"/>
@@ -21455,7 +21527,7 @@
       <c r="BG1" s="138"/>
       <c r="BH1" s="147"/>
       <c r="BI1" s="151" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="BJ1" s="152"/>
       <c r="BK1" s="152"/>
@@ -21475,22 +21547,22 @@
       <c r="BY1" s="157"/>
       <c r="BZ1" s="167"/>
       <c r="CA1" s="168" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="CB1" s="169" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="CC1" s="169" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="CD1" s="169" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="CE1" s="169" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="CF1" s="173" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="CG1" s="173"/>
     </row>
@@ -21500,34 +21572,34 @@
       <c r="C2" s="24"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="N2" s="23" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="O2" s="78"/>
       <c r="P2" s="23"/>
@@ -21538,172 +21610,172 @@
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="80" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="X2" s="80" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Z2" s="101" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AA2" s="101" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AB2" s="101" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AC2" s="101" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="AD2" s="101" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AE2" s="101" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AF2" s="102" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AG2" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="AH2" s="102" t="s">
+        <v>476</v>
+      </c>
+      <c r="AI2" s="111" t="s">
+        <v>477</v>
+      </c>
+      <c r="AJ2" s="112" t="s">
+        <v>478</v>
+      </c>
+      <c r="AK2" s="117" t="s">
+        <v>475</v>
+      </c>
+      <c r="AL2" s="117" t="s">
+        <v>476</v>
+      </c>
+      <c r="AM2" s="118" t="s">
+        <v>477</v>
+      </c>
+      <c r="AN2" s="119" t="s">
+        <v>478</v>
+      </c>
+      <c r="AO2" s="79" t="s">
         <v>470</v>
       </c>
-      <c r="AH2" s="102" t="s">
+      <c r="AP2" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="AI2" s="111" t="s">
+      <c r="AQ2" s="101" t="s">
         <v>472</v>
       </c>
-      <c r="AJ2" s="112" t="s">
+      <c r="AR2" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="AK2" s="117" t="s">
+      <c r="AS2" s="101" t="s">
         <v>470</v>
       </c>
-      <c r="AL2" s="117" t="s">
+      <c r="AT2" s="101" t="s">
         <v>471</v>
       </c>
-      <c r="AM2" s="118" t="s">
+      <c r="AU2" s="101" t="s">
         <v>472</v>
       </c>
-      <c r="AN2" s="119" t="s">
+      <c r="AV2" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="AO2" s="79" t="s">
-        <v>465</v>
-      </c>
-      <c r="AP2" s="80" t="s">
-        <v>466</v>
-      </c>
-      <c r="AQ2" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="AR2" s="101" t="s">
-        <v>468</v>
-      </c>
-      <c r="AS2" s="101" t="s">
-        <v>465</v>
-      </c>
-      <c r="AT2" s="101" t="s">
-        <v>466</v>
-      </c>
-      <c r="AU2" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="AV2" s="101" t="s">
-        <v>468</v>
-      </c>
       <c r="AW2" s="101" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="AX2" s="101" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AY2" s="102" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AZ2" s="102" t="s">
+        <v>475</v>
+      </c>
+      <c r="BA2" s="102" t="s">
+        <v>476</v>
+      </c>
+      <c r="BB2" s="111" t="s">
+        <v>477</v>
+      </c>
+      <c r="BC2" s="112" t="s">
+        <v>478</v>
+      </c>
+      <c r="BD2" s="117" t="s">
+        <v>475</v>
+      </c>
+      <c r="BE2" s="117" t="s">
+        <v>476</v>
+      </c>
+      <c r="BF2" s="118" t="s">
+        <v>477</v>
+      </c>
+      <c r="BG2" s="119" t="s">
+        <v>478</v>
+      </c>
+      <c r="BH2" s="79" t="s">
         <v>470</v>
       </c>
-      <c r="BA2" s="102" t="s">
+      <c r="BI2" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="BB2" s="111" t="s">
+      <c r="BJ2" s="101" t="s">
         <v>472</v>
       </c>
-      <c r="BC2" s="112" t="s">
+      <c r="BK2" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="BD2" s="117" t="s">
+      <c r="BL2" s="101" t="s">
         <v>470</v>
       </c>
-      <c r="BE2" s="117" t="s">
+      <c r="BM2" s="101" t="s">
         <v>471</v>
       </c>
-      <c r="BF2" s="118" t="s">
+      <c r="BN2" s="101" t="s">
         <v>472</v>
       </c>
-      <c r="BG2" s="119" t="s">
+      <c r="BO2" s="101" t="s">
         <v>473</v>
       </c>
-      <c r="BH2" s="79" t="s">
-        <v>465</v>
-      </c>
-      <c r="BI2" s="80" t="s">
-        <v>466</v>
-      </c>
-      <c r="BJ2" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="BK2" s="101" t="s">
-        <v>468</v>
-      </c>
-      <c r="BL2" s="101" t="s">
-        <v>465</v>
-      </c>
-      <c r="BM2" s="101" t="s">
-        <v>466</v>
-      </c>
-      <c r="BN2" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="BO2" s="101" t="s">
-        <v>468</v>
-      </c>
       <c r="BP2" s="101" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="BQ2" s="101" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="BR2" s="102" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="BS2" s="102" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="BT2" s="102" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="BU2" s="111" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="BV2" s="158" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="BW2" s="117" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="BX2" s="117" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="BY2" s="118" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="BZ2" s="170" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="CA2" s="168"/>
       <c r="CB2" s="169"/>
@@ -21715,16 +21787,16 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="38" customHeight="1" spans="1:85">
       <c r="A3" s="25" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
@@ -21942,19 +22014,19 @@
         <v>0.671</v>
       </c>
       <c r="CF3" s="174" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="CG3" s="187"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="31" customHeight="1" spans="1:85">
       <c r="A4" s="25" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>11</v>
@@ -22053,16 +22125,16 @@
         <v>0.1314</v>
       </c>
       <c r="AT4" s="81" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="AU4" s="81" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="AV4" s="81" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="AW4" s="81" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AX4" s="82"/>
       <c r="AY4" s="126">
@@ -22175,19 +22247,19 @@
         <v>0.78</v>
       </c>
       <c r="CF4" s="175" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="CG4" s="188"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="31" customHeight="1" spans="1:85">
       <c r="A5" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="B5" s="333" t="s">
-        <v>488</v>
+        <v>492</v>
+      </c>
+      <c r="B5" s="332" t="s">
+        <v>493</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>131</v>
@@ -22286,16 +22358,16 @@
         <v>2.8798</v>
       </c>
       <c r="AT5" s="81" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="AU5" s="81" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="AV5" s="81" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="AW5" s="81" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="AX5" s="82"/>
       <c r="AY5" s="126">
@@ -22408,22 +22480,22 @@
         <v>9.587</v>
       </c>
       <c r="CF5" s="175" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="CG5" s="188"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="36" customHeight="1" spans="1:85">
       <c r="A6" s="31" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B6" s="32">
         <v>603688</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="33"/>
@@ -22641,19 +22713,19 @@
         <v>0.5</v>
       </c>
       <c r="CF6" s="176" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="CG6" s="189"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="34" customHeight="1" spans="1:85">
       <c r="A7" s="34" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B7" s="35">
         <v>601677</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>87</v>
@@ -22874,22 +22946,22 @@
         <v>2.12</v>
       </c>
       <c r="CF7" s="177" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="CG7" s="190"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="32" customHeight="1" spans="1:85">
       <c r="A8" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="B8" s="334" t="s">
-        <v>410</v>
+        <v>505</v>
+      </c>
+      <c r="B8" s="333" t="s">
+        <v>413</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
@@ -23107,19 +23179,19 @@
         <v>1.857</v>
       </c>
       <c r="CF8" s="175" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="CG8" s="188"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="26" customHeight="1" spans="1:85">
       <c r="A9" s="41" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B9" s="42">
         <v>600955</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>83</v>
@@ -23302,19 +23374,19 @@
         <v>4.3</v>
       </c>
       <c r="CF9" s="178" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="CG9" s="191"/>
     </row>
     <row r="10" s="4" customFormat="1" ht="35" customHeight="1" spans="1:85">
       <c r="A10" s="34" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B10" s="44">
         <v>600779</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D10" s="46" t="s">
         <v>91</v>
@@ -23535,13 +23607,13 @@
         <v>2.053</v>
       </c>
       <c r="CF10" s="177" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="CG10" s="190"/>
     </row>
     <row r="11" s="6" customFormat="1" ht="40" customHeight="1" spans="1:85">
       <c r="A11" s="47" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B11" s="48">
         <v>600032</v>
@@ -23762,16 +23834,16 @@
         <v>0.21</v>
       </c>
       <c r="CF11" s="179" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="CG11" s="192"/>
     </row>
     <row r="12" s="7" customFormat="1" ht="47" customHeight="1" spans="1:85">
       <c r="A12" s="50" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>25</v>
@@ -23989,16 +24061,16 @@
         <v>0.428</v>
       </c>
       <c r="CF12" s="180" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="CG12" s="193"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="37" customHeight="1" spans="1:85">
       <c r="A13" s="31" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C13" s="55" t="s">
         <v>45</v>
@@ -24216,16 +24288,16 @@
         <v>-0.192</v>
       </c>
       <c r="CF13" s="181" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="CG13" s="194"/>
     </row>
     <row r="14" spans="1:85">
       <c r="A14" s="57" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="C14" s="59" t="s">
         <v>65</v>
@@ -24399,10 +24471,10 @@
     </row>
     <row r="15" spans="1:85">
       <c r="A15" s="57" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B15" s="61" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>73</v>
@@ -24576,10 +24648,10 @@
     </row>
     <row r="16" s="4" customFormat="1" ht="45" customHeight="1" spans="1:85">
       <c r="A16" s="34" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C16" s="64" t="s">
         <v>105</v>
@@ -24797,16 +24869,16 @@
         <v>0.871</v>
       </c>
       <c r="CF16" s="177" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="CG16" s="190"/>
     </row>
     <row r="17" s="8" customFormat="1" ht="44" customHeight="1" spans="1:85">
       <c r="A17" s="66" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>125</v>
@@ -25024,19 +25096,19 @@
         <v>0.72</v>
       </c>
       <c r="CF17" s="184" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="CG17" s="195"/>
     </row>
     <row r="18" s="8" customFormat="1" ht="35" customHeight="1" spans="1:85">
       <c r="A18" s="66" t="s">
-        <v>525</v>
-      </c>
-      <c r="B18" s="335" t="s">
-        <v>399</v>
+        <v>530</v>
+      </c>
+      <c r="B18" s="334" t="s">
+        <v>400</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>103</v>
@@ -25251,19 +25323,19 @@
         <v>0.842</v>
       </c>
       <c r="CF18" s="185" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="CG18" s="196"/>
     </row>
     <row r="19" spans="1:85">
       <c r="A19" s="57" t="s">
-        <v>527</v>
-      </c>
-      <c r="B19" s="336" t="s">
-        <v>414</v>
+        <v>532</v>
+      </c>
+      <c r="B19" s="335" t="s">
+        <v>419</v>
       </c>
       <c r="C19" s="72" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>15</v>
@@ -25479,13 +25551,13 @@
     </row>
     <row r="20" spans="1:85">
       <c r="A20" s="57" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B20" s="71">
         <v>600821</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>67</v>
@@ -25701,13 +25773,13 @@
     </row>
     <row r="21" spans="1:85">
       <c r="A21" s="57" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C21" s="72" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D21" s="60" t="s">
         <v>67</v>
@@ -25875,13 +25947,13 @@
     </row>
     <row r="22" spans="1:85">
       <c r="A22" s="57" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C22" s="72" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="D22" s="60" t="s">
         <v>35</v>
@@ -26049,13 +26121,13 @@
     </row>
     <row r="23" spans="1:85">
       <c r="A23" s="57" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B23" s="72">
         <v>605028</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D23" s="60" t="s">
         <v>67</v>
@@ -26223,13 +26295,13 @@
     </row>
     <row r="24" s="9" customFormat="1" spans="1:85">
       <c r="A24" s="72" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D24" s="76" t="s">
         <v>103</v>
@@ -26403,10 +26475,10 @@
     </row>
     <row r="25" spans="1:85">
       <c r="A25" s="57" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B25" s="61" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C25" s="75" t="s">
         <v>41</v>
@@ -26565,7 +26637,7 @@
     </row>
     <row r="26" spans="1:55">
       <c r="A26" s="77" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="BC26" s="146"/>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -1255,8 +1255,8 @@
     <t>仅支撑位出现略微抬升</t>
   </si>
   <si>
-    <t xml:space="preserve">有
-（有但不明显，应谨慎）
+    <t xml:space="preserve">是
+（是有但不明显，应谨慎）
 </t>
   </si>
   <si>
@@ -1390,9 +1390,6 @@
   </si>
   <si>
     <t>数据量太小，无法判断</t>
-  </si>
-  <si>
-    <t>有</t>
   </si>
   <si>
     <r>
@@ -2124,9 +2121,6 @@
     <t>明泰铝业</t>
   </si>
   <si>
-    <t>成交量减少不明显</t>
-  </si>
-  <si>
     <t>特变电工</t>
   </si>
   <si>
@@ -2149,6 +2143,36 @@
   </si>
   <si>
     <t>数据量太少不足以判断</t>
+  </si>
+  <si>
+    <r>
+      <t>不宜入场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满足普通收缩幅度收窄形态，但成交量和价格行为不满足，应继续观察</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1w)</t>
+    </r>
   </si>
   <si>
     <t>002810</t>
@@ -2205,6 +2229,9 @@
   </si>
   <si>
     <t>金开新能</t>
+  </si>
+  <si>
+    <t>成交量减少不明显</t>
   </si>
   <si>
     <r>
@@ -4974,13 +5001,13 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9684,11 +9711,11 @@
   <dimension ref="A1:AN208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AG75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK83" sqref="AK83"/>
+      <selection pane="bottomRight" activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -10647,13 +10674,13 @@
         <v>372</v>
       </c>
       <c r="AJ11" s="219" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="AK11" s="266" t="s">
         <v>361</v>
       </c>
       <c r="AL11" s="177" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AM11" s="275">
         <v>44545</v>
@@ -10722,7 +10749,7 @@
       <c r="W12" s="230"/>
       <c r="X12" s="230"/>
       <c r="Y12" s="230" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z12" s="245">
         <f t="shared" si="3"/>
@@ -10742,13 +10769,13 @@
       <c r="AF12" s="230"/>
       <c r="AG12" s="230"/>
       <c r="AH12" s="268" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI12" s="268"/>
       <c r="AJ12" s="230"/>
       <c r="AK12" s="268"/>
       <c r="AL12" s="224" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM12" s="279">
         <v>44545</v>
@@ -10826,7 +10853,7 @@
       <c r="AJ13" s="57"/>
       <c r="AK13" s="57"/>
       <c r="AL13" s="273" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM13" s="274"/>
     </row>
@@ -10976,7 +11003,7 @@
       <c r="AJ15" s="57"/>
       <c r="AK15" s="57"/>
       <c r="AL15" s="273" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM15" s="274"/>
     </row>
@@ -11035,7 +11062,7 @@
       <c r="W16" s="230"/>
       <c r="X16" s="230"/>
       <c r="Y16" s="230" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z16" s="245">
         <f t="shared" si="9"/>
@@ -11059,7 +11086,7 @@
       <c r="AJ16" s="230"/>
       <c r="AK16" s="230"/>
       <c r="AL16" s="224" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AM16" s="280"/>
     </row>
@@ -11126,7 +11153,7 @@
       <c r="W17" s="231"/>
       <c r="X17" s="231"/>
       <c r="Y17" s="231" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Z17" s="245">
         <f t="shared" si="9"/>
@@ -11150,7 +11177,7 @@
       <c r="AJ17" s="231"/>
       <c r="AK17" s="231"/>
       <c r="AL17" s="276" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM17" s="277"/>
     </row>
@@ -11221,7 +11248,7 @@
       <c r="AJ18" s="57"/>
       <c r="AK18" s="57"/>
       <c r="AL18" s="273" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AM18" s="274"/>
     </row>
@@ -11306,7 +11333,7 @@
       <c r="AJ19" s="232"/>
       <c r="AK19" s="232"/>
       <c r="AL19" s="281" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AM19" s="282">
         <v>44545</v>
@@ -11406,7 +11433,7 @@
       <c r="D21" s="218"/>
       <c r="E21" s="218"/>
       <c r="F21" s="216" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -11452,7 +11479,7 @@
       <c r="AJ21" s="57"/>
       <c r="AK21" s="57"/>
       <c r="AL21" s="273" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM21" s="274"/>
     </row>
@@ -11511,7 +11538,7 @@
       <c r="AJ22" s="57"/>
       <c r="AK22" s="57"/>
       <c r="AL22" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM22" s="274"/>
     </row>
@@ -11570,7 +11597,7 @@
       <c r="AJ23" s="57"/>
       <c r="AK23" s="57"/>
       <c r="AL23" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM23" s="274"/>
     </row>
@@ -11629,7 +11656,7 @@
       <c r="AJ24" s="57"/>
       <c r="AK24" s="57"/>
       <c r="AL24" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM24" s="274"/>
     </row>
@@ -11696,7 +11723,7 @@
       <c r="W25" s="222"/>
       <c r="X25" s="222"/>
       <c r="Y25" s="226" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z25" s="245">
         <f t="shared" si="9"/>
@@ -11720,7 +11747,7 @@
       <c r="AJ25" s="222"/>
       <c r="AK25" s="231"/>
       <c r="AL25" s="276" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM25" s="277"/>
     </row>
@@ -11779,7 +11806,7 @@
       <c r="AJ26" s="57"/>
       <c r="AK26" s="57"/>
       <c r="AL26" s="273" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM26" s="274"/>
     </row>
@@ -11832,7 +11859,7 @@
       <c r="AJ27" s="57"/>
       <c r="AK27" s="57"/>
       <c r="AL27" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM27" s="274"/>
     </row>
@@ -11903,7 +11930,7 @@
       <c r="W28" s="44"/>
       <c r="X28" s="44"/>
       <c r="Y28" s="44" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z28" s="258">
         <f t="shared" si="9"/>
@@ -11928,10 +11955,10 @@
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
       <c r="AG28" s="219" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH28" s="177" t="s">
         <v>391</v>
-      </c>
-      <c r="AH28" s="177" t="s">
-        <v>392</v>
       </c>
       <c r="AI28" s="266" t="s">
         <v>358</v>
@@ -11943,7 +11970,7 @@
         <v>358</v>
       </c>
       <c r="AL28" s="177" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AM28" s="283">
         <v>44545</v>
@@ -12021,7 +12048,7 @@
       <c r="W29" s="231"/>
       <c r="X29" s="231"/>
       <c r="Y29" s="231" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Z29" s="245">
         <f t="shared" si="9"/>
@@ -12051,7 +12078,7 @@
       <c r="AJ29" s="231"/>
       <c r="AK29" s="231"/>
       <c r="AL29" s="276" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM29" s="277"/>
     </row>
@@ -12119,7 +12146,7 @@
       <c r="AJ30" s="57"/>
       <c r="AK30" s="57"/>
       <c r="AL30" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM30" s="274"/>
     </row>
@@ -12195,7 +12222,7 @@
       <c r="AJ31" s="57"/>
       <c r="AK31" s="57"/>
       <c r="AL31" s="273" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM31" s="274"/>
     </row>
@@ -12263,7 +12290,7 @@
       <c r="AJ32" s="57"/>
       <c r="AK32" s="57"/>
       <c r="AL32" s="273" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM32" s="274"/>
     </row>
@@ -12483,7 +12510,7 @@
       <c r="AJ35" s="57"/>
       <c r="AK35" s="57"/>
       <c r="AL35" s="273" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AM35" s="274"/>
     </row>
@@ -12551,7 +12578,7 @@
       <c r="AJ36" s="57"/>
       <c r="AK36" s="57"/>
       <c r="AL36" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM36" s="274"/>
     </row>
@@ -12618,7 +12645,7 @@
       <c r="W37" s="57"/>
       <c r="X37" s="57"/>
       <c r="Y37" s="57" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="Z37" s="246">
         <f t="shared" si="14"/>
@@ -12645,7 +12672,7 @@
       <c r="AJ37" s="57"/>
       <c r="AK37" s="57"/>
       <c r="AL37" s="273" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM37" s="278">
         <v>44545</v>
@@ -12712,7 +12739,7 @@
       <c r="AJ38" s="57"/>
       <c r="AK38" s="57"/>
       <c r="AL38" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM38" s="274"/>
     </row>
@@ -12842,7 +12869,7 @@
       <c r="AJ40" s="57"/>
       <c r="AK40" s="57"/>
       <c r="AL40" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM40" s="274"/>
     </row>
@@ -12907,7 +12934,7 @@
       <c r="AJ41" s="57"/>
       <c r="AK41" s="57"/>
       <c r="AL41" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM41" s="274"/>
     </row>
@@ -12972,7 +12999,7 @@
       <c r="AJ42" s="57"/>
       <c r="AK42" s="57"/>
       <c r="AL42" s="273" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM42" s="274"/>
     </row>
@@ -13037,7 +13064,7 @@
       <c r="AJ43" s="57"/>
       <c r="AK43" s="57"/>
       <c r="AL43" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM43" s="274"/>
     </row>
@@ -13102,7 +13129,7 @@
       <c r="AJ44" s="57"/>
       <c r="AK44" s="57"/>
       <c r="AL44" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM44" s="274"/>
     </row>
@@ -13167,7 +13194,7 @@
       <c r="AJ45" s="57"/>
       <c r="AK45" s="57"/>
       <c r="AL45" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM45" s="274"/>
     </row>
@@ -13232,7 +13259,7 @@
       <c r="AJ46" s="57"/>
       <c r="AK46" s="57"/>
       <c r="AL46" s="273" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM46" s="274"/>
     </row>
@@ -13297,7 +13324,7 @@
       <c r="AJ47" s="57"/>
       <c r="AK47" s="57"/>
       <c r="AL47" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM47" s="274"/>
     </row>
@@ -13362,7 +13389,7 @@
       <c r="AJ48" s="57"/>
       <c r="AK48" s="57"/>
       <c r="AL48" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM48" s="274"/>
     </row>
@@ -13427,7 +13454,7 @@
       <c r="AJ49" s="57"/>
       <c r="AK49" s="57"/>
       <c r="AL49" s="273" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM49" s="274"/>
     </row>
@@ -13492,7 +13519,7 @@
       <c r="AJ50" s="57"/>
       <c r="AK50" s="57"/>
       <c r="AL50" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM50" s="274"/>
     </row>
@@ -13557,7 +13584,7 @@
       <c r="AJ51" s="57"/>
       <c r="AK51" s="57"/>
       <c r="AL51" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM51" s="274"/>
     </row>
@@ -13622,7 +13649,7 @@
       <c r="AJ52" s="57"/>
       <c r="AK52" s="57"/>
       <c r="AL52" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM52" s="274"/>
     </row>
@@ -13687,7 +13714,7 @@
       <c r="AJ53" s="57"/>
       <c r="AK53" s="57"/>
       <c r="AL53" s="273" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM53" s="274"/>
     </row>
@@ -13752,7 +13779,7 @@
       <c r="AJ54" s="57"/>
       <c r="AK54" s="57"/>
       <c r="AL54" s="273" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM54" s="274"/>
     </row>
@@ -13831,7 +13858,7 @@
       <c r="AJ55" s="57"/>
       <c r="AK55" s="57"/>
       <c r="AL55" s="273" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM55" s="274"/>
     </row>
@@ -14026,7 +14053,7 @@
       <c r="AJ58" s="57"/>
       <c r="AK58" s="57"/>
       <c r="AL58" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM58" s="274"/>
     </row>
@@ -14158,7 +14185,7 @@
       <c r="W60" s="57"/>
       <c r="X60" s="57"/>
       <c r="Y60" s="57" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z60" s="246">
         <f t="shared" ref="Z60:Z70" si="23">(I60-N60)/I60</f>
@@ -14185,7 +14212,7 @@
       <c r="AJ60" s="57"/>
       <c r="AK60" s="57"/>
       <c r="AL60" s="273" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM60" s="274"/>
     </row>
@@ -14247,7 +14274,7 @@
       <c r="AJ61" s="57"/>
       <c r="AK61" s="57"/>
       <c r="AL61" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM61" s="274"/>
     </row>
@@ -14309,7 +14336,7 @@
       <c r="AJ62" s="57"/>
       <c r="AK62" s="57"/>
       <c r="AL62" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM62" s="274"/>
     </row>
@@ -14371,7 +14398,7 @@
       <c r="AJ63" s="57"/>
       <c r="AK63" s="57"/>
       <c r="AL63" s="273" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AM63" s="274"/>
     </row>
@@ -14459,7 +14486,7 @@
       <c r="AJ64" s="217"/>
       <c r="AK64" s="57"/>
       <c r="AL64" s="273" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM64" s="274"/>
     </row>
@@ -14595,7 +14622,7 @@
       <c r="AJ66" s="57"/>
       <c r="AK66" s="57"/>
       <c r="AL66" s="273" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AM66" s="274"/>
     </row>
@@ -14663,16 +14690,16 @@
       <c r="AJ67" s="57"/>
       <c r="AK67" s="57"/>
       <c r="AL67" s="273" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AM67" s="274"/>
     </row>
     <row r="68" s="197" customFormat="1" ht="25" spans="1:39">
       <c r="A68" s="328" t="s">
+        <v>399</v>
+      </c>
+      <c r="B68" s="267" t="s">
         <v>400</v>
-      </c>
-      <c r="B68" s="267" t="s">
-        <v>401</v>
       </c>
       <c r="C68" s="231">
         <v>20.66</v>
@@ -14753,7 +14780,7 @@
       <c r="AJ68" s="231"/>
       <c r="AK68" s="231"/>
       <c r="AL68" s="276" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM68" s="277"/>
     </row>
@@ -14762,7 +14789,7 @@
         <v>603688</v>
       </c>
       <c r="B69" s="266" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C69" s="34">
         <v>37.35</v>
@@ -14844,13 +14871,13 @@
       <c r="AE69" s="34"/>
       <c r="AF69" s="34"/>
       <c r="AG69" s="177" t="s">
+        <v>402</v>
+      </c>
+      <c r="AH69" s="177" t="s">
         <v>403</v>
       </c>
-      <c r="AH69" s="177" t="s">
+      <c r="AI69" s="266" t="s">
         <v>404</v>
-      </c>
-      <c r="AI69" s="266" t="s">
-        <v>405</v>
       </c>
       <c r="AJ69" s="266" t="s">
         <v>361</v>
@@ -14859,18 +14886,18 @@
         <v>358</v>
       </c>
       <c r="AL69" s="177" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AM69" s="275">
         <v>44545</v>
       </c>
     </row>
-    <row r="70" s="201" customFormat="1" ht="25" spans="1:39">
+    <row r="70" s="201" customFormat="1" ht="36" spans="1:39">
       <c r="A70" s="286">
         <v>601677</v>
       </c>
       <c r="B70" s="266" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C70" s="34">
         <v>28.03</v>
@@ -14957,24 +14984,34 @@
       <c r="AD70" s="34"/>
       <c r="AE70" s="34"/>
       <c r="AF70" s="34"/>
-      <c r="AG70" s="34"/>
-      <c r="AH70" s="266" t="s">
-        <v>408</v>
-      </c>
-      <c r="AI70" s="266"/>
-      <c r="AJ70" s="34"/>
-      <c r="AK70" s="266"/>
+      <c r="AG70" s="266" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH70" s="177" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI70" s="266" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ70" s="266" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK70" s="266" t="s">
+        <v>361</v>
+      </c>
       <c r="AL70" s="177" t="s">
-        <v>393</v>
-      </c>
-      <c r="AM70" s="310"/>
+        <v>392</v>
+      </c>
+      <c r="AM70" s="316">
+        <v>44545</v>
+      </c>
     </row>
     <row r="71" spans="1:39">
       <c r="A71" s="287">
         <v>600089</v>
       </c>
       <c r="B71" s="288" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C71" s="289"/>
       <c r="D71" s="289"/>
@@ -15022,7 +15059,7 @@
         <v>605369</v>
       </c>
       <c r="B72" s="288" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C72" s="57"/>
       <c r="D72" s="57"/>
@@ -15067,10 +15104,10 @@
     </row>
     <row r="73" spans="1:39">
       <c r="A73" s="329" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B73" s="288" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C73" s="57"/>
       <c r="D73" s="57"/>
@@ -15113,12 +15150,12 @@
       <c r="AL73" s="57"/>
       <c r="AM73" s="274"/>
     </row>
-    <row r="74" s="4" customFormat="1" ht="36" spans="1:39">
+    <row r="74" s="4" customFormat="1" ht="38" spans="1:39">
       <c r="A74" s="330" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B74" s="266" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C74" s="34">
         <v>86.16</v>
@@ -15172,7 +15209,7 @@
       <c r="W74" s="34"/>
       <c r="X74" s="34"/>
       <c r="Y74" s="34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z74" s="258">
         <f t="shared" ref="Z74:Z89" si="32">(I74-N74)/I74</f>
@@ -15193,23 +15230,25 @@
       <c r="AD74" s="34"/>
       <c r="AE74" s="34"/>
       <c r="AF74" s="34" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG74" s="177" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AH74" s="266" t="s">
         <v>358</v>
       </c>
       <c r="AI74" s="266" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AJ74" s="266" t="s">
         <v>361</v>
       </c>
-      <c r="AK74" s="34"/>
+      <c r="AK74" s="266" t="s">
+        <v>361</v>
+      </c>
       <c r="AL74" s="177" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="AM74" s="275">
         <v>44545</v>
@@ -15217,10 +15256,10 @@
     </row>
     <row r="75" ht="25" spans="1:39">
       <c r="A75" s="329" t="s">
+        <v>416</v>
+      </c>
+      <c r="B75" s="288" t="s">
         <v>417</v>
-      </c>
-      <c r="B75" s="288" t="s">
-        <v>418</v>
       </c>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
@@ -15279,16 +15318,16 @@
       <c r="AJ75" s="57"/>
       <c r="AK75" s="57"/>
       <c r="AL75" s="273" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM75" s="274"/>
     </row>
     <row r="76" s="197" customFormat="1" ht="25" spans="1:39">
       <c r="A76" s="331" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" s="267" t="s">
         <v>419</v>
-      </c>
-      <c r="B76" s="267" t="s">
-        <v>420</v>
       </c>
       <c r="C76" s="231">
         <v>13.54</v>
@@ -15342,7 +15381,7 @@
       <c r="W76" s="231"/>
       <c r="X76" s="231"/>
       <c r="Y76" s="231" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z76" s="245">
         <f t="shared" si="32"/>
@@ -15369,7 +15408,7 @@
       <c r="AJ76" s="231"/>
       <c r="AK76" s="231"/>
       <c r="AL76" s="276" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM76" s="277"/>
     </row>
@@ -15378,7 +15417,7 @@
         <v>600392</v>
       </c>
       <c r="B77" s="288" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C77" s="57">
         <v>21.01</v>
@@ -15451,7 +15490,7 @@
       <c r="AJ77" s="57"/>
       <c r="AK77" s="57"/>
       <c r="AL77" s="273" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AM77" s="274"/>
     </row>
@@ -15460,7 +15499,7 @@
         <v>601016</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C78" s="72">
         <v>5.14</v>
@@ -15518,7 +15557,7 @@
       <c r="W78" s="72"/>
       <c r="X78" s="72"/>
       <c r="Y78" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z78" s="246">
         <f t="shared" si="32"/>
@@ -15544,17 +15583,17 @@
       <c r="AI78" s="72"/>
       <c r="AJ78" s="72"/>
       <c r="AK78" s="72"/>
-      <c r="AL78" s="316" t="s">
-        <v>397</v>
-      </c>
-      <c r="AM78" s="317"/>
+      <c r="AL78" s="317" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM78" s="318"/>
     </row>
     <row r="79" s="197" customFormat="1" ht="25" spans="1:39">
       <c r="A79" s="290">
         <v>600821</v>
       </c>
       <c r="B79" s="267" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C79" s="231"/>
       <c r="D79" s="231"/>
@@ -15629,7 +15668,7 @@
       <c r="AF79" s="231"/>
       <c r="AG79" s="231"/>
       <c r="AH79" s="267" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="AI79" s="267"/>
       <c r="AJ79" s="231"/>
@@ -15723,7 +15762,7 @@
       <c r="AJ80" s="57"/>
       <c r="AK80" s="57"/>
       <c r="AL80" s="273" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM80" s="274"/>
     </row>
@@ -15785,7 +15824,7 @@
       <c r="AJ81" s="57"/>
       <c r="AK81" s="57"/>
       <c r="AL81" s="273" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM81" s="274"/>
     </row>
@@ -15847,7 +15886,7 @@
       <c r="AJ82" s="57"/>
       <c r="AK82" s="57"/>
       <c r="AL82" s="273" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AM82" s="274"/>
     </row>
@@ -15948,7 +15987,7 @@
         <v>434</v>
       </c>
       <c r="AH83" s="177" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AI83" s="266" t="s">
         <v>359</v>
@@ -15962,7 +16001,9 @@
       <c r="AL83" s="177" t="s">
         <v>435</v>
       </c>
-      <c r="AM83" s="318"/>
+      <c r="AM83" s="275">
+        <v>44545</v>
+      </c>
     </row>
     <row r="84" s="197" customFormat="1" ht="25" spans="1:39">
       <c r="A84" s="292" t="s">
@@ -16031,7 +16072,7 @@
       <c r="W84" s="222"/>
       <c r="X84" s="222"/>
       <c r="Y84" s="226" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Z84" s="243">
         <f t="shared" si="32"/>
@@ -16063,7 +16104,7 @@
       <c r="AJ84" s="222"/>
       <c r="AK84" s="231"/>
       <c r="AL84" s="276" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM84" s="277"/>
     </row>
@@ -16156,7 +16197,7 @@
       <c r="AJ85" s="231"/>
       <c r="AK85" s="231"/>
       <c r="AL85" s="276" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM85" s="319"/>
     </row>
@@ -16261,7 +16302,7 @@
       <c r="AJ86" s="231"/>
       <c r="AK86" s="231"/>
       <c r="AL86" s="276" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AM86" s="319"/>
     </row>
@@ -16429,7 +16470,7 @@
       <c r="W88" s="294"/>
       <c r="X88" s="294"/>
       <c r="Y88" s="294" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z88" s="245">
         <f t="shared" si="32"/>
@@ -16523,7 +16564,7 @@
       <c r="W89" s="294"/>
       <c r="X89" s="294"/>
       <c r="Y89" s="294" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z89" s="245">
         <f t="shared" si="32"/>
@@ -22492,7 +22533,7 @@
         <v>603688</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D6" s="33" t="s">
         <v>501</v>
@@ -22725,7 +22766,7 @@
         <v>601677</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>87</v>
@@ -22955,10 +22996,10 @@
         <v>505</v>
       </c>
       <c r="B8" s="333" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>506</v>
@@ -25105,10 +25146,10 @@
         <v>530</v>
       </c>
       <c r="B18" s="334" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>400</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>401</v>
       </c>
       <c r="D18" s="69" t="s">
         <v>103</v>
@@ -25332,10 +25373,10 @@
         <v>532</v>
       </c>
       <c r="B19" s="335" t="s">
+        <v>418</v>
+      </c>
+      <c r="C19" s="72" t="s">
         <v>419</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>420</v>
       </c>
       <c r="D19" s="60" t="s">
         <v>15</v>
@@ -25557,7 +25598,7 @@
         <v>600821</v>
       </c>
       <c r="C20" s="72" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D20" s="60" t="s">
         <v>67</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -9750,11 +9750,11 @@
   <dimension ref="A1:AN208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AH81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="S11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A91" sqref="A91:B91"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -9764,7 +9764,7 @@
   <dimension ref="A1:AN208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AJ86" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -21801,11 +21801,11 @@
   <dimension ref="A1:CG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="BY18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="CB3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CE25" sqref="CE25"/>
+      <selection pane="bottomRight" activeCell="CE3" sqref="CE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -2731,8 +2731,18 @@
     <t>23.26%</t>
   </si>
   <si>
-    <t>不宜进场
-(近三个季度，销售额、净利润率、每股净利润同比增长率都稳定下滑，且最近一季度的净利润增长率已一下滑到-30.36%)</t>
+    <r>
+      <t xml:space="preserve">不宜进场
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(近三个季度，销售额、净利润率、每股净利润同比增长率都稳定下滑，且最近一季度的净利润增长率已一下滑到-30.36%)</t>
+    </r>
   </si>
   <si>
     <t>JBM_000003</t>
@@ -22296,11 +22306,11 @@
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Z8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="CC4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE12" sqref="AE12"/>
+      <selection pane="bottomRight" activeCell="CJ5" sqref="CJ5:CK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -22855,7 +22865,7 @@
       <c r="CM3" s="24"/>
       <c r="CN3" s="24"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="53" customHeight="1" spans="1:89">
+    <row r="4" s="1" customFormat="1" ht="63" customHeight="1" spans="1:89">
       <c r="A4" s="30" t="s">
         <v>495</v>
       </c>
@@ -23098,7 +23108,7 @@
       </c>
       <c r="CK4" s="30"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="73" customHeight="1" spans="1:89">
+    <row r="5" s="2" customFormat="1" ht="61" customHeight="1" spans="1:89">
       <c r="A5" s="33" t="s">
         <v>500</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -2327,11 +2327,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
       <t>暂不宜入场</t>
     </r>
     <r>
@@ -2349,7 +2344,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>满足普通收缩幅度收窄形态，但成交量行为和价格行为不符合，应持续观察</t>
+      <t>满足普通收缩幅度收窄形态，但成交量行为和价格行为仍不明朗，应持续观察</t>
     </r>
     <r>
       <rPr>
@@ -10218,12 +10213,12 @@
   <sheetPr/>
   <dimension ref="A1:AN208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AG76" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q79" sqref="Q79"/>
+      <selection pane="bottomRight" activeCell="AL83" sqref="AL83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -22305,12 +22300,12 @@
   <sheetPr/>
   <dimension ref="A1:CS42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="CC4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="CF21" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CJ5" sqref="CJ5:CK5"/>
+      <selection pane="bottomRight" activeCell="CJ31" sqref="CJ31:CK31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -22378,8 +22373,8 @@
     <col min="73" max="73" width="8.08823529411765" style="21" customWidth="1"/>
     <col min="74" max="74" width="8.08823529411765" style="19" customWidth="1"/>
     <col min="75" max="75" width="6.97794117647059" style="19" customWidth="1"/>
-    <col min="76" max="76" width="7.10294117647059" style="19" customWidth="1"/>
-    <col min="77" max="77" width="6.86029411764706" style="19" customWidth="1"/>
+    <col min="76" max="76" width="8.81617647058824" style="19" customWidth="1"/>
+    <col min="77" max="77" width="8.58088235294118" style="19" customWidth="1"/>
     <col min="78" max="78" width="7.96323529411765" style="22" customWidth="1"/>
     <col min="79" max="80" width="7.72058823529412" style="15" customWidth="1"/>
     <col min="81" max="81" width="7.59558823529412" style="15" customWidth="1"/>
@@ -24066,7 +24061,9 @@
       <c r="CH8" s="30">
         <v>6.824</v>
       </c>
-      <c r="CI8" s="214"/>
+      <c r="CI8" s="214">
+        <v>2.12</v>
+      </c>
       <c r="CJ8" s="215" t="s">
         <v>518</v>
       </c>
@@ -26280,7 +26277,7 @@
       </c>
       <c r="CK18" s="30"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="35" customHeight="1" spans="1:89">
+    <row r="19" s="3" customFormat="1" ht="47" customHeight="1" spans="1:89">
       <c r="A19" s="30" t="s">
         <v>544</v>
       </c>
@@ -28824,7 +28821,9 @@
       <c r="CF30" s="207"/>
       <c r="CG30" s="93"/>
       <c r="CH30" s="93"/>
-      <c r="CI30" s="231"/>
+      <c r="CI30" s="231">
+        <v>3.85</v>
+      </c>
       <c r="CJ30" s="232" t="s">
         <v>560</v>
       </c>
@@ -29015,7 +29014,9 @@
       <c r="CF31" s="209"/>
       <c r="CG31" s="94"/>
       <c r="CH31" s="94"/>
-      <c r="CI31" s="233"/>
+      <c r="CI31" s="233">
+        <v>3.33</v>
+      </c>
       <c r="CJ31" s="234" t="s">
         <v>563</v>
       </c>
@@ -29206,7 +29207,9 @@
       <c r="CF32" s="211"/>
       <c r="CG32" s="95"/>
       <c r="CH32" s="95"/>
-      <c r="CI32" s="235"/>
+      <c r="CI32" s="235">
+        <v>2.92</v>
+      </c>
       <c r="CJ32" s="236" t="s">
         <v>565</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -3942,7 +3942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="6" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3954,7 +3954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.25"/>
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4684,7 +4684,7 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4699,7 +4699,7 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4994,13 +4994,13 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5031,13 +5031,13 @@
     <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="16" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -5559,7 +5559,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10213,7 +10213,7 @@
   <sheetPr/>
   <dimension ref="A1:AN208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AG76" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -22300,12 +22300,12 @@
   <sheetPr/>
   <dimension ref="A1:CS42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="CF21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CJ31" sqref="CJ31:CK31"/>
+      <selection pane="bottomRight" activeCell="AS3" sqref="AS$1:AS$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -22343,25 +22343,25 @@
     <col min="33" max="33" width="8.21323529411765" style="17" customWidth="1"/>
     <col min="34" max="34" width="8.94852941176471" style="17" customWidth="1"/>
     <col min="35" max="35" width="9.55882352941176" style="17" customWidth="1"/>
-    <col min="36" max="36" width="7.22794117647059" style="18" customWidth="1"/>
+    <col min="36" max="36" width="9.19117647058824" style="18" customWidth="1"/>
     <col min="37" max="37" width="7.95588235294118" style="16" customWidth="1"/>
     <col min="38" max="38" width="7.96323529411765" style="16" customWidth="1"/>
-    <col min="39" max="39" width="7.10294117647059" style="16" customWidth="1"/>
-    <col min="40" max="40" width="6.36764705882353" style="16" customWidth="1"/>
-    <col min="41" max="41" width="6.73529411764706" style="16" customWidth="1"/>
+    <col min="39" max="39" width="9.43382352941176" style="16" customWidth="1"/>
+    <col min="40" max="40" width="10.2941176470588" style="16" customWidth="1"/>
+    <col min="41" max="41" width="8.20588235294118" style="16" customWidth="1"/>
     <col min="42" max="42" width="7.83823529411765" style="15" customWidth="1"/>
     <col min="43" max="43" width="7.72058823529412" style="15" customWidth="1"/>
-    <col min="44" max="44" width="6.98529411764706" style="15" customWidth="1"/>
-    <col min="45" max="45" width="7.47058823529412" style="15" customWidth="1"/>
-    <col min="46" max="46" width="6.375" style="15" customWidth="1"/>
+    <col min="44" max="44" width="8.94117647058824" style="15" customWidth="1"/>
+    <col min="45" max="45" width="10.0441176470588" style="15" customWidth="1"/>
+    <col min="46" max="46" width="7.72058823529412" style="15" customWidth="1"/>
     <col min="47" max="47" width="10.9044117647059" style="15" customWidth="1"/>
     <col min="48" max="48" width="8.69852941176471" style="15" customWidth="1"/>
     <col min="49" max="49" width="7.96323529411765" style="15" customWidth="1"/>
     <col min="50" max="50" width="6.97794117647059" style="16" customWidth="1"/>
     <col min="51" max="51" width="8.94117647058824" style="18"/>
-    <col min="52" max="52" width="7.47058823529412" style="18" customWidth="1"/>
-    <col min="53" max="53" width="7.22794117647059" style="18" customWidth="1"/>
-    <col min="54" max="54" width="6.61029411764706" style="18" customWidth="1"/>
+    <col min="52" max="52" width="8.57352941176471" style="18" customWidth="1"/>
+    <col min="53" max="53" width="9.18382352941176" style="18" customWidth="1"/>
+    <col min="54" max="54" width="8.70588235294118" style="18" customWidth="1"/>
     <col min="55" max="55" width="11.2720588235294" style="19" customWidth="1"/>
     <col min="56" max="56" width="9.18382352941176" style="16" customWidth="1"/>
     <col min="57" max="57" width="7.84558823529412" style="16" customWidth="1"/>
@@ -28595,7 +28595,7 @@
       <c r="CK29" s="71"/>
     </row>
     <row r="30" s="10" customFormat="1" ht="74" customHeight="1" spans="1:89">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="30" t="s">
         <v>557</v>
       </c>
       <c r="B30" s="384" t="s">
@@ -28628,64 +28628,64 @@
       <c r="W30" s="118">
         <v>0.3896</v>
       </c>
-      <c r="X30" s="114">
+      <c r="X30" s="105">
         <v>0.2374</v>
       </c>
-      <c r="Y30" s="114">
+      <c r="Y30" s="105">
         <v>-0.1923</v>
       </c>
-      <c r="Z30" s="114">
+      <c r="Z30" s="105">
         <v>-0.1774</v>
       </c>
-      <c r="AA30" s="114">
+      <c r="AA30" s="105">
         <v>-0.1185</v>
       </c>
-      <c r="AB30" s="114">
+      <c r="AB30" s="105">
         <v>-0.1175</v>
       </c>
-      <c r="AC30" s="114">
+      <c r="AC30" s="105">
         <v>0.2857</v>
       </c>
-      <c r="AD30" s="114">
+      <c r="AD30" s="105">
         <v>0.3431</v>
       </c>
-      <c r="AE30" s="114">
+      <c r="AE30" s="105">
         <v>0.2623</v>
       </c>
-      <c r="AF30" s="128">
+      <c r="AF30" s="127">
         <f>(W30+X30)/2</f>
         <v>0.3135</v>
       </c>
-      <c r="AG30" s="128">
+      <c r="AG30" s="127">
         <f>(Y30+Z30)/2</f>
         <v>-0.18485</v>
       </c>
-      <c r="AH30" s="128">
+      <c r="AH30" s="127">
         <f>(AA30+AB30)/2</f>
         <v>-0.118</v>
       </c>
-      <c r="AI30" s="128">
+      <c r="AI30" s="127">
         <f>(AC30+AD30)/2</f>
         <v>0.3144</v>
       </c>
-      <c r="AJ30" s="114"/>
-      <c r="AK30" s="114">
+      <c r="AJ30" s="105"/>
+      <c r="AK30" s="105">
         <f>(X30+Y30)/2</f>
         <v>0.02255</v>
       </c>
-      <c r="AL30" s="114">
+      <c r="AL30" s="105">
         <f>(Z30+AA30)/2</f>
         <v>-0.14795</v>
       </c>
-      <c r="AM30" s="114">
+      <c r="AM30" s="105">
         <f>(AB30+AC30)/2</f>
         <v>0.0841</v>
       </c>
-      <c r="AN30" s="114">
+      <c r="AN30" s="105">
         <f>(AD30+AE30)/2</f>
         <v>0.3027</v>
       </c>
-      <c r="AO30" s="114">
+      <c r="AO30" s="105">
         <v>0.1407</v>
       </c>
       <c r="AP30" s="118">
@@ -28712,51 +28712,51 @@
       <c r="AW30" s="118">
         <v>0.377</v>
       </c>
-      <c r="AX30" s="114"/>
-      <c r="AY30" s="114">
+      <c r="AX30" s="105"/>
+      <c r="AY30" s="105">
         <f>(AO30+AP30)/2</f>
         <v>0.15705</v>
       </c>
-      <c r="AZ30" s="104">
+      <c r="AZ30" s="102">
         <f>(AQ30+AR30)/2</f>
         <v>0.2645</v>
       </c>
-      <c r="BA30" s="104">
+      <c r="BA30" s="102">
         <f>(AS30+AT30)/2</f>
         <v>0.0268</v>
       </c>
-      <c r="BB30" s="104">
+      <c r="BB30" s="102">
         <f>(AU30+AV30)/2</f>
         <v>0.0872</v>
       </c>
       <c r="BC30" s="151"/>
-      <c r="BD30" s="114">
+      <c r="BD30" s="105">
         <f>(AP30+AQ30)/2</f>
         <v>0.25925</v>
       </c>
-      <c r="BE30" s="114">
+      <c r="BE30" s="105">
         <f>(AR30+AS30)/2</f>
         <v>0.1159</v>
       </c>
-      <c r="BF30" s="114">
+      <c r="BF30" s="105">
         <f>(AT30+AU30)/2</f>
         <v>-0.0463</v>
       </c>
-      <c r="BG30" s="160">
+      <c r="BG30" s="159">
         <f>(AV30+AW30)/2</f>
         <v>0.32485</v>
       </c>
-      <c r="BH30" s="114">
+      <c r="BH30" s="105">
         <v>0.0568</v>
       </c>
-      <c r="BI30" s="114">
+      <c r="BI30" s="105">
         <v>0.1118</v>
       </c>
-      <c r="BJ30" s="114">
+      <c r="BJ30" s="105">
         <v>0.0572</v>
       </c>
-      <c r="BK30" s="114"/>
-      <c r="BL30" s="173">
+      <c r="BK30" s="105"/>
+      <c r="BL30" s="172">
         <v>-0.0208</v>
       </c>
       <c r="BM30" s="151">
@@ -28784,36 +28784,36 @@
         <v>0.0009</v>
       </c>
       <c r="BU30" s="185"/>
-      <c r="BV30" s="128">
+      <c r="BV30" s="127">
         <f>(BL30+BM30)/2</f>
         <v>-0.01715</v>
       </c>
-      <c r="BW30" s="128">
+      <c r="BW30" s="127">
         <f>(BN30+BO30)/2</f>
         <v>-0.0091</v>
       </c>
-      <c r="BX30" s="128">
+      <c r="BX30" s="127">
         <f>(BP30+BQ30)/2</f>
         <v>-0.0118</v>
       </c>
-      <c r="BY30" s="128">
+      <c r="BY30" s="127">
         <f>(BR30+BS30)/2</f>
         <v>-0.00085</v>
       </c>
       <c r="BZ30" s="198"/>
-      <c r="CA30" s="114">
+      <c r="CA30" s="105">
         <f>(BM30+BN30)/2</f>
         <v>-0.01245</v>
       </c>
-      <c r="CB30" s="114">
+      <c r="CB30" s="105">
         <f>(BO30+BP30)/2</f>
         <v>-0.00555</v>
       </c>
-      <c r="CC30" s="114">
+      <c r="CC30" s="105">
         <f>(BQ30+BR30)/2</f>
         <v>-0.0118</v>
       </c>
-      <c r="CD30" s="114">
+      <c r="CD30" s="105">
         <f>(BS30+BT30)/2</f>
         <v>0.00175</v>
       </c>
@@ -29022,38 +29022,38 @@
       </c>
       <c r="CK31" s="242"/>
     </row>
-    <row r="32" s="12" customFormat="1" ht="64" customHeight="1" spans="1:89">
+    <row r="32" s="10" customFormat="1" ht="64" customHeight="1" spans="1:89">
       <c r="A32" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="B32" s="80">
+      <c r="B32" s="75">
         <v>600702</v>
       </c>
-      <c r="C32" s="80" t="s">
+      <c r="C32" s="75" t="s">
         <v>184</v>
       </c>
-      <c r="D32" s="81" t="s">
+      <c r="D32" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="121">
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="93"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="118">
         <v>0.1168</v>
       </c>
       <c r="X32" s="105">
@@ -29116,28 +29116,28 @@
       <c r="AO32" s="105">
         <v>0.0351</v>
       </c>
-      <c r="AP32" s="121">
+      <c r="AP32" s="118">
         <v>0.0758</v>
       </c>
-      <c r="AQ32" s="121">
+      <c r="AQ32" s="118">
         <v>-0.3977</v>
       </c>
-      <c r="AR32" s="121">
+      <c r="AR32" s="118">
         <v>-0.2115</v>
       </c>
-      <c r="AS32" s="121">
+      <c r="AS32" s="118">
         <v>-0.0568</v>
       </c>
-      <c r="AT32" s="121">
+      <c r="AT32" s="118">
         <v>0.0818</v>
       </c>
-      <c r="AU32" s="121">
+      <c r="AU32" s="118">
         <v>1.5792</v>
       </c>
-      <c r="AV32" s="121">
+      <c r="AV32" s="118">
         <v>1.326</v>
       </c>
-      <c r="AW32" s="121">
+      <c r="AW32" s="118">
         <v>1.1613</v>
       </c>
       <c r="AX32" s="105"/>
@@ -29157,7 +29157,7 @@
         <f>(AU32+AV32)/2</f>
         <v>1.4526</v>
       </c>
-      <c r="BC32" s="153"/>
+      <c r="BC32" s="151"/>
       <c r="BD32" s="105">
         <f>(AP32+AQ32)/2</f>
         <v>-0.16095</v>
@@ -29185,68 +29185,68 @@
       </c>
       <c r="BK32" s="105"/>
       <c r="BL32" s="172"/>
-      <c r="BM32" s="153"/>
-      <c r="BN32" s="153"/>
-      <c r="BO32" s="153"/>
-      <c r="BP32" s="153"/>
-      <c r="BQ32" s="153"/>
-      <c r="BR32" s="153"/>
-      <c r="BS32" s="153"/>
-      <c r="BT32" s="153"/>
-      <c r="BU32" s="187"/>
-      <c r="BV32" s="153"/>
-      <c r="BW32" s="153"/>
-      <c r="BX32" s="153"/>
-      <c r="BY32" s="153"/>
-      <c r="BZ32" s="200"/>
-      <c r="CA32" s="121"/>
-      <c r="CB32" s="121"/>
-      <c r="CC32" s="121"/>
-      <c r="CD32" s="121"/>
-      <c r="CE32" s="210"/>
-      <c r="CF32" s="211"/>
-      <c r="CG32" s="95"/>
-      <c r="CH32" s="95"/>
-      <c r="CI32" s="235">
+      <c r="BM32" s="151"/>
+      <c r="BN32" s="151"/>
+      <c r="BO32" s="151"/>
+      <c r="BP32" s="151"/>
+      <c r="BQ32" s="151"/>
+      <c r="BR32" s="151"/>
+      <c r="BS32" s="151"/>
+      <c r="BT32" s="151"/>
+      <c r="BU32" s="185"/>
+      <c r="BV32" s="151"/>
+      <c r="BW32" s="151"/>
+      <c r="BX32" s="151"/>
+      <c r="BY32" s="151"/>
+      <c r="BZ32" s="198"/>
+      <c r="CA32" s="118"/>
+      <c r="CB32" s="118"/>
+      <c r="CC32" s="118"/>
+      <c r="CD32" s="118"/>
+      <c r="CE32" s="206"/>
+      <c r="CF32" s="207"/>
+      <c r="CG32" s="93"/>
+      <c r="CH32" s="93"/>
+      <c r="CI32" s="231">
         <v>2.92</v>
       </c>
-      <c r="CJ32" s="236" t="s">
+      <c r="CJ32" s="232" t="s">
         <v>565</v>
       </c>
-      <c r="CK32" s="243"/>
-    </row>
-    <row r="33" s="10" customFormat="1" ht="51" customHeight="1" spans="1:89">
+      <c r="CK32" s="241"/>
+    </row>
+    <row r="33" s="12" customFormat="1" ht="51" customHeight="1" spans="1:89">
       <c r="A33" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="80">
         <v>600600</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="118">
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="121">
         <v>0.2317</v>
       </c>
       <c r="X33" s="114">
@@ -29309,28 +29309,28 @@
       <c r="AO33" s="114">
         <v>0.0041</v>
       </c>
-      <c r="AP33" s="118">
+      <c r="AP33" s="121">
         <v>0.0366</v>
       </c>
-      <c r="AQ33" s="118">
+      <c r="AQ33" s="121">
         <v>-0.2976</v>
       </c>
-      <c r="AR33" s="118">
+      <c r="AR33" s="121">
         <v>-0.0803</v>
       </c>
-      <c r="AS33" s="118">
+      <c r="AS33" s="121">
         <v>-0.0279</v>
       </c>
-      <c r="AT33" s="118">
+      <c r="AT33" s="121">
         <v>-0.0242</v>
       </c>
-      <c r="AU33" s="118">
+      <c r="AU33" s="121">
         <v>0.4984</v>
       </c>
-      <c r="AV33" s="118">
+      <c r="AV33" s="121">
         <v>0.1588</v>
       </c>
-      <c r="AW33" s="118">
+      <c r="AW33" s="121">
         <v>0.0919</v>
       </c>
       <c r="AX33" s="114"/>
@@ -29350,7 +29350,7 @@
         <f>(AU33+AV33)/2</f>
         <v>0.3286</v>
       </c>
-      <c r="BC33" s="151"/>
+      <c r="BC33" s="153"/>
       <c r="BD33" s="114">
         <f>(AP33+AQ33)/2</f>
         <v>-0.1305</v>
@@ -29378,33 +29378,33 @@
       </c>
       <c r="BK33" s="114"/>
       <c r="BL33" s="173"/>
-      <c r="BM33" s="151"/>
-      <c r="BN33" s="151"/>
-      <c r="BO33" s="151"/>
-      <c r="BP33" s="151"/>
-      <c r="BQ33" s="151"/>
-      <c r="BR33" s="151"/>
-      <c r="BS33" s="151"/>
-      <c r="BT33" s="151"/>
-      <c r="BU33" s="185"/>
-      <c r="BV33" s="151"/>
-      <c r="BW33" s="151"/>
-      <c r="BX33" s="151"/>
-      <c r="BY33" s="151"/>
-      <c r="BZ33" s="198"/>
-      <c r="CA33" s="118"/>
-      <c r="CB33" s="118"/>
-      <c r="CC33" s="118"/>
-      <c r="CD33" s="118"/>
-      <c r="CE33" s="206"/>
-      <c r="CF33" s="207"/>
-      <c r="CG33" s="93"/>
-      <c r="CH33" s="93"/>
-      <c r="CI33" s="231"/>
-      <c r="CJ33" s="232" t="s">
+      <c r="BM33" s="153"/>
+      <c r="BN33" s="153"/>
+      <c r="BO33" s="153"/>
+      <c r="BP33" s="153"/>
+      <c r="BQ33" s="153"/>
+      <c r="BR33" s="153"/>
+      <c r="BS33" s="153"/>
+      <c r="BT33" s="153"/>
+      <c r="BU33" s="187"/>
+      <c r="BV33" s="153"/>
+      <c r="BW33" s="153"/>
+      <c r="BX33" s="153"/>
+      <c r="BY33" s="153"/>
+      <c r="BZ33" s="200"/>
+      <c r="CA33" s="121"/>
+      <c r="CB33" s="121"/>
+      <c r="CC33" s="121"/>
+      <c r="CD33" s="121"/>
+      <c r="CE33" s="210"/>
+      <c r="CF33" s="211"/>
+      <c r="CG33" s="95"/>
+      <c r="CH33" s="95"/>
+      <c r="CI33" s="235"/>
+      <c r="CJ33" s="236" t="s">
         <v>568</v>
       </c>
-      <c r="CK33" s="241"/>
+      <c r="CK33" s="243"/>
     </row>
     <row r="34" spans="1:89">
       <c r="A34" s="82" t="s">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -2765,11 +2765,19 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-(</t>
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
@@ -2777,7 +2785,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
@@ -2811,11 +2819,19 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-(</t>
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
+        <rFont val="Helvetica Neue Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
@@ -2823,7 +2839,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
@@ -2831,7 +2847,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
@@ -2839,7 +2855,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
@@ -2847,7 +2863,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
@@ -2855,7 +2871,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
@@ -22301,11 +22317,11 @@
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BG4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="CH27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS3" sqref="AS$1:AS$1048576"/>
+      <selection pane="bottomRight" activeCell="CJ9" sqref="CJ9:CK9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -23589,7 +23605,7 @@
       </c>
       <c r="CK6" s="239"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="36" customHeight="1" spans="1:89">
+    <row r="7" s="2" customFormat="1" ht="51" customHeight="1" spans="1:89">
       <c r="A7" s="33" t="s">
         <v>514</v>
       </c>
@@ -24312,7 +24328,7 @@
       </c>
       <c r="CK9" s="240"/>
     </row>
-    <row r="10" s="5" customFormat="1" ht="26" customHeight="1" spans="1:89">
+    <row r="10" s="5" customFormat="1" ht="38" customHeight="1" spans="1:89">
       <c r="A10" s="45" t="s">
         <v>522</v>
       </c>
@@ -24754,7 +24770,7 @@
       </c>
       <c r="CK11" s="30"/>
     </row>
-    <row r="12" s="6" customFormat="1" ht="40" customHeight="1" spans="1:89">
+    <row r="12" s="6" customFormat="1" ht="48" customHeight="1" spans="1:89">
       <c r="A12" s="50" t="s">
         <v>526</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -10234,7 +10234,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL83" sqref="AL83"/>
+      <selection pane="bottomRight" activeCell="AG2" sqref="AG2:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -22317,11 +22317,11 @@
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="CH27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CJ9" sqref="CJ9:CK9"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -24360,17 +24360,25 @@
       <c r="U10" s="46"/>
       <c r="V10" s="46"/>
       <c r="W10" s="110"/>
-      <c r="X10" s="111"/>
+      <c r="X10" s="111">
+        <v>-0.2927</v>
+      </c>
       <c r="Y10" s="111"/>
       <c r="Z10" s="111"/>
       <c r="AA10" s="111"/>
-      <c r="AB10" s="111"/>
+      <c r="AB10" s="111">
+        <v>1.9828</v>
+      </c>
       <c r="AC10" s="111"/>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
+      <c r="AD10" s="111">
+        <v>5.383</v>
+      </c>
+      <c r="AE10" s="111">
+        <v>3.9425</v>
+      </c>
       <c r="AF10" s="130">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>-0.14635</v>
       </c>
       <c r="AG10" s="130">
         <f t="shared" si="4"/>
@@ -24378,16 +24386,16 @@
       </c>
       <c r="AH10" s="130">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.9914</v>
       </c>
       <c r="AI10" s="130">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2.6915</v>
       </c>
       <c r="AJ10" s="110"/>
       <c r="AK10" s="142">
         <f t="shared" ref="AK10:AK29" si="24">(X10+Y10)/2</f>
-        <v>0</v>
+        <v>-0.14635</v>
       </c>
       <c r="AL10" s="142">
         <f t="shared" ref="AL10:AL29" si="25">(Z10+AA10)/2</f>
@@ -24395,11 +24403,11 @@
       </c>
       <c r="AM10" s="142">
         <f t="shared" ref="AM10:AM29" si="26">(AB10+AC10)/2</f>
-        <v>0</v>
+        <v>0.9914</v>
       </c>
       <c r="AN10" s="142">
         <f t="shared" ref="AN10:AN26" si="27">(AD10+AE10)/2</f>
-        <v>0</v>
+        <v>4.66275</v>
       </c>
       <c r="AO10" s="110"/>
       <c r="AP10" s="110">
@@ -24461,8 +24469,12 @@
         <v>1.5713</v>
       </c>
       <c r="BH10" s="162"/>
-      <c r="BI10" s="162"/>
-      <c r="BJ10" s="162"/>
+      <c r="BI10" s="162">
+        <v>1.4587</v>
+      </c>
+      <c r="BJ10" s="162">
+        <v>0.9701</v>
+      </c>
       <c r="BK10" s="162"/>
       <c r="BL10" s="175"/>
       <c r="BM10" s="130"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -22317,11 +22317,11 @@
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="U5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="BA6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="BH12" sqref="BH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -24363,13 +24363,21 @@
       <c r="X10" s="111">
         <v>-0.2927</v>
       </c>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="111"/>
+      <c r="Y10" s="111">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="111">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="111">
+        <v>0</v>
+      </c>
       <c r="AB10" s="111">
         <v>1.9828</v>
       </c>
-      <c r="AC10" s="111"/>
+      <c r="AC10" s="111">
+        <v>0</v>
+      </c>
       <c r="AD10" s="111">
         <v>5.383</v>
       </c>
@@ -24468,7 +24476,9 @@
         <f t="shared" si="13"/>
         <v>1.5713</v>
       </c>
-      <c r="BH10" s="162"/>
+      <c r="BH10" s="162">
+        <v>0</v>
+      </c>
       <c r="BI10" s="162">
         <v>1.4587</v>
       </c>
@@ -24930,9 +24940,15 @@
         <f t="shared" si="13"/>
         <v>0.1182</v>
       </c>
-      <c r="BH12" s="162"/>
-      <c r="BI12" s="162"/>
-      <c r="BJ12" s="162"/>
+      <c r="BH12" s="162">
+        <v>-0.4614</v>
+      </c>
+      <c r="BI12" s="162">
+        <v>-0.0358</v>
+      </c>
+      <c r="BJ12" s="162">
+        <v>0.00085</v>
+      </c>
       <c r="BK12" s="162"/>
       <c r="BL12" s="176"/>
       <c r="BM12" s="150">

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -3061,7 +3061,7 @@
         <rFont val="方正书宋_GBK"/>
         <charset val="134"/>
       </rPr>
-      <t>数据不全，就最近</t>
+      <t>数据不全，就最近2个季度数据看，利润率和利润同比增长率都稳步上升，虽然销售额有下降</t>
     </r>
     <r>
       <rPr>
@@ -3070,25 +3070,7 @@
         <rFont val="Helvetica Neue Regular"/>
         <charset val="134"/>
       </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="方正书宋_GBK"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个季度数据看，利润和销售额同比增长向好，但增速仅稍微大于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10%)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -3946,7 +3928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.5"/>
+        <fgColor theme="5" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -22317,11 +22299,11 @@
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="BA6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="CF8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BH12" sqref="BH12"/>
+      <selection pane="bottomRight" activeCell="CJ12" sqref="CJ12:CK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -24792,7 +24774,7 @@
       </c>
       <c r="CK11" s="30"/>
     </row>
-    <row r="12" s="6" customFormat="1" ht="48" customHeight="1" spans="1:89">
+    <row r="12" s="6" customFormat="1" ht="61" customHeight="1" spans="1:89">
       <c r="A12" s="50" t="s">
         <v>526</v>
       </c>
@@ -24940,16 +24922,16 @@
         <f t="shared" si="13"/>
         <v>0.1182</v>
       </c>
-      <c r="BH12" s="162">
+      <c r="BH12" s="143">
         <v>-0.4614</v>
       </c>
-      <c r="BI12" s="162">
+      <c r="BI12" s="143">
         <v>-0.0358</v>
       </c>
-      <c r="BJ12" s="162">
+      <c r="BJ12" s="143">
         <v>0.00085</v>
       </c>
-      <c r="BK12" s="162"/>
+      <c r="BK12" s="143"/>
       <c r="BL12" s="176"/>
       <c r="BM12" s="150">
         <v>0.1881</v>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -22299,11 +22299,11 @@
   <dimension ref="A1:CS42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="CF8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CJ12" sqref="CJ12:CK12"/>
+      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>
@@ -22375,7 +22375,7 @@
     <col min="77" max="77" width="8.58088235294118" style="19" customWidth="1"/>
     <col min="78" max="78" width="7.96323529411765" style="22" customWidth="1"/>
     <col min="79" max="80" width="7.72058823529412" style="15" customWidth="1"/>
-    <col min="81" max="81" width="7.59558823529412" style="15" customWidth="1"/>
+    <col min="81" max="81" width="9.43382352941176" style="15" customWidth="1"/>
     <col min="82" max="82" width="8.33088235294118" style="15" customWidth="1"/>
     <col min="83" max="83" width="11.2720588235294" style="23" customWidth="1"/>
     <col min="84" max="84" width="13.8455882352941" style="24" customWidth="1"/>
@@ -25437,19 +25437,19 @@
         <v>-0.14325</v>
       </c>
       <c r="BZ14" s="192"/>
-      <c r="CA14" s="141">
+      <c r="CA14" s="114">
         <f t="shared" si="18"/>
         <v>-0.6001</v>
       </c>
-      <c r="CB14" s="141">
+      <c r="CB14" s="114">
         <f t="shared" si="19"/>
         <v>-0.28695</v>
       </c>
-      <c r="CC14" s="141">
+      <c r="CC14" s="114">
         <f t="shared" si="20"/>
         <v>1.57915</v>
       </c>
-      <c r="CD14" s="141">
+      <c r="CD14" s="114">
         <f t="shared" si="21"/>
         <v>-0.386</v>
       </c>
@@ -26145,19 +26145,19 @@
         <v>0.53035</v>
       </c>
       <c r="AJ18" s="105"/>
-      <c r="AK18" s="141">
+      <c r="AK18" s="105">
         <f t="shared" si="24"/>
         <v>-0.32555</v>
       </c>
-      <c r="AL18" s="141">
+      <c r="AL18" s="105">
         <f t="shared" si="25"/>
         <v>0.1354</v>
       </c>
-      <c r="AM18" s="141">
+      <c r="AM18" s="105">
         <f t="shared" si="26"/>
         <v>0.57705</v>
       </c>
-      <c r="AN18" s="141">
+      <c r="AN18" s="105">
         <f t="shared" si="27"/>
         <v>0.22765</v>
       </c>
@@ -26204,26 +26204,26 @@
         <v>0.24685</v>
       </c>
       <c r="BC18" s="127"/>
-      <c r="BD18" s="141">
+      <c r="BD18" s="105">
         <f t="shared" si="22"/>
         <v>-0.19815</v>
       </c>
-      <c r="BE18" s="141">
+      <c r="BE18" s="105">
         <f t="shared" si="11"/>
         <v>0.19855</v>
       </c>
-      <c r="BF18" s="141">
+      <c r="BF18" s="105">
         <f t="shared" si="12"/>
         <v>0.30395</v>
       </c>
-      <c r="BG18" s="163">
+      <c r="BG18" s="159">
         <f t="shared" si="13"/>
         <v>0.51585</v>
       </c>
-      <c r="BH18" s="162"/>
-      <c r="BI18" s="162"/>
-      <c r="BJ18" s="162"/>
-      <c r="BK18" s="162"/>
+      <c r="BH18" s="105"/>
+      <c r="BI18" s="105"/>
+      <c r="BJ18" s="105"/>
+      <c r="BK18" s="105"/>
       <c r="BL18" s="172"/>
       <c r="BM18" s="127">
         <v>0.0206</v>
@@ -26267,19 +26267,19 @@
         <v>-0.10075</v>
       </c>
       <c r="BZ18" s="191"/>
-      <c r="CA18" s="141">
+      <c r="CA18" s="105">
         <f t="shared" si="18"/>
         <v>0.05585</v>
       </c>
-      <c r="CB18" s="141">
+      <c r="CB18" s="105">
         <f t="shared" si="19"/>
         <v>-0.14295</v>
       </c>
-      <c r="CC18" s="141">
+      <c r="CC18" s="105">
         <f t="shared" si="20"/>
         <v>-0.10565</v>
       </c>
-      <c r="CD18" s="141">
+      <c r="CD18" s="105">
         <f t="shared" si="21"/>
         <v>-0.0259</v>
       </c>
@@ -26376,19 +26376,19 @@
         <v>1.87085</v>
       </c>
       <c r="AJ19" s="105"/>
-      <c r="AK19" s="141">
+      <c r="AK19" s="105">
         <f t="shared" si="24"/>
         <v>0.26785</v>
       </c>
-      <c r="AL19" s="141">
+      <c r="AL19" s="105">
         <f t="shared" si="25"/>
         <v>2.15215</v>
       </c>
-      <c r="AM19" s="141">
+      <c r="AM19" s="105">
         <f t="shared" si="26"/>
         <v>2.649</v>
       </c>
-      <c r="AN19" s="141">
+      <c r="AN19" s="105">
         <f t="shared" si="27"/>
         <v>1.378</v>
       </c>
@@ -26435,26 +26435,26 @@
         <v>0.2037</v>
       </c>
       <c r="BC19" s="127"/>
-      <c r="BD19" s="141">
+      <c r="BD19" s="105">
         <f t="shared" si="22"/>
         <v>0.13245</v>
       </c>
-      <c r="BE19" s="141">
+      <c r="BE19" s="105">
         <f t="shared" si="11"/>
         <v>0.1246</v>
       </c>
-      <c r="BF19" s="141">
+      <c r="BF19" s="105">
         <f t="shared" si="12"/>
         <v>0.21315</v>
       </c>
-      <c r="BG19" s="163">
+      <c r="BG19" s="159">
         <f t="shared" si="13"/>
         <v>0.1073</v>
       </c>
-      <c r="BH19" s="162"/>
-      <c r="BI19" s="162"/>
-      <c r="BJ19" s="162"/>
-      <c r="BK19" s="162"/>
+      <c r="BH19" s="105"/>
+      <c r="BI19" s="105"/>
+      <c r="BJ19" s="105"/>
+      <c r="BK19" s="105"/>
       <c r="BL19" s="172"/>
       <c r="BM19" s="127">
         <v>-0.2512</v>
@@ -26498,19 +26498,19 @@
         <v>0.7062</v>
       </c>
       <c r="BZ19" s="191"/>
-      <c r="CA19" s="141">
+      <c r="CA19" s="105">
         <f t="shared" si="18"/>
         <v>0.22225</v>
       </c>
-      <c r="CB19" s="141">
+      <c r="CB19" s="105">
         <f t="shared" si="19"/>
         <v>0.7399</v>
       </c>
-      <c r="CC19" s="141">
+      <c r="CC19" s="105">
         <f t="shared" si="20"/>
         <v>0.7028</v>
       </c>
-      <c r="CD19" s="141">
+      <c r="CD19" s="105">
         <f t="shared" si="21"/>
         <v>0.64075</v>
       </c>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360" activeTab="2"/>
+    <workbookView windowWidth="26500" windowHeight="11360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="行业分析" sheetId="3" r:id="rId1"/>
@@ -10211,12 +10211,12 @@
   <sheetPr/>
   <dimension ref="A1:AN208"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AG76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="J83" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG2" sqref="AG2:AG3"/>
+      <selection pane="bottomRight" activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -22298,12 +22298,12 @@
   <sheetPr/>
   <dimension ref="A1:CS42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="Z12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="CG8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X17" sqref="X17"/>
+      <selection pane="bottomRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.94117647058824" defaultRowHeight="14.8"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578">
   <si>
     <t>股票代码</t>
   </si>
@@ -2546,6 +2546,154 @@
         <charset val="134"/>
       </rPr>
       <t>日均线：向上</t>
+    </r>
+  </si>
+  <si>
+    <t>000596</t>
+  </si>
+  <si>
+    <t>古井贡酒</t>
+  </si>
+  <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>5T</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以入场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满足普通收缩幅度收窄形态，应寻找有利身位入场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>片仔癀</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不宜进场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>满足普通收缩幅度收窄形态，但成交量行为和价格行为仍不明朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不宜进场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（满足普通收缩幅度收窄形态，但成交量行为和价格行为出现逆向发展）</t>
+    </r>
+  </si>
+  <si>
+    <t>600600.SH</t>
+  </si>
+  <si>
+    <t>青岛啤酒</t>
+  </si>
+  <si>
+    <t>22w</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不宜入场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="方正书宋_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（虽然收缩幅度符合，但成交量尚不明朗，仍需谨慎，最好持续观察1w）</t>
     </r>
   </si>
   <si>
@@ -3355,12 +3503,6 @@
     <t>JBM_000027</t>
   </si>
   <si>
-    <t>000596</t>
-  </si>
-  <si>
-    <t>古井贡酒</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">不宜进场
 </t>
@@ -3376,9 +3518,6 @@
   </si>
   <si>
     <t>JBM_000028</t>
-  </si>
-  <si>
-    <t>片仔癀</t>
   </si>
   <si>
     <r>
@@ -3463,9 +3602,6 @@
     <t>JBM_000030</t>
   </si>
   <si>
-    <t>青岛啤酒</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">不宜进场
 </t>
@@ -3487,11 +3623,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -4490,7 +4627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4529,12 +4666,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5005,140 +5142,140 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="14" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="14" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5174,7 +5311,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5256,40 +5393,40 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="23" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="24" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="24" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5298,10 +5435,10 @@
     <xf numFmtId="10" fontId="24" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5449,7 +5586,7 @@
     <xf numFmtId="0" fontId="32" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5458,35 +5595,41 @@
     <xf numFmtId="0" fontId="34" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="32" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="32" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="179" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="10" fontId="32" fillId="14" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="32" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5499,19 +5642,40 @@
     <xf numFmtId="0" fontId="32" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="32" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="20" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="16" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5544,6 +5708,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7743,55 +7910,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="55" spans="1:9">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="378" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="369" t="s">
+      <c r="B1" s="378" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="370" t="s">
+      <c r="C1" s="379" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="370" t="s">
+      <c r="D1" s="379" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="370" t="s">
+      <c r="E1" s="379" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="369" t="s">
+      <c r="F1" s="378" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="373" t="s">
+      <c r="G1" s="382" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="374" t="s">
+      <c r="H1" s="383" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="371" t="s">
+      <c r="A2" s="380" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="371" t="s">
+      <c r="B2" s="380" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="372">
+      <c r="C2" s="381">
         <v>24.93</v>
       </c>
-      <c r="D2" s="372">
+      <c r="D2" s="381">
         <v>1.548</v>
       </c>
-      <c r="E2" s="372">
+      <c r="E2" s="381">
         <v>704.193548387097</v>
       </c>
-      <c r="F2" s="371" t="s">
+      <c r="F2" s="380" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="375" t="s">
+      <c r="G2" s="384" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="375" t="s">
+      <c r="H2" s="384" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="96">
@@ -7800,28 +7967,28 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="371" t="s">
+      <c r="A3" s="380" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="371" t="s">
+      <c r="B3" s="380" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="372">
+      <c r="C3" s="381">
         <v>23.9</v>
       </c>
-      <c r="D3" s="372">
+      <c r="D3" s="381">
         <v>1.963</v>
       </c>
-      <c r="E3" s="372">
+      <c r="E3" s="381">
         <v>656.329113924051</v>
       </c>
-      <c r="F3" s="371" t="s">
+      <c r="F3" s="380" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="375" t="s">
+      <c r="G3" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="375" t="s">
+      <c r="H3" s="384" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="96">
@@ -7830,28 +7997,28 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="371" t="s">
+      <c r="A4" s="380" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="371" t="s">
+      <c r="B4" s="380" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="372">
+      <c r="C4" s="381">
         <v>287.9</v>
       </c>
-      <c r="D4" s="372">
+      <c r="D4" s="381">
         <v>4.801</v>
       </c>
-      <c r="E4" s="372">
+      <c r="E4" s="381">
         <v>647.986489997402</v>
       </c>
-      <c r="F4" s="371" t="s">
+      <c r="F4" s="380" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="375" t="s">
+      <c r="G4" s="384" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="375" t="s">
+      <c r="H4" s="384" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="96">
@@ -7860,28 +8027,28 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="371" t="s">
+      <c r="A5" s="380" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="371" t="s">
+      <c r="B5" s="380" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="372">
+      <c r="C5" s="381">
         <v>86.94</v>
       </c>
-      <c r="D5" s="372">
+      <c r="D5" s="381">
         <v>4.621</v>
       </c>
-      <c r="E5" s="372">
+      <c r="E5" s="381">
         <v>573.953488372093</v>
       </c>
-      <c r="F5" s="371" t="s">
+      <c r="F5" s="380" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="375" t="s">
+      <c r="G5" s="384" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="375" t="s">
+      <c r="H5" s="384" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="96">
@@ -7890,28 +8057,28 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="371" t="s">
+      <c r="A6" s="380" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="371" t="s">
+      <c r="B6" s="380" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="372">
+      <c r="C6" s="381">
         <v>60.42</v>
       </c>
-      <c r="D6" s="372">
+      <c r="D6" s="381">
         <v>3.636</v>
       </c>
-      <c r="E6" s="372">
+      <c r="E6" s="381">
         <v>527.414330218068</v>
       </c>
-      <c r="F6" s="371" t="s">
+      <c r="F6" s="380" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="375" t="s">
+      <c r="G6" s="384" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="375" t="s">
+      <c r="H6" s="384" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="96">
@@ -7920,28 +8087,28 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="371" t="s">
+      <c r="A7" s="380" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="371" t="s">
+      <c r="B7" s="380" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="372">
+      <c r="C7" s="381">
         <v>20.51</v>
       </c>
-      <c r="D7" s="372">
+      <c r="D7" s="381">
         <v>2.091</v>
       </c>
-      <c r="E7" s="372">
+      <c r="E7" s="381">
         <v>449.865951742627</v>
       </c>
-      <c r="F7" s="371" t="s">
+      <c r="F7" s="380" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="375" t="s">
+      <c r="G7" s="384" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="375" t="s">
+      <c r="H7" s="384" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="96">
@@ -7950,28 +8117,28 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="371" t="s">
+      <c r="A8" s="380" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="371" t="s">
+      <c r="B8" s="380" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="372">
+      <c r="C8" s="381">
         <v>30.27</v>
       </c>
-      <c r="D8" s="372">
+      <c r="D8" s="381">
         <v>-0.296</v>
       </c>
-      <c r="E8" s="372">
+      <c r="E8" s="381">
         <v>444.424460431655</v>
       </c>
-      <c r="F8" s="371" t="s">
+      <c r="F8" s="380" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="375" t="s">
+      <c r="G8" s="384" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="375" t="s">
+      <c r="H8" s="384" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="96">
@@ -7980,28 +8147,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="371" t="s">
+      <c r="A9" s="380" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="371" t="s">
+      <c r="B9" s="380" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="372">
+      <c r="C9" s="381">
         <v>83.72</v>
       </c>
-      <c r="D9" s="372">
+      <c r="D9" s="381">
         <v>2.774</v>
       </c>
-      <c r="E9" s="372">
+      <c r="E9" s="381">
         <v>434.269304403318</v>
       </c>
-      <c r="F9" s="371" t="s">
+      <c r="F9" s="380" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="375" t="s">
+      <c r="G9" s="384" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="375" t="s">
+      <c r="H9" s="384" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="96">
@@ -8010,28 +8177,28 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="371" t="s">
+      <c r="A10" s="380" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="371" t="s">
+      <c r="B10" s="380" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="372">
+      <c r="C10" s="381">
         <v>53.52</v>
       </c>
-      <c r="D10" s="372">
+      <c r="D10" s="381">
         <v>10.01</v>
       </c>
-      <c r="E10" s="372">
+      <c r="E10" s="381">
         <v>432.537313432836</v>
       </c>
-      <c r="F10" s="371" t="s">
+      <c r="F10" s="380" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="375" t="s">
+      <c r="G10" s="384" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="375" t="s">
+      <c r="H10" s="384" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="96">
@@ -8040,28 +8207,28 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="371" t="s">
+      <c r="A11" s="380" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="371" t="s">
+      <c r="B11" s="380" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="372">
+      <c r="C11" s="381">
         <v>29.61</v>
       </c>
-      <c r="D11" s="372">
+      <c r="D11" s="381">
         <v>0.271</v>
       </c>
-      <c r="E11" s="372">
+      <c r="E11" s="381">
         <v>408.762886597938</v>
       </c>
-      <c r="F11" s="371" t="s">
+      <c r="F11" s="380" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="375" t="s">
+      <c r="G11" s="384" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="375" t="s">
+      <c r="H11" s="384" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="96">
@@ -8070,28 +8237,28 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="371" t="s">
+      <c r="A12" s="380" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="371" t="s">
+      <c r="B12" s="380" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="372">
+      <c r="C12" s="381">
         <v>27.46</v>
       </c>
-      <c r="D12" s="372">
+      <c r="D12" s="381">
         <v>0.109</v>
       </c>
-      <c r="E12" s="372">
+      <c r="E12" s="381">
         <v>402.930402930403</v>
       </c>
-      <c r="F12" s="371" t="s">
+      <c r="F12" s="380" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="375" t="s">
+      <c r="G12" s="384" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="375" t="s">
+      <c r="H12" s="384" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="96">
@@ -8100,28 +8267,28 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="371" t="s">
+      <c r="A13" s="380" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="371" t="s">
+      <c r="B13" s="380" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="372">
+      <c r="C13" s="381">
         <v>43.9</v>
       </c>
-      <c r="D13" s="372">
+      <c r="D13" s="381">
         <v>6.528</v>
       </c>
-      <c r="E13" s="372">
+      <c r="E13" s="381">
         <v>400.455996352029</v>
       </c>
-      <c r="F13" s="371" t="s">
+      <c r="F13" s="380" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="375" t="s">
+      <c r="G13" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="375" t="s">
+      <c r="H13" s="384" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="96">
@@ -8130,28 +8297,28 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="371" t="s">
+      <c r="A14" s="380" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="371" t="s">
+      <c r="B14" s="380" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="372">
+      <c r="C14" s="381">
         <v>98.2</v>
       </c>
-      <c r="D14" s="372">
+      <c r="D14" s="381">
         <v>0.102</v>
       </c>
-      <c r="E14" s="372">
+      <c r="E14" s="381">
         <v>397.971602434077</v>
       </c>
-      <c r="F14" s="371" t="s">
+      <c r="F14" s="380" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="375" t="s">
+      <c r="G14" s="384" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="375" t="s">
+      <c r="H14" s="384" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="96">
@@ -8160,28 +8327,28 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="371" t="s">
+      <c r="A15" s="380" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="371" t="s">
+      <c r="B15" s="380" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="372">
+      <c r="C15" s="381">
         <v>8.19</v>
       </c>
-      <c r="D15" s="372">
+      <c r="D15" s="381">
         <v>0.122</v>
       </c>
-      <c r="E15" s="372">
+      <c r="E15" s="381">
         <v>390.595423505451</v>
       </c>
-      <c r="F15" s="371" t="s">
+      <c r="F15" s="380" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="375" t="s">
+      <c r="H15" s="384" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="96">
@@ -8190,28 +8357,28 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="371" t="s">
+      <c r="A16" s="380" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="371" t="s">
+      <c r="B16" s="380" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="372">
+      <c r="C16" s="381">
         <v>46.67</v>
       </c>
-      <c r="D16" s="372">
+      <c r="D16" s="381">
         <v>-2.527</v>
       </c>
-      <c r="E16" s="372">
+      <c r="E16" s="381">
         <v>390.231092436975</v>
       </c>
-      <c r="F16" s="371" t="s">
+      <c r="F16" s="380" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="375" t="s">
+      <c r="G16" s="384" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="375" t="s">
+      <c r="H16" s="384" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="96">
@@ -8220,28 +8387,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="371" t="s">
+      <c r="A17" s="380" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="371" t="s">
+      <c r="B17" s="380" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="372">
+      <c r="C17" s="381">
         <v>139.05</v>
       </c>
-      <c r="D17" s="372">
+      <c r="D17" s="381">
         <v>4.943</v>
       </c>
-      <c r="E17" s="372">
+      <c r="E17" s="381">
         <v>381.141868512111</v>
       </c>
-      <c r="F17" s="371" t="s">
+      <c r="F17" s="380" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="375" t="s">
+      <c r="G17" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="375" t="s">
+      <c r="H17" s="384" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="96">
@@ -8250,28 +8417,28 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="371" t="s">
+      <c r="A18" s="380" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="371" t="s">
+      <c r="B18" s="380" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="372">
+      <c r="C18" s="381">
         <v>78.3</v>
       </c>
-      <c r="D18" s="372">
+      <c r="D18" s="381">
         <v>3.407</v>
       </c>
-      <c r="E18" s="372">
+      <c r="E18" s="381">
         <v>373.111782477341</v>
       </c>
-      <c r="F18" s="371" t="s">
+      <c r="F18" s="380" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="375" t="s">
+      <c r="G18" s="384" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="375" t="s">
+      <c r="H18" s="384" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="96">
@@ -8280,28 +8447,28 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="371" t="s">
+      <c r="A19" s="380" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="371" t="s">
+      <c r="B19" s="380" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="372">
+      <c r="C19" s="381">
         <v>31.21</v>
       </c>
-      <c r="D19" s="372">
+      <c r="D19" s="381">
         <v>-0.032</v>
       </c>
-      <c r="E19" s="372">
+      <c r="E19" s="381">
         <v>351.92586156965</v>
       </c>
-      <c r="F19" s="371" t="s">
+      <c r="F19" s="380" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="375" t="s">
+      <c r="G19" s="384" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="375" t="s">
+      <c r="H19" s="384" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="96">
@@ -8310,28 +8477,28 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="371" t="s">
+      <c r="A20" s="380" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="371" t="s">
+      <c r="B20" s="380" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="372">
+      <c r="C20" s="381">
         <v>25.22</v>
       </c>
-      <c r="D20" s="372">
+      <c r="D20" s="381">
         <v>9.987</v>
       </c>
-      <c r="E20" s="372">
+      <c r="E20" s="381">
         <v>342.456140350877</v>
       </c>
-      <c r="F20" s="371" t="s">
+      <c r="F20" s="380" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="375" t="s">
+      <c r="G20" s="384" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="375" t="s">
+      <c r="H20" s="384" t="s">
         <v>83</v>
       </c>
       <c r="I20" s="96">
@@ -8340,28 +8507,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="371" t="s">
+      <c r="A21" s="380" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="371" t="s">
+      <c r="B21" s="380" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="372">
+      <c r="C21" s="381">
         <v>136.1</v>
       </c>
-      <c r="D21" s="372">
+      <c r="D21" s="381">
         <v>3.656</v>
       </c>
-      <c r="E21" s="372">
+      <c r="E21" s="381">
         <v>340.595662026546</v>
       </c>
-      <c r="F21" s="371" t="s">
+      <c r="F21" s="380" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="375" t="s">
+      <c r="G21" s="384" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="375" t="s">
+      <c r="H21" s="384" t="s">
         <v>87</v>
       </c>
       <c r="I21" s="96">
@@ -8370,28 +8537,28 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="371" t="s">
+      <c r="A22" s="380" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="371" t="s">
+      <c r="B22" s="380" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="372">
+      <c r="C22" s="381">
         <v>197.8</v>
       </c>
-      <c r="D22" s="372">
+      <c r="D22" s="381">
         <v>6.413</v>
       </c>
-      <c r="E22" s="372">
+      <c r="E22" s="381">
         <v>318.181818181818</v>
       </c>
-      <c r="F22" s="371" t="s">
+      <c r="F22" s="380" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="375" t="s">
+      <c r="G22" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="375" t="s">
+      <c r="H22" s="384" t="s">
         <v>91</v>
       </c>
       <c r="I22" s="96">
@@ -8400,28 +8567,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="371" t="s">
+      <c r="A23" s="380" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="371" t="s">
+      <c r="B23" s="380" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="372">
+      <c r="C23" s="381">
         <v>53.57</v>
       </c>
-      <c r="D23" s="372">
+      <c r="D23" s="381">
         <v>0.847</v>
       </c>
-      <c r="E23" s="372">
+      <c r="E23" s="381">
         <v>315.593483320403</v>
       </c>
-      <c r="F23" s="371" t="s">
+      <c r="F23" s="380" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="375" t="s">
+      <c r="G23" s="384" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="375" t="s">
+      <c r="H23" s="384" t="s">
         <v>95</v>
       </c>
       <c r="I23" s="96">
@@ -8430,28 +8597,28 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="371" t="s">
+      <c r="A24" s="380" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="371" t="s">
+      <c r="B24" s="380" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="372">
+      <c r="C24" s="381">
         <v>26.71</v>
       </c>
-      <c r="D24" s="372">
+      <c r="D24" s="381">
         <v>1.289</v>
       </c>
-      <c r="E24" s="372">
+      <c r="E24" s="381">
         <v>314.108527131783</v>
       </c>
-      <c r="F24" s="371" t="s">
+      <c r="F24" s="380" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="375" t="s">
+      <c r="G24" s="384" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="375" t="s">
+      <c r="H24" s="384" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="96">
@@ -8460,28 +8627,28 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="371" t="s">
+      <c r="A25" s="380" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="371" t="s">
+      <c r="B25" s="380" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="372">
+      <c r="C25" s="381">
         <v>71.69</v>
       </c>
-      <c r="D25" s="372">
+      <c r="D25" s="381">
         <v>0.252</v>
       </c>
-      <c r="E25" s="372">
+      <c r="E25" s="381">
         <v>309.89136649514</v>
       </c>
-      <c r="F25" s="371" t="s">
+      <c r="F25" s="380" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="375" t="s">
+      <c r="G25" s="384" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="375" t="s">
+      <c r="H25" s="384" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="96">
@@ -8490,28 +8657,28 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="371" t="s">
+      <c r="A26" s="380" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="371" t="s">
+      <c r="B26" s="380" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="372">
+      <c r="C26" s="381">
         <v>52.47</v>
       </c>
-      <c r="D26" s="372">
+      <c r="D26" s="381">
         <v>1.176</v>
       </c>
-      <c r="E26" s="372">
+      <c r="E26" s="381">
         <v>304.548959136469</v>
       </c>
-      <c r="F26" s="371" t="s">
+      <c r="F26" s="380" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="375" t="s">
+      <c r="G26" s="384" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="375" t="s">
+      <c r="H26" s="384" t="s">
         <v>107</v>
       </c>
       <c r="I26" s="96">
@@ -8520,28 +8687,28 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="371" t="s">
+      <c r="A27" s="380" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="371" t="s">
+      <c r="B27" s="380" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="372">
+      <c r="C27" s="381">
         <v>26.5</v>
       </c>
-      <c r="D27" s="372">
+      <c r="D27" s="381">
         <v>0.991</v>
       </c>
-      <c r="E27" s="372">
+      <c r="E27" s="381">
         <v>303.963414634146</v>
       </c>
-      <c r="F27" s="371" t="s">
+      <c r="F27" s="380" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="375" t="s">
+      <c r="G27" s="384" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="375" t="s">
+      <c r="H27" s="384" t="s">
         <v>111</v>
       </c>
       <c r="I27" s="96">
@@ -8550,28 +8717,28 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="371" t="s">
+      <c r="A28" s="380" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="371" t="s">
+      <c r="B28" s="380" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="372">
+      <c r="C28" s="381">
         <v>126</v>
       </c>
-      <c r="D28" s="372">
+      <c r="D28" s="381">
         <v>3.287</v>
       </c>
-      <c r="E28" s="372">
+      <c r="E28" s="381">
         <v>299.873056172644</v>
       </c>
-      <c r="F28" s="371" t="s">
+      <c r="F28" s="380" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="375" t="s">
+      <c r="G28" s="384" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="375" t="s">
+      <c r="H28" s="384" t="s">
         <v>115</v>
       </c>
       <c r="I28" s="96">
@@ -8580,28 +8747,28 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="371" t="s">
+      <c r="A29" s="380" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="371" t="s">
+      <c r="B29" s="380" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="372">
+      <c r="C29" s="381">
         <v>59.54</v>
       </c>
-      <c r="D29" s="372">
+      <c r="D29" s="381">
         <v>3.764</v>
       </c>
-      <c r="E29" s="372">
+      <c r="E29" s="381">
         <v>296.794107330754</v>
       </c>
-      <c r="F29" s="371" t="s">
+      <c r="F29" s="380" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="375" t="s">
+      <c r="G29" s="384" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="375" t="s">
+      <c r="H29" s="384" t="s">
         <v>119</v>
       </c>
       <c r="I29" s="96">
@@ -8610,28 +8777,28 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="371" t="s">
+      <c r="A30" s="380" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="371" t="s">
+      <c r="B30" s="380" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="372">
+      <c r="C30" s="381">
         <v>16.63</v>
       </c>
-      <c r="D30" s="372">
+      <c r="D30" s="381">
         <v>-0.894</v>
       </c>
-      <c r="E30" s="372">
+      <c r="E30" s="381">
         <v>295.011876484561</v>
       </c>
-      <c r="F30" s="371" t="s">
+      <c r="F30" s="380" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="375" t="s">
+      <c r="G30" s="384" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="375" t="s">
+      <c r="H30" s="384" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="96">
@@ -8640,28 +8807,28 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="371" t="s">
+      <c r="A31" s="380" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="371" t="s">
+      <c r="B31" s="380" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="372">
+      <c r="C31" s="381">
         <v>142.1</v>
       </c>
-      <c r="D31" s="372">
+      <c r="D31" s="381">
         <v>1.067</v>
       </c>
-      <c r="E31" s="372">
+      <c r="E31" s="381">
         <v>293.737877528401</v>
       </c>
-      <c r="F31" s="371" t="s">
+      <c r="F31" s="380" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="375" t="s">
+      <c r="G31" s="384" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="375" t="s">
+      <c r="H31" s="384" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="96">
@@ -8670,28 +8837,28 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="371" t="s">
+      <c r="A32" s="380" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="371" t="s">
+      <c r="B32" s="380" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="372">
+      <c r="C32" s="381">
         <v>32.71</v>
       </c>
-      <c r="D32" s="372">
+      <c r="D32" s="381">
         <v>3.447</v>
       </c>
-      <c r="E32" s="372">
+      <c r="E32" s="381">
         <v>293.149038461538</v>
       </c>
-      <c r="F32" s="371" t="s">
+      <c r="F32" s="380" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="375" t="s">
+      <c r="G32" s="384" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="375" t="s">
+      <c r="H32" s="384" t="s">
         <v>131</v>
       </c>
       <c r="I32" s="96">
@@ -8700,1500 +8867,1500 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="371" t="s">
+      <c r="A33" s="380" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="371" t="s">
+      <c r="B33" s="380" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="372">
+      <c r="C33" s="381">
         <v>23.13</v>
       </c>
-      <c r="D33" s="372">
+      <c r="D33" s="381">
         <v>1.27</v>
       </c>
-      <c r="E33" s="372">
+      <c r="E33" s="381">
         <v>291.370558375634</v>
       </c>
-      <c r="F33" s="371" t="s">
+      <c r="F33" s="380" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="375" t="s">
+      <c r="G33" s="384" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="96"/>
       <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="371" t="s">
+      <c r="A34" s="380" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="371" t="s">
+      <c r="B34" s="380" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="372">
+      <c r="C34" s="381">
         <v>15.71</v>
       </c>
-      <c r="D34" s="372">
+      <c r="D34" s="381">
         <v>10.014</v>
       </c>
-      <c r="E34" s="372">
+      <c r="E34" s="381">
         <v>289.826302729528</v>
       </c>
-      <c r="F34" s="371" t="s">
+      <c r="F34" s="380" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="375" t="s">
+      <c r="G34" s="384" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="96"/>
       <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="371" t="s">
+      <c r="A35" s="380" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="371" t="s">
+      <c r="B35" s="380" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="372">
+      <c r="C35" s="381">
         <v>15.09</v>
       </c>
-      <c r="D35" s="372">
+      <c r="D35" s="381">
         <v>-3.947</v>
       </c>
-      <c r="E35" s="372">
+      <c r="E35" s="381">
         <v>288.917525773196</v>
       </c>
-      <c r="F35" s="371" t="s">
+      <c r="F35" s="380" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="375" t="s">
+      <c r="G35" s="384" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="371" t="s">
+      <c r="A36" s="380" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="371" t="s">
+      <c r="B36" s="380" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="372">
+      <c r="C36" s="381">
         <v>92.41</v>
       </c>
-      <c r="D36" s="372">
+      <c r="D36" s="381">
         <v>9.999</v>
       </c>
-      <c r="E36" s="372">
+      <c r="E36" s="381">
         <v>288.76735380732</v>
       </c>
-      <c r="F36" s="371" t="s">
+      <c r="F36" s="380" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="375" t="s">
+      <c r="G36" s="384" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="96"/>
       <c r="I36" s="96"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="371" t="s">
+      <c r="A37" s="380" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="371" t="s">
+      <c r="B37" s="380" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="372">
+      <c r="C37" s="381">
         <v>196.55</v>
       </c>
-      <c r="D37" s="372">
+      <c r="D37" s="381">
         <v>5.757</v>
       </c>
-      <c r="E37" s="372">
+      <c r="E37" s="381">
         <v>286.985627091947</v>
       </c>
-      <c r="F37" s="371" t="s">
+      <c r="F37" s="380" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="375" t="s">
+      <c r="G37" s="384" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="96"/>
       <c r="I37" s="96"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="371" t="s">
+      <c r="A38" s="380" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="371" t="s">
+      <c r="B38" s="380" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="372">
+      <c r="C38" s="381">
         <v>28.59</v>
       </c>
-      <c r="D38" s="372">
+      <c r="D38" s="381">
         <v>5.304</v>
       </c>
-      <c r="E38" s="372">
+      <c r="E38" s="381">
         <v>286.874154262517</v>
       </c>
-      <c r="F38" s="371" t="s">
+      <c r="F38" s="380" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="375" t="s">
+      <c r="G38" s="384" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="96"/>
       <c r="I38" s="96"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="371" t="s">
+      <c r="A39" s="380" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="371" t="s">
+      <c r="B39" s="380" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="372">
+      <c r="C39" s="381">
         <v>29.1</v>
       </c>
-      <c r="D39" s="372">
+      <c r="D39" s="381">
         <v>-1.954</v>
       </c>
-      <c r="E39" s="372">
+      <c r="E39" s="381">
         <v>277.431906614786</v>
       </c>
-      <c r="F39" s="371" t="s">
+      <c r="F39" s="380" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="375" t="s">
+      <c r="G39" s="384" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="96"/>
       <c r="I39" s="96"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="371" t="s">
+      <c r="A40" s="380" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="371" t="s">
+      <c r="B40" s="380" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="372">
+      <c r="C40" s="381">
         <v>33.77</v>
       </c>
-      <c r="D40" s="372">
+      <c r="D40" s="381">
         <v>10</v>
       </c>
-      <c r="E40" s="372">
+      <c r="E40" s="381">
         <v>276.897321428571</v>
       </c>
-      <c r="F40" s="371" t="s">
+      <c r="F40" s="380" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="375" t="s">
+      <c r="G40" s="384" t="s">
         <v>79</v>
       </c>
       <c r="H40" s="96"/>
       <c r="I40" s="96"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="371" t="s">
+      <c r="A41" s="380" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="371" t="s">
+      <c r="B41" s="380" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="372">
+      <c r="C41" s="381">
         <v>69.29</v>
       </c>
-      <c r="D41" s="372">
+      <c r="D41" s="381">
         <v>2.334</v>
       </c>
-      <c r="E41" s="372">
+      <c r="E41" s="381">
         <v>276.576086956522</v>
       </c>
-      <c r="F41" s="371" t="s">
+      <c r="F41" s="380" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="375" t="s">
+      <c r="G41" s="384" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="96"/>
       <c r="I41" s="96"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="371" t="s">
+      <c r="A42" s="380" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="371" t="s">
+      <c r="B42" s="380" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="372">
+      <c r="C42" s="381">
         <v>110.02</v>
       </c>
-      <c r="D42" s="372">
+      <c r="D42" s="381">
         <v>3.636</v>
       </c>
-      <c r="E42" s="372">
+      <c r="E42" s="381">
         <v>272.318104906937</v>
       </c>
-      <c r="F42" s="371" t="s">
+      <c r="F42" s="380" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="375" t="s">
+      <c r="G42" s="384" t="s">
         <v>47</v>
       </c>
       <c r="H42" s="96"/>
       <c r="I42" s="96"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="371" t="s">
+      <c r="A43" s="380" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="371" t="s">
+      <c r="B43" s="380" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="372">
+      <c r="C43" s="381">
         <v>75.2</v>
       </c>
-      <c r="D43" s="372">
+      <c r="D43" s="381">
         <v>3.169</v>
       </c>
-      <c r="E43" s="372">
+      <c r="E43" s="381">
         <v>272.093023255814</v>
       </c>
-      <c r="F43" s="371" t="s">
+      <c r="F43" s="380" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="375" t="s">
+      <c r="G43" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="96"/>
       <c r="I43" s="96"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="371" t="s">
+      <c r="A44" s="380" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="371" t="s">
+      <c r="B44" s="380" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="372">
+      <c r="C44" s="381">
         <v>15.92</v>
       </c>
-      <c r="D44" s="372">
+      <c r="D44" s="381">
         <v>1.144</v>
       </c>
-      <c r="E44" s="372">
+      <c r="E44" s="381">
         <v>270.232558139535</v>
       </c>
-      <c r="F44" s="371" t="s">
+      <c r="F44" s="380" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="375" t="s">
+      <c r="G44" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="96"/>
       <c r="I44" s="96"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="371" t="s">
+      <c r="A45" s="380" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="371" t="s">
+      <c r="B45" s="380" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="372">
+      <c r="C45" s="381">
         <v>23.79</v>
       </c>
-      <c r="D45" s="372">
+      <c r="D45" s="381">
         <v>-1.572</v>
       </c>
-      <c r="E45" s="372">
+      <c r="E45" s="381">
         <v>269.984447900467</v>
       </c>
-      <c r="F45" s="371" t="s">
+      <c r="F45" s="380" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="375" t="s">
+      <c r="G45" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="96"/>
       <c r="I45" s="96"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="371" t="s">
+      <c r="A46" s="380" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="371" t="s">
+      <c r="B46" s="380" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="372">
+      <c r="C46" s="381">
         <v>251.3</v>
       </c>
-      <c r="D46" s="372">
+      <c r="D46" s="381">
         <v>2.655</v>
       </c>
-      <c r="E46" s="372">
+      <c r="E46" s="381">
         <v>266.861313868613</v>
       </c>
-      <c r="F46" s="371" t="s">
+      <c r="F46" s="380" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="375" t="s">
+      <c r="G46" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="96"/>
       <c r="I46" s="96"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="371" t="s">
+      <c r="A47" s="380" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="371" t="s">
+      <c r="B47" s="380" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="372">
+      <c r="C47" s="381">
         <v>7.89</v>
       </c>
-      <c r="D47" s="372">
+      <c r="D47" s="381">
         <v>-2.472</v>
       </c>
-      <c r="E47" s="372">
+      <c r="E47" s="381">
         <v>265.277777777778</v>
       </c>
-      <c r="F47" s="371" t="s">
+      <c r="F47" s="380" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="375" t="s">
+      <c r="G47" s="384" t="s">
         <v>83</v>
       </c>
       <c r="H47" s="96"/>
       <c r="I47" s="96"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="371" t="s">
+      <c r="A48" s="380" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="371" t="s">
+      <c r="B48" s="380" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="372">
+      <c r="C48" s="381">
         <v>34.48</v>
       </c>
-      <c r="D48" s="372">
+      <c r="D48" s="381">
         <v>2.012</v>
       </c>
-      <c r="E48" s="372">
+      <c r="E48" s="381">
         <v>264.482029598309</v>
       </c>
-      <c r="F48" s="371" t="s">
+      <c r="F48" s="380" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="375" t="s">
+      <c r="G48" s="384" t="s">
         <v>87</v>
       </c>
       <c r="H48" s="96"/>
       <c r="I48" s="96"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="371" t="s">
+      <c r="A49" s="380" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="371" t="s">
+      <c r="B49" s="380" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="372">
+      <c r="C49" s="381">
         <v>23.1</v>
       </c>
-      <c r="D49" s="372">
+      <c r="D49" s="381">
         <v>10</v>
       </c>
-      <c r="E49" s="372">
+      <c r="E49" s="381">
         <v>264.353312302839</v>
       </c>
-      <c r="F49" s="371" t="s">
+      <c r="F49" s="380" t="s">
         <v>182</v>
       </c>
-      <c r="G49" s="375" t="s">
+      <c r="G49" s="384" t="s">
         <v>59</v>
       </c>
       <c r="H49" s="96"/>
       <c r="I49" s="96"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="371" t="s">
+      <c r="A50" s="380" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="371" t="s">
+      <c r="B50" s="380" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="372">
+      <c r="C50" s="381">
         <v>243.47</v>
       </c>
-      <c r="D50" s="372">
+      <c r="D50" s="381">
         <v>1.193</v>
       </c>
-      <c r="E50" s="372">
+      <c r="E50" s="381">
         <v>261.445961995249</v>
       </c>
-      <c r="F50" s="371" t="s">
+      <c r="F50" s="380" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="375" t="s">
+      <c r="G50" s="384" t="s">
         <v>91</v>
       </c>
       <c r="H50" s="96"/>
       <c r="I50" s="96"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="371" t="s">
+      <c r="A51" s="380" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="371" t="s">
+      <c r="B51" s="380" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="372">
+      <c r="C51" s="381">
         <v>614</v>
       </c>
-      <c r="D51" s="372">
+      <c r="D51" s="381">
         <v>1.207</v>
       </c>
-      <c r="E51" s="372">
+      <c r="E51" s="381">
         <v>261.112744809739</v>
       </c>
-      <c r="F51" s="371" t="s">
+      <c r="F51" s="380" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="375" t="s">
+      <c r="G51" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="96"/>
       <c r="I51" s="96"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="371" t="s">
+      <c r="A52" s="380" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="371" t="s">
+      <c r="B52" s="380" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="372">
+      <c r="C52" s="381">
         <v>136.3</v>
       </c>
-      <c r="D52" s="372">
+      <c r="D52" s="381">
         <v>0.221</v>
       </c>
-      <c r="E52" s="372">
+      <c r="E52" s="381">
         <v>257.180293501048</v>
       </c>
-      <c r="F52" s="371" t="s">
+      <c r="F52" s="380" t="s">
         <v>191</v>
       </c>
-      <c r="G52" s="375" t="s">
+      <c r="G52" s="384" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="96"/>
       <c r="I52" s="96"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="371" t="s">
+      <c r="A53" s="380" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="371" t="s">
+      <c r="B53" s="380" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="372">
+      <c r="C53" s="381">
         <v>540.64</v>
       </c>
-      <c r="D53" s="372">
+      <c r="D53" s="381">
         <v>1.529</v>
       </c>
-      <c r="E53" s="372">
+      <c r="E53" s="381">
         <v>255.754425215503</v>
       </c>
-      <c r="F53" s="371" t="s">
+      <c r="F53" s="380" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="375" t="s">
+      <c r="G53" s="384" t="s">
         <v>95</v>
       </c>
       <c r="H53" s="96"/>
       <c r="I53" s="96"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="371" t="s">
+      <c r="A54" s="380" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="371" t="s">
+      <c r="B54" s="380" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="372">
+      <c r="C54" s="381">
         <v>377.25</v>
       </c>
-      <c r="D54" s="372">
+      <c r="D54" s="381">
         <v>3.76</v>
       </c>
-      <c r="E54" s="372">
+      <c r="E54" s="381">
         <v>253.657507663751</v>
       </c>
-      <c r="F54" s="371" t="s">
+      <c r="F54" s="380" t="s">
         <v>197</v>
       </c>
-      <c r="G54" s="375" t="s">
+      <c r="G54" s="384" t="s">
         <v>99</v>
       </c>
       <c r="H54" s="96"/>
       <c r="I54" s="96"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="371" t="s">
+      <c r="A55" s="380" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="371" t="s">
+      <c r="B55" s="380" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="372">
+      <c r="C55" s="381">
         <v>190.6</v>
       </c>
-      <c r="D55" s="372">
+      <c r="D55" s="381">
         <v>3.166</v>
       </c>
-      <c r="E55" s="372">
+      <c r="E55" s="381">
         <v>252.832284339134</v>
       </c>
-      <c r="F55" s="371" t="s">
+      <c r="F55" s="380" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="375" t="s">
+      <c r="G55" s="384" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="96"/>
       <c r="I55" s="96"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="371" t="s">
+      <c r="A56" s="380" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="371" t="s">
+      <c r="B56" s="380" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="372">
+      <c r="C56" s="381">
         <v>76.54</v>
       </c>
-      <c r="D56" s="372">
+      <c r="D56" s="381">
         <v>5.485</v>
       </c>
-      <c r="E56" s="372">
+      <c r="E56" s="381">
         <v>252.718894009217</v>
       </c>
-      <c r="F56" s="371" t="s">
+      <c r="F56" s="380" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="375" t="s">
+      <c r="G56" s="384" t="s">
         <v>87</v>
       </c>
       <c r="H56" s="96"/>
       <c r="I56" s="96"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="371" t="s">
+      <c r="A57" s="380" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="371" t="s">
+      <c r="B57" s="380" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="372">
+      <c r="C57" s="381">
         <v>151</v>
       </c>
-      <c r="D57" s="372">
+      <c r="D57" s="381">
         <v>-1.307</v>
       </c>
-      <c r="E57" s="372">
+      <c r="E57" s="381">
         <v>252.14552238806</v>
       </c>
-      <c r="F57" s="371" t="s">
+      <c r="F57" s="380" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="375" t="s">
+      <c r="G57" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="96"/>
       <c r="I57" s="96"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="371" t="s">
+      <c r="A58" s="380" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="371" t="s">
+      <c r="B58" s="380" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="372">
+      <c r="C58" s="381">
         <v>19.91</v>
       </c>
-      <c r="D58" s="372">
+      <c r="D58" s="381">
         <v>4.79</v>
       </c>
-      <c r="E58" s="372">
+      <c r="E58" s="381">
         <v>251.146384479718</v>
       </c>
-      <c r="F58" s="371" t="s">
+      <c r="F58" s="380" t="s">
         <v>209</v>
       </c>
-      <c r="G58" s="375" t="s">
+      <c r="G58" s="384" t="s">
         <v>91</v>
       </c>
       <c r="H58" s="96"/>
       <c r="I58" s="96"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="371" t="s">
+      <c r="A59" s="380" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="371" t="s">
+      <c r="B59" s="380" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="372">
+      <c r="C59" s="381">
         <v>31.9</v>
       </c>
-      <c r="D59" s="372">
+      <c r="D59" s="381">
         <v>6.725</v>
       </c>
-      <c r="E59" s="372">
+      <c r="E59" s="381">
         <v>250.549450549451</v>
       </c>
-      <c r="F59" s="371" t="s">
+      <c r="F59" s="380" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="375" t="s">
+      <c r="G59" s="384" t="s">
         <v>31</v>
       </c>
       <c r="H59" s="96"/>
       <c r="I59" s="96"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="371" t="s">
+      <c r="A60" s="380" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="371" t="s">
+      <c r="B60" s="380" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="372">
+      <c r="C60" s="381">
         <v>89.22</v>
       </c>
-      <c r="D60" s="372">
+      <c r="D60" s="381">
         <v>0.259</v>
       </c>
-      <c r="E60" s="372">
+      <c r="E60" s="381">
         <v>249.471210340776</v>
       </c>
-      <c r="F60" s="371" t="s">
+      <c r="F60" s="380" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="375" t="s">
+      <c r="G60" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="96"/>
       <c r="I60" s="96"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="371" t="s">
+      <c r="A61" s="380" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="371" t="s">
+      <c r="B61" s="380" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="372">
+      <c r="C61" s="381">
         <v>39.72</v>
       </c>
-      <c r="D61" s="372">
+      <c r="D61" s="381">
         <v>5.892</v>
       </c>
-      <c r="E61" s="372">
+      <c r="E61" s="381">
         <v>246.294681778553</v>
       </c>
-      <c r="F61" s="371" t="s">
+      <c r="F61" s="380" t="s">
         <v>218</v>
       </c>
-      <c r="G61" s="375" t="s">
+      <c r="G61" s="384" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="96"/>
       <c r="I61" s="96"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="371" t="s">
+      <c r="A62" s="380" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="371" t="s">
+      <c r="B62" s="380" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="372">
+      <c r="C62" s="381">
         <v>77.33</v>
       </c>
-      <c r="D62" s="372">
+      <c r="D62" s="381">
         <v>1.603</v>
       </c>
-      <c r="E62" s="372">
+      <c r="E62" s="381">
         <v>243.231247225921</v>
       </c>
-      <c r="F62" s="371" t="s">
+      <c r="F62" s="380" t="s">
         <v>221</v>
       </c>
-      <c r="G62" s="375" t="s">
+      <c r="G62" s="384" t="s">
         <v>75</v>
       </c>
       <c r="H62" s="96"/>
       <c r="I62" s="96"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="371" t="s">
+      <c r="A63" s="380" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="371" t="s">
+      <c r="B63" s="380" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="372">
+      <c r="C63" s="381">
         <v>19.57</v>
       </c>
-      <c r="D63" s="372">
+      <c r="D63" s="381">
         <v>0.772</v>
       </c>
-      <c r="E63" s="372">
+      <c r="E63" s="381">
         <v>241.535776614311</v>
       </c>
-      <c r="F63" s="371" t="s">
+      <c r="F63" s="380" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="375" t="s">
+      <c r="G63" s="384" t="s">
         <v>67</v>
       </c>
       <c r="H63" s="96"/>
       <c r="I63" s="96"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="371" t="s">
+      <c r="A64" s="380" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="371" t="s">
+      <c r="B64" s="380" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="372">
+      <c r="C64" s="381">
         <v>57.15</v>
       </c>
-      <c r="D64" s="372">
+      <c r="D64" s="381">
         <v>4.061</v>
       </c>
-      <c r="E64" s="372">
+      <c r="E64" s="381">
         <v>240.178571428571</v>
       </c>
-      <c r="F64" s="371" t="s">
+      <c r="F64" s="380" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="375" t="s">
+      <c r="G64" s="384" t="s">
         <v>103</v>
       </c>
       <c r="H64" s="96"/>
       <c r="I64" s="96"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="371" t="s">
+      <c r="A65" s="380" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="371" t="s">
+      <c r="B65" s="380" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="372">
+      <c r="C65" s="381">
         <v>48.6</v>
       </c>
-      <c r="D65" s="372">
+      <c r="D65" s="381">
         <v>-1.46</v>
       </c>
-      <c r="E65" s="372">
+      <c r="E65" s="381">
         <v>239.148639218423</v>
       </c>
-      <c r="F65" s="371" t="s">
+      <c r="F65" s="380" t="s">
         <v>230</v>
       </c>
-      <c r="G65" s="375" t="s">
+      <c r="G65" s="384" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="96"/>
       <c r="I65" s="96"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="371" t="s">
+      <c r="A66" s="380" t="s">
         <v>231</v>
       </c>
-      <c r="B66" s="371" t="s">
+      <c r="B66" s="380" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="372">
+      <c r="C66" s="381">
         <v>25.31</v>
       </c>
-      <c r="D66" s="372">
+      <c r="D66" s="381">
         <v>4.89</v>
       </c>
-      <c r="E66" s="372">
+      <c r="E66" s="381">
         <v>238.821954484605</v>
       </c>
-      <c r="F66" s="371" t="s">
+      <c r="F66" s="380" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="375" t="s">
+      <c r="G66" s="384" t="s">
         <v>91</v>
       </c>
       <c r="H66" s="96"/>
       <c r="I66" s="96"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="371" t="s">
+      <c r="A67" s="380" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="371" t="s">
+      <c r="B67" s="380" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="372">
+      <c r="C67" s="381">
         <v>74.83</v>
       </c>
-      <c r="D67" s="372">
+      <c r="D67" s="381">
         <v>6.885</v>
       </c>
-      <c r="E67" s="372">
+      <c r="E67" s="381">
         <v>236.768676867687</v>
       </c>
-      <c r="F67" s="371" t="s">
+      <c r="F67" s="380" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="375" t="s">
+      <c r="G67" s="384" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="96"/>
       <c r="I67" s="96"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="371" t="s">
+      <c r="A68" s="380" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="371" t="s">
+      <c r="B68" s="380" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="372">
+      <c r="C68" s="381">
         <v>63.42</v>
       </c>
-      <c r="D68" s="372">
+      <c r="D68" s="381">
         <v>3.021</v>
       </c>
-      <c r="E68" s="372">
+      <c r="E68" s="381">
         <v>236.445623342175</v>
       </c>
-      <c r="F68" s="371" t="s">
+      <c r="F68" s="380" t="s">
         <v>239</v>
       </c>
-      <c r="G68" s="375" t="s">
+      <c r="G68" s="384" t="s">
         <v>107</v>
       </c>
       <c r="H68" s="96"/>
       <c r="I68" s="96"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="371" t="s">
+      <c r="A69" s="380" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="371" t="s">
+      <c r="B69" s="380" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="372">
+      <c r="C69" s="381">
         <v>127.5</v>
       </c>
-      <c r="D69" s="372">
+      <c r="D69" s="381">
         <v>2.831</v>
       </c>
-      <c r="E69" s="372">
+      <c r="E69" s="381">
         <v>236.322869955157</v>
       </c>
-      <c r="F69" s="371" t="s">
+      <c r="F69" s="380" t="s">
         <v>242</v>
       </c>
-      <c r="G69" s="375" t="s">
+      <c r="G69" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="96"/>
       <c r="I69" s="96"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="371" t="s">
+      <c r="A70" s="380" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="371" t="s">
+      <c r="B70" s="380" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="372">
+      <c r="C70" s="381">
         <v>15.28</v>
       </c>
-      <c r="D70" s="372">
+      <c r="D70" s="381">
         <v>0.066</v>
       </c>
-      <c r="E70" s="372">
+      <c r="E70" s="381">
         <v>235.087719298246</v>
       </c>
-      <c r="F70" s="371" t="s">
+      <c r="F70" s="380" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="375" t="s">
+      <c r="G70" s="384" t="s">
         <v>83</v>
       </c>
       <c r="H70" s="96"/>
       <c r="I70" s="96"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="371" t="s">
+      <c r="A71" s="380" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="371" t="s">
+      <c r="B71" s="380" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="372">
+      <c r="C71" s="381">
         <v>8.26</v>
       </c>
-      <c r="D71" s="372">
+      <c r="D71" s="381">
         <v>2.481</v>
       </c>
-      <c r="E71" s="372">
+      <c r="E71" s="381">
         <v>233.064516129032</v>
       </c>
-      <c r="F71" s="371" t="s">
+      <c r="F71" s="380" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="375" t="s">
+      <c r="G71" s="384" t="s">
         <v>75</v>
       </c>
       <c r="H71" s="96"/>
       <c r="I71" s="96"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="371" t="s">
+      <c r="A72" s="380" t="s">
         <v>249</v>
       </c>
-      <c r="B72" s="371" t="s">
+      <c r="B72" s="380" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="372">
+      <c r="C72" s="381">
         <v>60.14</v>
       </c>
-      <c r="D72" s="372">
+      <c r="D72" s="381">
         <v>1.11</v>
       </c>
-      <c r="E72" s="372">
+      <c r="E72" s="381">
         <v>230.621220450797</v>
       </c>
-      <c r="F72" s="371" t="s">
+      <c r="F72" s="380" t="s">
         <v>251</v>
       </c>
-      <c r="G72" s="375" t="s">
+      <c r="G72" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="96"/>
       <c r="I72" s="96"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="371" t="s">
+      <c r="A73" s="380" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="371" t="s">
+      <c r="B73" s="380" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="372">
+      <c r="C73" s="381">
         <v>64.26</v>
       </c>
-      <c r="D73" s="372">
+      <c r="D73" s="381">
         <v>5.691</v>
       </c>
-      <c r="E73" s="372">
+      <c r="E73" s="381">
         <v>230.385604113111</v>
       </c>
-      <c r="F73" s="371" t="s">
+      <c r="F73" s="380" t="s">
         <v>254</v>
       </c>
-      <c r="G73" s="375" t="s">
+      <c r="G73" s="384" t="s">
         <v>75</v>
       </c>
       <c r="H73" s="96"/>
       <c r="I73" s="96"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="371" t="s">
+      <c r="A74" s="380" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="371" t="s">
+      <c r="B74" s="380" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="372">
+      <c r="C74" s="381">
         <v>29.11</v>
       </c>
-      <c r="D74" s="372">
+      <c r="D74" s="381">
         <v>7.022</v>
       </c>
-      <c r="E74" s="372">
+      <c r="E74" s="381">
         <v>229.298642533937</v>
       </c>
-      <c r="F74" s="371" t="s">
+      <c r="F74" s="380" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="375" t="s">
+      <c r="G74" s="384" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="96"/>
       <c r="I74" s="96"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="371" t="s">
+      <c r="A75" s="380" t="s">
         <v>258</v>
       </c>
-      <c r="B75" s="371" t="s">
+      <c r="B75" s="380" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="372">
+      <c r="C75" s="381">
         <v>24.54</v>
       </c>
-      <c r="D75" s="372">
+      <c r="D75" s="381">
         <v>3.763</v>
       </c>
-      <c r="E75" s="372">
+      <c r="E75" s="381">
         <v>226.76431424767</v>
       </c>
-      <c r="F75" s="371" t="s">
+      <c r="F75" s="380" t="s">
         <v>260</v>
       </c>
-      <c r="G75" s="375" t="s">
+      <c r="G75" s="384" t="s">
         <v>75</v>
       </c>
       <c r="H75" s="96"/>
       <c r="I75" s="96"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="371" t="s">
+      <c r="A76" s="380" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="371" t="s">
+      <c r="B76" s="380" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="372">
+      <c r="C76" s="381">
         <v>11.3</v>
       </c>
-      <c r="D76" s="372">
+      <c r="D76" s="381">
         <v>4.63</v>
       </c>
-      <c r="E76" s="372">
+      <c r="E76" s="381">
         <v>226.589595375723</v>
       </c>
-      <c r="F76" s="371" t="s">
+      <c r="F76" s="380" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="375" t="s">
+      <c r="G76" s="384" t="s">
         <v>107</v>
       </c>
       <c r="H76" s="96"/>
       <c r="I76" s="96"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="371" t="s">
+      <c r="A77" s="380" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="371" t="s">
+      <c r="B77" s="380" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="372">
+      <c r="C77" s="381">
         <v>22.7</v>
       </c>
-      <c r="D77" s="372">
+      <c r="D77" s="381">
         <v>3.606</v>
       </c>
-      <c r="E77" s="372">
+      <c r="E77" s="381">
         <v>224.982104509664</v>
       </c>
-      <c r="F77" s="371" t="s">
+      <c r="F77" s="380" t="s">
         <v>266</v>
       </c>
-      <c r="G77" s="375" t="s">
+      <c r="G77" s="384" t="s">
         <v>79</v>
       </c>
       <c r="H77" s="96"/>
       <c r="I77" s="96"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="371" t="s">
+      <c r="A78" s="380" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="371" t="s">
+      <c r="B78" s="380" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="372">
+      <c r="C78" s="381">
         <v>23.35</v>
       </c>
-      <c r="D78" s="372">
+      <c r="D78" s="381">
         <v>-1.101</v>
       </c>
-      <c r="E78" s="372">
+      <c r="E78" s="381">
         <v>223.407202216067</v>
       </c>
-      <c r="F78" s="371" t="s">
+      <c r="F78" s="380" t="s">
         <v>269</v>
       </c>
-      <c r="G78" s="375" t="s">
+      <c r="G78" s="384" t="s">
         <v>67</v>
       </c>
       <c r="H78" s="96"/>
       <c r="I78" s="96"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="371" t="s">
+      <c r="A79" s="380" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="371" t="s">
+      <c r="B79" s="380" t="s">
         <v>271</v>
       </c>
-      <c r="C79" s="372">
+      <c r="C79" s="381">
         <v>53.93</v>
       </c>
-      <c r="D79" s="372">
+      <c r="D79" s="381">
         <v>2.94</v>
       </c>
-      <c r="E79" s="372">
+      <c r="E79" s="381">
         <v>223.236561153774</v>
       </c>
-      <c r="F79" s="371" t="s">
+      <c r="F79" s="380" t="s">
         <v>272</v>
       </c>
-      <c r="G79" s="375" t="s">
+      <c r="G79" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="96"/>
       <c r="I79" s="96"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="371" t="s">
+      <c r="A80" s="380" t="s">
         <v>273</v>
       </c>
-      <c r="B80" s="371" t="s">
+      <c r="B80" s="380" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="372">
+      <c r="C80" s="381">
         <v>85.26</v>
       </c>
-      <c r="D80" s="372">
+      <c r="D80" s="381">
         <v>4.23</v>
       </c>
-      <c r="E80" s="372">
+      <c r="E80" s="381">
         <v>221.614485099962</v>
       </c>
-      <c r="F80" s="371" t="s">
+      <c r="F80" s="380" t="s">
         <v>275</v>
       </c>
-      <c r="G80" s="375" t="s">
+      <c r="G80" s="384" t="s">
         <v>99</v>
       </c>
       <c r="H80" s="96"/>
       <c r="I80" s="96"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="371" t="s">
+      <c r="A81" s="380" t="s">
         <v>276</v>
       </c>
-      <c r="B81" s="371" t="s">
+      <c r="B81" s="380" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="372">
+      <c r="C81" s="381">
         <v>23.54</v>
       </c>
-      <c r="D81" s="372">
+      <c r="D81" s="381">
         <v>-9.981</v>
       </c>
-      <c r="E81" s="372">
+      <c r="E81" s="381">
         <v>219.099905110479</v>
       </c>
-      <c r="F81" s="371" t="s">
+      <c r="F81" s="380" t="s">
         <v>278</v>
       </c>
-      <c r="G81" s="375" t="s">
+      <c r="G81" s="384" t="s">
         <v>27</v>
       </c>
       <c r="H81" s="96"/>
       <c r="I81" s="96"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="371" t="s">
+      <c r="A82" s="380" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="371" t="s">
+      <c r="B82" s="380" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="372">
+      <c r="C82" s="381">
         <v>217.49</v>
       </c>
-      <c r="D82" s="372">
+      <c r="D82" s="381">
         <v>0.467</v>
       </c>
-      <c r="E82" s="372">
+      <c r="E82" s="381">
         <v>217.781998831093</v>
       </c>
-      <c r="F82" s="371" t="s">
+      <c r="F82" s="380" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="375" t="s">
+      <c r="G82" s="384" t="s">
         <v>111</v>
       </c>
       <c r="H82" s="96"/>
       <c r="I82" s="96"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="371" t="s">
+      <c r="A83" s="380" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="371" t="s">
+      <c r="B83" s="380" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="372">
+      <c r="C83" s="381">
         <v>39.7</v>
       </c>
-      <c r="D83" s="372">
+      <c r="D83" s="381">
         <v>6.15</v>
       </c>
-      <c r="E83" s="372">
+      <c r="E83" s="381">
         <v>216.625766871154</v>
       </c>
-      <c r="F83" s="371" t="s">
+      <c r="F83" s="380" t="s">
         <v>284</v>
       </c>
-      <c r="G83" s="375" t="s">
+      <c r="G83" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="96"/>
       <c r="I83" s="96"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="371" t="s">
+      <c r="A84" s="380" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="371" t="s">
+      <c r="B84" s="380" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="372">
+      <c r="C84" s="381">
         <v>34.49</v>
       </c>
-      <c r="D84" s="372">
+      <c r="D84" s="381">
         <v>2.162</v>
       </c>
-      <c r="E84" s="372">
+      <c r="E84" s="381">
         <v>216.131989000917</v>
       </c>
-      <c r="F84" s="371" t="s">
+      <c r="F84" s="380" t="s">
         <v>287</v>
       </c>
-      <c r="G84" s="375" t="s">
+      <c r="G84" s="384" t="s">
         <v>115</v>
       </c>
       <c r="H84" s="96"/>
       <c r="I84" s="96"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="371" t="s">
+      <c r="A85" s="380" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="371" t="s">
+      <c r="B85" s="380" t="s">
         <v>289</v>
       </c>
-      <c r="C85" s="372">
+      <c r="C85" s="381">
         <v>46.49</v>
       </c>
-      <c r="D85" s="372">
+      <c r="D85" s="381">
         <v>3.518</v>
       </c>
-      <c r="E85" s="372">
+      <c r="E85" s="381">
         <v>214.972899728997</v>
       </c>
-      <c r="F85" s="371" t="s">
+      <c r="F85" s="380" t="s">
         <v>290</v>
       </c>
-      <c r="G85" s="375" t="s">
+      <c r="G85" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="96"/>
       <c r="I85" s="96"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="371" t="s">
+      <c r="A86" s="380" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="371" t="s">
+      <c r="B86" s="380" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="372">
+      <c r="C86" s="381">
         <v>26.06</v>
       </c>
-      <c r="D86" s="372">
+      <c r="D86" s="381">
         <v>-0.077</v>
       </c>
-      <c r="E86" s="372">
+      <c r="E86" s="381">
         <v>213.975903614458</v>
       </c>
-      <c r="F86" s="371" t="s">
+      <c r="F86" s="380" t="s">
         <v>293</v>
       </c>
-      <c r="G86" s="375" t="s">
+      <c r="G86" s="384" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="96"/>
       <c r="I86" s="96"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="371" t="s">
+      <c r="A87" s="380" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="371" t="s">
+      <c r="B87" s="380" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="372">
+      <c r="C87" s="381">
         <v>18.85</v>
       </c>
-      <c r="D87" s="372">
+      <c r="D87" s="381">
         <v>4.144</v>
       </c>
-      <c r="E87" s="372">
+      <c r="E87" s="381">
         <v>213.12292358804</v>
       </c>
-      <c r="F87" s="371" t="s">
+      <c r="F87" s="380" t="s">
         <v>296</v>
       </c>
-      <c r="G87" s="375" t="s">
+      <c r="G87" s="384" t="s">
         <v>119</v>
       </c>
       <c r="H87" s="96"/>
       <c r="I87" s="96"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="371" t="s">
+      <c r="A88" s="380" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="371" t="s">
+      <c r="B88" s="380" t="s">
         <v>298</v>
       </c>
-      <c r="C88" s="372">
+      <c r="C88" s="381">
         <v>22.45</v>
       </c>
-      <c r="D88" s="372">
+      <c r="D88" s="381">
         <v>9.995</v>
       </c>
-      <c r="E88" s="372">
+      <c r="E88" s="381">
         <v>212.239221140473</v>
       </c>
-      <c r="F88" s="371" t="s">
+      <c r="F88" s="380" t="s">
         <v>299</v>
       </c>
-      <c r="G88" s="375" t="s">
+      <c r="G88" s="384" t="s">
         <v>83</v>
       </c>
       <c r="H88" s="96"/>
       <c r="I88" s="96"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="371" t="s">
+      <c r="A89" s="380" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="371" t="s">
+      <c r="B89" s="380" t="s">
         <v>301</v>
       </c>
-      <c r="C89" s="372">
+      <c r="C89" s="381">
         <v>114.36</v>
       </c>
-      <c r="D89" s="372">
+      <c r="D89" s="381">
         <v>5.518</v>
       </c>
-      <c r="E89" s="372">
+      <c r="E89" s="381">
         <v>211.607629427793</v>
       </c>
-      <c r="F89" s="371" t="s">
+      <c r="F89" s="380" t="s">
         <v>302</v>
       </c>
-      <c r="G89" s="375" t="s">
+      <c r="G89" s="384" t="s">
         <v>123</v>
       </c>
       <c r="H89" s="96"/>
       <c r="I89" s="96"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="371" t="s">
+      <c r="A90" s="380" t="s">
         <v>303</v>
       </c>
-      <c r="B90" s="371" t="s">
+      <c r="B90" s="380" t="s">
         <v>304</v>
       </c>
-      <c r="C90" s="372">
+      <c r="C90" s="381">
         <v>28.91</v>
       </c>
-      <c r="D90" s="372">
+      <c r="D90" s="381">
         <v>4.898</v>
       </c>
-      <c r="E90" s="372">
+      <c r="E90" s="381">
         <v>209.528907922912</v>
       </c>
-      <c r="F90" s="371" t="s">
+      <c r="F90" s="380" t="s">
         <v>305</v>
       </c>
-      <c r="G90" s="375" t="s">
+      <c r="G90" s="384" t="s">
         <v>127</v>
       </c>
       <c r="H90" s="96"/>
       <c r="I90" s="96"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="371" t="s">
+      <c r="A91" s="380" t="s">
         <v>306</v>
       </c>
-      <c r="B91" s="371" t="s">
+      <c r="B91" s="380" t="s">
         <v>307</v>
       </c>
-      <c r="C91" s="372">
+      <c r="C91" s="381">
         <v>108.8</v>
       </c>
-      <c r="D91" s="372">
+      <c r="D91" s="381">
         <v>0.946</v>
       </c>
-      <c r="E91" s="372">
+      <c r="E91" s="381">
         <v>208.390022675737</v>
       </c>
-      <c r="F91" s="371" t="s">
+      <c r="F91" s="380" t="s">
         <v>308</v>
       </c>
-      <c r="G91" s="375" t="s">
+      <c r="G91" s="384" t="s">
         <v>131</v>
       </c>
       <c r="H91" s="96"/>
       <c r="I91" s="96"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="371" t="s">
+      <c r="A92" s="380" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="371" t="s">
+      <c r="B92" s="380" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="372">
+      <c r="C92" s="381">
         <v>241.14</v>
       </c>
-      <c r="D92" s="372">
+      <c r="D92" s="381">
         <v>3.904</v>
       </c>
-      <c r="E92" s="372">
+      <c r="E92" s="381">
         <v>207.458880530409</v>
       </c>
-      <c r="F92" s="371" t="s">
+      <c r="F92" s="380" t="s">
         <v>311</v>
       </c>
-      <c r="G92" s="375" t="s">
+      <c r="G92" s="384" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="96"/>
@@ -10212,11 +10379,11 @@
   <dimension ref="A1:AN208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AH74" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M90" sqref="M90"/>
+      <selection pane="bottomRight" activeCell="A79" sqref="$A79:$XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -15179,7 +15346,7 @@
       <c r="AM67" s="322"/>
     </row>
     <row r="68" s="244" customFormat="1" ht="25" spans="1:39">
-      <c r="A68" s="376" t="s">
+      <c r="A68" s="385" t="s">
         <v>399</v>
       </c>
       <c r="B68" s="315" t="s">
@@ -15426,10 +15593,10 @@
       <c r="P70" s="336">
         <v>29.05</v>
       </c>
-      <c r="Q70" s="360">
+      <c r="Q70" s="362">
         <v>34.35</v>
       </c>
-      <c r="R70" s="360">
+      <c r="R70" s="362">
         <v>31.5</v>
       </c>
       <c r="S70" s="336">
@@ -15587,7 +15754,7 @@
       <c r="AM72" s="322"/>
     </row>
     <row r="73" spans="1:39">
-      <c r="A73" s="377" t="s">
+      <c r="A73" s="386" t="s">
         <v>409</v>
       </c>
       <c r="B73" s="338" t="s">
@@ -15635,7 +15802,7 @@
       <c r="AM73" s="322"/>
     </row>
     <row r="74" s="244" customFormat="1" ht="38" spans="1:39">
-      <c r="A74" s="378" t="s">
+      <c r="A74" s="387" t="s">
         <v>411</v>
       </c>
       <c r="B74" s="315" t="s">
@@ -15696,7 +15863,7 @@
         <v>374</v>
       </c>
       <c r="Z74" s="293">
-        <f t="shared" ref="Z74:Z93" si="32">(I74-N74)/I74</f>
+        <f t="shared" ref="Z74:Z97" si="32">(I74-N74)/I74</f>
         <v>0.146166134185303</v>
       </c>
       <c r="AA74" s="289">
@@ -15739,7 +15906,7 @@
       </c>
     </row>
     <row r="75" ht="25" spans="1:39">
-      <c r="A75" s="377" t="s">
+      <c r="A75" s="386" t="s">
         <v>416</v>
       </c>
       <c r="B75" s="338" t="s">
@@ -15752,7 +15919,7 @@
       <c r="G75" s="82"/>
       <c r="H75" s="82"/>
       <c r="I75" s="82"/>
-      <c r="J75" s="350"/>
+      <c r="J75" s="351"/>
       <c r="K75" s="286" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -15807,7 +15974,7 @@
       <c r="AM75" s="322"/>
     </row>
     <row r="76" s="244" customFormat="1" ht="25" spans="1:39">
-      <c r="A76" s="378" t="s">
+      <c r="A76" s="387" t="s">
         <v>418</v>
       </c>
       <c r="B76" s="315" t="s">
@@ -16004,7 +16171,7 @@
       <c r="I78" s="82">
         <v>8.15</v>
       </c>
-      <c r="J78" s="350">
+      <c r="J78" s="351">
         <v>4.39</v>
       </c>
       <c r="K78" s="286">
@@ -16070,110 +16237,110 @@
       <c r="AL78" s="323" t="s">
         <v>396</v>
       </c>
-      <c r="AM78" s="366"/>
-    </row>
-    <row r="79" s="245" customFormat="1" ht="36" spans="1:39">
-      <c r="A79" s="335">
+      <c r="AM78" s="372"/>
+    </row>
+    <row r="79" s="7" customFormat="1" ht="36" spans="1:39">
+      <c r="A79" s="339">
         <v>600821</v>
       </c>
-      <c r="B79" s="316" t="s">
+      <c r="B79" s="314" t="s">
         <v>423</v>
       </c>
-      <c r="C79" s="336"/>
-      <c r="D79" s="336"/>
-      <c r="E79" s="336"/>
-      <c r="F79" s="336"/>
-      <c r="G79" s="336">
+      <c r="C79" s="82"/>
+      <c r="D79" s="82"/>
+      <c r="E79" s="82"/>
+      <c r="F79" s="82"/>
+      <c r="G79" s="82">
         <v>11.19</v>
       </c>
-      <c r="H79" s="336">
+      <c r="H79" s="82">
         <v>3.98</v>
       </c>
-      <c r="I79" s="336">
+      <c r="I79" s="82">
         <v>13.3</v>
       </c>
-      <c r="J79" s="296">
+      <c r="J79" s="351">
         <v>5.61</v>
       </c>
-      <c r="K79" s="291">
+      <c r="K79" s="286">
         <f t="shared" si="29"/>
         <v>1.81155778894472</v>
       </c>
-      <c r="L79" s="291">
+      <c r="L79" s="286">
         <f t="shared" si="30"/>
         <v>0.158646616541353</v>
       </c>
-      <c r="M79" s="306">
+      <c r="M79" s="305">
         <f t="shared" si="31"/>
         <v>1.37076648841355</v>
       </c>
-      <c r="N79" s="336">
+      <c r="N79" s="82">
         <v>9.13</v>
       </c>
-      <c r="O79" s="336">
+      <c r="O79" s="82">
         <v>11.46</v>
       </c>
-      <c r="P79" s="336">
+      <c r="P79" s="82">
         <v>9.65</v>
       </c>
-      <c r="Q79" s="336">
+      <c r="Q79" s="82">
         <v>11.75</v>
       </c>
-      <c r="R79" s="336">
+      <c r="R79" s="82">
         <v>10.9</v>
       </c>
-      <c r="S79" s="336"/>
-      <c r="T79" s="336"/>
-      <c r="U79" s="336"/>
-      <c r="V79" s="336"/>
-      <c r="W79" s="336"/>
-      <c r="X79" s="336"/>
-      <c r="Y79" s="336" t="s">
+      <c r="S79" s="82"/>
+      <c r="T79" s="82"/>
+      <c r="U79" s="82"/>
+      <c r="V79" s="82"/>
+      <c r="W79" s="82"/>
+      <c r="X79" s="82"/>
+      <c r="Y79" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="Z79" s="308">
+      <c r="Z79" s="294">
         <f t="shared" si="32"/>
         <v>0.313533834586466</v>
       </c>
-      <c r="AA79" s="291">
+      <c r="AA79" s="286">
         <f t="shared" si="33"/>
         <v>0.157940663176265</v>
       </c>
-      <c r="AB79" s="291">
+      <c r="AB79" s="286">
         <f t="shared" si="34"/>
         <v>0.0723404255319149</v>
       </c>
-      <c r="AC79" s="291" t="e">
+      <c r="AC79" s="286" t="e">
         <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD79" s="336"/>
-      <c r="AE79" s="336"/>
-      <c r="AF79" s="336"/>
-      <c r="AG79" s="316" t="s">
+      <c r="AD79" s="82"/>
+      <c r="AE79" s="82"/>
+      <c r="AF79" s="82"/>
+      <c r="AG79" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="AH79" s="318" t="s">
+      <c r="AH79" s="323" t="s">
         <v>403</v>
       </c>
-      <c r="AI79" s="316" t="s">
+      <c r="AI79" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="AJ79" s="316" t="s">
+      <c r="AJ79" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="AK79" s="316" t="s">
+      <c r="AK79" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="AL79" s="318" t="s">
+      <c r="AL79" s="323" t="s">
         <v>424</v>
       </c>
-      <c r="AM79" s="328">
+      <c r="AM79" s="324">
         <v>44545</v>
       </c>
     </row>
     <row r="80" ht="25" spans="1:39">
-      <c r="A80" s="377" t="s">
+      <c r="A80" s="386" t="s">
         <v>425</v>
       </c>
       <c r="B80" s="338" t="s">
@@ -16261,7 +16428,7 @@
       <c r="AM80" s="322"/>
     </row>
     <row r="81" ht="25" spans="1:39">
-      <c r="A81" s="377" t="s">
+      <c r="A81" s="386" t="s">
         <v>427</v>
       </c>
       <c r="B81" s="338" t="s">
@@ -16414,11 +16581,11 @@
         <v>35.47</v>
       </c>
       <c r="K83" s="289">
-        <f t="shared" ref="K83:K93" si="35">(G83-H83)/H83</f>
+        <f t="shared" ref="K83:K97" si="35">(G83-H83)/H83</f>
         <v>0.346489991542148</v>
       </c>
       <c r="L83" s="289">
-        <f t="shared" ref="L83:L93" si="36">(I83-G83)/I83</f>
+        <f t="shared" ref="L83:L97" si="36">(I83-G83)/I83</f>
         <v>0.229428848015489</v>
       </c>
       <c r="M83" s="304">
@@ -16440,8 +16607,8 @@
       <c r="R83" s="268">
         <v>45.46</v>
       </c>
-      <c r="S83" s="361"/>
-      <c r="T83" s="361"/>
+      <c r="S83" s="363"/>
+      <c r="T83" s="363"/>
       <c r="U83" s="268"/>
       <c r="V83" s="268"/>
       <c r="W83" s="268"/>
@@ -16822,14 +16989,14 @@
       <c r="I87" s="342">
         <v>31.94</v>
       </c>
-      <c r="J87" s="351">
+      <c r="J87" s="352">
         <v>21.54</v>
       </c>
-      <c r="K87" s="352">
+      <c r="K87" s="353">
         <f t="shared" si="35"/>
         <v>0.879668049792531</v>
       </c>
-      <c r="L87" s="352">
+      <c r="L87" s="353">
         <f t="shared" si="36"/>
         <v>0.149029430181591</v>
       </c>
@@ -16885,7 +17052,7 @@
         <f t="shared" ref="AD87:AD90" si="38">(U87-V87)/U87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE87" s="364" t="e">
+      <c r="AE87" s="369" t="e">
         <f t="shared" ref="AE87:AE90" si="39">(W87-X87)/W87</f>
         <v>#DIV/0!</v>
       </c>
@@ -16928,12 +17095,12 @@
       <c r="I88" s="342">
         <v>11.8</v>
       </c>
-      <c r="J88" s="353"/>
-      <c r="K88" s="352">
+      <c r="J88" s="354"/>
+      <c r="K88" s="353">
         <f t="shared" si="35"/>
         <v>0.987577639751553</v>
       </c>
-      <c r="L88" s="352">
+      <c r="L88" s="353">
         <f t="shared" si="36"/>
         <v>0.186440677966102</v>
       </c>
@@ -16969,11 +17136,11 @@
         <f t="shared" si="32"/>
         <v>0.355932203389831</v>
       </c>
-      <c r="AA88" s="352">
+      <c r="AA88" s="353">
         <f t="shared" si="33"/>
         <v>0.167875647668394</v>
       </c>
-      <c r="AB88" s="352">
+      <c r="AB88" s="353">
         <f t="shared" si="34"/>
         <v>0.134241245136187</v>
       </c>
@@ -16990,14 +17157,14 @@
         <v>447</v>
       </c>
       <c r="AG88" s="342"/>
-      <c r="AH88" s="362"/>
-      <c r="AI88" s="362"/>
-      <c r="AJ88" s="362"/>
-      <c r="AK88" s="362"/>
+      <c r="AH88" s="364"/>
+      <c r="AI88" s="364"/>
+      <c r="AJ88" s="364"/>
+      <c r="AK88" s="364"/>
       <c r="AL88" s="325" t="s">
         <v>444</v>
       </c>
-      <c r="AM88" s="362"/>
+      <c r="AM88" s="364"/>
     </row>
     <row r="89" s="251" customFormat="1" ht="25" spans="1:39">
       <c r="A89" s="340" t="s">
@@ -17025,12 +17192,12 @@
       <c r="I89" s="342">
         <v>26.64</v>
       </c>
-      <c r="J89" s="353"/>
-      <c r="K89" s="352">
+      <c r="J89" s="354"/>
+      <c r="K89" s="353">
         <f t="shared" si="35"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L89" s="352">
+      <c r="L89" s="353">
         <f t="shared" si="36"/>
         <v>0.123498498498498</v>
       </c>
@@ -17053,8 +17220,8 @@
       <c r="R89" s="342">
         <v>21.21</v>
       </c>
-      <c r="S89" s="362"/>
-      <c r="T89" s="362"/>
+      <c r="S89" s="364"/>
+      <c r="T89" s="364"/>
       <c r="U89" s="342"/>
       <c r="V89" s="342"/>
       <c r="W89" s="342"/>
@@ -17066,11 +17233,11 @@
         <f t="shared" si="32"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="AA89" s="352">
+      <c r="AA89" s="353">
         <f t="shared" si="33"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AB89" s="352">
+      <c r="AB89" s="353">
         <f t="shared" si="34"/>
         <v>0.12716049382716</v>
       </c>
@@ -17082,7 +17249,7 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE89" s="364" t="e">
+      <c r="AE89" s="369" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
@@ -17090,14 +17257,14 @@
         <v>447</v>
       </c>
       <c r="AG89" s="342"/>
-      <c r="AH89" s="362"/>
-      <c r="AI89" s="362"/>
-      <c r="AJ89" s="362"/>
-      <c r="AK89" s="362"/>
+      <c r="AH89" s="364"/>
+      <c r="AI89" s="364"/>
+      <c r="AJ89" s="364"/>
+      <c r="AK89" s="364"/>
       <c r="AL89" s="325" t="s">
         <v>444</v>
       </c>
-      <c r="AM89" s="362"/>
+      <c r="AM89" s="364"/>
     </row>
     <row r="90" s="245" customFormat="1" ht="25" spans="1:39">
       <c r="A90" s="271">
@@ -17125,12 +17292,12 @@
       <c r="I90" s="345">
         <v>160.57</v>
       </c>
-      <c r="J90" s="354"/>
-      <c r="K90" s="355">
+      <c r="J90" s="355"/>
+      <c r="K90" s="356">
         <f t="shared" si="35"/>
         <v>1.36015519568151</v>
       </c>
-      <c r="L90" s="355">
+      <c r="L90" s="356">
         <f t="shared" si="36"/>
         <v>0.128666625147911</v>
       </c>
@@ -17171,23 +17338,23 @@
         <f t="shared" si="32"/>
         <v>0.417201220651429</v>
       </c>
-      <c r="AA90" s="355">
+      <c r="AA90" s="356">
         <f t="shared" si="33"/>
         <v>0.167556888856369</v>
       </c>
-      <c r="AB90" s="355">
+      <c r="AB90" s="356">
         <f t="shared" si="34"/>
         <v>0.158180583842498</v>
       </c>
-      <c r="AC90" s="355">
+      <c r="AC90" s="356">
         <f t="shared" si="28"/>
         <v>0.10876867004931</v>
       </c>
-      <c r="AD90" s="359">
-        <f t="shared" ref="AD90:AD93" si="40">(U90-V90)/U90</f>
+      <c r="AD90" s="360">
+        <f t="shared" ref="AD90:AD94" si="40">(U90-V90)/U90</f>
         <v>0.0959666203059806</v>
       </c>
-      <c r="AE90" s="365" t="e">
+      <c r="AE90" s="370" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
@@ -17212,119 +17379,119 @@
       <c r="AL90" s="318" t="s">
         <v>453</v>
       </c>
-      <c r="AM90" s="367">
+      <c r="AM90" s="373">
         <v>44545</v>
       </c>
     </row>
-    <row r="91" s="245" customFormat="1" ht="24" spans="1:39">
+    <row r="91" s="7" customFormat="1" ht="24" spans="1:39">
       <c r="A91" s="346" t="s">
         <v>454</v>
       </c>
-      <c r="B91" s="316" t="s">
+      <c r="B91" s="314" t="s">
         <v>455</v>
       </c>
-      <c r="C91" s="336">
+      <c r="C91" s="82">
         <v>22.56</v>
       </c>
-      <c r="D91" s="336">
+      <c r="D91" s="82">
         <v>23.69</v>
       </c>
-      <c r="E91" s="336">
+      <c r="E91" s="82">
         <v>25.81</v>
       </c>
-      <c r="F91" s="336"/>
-      <c r="G91" s="336">
+      <c r="F91" s="82"/>
+      <c r="G91" s="82">
         <v>27.74</v>
       </c>
-      <c r="H91" s="336">
+      <c r="H91" s="82">
         <v>11.84</v>
       </c>
-      <c r="I91" s="336">
+      <c r="I91" s="82">
         <v>33.68</v>
       </c>
-      <c r="J91" s="296">
+      <c r="J91" s="351">
         <v>21.84</v>
       </c>
-      <c r="K91" s="291">
+      <c r="K91" s="286">
         <f t="shared" si="35"/>
         <v>1.34290540540541</v>
       </c>
-      <c r="L91" s="291">
+      <c r="L91" s="286">
         <f t="shared" si="36"/>
         <v>0.176365795724466</v>
       </c>
-      <c r="M91" s="306">
-        <f>(I91-J91)/J91</f>
+      <c r="M91" s="305">
+        <f t="shared" ref="M91:M97" si="41">(I91-J91)/J91</f>
         <v>0.542124542124542</v>
       </c>
-      <c r="N91" s="336">
+      <c r="N91" s="82">
         <v>21.76</v>
       </c>
-      <c r="O91" s="336">
+      <c r="O91" s="82">
         <v>27.18</v>
       </c>
-      <c r="P91" s="336">
+      <c r="P91" s="82">
         <v>23.48</v>
       </c>
-      <c r="Q91" s="336">
+      <c r="Q91" s="82">
         <v>26.77</v>
       </c>
-      <c r="R91" s="336">
+      <c r="R91" s="82">
         <v>24.25</v>
       </c>
-      <c r="S91" s="336">
+      <c r="S91" s="82">
         <v>27.73</v>
       </c>
-      <c r="T91" s="336">
+      <c r="T91" s="82">
         <v>25.3</v>
       </c>
-      <c r="U91" s="336"/>
-      <c r="V91" s="336"/>
-      <c r="W91" s="336"/>
-      <c r="X91" s="336"/>
-      <c r="Y91" s="336" t="s">
+      <c r="U91" s="82"/>
+      <c r="V91" s="82"/>
+      <c r="W91" s="82"/>
+      <c r="X91" s="82"/>
+      <c r="Y91" s="82" t="s">
         <v>380</v>
       </c>
-      <c r="Z91" s="308">
+      <c r="Z91" s="294">
         <f t="shared" si="32"/>
         <v>0.353919239904988</v>
       </c>
-      <c r="AA91" s="359">
-        <f t="shared" ref="AA91:AA93" si="41">(O91-P91)/O91</f>
+      <c r="AA91" s="368">
+        <f t="shared" ref="AA91:AA97" si="42">(O91-P91)/O91</f>
         <v>0.136129506990434</v>
       </c>
-      <c r="AB91" s="359">
-        <f t="shared" ref="AB91:AB93" si="42">(Q91-R91)/Q91</f>
+      <c r="AB91" s="368">
+        <f t="shared" ref="AB91:AB97" si="43">(Q91-R91)/Q91</f>
         <v>0.0941352259992529</v>
       </c>
-      <c r="AC91" s="291">
+      <c r="AC91" s="286">
         <f t="shared" si="28"/>
         <v>0.0876307248467364</v>
       </c>
-      <c r="AD91" s="336"/>
-      <c r="AE91" s="336"/>
-      <c r="AF91" s="336" t="s">
+      <c r="AD91" s="82"/>
+      <c r="AE91" s="82"/>
+      <c r="AF91" s="82" t="s">
         <v>432</v>
       </c>
-      <c r="AG91" s="316" t="s">
+      <c r="AG91" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="AH91" s="316" t="s">
+      <c r="AH91" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="AI91" s="316" t="s">
+      <c r="AI91" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="AJ91" s="316" t="s">
+      <c r="AJ91" s="314" t="s">
         <v>358</v>
       </c>
-      <c r="AK91" s="316" t="s">
+      <c r="AK91" s="314" t="s">
         <v>361</v>
       </c>
-      <c r="AL91" s="318" t="s">
+      <c r="AL91" s="323" t="s">
         <v>456</v>
       </c>
-      <c r="AM91" s="367">
+      <c r="AM91" s="374">
         <v>44545</v>
       </c>
     </row>
@@ -17354,17 +17521,17 @@
       <c r="I92" s="342">
         <v>29.3</v>
       </c>
-      <c r="J92" s="356"/>
-      <c r="K92" s="357">
+      <c r="J92" s="357"/>
+      <c r="K92" s="358">
         <f t="shared" si="35"/>
         <v>1.66884531590414</v>
       </c>
-      <c r="L92" s="357">
+      <c r="L92" s="358">
         <f t="shared" si="36"/>
         <v>0.16382252559727</v>
       </c>
       <c r="M92" s="304" t="e">
-        <f>(I92-J92)/J92</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N92" s="342">
@@ -17399,23 +17566,23 @@
         <f t="shared" si="32"/>
         <v>0.349829351535836</v>
       </c>
-      <c r="AA92" s="357">
-        <f t="shared" si="41"/>
+      <c r="AA92" s="358">
+        <f t="shared" si="42"/>
         <v>0.138804015713662</v>
       </c>
-      <c r="AB92" s="357">
-        <f t="shared" si="42"/>
+      <c r="AB92" s="358">
+        <f t="shared" si="43"/>
         <v>0.137996219281663</v>
       </c>
-      <c r="AC92" s="357">
+      <c r="AC92" s="358">
         <f t="shared" si="28"/>
         <v>0.136801541425819</v>
       </c>
-      <c r="AD92" s="352" t="e">
+      <c r="AD92" s="353" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE92" s="364" t="e">
+      <c r="AE92" s="369" t="e">
         <f>(W92-X92)/W92</f>
         <v>#DIV/0!</v>
       </c>
@@ -17428,12 +17595,12 @@
       <c r="AJ92" s="280"/>
       <c r="AK92" s="280"/>
       <c r="AL92" s="280"/>
-      <c r="AM92" s="368">
+      <c r="AM92" s="375">
         <v>44545</v>
       </c>
     </row>
     <row r="93" s="245" customFormat="1" ht="38" spans="1:39">
-      <c r="A93" s="379" t="s">
+      <c r="A93" s="388" t="s">
         <v>458</v>
       </c>
       <c r="B93" s="336" t="s">
@@ -17460,19 +17627,19 @@
       <c r="I93" s="348">
         <v>90.29</v>
       </c>
-      <c r="J93" s="358">
+      <c r="J93" s="359">
         <v>64.66</v>
       </c>
-      <c r="K93" s="359">
+      <c r="K93" s="360">
         <f t="shared" si="35"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L93" s="359">
+      <c r="L93" s="360">
         <f t="shared" si="36"/>
         <v>0.234023701406579</v>
       </c>
       <c r="M93" s="306">
-        <f>(I93-J93)/J93</f>
+        <f t="shared" si="41"/>
         <v>0.396381070213424</v>
       </c>
       <c r="N93" s="348">
@@ -17490,8 +17657,8 @@
       <c r="R93" s="348">
         <v>70.54</v>
       </c>
-      <c r="S93" s="363"/>
-      <c r="T93" s="363"/>
+      <c r="S93" s="365"/>
+      <c r="T93" s="365"/>
       <c r="U93" s="348"/>
       <c r="V93" s="348"/>
       <c r="W93" s="348"/>
@@ -17503,20 +17670,20 @@
         <f t="shared" si="32"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="AA93" s="359">
-        <f t="shared" si="41"/>
+      <c r="AA93" s="360">
+        <f t="shared" si="42"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AB93" s="359">
-        <f t="shared" si="42"/>
+      <c r="AB93" s="360">
+        <f t="shared" si="43"/>
         <v>0.09540907925109</v>
       </c>
-      <c r="AC93" s="359"/>
-      <c r="AD93" s="359" t="e">
+      <c r="AC93" s="360"/>
+      <c r="AD93" s="360" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE93" s="365" t="e">
+      <c r="AE93" s="370" t="e">
         <f>(W93-X93)/W93</f>
         <v>#DIV/0!</v>
       </c>
@@ -17541,176 +17708,475 @@
       <c r="AL93" s="318" t="s">
         <v>392</v>
       </c>
-      <c r="AM93" s="367">
+      <c r="AM93" s="373">
         <v>44545</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
-      <c r="A94" s="349"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="84"/>
-      <c r="G94" s="84"/>
-      <c r="H94" s="84"/>
-      <c r="I94" s="84"/>
-      <c r="J94" s="287"/>
-      <c r="K94" s="84"/>
-      <c r="L94" s="84"/>
-      <c r="M94" s="300"/>
-      <c r="N94" s="84"/>
-      <c r="O94" s="84"/>
-      <c r="P94" s="84"/>
-      <c r="Q94" s="84"/>
-      <c r="R94" s="84"/>
-      <c r="S94" s="84"/>
-      <c r="T94" s="84"/>
-      <c r="U94" s="84"/>
-      <c r="V94" s="84"/>
-      <c r="W94" s="84"/>
-      <c r="X94" s="84"/>
-      <c r="Y94" s="84"/>
-      <c r="Z94" s="84"/>
-      <c r="AA94" s="84"/>
-      <c r="AB94" s="84"/>
-      <c r="AC94" s="84"/>
-      <c r="AD94" s="84"/>
-      <c r="AE94" s="84"/>
-      <c r="AF94" s="84"/>
-      <c r="AG94" s="84"/>
-      <c r="AH94" s="84"/>
-      <c r="AI94" s="84"/>
-      <c r="AJ94" s="84"/>
-      <c r="AK94" s="84"/>
-      <c r="AL94" s="84"/>
-      <c r="AM94" s="84"/>
-    </row>
-    <row r="95" spans="1:39">
-      <c r="A95" s="349"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="84"/>
-      <c r="G95" s="84"/>
-      <c r="H95" s="84"/>
-      <c r="I95" s="84"/>
-      <c r="J95" s="287"/>
-      <c r="K95" s="84"/>
-      <c r="L95" s="84"/>
-      <c r="M95" s="300"/>
-      <c r="N95" s="84"/>
-      <c r="O95" s="84"/>
-      <c r="P95" s="84"/>
-      <c r="Q95" s="84"/>
-      <c r="R95" s="84"/>
-      <c r="S95" s="84"/>
-      <c r="T95" s="84"/>
-      <c r="U95" s="84"/>
-      <c r="V95" s="84"/>
-      <c r="W95" s="84"/>
-      <c r="X95" s="84"/>
-      <c r="Y95" s="84"/>
-      <c r="Z95" s="84"/>
-      <c r="AA95" s="84"/>
-      <c r="AB95" s="84"/>
-      <c r="AC95" s="84"/>
-      <c r="AD95" s="84"/>
-      <c r="AE95" s="84"/>
-      <c r="AF95" s="84"/>
-      <c r="AG95" s="84"/>
-      <c r="AH95" s="84"/>
-      <c r="AI95" s="84"/>
-      <c r="AJ95" s="84"/>
-      <c r="AK95" s="84"/>
-      <c r="AL95" s="84"/>
-      <c r="AM95" s="84"/>
-    </row>
-    <row r="96" spans="1:39">
-      <c r="A96" s="349"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="84"/>
-      <c r="G96" s="84"/>
-      <c r="H96" s="84"/>
-      <c r="I96" s="84"/>
-      <c r="J96" s="287"/>
-      <c r="K96" s="84"/>
-      <c r="L96" s="84"/>
-      <c r="M96" s="300"/>
-      <c r="N96" s="84"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="84"/>
-      <c r="R96" s="84"/>
-      <c r="S96" s="84"/>
-      <c r="T96" s="84"/>
-      <c r="U96" s="84"/>
-      <c r="V96" s="84"/>
-      <c r="W96" s="84"/>
-      <c r="X96" s="84"/>
-      <c r="Y96" s="84"/>
-      <c r="Z96" s="84"/>
-      <c r="AA96" s="84"/>
-      <c r="AB96" s="84"/>
-      <c r="AC96" s="84"/>
-      <c r="AD96" s="84"/>
-      <c r="AE96" s="84"/>
-      <c r="AF96" s="84"/>
-      <c r="AG96" s="84"/>
-      <c r="AH96" s="84"/>
-      <c r="AI96" s="84"/>
-      <c r="AJ96" s="84"/>
-      <c r="AK96" s="84"/>
-      <c r="AL96" s="84"/>
-      <c r="AM96" s="84"/>
-    </row>
-    <row r="97" spans="1:39">
-      <c r="A97" s="349"/>
-      <c r="B97" s="84"/>
-      <c r="C97" s="84"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="84"/>
-      <c r="G97" s="84"/>
-      <c r="H97" s="84"/>
-      <c r="I97" s="84"/>
-      <c r="J97" s="287"/>
-      <c r="K97" s="84"/>
-      <c r="L97" s="84"/>
-      <c r="M97" s="300"/>
-      <c r="N97" s="84"/>
-      <c r="O97" s="84"/>
-      <c r="P97" s="84"/>
-      <c r="Q97" s="84"/>
-      <c r="R97" s="84"/>
-      <c r="S97" s="84"/>
-      <c r="T97" s="84"/>
-      <c r="U97" s="84"/>
-      <c r="V97" s="84"/>
-      <c r="W97" s="84"/>
-      <c r="X97" s="84"/>
-      <c r="Y97" s="84"/>
-      <c r="Z97" s="84"/>
-      <c r="AA97" s="84"/>
-      <c r="AB97" s="84"/>
-      <c r="AC97" s="84"/>
-      <c r="AD97" s="84"/>
-      <c r="AE97" s="84"/>
-      <c r="AF97" s="84"/>
-      <c r="AG97" s="84"/>
-      <c r="AH97" s="84"/>
-      <c r="AI97" s="84"/>
-      <c r="AJ97" s="84"/>
-      <c r="AK97" s="84"/>
-      <c r="AL97" s="84"/>
-      <c r="AM97" s="84"/>
+    <row r="94" ht="45" spans="1:39">
+      <c r="A94" s="389" t="s">
+        <v>461</v>
+      </c>
+      <c r="B94" s="78" t="s">
+        <v>462</v>
+      </c>
+      <c r="C94" s="349">
+        <v>233.72</v>
+      </c>
+      <c r="D94" s="349">
+        <v>235.3</v>
+      </c>
+      <c r="E94" s="349">
+        <v>249.3</v>
+      </c>
+      <c r="F94" s="349"/>
+      <c r="G94" s="349">
+        <v>278</v>
+      </c>
+      <c r="H94" s="349">
+        <v>177.01</v>
+      </c>
+      <c r="I94" s="349">
+        <v>293.5</v>
+      </c>
+      <c r="J94" s="349">
+        <v>223.48</v>
+      </c>
+      <c r="K94" s="361">
+        <f t="shared" si="35"/>
+        <v>0.570532738263375</v>
+      </c>
+      <c r="L94" s="361">
+        <f t="shared" si="36"/>
+        <v>0.0528109028960818</v>
+      </c>
+      <c r="M94" s="361">
+        <f t="shared" si="41"/>
+        <v>0.313316627886164</v>
+      </c>
+      <c r="N94" s="349">
+        <v>177.01</v>
+      </c>
+      <c r="O94" s="349">
+        <v>234.78</v>
+      </c>
+      <c r="P94" s="349">
+        <v>200.98</v>
+      </c>
+      <c r="Q94" s="349">
+        <v>253.33</v>
+      </c>
+      <c r="R94" s="349">
+        <v>217.59</v>
+      </c>
+      <c r="S94" s="349">
+        <v>273.25</v>
+      </c>
+      <c r="T94" s="349">
+        <v>249.5</v>
+      </c>
+      <c r="U94" s="367">
+        <v>278</v>
+      </c>
+      <c r="V94" s="362">
+        <v>260.02</v>
+      </c>
+      <c r="W94" s="362"/>
+      <c r="X94" s="362"/>
+      <c r="Y94" s="349" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z94" s="361">
+        <f t="shared" si="32"/>
+        <v>0.396899488926746</v>
+      </c>
+      <c r="AA94" s="361">
+        <f t="shared" si="42"/>
+        <v>0.143964562569214</v>
+      </c>
+      <c r="AB94" s="361">
+        <f t="shared" si="43"/>
+        <v>0.141080803694785</v>
+      </c>
+      <c r="AC94" s="361">
+        <f t="shared" ref="AC94:AC97" si="44">(S94-T94)/S94</f>
+        <v>0.0869167429094236</v>
+      </c>
+      <c r="AD94" s="361">
+        <f t="shared" si="40"/>
+        <v>0.0646762589928058</v>
+      </c>
+      <c r="AE94" s="361"/>
+      <c r="AF94" s="349" t="s">
+        <v>464</v>
+      </c>
+      <c r="AG94" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AH94" s="371" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI94" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ94" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK94" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL94" s="376" t="s">
+        <v>465</v>
+      </c>
+      <c r="AM94" s="377">
+        <v>44546</v>
+      </c>
+    </row>
+    <row r="95" ht="45" spans="1:39">
+      <c r="A95" s="78">
+        <v>600436</v>
+      </c>
+      <c r="B95" s="78" t="s">
+        <v>466</v>
+      </c>
+      <c r="C95" s="349">
+        <v>387.73</v>
+      </c>
+      <c r="D95" s="349">
+        <v>398.52</v>
+      </c>
+      <c r="E95" s="349">
+        <v>432.45</v>
+      </c>
+      <c r="F95" s="349"/>
+      <c r="G95" s="349">
+        <v>457.7</v>
+      </c>
+      <c r="H95" s="349">
+        <v>221.1</v>
+      </c>
+      <c r="I95" s="349">
+        <v>491.88</v>
+      </c>
+      <c r="J95" s="349">
+        <v>368.8</v>
+      </c>
+      <c r="K95" s="361">
+        <f t="shared" si="35"/>
+        <v>1.07010402532791</v>
+      </c>
+      <c r="L95" s="361">
+        <f t="shared" si="36"/>
+        <v>0.0694884931284053</v>
+      </c>
+      <c r="M95" s="361">
+        <f t="shared" si="41"/>
+        <v>0.333731019522777</v>
+      </c>
+      <c r="N95" s="349">
+        <v>318.56</v>
+      </c>
+      <c r="O95" s="349">
+        <v>445.8</v>
+      </c>
+      <c r="P95" s="349">
+        <v>395</v>
+      </c>
+      <c r="Q95" s="349">
+        <v>468.88</v>
+      </c>
+      <c r="R95" s="349">
+        <v>430</v>
+      </c>
+      <c r="S95" s="349">
+        <v>466.48</v>
+      </c>
+      <c r="T95" s="349">
+        <v>449.03</v>
+      </c>
+      <c r="U95" s="349"/>
+      <c r="V95" s="349"/>
+      <c r="W95" s="349"/>
+      <c r="X95" s="349"/>
+      <c r="Y95" s="349" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z95" s="361">
+        <f t="shared" si="32"/>
+        <v>0.352362364804424</v>
+      </c>
+      <c r="AA95" s="361">
+        <f t="shared" si="42"/>
+        <v>0.11395244504262</v>
+      </c>
+      <c r="AB95" s="361">
+        <f t="shared" si="43"/>
+        <v>0.0829210032417676</v>
+      </c>
+      <c r="AC95" s="361">
+        <f t="shared" si="44"/>
+        <v>0.0374078202709656</v>
+      </c>
+      <c r="AD95" s="361"/>
+      <c r="AE95" s="361"/>
+      <c r="AF95" s="349" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG95" s="371" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH95" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI95" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ95" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK95" s="371" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL95" s="376" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM95" s="377">
+        <v>44546</v>
+      </c>
+    </row>
+    <row r="96" ht="44" spans="1:39">
+      <c r="A96" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="349">
+        <v>178.55</v>
+      </c>
+      <c r="D96" s="349">
+        <v>190.75</v>
+      </c>
+      <c r="E96" s="349">
+        <v>217.14</v>
+      </c>
+      <c r="F96" s="349"/>
+      <c r="G96" s="349">
+        <v>242.7</v>
+      </c>
+      <c r="H96" s="349">
+        <v>55.55</v>
+      </c>
+      <c r="I96" s="349">
+        <v>265.76</v>
+      </c>
+      <c r="J96" s="349">
+        <v>188.67</v>
+      </c>
+      <c r="K96" s="361">
+        <f t="shared" si="35"/>
+        <v>3.36903690369037</v>
+      </c>
+      <c r="L96" s="361">
+        <f t="shared" si="36"/>
+        <v>0.0867700180614088</v>
+      </c>
+      <c r="M96" s="361">
+        <f t="shared" si="41"/>
+        <v>0.408597021254042</v>
+      </c>
+      <c r="N96" s="349">
+        <v>169.11</v>
+      </c>
+      <c r="O96" s="349">
+        <v>233.69</v>
+      </c>
+      <c r="P96" s="349">
+        <v>170.02</v>
+      </c>
+      <c r="Q96" s="349">
+        <v>225.35</v>
+      </c>
+      <c r="R96" s="349">
+        <v>172.58</v>
+      </c>
+      <c r="S96" s="349">
+        <v>265.5</v>
+      </c>
+      <c r="T96" s="366">
+        <v>240</v>
+      </c>
+      <c r="U96" s="349"/>
+      <c r="V96" s="349"/>
+      <c r="W96" s="349"/>
+      <c r="X96" s="349"/>
+      <c r="Y96" s="349" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z96" s="361">
+        <f t="shared" si="32"/>
+        <v>0.363673991571343</v>
+      </c>
+      <c r="AA96" s="361">
+        <f t="shared" si="42"/>
+        <v>0.272454961701399</v>
+      </c>
+      <c r="AB96" s="361">
+        <f t="shared" si="43"/>
+        <v>0.234169070335034</v>
+      </c>
+      <c r="AC96" s="361">
+        <f t="shared" si="44"/>
+        <v>0.096045197740113</v>
+      </c>
+      <c r="AD96" s="361"/>
+      <c r="AE96" s="361"/>
+      <c r="AF96" s="349" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG96" s="371" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH96" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI96" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ96" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK96" s="371" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL96" s="376" t="s">
+        <v>468</v>
+      </c>
+      <c r="AM96" s="377">
+        <v>44546</v>
+      </c>
+    </row>
+    <row r="97" ht="44" spans="1:39">
+      <c r="A97" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="B97" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="C97" s="349">
+        <v>92.12</v>
+      </c>
+      <c r="D97" s="349">
+        <v>93.11</v>
+      </c>
+      <c r="E97" s="349">
+        <v>97.09</v>
+      </c>
+      <c r="F97" s="349"/>
+      <c r="G97" s="349">
+        <v>101.77</v>
+      </c>
+      <c r="H97" s="349">
+        <v>71.71</v>
+      </c>
+      <c r="I97" s="349">
+        <v>117.36</v>
+      </c>
+      <c r="J97" s="349">
+        <v>90.26</v>
+      </c>
+      <c r="K97" s="361">
+        <f t="shared" si="35"/>
+        <v>0.419188397713011</v>
+      </c>
+      <c r="L97" s="361">
+        <f t="shared" si="36"/>
+        <v>0.132839127471029</v>
+      </c>
+      <c r="M97" s="361">
+        <f t="shared" si="41"/>
+        <v>0.300243740305783</v>
+      </c>
+      <c r="N97" s="349">
+        <v>76.56</v>
+      </c>
+      <c r="O97" s="349">
+        <v>96.5</v>
+      </c>
+      <c r="P97" s="349">
+        <v>77.52</v>
+      </c>
+      <c r="Q97" s="349">
+        <v>104.28</v>
+      </c>
+      <c r="R97" s="349">
+        <v>91.1</v>
+      </c>
+      <c r="S97" s="349">
+        <v>100.58</v>
+      </c>
+      <c r="T97" s="349">
+        <v>96</v>
+      </c>
+      <c r="U97" s="349">
+        <v>104.94</v>
+      </c>
+      <c r="V97" s="349">
+        <v>96.23</v>
+      </c>
+      <c r="W97" s="349">
+        <v>108.5</v>
+      </c>
+      <c r="X97" s="349">
+        <v>99.2</v>
+      </c>
+      <c r="Y97" s="349" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z97" s="361">
+        <f t="shared" si="32"/>
+        <v>0.347648261758691</v>
+      </c>
+      <c r="AA97" s="361">
+        <f t="shared" si="42"/>
+        <v>0.196683937823834</v>
+      </c>
+      <c r="AB97" s="361">
+        <f t="shared" si="43"/>
+        <v>0.126390487149981</v>
+      </c>
+      <c r="AC97" s="361">
+        <f t="shared" si="44"/>
+        <v>0.0455358918274011</v>
+      </c>
+      <c r="AD97" s="361"/>
+      <c r="AE97" s="361"/>
+      <c r="AF97" s="349" t="s">
+        <v>432</v>
+      </c>
+      <c r="AG97" s="371" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH97" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AI97" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AJ97" s="371" t="s">
+        <v>358</v>
+      </c>
+      <c r="AK97" s="371" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL97" s="376" t="s">
+        <v>472</v>
+      </c>
+      <c r="AM97" s="377">
+        <v>44546</v>
+      </c>
     </row>
     <row r="98" spans="1:39">
-      <c r="A98" s="349"/>
+      <c r="A98" s="350"/>
       <c r="B98" s="84"/>
       <c r="C98" s="84"/>
       <c r="D98" s="84"/>
@@ -17751,7 +18217,7 @@
       <c r="AM98" s="84"/>
     </row>
     <row r="99" spans="1:39">
-      <c r="A99" s="349"/>
+      <c r="A99" s="350"/>
       <c r="B99" s="84"/>
       <c r="C99" s="84"/>
       <c r="D99" s="84"/>
@@ -17792,7 +18258,7 @@
       <c r="AM99" s="84"/>
     </row>
     <row r="100" spans="1:39">
-      <c r="A100" s="349"/>
+      <c r="A100" s="350"/>
       <c r="B100" s="84"/>
       <c r="C100" s="84"/>
       <c r="D100" s="84"/>
@@ -17833,7 +18299,7 @@
       <c r="AM100" s="84"/>
     </row>
     <row r="101" spans="1:39">
-      <c r="A101" s="349"/>
+      <c r="A101" s="350"/>
       <c r="B101" s="84"/>
       <c r="C101" s="84"/>
       <c r="D101" s="84"/>
@@ -17874,7 +18340,7 @@
       <c r="AM101" s="84"/>
     </row>
     <row r="102" spans="1:39">
-      <c r="A102" s="349"/>
+      <c r="A102" s="350"/>
       <c r="B102" s="84"/>
       <c r="C102" s="84"/>
       <c r="D102" s="84"/>
@@ -17915,7 +18381,7 @@
       <c r="AM102" s="84"/>
     </row>
     <row r="103" spans="1:39">
-      <c r="A103" s="349"/>
+      <c r="A103" s="350"/>
       <c r="B103" s="84"/>
       <c r="C103" s="84"/>
       <c r="D103" s="84"/>
@@ -17956,7 +18422,7 @@
       <c r="AM103" s="84"/>
     </row>
     <row r="104" spans="1:39">
-      <c r="A104" s="349"/>
+      <c r="A104" s="350"/>
       <c r="B104" s="84"/>
       <c r="C104" s="84"/>
       <c r="D104" s="84"/>
@@ -17997,7 +18463,7 @@
       <c r="AM104" s="84"/>
     </row>
     <row r="105" spans="1:39">
-      <c r="A105" s="349"/>
+      <c r="A105" s="350"/>
       <c r="B105" s="84"/>
       <c r="C105" s="84"/>
       <c r="D105" s="84"/>
@@ -18038,7 +18504,7 @@
       <c r="AM105" s="84"/>
     </row>
     <row r="106" spans="1:39">
-      <c r="A106" s="349"/>
+      <c r="A106" s="350"/>
       <c r="B106" s="84"/>
       <c r="C106" s="84"/>
       <c r="D106" s="84"/>
@@ -18079,7 +18545,7 @@
       <c r="AM106" s="84"/>
     </row>
     <row r="107" spans="1:39">
-      <c r="A107" s="349"/>
+      <c r="A107" s="350"/>
       <c r="B107" s="84"/>
       <c r="C107" s="84"/>
       <c r="D107" s="84"/>
@@ -18120,7 +18586,7 @@
       <c r="AM107" s="84"/>
     </row>
     <row r="108" spans="1:39">
-      <c r="A108" s="349"/>
+      <c r="A108" s="350"/>
       <c r="B108" s="84"/>
       <c r="C108" s="84"/>
       <c r="D108" s="84"/>
@@ -18161,7 +18627,7 @@
       <c r="AM108" s="84"/>
     </row>
     <row r="109" spans="1:39">
-      <c r="A109" s="349"/>
+      <c r="A109" s="350"/>
       <c r="B109" s="84"/>
       <c r="C109" s="84"/>
       <c r="D109" s="84"/>
@@ -18202,7 +18668,7 @@
       <c r="AM109" s="84"/>
     </row>
     <row r="110" spans="1:39">
-      <c r="A110" s="349"/>
+      <c r="A110" s="350"/>
       <c r="B110" s="84"/>
       <c r="C110" s="84"/>
       <c r="D110" s="84"/>
@@ -18243,7 +18709,7 @@
       <c r="AM110" s="84"/>
     </row>
     <row r="111" spans="1:39">
-      <c r="A111" s="349"/>
+      <c r="A111" s="350"/>
       <c r="B111" s="84"/>
       <c r="C111" s="84"/>
       <c r="D111" s="84"/>
@@ -18284,7 +18750,7 @@
       <c r="AM111" s="84"/>
     </row>
     <row r="112" spans="1:39">
-      <c r="A112" s="349"/>
+      <c r="A112" s="350"/>
       <c r="B112" s="84"/>
       <c r="C112" s="84"/>
       <c r="D112" s="84"/>
@@ -18325,7 +18791,7 @@
       <c r="AM112" s="84"/>
     </row>
     <row r="113" spans="1:39">
-      <c r="A113" s="349"/>
+      <c r="A113" s="350"/>
       <c r="B113" s="84"/>
       <c r="C113" s="84"/>
       <c r="D113" s="84"/>
@@ -18366,7 +18832,7 @@
       <c r="AM113" s="84"/>
     </row>
     <row r="114" spans="1:39">
-      <c r="A114" s="349"/>
+      <c r="A114" s="350"/>
       <c r="B114" s="84"/>
       <c r="C114" s="84"/>
       <c r="D114" s="84"/>
@@ -18407,7 +18873,7 @@
       <c r="AM114" s="84"/>
     </row>
     <row r="115" spans="1:39">
-      <c r="A115" s="349"/>
+      <c r="A115" s="350"/>
       <c r="B115" s="84"/>
       <c r="C115" s="84"/>
       <c r="D115" s="84"/>
@@ -18448,7 +18914,7 @@
       <c r="AM115" s="84"/>
     </row>
     <row r="116" spans="1:39">
-      <c r="A116" s="349"/>
+      <c r="A116" s="350"/>
       <c r="B116" s="84"/>
       <c r="C116" s="84"/>
       <c r="D116" s="84"/>
@@ -18489,7 +18955,7 @@
       <c r="AM116" s="84"/>
     </row>
     <row r="117" spans="1:39">
-      <c r="A117" s="349"/>
+      <c r="A117" s="350"/>
       <c r="B117" s="84"/>
       <c r="C117" s="84"/>
       <c r="D117" s="84"/>
@@ -18530,7 +18996,7 @@
       <c r="AM117" s="84"/>
     </row>
     <row r="118" spans="1:39">
-      <c r="A118" s="349"/>
+      <c r="A118" s="350"/>
       <c r="B118" s="84"/>
       <c r="C118" s="84"/>
       <c r="D118" s="84"/>
@@ -18571,7 +19037,7 @@
       <c r="AM118" s="84"/>
     </row>
     <row r="119" spans="1:39">
-      <c r="A119" s="349"/>
+      <c r="A119" s="350"/>
       <c r="B119" s="84"/>
       <c r="C119" s="84"/>
       <c r="D119" s="84"/>
@@ -18612,7 +19078,7 @@
       <c r="AM119" s="84"/>
     </row>
     <row r="120" spans="1:39">
-      <c r="A120" s="349"/>
+      <c r="A120" s="350"/>
       <c r="B120" s="84"/>
       <c r="C120" s="84"/>
       <c r="D120" s="84"/>
@@ -18653,7 +19119,7 @@
       <c r="AM120" s="84"/>
     </row>
     <row r="121" spans="1:39">
-      <c r="A121" s="349"/>
+      <c r="A121" s="350"/>
       <c r="B121" s="84"/>
       <c r="C121" s="84"/>
       <c r="D121" s="84"/>
@@ -18694,7 +19160,7 @@
       <c r="AM121" s="84"/>
     </row>
     <row r="122" spans="1:39">
-      <c r="A122" s="349"/>
+      <c r="A122" s="350"/>
       <c r="B122" s="84"/>
       <c r="C122" s="84"/>
       <c r="D122" s="84"/>
@@ -18735,7 +19201,7 @@
       <c r="AM122" s="84"/>
     </row>
     <row r="123" spans="1:39">
-      <c r="A123" s="349"/>
+      <c r="A123" s="350"/>
       <c r="B123" s="84"/>
       <c r="C123" s="84"/>
       <c r="D123" s="84"/>
@@ -18776,7 +19242,7 @@
       <c r="AM123" s="84"/>
     </row>
     <row r="124" spans="1:39">
-      <c r="A124" s="349"/>
+      <c r="A124" s="350"/>
       <c r="B124" s="84"/>
       <c r="C124" s="84"/>
       <c r="D124" s="84"/>
@@ -18817,7 +19283,7 @@
       <c r="AM124" s="84"/>
     </row>
     <row r="125" spans="1:39">
-      <c r="A125" s="349"/>
+      <c r="A125" s="350"/>
       <c r="B125" s="84"/>
       <c r="C125" s="84"/>
       <c r="D125" s="84"/>
@@ -18858,7 +19324,7 @@
       <c r="AM125" s="84"/>
     </row>
     <row r="126" spans="1:39">
-      <c r="A126" s="349"/>
+      <c r="A126" s="350"/>
       <c r="B126" s="84"/>
       <c r="C126" s="84"/>
       <c r="D126" s="84"/>
@@ -18899,7 +19365,7 @@
       <c r="AM126" s="84"/>
     </row>
     <row r="127" spans="1:39">
-      <c r="A127" s="349"/>
+      <c r="A127" s="350"/>
       <c r="B127" s="84"/>
       <c r="C127" s="84"/>
       <c r="D127" s="84"/>
@@ -18940,7 +19406,7 @@
       <c r="AM127" s="84"/>
     </row>
     <row r="128" spans="1:39">
-      <c r="A128" s="349"/>
+      <c r="A128" s="350"/>
       <c r="B128" s="84"/>
       <c r="C128" s="84"/>
       <c r="D128" s="84"/>
@@ -18981,7 +19447,7 @@
       <c r="AM128" s="84"/>
     </row>
     <row r="129" spans="1:39">
-      <c r="A129" s="349"/>
+      <c r="A129" s="350"/>
       <c r="B129" s="84"/>
       <c r="C129" s="84"/>
       <c r="D129" s="84"/>
@@ -19022,7 +19488,7 @@
       <c r="AM129" s="84"/>
     </row>
     <row r="130" spans="1:39">
-      <c r="A130" s="349"/>
+      <c r="A130" s="350"/>
       <c r="B130" s="84"/>
       <c r="C130" s="84"/>
       <c r="D130" s="84"/>
@@ -19063,7 +19529,7 @@
       <c r="AM130" s="84"/>
     </row>
     <row r="131" spans="1:39">
-      <c r="A131" s="349"/>
+      <c r="A131" s="350"/>
       <c r="B131" s="84"/>
       <c r="C131" s="84"/>
       <c r="D131" s="84"/>
@@ -19104,7 +19570,7 @@
       <c r="AM131" s="84"/>
     </row>
     <row r="132" spans="1:39">
-      <c r="A132" s="349"/>
+      <c r="A132" s="350"/>
       <c r="B132" s="84"/>
       <c r="C132" s="84"/>
       <c r="D132" s="84"/>
@@ -19145,7 +19611,7 @@
       <c r="AM132" s="84"/>
     </row>
     <row r="133" spans="1:39">
-      <c r="A133" s="349"/>
+      <c r="A133" s="350"/>
       <c r="B133" s="84"/>
       <c r="C133" s="84"/>
       <c r="D133" s="84"/>
@@ -19186,7 +19652,7 @@
       <c r="AM133" s="84"/>
     </row>
     <row r="134" spans="1:39">
-      <c r="A134" s="349"/>
+      <c r="A134" s="350"/>
       <c r="B134" s="84"/>
       <c r="C134" s="84"/>
       <c r="D134" s="84"/>
@@ -19227,7 +19693,7 @@
       <c r="AM134" s="84"/>
     </row>
     <row r="135" spans="1:39">
-      <c r="A135" s="349"/>
+      <c r="A135" s="350"/>
       <c r="B135" s="84"/>
       <c r="C135" s="84"/>
       <c r="D135" s="84"/>
@@ -19268,7 +19734,7 @@
       <c r="AM135" s="84"/>
     </row>
     <row r="136" spans="1:39">
-      <c r="A136" s="349"/>
+      <c r="A136" s="350"/>
       <c r="B136" s="84"/>
       <c r="C136" s="84"/>
       <c r="D136" s="84"/>
@@ -19309,7 +19775,7 @@
       <c r="AM136" s="84"/>
     </row>
     <row r="137" spans="1:39">
-      <c r="A137" s="349"/>
+      <c r="A137" s="350"/>
       <c r="B137" s="84"/>
       <c r="C137" s="84"/>
       <c r="D137" s="84"/>
@@ -19350,7 +19816,7 @@
       <c r="AM137" s="84"/>
     </row>
     <row r="138" spans="1:39">
-      <c r="A138" s="349"/>
+      <c r="A138" s="350"/>
       <c r="B138" s="84"/>
       <c r="C138" s="84"/>
       <c r="D138" s="84"/>
@@ -19391,7 +19857,7 @@
       <c r="AM138" s="84"/>
     </row>
     <row r="139" spans="1:39">
-      <c r="A139" s="349"/>
+      <c r="A139" s="350"/>
       <c r="B139" s="84"/>
       <c r="C139" s="84"/>
       <c r="D139" s="84"/>
@@ -19432,7 +19898,7 @@
       <c r="AM139" s="84"/>
     </row>
     <row r="140" spans="1:39">
-      <c r="A140" s="349"/>
+      <c r="A140" s="350"/>
       <c r="B140" s="84"/>
       <c r="C140" s="84"/>
       <c r="D140" s="84"/>
@@ -19473,7 +19939,7 @@
       <c r="AM140" s="84"/>
     </row>
     <row r="141" spans="1:39">
-      <c r="A141" s="349"/>
+      <c r="A141" s="350"/>
       <c r="B141" s="84"/>
       <c r="C141" s="84"/>
       <c r="D141" s="84"/>
@@ -19514,7 +19980,7 @@
       <c r="AM141" s="84"/>
     </row>
     <row r="142" spans="1:39">
-      <c r="A142" s="349"/>
+      <c r="A142" s="350"/>
       <c r="B142" s="84"/>
       <c r="C142" s="84"/>
       <c r="D142" s="84"/>
@@ -19555,7 +20021,7 @@
       <c r="AM142" s="84"/>
     </row>
     <row r="143" spans="1:39">
-      <c r="A143" s="349"/>
+      <c r="A143" s="350"/>
       <c r="B143" s="84"/>
       <c r="C143" s="84"/>
       <c r="D143" s="84"/>
@@ -19596,7 +20062,7 @@
       <c r="AM143" s="84"/>
     </row>
     <row r="144" spans="1:39">
-      <c r="A144" s="349"/>
+      <c r="A144" s="350"/>
       <c r="B144" s="84"/>
       <c r="C144" s="84"/>
       <c r="D144" s="84"/>
@@ -19637,7 +20103,7 @@
       <c r="AM144" s="84"/>
     </row>
     <row r="145" spans="1:39">
-      <c r="A145" s="349"/>
+      <c r="A145" s="350"/>
       <c r="B145" s="84"/>
       <c r="C145" s="84"/>
       <c r="D145" s="84"/>
@@ -19678,7 +20144,7 @@
       <c r="AM145" s="84"/>
     </row>
     <row r="146" spans="1:39">
-      <c r="A146" s="349"/>
+      <c r="A146" s="350"/>
       <c r="B146" s="84"/>
       <c r="C146" s="84"/>
       <c r="D146" s="84"/>
@@ -19719,7 +20185,7 @@
       <c r="AM146" s="84"/>
     </row>
     <row r="147" spans="1:39">
-      <c r="A147" s="349"/>
+      <c r="A147" s="350"/>
       <c r="B147" s="84"/>
       <c r="C147" s="84"/>
       <c r="D147" s="84"/>
@@ -19760,7 +20226,7 @@
       <c r="AM147" s="84"/>
     </row>
     <row r="148" spans="1:39">
-      <c r="A148" s="349"/>
+      <c r="A148" s="350"/>
       <c r="B148" s="84"/>
       <c r="C148" s="84"/>
       <c r="D148" s="84"/>
@@ -19801,7 +20267,7 @@
       <c r="AM148" s="84"/>
     </row>
     <row r="149" spans="1:39">
-      <c r="A149" s="349"/>
+      <c r="A149" s="350"/>
       <c r="B149" s="84"/>
       <c r="C149" s="84"/>
       <c r="D149" s="84"/>
@@ -19842,7 +20308,7 @@
       <c r="AM149" s="84"/>
     </row>
     <row r="150" spans="1:39">
-      <c r="A150" s="349"/>
+      <c r="A150" s="350"/>
       <c r="B150" s="84"/>
       <c r="C150" s="84"/>
       <c r="D150" s="84"/>
@@ -19883,7 +20349,7 @@
       <c r="AM150" s="84"/>
     </row>
     <row r="151" spans="1:39">
-      <c r="A151" s="349"/>
+      <c r="A151" s="350"/>
       <c r="B151" s="84"/>
       <c r="C151" s="84"/>
       <c r="D151" s="84"/>
@@ -19924,7 +20390,7 @@
       <c r="AM151" s="84"/>
     </row>
     <row r="152" spans="1:39">
-      <c r="A152" s="349"/>
+      <c r="A152" s="350"/>
       <c r="B152" s="84"/>
       <c r="C152" s="84"/>
       <c r="D152" s="84"/>
@@ -19965,7 +20431,7 @@
       <c r="AM152" s="84"/>
     </row>
     <row r="153" spans="1:39">
-      <c r="A153" s="349"/>
+      <c r="A153" s="350"/>
       <c r="B153" s="84"/>
       <c r="C153" s="84"/>
       <c r="D153" s="84"/>
@@ -20006,7 +20472,7 @@
       <c r="AM153" s="84"/>
     </row>
     <row r="154" spans="1:39">
-      <c r="A154" s="349"/>
+      <c r="A154" s="350"/>
       <c r="B154" s="84"/>
       <c r="C154" s="84"/>
       <c r="D154" s="84"/>
@@ -20047,7 +20513,7 @@
       <c r="AM154" s="84"/>
     </row>
     <row r="155" spans="1:39">
-      <c r="A155" s="349"/>
+      <c r="A155" s="350"/>
       <c r="B155" s="84"/>
       <c r="C155" s="84"/>
       <c r="D155" s="84"/>
@@ -20088,7 +20554,7 @@
       <c r="AM155" s="84"/>
     </row>
     <row r="156" spans="1:39">
-      <c r="A156" s="349"/>
+      <c r="A156" s="350"/>
       <c r="B156" s="84"/>
       <c r="C156" s="84"/>
       <c r="D156" s="84"/>
@@ -20129,7 +20595,7 @@
       <c r="AM156" s="84"/>
     </row>
     <row r="157" spans="1:39">
-      <c r="A157" s="349"/>
+      <c r="A157" s="350"/>
       <c r="B157" s="84"/>
       <c r="C157" s="84"/>
       <c r="D157" s="84"/>
@@ -20170,7 +20636,7 @@
       <c r="AM157" s="84"/>
     </row>
     <row r="158" spans="1:39">
-      <c r="A158" s="349"/>
+      <c r="A158" s="350"/>
       <c r="B158" s="84"/>
       <c r="C158" s="84"/>
       <c r="D158" s="84"/>
@@ -20211,7 +20677,7 @@
       <c r="AM158" s="84"/>
     </row>
     <row r="159" spans="1:39">
-      <c r="A159" s="349"/>
+      <c r="A159" s="350"/>
       <c r="B159" s="84"/>
       <c r="C159" s="84"/>
       <c r="D159" s="84"/>
@@ -20252,7 +20718,7 @@
       <c r="AM159" s="84"/>
     </row>
     <row r="160" spans="1:39">
-      <c r="A160" s="349"/>
+      <c r="A160" s="350"/>
       <c r="B160" s="84"/>
       <c r="C160" s="84"/>
       <c r="D160" s="84"/>
@@ -20293,7 +20759,7 @@
       <c r="AM160" s="84"/>
     </row>
     <row r="161" spans="1:39">
-      <c r="A161" s="349"/>
+      <c r="A161" s="350"/>
       <c r="B161" s="84"/>
       <c r="C161" s="84"/>
       <c r="D161" s="84"/>
@@ -20334,7 +20800,7 @@
       <c r="AM161" s="84"/>
     </row>
     <row r="162" spans="1:39">
-      <c r="A162" s="349"/>
+      <c r="A162" s="350"/>
       <c r="B162" s="84"/>
       <c r="C162" s="84"/>
       <c r="D162" s="84"/>
@@ -20375,7 +20841,7 @@
       <c r="AM162" s="84"/>
     </row>
     <row r="163" spans="1:39">
-      <c r="A163" s="349"/>
+      <c r="A163" s="350"/>
       <c r="B163" s="84"/>
       <c r="C163" s="84"/>
       <c r="D163" s="84"/>
@@ -20416,7 +20882,7 @@
       <c r="AM163" s="84"/>
     </row>
     <row r="164" spans="1:39">
-      <c r="A164" s="349"/>
+      <c r="A164" s="350"/>
       <c r="B164" s="84"/>
       <c r="C164" s="84"/>
       <c r="D164" s="84"/>
@@ -20457,7 +20923,7 @@
       <c r="AM164" s="84"/>
     </row>
     <row r="165" spans="1:39">
-      <c r="A165" s="349"/>
+      <c r="A165" s="350"/>
       <c r="B165" s="84"/>
       <c r="C165" s="84"/>
       <c r="D165" s="84"/>
@@ -20498,7 +20964,7 @@
       <c r="AM165" s="84"/>
     </row>
     <row r="166" spans="1:39">
-      <c r="A166" s="349"/>
+      <c r="A166" s="350"/>
       <c r="B166" s="84"/>
       <c r="C166" s="84"/>
       <c r="D166" s="84"/>
@@ -20539,7 +21005,7 @@
       <c r="AM166" s="84"/>
     </row>
     <row r="167" spans="1:39">
-      <c r="A167" s="349"/>
+      <c r="A167" s="350"/>
       <c r="B167" s="84"/>
       <c r="C167" s="84"/>
       <c r="D167" s="84"/>
@@ -20580,7 +21046,7 @@
       <c r="AM167" s="84"/>
     </row>
     <row r="168" spans="1:39">
-      <c r="A168" s="349"/>
+      <c r="A168" s="350"/>
       <c r="B168" s="84"/>
       <c r="C168" s="84"/>
       <c r="D168" s="84"/>
@@ -20621,7 +21087,7 @@
       <c r="AM168" s="84"/>
     </row>
     <row r="169" spans="1:39">
-      <c r="A169" s="349"/>
+      <c r="A169" s="350"/>
       <c r="B169" s="84"/>
       <c r="C169" s="84"/>
       <c r="D169" s="84"/>
@@ -20662,7 +21128,7 @@
       <c r="AM169" s="84"/>
     </row>
     <row r="170" spans="1:39">
-      <c r="A170" s="349"/>
+      <c r="A170" s="350"/>
       <c r="B170" s="84"/>
       <c r="C170" s="84"/>
       <c r="D170" s="84"/>
@@ -20703,7 +21169,7 @@
       <c r="AM170" s="84"/>
     </row>
     <row r="171" spans="1:39">
-      <c r="A171" s="349"/>
+      <c r="A171" s="350"/>
       <c r="B171" s="84"/>
       <c r="C171" s="84"/>
       <c r="D171" s="84"/>
@@ -20744,7 +21210,7 @@
       <c r="AM171" s="84"/>
     </row>
     <row r="172" spans="1:39">
-      <c r="A172" s="349"/>
+      <c r="A172" s="350"/>
       <c r="B172" s="84"/>
       <c r="C172" s="84"/>
       <c r="D172" s="84"/>
@@ -20785,7 +21251,7 @@
       <c r="AM172" s="84"/>
     </row>
     <row r="173" spans="1:39">
-      <c r="A173" s="349"/>
+      <c r="A173" s="350"/>
       <c r="B173" s="84"/>
       <c r="C173" s="84"/>
       <c r="D173" s="84"/>
@@ -20826,7 +21292,7 @@
       <c r="AM173" s="84"/>
     </row>
     <row r="174" spans="1:39">
-      <c r="A174" s="349"/>
+      <c r="A174" s="350"/>
       <c r="B174" s="84"/>
       <c r="C174" s="84"/>
       <c r="D174" s="84"/>
@@ -20867,7 +21333,7 @@
       <c r="AM174" s="84"/>
     </row>
     <row r="175" spans="1:39">
-      <c r="A175" s="349"/>
+      <c r="A175" s="350"/>
       <c r="B175" s="84"/>
       <c r="C175" s="84"/>
       <c r="D175" s="84"/>
@@ -20908,7 +21374,7 @@
       <c r="AM175" s="84"/>
     </row>
     <row r="176" spans="1:39">
-      <c r="A176" s="349"/>
+      <c r="A176" s="350"/>
       <c r="B176" s="84"/>
       <c r="C176" s="84"/>
       <c r="D176" s="84"/>
@@ -20949,7 +21415,7 @@
       <c r="AM176" s="84"/>
     </row>
     <row r="177" spans="1:39">
-      <c r="A177" s="349"/>
+      <c r="A177" s="350"/>
       <c r="B177" s="84"/>
       <c r="C177" s="84"/>
       <c r="D177" s="84"/>
@@ -20990,7 +21456,7 @@
       <c r="AM177" s="84"/>
     </row>
     <row r="178" spans="1:39">
-      <c r="A178" s="349"/>
+      <c r="A178" s="350"/>
       <c r="B178" s="84"/>
       <c r="C178" s="84"/>
       <c r="D178" s="84"/>
@@ -21031,7 +21497,7 @@
       <c r="AM178" s="84"/>
     </row>
     <row r="179" spans="1:39">
-      <c r="A179" s="349"/>
+      <c r="A179" s="350"/>
       <c r="B179" s="84"/>
       <c r="C179" s="84"/>
       <c r="D179" s="84"/>
@@ -21072,7 +21538,7 @@
       <c r="AM179" s="84"/>
     </row>
     <row r="180" spans="1:39">
-      <c r="A180" s="349"/>
+      <c r="A180" s="350"/>
       <c r="B180" s="84"/>
       <c r="C180" s="84"/>
       <c r="D180" s="84"/>
@@ -21113,7 +21579,7 @@
       <c r="AM180" s="84"/>
     </row>
     <row r="181" spans="1:39">
-      <c r="A181" s="349"/>
+      <c r="A181" s="350"/>
       <c r="B181" s="84"/>
       <c r="C181" s="84"/>
       <c r="D181" s="84"/>
@@ -21154,7 +21620,7 @@
       <c r="AM181" s="84"/>
     </row>
     <row r="182" spans="1:39">
-      <c r="A182" s="349"/>
+      <c r="A182" s="350"/>
       <c r="B182" s="84"/>
       <c r="C182" s="84"/>
       <c r="D182" s="84"/>
@@ -21195,7 +21661,7 @@
       <c r="AM182" s="84"/>
     </row>
     <row r="183" spans="1:39">
-      <c r="A183" s="349"/>
+      <c r="A183" s="350"/>
       <c r="B183" s="84"/>
       <c r="C183" s="84"/>
       <c r="D183" s="84"/>
@@ -21236,7 +21702,7 @@
       <c r="AM183" s="84"/>
     </row>
     <row r="184" spans="1:39">
-      <c r="A184" s="349"/>
+      <c r="A184" s="350"/>
       <c r="B184" s="84"/>
       <c r="C184" s="84"/>
       <c r="D184" s="84"/>
@@ -21277,7 +21743,7 @@
       <c r="AM184" s="84"/>
     </row>
     <row r="185" spans="1:39">
-      <c r="A185" s="349"/>
+      <c r="A185" s="350"/>
       <c r="B185" s="84"/>
       <c r="C185" s="84"/>
       <c r="D185" s="84"/>
@@ -21318,7 +21784,7 @@
       <c r="AM185" s="84"/>
     </row>
     <row r="186" spans="1:39">
-      <c r="A186" s="349"/>
+      <c r="A186" s="350"/>
       <c r="B186" s="84"/>
       <c r="C186" s="84"/>
       <c r="D186" s="84"/>
@@ -21359,7 +21825,7 @@
       <c r="AM186" s="84"/>
     </row>
     <row r="187" spans="1:39">
-      <c r="A187" s="349"/>
+      <c r="A187" s="350"/>
       <c r="B187" s="84"/>
       <c r="C187" s="84"/>
       <c r="D187" s="84"/>
@@ -21400,7 +21866,7 @@
       <c r="AM187" s="84"/>
     </row>
     <row r="188" spans="1:39">
-      <c r="A188" s="349"/>
+      <c r="A188" s="350"/>
       <c r="B188" s="84"/>
       <c r="C188" s="84"/>
       <c r="D188" s="84"/>
@@ -21441,7 +21907,7 @@
       <c r="AM188" s="84"/>
     </row>
     <row r="189" spans="1:39">
-      <c r="A189" s="349"/>
+      <c r="A189" s="350"/>
       <c r="B189" s="84"/>
       <c r="C189" s="84"/>
       <c r="D189" s="84"/>
@@ -21482,7 +21948,7 @@
       <c r="AM189" s="84"/>
     </row>
     <row r="190" spans="1:39">
-      <c r="A190" s="349"/>
+      <c r="A190" s="350"/>
       <c r="B190" s="84"/>
       <c r="C190" s="84"/>
       <c r="D190" s="84"/>
@@ -21523,7 +21989,7 @@
       <c r="AM190" s="84"/>
     </row>
     <row r="191" spans="1:39">
-      <c r="A191" s="349"/>
+      <c r="A191" s="350"/>
       <c r="B191" s="84"/>
       <c r="C191" s="84"/>
       <c r="D191" s="84"/>
@@ -21564,7 +22030,7 @@
       <c r="AM191" s="84"/>
     </row>
     <row r="192" spans="1:39">
-      <c r="A192" s="349"/>
+      <c r="A192" s="350"/>
       <c r="B192" s="84"/>
       <c r="C192" s="84"/>
       <c r="D192" s="84"/>
@@ -21605,7 +22071,7 @@
       <c r="AM192" s="84"/>
     </row>
     <row r="193" spans="1:39">
-      <c r="A193" s="349"/>
+      <c r="A193" s="350"/>
       <c r="B193" s="84"/>
       <c r="C193" s="84"/>
       <c r="D193" s="84"/>
@@ -21646,7 +22112,7 @@
       <c r="AM193" s="84"/>
     </row>
     <row r="194" spans="1:39">
-      <c r="A194" s="349"/>
+      <c r="A194" s="350"/>
       <c r="B194" s="84"/>
       <c r="C194" s="84"/>
       <c r="D194" s="84"/>
@@ -21687,7 +22153,7 @@
       <c r="AM194" s="84"/>
     </row>
     <row r="195" spans="1:39">
-      <c r="A195" s="349"/>
+      <c r="A195" s="350"/>
       <c r="B195" s="84"/>
       <c r="C195" s="84"/>
       <c r="D195" s="84"/>
@@ -21728,7 +22194,7 @@
       <c r="AM195" s="84"/>
     </row>
     <row r="196" spans="1:39">
-      <c r="A196" s="349"/>
+      <c r="A196" s="350"/>
       <c r="B196" s="84"/>
       <c r="C196" s="84"/>
       <c r="D196" s="84"/>
@@ -21769,7 +22235,7 @@
       <c r="AM196" s="84"/>
     </row>
     <row r="197" spans="1:39">
-      <c r="A197" s="349"/>
+      <c r="A197" s="350"/>
       <c r="B197" s="84"/>
       <c r="C197" s="84"/>
       <c r="D197" s="84"/>
@@ -21810,7 +22276,7 @@
       <c r="AM197" s="84"/>
     </row>
     <row r="198" spans="1:39">
-      <c r="A198" s="349"/>
+      <c r="A198" s="350"/>
       <c r="B198" s="84"/>
       <c r="C198" s="84"/>
       <c r="D198" s="84"/>
@@ -21851,7 +22317,7 @@
       <c r="AM198" s="84"/>
     </row>
     <row r="199" spans="1:39">
-      <c r="A199" s="349"/>
+      <c r="A199" s="350"/>
       <c r="B199" s="84"/>
       <c r="C199" s="84"/>
       <c r="D199" s="84"/>
@@ -21892,7 +22358,7 @@
       <c r="AM199" s="84"/>
     </row>
     <row r="200" spans="1:39">
-      <c r="A200" s="349"/>
+      <c r="A200" s="350"/>
       <c r="B200" s="84"/>
       <c r="C200" s="84"/>
       <c r="D200" s="84"/>
@@ -21933,7 +22399,7 @@
       <c r="AM200" s="84"/>
     </row>
     <row r="201" spans="1:39">
-      <c r="A201" s="349"/>
+      <c r="A201" s="350"/>
       <c r="B201" s="84"/>
       <c r="C201" s="84"/>
       <c r="D201" s="84"/>
@@ -21974,7 +22440,7 @@
       <c r="AM201" s="84"/>
     </row>
     <row r="202" spans="1:39">
-      <c r="A202" s="349"/>
+      <c r="A202" s="350"/>
       <c r="B202" s="84"/>
       <c r="C202" s="84"/>
       <c r="D202" s="84"/>
@@ -22015,7 +22481,7 @@
       <c r="AM202" s="84"/>
     </row>
     <row r="203" spans="1:39">
-      <c r="A203" s="349"/>
+      <c r="A203" s="350"/>
       <c r="B203" s="84"/>
       <c r="C203" s="84"/>
       <c r="D203" s="84"/>
@@ -22056,7 +22522,7 @@
       <c r="AM203" s="84"/>
     </row>
     <row r="204" spans="1:39">
-      <c r="A204" s="349"/>
+      <c r="A204" s="350"/>
       <c r="B204" s="84"/>
       <c r="C204" s="84"/>
       <c r="D204" s="84"/>
@@ -22097,7 +22563,7 @@
       <c r="AM204" s="84"/>
     </row>
     <row r="205" spans="1:39">
-      <c r="A205" s="349"/>
+      <c r="A205" s="350"/>
       <c r="B205" s="84"/>
       <c r="C205" s="84"/>
       <c r="D205" s="84"/>
@@ -22138,7 +22604,7 @@
       <c r="AM205" s="84"/>
     </row>
     <row r="206" spans="1:39">
-      <c r="A206" s="349"/>
+      <c r="A206" s="350"/>
       <c r="B206" s="84"/>
       <c r="C206" s="84"/>
       <c r="D206" s="84"/>
@@ -22179,7 +22645,7 @@
       <c r="AM206" s="84"/>
     </row>
     <row r="207" spans="1:39">
-      <c r="A207" s="349"/>
+      <c r="A207" s="350"/>
       <c r="B207" s="84"/>
       <c r="C207" s="84"/>
       <c r="D207" s="84"/>
@@ -22220,7 +22686,7 @@
       <c r="AM207" s="84"/>
     </row>
     <row r="208" spans="1:39">
-      <c r="A208" s="349"/>
+      <c r="A208" s="350"/>
       <c r="B208" s="84"/>
       <c r="C208" s="84"/>
       <c r="D208" s="84"/>
@@ -22387,7 +22853,7 @@
   <sheetData>
     <row r="1" spans="1:97">
       <c r="A1" s="26" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -22399,7 +22865,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -22419,7 +22885,7 @@
       <c r="U1" s="24"/>
       <c r="V1" s="24"/>
       <c r="W1" s="97" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="X1" s="98"/>
       <c r="Y1" s="98"/>
@@ -22488,7 +22954,7 @@
       <c r="CJ1" s="144"/>
       <c r="CK1" s="144"/>
       <c r="CL1" s="86" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="CM1" s="24"/>
       <c r="CN1" s="24"/>
@@ -22504,33 +22970,33 @@
       <c r="C2" s="27"/>
       <c r="D2" s="26"/>
       <c r="E2" s="87" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F2" s="88"/>
       <c r="G2" s="88"/>
       <c r="H2" s="88"/>
       <c r="I2" s="88"/>
       <c r="J2" s="88" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="K2" s="88"/>
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
       <c r="N2" s="88"/>
       <c r="O2" s="88" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
       <c r="R2" s="88"/>
       <c r="S2" s="88" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="T2" s="88"/>
       <c r="U2" s="88"/>
       <c r="V2" s="88"/>
       <c r="W2" s="99" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="X2" s="99"/>
       <c r="Y2" s="99"/>
@@ -22550,7 +23016,7 @@
       <c r="AM2" s="99"/>
       <c r="AN2" s="99"/>
       <c r="AO2" s="99" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="AP2" s="99"/>
       <c r="AQ2" s="99"/>
@@ -22571,14 +23037,14 @@
       <c r="BF2" s="99"/>
       <c r="BG2" s="156"/>
       <c r="BH2" s="99" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="BI2" s="99"/>
       <c r="BJ2" s="99"/>
       <c r="BK2" s="99"/>
       <c r="BL2" s="170"/>
       <c r="BM2" s="181" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="BN2" s="181"/>
       <c r="BO2" s="181"/>
@@ -22598,29 +23064,29 @@
       <c r="CC2" s="189"/>
       <c r="CD2" s="189"/>
       <c r="CE2" s="202" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="CF2" s="203" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="CG2" s="203" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="CH2" s="203" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="CI2" s="213" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="CJ2" s="61" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="CK2" s="61"/>
       <c r="CL2" s="86" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="CM2" s="86" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="CN2" s="24"/>
     </row>
@@ -22630,34 +23096,34 @@
       <c r="C3" s="29"/>
       <c r="D3" s="28"/>
       <c r="E3" s="87" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="G3" s="88" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="H3" s="88" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="I3" s="88" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="J3" s="88" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="K3" s="88" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L3" s="88" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="M3" s="88" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="O3" s="96"/>
       <c r="P3" s="88"/>
@@ -22668,184 +23134,184 @@
       <c r="U3" s="88"/>
       <c r="V3" s="88"/>
       <c r="W3" s="100" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="X3" s="100" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="Y3" s="124" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Z3" s="124" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="AA3" s="124" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AB3" s="124" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AC3" s="124" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AD3" s="124" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="AE3" s="124" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AF3" s="126" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="AG3" s="126" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AH3" s="126" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="AI3" s="136" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="AJ3" s="136" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="AK3" s="139" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AL3" s="139" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="AM3" s="140" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="AN3" s="140" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="AO3" s="99" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AP3" s="100" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AQ3" s="124" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AR3" s="124" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="AS3" s="124" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AT3" s="124" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AU3" s="124" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AV3" s="124" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="AW3" s="124" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AX3" s="124" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AY3" s="126" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="AZ3" s="126" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="BA3" s="126" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="BB3" s="136" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="BC3" s="136" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="BD3" s="139" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="BE3" s="139" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="BF3" s="140" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="BG3" s="157" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="BH3" s="158" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="BI3" s="158" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="BJ3" s="158" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="BK3" s="158" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="BL3" s="171" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="BM3" s="100" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="BN3" s="124" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="BO3" s="124" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="BP3" s="124" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="BQ3" s="124" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="BR3" s="124" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="BS3" s="124" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="BT3" s="124" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="BU3" s="124" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="BV3" s="126" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="BW3" s="126" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="BX3" s="126" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="BY3" s="136" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="BZ3" s="190" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="CA3" s="139" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="CB3" s="139" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="CC3" s="140" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="CD3" s="204" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="CE3" s="202"/>
       <c r="CF3" s="203"/>
@@ -22860,16 +23326,16 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="63" customHeight="1" spans="1:89">
       <c r="A4" s="30" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
@@ -23097,19 +23563,19 @@
         <v>0.671</v>
       </c>
       <c r="CJ4" s="215" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="CK4" s="30"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="61" customHeight="1" spans="1:89">
       <c r="A5" s="33" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>11</v>
@@ -23208,16 +23674,16 @@
         <v>0.1314</v>
       </c>
       <c r="AT5" s="103" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="AU5" s="103" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="AV5" s="103" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="AW5" s="103" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="AX5" s="104"/>
       <c r="AY5" s="114">
@@ -23340,15 +23806,15 @@
         <v>0.78</v>
       </c>
       <c r="CJ5" s="217" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="CK5" s="238"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="58" customHeight="1" spans="1:89">
       <c r="A6" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="B6" s="380" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="390" t="s">
         <v>458</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -23451,16 +23917,16 @@
         <v>2.8798</v>
       </c>
       <c r="AT6" s="101" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="AU6" s="101" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="AV6" s="101" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="AW6" s="101" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="AX6" s="102"/>
       <c r="AY6" s="105">
@@ -23583,13 +24049,13 @@
         <v>9.587</v>
       </c>
       <c r="CJ6" s="218" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="CK6" s="239"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="51" customHeight="1" spans="1:89">
       <c r="A7" s="33" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B7" s="37">
         <v>603688</v>
@@ -23598,7 +24064,7 @@
         <v>401</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -23820,13 +24286,13 @@
         <v>0.5</v>
       </c>
       <c r="CJ7" s="217" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="CK7" s="238"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="63" customHeight="1" spans="1:89">
       <c r="A8" s="30" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B8" s="40">
         <v>601677</v>
@@ -24063,22 +24529,22 @@
         <v>2.12</v>
       </c>
       <c r="CJ8" s="215" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="CK8" s="30"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="53" customHeight="1" spans="1:89">
       <c r="A9" s="42" t="s">
-        <v>519</v>
-      </c>
-      <c r="B9" s="381" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" s="391" t="s">
         <v>411</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>412</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
@@ -24306,13 +24772,13 @@
         <v>1.857</v>
       </c>
       <c r="CJ9" s="220" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="CK9" s="240"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="38" customHeight="1" spans="1:89">
       <c r="A10" s="45" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B10" s="46">
         <v>600955</v>
@@ -24527,13 +24993,13 @@
         <v>4.3</v>
       </c>
       <c r="CJ10" s="222" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="CK10" s="45"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="54" customHeight="1" spans="1:89">
       <c r="A11" s="30" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="B11" s="48">
         <v>600779</v>
@@ -24770,13 +25236,13 @@
         <v>2.053</v>
       </c>
       <c r="CJ11" s="215" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="CK11" s="30"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="61" customHeight="1" spans="1:89">
       <c r="A12" s="50" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B12" s="51">
         <v>600032</v>
@@ -25007,16 +25473,16 @@
         <v>0.21</v>
       </c>
       <c r="CJ12" s="224" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="CK12" s="50"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="47" customHeight="1" spans="1:89">
       <c r="A13" s="33" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>25</v>
@@ -25238,16 +25704,16 @@
         <v>0.428</v>
       </c>
       <c r="CJ13" s="225" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="CK13" s="33"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="37" customHeight="1" spans="1:89">
       <c r="A14" s="33" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>45</v>
@@ -25469,16 +25935,16 @@
         <v>-0.192</v>
       </c>
       <c r="CJ14" s="225" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="CK14" s="33"/>
     </row>
     <row r="15" ht="15" spans="1:89">
       <c r="A15" s="58" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>65</v>
@@ -25656,10 +26122,10 @@
     </row>
     <row r="16" ht="15" spans="1:89">
       <c r="A16" s="58" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="C16" s="63" t="s">
         <v>73</v>
@@ -25837,10 +26303,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="60" customHeight="1" spans="1:89">
       <c r="A17" s="30" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>105</v>
@@ -26068,16 +26534,16 @@
         <v>0.871</v>
       </c>
       <c r="CJ17" s="215" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="CK17" s="30"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="44" customHeight="1" spans="1:89">
       <c r="A18" s="30" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>125</v>
@@ -26299,15 +26765,15 @@
         <v>0.72</v>
       </c>
       <c r="CJ18" s="215" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="CK18" s="30"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="47" customHeight="1" spans="1:89">
       <c r="A19" s="30" t="s">
-        <v>544</v>
-      </c>
-      <c r="B19" s="382" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" s="392" t="s">
         <v>399</v>
       </c>
       <c r="C19" s="36" t="s">
@@ -26530,15 +26996,15 @@
         <v>0.842</v>
       </c>
       <c r="CJ19" s="218" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="CK19" s="239"/>
     </row>
     <row r="20" ht="15" spans="1:89">
       <c r="A20" s="58" t="s">
-        <v>546</v>
-      </c>
-      <c r="B20" s="383" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" s="393" t="s">
         <v>418</v>
       </c>
       <c r="C20" s="69" t="s">
@@ -26765,7 +27231,7 @@
     </row>
     <row r="21" spans="1:89">
       <c r="A21" s="58" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B21" s="68">
         <v>600821</v>
@@ -26994,7 +27460,7 @@
     </row>
     <row r="22" spans="1:89">
       <c r="A22" s="58" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B22" s="70" t="s">
         <v>435</v>
@@ -27175,7 +27641,7 @@
     </row>
     <row r="23" spans="1:89">
       <c r="A23" s="58" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B23" s="70" t="s">
         <v>437</v>
@@ -27356,7 +27822,7 @@
     </row>
     <row r="24" spans="1:89">
       <c r="A24" s="58" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B24" s="71">
         <v>605028</v>
@@ -27537,7 +28003,7 @@
     </row>
     <row r="25" s="7" customFormat="1" ht="15" spans="1:89">
       <c r="A25" s="71" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B25" s="70" t="s">
         <v>441</v>
@@ -27724,10 +28190,10 @@
     </row>
     <row r="26" ht="15" spans="1:89">
       <c r="A26" s="58" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>41</v>
@@ -27905,7 +28371,7 @@
     </row>
     <row r="27" s="8" customFormat="1" spans="1:89">
       <c r="A27" s="33" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="B27" s="72" t="s">
         <v>454</v>
@@ -28146,7 +28612,7 @@
     </row>
     <row r="28" s="8" customFormat="1" spans="1:89">
       <c r="A28" s="33" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B28" s="73">
         <v>600821</v>
@@ -28387,7 +28853,7 @@
     </row>
     <row r="29" s="9" customFormat="1" spans="1:89">
       <c r="A29" s="71" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B29" s="74">
         <v>600399</v>
@@ -28622,13 +29088,13 @@
     </row>
     <row r="30" s="10" customFormat="1" ht="74" customHeight="1" spans="1:89">
       <c r="A30" s="30" t="s">
-        <v>557</v>
-      </c>
-      <c r="B30" s="384" t="s">
-        <v>558</v>
+        <v>569</v>
+      </c>
+      <c r="B30" s="394" t="s">
+        <v>461</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>559</v>
+        <v>462</v>
       </c>
       <c r="D30" s="76" t="s">
         <v>91</v>
@@ -28851,22 +29317,22 @@
         <v>3.85</v>
       </c>
       <c r="CJ30" s="232" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="CK30" s="241"/>
     </row>
     <row r="31" s="11" customFormat="1" ht="65" customHeight="1" spans="1:89">
       <c r="A31" s="77" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B31" s="78">
         <v>600436</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>562</v>
+        <v>466</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="E31" s="94"/>
       <c r="F31" s="94"/>
@@ -29044,13 +29510,13 @@
         <v>3.33</v>
       </c>
       <c r="CJ31" s="234" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="CK31" s="242"/>
     </row>
     <row r="32" s="10" customFormat="1" ht="64" customHeight="1" spans="1:89">
       <c r="A32" s="30" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="B32" s="75">
         <v>600702</v>
@@ -29237,19 +29703,19 @@
         <v>2.92</v>
       </c>
       <c r="CJ32" s="232" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="CK32" s="241"/>
     </row>
     <row r="33" s="12" customFormat="1" ht="51" customHeight="1" spans="1:89">
       <c r="A33" s="33" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B33" s="80">
         <v>600600</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>567</v>
+        <v>470</v>
       </c>
       <c r="D33" s="81" t="s">
         <v>91</v>
@@ -29428,13 +29894,13 @@
       <c r="CH33" s="95"/>
       <c r="CI33" s="235"/>
       <c r="CJ33" s="236" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="CK33" s="243"/>
     </row>
     <row r="34" spans="1:89">
       <c r="A34" s="82" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B34" s="83"/>
       <c r="C34" s="84"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580">
   <si>
     <t>股票代码</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>更新时间</t>
+  </si>
+  <si>
+    <t>标签</t>
   </si>
   <si>
     <t>200日均线</t>
@@ -2296,6 +2299,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>已过期</t>
   </si>
   <si>
     <t>002837</t>
@@ -4627,7 +4633,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="397">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5510,36 +5516,47 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5660,7 +5677,22 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7910,55 +7942,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="55" spans="1:9">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="390" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="378" t="s">
+      <c r="B1" s="390" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="379" t="s">
+      <c r="C1" s="391" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="379" t="s">
+      <c r="D1" s="391" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="379" t="s">
+      <c r="E1" s="391" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="378" t="s">
+      <c r="F1" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="382" t="s">
+      <c r="G1" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="383" t="s">
+      <c r="H1" s="395" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="96"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="380" t="s">
+      <c r="A2" s="392" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="380" t="s">
+      <c r="B2" s="392" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="381">
+      <c r="C2" s="393">
         <v>24.93</v>
       </c>
-      <c r="D2" s="381">
+      <c r="D2" s="393">
         <v>1.548</v>
       </c>
-      <c r="E2" s="381">
+      <c r="E2" s="393">
         <v>704.193548387097</v>
       </c>
-      <c r="F2" s="380" t="s">
+      <c r="F2" s="392" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="384" t="s">
+      <c r="G2" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="384" t="s">
+      <c r="H2" s="396" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="96">
@@ -7967,28 +7999,28 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="380" t="s">
+      <c r="A3" s="392" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="380" t="s">
+      <c r="B3" s="392" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="381">
+      <c r="C3" s="393">
         <v>23.9</v>
       </c>
-      <c r="D3" s="381">
+      <c r="D3" s="393">
         <v>1.963</v>
       </c>
-      <c r="E3" s="381">
+      <c r="E3" s="393">
         <v>656.329113924051</v>
       </c>
-      <c r="F3" s="380" t="s">
+      <c r="F3" s="392" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="384" t="s">
+      <c r="G3" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="384" t="s">
+      <c r="H3" s="396" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="96">
@@ -7997,28 +8029,28 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="380" t="s">
+      <c r="A4" s="392" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="380" t="s">
+      <c r="B4" s="392" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="381">
+      <c r="C4" s="393">
         <v>287.9</v>
       </c>
-      <c r="D4" s="381">
+      <c r="D4" s="393">
         <v>4.801</v>
       </c>
-      <c r="E4" s="381">
+      <c r="E4" s="393">
         <v>647.986489997402</v>
       </c>
-      <c r="F4" s="380" t="s">
+      <c r="F4" s="392" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="384" t="s">
+      <c r="G4" s="396" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="384" t="s">
+      <c r="H4" s="396" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="96">
@@ -8027,28 +8059,28 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="380" t="s">
+      <c r="A5" s="392" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="380" t="s">
+      <c r="B5" s="392" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="381">
+      <c r="C5" s="393">
         <v>86.94</v>
       </c>
-      <c r="D5" s="381">
+      <c r="D5" s="393">
         <v>4.621</v>
       </c>
-      <c r="E5" s="381">
+      <c r="E5" s="393">
         <v>573.953488372093</v>
       </c>
-      <c r="F5" s="380" t="s">
+      <c r="F5" s="392" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="384" t="s">
+      <c r="G5" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="384" t="s">
+      <c r="H5" s="396" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="96">
@@ -8057,28 +8089,28 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="380" t="s">
+      <c r="A6" s="392" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="380" t="s">
+      <c r="B6" s="392" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="381">
+      <c r="C6" s="393">
         <v>60.42</v>
       </c>
-      <c r="D6" s="381">
+      <c r="D6" s="393">
         <v>3.636</v>
       </c>
-      <c r="E6" s="381">
+      <c r="E6" s="393">
         <v>527.414330218068</v>
       </c>
-      <c r="F6" s="380" t="s">
+      <c r="F6" s="392" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="384" t="s">
+      <c r="G6" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="384" t="s">
+      <c r="H6" s="396" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="96">
@@ -8087,28 +8119,28 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="380" t="s">
+      <c r="A7" s="392" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="380" t="s">
+      <c r="B7" s="392" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="381">
+      <c r="C7" s="393">
         <v>20.51</v>
       </c>
-      <c r="D7" s="381">
+      <c r="D7" s="393">
         <v>2.091</v>
       </c>
-      <c r="E7" s="381">
+      <c r="E7" s="393">
         <v>449.865951742627</v>
       </c>
-      <c r="F7" s="380" t="s">
+      <c r="F7" s="392" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="384" t="s">
+      <c r="G7" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="384" t="s">
+      <c r="H7" s="396" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="96">
@@ -8117,28 +8149,28 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="380" t="s">
+      <c r="A8" s="392" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="380" t="s">
+      <c r="B8" s="392" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="381">
+      <c r="C8" s="393">
         <v>30.27</v>
       </c>
-      <c r="D8" s="381">
+      <c r="D8" s="393">
         <v>-0.296</v>
       </c>
-      <c r="E8" s="381">
+      <c r="E8" s="393">
         <v>444.424460431655</v>
       </c>
-      <c r="F8" s="380" t="s">
+      <c r="F8" s="392" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="384" t="s">
+      <c r="G8" s="396" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="384" t="s">
+      <c r="H8" s="396" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="96">
@@ -8147,28 +8179,28 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="380" t="s">
+      <c r="A9" s="392" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="380" t="s">
+      <c r="B9" s="392" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="381">
+      <c r="C9" s="393">
         <v>83.72</v>
       </c>
-      <c r="D9" s="381">
+      <c r="D9" s="393">
         <v>2.774</v>
       </c>
-      <c r="E9" s="381">
+      <c r="E9" s="393">
         <v>434.269304403318</v>
       </c>
-      <c r="F9" s="380" t="s">
+      <c r="F9" s="392" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="384" t="s">
+      <c r="G9" s="396" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="384" t="s">
+      <c r="H9" s="396" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="96">
@@ -8177,28 +8209,28 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="380" t="s">
+      <c r="A10" s="392" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="380" t="s">
+      <c r="B10" s="392" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="381">
+      <c r="C10" s="393">
         <v>53.52</v>
       </c>
-      <c r="D10" s="381">
+      <c r="D10" s="393">
         <v>10.01</v>
       </c>
-      <c r="E10" s="381">
+      <c r="E10" s="393">
         <v>432.537313432836</v>
       </c>
-      <c r="F10" s="380" t="s">
+      <c r="F10" s="392" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="384" t="s">
+      <c r="G10" s="396" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="384" t="s">
+      <c r="H10" s="396" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="96">
@@ -8207,28 +8239,28 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="380" t="s">
+      <c r="A11" s="392" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="380" t="s">
+      <c r="B11" s="392" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="381">
+      <c r="C11" s="393">
         <v>29.61</v>
       </c>
-      <c r="D11" s="381">
+      <c r="D11" s="393">
         <v>0.271</v>
       </c>
-      <c r="E11" s="381">
+      <c r="E11" s="393">
         <v>408.762886597938</v>
       </c>
-      <c r="F11" s="380" t="s">
+      <c r="F11" s="392" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="384" t="s">
+      <c r="G11" s="396" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="384" t="s">
+      <c r="H11" s="396" t="s">
         <v>47</v>
       </c>
       <c r="I11" s="96">
@@ -8237,28 +8269,28 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="380" t="s">
+      <c r="A12" s="392" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="380" t="s">
+      <c r="B12" s="392" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="381">
+      <c r="C12" s="393">
         <v>27.46</v>
       </c>
-      <c r="D12" s="381">
+      <c r="D12" s="393">
         <v>0.109</v>
       </c>
-      <c r="E12" s="381">
+      <c r="E12" s="393">
         <v>402.930402930403</v>
       </c>
-      <c r="F12" s="380" t="s">
+      <c r="F12" s="392" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="384" t="s">
+      <c r="G12" s="396" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="384" t="s">
+      <c r="H12" s="396" t="s">
         <v>51</v>
       </c>
       <c r="I12" s="96">
@@ -8267,28 +8299,28 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="380" t="s">
+      <c r="A13" s="392" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="380" t="s">
+      <c r="B13" s="392" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="381">
+      <c r="C13" s="393">
         <v>43.9</v>
       </c>
-      <c r="D13" s="381">
+      <c r="D13" s="393">
         <v>6.528</v>
       </c>
-      <c r="E13" s="381">
+      <c r="E13" s="393">
         <v>400.455996352029</v>
       </c>
-      <c r="F13" s="380" t="s">
+      <c r="F13" s="392" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="384" t="s">
+      <c r="G13" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="384" t="s">
+      <c r="H13" s="396" t="s">
         <v>55</v>
       </c>
       <c r="I13" s="96">
@@ -8297,28 +8329,28 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="380" t="s">
+      <c r="A14" s="392" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="380" t="s">
+      <c r="B14" s="392" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="381">
+      <c r="C14" s="393">
         <v>98.2</v>
       </c>
-      <c r="D14" s="381">
+      <c r="D14" s="393">
         <v>0.102</v>
       </c>
-      <c r="E14" s="381">
+      <c r="E14" s="393">
         <v>397.971602434077</v>
       </c>
-      <c r="F14" s="380" t="s">
+      <c r="F14" s="392" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="384" t="s">
+      <c r="G14" s="396" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="384" t="s">
+      <c r="H14" s="396" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="96">
@@ -8327,28 +8359,28 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="380" t="s">
+      <c r="A15" s="392" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="380" t="s">
+      <c r="B15" s="392" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="381">
+      <c r="C15" s="393">
         <v>8.19</v>
       </c>
-      <c r="D15" s="381">
+      <c r="D15" s="393">
         <v>0.122</v>
       </c>
-      <c r="E15" s="381">
+      <c r="E15" s="393">
         <v>390.595423505451</v>
       </c>
-      <c r="F15" s="380" t="s">
+      <c r="F15" s="392" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="384" t="s">
+      <c r="H15" s="396" t="s">
         <v>63</v>
       </c>
       <c r="I15" s="96">
@@ -8357,28 +8389,28 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="380" t="s">
+      <c r="A16" s="392" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="380" t="s">
+      <c r="B16" s="392" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="381">
+      <c r="C16" s="393">
         <v>46.67</v>
       </c>
-      <c r="D16" s="381">
+      <c r="D16" s="393">
         <v>-2.527</v>
       </c>
-      <c r="E16" s="381">
+      <c r="E16" s="393">
         <v>390.231092436975</v>
       </c>
-      <c r="F16" s="380" t="s">
+      <c r="F16" s="392" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="384" t="s">
+      <c r="G16" s="396" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="384" t="s">
+      <c r="H16" s="396" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="96">
@@ -8387,28 +8419,28 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="380" t="s">
+      <c r="A17" s="392" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="380" t="s">
+      <c r="B17" s="392" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="381">
+      <c r="C17" s="393">
         <v>139.05</v>
       </c>
-      <c r="D17" s="381">
+      <c r="D17" s="393">
         <v>4.943</v>
       </c>
-      <c r="E17" s="381">
+      <c r="E17" s="393">
         <v>381.141868512111</v>
       </c>
-      <c r="F17" s="380" t="s">
+      <c r="F17" s="392" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="384" t="s">
+      <c r="G17" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="384" t="s">
+      <c r="H17" s="396" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="96">
@@ -8417,28 +8449,28 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="380" t="s">
+      <c r="A18" s="392" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="380" t="s">
+      <c r="B18" s="392" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="381">
+      <c r="C18" s="393">
         <v>78.3</v>
       </c>
-      <c r="D18" s="381">
+      <c r="D18" s="393">
         <v>3.407</v>
       </c>
-      <c r="E18" s="381">
+      <c r="E18" s="393">
         <v>373.111782477341</v>
       </c>
-      <c r="F18" s="380" t="s">
+      <c r="F18" s="392" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="384" t="s">
+      <c r="G18" s="396" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="384" t="s">
+      <c r="H18" s="396" t="s">
         <v>75</v>
       </c>
       <c r="I18" s="96">
@@ -8447,28 +8479,28 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="380" t="s">
+      <c r="A19" s="392" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="380" t="s">
+      <c r="B19" s="392" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="381">
+      <c r="C19" s="393">
         <v>31.21</v>
       </c>
-      <c r="D19" s="381">
+      <c r="D19" s="393">
         <v>-0.032</v>
       </c>
-      <c r="E19" s="381">
+      <c r="E19" s="393">
         <v>351.92586156965</v>
       </c>
-      <c r="F19" s="380" t="s">
+      <c r="F19" s="392" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="384" t="s">
+      <c r="G19" s="396" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="384" t="s">
+      <c r="H19" s="396" t="s">
         <v>79</v>
       </c>
       <c r="I19" s="96">
@@ -8477,28 +8509,28 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="380" t="s">
+      <c r="A20" s="392" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="380" t="s">
+      <c r="B20" s="392" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="381">
+      <c r="C20" s="393">
         <v>25.22</v>
       </c>
-      <c r="D20" s="381">
+      <c r="D20" s="393">
         <v>9.987</v>
       </c>
-      <c r="E20" s="381">
+      <c r="E20" s="393">
         <v>342.456140350877</v>
       </c>
-      <c r="F20" s="380" t="s">
+      <c r="F20" s="392" t="s">
         <v>82</v>
       </c>
-      <c r="G20" s="384" t="s">
+      <c r="G20" s="396" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="384" t="s">
+      <c r="H20" s="396" t="s">
         <v>83</v>
       </c>
       <c r="I20" s="96">
@@ -8507,28 +8539,28 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="380" t="s">
+      <c r="A21" s="392" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="380" t="s">
+      <c r="B21" s="392" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="381">
+      <c r="C21" s="393">
         <v>136.1</v>
       </c>
-      <c r="D21" s="381">
+      <c r="D21" s="393">
         <v>3.656</v>
       </c>
-      <c r="E21" s="381">
+      <c r="E21" s="393">
         <v>340.595662026546</v>
       </c>
-      <c r="F21" s="380" t="s">
+      <c r="F21" s="392" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="384" t="s">
+      <c r="G21" s="396" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="384" t="s">
+      <c r="H21" s="396" t="s">
         <v>87</v>
       </c>
       <c r="I21" s="96">
@@ -8537,28 +8569,28 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="380" t="s">
+      <c r="A22" s="392" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="380" t="s">
+      <c r="B22" s="392" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="381">
+      <c r="C22" s="393">
         <v>197.8</v>
       </c>
-      <c r="D22" s="381">
+      <c r="D22" s="393">
         <v>6.413</v>
       </c>
-      <c r="E22" s="381">
+      <c r="E22" s="393">
         <v>318.181818181818</v>
       </c>
-      <c r="F22" s="380" t="s">
+      <c r="F22" s="392" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="384" t="s">
+      <c r="G22" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="384" t="s">
+      <c r="H22" s="396" t="s">
         <v>91</v>
       </c>
       <c r="I22" s="96">
@@ -8567,28 +8599,28 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="380" t="s">
+      <c r="A23" s="392" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="380" t="s">
+      <c r="B23" s="392" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="381">
+      <c r="C23" s="393">
         <v>53.57</v>
       </c>
-      <c r="D23" s="381">
+      <c r="D23" s="393">
         <v>0.847</v>
       </c>
-      <c r="E23" s="381">
+      <c r="E23" s="393">
         <v>315.593483320403</v>
       </c>
-      <c r="F23" s="380" t="s">
+      <c r="F23" s="392" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="384" t="s">
+      <c r="G23" s="396" t="s">
         <v>47</v>
       </c>
-      <c r="H23" s="384" t="s">
+      <c r="H23" s="396" t="s">
         <v>95</v>
       </c>
       <c r="I23" s="96">
@@ -8597,28 +8629,28 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="380" t="s">
+      <c r="A24" s="392" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="380" t="s">
+      <c r="B24" s="392" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="381">
+      <c r="C24" s="393">
         <v>26.71</v>
       </c>
-      <c r="D24" s="381">
+      <c r="D24" s="393">
         <v>1.289</v>
       </c>
-      <c r="E24" s="381">
+      <c r="E24" s="393">
         <v>314.108527131783</v>
       </c>
-      <c r="F24" s="380" t="s">
+      <c r="F24" s="392" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="384" t="s">
+      <c r="G24" s="396" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="384" t="s">
+      <c r="H24" s="396" t="s">
         <v>99</v>
       </c>
       <c r="I24" s="96">
@@ -8627,28 +8659,28 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="380" t="s">
+      <c r="A25" s="392" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="380" t="s">
+      <c r="B25" s="392" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="381">
+      <c r="C25" s="393">
         <v>71.69</v>
       </c>
-      <c r="D25" s="381">
+      <c r="D25" s="393">
         <v>0.252</v>
       </c>
-      <c r="E25" s="381">
+      <c r="E25" s="393">
         <v>309.89136649514</v>
       </c>
-      <c r="F25" s="380" t="s">
+      <c r="F25" s="392" t="s">
         <v>102</v>
       </c>
-      <c r="G25" s="384" t="s">
+      <c r="G25" s="396" t="s">
         <v>63</v>
       </c>
-      <c r="H25" s="384" t="s">
+      <c r="H25" s="396" t="s">
         <v>103</v>
       </c>
       <c r="I25" s="96">
@@ -8657,28 +8689,28 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="380" t="s">
+      <c r="A26" s="392" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="380" t="s">
+      <c r="B26" s="392" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="381">
+      <c r="C26" s="393">
         <v>52.47</v>
       </c>
-      <c r="D26" s="381">
+      <c r="D26" s="393">
         <v>1.176</v>
       </c>
-      <c r="E26" s="381">
+      <c r="E26" s="393">
         <v>304.548959136469</v>
       </c>
-      <c r="F26" s="380" t="s">
+      <c r="F26" s="392" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="384" t="s">
+      <c r="G26" s="396" t="s">
         <v>47</v>
       </c>
-      <c r="H26" s="384" t="s">
+      <c r="H26" s="396" t="s">
         <v>107</v>
       </c>
       <c r="I26" s="96">
@@ -8687,28 +8719,28 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="380" t="s">
+      <c r="A27" s="392" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="380" t="s">
+      <c r="B27" s="392" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="381">
+      <c r="C27" s="393">
         <v>26.5</v>
       </c>
-      <c r="D27" s="381">
+      <c r="D27" s="393">
         <v>0.991</v>
       </c>
-      <c r="E27" s="381">
+      <c r="E27" s="393">
         <v>303.963414634146</v>
       </c>
-      <c r="F27" s="380" t="s">
+      <c r="F27" s="392" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="384" t="s">
+      <c r="G27" s="396" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="384" t="s">
+      <c r="H27" s="396" t="s">
         <v>111</v>
       </c>
       <c r="I27" s="96">
@@ -8717,28 +8749,28 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="380" t="s">
+      <c r="A28" s="392" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="380" t="s">
+      <c r="B28" s="392" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="381">
+      <c r="C28" s="393">
         <v>126</v>
       </c>
-      <c r="D28" s="381">
+      <c r="D28" s="393">
         <v>3.287</v>
       </c>
-      <c r="E28" s="381">
+      <c r="E28" s="393">
         <v>299.873056172644</v>
       </c>
-      <c r="F28" s="380" t="s">
+      <c r="F28" s="392" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="384" t="s">
+      <c r="G28" s="396" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="384" t="s">
+      <c r="H28" s="396" t="s">
         <v>115</v>
       </c>
       <c r="I28" s="96">
@@ -8747,28 +8779,28 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="380" t="s">
+      <c r="A29" s="392" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="380" t="s">
+      <c r="B29" s="392" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="381">
+      <c r="C29" s="393">
         <v>59.54</v>
       </c>
-      <c r="D29" s="381">
+      <c r="D29" s="393">
         <v>3.764</v>
       </c>
-      <c r="E29" s="381">
+      <c r="E29" s="393">
         <v>296.794107330754</v>
       </c>
-      <c r="F29" s="380" t="s">
+      <c r="F29" s="392" t="s">
         <v>118</v>
       </c>
-      <c r="G29" s="384" t="s">
+      <c r="G29" s="396" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="384" t="s">
+      <c r="H29" s="396" t="s">
         <v>119</v>
       </c>
       <c r="I29" s="96">
@@ -8777,28 +8809,28 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="380" t="s">
+      <c r="A30" s="392" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="380" t="s">
+      <c r="B30" s="392" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="381">
+      <c r="C30" s="393">
         <v>16.63</v>
       </c>
-      <c r="D30" s="381">
+      <c r="D30" s="393">
         <v>-0.894</v>
       </c>
-      <c r="E30" s="381">
+      <c r="E30" s="393">
         <v>295.011876484561</v>
       </c>
-      <c r="F30" s="380" t="s">
+      <c r="F30" s="392" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="384" t="s">
+      <c r="G30" s="396" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="384" t="s">
+      <c r="H30" s="396" t="s">
         <v>123</v>
       </c>
       <c r="I30" s="96">
@@ -8807,28 +8839,28 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="380" t="s">
+      <c r="A31" s="392" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="380" t="s">
+      <c r="B31" s="392" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="381">
+      <c r="C31" s="393">
         <v>142.1</v>
       </c>
-      <c r="D31" s="381">
+      <c r="D31" s="393">
         <v>1.067</v>
       </c>
-      <c r="E31" s="381">
+      <c r="E31" s="393">
         <v>293.737877528401</v>
       </c>
-      <c r="F31" s="380" t="s">
+      <c r="F31" s="392" t="s">
         <v>126</v>
       </c>
-      <c r="G31" s="384" t="s">
+      <c r="G31" s="396" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="384" t="s">
+      <c r="H31" s="396" t="s">
         <v>127</v>
       </c>
       <c r="I31" s="96">
@@ -8837,28 +8869,28 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="380" t="s">
+      <c r="A32" s="392" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="380" t="s">
+      <c r="B32" s="392" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="381">
+      <c r="C32" s="393">
         <v>32.71</v>
       </c>
-      <c r="D32" s="381">
+      <c r="D32" s="393">
         <v>3.447</v>
       </c>
-      <c r="E32" s="381">
+      <c r="E32" s="393">
         <v>293.149038461538</v>
       </c>
-      <c r="F32" s="380" t="s">
+      <c r="F32" s="392" t="s">
         <v>130</v>
       </c>
-      <c r="G32" s="384" t="s">
+      <c r="G32" s="396" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="384" t="s">
+      <c r="H32" s="396" t="s">
         <v>131</v>
       </c>
       <c r="I32" s="96">
@@ -8867,1500 +8899,1500 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="380" t="s">
+      <c r="A33" s="392" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="380" t="s">
+      <c r="B33" s="392" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="381">
+      <c r="C33" s="393">
         <v>23.13</v>
       </c>
-      <c r="D33" s="381">
+      <c r="D33" s="393">
         <v>1.27</v>
       </c>
-      <c r="E33" s="381">
+      <c r="E33" s="393">
         <v>291.370558375634</v>
       </c>
-      <c r="F33" s="380" t="s">
+      <c r="F33" s="392" t="s">
         <v>134</v>
       </c>
-      <c r="G33" s="384" t="s">
+      <c r="G33" s="396" t="s">
         <v>11</v>
       </c>
       <c r="H33" s="96"/>
       <c r="I33" s="96"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="380" t="s">
+      <c r="A34" s="392" t="s">
         <v>135</v>
       </c>
-      <c r="B34" s="380" t="s">
+      <c r="B34" s="392" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="381">
+      <c r="C34" s="393">
         <v>15.71</v>
       </c>
-      <c r="D34" s="381">
+      <c r="D34" s="393">
         <v>10.014</v>
       </c>
-      <c r="E34" s="381">
+      <c r="E34" s="393">
         <v>289.826302729528</v>
       </c>
-      <c r="F34" s="380" t="s">
+      <c r="F34" s="392" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="384" t="s">
+      <c r="G34" s="396" t="s">
         <v>71</v>
       </c>
       <c r="H34" s="96"/>
       <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="380" t="s">
+      <c r="A35" s="392" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="380" t="s">
+      <c r="B35" s="392" t="s">
         <v>139</v>
       </c>
-      <c r="C35" s="381">
+      <c r="C35" s="393">
         <v>15.09</v>
       </c>
-      <c r="D35" s="381">
+      <c r="D35" s="393">
         <v>-3.947</v>
       </c>
-      <c r="E35" s="381">
+      <c r="E35" s="393">
         <v>288.917525773196</v>
       </c>
-      <c r="F35" s="380" t="s">
+      <c r="F35" s="392" t="s">
         <v>140</v>
       </c>
-      <c r="G35" s="384" t="s">
+      <c r="G35" s="396" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="96"/>
       <c r="I35" s="96"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="380" t="s">
+      <c r="A36" s="392" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="380" t="s">
+      <c r="B36" s="392" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="381">
+      <c r="C36" s="393">
         <v>92.41</v>
       </c>
-      <c r="D36" s="381">
+      <c r="D36" s="393">
         <v>9.999</v>
       </c>
-      <c r="E36" s="381">
+      <c r="E36" s="393">
         <v>288.76735380732</v>
       </c>
-      <c r="F36" s="380" t="s">
+      <c r="F36" s="392" t="s">
         <v>143</v>
       </c>
-      <c r="G36" s="384" t="s">
+      <c r="G36" s="396" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="96"/>
       <c r="I36" s="96"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="380" t="s">
+      <c r="A37" s="392" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="380" t="s">
+      <c r="B37" s="392" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="381">
+      <c r="C37" s="393">
         <v>196.55</v>
       </c>
-      <c r="D37" s="381">
+      <c r="D37" s="393">
         <v>5.757</v>
       </c>
-      <c r="E37" s="381">
+      <c r="E37" s="393">
         <v>286.985627091947</v>
       </c>
-      <c r="F37" s="380" t="s">
+      <c r="F37" s="392" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="384" t="s">
+      <c r="G37" s="396" t="s">
         <v>31</v>
       </c>
       <c r="H37" s="96"/>
       <c r="I37" s="96"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="380" t="s">
+      <c r="A38" s="392" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="380" t="s">
+      <c r="B38" s="392" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="381">
+      <c r="C38" s="393">
         <v>28.59</v>
       </c>
-      <c r="D38" s="381">
+      <c r="D38" s="393">
         <v>5.304</v>
       </c>
-      <c r="E38" s="381">
+      <c r="E38" s="393">
         <v>286.874154262517</v>
       </c>
-      <c r="F38" s="380" t="s">
+      <c r="F38" s="392" t="s">
         <v>149</v>
       </c>
-      <c r="G38" s="384" t="s">
+      <c r="G38" s="396" t="s">
         <v>75</v>
       </c>
       <c r="H38" s="96"/>
       <c r="I38" s="96"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="380" t="s">
+      <c r="A39" s="392" t="s">
         <v>150</v>
       </c>
-      <c r="B39" s="380" t="s">
+      <c r="B39" s="392" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="381">
+      <c r="C39" s="393">
         <v>29.1</v>
       </c>
-      <c r="D39" s="381">
+      <c r="D39" s="393">
         <v>-1.954</v>
       </c>
-      <c r="E39" s="381">
+      <c r="E39" s="393">
         <v>277.431906614786</v>
       </c>
-      <c r="F39" s="380" t="s">
+      <c r="F39" s="392" t="s">
         <v>152</v>
       </c>
-      <c r="G39" s="384" t="s">
+      <c r="G39" s="396" t="s">
         <v>11</v>
       </c>
       <c r="H39" s="96"/>
       <c r="I39" s="96"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="380" t="s">
+      <c r="A40" s="392" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="380" t="s">
+      <c r="B40" s="392" t="s">
         <v>154</v>
       </c>
-      <c r="C40" s="381">
+      <c r="C40" s="393">
         <v>33.77</v>
       </c>
-      <c r="D40" s="381">
+      <c r="D40" s="393">
         <v>10</v>
       </c>
-      <c r="E40" s="381">
+      <c r="E40" s="393">
         <v>276.897321428571</v>
       </c>
-      <c r="F40" s="380" t="s">
+      <c r="F40" s="392" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="384" t="s">
+      <c r="G40" s="396" t="s">
         <v>79</v>
       </c>
       <c r="H40" s="96"/>
       <c r="I40" s="96"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="380" t="s">
+      <c r="A41" s="392" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="380" t="s">
+      <c r="B41" s="392" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="381">
+      <c r="C41" s="393">
         <v>69.29</v>
       </c>
-      <c r="D41" s="381">
+      <c r="D41" s="393">
         <v>2.334</v>
       </c>
-      <c r="E41" s="381">
+      <c r="E41" s="393">
         <v>276.576086956522</v>
       </c>
-      <c r="F41" s="380" t="s">
+      <c r="F41" s="392" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="384" t="s">
+      <c r="G41" s="396" t="s">
         <v>43</v>
       </c>
       <c r="H41" s="96"/>
       <c r="I41" s="96"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="380" t="s">
+      <c r="A42" s="392" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="380" t="s">
+      <c r="B42" s="392" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="381">
+      <c r="C42" s="393">
         <v>110.02</v>
       </c>
-      <c r="D42" s="381">
+      <c r="D42" s="393">
         <v>3.636</v>
       </c>
-      <c r="E42" s="381">
+      <c r="E42" s="393">
         <v>272.318104906937</v>
       </c>
-      <c r="F42" s="380" t="s">
+      <c r="F42" s="392" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="384" t="s">
+      <c r="G42" s="396" t="s">
         <v>47</v>
       </c>
       <c r="H42" s="96"/>
       <c r="I42" s="96"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="380" t="s">
+      <c r="A43" s="392" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="380" t="s">
+      <c r="B43" s="392" t="s">
         <v>163</v>
       </c>
-      <c r="C43" s="381">
+      <c r="C43" s="393">
         <v>75.2</v>
       </c>
-      <c r="D43" s="381">
+      <c r="D43" s="393">
         <v>3.169</v>
       </c>
-      <c r="E43" s="381">
+      <c r="E43" s="393">
         <v>272.093023255814</v>
       </c>
-      <c r="F43" s="380" t="s">
+      <c r="F43" s="392" t="s">
         <v>164</v>
       </c>
-      <c r="G43" s="384" t="s">
+      <c r="G43" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H43" s="96"/>
       <c r="I43" s="96"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="380" t="s">
+      <c r="A44" s="392" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="380" t="s">
+      <c r="B44" s="392" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="381">
+      <c r="C44" s="393">
         <v>15.92</v>
       </c>
-      <c r="D44" s="381">
+      <c r="D44" s="393">
         <v>1.144</v>
       </c>
-      <c r="E44" s="381">
+      <c r="E44" s="393">
         <v>270.232558139535</v>
       </c>
-      <c r="F44" s="380" t="s">
+      <c r="F44" s="392" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="384" t="s">
+      <c r="G44" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H44" s="96"/>
       <c r="I44" s="96"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="380" t="s">
+      <c r="A45" s="392" t="s">
         <v>168</v>
       </c>
-      <c r="B45" s="380" t="s">
+      <c r="B45" s="392" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="381">
+      <c r="C45" s="393">
         <v>23.79</v>
       </c>
-      <c r="D45" s="381">
+      <c r="D45" s="393">
         <v>-1.572</v>
       </c>
-      <c r="E45" s="381">
+      <c r="E45" s="393">
         <v>269.984447900467</v>
       </c>
-      <c r="F45" s="380" t="s">
+      <c r="F45" s="392" t="s">
         <v>170</v>
       </c>
-      <c r="G45" s="384" t="s">
+      <c r="G45" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H45" s="96"/>
       <c r="I45" s="96"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="380" t="s">
+      <c r="A46" s="392" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="380" t="s">
+      <c r="B46" s="392" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="381">
+      <c r="C46" s="393">
         <v>251.3</v>
       </c>
-      <c r="D46" s="381">
+      <c r="D46" s="393">
         <v>2.655</v>
       </c>
-      <c r="E46" s="381">
+      <c r="E46" s="393">
         <v>266.861313868613</v>
       </c>
-      <c r="F46" s="380" t="s">
+      <c r="F46" s="392" t="s">
         <v>173</v>
       </c>
-      <c r="G46" s="384" t="s">
+      <c r="G46" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H46" s="96"/>
       <c r="I46" s="96"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="380" t="s">
+      <c r="A47" s="392" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="380" t="s">
+      <c r="B47" s="392" t="s">
         <v>175</v>
       </c>
-      <c r="C47" s="381">
+      <c r="C47" s="393">
         <v>7.89</v>
       </c>
-      <c r="D47" s="381">
+      <c r="D47" s="393">
         <v>-2.472</v>
       </c>
-      <c r="E47" s="381">
+      <c r="E47" s="393">
         <v>265.277777777778</v>
       </c>
-      <c r="F47" s="380" t="s">
+      <c r="F47" s="392" t="s">
         <v>176</v>
       </c>
-      <c r="G47" s="384" t="s">
+      <c r="G47" s="396" t="s">
         <v>83</v>
       </c>
       <c r="H47" s="96"/>
       <c r="I47" s="96"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="380" t="s">
+      <c r="A48" s="392" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="380" t="s">
+      <c r="B48" s="392" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="381">
+      <c r="C48" s="393">
         <v>34.48</v>
       </c>
-      <c r="D48" s="381">
+      <c r="D48" s="393">
         <v>2.012</v>
       </c>
-      <c r="E48" s="381">
+      <c r="E48" s="393">
         <v>264.482029598309</v>
       </c>
-      <c r="F48" s="380" t="s">
+      <c r="F48" s="392" t="s">
         <v>179</v>
       </c>
-      <c r="G48" s="384" t="s">
+      <c r="G48" s="396" t="s">
         <v>87</v>
       </c>
       <c r="H48" s="96"/>
       <c r="I48" s="96"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="380" t="s">
+      <c r="A49" s="392" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="380" t="s">
+      <c r="B49" s="392" t="s">
         <v>181</v>
       </c>
-      <c r="C49" s="381">
+      <c r="C49" s="393">
         <v>23.1</v>
       </c>
-      <c r="D49" s="381">
+      <c r="D49" s="393">
         <v>10</v>
       </c>
-      <c r="E49" s="381">
+      <c r="E49" s="393">
         <v>264.353312302839</v>
       </c>
-      <c r="F49" s="380" t="s">
+      <c r="F49" s="392" t="s">
         <v>182</v>
       </c>
-      <c r="G49" s="384" t="s">
+      <c r="G49" s="396" t="s">
         <v>59</v>
       </c>
       <c r="H49" s="96"/>
       <c r="I49" s="96"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="380" t="s">
+      <c r="A50" s="392" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="380" t="s">
+      <c r="B50" s="392" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="381">
+      <c r="C50" s="393">
         <v>243.47</v>
       </c>
-      <c r="D50" s="381">
+      <c r="D50" s="393">
         <v>1.193</v>
       </c>
-      <c r="E50" s="381">
+      <c r="E50" s="393">
         <v>261.445961995249</v>
       </c>
-      <c r="F50" s="380" t="s">
+      <c r="F50" s="392" t="s">
         <v>185</v>
       </c>
-      <c r="G50" s="384" t="s">
+      <c r="G50" s="396" t="s">
         <v>91</v>
       </c>
       <c r="H50" s="96"/>
       <c r="I50" s="96"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="380" t="s">
+      <c r="A51" s="392" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="380" t="s">
+      <c r="B51" s="392" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="381">
+      <c r="C51" s="393">
         <v>614</v>
       </c>
-      <c r="D51" s="381">
+      <c r="D51" s="393">
         <v>1.207</v>
       </c>
-      <c r="E51" s="381">
+      <c r="E51" s="393">
         <v>261.112744809739</v>
       </c>
-      <c r="F51" s="380" t="s">
+      <c r="F51" s="392" t="s">
         <v>188</v>
       </c>
-      <c r="G51" s="384" t="s">
+      <c r="G51" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H51" s="96"/>
       <c r="I51" s="96"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="380" t="s">
+      <c r="A52" s="392" t="s">
         <v>189</v>
       </c>
-      <c r="B52" s="380" t="s">
+      <c r="B52" s="392" t="s">
         <v>190</v>
       </c>
-      <c r="C52" s="381">
+      <c r="C52" s="393">
         <v>136.3</v>
       </c>
-      <c r="D52" s="381">
+      <c r="D52" s="393">
         <v>0.221</v>
       </c>
-      <c r="E52" s="381">
+      <c r="E52" s="393">
         <v>257.180293501048</v>
       </c>
-      <c r="F52" s="380" t="s">
+      <c r="F52" s="392" t="s">
         <v>191</v>
       </c>
-      <c r="G52" s="384" t="s">
+      <c r="G52" s="396" t="s">
         <v>11</v>
       </c>
       <c r="H52" s="96"/>
       <c r="I52" s="96"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="380" t="s">
+      <c r="A53" s="392" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="380" t="s">
+      <c r="B53" s="392" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="381">
+      <c r="C53" s="393">
         <v>540.64</v>
       </c>
-      <c r="D53" s="381">
+      <c r="D53" s="393">
         <v>1.529</v>
       </c>
-      <c r="E53" s="381">
+      <c r="E53" s="393">
         <v>255.754425215503</v>
       </c>
-      <c r="F53" s="380" t="s">
+      <c r="F53" s="392" t="s">
         <v>194</v>
       </c>
-      <c r="G53" s="384" t="s">
+      <c r="G53" s="396" t="s">
         <v>95</v>
       </c>
       <c r="H53" s="96"/>
       <c r="I53" s="96"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="380" t="s">
+      <c r="A54" s="392" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="380" t="s">
+      <c r="B54" s="392" t="s">
         <v>196</v>
       </c>
-      <c r="C54" s="381">
+      <c r="C54" s="393">
         <v>377.25</v>
       </c>
-      <c r="D54" s="381">
+      <c r="D54" s="393">
         <v>3.76</v>
       </c>
-      <c r="E54" s="381">
+      <c r="E54" s="393">
         <v>253.657507663751</v>
       </c>
-      <c r="F54" s="380" t="s">
+      <c r="F54" s="392" t="s">
         <v>197</v>
       </c>
-      <c r="G54" s="384" t="s">
+      <c r="G54" s="396" t="s">
         <v>99</v>
       </c>
       <c r="H54" s="96"/>
       <c r="I54" s="96"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="380" t="s">
+      <c r="A55" s="392" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="380" t="s">
+      <c r="B55" s="392" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="381">
+      <c r="C55" s="393">
         <v>190.6</v>
       </c>
-      <c r="D55" s="381">
+      <c r="D55" s="393">
         <v>3.166</v>
       </c>
-      <c r="E55" s="381">
+      <c r="E55" s="393">
         <v>252.832284339134</v>
       </c>
-      <c r="F55" s="380" t="s">
+      <c r="F55" s="392" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="384" t="s">
+      <c r="G55" s="396" t="s">
         <v>91</v>
       </c>
       <c r="H55" s="96"/>
       <c r="I55" s="96"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="380" t="s">
+      <c r="A56" s="392" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="380" t="s">
+      <c r="B56" s="392" t="s">
         <v>202</v>
       </c>
-      <c r="C56" s="381">
+      <c r="C56" s="393">
         <v>76.54</v>
       </c>
-      <c r="D56" s="381">
+      <c r="D56" s="393">
         <v>5.485</v>
       </c>
-      <c r="E56" s="381">
+      <c r="E56" s="393">
         <v>252.718894009217</v>
       </c>
-      <c r="F56" s="380" t="s">
+      <c r="F56" s="392" t="s">
         <v>203</v>
       </c>
-      <c r="G56" s="384" t="s">
+      <c r="G56" s="396" t="s">
         <v>87</v>
       </c>
       <c r="H56" s="96"/>
       <c r="I56" s="96"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="380" t="s">
+      <c r="A57" s="392" t="s">
         <v>204</v>
       </c>
-      <c r="B57" s="380" t="s">
+      <c r="B57" s="392" t="s">
         <v>205</v>
       </c>
-      <c r="C57" s="381">
+      <c r="C57" s="393">
         <v>151</v>
       </c>
-      <c r="D57" s="381">
+      <c r="D57" s="393">
         <v>-1.307</v>
       </c>
-      <c r="E57" s="381">
+      <c r="E57" s="393">
         <v>252.14552238806</v>
       </c>
-      <c r="F57" s="380" t="s">
+      <c r="F57" s="392" t="s">
         <v>206</v>
       </c>
-      <c r="G57" s="384" t="s">
+      <c r="G57" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H57" s="96"/>
       <c r="I57" s="96"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="380" t="s">
+      <c r="A58" s="392" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="380" t="s">
+      <c r="B58" s="392" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="381">
+      <c r="C58" s="393">
         <v>19.91</v>
       </c>
-      <c r="D58" s="381">
+      <c r="D58" s="393">
         <v>4.79</v>
       </c>
-      <c r="E58" s="381">
+      <c r="E58" s="393">
         <v>251.146384479718</v>
       </c>
-      <c r="F58" s="380" t="s">
+      <c r="F58" s="392" t="s">
         <v>209</v>
       </c>
-      <c r="G58" s="384" t="s">
+      <c r="G58" s="396" t="s">
         <v>91</v>
       </c>
       <c r="H58" s="96"/>
       <c r="I58" s="96"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="380" t="s">
+      <c r="A59" s="392" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="380" t="s">
+      <c r="B59" s="392" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="381">
+      <c r="C59" s="393">
         <v>31.9</v>
       </c>
-      <c r="D59" s="381">
+      <c r="D59" s="393">
         <v>6.725</v>
       </c>
-      <c r="E59" s="381">
+      <c r="E59" s="393">
         <v>250.549450549451</v>
       </c>
-      <c r="F59" s="380" t="s">
+      <c r="F59" s="392" t="s">
         <v>212</v>
       </c>
-      <c r="G59" s="384" t="s">
+      <c r="G59" s="396" t="s">
         <v>31</v>
       </c>
       <c r="H59" s="96"/>
       <c r="I59" s="96"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="380" t="s">
+      <c r="A60" s="392" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="380" t="s">
+      <c r="B60" s="392" t="s">
         <v>214</v>
       </c>
-      <c r="C60" s="381">
+      <c r="C60" s="393">
         <v>89.22</v>
       </c>
-      <c r="D60" s="381">
+      <c r="D60" s="393">
         <v>0.259</v>
       </c>
-      <c r="E60" s="381">
+      <c r="E60" s="393">
         <v>249.471210340776</v>
       </c>
-      <c r="F60" s="380" t="s">
+      <c r="F60" s="392" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="384" t="s">
+      <c r="G60" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="96"/>
       <c r="I60" s="96"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="380" t="s">
+      <c r="A61" s="392" t="s">
         <v>216</v>
       </c>
-      <c r="B61" s="380" t="s">
+      <c r="B61" s="392" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="381">
+      <c r="C61" s="393">
         <v>39.72</v>
       </c>
-      <c r="D61" s="381">
+      <c r="D61" s="393">
         <v>5.892</v>
       </c>
-      <c r="E61" s="381">
+      <c r="E61" s="393">
         <v>246.294681778553</v>
       </c>
-      <c r="F61" s="380" t="s">
+      <c r="F61" s="392" t="s">
         <v>218</v>
       </c>
-      <c r="G61" s="384" t="s">
+      <c r="G61" s="396" t="s">
         <v>11</v>
       </c>
       <c r="H61" s="96"/>
       <c r="I61" s="96"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="380" t="s">
+      <c r="A62" s="392" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="380" t="s">
+      <c r="B62" s="392" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="381">
+      <c r="C62" s="393">
         <v>77.33</v>
       </c>
-      <c r="D62" s="381">
+      <c r="D62" s="393">
         <v>1.603</v>
       </c>
-      <c r="E62" s="381">
+      <c r="E62" s="393">
         <v>243.231247225921</v>
       </c>
-      <c r="F62" s="380" t="s">
+      <c r="F62" s="392" t="s">
         <v>221</v>
       </c>
-      <c r="G62" s="384" t="s">
+      <c r="G62" s="396" t="s">
         <v>75</v>
       </c>
       <c r="H62" s="96"/>
       <c r="I62" s="96"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="380" t="s">
+      <c r="A63" s="392" t="s">
         <v>222</v>
       </c>
-      <c r="B63" s="380" t="s">
+      <c r="B63" s="392" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="381">
+      <c r="C63" s="393">
         <v>19.57</v>
       </c>
-      <c r="D63" s="381">
+      <c r="D63" s="393">
         <v>0.772</v>
       </c>
-      <c r="E63" s="381">
+      <c r="E63" s="393">
         <v>241.535776614311</v>
       </c>
-      <c r="F63" s="380" t="s">
+      <c r="F63" s="392" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="384" t="s">
+      <c r="G63" s="396" t="s">
         <v>67</v>
       </c>
       <c r="H63" s="96"/>
       <c r="I63" s="96"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="380" t="s">
+      <c r="A64" s="392" t="s">
         <v>225</v>
       </c>
-      <c r="B64" s="380" t="s">
+      <c r="B64" s="392" t="s">
         <v>226</v>
       </c>
-      <c r="C64" s="381">
+      <c r="C64" s="393">
         <v>57.15</v>
       </c>
-      <c r="D64" s="381">
+      <c r="D64" s="393">
         <v>4.061</v>
       </c>
-      <c r="E64" s="381">
+      <c r="E64" s="393">
         <v>240.178571428571</v>
       </c>
-      <c r="F64" s="380" t="s">
+      <c r="F64" s="392" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="384" t="s">
+      <c r="G64" s="396" t="s">
         <v>103</v>
       </c>
       <c r="H64" s="96"/>
       <c r="I64" s="96"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="380" t="s">
+      <c r="A65" s="392" t="s">
         <v>228</v>
       </c>
-      <c r="B65" s="380" t="s">
+      <c r="B65" s="392" t="s">
         <v>229</v>
       </c>
-      <c r="C65" s="381">
+      <c r="C65" s="393">
         <v>48.6</v>
       </c>
-      <c r="D65" s="381">
+      <c r="D65" s="393">
         <v>-1.46</v>
       </c>
-      <c r="E65" s="381">
+      <c r="E65" s="393">
         <v>239.148639218423</v>
       </c>
-      <c r="F65" s="380" t="s">
+      <c r="F65" s="392" t="s">
         <v>230</v>
       </c>
-      <c r="G65" s="384" t="s">
+      <c r="G65" s="396" t="s">
         <v>47</v>
       </c>
       <c r="H65" s="96"/>
       <c r="I65" s="96"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="380" t="s">
+      <c r="A66" s="392" t="s">
         <v>231</v>
       </c>
-      <c r="B66" s="380" t="s">
+      <c r="B66" s="392" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="381">
+      <c r="C66" s="393">
         <v>25.31</v>
       </c>
-      <c r="D66" s="381">
+      <c r="D66" s="393">
         <v>4.89</v>
       </c>
-      <c r="E66" s="381">
+      <c r="E66" s="393">
         <v>238.821954484605</v>
       </c>
-      <c r="F66" s="380" t="s">
+      <c r="F66" s="392" t="s">
         <v>233</v>
       </c>
-      <c r="G66" s="384" t="s">
+      <c r="G66" s="396" t="s">
         <v>91</v>
       </c>
       <c r="H66" s="96"/>
       <c r="I66" s="96"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="380" t="s">
+      <c r="A67" s="392" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="380" t="s">
+      <c r="B67" s="392" t="s">
         <v>235</v>
       </c>
-      <c r="C67" s="381">
+      <c r="C67" s="393">
         <v>74.83</v>
       </c>
-      <c r="D67" s="381">
+      <c r="D67" s="393">
         <v>6.885</v>
       </c>
-      <c r="E67" s="381">
+      <c r="E67" s="393">
         <v>236.768676867687</v>
       </c>
-      <c r="F67" s="380" t="s">
+      <c r="F67" s="392" t="s">
         <v>236</v>
       </c>
-      <c r="G67" s="384" t="s">
+      <c r="G67" s="396" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="96"/>
       <c r="I67" s="96"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="380" t="s">
+      <c r="A68" s="392" t="s">
         <v>237</v>
       </c>
-      <c r="B68" s="380" t="s">
+      <c r="B68" s="392" t="s">
         <v>238</v>
       </c>
-      <c r="C68" s="381">
+      <c r="C68" s="393">
         <v>63.42</v>
       </c>
-      <c r="D68" s="381">
+      <c r="D68" s="393">
         <v>3.021</v>
       </c>
-      <c r="E68" s="381">
+      <c r="E68" s="393">
         <v>236.445623342175</v>
       </c>
-      <c r="F68" s="380" t="s">
+      <c r="F68" s="392" t="s">
         <v>239</v>
       </c>
-      <c r="G68" s="384" t="s">
+      <c r="G68" s="396" t="s">
         <v>107</v>
       </c>
       <c r="H68" s="96"/>
       <c r="I68" s="96"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="380" t="s">
+      <c r="A69" s="392" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="380" t="s">
+      <c r="B69" s="392" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="381">
+      <c r="C69" s="393">
         <v>127.5</v>
       </c>
-      <c r="D69" s="381">
+      <c r="D69" s="393">
         <v>2.831</v>
       </c>
-      <c r="E69" s="381">
+      <c r="E69" s="393">
         <v>236.322869955157</v>
       </c>
-      <c r="F69" s="380" t="s">
+      <c r="F69" s="392" t="s">
         <v>242</v>
       </c>
-      <c r="G69" s="384" t="s">
+      <c r="G69" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="96"/>
       <c r="I69" s="96"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="380" t="s">
+      <c r="A70" s="392" t="s">
         <v>243</v>
       </c>
-      <c r="B70" s="380" t="s">
+      <c r="B70" s="392" t="s">
         <v>244</v>
       </c>
-      <c r="C70" s="381">
+      <c r="C70" s="393">
         <v>15.28</v>
       </c>
-      <c r="D70" s="381">
+      <c r="D70" s="393">
         <v>0.066</v>
       </c>
-      <c r="E70" s="381">
+      <c r="E70" s="393">
         <v>235.087719298246</v>
       </c>
-      <c r="F70" s="380" t="s">
+      <c r="F70" s="392" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="384" t="s">
+      <c r="G70" s="396" t="s">
         <v>83</v>
       </c>
       <c r="H70" s="96"/>
       <c r="I70" s="96"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="380" t="s">
+      <c r="A71" s="392" t="s">
         <v>246</v>
       </c>
-      <c r="B71" s="380" t="s">
+      <c r="B71" s="392" t="s">
         <v>247</v>
       </c>
-      <c r="C71" s="381">
+      <c r="C71" s="393">
         <v>8.26</v>
       </c>
-      <c r="D71" s="381">
+      <c r="D71" s="393">
         <v>2.481</v>
       </c>
-      <c r="E71" s="381">
+      <c r="E71" s="393">
         <v>233.064516129032</v>
       </c>
-      <c r="F71" s="380" t="s">
+      <c r="F71" s="392" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="384" t="s">
+      <c r="G71" s="396" t="s">
         <v>75</v>
       </c>
       <c r="H71" s="96"/>
       <c r="I71" s="96"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="380" t="s">
+      <c r="A72" s="392" t="s">
         <v>249</v>
       </c>
-      <c r="B72" s="380" t="s">
+      <c r="B72" s="392" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="381">
+      <c r="C72" s="393">
         <v>60.14</v>
       </c>
-      <c r="D72" s="381">
+      <c r="D72" s="393">
         <v>1.11</v>
       </c>
-      <c r="E72" s="381">
+      <c r="E72" s="393">
         <v>230.621220450797</v>
       </c>
-      <c r="F72" s="380" t="s">
+      <c r="F72" s="392" t="s">
         <v>251</v>
       </c>
-      <c r="G72" s="384" t="s">
+      <c r="G72" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="96"/>
       <c r="I72" s="96"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="380" t="s">
+      <c r="A73" s="392" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="380" t="s">
+      <c r="B73" s="392" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="381">
+      <c r="C73" s="393">
         <v>64.26</v>
       </c>
-      <c r="D73" s="381">
+      <c r="D73" s="393">
         <v>5.691</v>
       </c>
-      <c r="E73" s="381">
+      <c r="E73" s="393">
         <v>230.385604113111</v>
       </c>
-      <c r="F73" s="380" t="s">
+      <c r="F73" s="392" t="s">
         <v>254</v>
       </c>
-      <c r="G73" s="384" t="s">
+      <c r="G73" s="396" t="s">
         <v>75</v>
       </c>
       <c r="H73" s="96"/>
       <c r="I73" s="96"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="380" t="s">
+      <c r="A74" s="392" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="380" t="s">
+      <c r="B74" s="392" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="381">
+      <c r="C74" s="393">
         <v>29.11</v>
       </c>
-      <c r="D74" s="381">
+      <c r="D74" s="393">
         <v>7.022</v>
       </c>
-      <c r="E74" s="381">
+      <c r="E74" s="393">
         <v>229.298642533937</v>
       </c>
-      <c r="F74" s="380" t="s">
+      <c r="F74" s="392" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="384" t="s">
+      <c r="G74" s="396" t="s">
         <v>11</v>
       </c>
       <c r="H74" s="96"/>
       <c r="I74" s="96"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="380" t="s">
+      <c r="A75" s="392" t="s">
         <v>258</v>
       </c>
-      <c r="B75" s="380" t="s">
+      <c r="B75" s="392" t="s">
         <v>259</v>
       </c>
-      <c r="C75" s="381">
+      <c r="C75" s="393">
         <v>24.54</v>
       </c>
-      <c r="D75" s="381">
+      <c r="D75" s="393">
         <v>3.763</v>
       </c>
-      <c r="E75" s="381">
+      <c r="E75" s="393">
         <v>226.76431424767</v>
       </c>
-      <c r="F75" s="380" t="s">
+      <c r="F75" s="392" t="s">
         <v>260</v>
       </c>
-      <c r="G75" s="384" t="s">
+      <c r="G75" s="396" t="s">
         <v>75</v>
       </c>
       <c r="H75" s="96"/>
       <c r="I75" s="96"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="380" t="s">
+      <c r="A76" s="392" t="s">
         <v>261</v>
       </c>
-      <c r="B76" s="380" t="s">
+      <c r="B76" s="392" t="s">
         <v>262</v>
       </c>
-      <c r="C76" s="381">
+      <c r="C76" s="393">
         <v>11.3</v>
       </c>
-      <c r="D76" s="381">
+      <c r="D76" s="393">
         <v>4.63</v>
       </c>
-      <c r="E76" s="381">
+      <c r="E76" s="393">
         <v>226.589595375723</v>
       </c>
-      <c r="F76" s="380" t="s">
+      <c r="F76" s="392" t="s">
         <v>263</v>
       </c>
-      <c r="G76" s="384" t="s">
+      <c r="G76" s="396" t="s">
         <v>107</v>
       </c>
       <c r="H76" s="96"/>
       <c r="I76" s="96"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="380" t="s">
+      <c r="A77" s="392" t="s">
         <v>264</v>
       </c>
-      <c r="B77" s="380" t="s">
+      <c r="B77" s="392" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="381">
+      <c r="C77" s="393">
         <v>22.7</v>
       </c>
-      <c r="D77" s="381">
+      <c r="D77" s="393">
         <v>3.606</v>
       </c>
-      <c r="E77" s="381">
+      <c r="E77" s="393">
         <v>224.982104509664</v>
       </c>
-      <c r="F77" s="380" t="s">
+      <c r="F77" s="392" t="s">
         <v>266</v>
       </c>
-      <c r="G77" s="384" t="s">
+      <c r="G77" s="396" t="s">
         <v>79</v>
       </c>
       <c r="H77" s="96"/>
       <c r="I77" s="96"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="380" t="s">
+      <c r="A78" s="392" t="s">
         <v>267</v>
       </c>
-      <c r="B78" s="380" t="s">
+      <c r="B78" s="392" t="s">
         <v>268</v>
       </c>
-      <c r="C78" s="381">
+      <c r="C78" s="393">
         <v>23.35</v>
       </c>
-      <c r="D78" s="381">
+      <c r="D78" s="393">
         <v>-1.101</v>
       </c>
-      <c r="E78" s="381">
+      <c r="E78" s="393">
         <v>223.407202216067</v>
       </c>
-      <c r="F78" s="380" t="s">
+      <c r="F78" s="392" t="s">
         <v>269</v>
       </c>
-      <c r="G78" s="384" t="s">
+      <c r="G78" s="396" t="s">
         <v>67</v>
       </c>
       <c r="H78" s="96"/>
       <c r="I78" s="96"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="380" t="s">
+      <c r="A79" s="392" t="s">
         <v>270</v>
       </c>
-      <c r="B79" s="380" t="s">
+      <c r="B79" s="392" t="s">
         <v>271</v>
       </c>
-      <c r="C79" s="381">
+      <c r="C79" s="393">
         <v>53.93</v>
       </c>
-      <c r="D79" s="381">
+      <c r="D79" s="393">
         <v>2.94</v>
       </c>
-      <c r="E79" s="381">
+      <c r="E79" s="393">
         <v>223.236561153774</v>
       </c>
-      <c r="F79" s="380" t="s">
+      <c r="F79" s="392" t="s">
         <v>272</v>
       </c>
-      <c r="G79" s="384" t="s">
+      <c r="G79" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H79" s="96"/>
       <c r="I79" s="96"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="380" t="s">
+      <c r="A80" s="392" t="s">
         <v>273</v>
       </c>
-      <c r="B80" s="380" t="s">
+      <c r="B80" s="392" t="s">
         <v>274</v>
       </c>
-      <c r="C80" s="381">
+      <c r="C80" s="393">
         <v>85.26</v>
       </c>
-      <c r="D80" s="381">
+      <c r="D80" s="393">
         <v>4.23</v>
       </c>
-      <c r="E80" s="381">
+      <c r="E80" s="393">
         <v>221.614485099962</v>
       </c>
-      <c r="F80" s="380" t="s">
+      <c r="F80" s="392" t="s">
         <v>275</v>
       </c>
-      <c r="G80" s="384" t="s">
+      <c r="G80" s="396" t="s">
         <v>99</v>
       </c>
       <c r="H80" s="96"/>
       <c r="I80" s="96"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="380" t="s">
+      <c r="A81" s="392" t="s">
         <v>276</v>
       </c>
-      <c r="B81" s="380" t="s">
+      <c r="B81" s="392" t="s">
         <v>277</v>
       </c>
-      <c r="C81" s="381">
+      <c r="C81" s="393">
         <v>23.54</v>
       </c>
-      <c r="D81" s="381">
+      <c r="D81" s="393">
         <v>-9.981</v>
       </c>
-      <c r="E81" s="381">
+      <c r="E81" s="393">
         <v>219.099905110479</v>
       </c>
-      <c r="F81" s="380" t="s">
+      <c r="F81" s="392" t="s">
         <v>278</v>
       </c>
-      <c r="G81" s="384" t="s">
+      <c r="G81" s="396" t="s">
         <v>27</v>
       </c>
       <c r="H81" s="96"/>
       <c r="I81" s="96"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="380" t="s">
+      <c r="A82" s="392" t="s">
         <v>279</v>
       </c>
-      <c r="B82" s="380" t="s">
+      <c r="B82" s="392" t="s">
         <v>280</v>
       </c>
-      <c r="C82" s="381">
+      <c r="C82" s="393">
         <v>217.49</v>
       </c>
-      <c r="D82" s="381">
+      <c r="D82" s="393">
         <v>0.467</v>
       </c>
-      <c r="E82" s="381">
+      <c r="E82" s="393">
         <v>217.781998831093</v>
       </c>
-      <c r="F82" s="380" t="s">
+      <c r="F82" s="392" t="s">
         <v>281</v>
       </c>
-      <c r="G82" s="384" t="s">
+      <c r="G82" s="396" t="s">
         <v>111</v>
       </c>
       <c r="H82" s="96"/>
       <c r="I82" s="96"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="380" t="s">
+      <c r="A83" s="392" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="380" t="s">
+      <c r="B83" s="392" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="381">
+      <c r="C83" s="393">
         <v>39.7</v>
       </c>
-      <c r="D83" s="381">
+      <c r="D83" s="393">
         <v>6.15</v>
       </c>
-      <c r="E83" s="381">
+      <c r="E83" s="393">
         <v>216.625766871154</v>
       </c>
-      <c r="F83" s="380" t="s">
+      <c r="F83" s="392" t="s">
         <v>284</v>
       </c>
-      <c r="G83" s="384" t="s">
+      <c r="G83" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H83" s="96"/>
       <c r="I83" s="96"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="380" t="s">
+      <c r="A84" s="392" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="380" t="s">
+      <c r="B84" s="392" t="s">
         <v>286</v>
       </c>
-      <c r="C84" s="381">
+      <c r="C84" s="393">
         <v>34.49</v>
       </c>
-      <c r="D84" s="381">
+      <c r="D84" s="393">
         <v>2.162</v>
       </c>
-      <c r="E84" s="381">
+      <c r="E84" s="393">
         <v>216.131989000917</v>
       </c>
-      <c r="F84" s="380" t="s">
+      <c r="F84" s="392" t="s">
         <v>287</v>
       </c>
-      <c r="G84" s="384" t="s">
+      <c r="G84" s="396" t="s">
         <v>115</v>
       </c>
       <c r="H84" s="96"/>
       <c r="I84" s="96"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="380" t="s">
+      <c r="A85" s="392" t="s">
         <v>288</v>
       </c>
-      <c r="B85" s="380" t="s">
+      <c r="B85" s="392" t="s">
         <v>289</v>
       </c>
-      <c r="C85" s="381">
+      <c r="C85" s="393">
         <v>46.49</v>
       </c>
-      <c r="D85" s="381">
+      <c r="D85" s="393">
         <v>3.518</v>
       </c>
-      <c r="E85" s="381">
+      <c r="E85" s="393">
         <v>214.972899728997</v>
       </c>
-      <c r="F85" s="380" t="s">
+      <c r="F85" s="392" t="s">
         <v>290</v>
       </c>
-      <c r="G85" s="384" t="s">
+      <c r="G85" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H85" s="96"/>
       <c r="I85" s="96"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="380" t="s">
+      <c r="A86" s="392" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="380" t="s">
+      <c r="B86" s="392" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="381">
+      <c r="C86" s="393">
         <v>26.06</v>
       </c>
-      <c r="D86" s="381">
+      <c r="D86" s="393">
         <v>-0.077</v>
       </c>
-      <c r="E86" s="381">
+      <c r="E86" s="393">
         <v>213.975903614458</v>
       </c>
-      <c r="F86" s="380" t="s">
+      <c r="F86" s="392" t="s">
         <v>293</v>
       </c>
-      <c r="G86" s="384" t="s">
+      <c r="G86" s="396" t="s">
         <v>39</v>
       </c>
       <c r="H86" s="96"/>
       <c r="I86" s="96"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="380" t="s">
+      <c r="A87" s="392" t="s">
         <v>294</v>
       </c>
-      <c r="B87" s="380" t="s">
+      <c r="B87" s="392" t="s">
         <v>295</v>
       </c>
-      <c r="C87" s="381">
+      <c r="C87" s="393">
         <v>18.85</v>
       </c>
-      <c r="D87" s="381">
+      <c r="D87" s="393">
         <v>4.144</v>
       </c>
-      <c r="E87" s="381">
+      <c r="E87" s="393">
         <v>213.12292358804</v>
       </c>
-      <c r="F87" s="380" t="s">
+      <c r="F87" s="392" t="s">
         <v>296</v>
       </c>
-      <c r="G87" s="384" t="s">
+      <c r="G87" s="396" t="s">
         <v>119</v>
       </c>
       <c r="H87" s="96"/>
       <c r="I87" s="96"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="380" t="s">
+      <c r="A88" s="392" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="380" t="s">
+      <c r="B88" s="392" t="s">
         <v>298</v>
       </c>
-      <c r="C88" s="381">
+      <c r="C88" s="393">
         <v>22.45</v>
       </c>
-      <c r="D88" s="381">
+      <c r="D88" s="393">
         <v>9.995</v>
       </c>
-      <c r="E88" s="381">
+      <c r="E88" s="393">
         <v>212.239221140473</v>
       </c>
-      <c r="F88" s="380" t="s">
+      <c r="F88" s="392" t="s">
         <v>299</v>
       </c>
-      <c r="G88" s="384" t="s">
+      <c r="G88" s="396" t="s">
         <v>83</v>
       </c>
       <c r="H88" s="96"/>
       <c r="I88" s="96"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="380" t="s">
+      <c r="A89" s="392" t="s">
         <v>300</v>
       </c>
-      <c r="B89" s="380" t="s">
+      <c r="B89" s="392" t="s">
         <v>301</v>
       </c>
-      <c r="C89" s="381">
+      <c r="C89" s="393">
         <v>114.36</v>
       </c>
-      <c r="D89" s="381">
+      <c r="D89" s="393">
         <v>5.518</v>
       </c>
-      <c r="E89" s="381">
+      <c r="E89" s="393">
         <v>211.607629427793</v>
       </c>
-      <c r="F89" s="380" t="s">
+      <c r="F89" s="392" t="s">
         <v>302</v>
       </c>
-      <c r="G89" s="384" t="s">
+      <c r="G89" s="396" t="s">
         <v>123</v>
       </c>
       <c r="H89" s="96"/>
       <c r="I89" s="96"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="380" t="s">
+      <c r="A90" s="392" t="s">
         <v>303</v>
       </c>
-      <c r="B90" s="380" t="s">
+      <c r="B90" s="392" t="s">
         <v>304</v>
       </c>
-      <c r="C90" s="381">
+      <c r="C90" s="393">
         <v>28.91</v>
       </c>
-      <c r="D90" s="381">
+      <c r="D90" s="393">
         <v>4.898</v>
       </c>
-      <c r="E90" s="381">
+      <c r="E90" s="393">
         <v>209.528907922912</v>
       </c>
-      <c r="F90" s="380" t="s">
+      <c r="F90" s="392" t="s">
         <v>305</v>
       </c>
-      <c r="G90" s="384" t="s">
+      <c r="G90" s="396" t="s">
         <v>127</v>
       </c>
       <c r="H90" s="96"/>
       <c r="I90" s="96"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="380" t="s">
+      <c r="A91" s="392" t="s">
         <v>306</v>
       </c>
-      <c r="B91" s="380" t="s">
+      <c r="B91" s="392" t="s">
         <v>307</v>
       </c>
-      <c r="C91" s="381">
+      <c r="C91" s="393">
         <v>108.8</v>
       </c>
-      <c r="D91" s="381">
+      <c r="D91" s="393">
         <v>0.946</v>
       </c>
-      <c r="E91" s="381">
+      <c r="E91" s="393">
         <v>208.390022675737</v>
       </c>
-      <c r="F91" s="380" t="s">
+      <c r="F91" s="392" t="s">
         <v>308</v>
       </c>
-      <c r="G91" s="384" t="s">
+      <c r="G91" s="396" t="s">
         <v>131</v>
       </c>
       <c r="H91" s="96"/>
       <c r="I91" s="96"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="380" t="s">
+      <c r="A92" s="392" t="s">
         <v>309</v>
       </c>
-      <c r="B92" s="380" t="s">
+      <c r="B92" s="392" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="381">
+      <c r="C92" s="393">
         <v>241.14</v>
       </c>
-      <c r="D92" s="381">
+      <c r="D92" s="393">
         <v>3.904</v>
       </c>
-      <c r="E92" s="381">
+      <c r="E92" s="393">
         <v>207.458880530409</v>
       </c>
-      <c r="F92" s="380" t="s">
+      <c r="F92" s="392" t="s">
         <v>311</v>
       </c>
-      <c r="G92" s="384" t="s">
+      <c r="G92" s="396" t="s">
         <v>15</v>
       </c>
       <c r="H92" s="96"/>
@@ -10376,14 +10408,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AN208"/>
+  <dimension ref="A1:AO208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AH74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AH70" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A79" sqref="$A79:$XFD79"/>
+      <selection pane="bottomRight" activeCell="AN79" sqref="AN79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
@@ -10409,7 +10441,7 @@
     <col min="39" max="39" width="10.6470588235294" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:39">
+    <row r="1" ht="45" customHeight="1" spans="1:40">
       <c r="A1" s="254" t="s">
         <v>0</v>
       </c>
@@ -10465,45 +10497,48 @@
       <c r="AM1" s="319" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" ht="28" customHeight="1" spans="1:39">
+      <c r="AN1" s="320" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" ht="28" customHeight="1" spans="1:40">
       <c r="A2" s="254"/>
       <c r="B2" s="255"/>
       <c r="C2" s="257" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D2" s="257" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E2" s="257" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F2" s="276" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G2" s="257" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H2" s="277" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="I2" s="282" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J2" s="283" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K2" s="276" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L2" s="276" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M2" s="298" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N2" s="299" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O2" s="299"/>
       <c r="P2" s="299"/>
@@ -10524,24 +10559,25 @@
       <c r="AE2" s="299"/>
       <c r="AF2" s="299"/>
       <c r="AG2" s="276" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AH2" s="276" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AI2" s="276" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ2" s="313" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AK2" s="276" t="s">
-        <v>334</v>
-      </c>
-      <c r="AL2" s="320"/>
-      <c r="AM2" s="320"/>
-    </row>
-    <row r="3" ht="24" spans="1:39">
+        <v>335</v>
+      </c>
+      <c r="AL2" s="321"/>
+      <c r="AM2" s="321"/>
+      <c r="AN2" s="322"/>
+    </row>
+    <row r="3" ht="24" spans="1:40">
       <c r="A3" s="254"/>
       <c r="B3" s="255"/>
       <c r="C3" s="258"/>
@@ -10556,71 +10592,72 @@
       <c r="L3" s="258"/>
       <c r="M3" s="298"/>
       <c r="N3" s="277" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O3" s="277" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P3" s="277" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q3" s="277" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R3" s="277" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S3" s="277" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="T3" s="277" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="U3" s="277" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V3" s="277" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="W3" s="277" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X3" s="277" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y3" s="257" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z3" s="257" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA3" s="257" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AB3" s="257" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AC3" s="257" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AD3" s="310" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AE3" s="257" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF3" s="276" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG3" s="299"/>
       <c r="AH3" s="276"/>
       <c r="AI3" s="276"/>
       <c r="AJ3" s="299"/>
       <c r="AK3" s="276"/>
-      <c r="AL3" s="320"/>
-      <c r="AM3" s="320"/>
-    </row>
-    <row r="4" ht="38" spans="1:39">
+      <c r="AL3" s="321"/>
+      <c r="AM3" s="321"/>
+      <c r="AN3" s="322"/>
+    </row>
+    <row r="4" ht="38" spans="1:40">
       <c r="A4" s="259" t="s">
         <v>8</v>
       </c>
@@ -10679,7 +10716,7 @@
       <c r="W4" s="261"/>
       <c r="X4" s="261"/>
       <c r="Y4" s="261" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z4" s="294">
         <f t="shared" ref="Z4:Z12" si="3">(I4-N4)/I4</f>
@@ -10705,12 +10742,13 @@
       <c r="AI4" s="84"/>
       <c r="AJ4" s="261"/>
       <c r="AK4" s="84"/>
-      <c r="AL4" s="321" t="s">
-        <v>355</v>
-      </c>
-      <c r="AM4" s="322"/>
-    </row>
-    <row r="5" ht="38" spans="1:39">
+      <c r="AL4" s="323" t="s">
+        <v>356</v>
+      </c>
+      <c r="AM4" s="324"/>
+      <c r="AN4" s="325"/>
+    </row>
+    <row r="5" ht="38" spans="1:40">
       <c r="A5" s="259" t="s">
         <v>12</v>
       </c>
@@ -10773,7 +10811,7 @@
       <c r="W5" s="84"/>
       <c r="X5" s="84"/>
       <c r="Y5" s="84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z5" s="294">
         <f t="shared" si="3"/>
@@ -10796,12 +10834,13 @@
       <c r="AI5" s="84"/>
       <c r="AJ5" s="84"/>
       <c r="AK5" s="84"/>
-      <c r="AL5" s="321" t="s">
-        <v>355</v>
-      </c>
-      <c r="AM5" s="322"/>
-    </row>
-    <row r="6" s="7" customFormat="1" ht="60" spans="1:39">
+      <c r="AL5" s="323" t="s">
+        <v>356</v>
+      </c>
+      <c r="AM5" s="324"/>
+      <c r="AN5" s="325"/>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="60" spans="1:40">
       <c r="A6" s="263" t="s">
         <v>16</v>
       </c>
@@ -10856,7 +10895,7 @@
       <c r="W6" s="265"/>
       <c r="X6" s="265"/>
       <c r="Y6" s="265" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z6" s="294">
         <f t="shared" si="3"/>
@@ -10869,28 +10908,29 @@
       <c r="AE6" s="265"/>
       <c r="AF6" s="265"/>
       <c r="AG6" s="264" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AH6" s="314" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI6" s="314" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ6" s="264" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AK6" s="314" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL6" s="323" t="s">
         <v>362</v>
       </c>
-      <c r="AM6" s="324">
+      <c r="AL6" s="326" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM6" s="327">
         <v>44545</v>
       </c>
-    </row>
-    <row r="7" ht="38" spans="1:39">
+      <c r="AN6" s="328"/>
+    </row>
+    <row r="7" ht="38" spans="1:40">
       <c r="A7" s="259" t="s">
         <v>20</v>
       </c>
@@ -10945,7 +10985,7 @@
       <c r="W7" s="84"/>
       <c r="X7" s="84"/>
       <c r="Y7" s="84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z7" s="294">
         <f t="shared" si="3"/>
@@ -10962,12 +11002,13 @@
       <c r="AI7" s="84"/>
       <c r="AJ7" s="84"/>
       <c r="AK7" s="84"/>
-      <c r="AL7" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM7" s="322"/>
-    </row>
-    <row r="8" s="244" customFormat="1" ht="25" spans="1:39">
+      <c r="AL7" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM7" s="324"/>
+      <c r="AN7" s="325"/>
+    </row>
+    <row r="8" s="244" customFormat="1" ht="25" spans="1:40">
       <c r="A8" s="266" t="s">
         <v>24</v>
       </c>
@@ -11026,7 +11067,7 @@
       <c r="W8" s="268"/>
       <c r="X8" s="268"/>
       <c r="Y8" s="275" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Z8" s="293">
         <f t="shared" si="3"/>
@@ -11052,12 +11093,13 @@
       <c r="AI8" s="315"/>
       <c r="AJ8" s="268"/>
       <c r="AK8" s="315"/>
-      <c r="AL8" s="325" t="s">
-        <v>366</v>
-      </c>
-      <c r="AM8" s="326"/>
-    </row>
-    <row r="9" ht="38" spans="1:39">
+      <c r="AL8" s="329" t="s">
+        <v>367</v>
+      </c>
+      <c r="AM8" s="330"/>
+      <c r="AN8" s="331"/>
+    </row>
+    <row r="9" ht="38" spans="1:40">
       <c r="A9" s="259" t="s">
         <v>32</v>
       </c>
@@ -11116,7 +11158,7 @@
       <c r="W9" s="84"/>
       <c r="X9" s="84"/>
       <c r="Y9" s="84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z9" s="294">
         <f t="shared" si="3"/>
@@ -11133,14 +11175,15 @@
       <c r="AI9" s="84"/>
       <c r="AJ9" s="84"/>
       <c r="AK9" s="84"/>
-      <c r="AL9" s="321" t="s">
-        <v>368</v>
-      </c>
-      <c r="AM9" s="327">
+      <c r="AL9" s="323" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM9" s="332">
         <v>44545</v>
       </c>
-    </row>
-    <row r="10" ht="38" spans="1:39">
+      <c r="AN9" s="325"/>
+    </row>
+    <row r="10" ht="38" spans="1:40">
       <c r="A10" s="259" t="s">
         <v>36</v>
       </c>
@@ -11207,7 +11250,7 @@
       <c r="W10" s="261"/>
       <c r="X10" s="261"/>
       <c r="Y10" s="261" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z10" s="294">
         <f t="shared" si="3"/>
@@ -11233,12 +11276,13 @@
       <c r="AI10" s="84"/>
       <c r="AJ10" s="261"/>
       <c r="AK10" s="84"/>
-      <c r="AL10" s="321" t="s">
-        <v>355</v>
-      </c>
-      <c r="AM10" s="322"/>
-    </row>
-    <row r="11" s="245" customFormat="1" ht="38" spans="1:39">
+      <c r="AL10" s="323" t="s">
+        <v>356</v>
+      </c>
+      <c r="AM10" s="324"/>
+      <c r="AN10" s="325"/>
+    </row>
+    <row r="11" s="245" customFormat="1" ht="38" spans="1:40">
       <c r="A11" s="269" t="s">
         <v>40</v>
       </c>
@@ -11297,7 +11341,7 @@
       <c r="W11" s="271"/>
       <c r="X11" s="271"/>
       <c r="Y11" s="307" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z11" s="308">
         <f t="shared" si="3"/>
@@ -11316,28 +11360,29 @@
       <c r="AE11" s="271"/>
       <c r="AF11" s="271"/>
       <c r="AG11" s="270" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AH11" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI11" s="316" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AJ11" s="270" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK11" s="316" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL11" s="318" t="s">
-        <v>373</v>
-      </c>
-      <c r="AM11" s="328">
+        <v>374</v>
+      </c>
+      <c r="AM11" s="333">
         <v>44545</v>
       </c>
-    </row>
-    <row r="12" s="246" customFormat="1" ht="38" spans="1:39">
+      <c r="AN11" s="334"/>
+    </row>
+    <row r="12" s="246" customFormat="1" ht="38" spans="1:40">
       <c r="A12" s="272" t="s">
         <v>44</v>
       </c>
@@ -11400,7 +11445,7 @@
       <c r="W12" s="279"/>
       <c r="X12" s="279"/>
       <c r="Y12" s="279" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z12" s="293">
         <f t="shared" si="3"/>
@@ -11420,19 +11465,20 @@
       <c r="AF12" s="279"/>
       <c r="AG12" s="279"/>
       <c r="AH12" s="317" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AI12" s="317"/>
       <c r="AJ12" s="279"/>
       <c r="AK12" s="317"/>
       <c r="AL12" s="273" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM12" s="329">
+        <v>377</v>
+      </c>
+      <c r="AM12" s="335">
         <v>44545</v>
       </c>
-    </row>
-    <row r="13" ht="38" spans="1:39">
+      <c r="AN12" s="336"/>
+    </row>
+    <row r="13" ht="38" spans="1:40">
       <c r="A13" s="259" t="s">
         <v>48</v>
       </c>
@@ -11503,12 +11549,13 @@
       <c r="AI13" s="84"/>
       <c r="AJ13" s="84"/>
       <c r="AK13" s="84"/>
-      <c r="AL13" s="321" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM13" s="322"/>
-    </row>
-    <row r="14" ht="38" spans="1:39">
+      <c r="AL13" s="323" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM13" s="324"/>
+      <c r="AN13" s="325"/>
+    </row>
+    <row r="14" ht="38" spans="1:40">
       <c r="A14" s="259" t="s">
         <v>52</v>
       </c>
@@ -11563,7 +11610,7 @@
       <c r="W14" s="84"/>
       <c r="X14" s="84"/>
       <c r="Y14" s="84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Z14" s="294">
         <f t="shared" ref="Z14:Z29" si="9">(I14-N14)/I14</f>
@@ -11586,14 +11633,15 @@
       <c r="AI14" s="84"/>
       <c r="AJ14" s="84"/>
       <c r="AK14" s="84"/>
-      <c r="AL14" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM14" s="327">
+      <c r="AL14" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM14" s="332">
         <v>44545</v>
       </c>
-    </row>
-    <row r="15" ht="25" spans="1:39">
+      <c r="AN14" s="325"/>
+    </row>
+    <row r="15" ht="25" spans="1:40">
       <c r="A15" s="259" t="s">
         <v>60</v>
       </c>
@@ -11653,12 +11701,13 @@
       <c r="AI15" s="84"/>
       <c r="AJ15" s="84"/>
       <c r="AK15" s="84"/>
-      <c r="AL15" s="321" t="s">
-        <v>378</v>
-      </c>
-      <c r="AM15" s="322"/>
-    </row>
-    <row r="16" s="246" customFormat="1" ht="25" spans="1:39">
+      <c r="AL15" s="323" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM15" s="324"/>
+      <c r="AN15" s="325"/>
+    </row>
+    <row r="16" s="246" customFormat="1" ht="25" spans="1:40">
       <c r="A16" s="272" t="s">
         <v>64</v>
       </c>
@@ -11713,7 +11762,7 @@
       <c r="W16" s="279"/>
       <c r="X16" s="279"/>
       <c r="Y16" s="279" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z16" s="293">
         <f t="shared" si="9"/>
@@ -11737,11 +11786,12 @@
       <c r="AJ16" s="279"/>
       <c r="AK16" s="279"/>
       <c r="AL16" s="273" t="s">
-        <v>379</v>
-      </c>
-      <c r="AM16" s="330"/>
-    </row>
-    <row r="17" s="244" customFormat="1" ht="25" spans="1:39">
+        <v>380</v>
+      </c>
+      <c r="AM16" s="337"/>
+      <c r="AN16" s="336"/>
+    </row>
+    <row r="17" s="244" customFormat="1" ht="25" spans="1:40">
       <c r="A17" s="266" t="s">
         <v>72</v>
       </c>
@@ -11804,7 +11854,7 @@
       <c r="W17" s="280"/>
       <c r="X17" s="280"/>
       <c r="Y17" s="280" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z17" s="293">
         <f t="shared" si="9"/>
@@ -11827,12 +11877,13 @@
       <c r="AI17" s="280"/>
       <c r="AJ17" s="280"/>
       <c r="AK17" s="280"/>
-      <c r="AL17" s="325" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM17" s="326"/>
-    </row>
-    <row r="18" ht="25" spans="1:39">
+      <c r="AL17" s="329" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM17" s="330"/>
+      <c r="AN17" s="331"/>
+    </row>
+    <row r="18" ht="25" spans="1:40">
       <c r="A18" s="259" t="s">
         <v>76</v>
       </c>
@@ -11898,12 +11949,13 @@
       <c r="AI18" s="84"/>
       <c r="AJ18" s="84"/>
       <c r="AK18" s="84"/>
-      <c r="AL18" s="321" t="s">
-        <v>382</v>
-      </c>
-      <c r="AM18" s="322"/>
-    </row>
-    <row r="19" s="244" customFormat="1" ht="38" spans="1:39">
+      <c r="AL18" s="323" t="s">
+        <v>383</v>
+      </c>
+      <c r="AM18" s="324"/>
+      <c r="AN18" s="325"/>
+    </row>
+    <row r="19" s="244" customFormat="1" ht="38" spans="1:40">
       <c r="A19" s="266" t="s">
         <v>80</v>
       </c>
@@ -11960,7 +12012,7 @@
       <c r="W19" s="280"/>
       <c r="X19" s="280"/>
       <c r="Y19" s="280" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z19" s="293">
         <f t="shared" si="9"/>
@@ -11983,14 +12035,15 @@
       <c r="AI19" s="280"/>
       <c r="AJ19" s="280"/>
       <c r="AK19" s="280"/>
-      <c r="AL19" s="325" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM19" s="331">
+      <c r="AL19" s="329" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM19" s="338">
         <v>44545</v>
       </c>
-    </row>
-    <row r="20" ht="38" spans="1:39">
+      <c r="AN19" s="331"/>
+    </row>
+    <row r="20" ht="38" spans="1:40">
       <c r="A20" s="259" t="s">
         <v>84</v>
       </c>
@@ -12045,7 +12098,7 @@
       <c r="W20" s="84"/>
       <c r="X20" s="84"/>
       <c r="Y20" s="84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z20" s="294">
         <f t="shared" si="9"/>
@@ -12068,12 +12121,13 @@
       <c r="AI20" s="84"/>
       <c r="AJ20" s="84"/>
       <c r="AK20" s="84"/>
-      <c r="AL20" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM20" s="322"/>
-    </row>
-    <row r="21" ht="25" spans="1:39">
+      <c r="AL20" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM20" s="324"/>
+      <c r="AN20" s="325"/>
+    </row>
+    <row r="21" ht="25" spans="1:40">
       <c r="A21" s="259" t="s">
         <v>88</v>
       </c>
@@ -12084,7 +12138,7 @@
       <c r="D21" s="262"/>
       <c r="E21" s="262"/>
       <c r="F21" s="260" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G21" s="84"/>
       <c r="H21" s="84"/>
@@ -12129,12 +12183,13 @@
       <c r="AI21" s="84"/>
       <c r="AJ21" s="84"/>
       <c r="AK21" s="84"/>
-      <c r="AL21" s="321" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM21" s="322"/>
-    </row>
-    <row r="22" ht="25" spans="1:39">
+      <c r="AL21" s="323" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM21" s="324"/>
+      <c r="AN21" s="325"/>
+    </row>
+    <row r="22" ht="25" spans="1:40">
       <c r="A22" s="259" t="s">
         <v>92</v>
       </c>
@@ -12188,12 +12243,13 @@
       <c r="AI22" s="84"/>
       <c r="AJ22" s="84"/>
       <c r="AK22" s="84"/>
-      <c r="AL22" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM22" s="322"/>
-    </row>
-    <row r="23" ht="25" spans="1:39">
+      <c r="AL22" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM22" s="324"/>
+      <c r="AN22" s="325"/>
+    </row>
+    <row r="23" ht="25" spans="1:40">
       <c r="A23" s="259" t="s">
         <v>96</v>
       </c>
@@ -12247,12 +12303,13 @@
       <c r="AI23" s="84"/>
       <c r="AJ23" s="84"/>
       <c r="AK23" s="84"/>
-      <c r="AL23" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM23" s="322"/>
-    </row>
-    <row r="24" ht="25" spans="1:39">
+      <c r="AL23" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM23" s="324"/>
+      <c r="AN23" s="325"/>
+    </row>
+    <row r="24" ht="25" spans="1:40">
       <c r="A24" s="259" t="s">
         <v>100</v>
       </c>
@@ -12306,12 +12363,13 @@
       <c r="AI24" s="84"/>
       <c r="AJ24" s="84"/>
       <c r="AK24" s="84"/>
-      <c r="AL24" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM24" s="322"/>
-    </row>
-    <row r="25" s="244" customFormat="1" ht="25" spans="1:39">
+      <c r="AL24" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM24" s="324"/>
+      <c r="AN24" s="325"/>
+    </row>
+    <row r="25" s="244" customFormat="1" ht="25" spans="1:40">
       <c r="A25" s="266" t="s">
         <v>104</v>
       </c>
@@ -12374,7 +12432,7 @@
       <c r="W25" s="268"/>
       <c r="X25" s="268"/>
       <c r="Y25" s="275" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z25" s="293">
         <f t="shared" si="9"/>
@@ -12397,12 +12455,13 @@
       <c r="AI25" s="280"/>
       <c r="AJ25" s="268"/>
       <c r="AK25" s="280"/>
-      <c r="AL25" s="325" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM25" s="326"/>
-    </row>
-    <row r="26" ht="25" spans="1:39">
+      <c r="AL25" s="329" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM25" s="330"/>
+      <c r="AN25" s="331"/>
+    </row>
+    <row r="26" ht="25" spans="1:40">
       <c r="A26" s="259" t="s">
         <v>108</v>
       </c>
@@ -12456,12 +12515,13 @@
       <c r="AI26" s="84"/>
       <c r="AJ26" s="84"/>
       <c r="AK26" s="84"/>
-      <c r="AL26" s="321" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM26" s="322"/>
-    </row>
-    <row r="27" ht="25" spans="1:39">
+      <c r="AL26" s="323" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM26" s="324"/>
+      <c r="AN26" s="325"/>
+    </row>
+    <row r="27" ht="25" spans="1:40">
       <c r="A27" s="259" t="s">
         <v>112</v>
       </c>
@@ -12509,12 +12569,13 @@
       <c r="AI27" s="84"/>
       <c r="AJ27" s="84"/>
       <c r="AK27" s="84"/>
-      <c r="AL27" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM27" s="322"/>
-    </row>
-    <row r="28" s="247" customFormat="1" ht="36" spans="1:40">
+      <c r="AL27" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM27" s="324"/>
+      <c r="AN27" s="325"/>
+    </row>
+    <row r="28" s="247" customFormat="1" ht="36" spans="1:41">
       <c r="A28" s="269" t="s">
         <v>120</v>
       </c>
@@ -12581,7 +12642,7 @@
       <c r="W28" s="271"/>
       <c r="X28" s="271"/>
       <c r="Y28" s="271" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z28" s="308">
         <f t="shared" si="9"/>
@@ -12606,29 +12667,30 @@
       <c r="AE28" s="271"/>
       <c r="AF28" s="271"/>
       <c r="AG28" s="270" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AH28" s="318" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AI28" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ28" s="270" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK28" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL28" s="318" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM28" s="328">
+        <v>393</v>
+      </c>
+      <c r="AM28" s="333">
         <v>44545</v>
       </c>
-      <c r="AN28" s="332"/>
-    </row>
-    <row r="29" s="244" customFormat="1" ht="25" spans="1:39">
+      <c r="AN28" s="247"/>
+      <c r="AO28" s="339"/>
+    </row>
+    <row r="29" s="244" customFormat="1" ht="25" spans="1:40">
       <c r="A29" s="266" t="s">
         <v>124</v>
       </c>
@@ -12699,7 +12761,7 @@
       <c r="W29" s="280"/>
       <c r="X29" s="280"/>
       <c r="Y29" s="280" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z29" s="293">
         <f t="shared" si="9"/>
@@ -12728,12 +12790,13 @@
       <c r="AI29" s="280"/>
       <c r="AJ29" s="280"/>
       <c r="AK29" s="280"/>
-      <c r="AL29" s="325" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM29" s="326"/>
-    </row>
-    <row r="30" ht="25" spans="1:39">
+      <c r="AL29" s="329" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM29" s="330"/>
+      <c r="AN29" s="331"/>
+    </row>
+    <row r="30" ht="25" spans="1:40">
       <c r="A30" s="259" t="s">
         <v>128</v>
       </c>
@@ -12796,12 +12859,13 @@
       <c r="AI30" s="84"/>
       <c r="AJ30" s="84"/>
       <c r="AK30" s="84"/>
-      <c r="AL30" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM30" s="322"/>
-    </row>
-    <row r="31" ht="25" spans="1:39">
+      <c r="AL30" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM30" s="324"/>
+      <c r="AN30" s="325"/>
+    </row>
+    <row r="31" ht="25" spans="1:40">
       <c r="A31" s="259" t="s">
         <v>132</v>
       </c>
@@ -12872,12 +12936,13 @@
       <c r="AI31" s="84"/>
       <c r="AJ31" s="84"/>
       <c r="AK31" s="84"/>
-      <c r="AL31" s="321" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM31" s="322"/>
-    </row>
-    <row r="32" ht="38" spans="1:39">
+      <c r="AL31" s="323" t="s">
+        <v>389</v>
+      </c>
+      <c r="AM31" s="324"/>
+      <c r="AN31" s="325"/>
+    </row>
+    <row r="32" ht="38" spans="1:40">
       <c r="A32" s="259" t="s">
         <v>135</v>
       </c>
@@ -12940,12 +13005,13 @@
       <c r="AI32" s="84"/>
       <c r="AJ32" s="84"/>
       <c r="AK32" s="84"/>
-      <c r="AL32" s="321" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM32" s="322"/>
-    </row>
-    <row r="33" ht="38" spans="1:39">
+      <c r="AL32" s="323" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM32" s="324"/>
+      <c r="AN32" s="325"/>
+    </row>
+    <row r="33" ht="38" spans="1:40">
       <c r="A33" s="259" t="s">
         <v>138</v>
       </c>
@@ -13008,12 +13074,13 @@
       <c r="AI33" s="84"/>
       <c r="AJ33" s="84"/>
       <c r="AK33" s="84"/>
-      <c r="AL33" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM33" s="322"/>
-    </row>
-    <row r="34" ht="38" spans="1:39">
+      <c r="AL33" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM33" s="324"/>
+      <c r="AN33" s="325"/>
+    </row>
+    <row r="34" ht="38" spans="1:40">
       <c r="A34" s="259" t="s">
         <v>141</v>
       </c>
@@ -13066,7 +13133,7 @@
       <c r="W34" s="84"/>
       <c r="X34" s="84"/>
       <c r="Y34" s="84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z34" s="294">
         <f t="shared" si="14"/>
@@ -13092,12 +13159,13 @@
       <c r="AI34" s="84"/>
       <c r="AJ34" s="84"/>
       <c r="AK34" s="84"/>
-      <c r="AL34" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM34" s="322"/>
-    </row>
-    <row r="35" ht="38" spans="1:39">
+      <c r="AL34" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM34" s="324"/>
+      <c r="AN34" s="325"/>
+    </row>
+    <row r="35" ht="38" spans="1:40">
       <c r="A35" s="259" t="s">
         <v>147</v>
       </c>
@@ -13160,12 +13228,13 @@
       <c r="AI35" s="84"/>
       <c r="AJ35" s="84"/>
       <c r="AK35" s="84"/>
-      <c r="AL35" s="321" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM35" s="322"/>
-    </row>
-    <row r="36" ht="25" spans="1:39">
+      <c r="AL35" s="323" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM35" s="324"/>
+      <c r="AN35" s="325"/>
+    </row>
+    <row r="36" ht="25" spans="1:40">
       <c r="A36" s="259" t="s">
         <v>153</v>
       </c>
@@ -13228,12 +13297,13 @@
       <c r="AI36" s="84"/>
       <c r="AJ36" s="84"/>
       <c r="AK36" s="84"/>
-      <c r="AL36" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM36" s="322"/>
-    </row>
-    <row r="37" ht="25" spans="1:39">
+      <c r="AL36" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM36" s="324"/>
+      <c r="AN36" s="325"/>
+    </row>
+    <row r="37" ht="25" spans="1:40">
       <c r="A37" s="259" t="s">
         <v>159</v>
       </c>
@@ -13296,7 +13366,7 @@
       <c r="W37" s="84"/>
       <c r="X37" s="84"/>
       <c r="Y37" s="84" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z37" s="294">
         <f t="shared" si="14"/>
@@ -13322,14 +13392,15 @@
       <c r="AI37" s="84"/>
       <c r="AJ37" s="84"/>
       <c r="AK37" s="84"/>
-      <c r="AL37" s="321" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM37" s="327">
+      <c r="AL37" s="323" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM37" s="332">
         <v>44545</v>
       </c>
-    </row>
-    <row r="38" ht="25" spans="1:39">
+      <c r="AN37" s="325"/>
+    </row>
+    <row r="38" ht="25" spans="1:40">
       <c r="A38" s="259" t="s">
         <v>165</v>
       </c>
@@ -13389,12 +13460,13 @@
       <c r="AI38" s="84"/>
       <c r="AJ38" s="84"/>
       <c r="AK38" s="84"/>
-      <c r="AL38" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM38" s="322"/>
-    </row>
-    <row r="39" ht="38" spans="1:39">
+      <c r="AL38" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM38" s="324"/>
+      <c r="AN38" s="325"/>
+    </row>
+    <row r="39" ht="38" spans="1:40">
       <c r="A39" s="259" t="s">
         <v>168</v>
       </c>
@@ -13454,12 +13526,13 @@
       <c r="AI39" s="84"/>
       <c r="AJ39" s="84"/>
       <c r="AK39" s="84"/>
-      <c r="AL39" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM39" s="322"/>
-    </row>
-    <row r="40" ht="25" spans="1:39">
+      <c r="AL39" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM39" s="324"/>
+      <c r="AN39" s="325"/>
+    </row>
+    <row r="40" ht="25" spans="1:40">
       <c r="A40" s="259" t="s">
         <v>174</v>
       </c>
@@ -13519,12 +13592,13 @@
       <c r="AI40" s="84"/>
       <c r="AJ40" s="84"/>
       <c r="AK40" s="84"/>
-      <c r="AL40" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM40" s="322"/>
-    </row>
-    <row r="41" ht="25" spans="1:39">
+      <c r="AL40" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM40" s="324"/>
+      <c r="AN40" s="325"/>
+    </row>
+    <row r="41" ht="25" spans="1:40">
       <c r="A41" s="259" t="s">
         <v>177</v>
       </c>
@@ -13584,12 +13658,13 @@
       <c r="AI41" s="84"/>
       <c r="AJ41" s="84"/>
       <c r="AK41" s="84"/>
-      <c r="AL41" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM41" s="322"/>
-    </row>
-    <row r="42" ht="38" spans="1:39">
+      <c r="AL41" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM41" s="324"/>
+      <c r="AN41" s="325"/>
+    </row>
+    <row r="42" ht="38" spans="1:40">
       <c r="A42" s="259" t="s">
         <v>180</v>
       </c>
@@ -13649,12 +13724,13 @@
       <c r="AI42" s="84"/>
       <c r="AJ42" s="84"/>
       <c r="AK42" s="84"/>
-      <c r="AL42" s="321" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM42" s="322"/>
-    </row>
-    <row r="43" ht="25" spans="1:39">
+      <c r="AL42" s="323" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM42" s="324"/>
+      <c r="AN42" s="325"/>
+    </row>
+    <row r="43" ht="25" spans="1:40">
       <c r="A43" s="259" t="s">
         <v>183</v>
       </c>
@@ -13714,12 +13790,13 @@
       <c r="AI43" s="84"/>
       <c r="AJ43" s="84"/>
       <c r="AK43" s="84"/>
-      <c r="AL43" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM43" s="322"/>
-    </row>
-    <row r="44" ht="25" spans="1:39">
+      <c r="AL43" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM43" s="324"/>
+      <c r="AN43" s="325"/>
+    </row>
+    <row r="44" ht="25" spans="1:40">
       <c r="A44" s="259" t="s">
         <v>189</v>
       </c>
@@ -13779,12 +13856,13 @@
       <c r="AI44" s="84"/>
       <c r="AJ44" s="84"/>
       <c r="AK44" s="84"/>
-      <c r="AL44" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM44" s="322"/>
-    </row>
-    <row r="45" ht="25" spans="1:39">
+      <c r="AL44" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM44" s="324"/>
+      <c r="AN44" s="325"/>
+    </row>
+    <row r="45" ht="25" spans="1:40">
       <c r="A45" s="259" t="s">
         <v>198</v>
       </c>
@@ -13844,12 +13922,13 @@
       <c r="AI45" s="84"/>
       <c r="AJ45" s="84"/>
       <c r="AK45" s="84"/>
-      <c r="AL45" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM45" s="322"/>
-    </row>
-    <row r="46" ht="38" spans="1:39">
+      <c r="AL45" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM45" s="324"/>
+      <c r="AN45" s="325"/>
+    </row>
+    <row r="46" ht="38" spans="1:40">
       <c r="A46" s="259" t="s">
         <v>201</v>
       </c>
@@ -13909,12 +13988,13 @@
       <c r="AI46" s="84"/>
       <c r="AJ46" s="84"/>
       <c r="AK46" s="84"/>
-      <c r="AL46" s="321" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM46" s="322"/>
-    </row>
-    <row r="47" ht="25" spans="1:39">
+      <c r="AL46" s="323" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM46" s="324"/>
+      <c r="AN46" s="325"/>
+    </row>
+    <row r="47" ht="25" spans="1:40">
       <c r="A47" s="259" t="s">
         <v>207</v>
       </c>
@@ -13974,12 +14054,13 @@
       <c r="AI47" s="84"/>
       <c r="AJ47" s="84"/>
       <c r="AK47" s="84"/>
-      <c r="AL47" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM47" s="322"/>
-    </row>
-    <row r="48" ht="25" spans="1:39">
+      <c r="AL47" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM47" s="324"/>
+      <c r="AN47" s="325"/>
+    </row>
+    <row r="48" ht="25" spans="1:40">
       <c r="A48" s="259" t="s">
         <v>216</v>
       </c>
@@ -14039,12 +14120,13 @@
       <c r="AI48" s="84"/>
       <c r="AJ48" s="84"/>
       <c r="AK48" s="84"/>
-      <c r="AL48" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM48" s="322"/>
-    </row>
-    <row r="49" ht="38" spans="1:39">
+      <c r="AL48" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM48" s="324"/>
+      <c r="AN48" s="325"/>
+    </row>
+    <row r="49" ht="38" spans="1:40">
       <c r="A49" s="259" t="s">
         <v>222</v>
       </c>
@@ -14104,12 +14186,13 @@
       <c r="AI49" s="84"/>
       <c r="AJ49" s="84"/>
       <c r="AK49" s="84"/>
-      <c r="AL49" s="321" t="s">
-        <v>394</v>
-      </c>
-      <c r="AM49" s="322"/>
-    </row>
-    <row r="50" ht="25" spans="1:39">
+      <c r="AL49" s="323" t="s">
+        <v>395</v>
+      </c>
+      <c r="AM49" s="324"/>
+      <c r="AN49" s="325"/>
+    </row>
+    <row r="50" ht="25" spans="1:40">
       <c r="A50" s="259" t="s">
         <v>228</v>
       </c>
@@ -14169,12 +14252,13 @@
       <c r="AI50" s="84"/>
       <c r="AJ50" s="84"/>
       <c r="AK50" s="84"/>
-      <c r="AL50" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM50" s="322"/>
-    </row>
-    <row r="51" ht="25" spans="1:39">
+      <c r="AL50" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM50" s="324"/>
+      <c r="AN50" s="325"/>
+    </row>
+    <row r="51" ht="25" spans="1:40">
       <c r="A51" s="259" t="s">
         <v>231</v>
       </c>
@@ -14234,12 +14318,13 @@
       <c r="AI51" s="84"/>
       <c r="AJ51" s="84"/>
       <c r="AK51" s="84"/>
-      <c r="AL51" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM51" s="322"/>
-    </row>
-    <row r="52" ht="25" spans="1:39">
+      <c r="AL51" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM51" s="324"/>
+      <c r="AN51" s="325"/>
+    </row>
+    <row r="52" ht="25" spans="1:40">
       <c r="A52" s="259" t="s">
         <v>234</v>
       </c>
@@ -14299,12 +14384,13 @@
       <c r="AI52" s="84"/>
       <c r="AJ52" s="84"/>
       <c r="AK52" s="84"/>
-      <c r="AL52" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM52" s="322"/>
-    </row>
-    <row r="53" ht="25" spans="1:39">
+      <c r="AL52" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM52" s="324"/>
+      <c r="AN52" s="325"/>
+    </row>
+    <row r="53" ht="25" spans="1:40">
       <c r="A53" s="259" t="s">
         <v>237</v>
       </c>
@@ -14364,12 +14450,13 @@
       <c r="AI53" s="84"/>
       <c r="AJ53" s="84"/>
       <c r="AK53" s="84"/>
-      <c r="AL53" s="321" t="s">
-        <v>395</v>
-      </c>
-      <c r="AM53" s="322"/>
-    </row>
-    <row r="54" ht="25" spans="1:39">
+      <c r="AL53" s="323" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM53" s="324"/>
+      <c r="AN53" s="325"/>
+    </row>
+    <row r="54" ht="25" spans="1:40">
       <c r="A54" s="259" t="s">
         <v>243</v>
       </c>
@@ -14429,12 +14516,13 @@
       <c r="AI54" s="84"/>
       <c r="AJ54" s="84"/>
       <c r="AK54" s="84"/>
-      <c r="AL54" s="321" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM54" s="322"/>
-    </row>
-    <row r="55" ht="38" spans="1:39">
+      <c r="AL54" s="323" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM54" s="324"/>
+      <c r="AN54" s="325"/>
+    </row>
+    <row r="55" ht="38" spans="1:40">
       <c r="A55" s="259" t="s">
         <v>246</v>
       </c>
@@ -14508,12 +14596,13 @@
       <c r="AI55" s="84"/>
       <c r="AJ55" s="84"/>
       <c r="AK55" s="84"/>
-      <c r="AL55" s="321" t="s">
-        <v>377</v>
-      </c>
-      <c r="AM55" s="322"/>
-    </row>
-    <row r="56" ht="38" spans="1:39">
+      <c r="AL55" s="323" t="s">
+        <v>378</v>
+      </c>
+      <c r="AM55" s="324"/>
+      <c r="AN55" s="325"/>
+    </row>
+    <row r="56" ht="38" spans="1:40">
       <c r="A56" s="259" t="s">
         <v>249</v>
       </c>
@@ -14573,12 +14662,13 @@
       <c r="AI56" s="84"/>
       <c r="AJ56" s="84"/>
       <c r="AK56" s="84"/>
-      <c r="AL56" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM56" s="322"/>
-    </row>
-    <row r="57" ht="38" spans="1:39">
+      <c r="AL56" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM56" s="324"/>
+      <c r="AN56" s="325"/>
+    </row>
+    <row r="57" ht="38" spans="1:40">
       <c r="A57" s="259" t="s">
         <v>252</v>
       </c>
@@ -14638,12 +14728,13 @@
       <c r="AI57" s="84"/>
       <c r="AJ57" s="84"/>
       <c r="AK57" s="84"/>
-      <c r="AL57" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM57" s="322"/>
-    </row>
-    <row r="58" ht="25" spans="1:39">
+      <c r="AL57" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM57" s="324"/>
+      <c r="AN57" s="325"/>
+    </row>
+    <row r="58" ht="25" spans="1:40">
       <c r="A58" s="259" t="s">
         <v>255</v>
       </c>
@@ -14703,12 +14794,13 @@
       <c r="AI58" s="84"/>
       <c r="AJ58" s="84"/>
       <c r="AK58" s="84"/>
-      <c r="AL58" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM58" s="322"/>
-    </row>
-    <row r="59" ht="38" spans="1:39">
+      <c r="AL58" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM58" s="324"/>
+      <c r="AN58" s="325"/>
+    </row>
+    <row r="59" ht="38" spans="1:40">
       <c r="A59" s="259" t="s">
         <v>258</v>
       </c>
@@ -14768,12 +14860,13 @@
       <c r="AI59" s="84"/>
       <c r="AJ59" s="84"/>
       <c r="AK59" s="84"/>
-      <c r="AL59" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM59" s="322"/>
-    </row>
-    <row r="60" ht="25" spans="1:39">
+      <c r="AL59" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM59" s="324"/>
+      <c r="AN59" s="325"/>
+    </row>
+    <row r="60" ht="25" spans="1:40">
       <c r="A60" s="259" t="s">
         <v>264</v>
       </c>
@@ -14836,7 +14929,7 @@
       <c r="W60" s="84"/>
       <c r="X60" s="84"/>
       <c r="Y60" s="84" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z60" s="294">
         <f t="shared" ref="Z60:Z70" si="23">(I60-N60)/I60</f>
@@ -14862,12 +14955,13 @@
       <c r="AI60" s="84"/>
       <c r="AJ60" s="84"/>
       <c r="AK60" s="84"/>
-      <c r="AL60" s="321" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM60" s="322"/>
-    </row>
-    <row r="61" ht="25" spans="1:39">
+      <c r="AL60" s="323" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM60" s="324"/>
+      <c r="AN60" s="325"/>
+    </row>
+    <row r="61" ht="25" spans="1:40">
       <c r="A61" s="259" t="s">
         <v>267</v>
       </c>
@@ -14924,12 +15018,13 @@
       <c r="AI61" s="84"/>
       <c r="AJ61" s="84"/>
       <c r="AK61" s="84"/>
-      <c r="AL61" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM61" s="322"/>
-    </row>
-    <row r="62" ht="25" spans="1:39">
+      <c r="AL61" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM61" s="324"/>
+      <c r="AN61" s="325"/>
+    </row>
+    <row r="62" ht="25" spans="1:40">
       <c r="A62" s="259" t="s">
         <v>276</v>
       </c>
@@ -14986,12 +15081,13 @@
       <c r="AI62" s="84"/>
       <c r="AJ62" s="84"/>
       <c r="AK62" s="84"/>
-      <c r="AL62" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM62" s="322"/>
-    </row>
-    <row r="63" ht="25" spans="1:39">
+      <c r="AL62" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM62" s="324"/>
+      <c r="AN62" s="325"/>
+    </row>
+    <row r="63" ht="25" spans="1:40">
       <c r="A63" s="259" t="s">
         <v>282</v>
       </c>
@@ -15048,12 +15144,13 @@
       <c r="AI63" s="84"/>
       <c r="AJ63" s="84"/>
       <c r="AK63" s="84"/>
-      <c r="AL63" s="321" t="s">
-        <v>385</v>
-      </c>
-      <c r="AM63" s="322"/>
-    </row>
-    <row r="64" ht="25" spans="1:39">
+      <c r="AL63" s="323" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM63" s="324"/>
+      <c r="AN63" s="325"/>
+    </row>
+    <row r="64" ht="25" spans="1:40">
       <c r="A64" s="259" t="s">
         <v>291</v>
       </c>
@@ -15110,7 +15207,7 @@
       <c r="W64" s="261"/>
       <c r="X64" s="261"/>
       <c r="Y64" s="309" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z64" s="294">
         <f t="shared" si="23"/>
@@ -15136,12 +15233,13 @@
       <c r="AI64" s="84"/>
       <c r="AJ64" s="261"/>
       <c r="AK64" s="84"/>
-      <c r="AL64" s="321" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM64" s="322"/>
-    </row>
-    <row r="65" ht="38" spans="1:39">
+      <c r="AL64" s="323" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM64" s="324"/>
+      <c r="AN64" s="325"/>
+    </row>
+    <row r="65" ht="38" spans="1:40">
       <c r="A65" s="259" t="s">
         <v>294</v>
       </c>
@@ -15204,12 +15302,13 @@
       <c r="AI65" s="84"/>
       <c r="AJ65" s="84"/>
       <c r="AK65" s="84"/>
-      <c r="AL65" s="321" t="s">
-        <v>364</v>
-      </c>
-      <c r="AM65" s="322"/>
-    </row>
-    <row r="66" ht="25" spans="1:39">
+      <c r="AL65" s="323" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM65" s="324"/>
+      <c r="AN65" s="325"/>
+    </row>
+    <row r="66" ht="25" spans="1:40">
       <c r="A66" s="259" t="s">
         <v>297</v>
       </c>
@@ -15272,12 +15371,13 @@
       <c r="AI66" s="84"/>
       <c r="AJ66" s="84"/>
       <c r="AK66" s="84"/>
-      <c r="AL66" s="321" t="s">
-        <v>397</v>
-      </c>
-      <c r="AM66" s="322"/>
-    </row>
-    <row r="67" ht="25" spans="1:39">
+      <c r="AL66" s="323" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM66" s="324"/>
+      <c r="AN66" s="325"/>
+    </row>
+    <row r="67" ht="25" spans="1:40">
       <c r="A67" s="259" t="s">
         <v>303</v>
       </c>
@@ -15340,17 +15440,18 @@
       <c r="AI67" s="84"/>
       <c r="AJ67" s="84"/>
       <c r="AK67" s="84"/>
-      <c r="AL67" s="321" t="s">
-        <v>398</v>
-      </c>
-      <c r="AM67" s="322"/>
-    </row>
-    <row r="68" s="244" customFormat="1" ht="25" spans="1:39">
-      <c r="A68" s="385" t="s">
+      <c r="AL67" s="323" t="s">
         <v>399</v>
       </c>
+      <c r="AM67" s="324"/>
+      <c r="AN67" s="325"/>
+    </row>
+    <row r="68" s="244" customFormat="1" ht="25" spans="1:40">
+      <c r="A68" s="397" t="s">
+        <v>400</v>
+      </c>
       <c r="B68" s="315" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C68" s="280">
         <v>20.66</v>
@@ -15404,7 +15505,7 @@
       <c r="W68" s="280"/>
       <c r="X68" s="280"/>
       <c r="Y68" s="280" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z68" s="293">
         <f t="shared" si="23"/>
@@ -15430,17 +15531,18 @@
       <c r="AI68" s="280"/>
       <c r="AJ68" s="280"/>
       <c r="AK68" s="280"/>
-      <c r="AL68" s="325" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM68" s="326"/>
-    </row>
-    <row r="69" s="244" customFormat="1" ht="38" spans="1:39">
-      <c r="A69" s="334">
+      <c r="AL68" s="329" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM68" s="330"/>
+      <c r="AN68" s="331"/>
+    </row>
+    <row r="69" s="244" customFormat="1" ht="38" spans="1:40">
+      <c r="A69" s="341">
         <v>603688</v>
       </c>
       <c r="B69" s="315" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C69" s="280">
         <v>37.35</v>
@@ -15500,7 +15602,7 @@
       <c r="W69" s="280"/>
       <c r="X69" s="280"/>
       <c r="Y69" s="280" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z69" s="293">
         <f t="shared" si="23"/>
@@ -15521,52 +15623,53 @@
       <c r="AD69" s="280"/>
       <c r="AE69" s="280"/>
       <c r="AF69" s="280"/>
-      <c r="AG69" s="325" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH69" s="325" t="s">
+      <c r="AG69" s="329" t="s">
         <v>403</v>
       </c>
+      <c r="AH69" s="329" t="s">
+        <v>404</v>
+      </c>
       <c r="AI69" s="315" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AJ69" s="315" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK69" s="315" t="s">
-        <v>358</v>
-      </c>
-      <c r="AL69" s="325" t="s">
-        <v>405</v>
-      </c>
-      <c r="AM69" s="331">
+        <v>359</v>
+      </c>
+      <c r="AL69" s="329" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM69" s="338">
         <v>44545</v>
       </c>
-    </row>
-    <row r="70" s="248" customFormat="1" ht="36" spans="1:39">
-      <c r="A70" s="335">
+      <c r="AN69" s="331"/>
+    </row>
+    <row r="70" s="248" customFormat="1" ht="36" spans="1:40">
+      <c r="A70" s="342">
         <v>601677</v>
       </c>
       <c r="B70" s="316" t="s">
-        <v>406</v>
-      </c>
-      <c r="C70" s="336">
+        <v>407</v>
+      </c>
+      <c r="C70" s="343">
         <v>28.03</v>
       </c>
-      <c r="D70" s="336">
+      <c r="D70" s="343">
         <v>29.91</v>
       </c>
-      <c r="E70" s="336">
+      <c r="E70" s="343">
         <v>34.5</v>
       </c>
-      <c r="F70" s="336"/>
-      <c r="G70" s="336">
+      <c r="F70" s="343"/>
+      <c r="G70" s="343">
         <v>37.92</v>
       </c>
-      <c r="H70" s="336">
+      <c r="H70" s="343">
         <v>13.18</v>
       </c>
-      <c r="I70" s="336">
+      <c r="I70" s="343">
         <v>41.75</v>
       </c>
       <c r="J70" s="296">
@@ -15584,37 +15687,37 @@
         <f t="shared" si="24"/>
         <v>0.751993285774234</v>
       </c>
-      <c r="N70" s="336">
+      <c r="N70" s="343">
         <v>28.85</v>
       </c>
-      <c r="O70" s="336">
+      <c r="O70" s="343">
         <v>35.46</v>
       </c>
-      <c r="P70" s="336">
+      <c r="P70" s="343">
         <v>29.05</v>
       </c>
-      <c r="Q70" s="362">
+      <c r="Q70" s="369">
         <v>34.35</v>
       </c>
-      <c r="R70" s="362">
+      <c r="R70" s="369">
         <v>31.5</v>
       </c>
-      <c r="S70" s="336">
+      <c r="S70" s="343">
         <v>37.66</v>
       </c>
-      <c r="T70" s="336">
+      <c r="T70" s="343">
         <v>35.12</v>
       </c>
-      <c r="U70" s="336">
+      <c r="U70" s="343">
         <v>39.15</v>
       </c>
-      <c r="V70" s="336">
+      <c r="V70" s="343">
         <v>35.91</v>
       </c>
-      <c r="W70" s="336"/>
-      <c r="X70" s="336"/>
-      <c r="Y70" s="336" t="s">
-        <v>356</v>
+      <c r="W70" s="343"/>
+      <c r="X70" s="343"/>
+      <c r="Y70" s="343" t="s">
+        <v>357</v>
       </c>
       <c r="Z70" s="308">
         <f t="shared" si="23"/>
@@ -15632,37 +15735,38 @@
         <f>(U70-V70)/U70</f>
         <v>0.0827586206896552</v>
       </c>
-      <c r="AD70" s="336"/>
-      <c r="AE70" s="336"/>
-      <c r="AF70" s="336"/>
+      <c r="AD70" s="343"/>
+      <c r="AE70" s="343"/>
+      <c r="AF70" s="343"/>
       <c r="AG70" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AH70" s="318" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI70" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ70" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK70" s="316" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL70" s="318" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM70" s="328">
+        <v>393</v>
+      </c>
+      <c r="AM70" s="333">
         <v>44545</v>
       </c>
-    </row>
-    <row r="71" spans="1:39">
-      <c r="A71" s="337">
+      <c r="AN70" s="379"/>
+    </row>
+    <row r="71" spans="1:40">
+      <c r="A71" s="344">
         <v>600089</v>
       </c>
-      <c r="B71" s="338" t="s">
-        <v>407</v>
+      <c r="B71" s="345" t="s">
+        <v>408</v>
       </c>
       <c r="C71" s="84"/>
       <c r="D71" s="84"/>
@@ -15703,14 +15807,15 @@
       <c r="AJ71" s="84"/>
       <c r="AK71" s="84"/>
       <c r="AL71" s="84"/>
-      <c r="AM71" s="322"/>
-    </row>
-    <row r="72" spans="1:39">
-      <c r="A72" s="337">
+      <c r="AM71" s="324"/>
+      <c r="AN71" s="325"/>
+    </row>
+    <row r="72" spans="1:40">
+      <c r="A72" s="344">
         <v>605369</v>
       </c>
-      <c r="B72" s="338" t="s">
-        <v>408</v>
+      <c r="B72" s="345" t="s">
+        <v>409</v>
       </c>
       <c r="C72" s="84"/>
       <c r="D72" s="84"/>
@@ -15751,14 +15856,15 @@
       <c r="AJ72" s="84"/>
       <c r="AK72" s="84"/>
       <c r="AL72" s="84"/>
-      <c r="AM72" s="322"/>
-    </row>
-    <row r="73" spans="1:39">
-      <c r="A73" s="386" t="s">
-        <v>409</v>
-      </c>
-      <c r="B73" s="338" t="s">
+      <c r="AM72" s="324"/>
+      <c r="AN72" s="325"/>
+    </row>
+    <row r="73" spans="1:40">
+      <c r="A73" s="398" t="s">
         <v>410</v>
+      </c>
+      <c r="B73" s="345" t="s">
+        <v>411</v>
       </c>
       <c r="C73" s="84"/>
       <c r="D73" s="84"/>
@@ -15799,14 +15905,15 @@
       <c r="AJ73" s="84"/>
       <c r="AK73" s="84"/>
       <c r="AL73" s="84"/>
-      <c r="AM73" s="322"/>
-    </row>
-    <row r="74" s="244" customFormat="1" ht="38" spans="1:39">
-      <c r="A74" s="387" t="s">
-        <v>411</v>
+      <c r="AM73" s="324"/>
+      <c r="AN73" s="325"/>
+    </row>
+    <row r="74" s="244" customFormat="1" ht="38" spans="1:40">
+      <c r="A74" s="399" t="s">
+        <v>412</v>
       </c>
       <c r="B74" s="315" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C74" s="280">
         <v>86.16</v>
@@ -15860,7 +15967,7 @@
       <c r="W74" s="280"/>
       <c r="X74" s="280"/>
       <c r="Y74" s="280" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z74" s="293">
         <f t="shared" ref="Z74:Z97" si="32">(I74-N74)/I74</f>
@@ -15881,36 +15988,37 @@
       <c r="AD74" s="280"/>
       <c r="AE74" s="280"/>
       <c r="AF74" s="280" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG74" s="325" t="s">
-        <v>402</v>
+        <v>414</v>
+      </c>
+      <c r="AG74" s="329" t="s">
+        <v>403</v>
       </c>
       <c r="AH74" s="315" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI74" s="315" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AJ74" s="315" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK74" s="315" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL74" s="325" t="s">
-        <v>415</v>
-      </c>
-      <c r="AM74" s="331">
+        <v>362</v>
+      </c>
+      <c r="AL74" s="329" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM74" s="338">
         <v>44545</v>
       </c>
-    </row>
-    <row r="75" ht="25" spans="1:39">
-      <c r="A75" s="386" t="s">
-        <v>416</v>
-      </c>
-      <c r="B75" s="338" t="s">
+      <c r="AN74" s="331"/>
+    </row>
+    <row r="75" ht="25" spans="1:40">
+      <c r="A75" s="398" t="s">
         <v>417</v>
+      </c>
+      <c r="B75" s="345" t="s">
+        <v>418</v>
       </c>
       <c r="C75" s="82"/>
       <c r="D75" s="82"/>
@@ -15919,7 +16027,7 @@
       <c r="G75" s="82"/>
       <c r="H75" s="82"/>
       <c r="I75" s="82"/>
-      <c r="J75" s="351"/>
+      <c r="J75" s="358"/>
       <c r="K75" s="286" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
@@ -15968,17 +16076,18 @@
       <c r="AI75" s="84"/>
       <c r="AJ75" s="84"/>
       <c r="AK75" s="84"/>
-      <c r="AL75" s="321" t="s">
-        <v>386</v>
-      </c>
-      <c r="AM75" s="322"/>
-    </row>
-    <row r="76" s="244" customFormat="1" ht="25" spans="1:39">
-      <c r="A76" s="387" t="s">
-        <v>418</v>
+      <c r="AL75" s="323" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM75" s="324"/>
+      <c r="AN75" s="325"/>
+    </row>
+    <row r="76" s="244" customFormat="1" ht="25" spans="1:40">
+      <c r="A76" s="399" t="s">
+        <v>419</v>
       </c>
       <c r="B76" s="315" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C76" s="280">
         <v>13.54</v>
@@ -16032,7 +16141,7 @@
       <c r="W76" s="280"/>
       <c r="X76" s="280"/>
       <c r="Y76" s="280" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z76" s="293">
         <f t="shared" si="32"/>
@@ -16058,17 +16167,18 @@
       <c r="AI76" s="280"/>
       <c r="AJ76" s="280"/>
       <c r="AK76" s="280"/>
-      <c r="AL76" s="325" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM76" s="326"/>
-    </row>
-    <row r="77" ht="38" spans="1:39">
-      <c r="A77" s="337">
+      <c r="AL76" s="329" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM76" s="330"/>
+      <c r="AN76" s="331"/>
+    </row>
+    <row r="77" ht="38" spans="1:40">
+      <c r="A77" s="344">
         <v>600392</v>
       </c>
-      <c r="B77" s="338" t="s">
-        <v>420</v>
+      <c r="B77" s="345" t="s">
+        <v>421</v>
       </c>
       <c r="C77" s="84">
         <v>21.01</v>
@@ -16140,17 +16250,18 @@
       <c r="AI77" s="84"/>
       <c r="AJ77" s="84"/>
       <c r="AK77" s="84"/>
-      <c r="AL77" s="321" t="s">
-        <v>421</v>
-      </c>
-      <c r="AM77" s="322"/>
-    </row>
-    <row r="78" s="7" customFormat="1" ht="25" spans="1:39">
-      <c r="A78" s="339">
+      <c r="AL77" s="323" t="s">
+        <v>422</v>
+      </c>
+      <c r="AM77" s="324"/>
+      <c r="AN77" s="325"/>
+    </row>
+    <row r="78" s="7" customFormat="1" ht="25" spans="1:40">
+      <c r="A78" s="346">
         <v>601016</v>
       </c>
       <c r="B78" s="314" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C78" s="82">
         <v>5.14</v>
@@ -16171,7 +16282,7 @@
       <c r="I78" s="82">
         <v>8.15</v>
       </c>
-      <c r="J78" s="351">
+      <c r="J78" s="358">
         <v>4.39</v>
       </c>
       <c r="K78" s="286">
@@ -16208,7 +16319,7 @@
       <c r="W78" s="82"/>
       <c r="X78" s="82"/>
       <c r="Y78" s="82" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z78" s="294">
         <f t="shared" si="32"/>
@@ -16234,17 +16345,18 @@
       <c r="AI78" s="82"/>
       <c r="AJ78" s="82"/>
       <c r="AK78" s="82"/>
-      <c r="AL78" s="323" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM78" s="372"/>
-    </row>
-    <row r="79" s="7" customFormat="1" ht="36" spans="1:39">
-      <c r="A79" s="339">
+      <c r="AL78" s="326" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM78" s="380"/>
+      <c r="AN78" s="328"/>
+    </row>
+    <row r="79" s="7" customFormat="1" ht="36" spans="1:40">
+      <c r="A79" s="346">
         <v>600821</v>
       </c>
       <c r="B79" s="314" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C79" s="82"/>
       <c r="D79" s="82"/>
@@ -16259,7 +16371,7 @@
       <c r="I79" s="82">
         <v>13.3</v>
       </c>
-      <c r="J79" s="351">
+      <c r="J79" s="358">
         <v>5.61</v>
       </c>
       <c r="K79" s="286">
@@ -16296,7 +16408,7 @@
       <c r="W79" s="82"/>
       <c r="X79" s="82"/>
       <c r="Y79" s="82" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z79" s="294">
         <f t="shared" si="32"/>
@@ -16318,33 +16430,36 @@
       <c r="AE79" s="82"/>
       <c r="AF79" s="82"/>
       <c r="AG79" s="314" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH79" s="323" t="s">
-        <v>403</v>
+        <v>359</v>
+      </c>
+      <c r="AH79" s="326" t="s">
+        <v>404</v>
       </c>
       <c r="AI79" s="314" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ79" s="314" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK79" s="314" t="s">
-        <v>358</v>
-      </c>
-      <c r="AL79" s="323" t="s">
-        <v>424</v>
-      </c>
-      <c r="AM79" s="324">
+        <v>359</v>
+      </c>
+      <c r="AL79" s="326" t="s">
+        <v>425</v>
+      </c>
+      <c r="AM79" s="327">
         <v>44545</v>
       </c>
-    </row>
-    <row r="80" ht="25" spans="1:39">
-      <c r="A80" s="386" t="s">
-        <v>425</v>
-      </c>
-      <c r="B80" s="338" t="s">
+      <c r="AN79" s="381" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="80" ht="25" spans="1:40">
+      <c r="A80" s="398" t="s">
+        <v>427</v>
+      </c>
+      <c r="B80" s="345" t="s">
+        <v>428</v>
       </c>
       <c r="C80" s="84"/>
       <c r="D80" s="84"/>
@@ -16396,7 +16511,7 @@
       <c r="W80" s="84"/>
       <c r="X80" s="84"/>
       <c r="Y80" s="84" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Z80" s="294">
         <f t="shared" si="32"/>
@@ -16422,17 +16537,18 @@
       <c r="AI80" s="84"/>
       <c r="AJ80" s="84"/>
       <c r="AK80" s="84"/>
-      <c r="AL80" s="321" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM80" s="322"/>
-    </row>
-    <row r="81" ht="25" spans="1:39">
-      <c r="A81" s="386" t="s">
-        <v>427</v>
-      </c>
-      <c r="B81" s="338" t="s">
-        <v>428</v>
+      <c r="AL80" s="323" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM80" s="324"/>
+      <c r="AN80" s="325"/>
+    </row>
+    <row r="81" ht="25" spans="1:40">
+      <c r="A81" s="398" t="s">
+        <v>429</v>
+      </c>
+      <c r="B81" s="345" t="s">
+        <v>430</v>
       </c>
       <c r="C81" s="84"/>
       <c r="D81" s="84"/>
@@ -16484,17 +16600,18 @@
       <c r="AI81" s="84"/>
       <c r="AJ81" s="84"/>
       <c r="AK81" s="84"/>
-      <c r="AL81" s="321" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM81" s="322"/>
-    </row>
-    <row r="82" ht="25" spans="1:39">
-      <c r="A82" s="337">
+      <c r="AL81" s="323" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM81" s="324"/>
+      <c r="AN81" s="325"/>
+    </row>
+    <row r="82" ht="25" spans="1:40">
+      <c r="A82" s="344">
         <v>600956</v>
       </c>
-      <c r="B82" s="338" t="s">
-        <v>429</v>
+      <c r="B82" s="345" t="s">
+        <v>431</v>
       </c>
       <c r="C82" s="84"/>
       <c r="D82" s="84"/>
@@ -16546,17 +16663,18 @@
       <c r="AI82" s="84"/>
       <c r="AJ82" s="84"/>
       <c r="AK82" s="84"/>
-      <c r="AL82" s="321" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM82" s="322"/>
-    </row>
-    <row r="83" s="244" customFormat="1" ht="38" spans="1:39">
-      <c r="A83" s="340" t="s">
-        <v>430</v>
+      <c r="AL82" s="323" t="s">
+        <v>397</v>
+      </c>
+      <c r="AM82" s="324"/>
+      <c r="AN82" s="325"/>
+    </row>
+    <row r="83" s="244" customFormat="1" ht="38" spans="1:40">
+      <c r="A83" s="347" t="s">
+        <v>432</v>
       </c>
       <c r="B83" s="315" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C83" s="268">
         <v>44.31</v>
@@ -16607,14 +16725,14 @@
       <c r="R83" s="268">
         <v>45.46</v>
       </c>
-      <c r="S83" s="363"/>
-      <c r="T83" s="363"/>
+      <c r="S83" s="370"/>
+      <c r="T83" s="370"/>
       <c r="U83" s="268"/>
       <c r="V83" s="268"/>
       <c r="W83" s="268"/>
       <c r="X83" s="268"/>
       <c r="Y83" s="268" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Z83" s="293">
         <f t="shared" si="32"/>
@@ -16638,36 +16756,37 @@
       </c>
       <c r="AE83" s="268"/>
       <c r="AF83" s="268" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG83" s="267" t="s">
-        <v>433</v>
-      </c>
-      <c r="AH83" s="325" t="s">
-        <v>391</v>
+        <v>435</v>
+      </c>
+      <c r="AH83" s="329" t="s">
+        <v>392</v>
       </c>
       <c r="AI83" s="315" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AJ83" s="267" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AK83" s="315" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL83" s="325" t="s">
-        <v>434</v>
-      </c>
-      <c r="AM83" s="331">
+        <v>362</v>
+      </c>
+      <c r="AL83" s="329" t="s">
+        <v>436</v>
+      </c>
+      <c r="AM83" s="338">
         <v>44545</v>
       </c>
-    </row>
-    <row r="84" s="244" customFormat="1" ht="25" spans="1:39">
-      <c r="A84" s="340" t="s">
-        <v>435</v>
+      <c r="AN83" s="331"/>
+    </row>
+    <row r="84" s="244" customFormat="1" ht="25" spans="1:40">
+      <c r="A84" s="347" t="s">
+        <v>437</v>
       </c>
       <c r="B84" s="315" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C84" s="268">
         <v>7.39</v>
@@ -16729,7 +16848,7 @@
       <c r="W84" s="268"/>
       <c r="X84" s="268"/>
       <c r="Y84" s="275" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z84" s="289">
         <f t="shared" si="32"/>
@@ -16753,24 +16872,25 @@
       </c>
       <c r="AE84" s="268"/>
       <c r="AF84" s="268" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG84" s="268"/>
       <c r="AH84" s="280"/>
       <c r="AI84" s="280"/>
       <c r="AJ84" s="268"/>
       <c r="AK84" s="280"/>
-      <c r="AL84" s="325" t="s">
-        <v>381</v>
-      </c>
-      <c r="AM84" s="326"/>
-    </row>
-    <row r="85" s="249" customFormat="1" ht="25" spans="1:39">
-      <c r="A85" s="340" t="s">
-        <v>437</v>
+      <c r="AL84" s="329" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM84" s="330"/>
+      <c r="AN84" s="331"/>
+    </row>
+    <row r="85" s="249" customFormat="1" ht="25" spans="1:40">
+      <c r="A85" s="347" t="s">
+        <v>439</v>
       </c>
       <c r="B85" s="280" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C85" s="268">
         <v>14.33</v>
@@ -16824,7 +16944,7 @@
       <c r="W85" s="268"/>
       <c r="X85" s="268"/>
       <c r="Y85" s="268" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z85" s="293">
         <f t="shared" si="32"/>
@@ -16853,17 +16973,18 @@
       <c r="AI85" s="280"/>
       <c r="AJ85" s="280"/>
       <c r="AK85" s="280"/>
-      <c r="AL85" s="325" t="s">
-        <v>381</v>
+      <c r="AL85" s="329" t="s">
+        <v>382</v>
       </c>
       <c r="AM85" s="280"/>
-    </row>
-    <row r="86" s="249" customFormat="1" ht="25" spans="1:39">
+      <c r="AN85" s="382"/>
+    </row>
+    <row r="86" s="249" customFormat="1" ht="25" spans="1:40">
       <c r="A86" s="280">
         <v>605028</v>
       </c>
       <c r="B86" s="315" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C86" s="280">
         <v>23.08</v>
@@ -16929,7 +17050,7 @@
       <c r="W86" s="280"/>
       <c r="X86" s="280"/>
       <c r="Y86" s="280" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="Z86" s="293">
         <f t="shared" si="32"/>
@@ -16958,45 +17079,46 @@
       <c r="AI86" s="280"/>
       <c r="AJ86" s="280"/>
       <c r="AK86" s="280"/>
-      <c r="AL86" s="325" t="s">
-        <v>381</v>
+      <c r="AL86" s="329" t="s">
+        <v>382</v>
       </c>
       <c r="AM86" s="280"/>
-    </row>
-    <row r="87" s="250" customFormat="1" ht="25" spans="1:39">
-      <c r="A87" s="341" t="s">
-        <v>441</v>
+      <c r="AN86" s="382"/>
+    </row>
+    <row r="87" s="250" customFormat="1" ht="25" spans="1:40">
+      <c r="A87" s="348" t="s">
+        <v>443</v>
       </c>
       <c r="B87" s="267" t="s">
-        <v>442</v>
-      </c>
-      <c r="C87" s="342">
+        <v>444</v>
+      </c>
+      <c r="C87" s="349">
         <v>22.99</v>
       </c>
-      <c r="D87" s="342">
+      <c r="D87" s="349">
         <v>23.48</v>
       </c>
-      <c r="E87" s="342">
+      <c r="E87" s="349">
         <v>25.91</v>
       </c>
-      <c r="F87" s="342"/>
-      <c r="G87" s="342">
+      <c r="F87" s="349"/>
+      <c r="G87" s="349">
         <v>27.18</v>
       </c>
-      <c r="H87" s="342">
+      <c r="H87" s="349">
         <v>14.46</v>
       </c>
-      <c r="I87" s="342">
+      <c r="I87" s="349">
         <v>31.94</v>
       </c>
-      <c r="J87" s="352">
+      <c r="J87" s="359">
         <v>21.54</v>
       </c>
-      <c r="K87" s="353">
+      <c r="K87" s="360">
         <f t="shared" si="35"/>
         <v>0.879668049792531</v>
       </c>
-      <c r="L87" s="353">
+      <c r="L87" s="360">
         <f t="shared" si="36"/>
         <v>0.149029430181591</v>
       </c>
@@ -17004,33 +17126,33 @@
         <f t="shared" si="31"/>
         <v>0.482822655524606</v>
       </c>
-      <c r="N87" s="342">
+      <c r="N87" s="349">
         <v>20.63</v>
       </c>
-      <c r="O87" s="342">
+      <c r="O87" s="349">
         <v>25.66</v>
       </c>
-      <c r="P87" s="342">
+      <c r="P87" s="349">
         <v>21.46</v>
       </c>
-      <c r="Q87" s="342">
+      <c r="Q87" s="349">
         <v>28.89</v>
       </c>
-      <c r="R87" s="342">
+      <c r="R87" s="349">
         <v>24.22</v>
       </c>
-      <c r="S87" s="342">
+      <c r="S87" s="349">
         <v>30.32</v>
       </c>
-      <c r="T87" s="342">
+      <c r="T87" s="349">
         <v>26.6</v>
       </c>
-      <c r="U87" s="342"/>
-      <c r="V87" s="342"/>
-      <c r="W87" s="342"/>
-      <c r="X87" s="342"/>
-      <c r="Y87" s="342" t="s">
-        <v>443</v>
+      <c r="U87" s="349"/>
+      <c r="V87" s="349"/>
+      <c r="W87" s="349"/>
+      <c r="X87" s="349"/>
+      <c r="Y87" s="349" t="s">
+        <v>445</v>
       </c>
       <c r="Z87" s="293">
         <f t="shared" si="32"/>
@@ -17052,55 +17174,56 @@
         <f t="shared" ref="AD87:AD90" si="38">(U87-V87)/U87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE87" s="369" t="e">
+      <c r="AE87" s="376" t="e">
         <f t="shared" ref="AE87:AE90" si="39">(W87-X87)/W87</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF87" s="342" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG87" s="342"/>
-      <c r="AH87" s="326"/>
-      <c r="AI87" s="326"/>
-      <c r="AJ87" s="326"/>
-      <c r="AK87" s="326"/>
-      <c r="AL87" s="325" t="s">
-        <v>444</v>
-      </c>
-      <c r="AM87" s="326"/>
-    </row>
-    <row r="88" s="251" customFormat="1" ht="25" spans="1:39">
-      <c r="A88" s="343" t="s">
-        <v>445</v>
+      <c r="AF87" s="349" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG87" s="349"/>
+      <c r="AH87" s="330"/>
+      <c r="AI87" s="330"/>
+      <c r="AJ87" s="330"/>
+      <c r="AK87" s="330"/>
+      <c r="AL87" s="329" t="s">
+        <v>446</v>
+      </c>
+      <c r="AM87" s="330"/>
+      <c r="AN87" s="383"/>
+    </row>
+    <row r="88" s="251" customFormat="1" ht="25" spans="1:40">
+      <c r="A88" s="350" t="s">
+        <v>447</v>
       </c>
       <c r="B88" s="315" t="s">
-        <v>446</v>
-      </c>
-      <c r="C88" s="342">
+        <v>448</v>
+      </c>
+      <c r="C88" s="349">
         <v>7.83</v>
       </c>
-      <c r="D88" s="342">
+      <c r="D88" s="349">
         <v>8.24</v>
       </c>
-      <c r="E88" s="342">
+      <c r="E88" s="349">
         <v>9.27</v>
       </c>
-      <c r="F88" s="342"/>
-      <c r="G88" s="342">
+      <c r="F88" s="349"/>
+      <c r="G88" s="349">
         <v>9.6</v>
       </c>
-      <c r="H88" s="342">
+      <c r="H88" s="349">
         <v>4.83</v>
       </c>
-      <c r="I88" s="342">
+      <c r="I88" s="349">
         <v>11.8</v>
       </c>
-      <c r="J88" s="354"/>
-      <c r="K88" s="353">
+      <c r="J88" s="361"/>
+      <c r="K88" s="360">
         <f t="shared" si="35"/>
         <v>0.987577639751553</v>
       </c>
-      <c r="L88" s="353">
+      <c r="L88" s="360">
         <f t="shared" si="36"/>
         <v>0.186440677966102</v>
       </c>
@@ -17108,39 +17231,39 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N88" s="342">
+      <c r="N88" s="349">
         <v>7.6</v>
       </c>
-      <c r="O88" s="342">
+      <c r="O88" s="349">
         <v>9.65</v>
       </c>
-      <c r="P88" s="342">
+      <c r="P88" s="349">
         <v>8.03</v>
       </c>
-      <c r="Q88" s="342">
+      <c r="Q88" s="349">
         <v>10.28</v>
       </c>
-      <c r="R88" s="342">
+      <c r="R88" s="349">
         <v>8.9</v>
       </c>
-      <c r="S88" s="342"/>
-      <c r="T88" s="342"/>
-      <c r="U88" s="342"/>
-      <c r="V88" s="342"/>
-      <c r="W88" s="342"/>
-      <c r="X88" s="342"/>
-      <c r="Y88" s="342" t="s">
-        <v>387</v>
+      <c r="S88" s="349"/>
+      <c r="T88" s="349"/>
+      <c r="U88" s="349"/>
+      <c r="V88" s="349"/>
+      <c r="W88" s="349"/>
+      <c r="X88" s="349"/>
+      <c r="Y88" s="349" t="s">
+        <v>388</v>
       </c>
       <c r="Z88" s="293">
         <f t="shared" si="32"/>
         <v>0.355932203389831</v>
       </c>
-      <c r="AA88" s="353">
+      <c r="AA88" s="360">
         <f t="shared" si="33"/>
         <v>0.167875647668394</v>
       </c>
-      <c r="AB88" s="353">
+      <c r="AB88" s="360">
         <f t="shared" si="34"/>
         <v>0.134241245136187</v>
       </c>
@@ -17152,52 +17275,53 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE88" s="342"/>
-      <c r="AF88" s="342" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG88" s="342"/>
-      <c r="AH88" s="364"/>
-      <c r="AI88" s="364"/>
-      <c r="AJ88" s="364"/>
-      <c r="AK88" s="364"/>
-      <c r="AL88" s="325" t="s">
-        <v>444</v>
-      </c>
-      <c r="AM88" s="364"/>
-    </row>
-    <row r="89" s="251" customFormat="1" ht="25" spans="1:39">
-      <c r="A89" s="340" t="s">
-        <v>448</v>
+      <c r="AE88" s="349"/>
+      <c r="AF88" s="349" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG88" s="349"/>
+      <c r="AH88" s="371"/>
+      <c r="AI88" s="371"/>
+      <c r="AJ88" s="371"/>
+      <c r="AK88" s="371"/>
+      <c r="AL88" s="329" t="s">
+        <v>446</v>
+      </c>
+      <c r="AM88" s="371"/>
+      <c r="AN88" s="384"/>
+    </row>
+    <row r="89" s="251" customFormat="1" ht="25" spans="1:40">
+      <c r="A89" s="347" t="s">
+        <v>450</v>
       </c>
       <c r="B89" s="280" t="s">
-        <v>449</v>
-      </c>
-      <c r="C89" s="342">
+        <v>451</v>
+      </c>
+      <c r="C89" s="349">
         <v>18.62</v>
       </c>
-      <c r="D89" s="342">
+      <c r="D89" s="349">
         <v>19.35</v>
       </c>
-      <c r="E89" s="342">
+      <c r="E89" s="349">
         <v>21.48</v>
       </c>
-      <c r="F89" s="342"/>
-      <c r="G89" s="342">
+      <c r="F89" s="349"/>
+      <c r="G89" s="349">
         <v>23.35</v>
       </c>
-      <c r="H89" s="342">
+      <c r="H89" s="349">
         <v>13.04</v>
       </c>
-      <c r="I89" s="342">
+      <c r="I89" s="349">
         <v>26.64</v>
       </c>
-      <c r="J89" s="354"/>
-      <c r="K89" s="353">
+      <c r="J89" s="361"/>
+      <c r="K89" s="360">
         <f t="shared" si="35"/>
         <v>0.790644171779141</v>
       </c>
-      <c r="L89" s="353">
+      <c r="L89" s="360">
         <f t="shared" si="36"/>
         <v>0.123498498498498</v>
       </c>
@@ -17205,39 +17329,39 @@
         <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N89" s="342">
+      <c r="N89" s="349">
         <v>18.5</v>
       </c>
-      <c r="O89" s="342">
+      <c r="O89" s="349">
         <v>22.39</v>
       </c>
-      <c r="P89" s="342">
+      <c r="P89" s="349">
         <v>18.85</v>
       </c>
-      <c r="Q89" s="342">
+      <c r="Q89" s="349">
         <v>24.3</v>
       </c>
-      <c r="R89" s="342">
+      <c r="R89" s="349">
         <v>21.21</v>
       </c>
-      <c r="S89" s="364"/>
-      <c r="T89" s="364"/>
-      <c r="U89" s="342"/>
-      <c r="V89" s="342"/>
-      <c r="W89" s="342"/>
-      <c r="X89" s="342"/>
-      <c r="Y89" s="342" t="s">
-        <v>387</v>
+      <c r="S89" s="371"/>
+      <c r="T89" s="371"/>
+      <c r="U89" s="349"/>
+      <c r="V89" s="349"/>
+      <c r="W89" s="349"/>
+      <c r="X89" s="349"/>
+      <c r="Y89" s="349" t="s">
+        <v>388</v>
       </c>
       <c r="Z89" s="293">
         <f t="shared" si="32"/>
         <v>0.305555555555556</v>
       </c>
-      <c r="AA89" s="353">
+      <c r="AA89" s="360">
         <f t="shared" si="33"/>
         <v>0.158106297454221</v>
       </c>
-      <c r="AB89" s="353">
+      <c r="AB89" s="360">
         <f t="shared" si="34"/>
         <v>0.12716049382716</v>
       </c>
@@ -17249,146 +17373,148 @@
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE89" s="369" t="e">
+      <c r="AE89" s="376" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF89" s="342" t="s">
-        <v>447</v>
-      </c>
-      <c r="AG89" s="342"/>
-      <c r="AH89" s="364"/>
-      <c r="AI89" s="364"/>
-      <c r="AJ89" s="364"/>
-      <c r="AK89" s="364"/>
-      <c r="AL89" s="325" t="s">
-        <v>444</v>
-      </c>
-      <c r="AM89" s="364"/>
-    </row>
-    <row r="90" s="245" customFormat="1" ht="25" spans="1:39">
+      <c r="AF89" s="349" t="s">
+        <v>449</v>
+      </c>
+      <c r="AG89" s="349"/>
+      <c r="AH89" s="371"/>
+      <c r="AI89" s="371"/>
+      <c r="AJ89" s="371"/>
+      <c r="AK89" s="371"/>
+      <c r="AL89" s="329" t="s">
+        <v>446</v>
+      </c>
+      <c r="AM89" s="371"/>
+      <c r="AN89" s="384"/>
+    </row>
+    <row r="90" s="245" customFormat="1" ht="25" spans="1:40">
       <c r="A90" s="271">
         <v>600779</v>
       </c>
-      <c r="B90" s="344" t="s">
-        <v>450</v>
-      </c>
-      <c r="C90" s="345">
+      <c r="B90" s="351" t="s">
+        <v>452</v>
+      </c>
+      <c r="C90" s="352">
         <v>116.99</v>
       </c>
-      <c r="D90" s="345">
+      <c r="D90" s="352">
         <v>121.14</v>
       </c>
-      <c r="E90" s="345">
+      <c r="E90" s="352">
         <v>130.03</v>
       </c>
-      <c r="F90" s="345"/>
-      <c r="G90" s="345">
+      <c r="F90" s="352"/>
+      <c r="G90" s="352">
         <v>139.91</v>
       </c>
-      <c r="H90" s="345">
+      <c r="H90" s="352">
         <v>59.28</v>
       </c>
-      <c r="I90" s="345">
+      <c r="I90" s="352">
         <v>160.57</v>
       </c>
-      <c r="J90" s="355"/>
-      <c r="K90" s="356">
+      <c r="J90" s="362"/>
+      <c r="K90" s="363">
         <f t="shared" si="35"/>
         <v>1.36015519568151</v>
       </c>
-      <c r="L90" s="356">
+      <c r="L90" s="363">
         <f t="shared" si="36"/>
         <v>0.128666625147911</v>
       </c>
       <c r="M90" s="306"/>
-      <c r="N90" s="345">
+      <c r="N90" s="352">
         <v>93.58</v>
       </c>
-      <c r="O90" s="345">
+      <c r="O90" s="352">
         <v>136.67</v>
       </c>
-      <c r="P90" s="345">
+      <c r="P90" s="352">
         <v>113.77</v>
       </c>
-      <c r="Q90" s="345">
+      <c r="Q90" s="352">
         <v>147.3</v>
       </c>
-      <c r="R90" s="345">
+      <c r="R90" s="352">
         <v>124</v>
       </c>
-      <c r="S90" s="345">
+      <c r="S90" s="352">
         <v>139.93</v>
       </c>
-      <c r="T90" s="345">
+      <c r="T90" s="352">
         <v>124.71</v>
       </c>
-      <c r="U90" s="345">
+      <c r="U90" s="352">
         <v>143.8</v>
       </c>
-      <c r="V90" s="345">
+      <c r="V90" s="352">
         <v>130</v>
       </c>
-      <c r="W90" s="345"/>
-      <c r="X90" s="345"/>
-      <c r="Y90" s="345" t="s">
-        <v>451</v>
+      <c r="W90" s="352"/>
+      <c r="X90" s="352"/>
+      <c r="Y90" s="352" t="s">
+        <v>453</v>
       </c>
       <c r="Z90" s="308">
         <f t="shared" si="32"/>
         <v>0.417201220651429</v>
       </c>
-      <c r="AA90" s="356">
+      <c r="AA90" s="363">
         <f t="shared" si="33"/>
         <v>0.167556888856369</v>
       </c>
-      <c r="AB90" s="356">
+      <c r="AB90" s="363">
         <f t="shared" si="34"/>
         <v>0.158180583842498</v>
       </c>
-      <c r="AC90" s="356">
+      <c r="AC90" s="363">
         <f t="shared" si="28"/>
         <v>0.10876867004931</v>
       </c>
-      <c r="AD90" s="360">
+      <c r="AD90" s="367">
         <f t="shared" ref="AD90:AD94" si="40">(U90-V90)/U90</f>
         <v>0.0959666203059806</v>
       </c>
-      <c r="AE90" s="370" t="e">
+      <c r="AE90" s="377" t="e">
         <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF90" s="345" t="s">
-        <v>452</v>
+      <c r="AF90" s="352" t="s">
+        <v>454</v>
       </c>
       <c r="AG90" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AH90" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI90" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ90" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK90" s="316" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL90" s="318" t="s">
-        <v>453</v>
-      </c>
-      <c r="AM90" s="373">
+        <v>455</v>
+      </c>
+      <c r="AM90" s="385">
         <v>44545</v>
       </c>
-    </row>
-    <row r="91" s="7" customFormat="1" ht="24" spans="1:39">
-      <c r="A91" s="346" t="s">
-        <v>454</v>
+      <c r="AN90" s="334"/>
+    </row>
+    <row r="91" s="7" customFormat="1" ht="24" spans="1:40">
+      <c r="A91" s="353" t="s">
+        <v>456</v>
       </c>
       <c r="B91" s="314" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C91" s="82">
         <v>22.56</v>
@@ -17409,7 +17535,7 @@
       <c r="I91" s="82">
         <v>33.68</v>
       </c>
-      <c r="J91" s="351">
+      <c r="J91" s="358">
         <v>21.84</v>
       </c>
       <c r="K91" s="286">
@@ -17450,17 +17576,17 @@
       <c r="W91" s="82"/>
       <c r="X91" s="82"/>
       <c r="Y91" s="82" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z91" s="294">
         <f t="shared" si="32"/>
         <v>0.353919239904988</v>
       </c>
-      <c r="AA91" s="368">
+      <c r="AA91" s="375">
         <f t="shared" ref="AA91:AA97" si="42">(O91-P91)/O91</f>
         <v>0.136129506990434</v>
       </c>
-      <c r="AB91" s="368">
+      <c r="AB91" s="375">
         <f t="shared" ref="AB91:AB97" si="43">(Q91-R91)/Q91</f>
         <v>0.0941352259992529</v>
       </c>
@@ -17471,62 +17597,65 @@
       <c r="AD91" s="82"/>
       <c r="AE91" s="82"/>
       <c r="AF91" s="82" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG91" s="314" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AH91" s="314" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI91" s="314" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ91" s="314" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK91" s="314" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL91" s="323" t="s">
-        <v>456</v>
-      </c>
-      <c r="AM91" s="374">
+        <v>362</v>
+      </c>
+      <c r="AL91" s="326" t="s">
+        <v>458</v>
+      </c>
+      <c r="AM91" s="386">
         <v>44545</v>
       </c>
-    </row>
-    <row r="92" s="244" customFormat="1" spans="1:39">
-      <c r="A92" s="347">
+      <c r="AN91" s="381" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" s="244" customFormat="1" spans="1:40">
+      <c r="A92" s="354">
         <v>600399</v>
       </c>
       <c r="B92" s="315" t="s">
-        <v>457</v>
-      </c>
-      <c r="C92" s="342">
+        <v>459</v>
+      </c>
+      <c r="C92" s="349">
         <v>20.1</v>
       </c>
-      <c r="D92" s="342">
+      <c r="D92" s="349">
         <v>21.01</v>
       </c>
-      <c r="E92" s="342">
+      <c r="E92" s="349">
         <v>23.24</v>
       </c>
-      <c r="F92" s="342"/>
-      <c r="G92" s="342">
+      <c r="F92" s="349"/>
+      <c r="G92" s="349">
         <v>24.5</v>
       </c>
-      <c r="H92" s="342">
+      <c r="H92" s="349">
         <v>9.18</v>
       </c>
-      <c r="I92" s="342">
+      <c r="I92" s="349">
         <v>29.3</v>
       </c>
-      <c r="J92" s="357"/>
-      <c r="K92" s="358">
+      <c r="J92" s="364"/>
+      <c r="K92" s="365">
         <f t="shared" si="35"/>
         <v>1.66884531590414</v>
       </c>
-      <c r="L92" s="358">
+      <c r="L92" s="365">
         <f t="shared" si="36"/>
         <v>0.16382252559727</v>
       </c>
@@ -17534,60 +17663,60 @@
         <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N92" s="342">
+      <c r="N92" s="349">
         <v>19.05</v>
       </c>
-      <c r="O92" s="342">
+      <c r="O92" s="349">
         <v>22.91</v>
       </c>
-      <c r="P92" s="342">
+      <c r="P92" s="349">
         <v>19.73</v>
       </c>
-      <c r="Q92" s="342">
+      <c r="Q92" s="349">
         <v>26.45</v>
       </c>
-      <c r="R92" s="342">
+      <c r="R92" s="349">
         <v>22.8</v>
       </c>
-      <c r="S92" s="342">
+      <c r="S92" s="349">
         <v>25.95</v>
       </c>
-      <c r="T92" s="342">
+      <c r="T92" s="349">
         <v>22.4</v>
       </c>
-      <c r="U92" s="342"/>
-      <c r="V92" s="342"/>
-      <c r="W92" s="342"/>
-      <c r="X92" s="342"/>
-      <c r="Y92" s="342" t="s">
-        <v>387</v>
+      <c r="U92" s="349"/>
+      <c r="V92" s="349"/>
+      <c r="W92" s="349"/>
+      <c r="X92" s="349"/>
+      <c r="Y92" s="349" t="s">
+        <v>388</v>
       </c>
       <c r="Z92" s="293">
         <f t="shared" si="32"/>
         <v>0.349829351535836</v>
       </c>
-      <c r="AA92" s="358">
+      <c r="AA92" s="365">
         <f t="shared" si="42"/>
         <v>0.138804015713662</v>
       </c>
-      <c r="AB92" s="358">
+      <c r="AB92" s="365">
         <f t="shared" si="43"/>
         <v>0.137996219281663</v>
       </c>
-      <c r="AC92" s="358">
+      <c r="AC92" s="365">
         <f t="shared" si="28"/>
         <v>0.136801541425819</v>
       </c>
-      <c r="AD92" s="353" t="e">
+      <c r="AD92" s="360" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE92" s="369" t="e">
+      <c r="AE92" s="376" t="e">
         <f>(W92-X92)/W92</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF92" s="342" t="s">
-        <v>432</v>
+      <c r="AF92" s="349" t="s">
+        <v>434</v>
       </c>
       <c r="AG92" s="280"/>
       <c r="AH92" s="280"/>
@@ -17595,46 +17724,47 @@
       <c r="AJ92" s="280"/>
       <c r="AK92" s="280"/>
       <c r="AL92" s="280"/>
-      <c r="AM92" s="375">
+      <c r="AM92" s="387">
         <v>44545</v>
       </c>
-    </row>
-    <row r="93" s="245" customFormat="1" ht="38" spans="1:39">
-      <c r="A93" s="388" t="s">
-        <v>458</v>
-      </c>
-      <c r="B93" s="336" t="s">
-        <v>459</v>
-      </c>
-      <c r="C93" s="348">
+      <c r="AN92" s="331"/>
+    </row>
+    <row r="93" s="245" customFormat="1" ht="38" spans="1:40">
+      <c r="A93" s="400" t="s">
+        <v>460</v>
+      </c>
+      <c r="B93" s="343" t="s">
+        <v>461</v>
+      </c>
+      <c r="C93" s="355">
         <v>64.32</v>
       </c>
-      <c r="D93" s="348">
+      <c r="D93" s="355">
         <v>65.56</v>
       </c>
-      <c r="E93" s="348">
+      <c r="E93" s="355">
         <v>68.37</v>
       </c>
-      <c r="F93" s="348" t="s">
-        <v>460</v>
-      </c>
-      <c r="G93" s="348">
+      <c r="F93" s="355" t="s">
+        <v>462</v>
+      </c>
+      <c r="G93" s="355">
         <v>69.16</v>
       </c>
-      <c r="H93" s="348">
+      <c r="H93" s="355">
         <v>40.64</v>
       </c>
-      <c r="I93" s="348">
+      <c r="I93" s="355">
         <v>90.29</v>
       </c>
-      <c r="J93" s="359">
+      <c r="J93" s="366">
         <v>64.66</v>
       </c>
-      <c r="K93" s="360">
+      <c r="K93" s="367">
         <f t="shared" si="35"/>
         <v>0.701771653543307</v>
       </c>
-      <c r="L93" s="360">
+      <c r="L93" s="367">
         <f t="shared" si="36"/>
         <v>0.234023701406579</v>
       </c>
@@ -17642,541 +17772,546 @@
         <f t="shared" si="41"/>
         <v>0.396381070213424</v>
       </c>
-      <c r="N93" s="348">
+      <c r="N93" s="355">
         <v>60.05</v>
       </c>
-      <c r="O93" s="348">
+      <c r="O93" s="355">
         <v>74.75</v>
       </c>
-      <c r="P93" s="348">
+      <c r="P93" s="355">
         <v>65.5</v>
       </c>
-      <c r="Q93" s="348">
+      <c r="Q93" s="355">
         <v>77.98</v>
       </c>
-      <c r="R93" s="348">
+      <c r="R93" s="355">
         <v>70.54</v>
       </c>
-      <c r="S93" s="365"/>
-      <c r="T93" s="365"/>
-      <c r="U93" s="348"/>
-      <c r="V93" s="348"/>
-      <c r="W93" s="348"/>
-      <c r="X93" s="348"/>
-      <c r="Y93" s="348" t="s">
-        <v>387</v>
+      <c r="S93" s="372"/>
+      <c r="T93" s="372"/>
+      <c r="U93" s="355"/>
+      <c r="V93" s="355"/>
+      <c r="W93" s="355"/>
+      <c r="X93" s="355"/>
+      <c r="Y93" s="355" t="s">
+        <v>388</v>
       </c>
       <c r="Z93" s="308">
         <f t="shared" si="32"/>
         <v>0.33492081072101</v>
       </c>
-      <c r="AA93" s="360">
+      <c r="AA93" s="367">
         <f t="shared" si="42"/>
         <v>0.123745819397993</v>
       </c>
-      <c r="AB93" s="360">
+      <c r="AB93" s="367">
         <f t="shared" si="43"/>
         <v>0.09540907925109</v>
       </c>
-      <c r="AC93" s="360"/>
-      <c r="AD93" s="360" t="e">
+      <c r="AC93" s="367"/>
+      <c r="AD93" s="367" t="e">
         <f t="shared" si="40"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE93" s="370" t="e">
+      <c r="AE93" s="377" t="e">
         <f>(W93-X93)/W93</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF93" s="348" t="s">
-        <v>447</v>
+      <c r="AF93" s="355" t="s">
+        <v>449</v>
       </c>
       <c r="AG93" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AH93" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AI93" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ93" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AK93" s="316" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL93" s="318" t="s">
-        <v>392</v>
-      </c>
-      <c r="AM93" s="373">
+        <v>393</v>
+      </c>
+      <c r="AM93" s="385">
         <v>44545</v>
       </c>
-    </row>
-    <row r="94" ht="45" spans="1:39">
-      <c r="A94" s="389" t="s">
-        <v>461</v>
+      <c r="AN93" s="334"/>
+    </row>
+    <row r="94" ht="45" spans="1:40">
+      <c r="A94" s="401" t="s">
+        <v>463</v>
       </c>
       <c r="B94" s="78" t="s">
-        <v>462</v>
-      </c>
-      <c r="C94" s="349">
+        <v>464</v>
+      </c>
+      <c r="C94" s="356">
         <v>233.72</v>
       </c>
-      <c r="D94" s="349">
+      <c r="D94" s="356">
         <v>235.3</v>
       </c>
-      <c r="E94" s="349">
+      <c r="E94" s="356">
         <v>249.3</v>
       </c>
-      <c r="F94" s="349"/>
-      <c r="G94" s="349">
+      <c r="F94" s="356"/>
+      <c r="G94" s="356">
         <v>278</v>
       </c>
-      <c r="H94" s="349">
+      <c r="H94" s="356">
         <v>177.01</v>
       </c>
-      <c r="I94" s="349">
+      <c r="I94" s="356">
         <v>293.5</v>
       </c>
-      <c r="J94" s="349">
+      <c r="J94" s="356">
         <v>223.48</v>
       </c>
-      <c r="K94" s="361">
+      <c r="K94" s="368">
         <f t="shared" si="35"/>
         <v>0.570532738263375</v>
       </c>
-      <c r="L94" s="361">
+      <c r="L94" s="368">
         <f t="shared" si="36"/>
         <v>0.0528109028960818</v>
       </c>
-      <c r="M94" s="361">
+      <c r="M94" s="368">
         <f t="shared" si="41"/>
         <v>0.313316627886164</v>
       </c>
-      <c r="N94" s="349">
+      <c r="N94" s="356">
         <v>177.01</v>
       </c>
-      <c r="O94" s="349">
+      <c r="O94" s="356">
         <v>234.78</v>
       </c>
-      <c r="P94" s="349">
+      <c r="P94" s="356">
         <v>200.98</v>
       </c>
-      <c r="Q94" s="349">
+      <c r="Q94" s="356">
         <v>253.33</v>
       </c>
-      <c r="R94" s="349">
+      <c r="R94" s="356">
         <v>217.59</v>
       </c>
-      <c r="S94" s="349">
+      <c r="S94" s="356">
         <v>273.25</v>
       </c>
-      <c r="T94" s="349">
+      <c r="T94" s="356">
         <v>249.5</v>
       </c>
-      <c r="U94" s="367">
+      <c r="U94" s="374">
         <v>278</v>
       </c>
-      <c r="V94" s="362">
+      <c r="V94" s="369">
         <v>260.02</v>
       </c>
-      <c r="W94" s="362"/>
-      <c r="X94" s="362"/>
-      <c r="Y94" s="349" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z94" s="361">
+      <c r="W94" s="369"/>
+      <c r="X94" s="369"/>
+      <c r="Y94" s="356" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z94" s="368">
         <f t="shared" si="32"/>
         <v>0.396899488926746</v>
       </c>
-      <c r="AA94" s="361">
+      <c r="AA94" s="368">
         <f t="shared" si="42"/>
         <v>0.143964562569214</v>
       </c>
-      <c r="AB94" s="361">
+      <c r="AB94" s="368">
         <f t="shared" si="43"/>
         <v>0.141080803694785</v>
       </c>
-      <c r="AC94" s="361">
+      <c r="AC94" s="368">
         <f t="shared" ref="AC94:AC97" si="44">(S94-T94)/S94</f>
         <v>0.0869167429094236</v>
       </c>
-      <c r="AD94" s="361">
+      <c r="AD94" s="368">
         <f t="shared" si="40"/>
         <v>0.0646762589928058</v>
       </c>
-      <c r="AE94" s="361"/>
-      <c r="AF94" s="349" t="s">
-        <v>464</v>
-      </c>
-      <c r="AG94" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH94" s="371" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI94" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ94" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK94" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AL94" s="376" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM94" s="377">
+      <c r="AE94" s="368"/>
+      <c r="AF94" s="356" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG94" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AH94" s="378" t="s">
+        <v>362</v>
+      </c>
+      <c r="AI94" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ94" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK94" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL94" s="388" t="s">
+        <v>467</v>
+      </c>
+      <c r="AM94" s="389">
         <v>44546</v>
       </c>
-    </row>
-    <row r="95" ht="45" spans="1:39">
+      <c r="AN94" s="325"/>
+    </row>
+    <row r="95" ht="45" spans="1:40">
       <c r="A95" s="78">
         <v>600436</v>
       </c>
       <c r="B95" s="78" t="s">
-        <v>466</v>
-      </c>
-      <c r="C95" s="349">
+        <v>468</v>
+      </c>
+      <c r="C95" s="356">
         <v>387.73</v>
       </c>
-      <c r="D95" s="349">
+      <c r="D95" s="356">
         <v>398.52</v>
       </c>
-      <c r="E95" s="349">
+      <c r="E95" s="356">
         <v>432.45</v>
       </c>
-      <c r="F95" s="349"/>
-      <c r="G95" s="349">
+      <c r="F95" s="356"/>
+      <c r="G95" s="356">
         <v>457.7</v>
       </c>
-      <c r="H95" s="349">
+      <c r="H95" s="356">
         <v>221.1</v>
       </c>
-      <c r="I95" s="349">
+      <c r="I95" s="356">
         <v>491.88</v>
       </c>
-      <c r="J95" s="349">
+      <c r="J95" s="356">
         <v>368.8</v>
       </c>
-      <c r="K95" s="361">
+      <c r="K95" s="368">
         <f t="shared" si="35"/>
         <v>1.07010402532791</v>
       </c>
-      <c r="L95" s="361">
+      <c r="L95" s="368">
         <f t="shared" si="36"/>
         <v>0.0694884931284053</v>
       </c>
-      <c r="M95" s="361">
+      <c r="M95" s="368">
         <f t="shared" si="41"/>
         <v>0.333731019522777</v>
       </c>
-      <c r="N95" s="349">
+      <c r="N95" s="356">
         <v>318.56</v>
       </c>
-      <c r="O95" s="349">
+      <c r="O95" s="356">
         <v>445.8</v>
       </c>
-      <c r="P95" s="349">
+      <c r="P95" s="356">
         <v>395</v>
       </c>
-      <c r="Q95" s="349">
+      <c r="Q95" s="356">
         <v>468.88</v>
       </c>
-      <c r="R95" s="349">
+      <c r="R95" s="356">
         <v>430</v>
       </c>
-      <c r="S95" s="349">
+      <c r="S95" s="356">
         <v>466.48</v>
       </c>
-      <c r="T95" s="349">
+      <c r="T95" s="356">
         <v>449.03</v>
       </c>
-      <c r="U95" s="349"/>
-      <c r="V95" s="349"/>
-      <c r="W95" s="349"/>
-      <c r="X95" s="349"/>
-      <c r="Y95" s="349" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z95" s="361">
+      <c r="U95" s="356"/>
+      <c r="V95" s="356"/>
+      <c r="W95" s="356"/>
+      <c r="X95" s="356"/>
+      <c r="Y95" s="356" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z95" s="368">
         <f t="shared" si="32"/>
         <v>0.352362364804424</v>
       </c>
-      <c r="AA95" s="361">
+      <c r="AA95" s="368">
         <f t="shared" si="42"/>
         <v>0.11395244504262</v>
       </c>
-      <c r="AB95" s="361">
+      <c r="AB95" s="368">
         <f t="shared" si="43"/>
         <v>0.0829210032417676</v>
       </c>
-      <c r="AC95" s="361">
+      <c r="AC95" s="368">
         <f t="shared" si="44"/>
         <v>0.0374078202709656</v>
       </c>
-      <c r="AD95" s="361"/>
-      <c r="AE95" s="361"/>
-      <c r="AF95" s="349" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG95" s="371" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH95" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AI95" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ95" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK95" s="371" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL95" s="376" t="s">
-        <v>467</v>
-      </c>
-      <c r="AM95" s="377">
+      <c r="AD95" s="368"/>
+      <c r="AE95" s="368"/>
+      <c r="AF95" s="356" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG95" s="378" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH95" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI95" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ95" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK95" s="378" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL95" s="388" t="s">
+        <v>469</v>
+      </c>
+      <c r="AM95" s="389">
         <v>44546</v>
       </c>
-    </row>
-    <row r="96" ht="44" spans="1:39">
+      <c r="AN95" s="325"/>
+    </row>
+    <row r="96" ht="44" spans="1:40">
       <c r="A96" s="78" t="s">
         <v>183</v>
       </c>
       <c r="B96" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C96" s="349">
+      <c r="C96" s="356">
         <v>178.55</v>
       </c>
-      <c r="D96" s="349">
+      <c r="D96" s="356">
         <v>190.75</v>
       </c>
-      <c r="E96" s="349">
+      <c r="E96" s="356">
         <v>217.14</v>
       </c>
-      <c r="F96" s="349"/>
-      <c r="G96" s="349">
+      <c r="F96" s="356"/>
+      <c r="G96" s="356">
         <v>242.7</v>
       </c>
-      <c r="H96" s="349">
+      <c r="H96" s="356">
         <v>55.55</v>
       </c>
-      <c r="I96" s="349">
+      <c r="I96" s="356">
         <v>265.76</v>
       </c>
-      <c r="J96" s="349">
+      <c r="J96" s="356">
         <v>188.67</v>
       </c>
-      <c r="K96" s="361">
+      <c r="K96" s="368">
         <f t="shared" si="35"/>
         <v>3.36903690369037</v>
       </c>
-      <c r="L96" s="361">
+      <c r="L96" s="368">
         <f t="shared" si="36"/>
         <v>0.0867700180614088</v>
       </c>
-      <c r="M96" s="361">
+      <c r="M96" s="368">
         <f t="shared" si="41"/>
         <v>0.408597021254042</v>
       </c>
-      <c r="N96" s="349">
+      <c r="N96" s="356">
         <v>169.11</v>
       </c>
-      <c r="O96" s="349">
+      <c r="O96" s="356">
         <v>233.69</v>
       </c>
-      <c r="P96" s="349">
+      <c r="P96" s="356">
         <v>170.02</v>
       </c>
-      <c r="Q96" s="349">
+      <c r="Q96" s="356">
         <v>225.35</v>
       </c>
-      <c r="R96" s="349">
+      <c r="R96" s="356">
         <v>172.58</v>
       </c>
-      <c r="S96" s="349">
+      <c r="S96" s="356">
         <v>265.5</v>
       </c>
-      <c r="T96" s="366">
+      <c r="T96" s="373">
         <v>240</v>
       </c>
-      <c r="U96" s="349"/>
-      <c r="V96" s="349"/>
-      <c r="W96" s="349"/>
-      <c r="X96" s="349"/>
-      <c r="Y96" s="349" t="s">
-        <v>440</v>
-      </c>
-      <c r="Z96" s="361">
+      <c r="U96" s="356"/>
+      <c r="V96" s="356"/>
+      <c r="W96" s="356"/>
+      <c r="X96" s="356"/>
+      <c r="Y96" s="356" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z96" s="368">
         <f t="shared" si="32"/>
         <v>0.363673991571343</v>
       </c>
-      <c r="AA96" s="361">
+      <c r="AA96" s="368">
         <f t="shared" si="42"/>
         <v>0.272454961701399</v>
       </c>
-      <c r="AB96" s="361">
+      <c r="AB96" s="368">
         <f t="shared" si="43"/>
         <v>0.234169070335034</v>
       </c>
-      <c r="AC96" s="361">
+      <c r="AC96" s="368">
         <f t="shared" si="44"/>
         <v>0.096045197740113</v>
       </c>
-      <c r="AD96" s="361"/>
-      <c r="AE96" s="361"/>
-      <c r="AF96" s="349" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG96" s="371" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH96" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AI96" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ96" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK96" s="371" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL96" s="376" t="s">
-        <v>468</v>
-      </c>
-      <c r="AM96" s="377">
+      <c r="AD96" s="368"/>
+      <c r="AE96" s="368"/>
+      <c r="AF96" s="356" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG96" s="378" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH96" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI96" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ96" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK96" s="378" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL96" s="388" t="s">
+        <v>470</v>
+      </c>
+      <c r="AM96" s="389">
         <v>44546</v>
       </c>
-    </row>
-    <row r="97" ht="44" spans="1:39">
+      <c r="AN96" s="325"/>
+    </row>
+    <row r="97" ht="44" spans="1:40">
       <c r="A97" s="78" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B97" s="78" t="s">
-        <v>470</v>
-      </c>
-      <c r="C97" s="349">
+        <v>472</v>
+      </c>
+      <c r="C97" s="356">
         <v>92.12</v>
       </c>
-      <c r="D97" s="349">
+      <c r="D97" s="356">
         <v>93.11</v>
       </c>
-      <c r="E97" s="349">
+      <c r="E97" s="356">
         <v>97.09</v>
       </c>
-      <c r="F97" s="349"/>
-      <c r="G97" s="349">
+      <c r="F97" s="356"/>
+      <c r="G97" s="356">
         <v>101.77</v>
       </c>
-      <c r="H97" s="349">
+      <c r="H97" s="356">
         <v>71.71</v>
       </c>
-      <c r="I97" s="349">
+      <c r="I97" s="356">
         <v>117.36</v>
       </c>
-      <c r="J97" s="349">
+      <c r="J97" s="356">
         <v>90.26</v>
       </c>
-      <c r="K97" s="361">
+      <c r="K97" s="368">
         <f t="shared" si="35"/>
         <v>0.419188397713011</v>
       </c>
-      <c r="L97" s="361">
+      <c r="L97" s="368">
         <f t="shared" si="36"/>
         <v>0.132839127471029</v>
       </c>
-      <c r="M97" s="361">
+      <c r="M97" s="368">
         <f t="shared" si="41"/>
         <v>0.300243740305783</v>
       </c>
-      <c r="N97" s="349">
+      <c r="N97" s="356">
         <v>76.56</v>
       </c>
-      <c r="O97" s="349">
+      <c r="O97" s="356">
         <v>96.5</v>
       </c>
-      <c r="P97" s="349">
+      <c r="P97" s="356">
         <v>77.52</v>
       </c>
-      <c r="Q97" s="349">
+      <c r="Q97" s="356">
         <v>104.28</v>
       </c>
-      <c r="R97" s="349">
+      <c r="R97" s="356">
         <v>91.1</v>
       </c>
-      <c r="S97" s="349">
+      <c r="S97" s="356">
         <v>100.58</v>
       </c>
-      <c r="T97" s="349">
+      <c r="T97" s="356">
         <v>96</v>
       </c>
-      <c r="U97" s="349">
+      <c r="U97" s="356">
         <v>104.94</v>
       </c>
-      <c r="V97" s="349">
+      <c r="V97" s="356">
         <v>96.23</v>
       </c>
-      <c r="W97" s="349">
+      <c r="W97" s="356">
         <v>108.5</v>
       </c>
-      <c r="X97" s="349">
+      <c r="X97" s="356">
         <v>99.2</v>
       </c>
-      <c r="Y97" s="349" t="s">
-        <v>471</v>
-      </c>
-      <c r="Z97" s="361">
+      <c r="Y97" s="356" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z97" s="368">
         <f t="shared" si="32"/>
         <v>0.347648261758691</v>
       </c>
-      <c r="AA97" s="361">
+      <c r="AA97" s="368">
         <f t="shared" si="42"/>
         <v>0.196683937823834</v>
       </c>
-      <c r="AB97" s="361">
+      <c r="AB97" s="368">
         <f t="shared" si="43"/>
         <v>0.126390487149981</v>
       </c>
-      <c r="AC97" s="361">
+      <c r="AC97" s="368">
         <f t="shared" si="44"/>
         <v>0.0455358918274011</v>
       </c>
-      <c r="AD97" s="361"/>
-      <c r="AE97" s="361"/>
-      <c r="AF97" s="349" t="s">
-        <v>432</v>
-      </c>
-      <c r="AG97" s="371" t="s">
-        <v>361</v>
-      </c>
-      <c r="AH97" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AI97" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AJ97" s="371" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK97" s="371" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL97" s="376" t="s">
-        <v>472</v>
-      </c>
-      <c r="AM97" s="377">
+      <c r="AD97" s="368"/>
+      <c r="AE97" s="368"/>
+      <c r="AF97" s="356" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG97" s="378" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH97" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI97" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ97" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK97" s="378" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL97" s="388" t="s">
+        <v>474</v>
+      </c>
+      <c r="AM97" s="389">
         <v>44546</v>
       </c>
+      <c r="AN97" s="325"/>
     </row>
     <row r="98" spans="1:39">
-      <c r="A98" s="350"/>
+      <c r="A98" s="357"/>
       <c r="B98" s="84"/>
       <c r="C98" s="84"/>
       <c r="D98" s="84"/>
@@ -18217,7 +18352,7 @@
       <c r="AM98" s="84"/>
     </row>
     <row r="99" spans="1:39">
-      <c r="A99" s="350"/>
+      <c r="A99" s="357"/>
       <c r="B99" s="84"/>
       <c r="C99" s="84"/>
       <c r="D99" s="84"/>
@@ -18258,7 +18393,7 @@
       <c r="AM99" s="84"/>
     </row>
     <row r="100" spans="1:39">
-      <c r="A100" s="350"/>
+      <c r="A100" s="357"/>
       <c r="B100" s="84"/>
       <c r="C100" s="84"/>
       <c r="D100" s="84"/>
@@ -18299,7 +18434,7 @@
       <c r="AM100" s="84"/>
     </row>
     <row r="101" spans="1:39">
-      <c r="A101" s="350"/>
+      <c r="A101" s="357"/>
       <c r="B101" s="84"/>
       <c r="C101" s="84"/>
       <c r="D101" s="84"/>
@@ -18340,7 +18475,7 @@
       <c r="AM101" s="84"/>
     </row>
     <row r="102" spans="1:39">
-      <c r="A102" s="350"/>
+      <c r="A102" s="357"/>
       <c r="B102" s="84"/>
       <c r="C102" s="84"/>
       <c r="D102" s="84"/>
@@ -18381,7 +18516,7 @@
       <c r="AM102" s="84"/>
     </row>
     <row r="103" spans="1:39">
-      <c r="A103" s="350"/>
+      <c r="A103" s="357"/>
       <c r="B103" s="84"/>
       <c r="C103" s="84"/>
       <c r="D103" s="84"/>
@@ -18422,7 +18557,7 @@
       <c r="AM103" s="84"/>
     </row>
     <row r="104" spans="1:39">
-      <c r="A104" s="350"/>
+      <c r="A104" s="357"/>
       <c r="B104" s="84"/>
       <c r="C104" s="84"/>
       <c r="D104" s="84"/>
@@ -18463,7 +18598,7 @@
       <c r="AM104" s="84"/>
     </row>
     <row r="105" spans="1:39">
-      <c r="A105" s="350"/>
+      <c r="A105" s="357"/>
       <c r="B105" s="84"/>
       <c r="C105" s="84"/>
       <c r="D105" s="84"/>
@@ -18504,7 +18639,7 @@
       <c r="AM105" s="84"/>
     </row>
     <row r="106" spans="1:39">
-      <c r="A106" s="350"/>
+      <c r="A106" s="357"/>
       <c r="B106" s="84"/>
       <c r="C106" s="84"/>
       <c r="D106" s="84"/>
@@ -18545,7 +18680,7 @@
       <c r="AM106" s="84"/>
     </row>
     <row r="107" spans="1:39">
-      <c r="A107" s="350"/>
+      <c r="A107" s="357"/>
       <c r="B107" s="84"/>
       <c r="C107" s="84"/>
       <c r="D107" s="84"/>
@@ -18586,7 +18721,7 @@
       <c r="AM107" s="84"/>
     </row>
     <row r="108" spans="1:39">
-      <c r="A108" s="350"/>
+      <c r="A108" s="357"/>
       <c r="B108" s="84"/>
       <c r="C108" s="84"/>
       <c r="D108" s="84"/>
@@ -18627,7 +18762,7 @@
       <c r="AM108" s="84"/>
     </row>
     <row r="109" spans="1:39">
-      <c r="A109" s="350"/>
+      <c r="A109" s="357"/>
       <c r="B109" s="84"/>
       <c r="C109" s="84"/>
       <c r="D109" s="84"/>
@@ -18668,7 +18803,7 @@
       <c r="AM109" s="84"/>
     </row>
     <row r="110" spans="1:39">
-      <c r="A110" s="350"/>
+      <c r="A110" s="357"/>
       <c r="B110" s="84"/>
       <c r="C110" s="84"/>
       <c r="D110" s="84"/>
@@ -18709,7 +18844,7 @@
       <c r="AM110" s="84"/>
     </row>
     <row r="111" spans="1:39">
-      <c r="A111" s="350"/>
+      <c r="A111" s="357"/>
       <c r="B111" s="84"/>
       <c r="C111" s="84"/>
       <c r="D111" s="84"/>
@@ -18750,7 +18885,7 @@
       <c r="AM111" s="84"/>
     </row>
     <row r="112" spans="1:39">
-      <c r="A112" s="350"/>
+      <c r="A112" s="357"/>
       <c r="B112" s="84"/>
       <c r="C112" s="84"/>
       <c r="D112" s="84"/>
@@ -18791,7 +18926,7 @@
       <c r="AM112" s="84"/>
     </row>
     <row r="113" spans="1:39">
-      <c r="A113" s="350"/>
+      <c r="A113" s="357"/>
       <c r="B113" s="84"/>
       <c r="C113" s="84"/>
       <c r="D113" s="84"/>
@@ -18832,7 +18967,7 @@
       <c r="AM113" s="84"/>
     </row>
     <row r="114" spans="1:39">
-      <c r="A114" s="350"/>
+      <c r="A114" s="357"/>
       <c r="B114" s="84"/>
       <c r="C114" s="84"/>
       <c r="D114" s="84"/>
@@ -18873,7 +19008,7 @@
       <c r="AM114" s="84"/>
     </row>
     <row r="115" spans="1:39">
-      <c r="A115" s="350"/>
+      <c r="A115" s="357"/>
       <c r="B115" s="84"/>
       <c r="C115" s="84"/>
       <c r="D115" s="84"/>
@@ -18914,7 +19049,7 @@
       <c r="AM115" s="84"/>
     </row>
     <row r="116" spans="1:39">
-      <c r="A116" s="350"/>
+      <c r="A116" s="357"/>
       <c r="B116" s="84"/>
       <c r="C116" s="84"/>
       <c r="D116" s="84"/>
@@ -18955,7 +19090,7 @@
       <c r="AM116" s="84"/>
     </row>
     <row r="117" spans="1:39">
-      <c r="A117" s="350"/>
+      <c r="A117" s="357"/>
       <c r="B117" s="84"/>
       <c r="C117" s="84"/>
       <c r="D117" s="84"/>
@@ -18996,7 +19131,7 @@
       <c r="AM117" s="84"/>
     </row>
     <row r="118" spans="1:39">
-      <c r="A118" s="350"/>
+      <c r="A118" s="357"/>
       <c r="B118" s="84"/>
       <c r="C118" s="84"/>
       <c r="D118" s="84"/>
@@ -19037,7 +19172,7 @@
       <c r="AM118" s="84"/>
     </row>
     <row r="119" spans="1:39">
-      <c r="A119" s="350"/>
+      <c r="A119" s="357"/>
       <c r="B119" s="84"/>
       <c r="C119" s="84"/>
       <c r="D119" s="84"/>
@@ -19078,7 +19213,7 @@
       <c r="AM119" s="84"/>
     </row>
     <row r="120" spans="1:39">
-      <c r="A120" s="350"/>
+      <c r="A120" s="357"/>
       <c r="B120" s="84"/>
       <c r="C120" s="84"/>
       <c r="D120" s="84"/>
@@ -19119,7 +19254,7 @@
       <c r="AM120" s="84"/>
     </row>
     <row r="121" spans="1:39">
-      <c r="A121" s="350"/>
+      <c r="A121" s="357"/>
       <c r="B121" s="84"/>
       <c r="C121" s="84"/>
       <c r="D121" s="84"/>
@@ -19160,7 +19295,7 @@
       <c r="AM121" s="84"/>
     </row>
     <row r="122" spans="1:39">
-      <c r="A122" s="350"/>
+      <c r="A122" s="357"/>
       <c r="B122" s="84"/>
       <c r="C122" s="84"/>
       <c r="D122" s="84"/>
@@ -19201,7 +19336,7 @@
       <c r="AM122" s="84"/>
     </row>
     <row r="123" spans="1:39">
-      <c r="A123" s="350"/>
+      <c r="A123" s="357"/>
       <c r="B123" s="84"/>
       <c r="C123" s="84"/>
       <c r="D123" s="84"/>
@@ -19242,7 +19377,7 @@
       <c r="AM123" s="84"/>
     </row>
     <row r="124" spans="1:39">
-      <c r="A124" s="350"/>
+      <c r="A124" s="357"/>
       <c r="B124" s="84"/>
       <c r="C124" s="84"/>
       <c r="D124" s="84"/>
@@ -19283,7 +19418,7 @@
       <c r="AM124" s="84"/>
     </row>
     <row r="125" spans="1:39">
-      <c r="A125" s="350"/>
+      <c r="A125" s="357"/>
       <c r="B125" s="84"/>
       <c r="C125" s="84"/>
       <c r="D125" s="84"/>
@@ -19324,7 +19459,7 @@
       <c r="AM125" s="84"/>
     </row>
     <row r="126" spans="1:39">
-      <c r="A126" s="350"/>
+      <c r="A126" s="357"/>
       <c r="B126" s="84"/>
       <c r="C126" s="84"/>
       <c r="D126" s="84"/>
@@ -19365,7 +19500,7 @@
       <c r="AM126" s="84"/>
     </row>
     <row r="127" spans="1:39">
-      <c r="A127" s="350"/>
+      <c r="A127" s="357"/>
       <c r="B127" s="84"/>
       <c r="C127" s="84"/>
       <c r="D127" s="84"/>
@@ -19406,7 +19541,7 @@
       <c r="AM127" s="84"/>
     </row>
     <row r="128" spans="1:39">
-      <c r="A128" s="350"/>
+      <c r="A128" s="357"/>
       <c r="B128" s="84"/>
       <c r="C128" s="84"/>
       <c r="D128" s="84"/>
@@ -19447,7 +19582,7 @@
       <c r="AM128" s="84"/>
     </row>
     <row r="129" spans="1:39">
-      <c r="A129" s="350"/>
+      <c r="A129" s="357"/>
       <c r="B129" s="84"/>
       <c r="C129" s="84"/>
       <c r="D129" s="84"/>
@@ -19488,7 +19623,7 @@
       <c r="AM129" s="84"/>
     </row>
     <row r="130" spans="1:39">
-      <c r="A130" s="350"/>
+      <c r="A130" s="357"/>
       <c r="B130" s="84"/>
       <c r="C130" s="84"/>
       <c r="D130" s="84"/>
@@ -19529,7 +19664,7 @@
       <c r="AM130" s="84"/>
     </row>
     <row r="131" spans="1:39">
-      <c r="A131" s="350"/>
+      <c r="A131" s="357"/>
       <c r="B131" s="84"/>
       <c r="C131" s="84"/>
       <c r="D131" s="84"/>
@@ -19570,7 +19705,7 @@
       <c r="AM131" s="84"/>
     </row>
     <row r="132" spans="1:39">
-      <c r="A132" s="350"/>
+      <c r="A132" s="357"/>
       <c r="B132" s="84"/>
       <c r="C132" s="84"/>
       <c r="D132" s="84"/>
@@ -19611,7 +19746,7 @@
       <c r="AM132" s="84"/>
     </row>
     <row r="133" spans="1:39">
-      <c r="A133" s="350"/>
+      <c r="A133" s="357"/>
       <c r="B133" s="84"/>
       <c r="C133" s="84"/>
       <c r="D133" s="84"/>
@@ -19652,7 +19787,7 @@
       <c r="AM133" s="84"/>
     </row>
     <row r="134" spans="1:39">
-      <c r="A134" s="350"/>
+      <c r="A134" s="357"/>
       <c r="B134" s="84"/>
       <c r="C134" s="84"/>
       <c r="D134" s="84"/>
@@ -19693,7 +19828,7 @@
       <c r="AM134" s="84"/>
     </row>
     <row r="135" spans="1:39">
-      <c r="A135" s="350"/>
+      <c r="A135" s="357"/>
       <c r="B135" s="84"/>
       <c r="C135" s="84"/>
       <c r="D135" s="84"/>
@@ -19734,7 +19869,7 @@
       <c r="AM135" s="84"/>
     </row>
     <row r="136" spans="1:39">
-      <c r="A136" s="350"/>
+      <c r="A136" s="357"/>
       <c r="B136" s="84"/>
       <c r="C136" s="84"/>
       <c r="D136" s="84"/>
@@ -19775,7 +19910,7 @@
       <c r="AM136" s="84"/>
     </row>
     <row r="137" spans="1:39">
-      <c r="A137" s="350"/>
+      <c r="A137" s="357"/>
       <c r="B137" s="84"/>
       <c r="C137" s="84"/>
       <c r="D137" s="84"/>
@@ -19816,7 +19951,7 @@
       <c r="AM137" s="84"/>
     </row>
     <row r="138" spans="1:39">
-      <c r="A138" s="350"/>
+      <c r="A138" s="357"/>
       <c r="B138" s="84"/>
       <c r="C138" s="84"/>
       <c r="D138" s="84"/>
@@ -19857,7 +19992,7 @@
       <c r="AM138" s="84"/>
     </row>
     <row r="139" spans="1:39">
-      <c r="A139" s="350"/>
+      <c r="A139" s="357"/>
       <c r="B139" s="84"/>
       <c r="C139" s="84"/>
       <c r="D139" s="84"/>
@@ -19898,7 +20033,7 @@
       <c r="AM139" s="84"/>
     </row>
     <row r="140" spans="1:39">
-      <c r="A140" s="350"/>
+      <c r="A140" s="357"/>
       <c r="B140" s="84"/>
       <c r="C140" s="84"/>
       <c r="D140" s="84"/>
@@ -19939,7 +20074,7 @@
       <c r="AM140" s="84"/>
     </row>
     <row r="141" spans="1:39">
-      <c r="A141" s="350"/>
+      <c r="A141" s="357"/>
       <c r="B141" s="84"/>
       <c r="C141" s="84"/>
       <c r="D141" s="84"/>
@@ -19980,7 +20115,7 @@
       <c r="AM141" s="84"/>
     </row>
     <row r="142" spans="1:39">
-      <c r="A142" s="350"/>
+      <c r="A142" s="357"/>
       <c r="B142" s="84"/>
       <c r="C142" s="84"/>
       <c r="D142" s="84"/>
@@ -20021,7 +20156,7 @@
       <c r="AM142" s="84"/>
     </row>
     <row r="143" spans="1:39">
-      <c r="A143" s="350"/>
+      <c r="A143" s="357"/>
       <c r="B143" s="84"/>
       <c r="C143" s="84"/>
       <c r="D143" s="84"/>
@@ -20062,7 +20197,7 @@
       <c r="AM143" s="84"/>
     </row>
     <row r="144" spans="1:39">
-      <c r="A144" s="350"/>
+      <c r="A144" s="357"/>
       <c r="B144" s="84"/>
       <c r="C144" s="84"/>
       <c r="D144" s="84"/>
@@ -20103,7 +20238,7 @@
       <c r="AM144" s="84"/>
     </row>
     <row r="145" spans="1:39">
-      <c r="A145" s="350"/>
+      <c r="A145" s="357"/>
       <c r="B145" s="84"/>
       <c r="C145" s="84"/>
       <c r="D145" s="84"/>
@@ -20144,7 +20279,7 @@
       <c r="AM145" s="84"/>
     </row>
     <row r="146" spans="1:39">
-      <c r="A146" s="350"/>
+      <c r="A146" s="357"/>
       <c r="B146" s="84"/>
       <c r="C146" s="84"/>
       <c r="D146" s="84"/>
@@ -20185,7 +20320,7 @@
       <c r="AM146" s="84"/>
     </row>
     <row r="147" spans="1:39">
-      <c r="A147" s="350"/>
+      <c r="A147" s="357"/>
       <c r="B147" s="84"/>
       <c r="C147" s="84"/>
       <c r="D147" s="84"/>
@@ -20226,7 +20361,7 @@
       <c r="AM147" s="84"/>
     </row>
     <row r="148" spans="1:39">
-      <c r="A148" s="350"/>
+      <c r="A148" s="357"/>
       <c r="B148" s="84"/>
       <c r="C148" s="84"/>
       <c r="D148" s="84"/>
@@ -20267,7 +20402,7 @@
       <c r="AM148" s="84"/>
     </row>
     <row r="149" spans="1:39">
-      <c r="A149" s="350"/>
+      <c r="A149" s="357"/>
       <c r="B149" s="84"/>
       <c r="C149" s="84"/>
       <c r="D149" s="84"/>
@@ -20308,7 +20443,7 @@
       <c r="AM149" s="84"/>
     </row>
     <row r="150" spans="1:39">
-      <c r="A150" s="350"/>
+      <c r="A150" s="357"/>
       <c r="B150" s="84"/>
       <c r="C150" s="84"/>
       <c r="D150" s="84"/>
@@ -20349,7 +20484,7 @@
       <c r="AM150" s="84"/>
     </row>
     <row r="151" spans="1:39">
-      <c r="A151" s="350"/>
+      <c r="A151" s="357"/>
       <c r="B151" s="84"/>
       <c r="C151" s="84"/>
       <c r="D151" s="84"/>
@@ -20390,7 +20525,7 @@
       <c r="AM151" s="84"/>
     </row>
     <row r="152" spans="1:39">
-      <c r="A152" s="350"/>
+      <c r="A152" s="357"/>
       <c r="B152" s="84"/>
       <c r="C152" s="84"/>
       <c r="D152" s="84"/>
@@ -20431,7 +20566,7 @@
       <c r="AM152" s="84"/>
     </row>
     <row r="153" spans="1:39">
-      <c r="A153" s="350"/>
+      <c r="A153" s="357"/>
       <c r="B153" s="84"/>
       <c r="C153" s="84"/>
       <c r="D153" s="84"/>
@@ -20472,7 +20607,7 @@
       <c r="AM153" s="84"/>
     </row>
     <row r="154" spans="1:39">
-      <c r="A154" s="350"/>
+      <c r="A154" s="357"/>
       <c r="B154" s="84"/>
       <c r="C154" s="84"/>
       <c r="D154" s="84"/>
@@ -20513,7 +20648,7 @@
       <c r="AM154" s="84"/>
     </row>
     <row r="155" spans="1:39">
-      <c r="A155" s="350"/>
+      <c r="A155" s="357"/>
       <c r="B155" s="84"/>
       <c r="C155" s="84"/>
       <c r="D155" s="84"/>
@@ -20554,7 +20689,7 @@
       <c r="AM155" s="84"/>
     </row>
     <row r="156" spans="1:39">
-      <c r="A156" s="350"/>
+      <c r="A156" s="357"/>
       <c r="B156" s="84"/>
       <c r="C156" s="84"/>
       <c r="D156" s="84"/>
@@ -20595,7 +20730,7 @@
       <c r="AM156" s="84"/>
     </row>
     <row r="157" spans="1:39">
-      <c r="A157" s="350"/>
+      <c r="A157" s="357"/>
       <c r="B157" s="84"/>
       <c r="C157" s="84"/>
       <c r="D157" s="84"/>
@@ -20636,7 +20771,7 @@
       <c r="AM157" s="84"/>
     </row>
     <row r="158" spans="1:39">
-      <c r="A158" s="350"/>
+      <c r="A158" s="357"/>
       <c r="B158" s="84"/>
       <c r="C158" s="84"/>
       <c r="D158" s="84"/>
@@ -20677,7 +20812,7 @@
       <c r="AM158" s="84"/>
     </row>
     <row r="159" spans="1:39">
-      <c r="A159" s="350"/>
+      <c r="A159" s="357"/>
       <c r="B159" s="84"/>
       <c r="C159" s="84"/>
       <c r="D159" s="84"/>
@@ -20718,7 +20853,7 @@
       <c r="AM159" s="84"/>
     </row>
     <row r="160" spans="1:39">
-      <c r="A160" s="350"/>
+      <c r="A160" s="357"/>
       <c r="B160" s="84"/>
       <c r="C160" s="84"/>
       <c r="D160" s="84"/>
@@ -20759,7 +20894,7 @@
       <c r="AM160" s="84"/>
     </row>
     <row r="161" spans="1:39">
-      <c r="A161" s="350"/>
+      <c r="A161" s="357"/>
       <c r="B161" s="84"/>
       <c r="C161" s="84"/>
       <c r="D161" s="84"/>
@@ -20800,7 +20935,7 @@
       <c r="AM161" s="84"/>
     </row>
     <row r="162" spans="1:39">
-      <c r="A162" s="350"/>
+      <c r="A162" s="357"/>
       <c r="B162" s="84"/>
       <c r="C162" s="84"/>
       <c r="D162" s="84"/>
@@ -20841,7 +20976,7 @@
       <c r="AM162" s="84"/>
     </row>
     <row r="163" spans="1:39">
-      <c r="A163" s="350"/>
+      <c r="A163" s="357"/>
       <c r="B163" s="84"/>
       <c r="C163" s="84"/>
       <c r="D163" s="84"/>
@@ -20882,7 +21017,7 @@
       <c r="AM163" s="84"/>
     </row>
     <row r="164" spans="1:39">
-      <c r="A164" s="350"/>
+      <c r="A164" s="357"/>
       <c r="B164" s="84"/>
       <c r="C164" s="84"/>
       <c r="D164" s="84"/>
@@ -20923,7 +21058,7 @@
       <c r="AM164" s="84"/>
     </row>
     <row r="165" spans="1:39">
-      <c r="A165" s="350"/>
+      <c r="A165" s="357"/>
       <c r="B165" s="84"/>
       <c r="C165" s="84"/>
       <c r="D165" s="84"/>
@@ -20964,7 +21099,7 @@
       <c r="AM165" s="84"/>
     </row>
     <row r="166" spans="1:39">
-      <c r="A166" s="350"/>
+      <c r="A166" s="357"/>
       <c r="B166" s="84"/>
       <c r="C166" s="84"/>
       <c r="D166" s="84"/>
@@ -21005,7 +21140,7 @@
       <c r="AM166" s="84"/>
     </row>
     <row r="167" spans="1:39">
-      <c r="A167" s="350"/>
+      <c r="A167" s="357"/>
       <c r="B167" s="84"/>
       <c r="C167" s="84"/>
       <c r="D167" s="84"/>
@@ -21046,7 +21181,7 @@
       <c r="AM167" s="84"/>
     </row>
     <row r="168" spans="1:39">
-      <c r="A168" s="350"/>
+      <c r="A168" s="357"/>
       <c r="B168" s="84"/>
       <c r="C168" s="84"/>
       <c r="D168" s="84"/>
@@ -21087,7 +21222,7 @@
       <c r="AM168" s="84"/>
     </row>
     <row r="169" spans="1:39">
-      <c r="A169" s="350"/>
+      <c r="A169" s="357"/>
       <c r="B169" s="84"/>
       <c r="C169" s="84"/>
       <c r="D169" s="84"/>
@@ -21128,7 +21263,7 @@
       <c r="AM169" s="84"/>
     </row>
     <row r="170" spans="1:39">
-      <c r="A170" s="350"/>
+      <c r="A170" s="357"/>
       <c r="B170" s="84"/>
       <c r="C170" s="84"/>
       <c r="D170" s="84"/>
@@ -21169,7 +21304,7 @@
       <c r="AM170" s="84"/>
     </row>
     <row r="171" spans="1:39">
-      <c r="A171" s="350"/>
+      <c r="A171" s="357"/>
       <c r="B171" s="84"/>
       <c r="C171" s="84"/>
       <c r="D171" s="84"/>
@@ -21210,7 +21345,7 @@
       <c r="AM171" s="84"/>
     </row>
     <row r="172" spans="1:39">
-      <c r="A172" s="350"/>
+      <c r="A172" s="357"/>
       <c r="B172" s="84"/>
       <c r="C172" s="84"/>
       <c r="D172" s="84"/>
@@ -21251,7 +21386,7 @@
       <c r="AM172" s="84"/>
     </row>
     <row r="173" spans="1:39">
-      <c r="A173" s="350"/>
+      <c r="A173" s="357"/>
       <c r="B173" s="84"/>
       <c r="C173" s="84"/>
       <c r="D173" s="84"/>
@@ -21292,7 +21427,7 @@
       <c r="AM173" s="84"/>
     </row>
     <row r="174" spans="1:39">
-      <c r="A174" s="350"/>
+      <c r="A174" s="357"/>
       <c r="B174" s="84"/>
       <c r="C174" s="84"/>
       <c r="D174" s="84"/>
@@ -21333,7 +21468,7 @@
       <c r="AM174" s="84"/>
     </row>
     <row r="175" spans="1:39">
-      <c r="A175" s="350"/>
+      <c r="A175" s="357"/>
       <c r="B175" s="84"/>
       <c r="C175" s="84"/>
       <c r="D175" s="84"/>
@@ -21374,7 +21509,7 @@
       <c r="AM175" s="84"/>
     </row>
     <row r="176" spans="1:39">
-      <c r="A176" s="350"/>
+      <c r="A176" s="357"/>
       <c r="B176" s="84"/>
       <c r="C176" s="84"/>
       <c r="D176" s="84"/>
@@ -21415,7 +21550,7 @@
       <c r="AM176" s="84"/>
     </row>
     <row r="177" spans="1:39">
-      <c r="A177" s="350"/>
+      <c r="A177" s="357"/>
       <c r="B177" s="84"/>
       <c r="C177" s="84"/>
       <c r="D177" s="84"/>
@@ -21456,7 +21591,7 @@
       <c r="AM177" s="84"/>
     </row>
     <row r="178" spans="1:39">
-      <c r="A178" s="350"/>
+      <c r="A178" s="357"/>
       <c r="B178" s="84"/>
       <c r="C178" s="84"/>
       <c r="D178" s="84"/>
@@ -21497,7 +21632,7 @@
       <c r="AM178" s="84"/>
     </row>
     <row r="179" spans="1:39">
-      <c r="A179" s="350"/>
+      <c r="A179" s="357"/>
       <c r="B179" s="84"/>
       <c r="C179" s="84"/>
       <c r="D179" s="84"/>
@@ -21538,7 +21673,7 @@
       <c r="AM179" s="84"/>
     </row>
     <row r="180" spans="1:39">
-      <c r="A180" s="350"/>
+      <c r="A180" s="357"/>
       <c r="B180" s="84"/>
       <c r="C180" s="84"/>
       <c r="D180" s="84"/>
@@ -21579,7 +21714,7 @@
       <c r="AM180" s="84"/>
     </row>
     <row r="181" spans="1:39">
-      <c r="A181" s="350"/>
+      <c r="A181" s="357"/>
       <c r="B181" s="84"/>
       <c r="C181" s="84"/>
       <c r="D181" s="84"/>
@@ -21620,7 +21755,7 @@
       <c r="AM181" s="84"/>
     </row>
     <row r="182" spans="1:39">
-      <c r="A182" s="350"/>
+      <c r="A182" s="357"/>
       <c r="B182" s="84"/>
       <c r="C182" s="84"/>
       <c r="D182" s="84"/>
@@ -21661,7 +21796,7 @@
       <c r="AM182" s="84"/>
     </row>
     <row r="183" spans="1:39">
-      <c r="A183" s="350"/>
+      <c r="A183" s="357"/>
       <c r="B183" s="84"/>
       <c r="C183" s="84"/>
       <c r="D183" s="84"/>
@@ -21702,7 +21837,7 @@
       <c r="AM183" s="84"/>
     </row>
     <row r="184" spans="1:39">
-      <c r="A184" s="350"/>
+      <c r="A184" s="357"/>
       <c r="B184" s="84"/>
       <c r="C184" s="84"/>
       <c r="D184" s="84"/>
@@ -21743,7 +21878,7 @@
       <c r="AM184" s="84"/>
     </row>
     <row r="185" spans="1:39">
-      <c r="A185" s="350"/>
+      <c r="A185" s="357"/>
       <c r="B185" s="84"/>
       <c r="C185" s="84"/>
       <c r="D185" s="84"/>
@@ -21784,7 +21919,7 @@
       <c r="AM185" s="84"/>
     </row>
     <row r="186" spans="1:39">
-      <c r="A186" s="350"/>
+      <c r="A186" s="357"/>
       <c r="B186" s="84"/>
       <c r="C186" s="84"/>
       <c r="D186" s="84"/>
@@ -21825,7 +21960,7 @@
       <c r="AM186" s="84"/>
     </row>
     <row r="187" spans="1:39">
-      <c r="A187" s="350"/>
+      <c r="A187" s="357"/>
       <c r="B187" s="84"/>
       <c r="C187" s="84"/>
       <c r="D187" s="84"/>
@@ -21866,7 +22001,7 @@
       <c r="AM187" s="84"/>
     </row>
     <row r="188" spans="1:39">
-      <c r="A188" s="350"/>
+      <c r="A188" s="357"/>
       <c r="B188" s="84"/>
       <c r="C188" s="84"/>
       <c r="D188" s="84"/>
@@ -21907,7 +22042,7 @@
       <c r="AM188" s="84"/>
     </row>
     <row r="189" spans="1:39">
-      <c r="A189" s="350"/>
+      <c r="A189" s="357"/>
       <c r="B189" s="84"/>
       <c r="C189" s="84"/>
       <c r="D189" s="84"/>
@@ -21948,7 +22083,7 @@
       <c r="AM189" s="84"/>
     </row>
     <row r="190" spans="1:39">
-      <c r="A190" s="350"/>
+      <c r="A190" s="357"/>
       <c r="B190" s="84"/>
       <c r="C190" s="84"/>
       <c r="D190" s="84"/>
@@ -21989,7 +22124,7 @@
       <c r="AM190" s="84"/>
     </row>
     <row r="191" spans="1:39">
-      <c r="A191" s="350"/>
+      <c r="A191" s="357"/>
       <c r="B191" s="84"/>
       <c r="C191" s="84"/>
       <c r="D191" s="84"/>
@@ -22030,7 +22165,7 @@
       <c r="AM191" s="84"/>
     </row>
     <row r="192" spans="1:39">
-      <c r="A192" s="350"/>
+      <c r="A192" s="357"/>
       <c r="B192" s="84"/>
       <c r="C192" s="84"/>
       <c r="D192" s="84"/>
@@ -22071,7 +22206,7 @@
       <c r="AM192" s="84"/>
     </row>
     <row r="193" spans="1:39">
-      <c r="A193" s="350"/>
+      <c r="A193" s="357"/>
       <c r="B193" s="84"/>
       <c r="C193" s="84"/>
       <c r="D193" s="84"/>
@@ -22112,7 +22247,7 @@
       <c r="AM193" s="84"/>
     </row>
     <row r="194" spans="1:39">
-      <c r="A194" s="350"/>
+      <c r="A194" s="357"/>
       <c r="B194" s="84"/>
       <c r="C194" s="84"/>
       <c r="D194" s="84"/>
@@ -22153,7 +22288,7 @@
       <c r="AM194" s="84"/>
     </row>
     <row r="195" spans="1:39">
-      <c r="A195" s="350"/>
+      <c r="A195" s="357"/>
       <c r="B195" s="84"/>
       <c r="C195" s="84"/>
       <c r="D195" s="84"/>
@@ -22194,7 +22329,7 @@
       <c r="AM195" s="84"/>
     </row>
     <row r="196" spans="1:39">
-      <c r="A196" s="350"/>
+      <c r="A196" s="357"/>
       <c r="B196" s="84"/>
       <c r="C196" s="84"/>
       <c r="D196" s="84"/>
@@ -22235,7 +22370,7 @@
       <c r="AM196" s="84"/>
     </row>
     <row r="197" spans="1:39">
-      <c r="A197" s="350"/>
+      <c r="A197" s="357"/>
       <c r="B197" s="84"/>
       <c r="C197" s="84"/>
       <c r="D197" s="84"/>
@@ -22276,7 +22411,7 @@
       <c r="AM197" s="84"/>
     </row>
     <row r="198" spans="1:39">
-      <c r="A198" s="350"/>
+      <c r="A198" s="357"/>
       <c r="B198" s="84"/>
       <c r="C198" s="84"/>
       <c r="D198" s="84"/>
@@ -22317,7 +22452,7 @@
       <c r="AM198" s="84"/>
     </row>
     <row r="199" spans="1:39">
-      <c r="A199" s="350"/>
+      <c r="A199" s="357"/>
       <c r="B199" s="84"/>
       <c r="C199" s="84"/>
       <c r="D199" s="84"/>
@@ -22358,7 +22493,7 @@
       <c r="AM199" s="84"/>
     </row>
     <row r="200" spans="1:39">
-      <c r="A200" s="350"/>
+      <c r="A200" s="357"/>
       <c r="B200" s="84"/>
       <c r="C200" s="84"/>
       <c r="D200" s="84"/>
@@ -22399,7 +22534,7 @@
       <c r="AM200" s="84"/>
     </row>
     <row r="201" spans="1:39">
-      <c r="A201" s="350"/>
+      <c r="A201" s="357"/>
       <c r="B201" s="84"/>
       <c r="C201" s="84"/>
       <c r="D201" s="84"/>
@@ -22440,7 +22575,7 @@
       <c r="AM201" s="84"/>
     </row>
     <row r="202" spans="1:39">
-      <c r="A202" s="350"/>
+      <c r="A202" s="357"/>
       <c r="B202" s="84"/>
       <c r="C202" s="84"/>
       <c r="D202" s="84"/>
@@ -22481,7 +22616,7 @@
       <c r="AM202" s="84"/>
     </row>
     <row r="203" spans="1:39">
-      <c r="A203" s="350"/>
+      <c r="A203" s="357"/>
       <c r="B203" s="84"/>
       <c r="C203" s="84"/>
       <c r="D203" s="84"/>
@@ -22522,7 +22657,7 @@
       <c r="AM203" s="84"/>
     </row>
     <row r="204" spans="1:39">
-      <c r="A204" s="350"/>
+      <c r="A204" s="357"/>
       <c r="B204" s="84"/>
       <c r="C204" s="84"/>
       <c r="D204" s="84"/>
@@ -22563,7 +22698,7 @@
       <c r="AM204" s="84"/>
     </row>
     <row r="205" spans="1:39">
-      <c r="A205" s="350"/>
+      <c r="A205" s="357"/>
       <c r="B205" s="84"/>
       <c r="C205" s="84"/>
       <c r="D205" s="84"/>
@@ -22604,7 +22739,7 @@
       <c r="AM205" s="84"/>
     </row>
     <row r="206" spans="1:39">
-      <c r="A206" s="350"/>
+      <c r="A206" s="357"/>
       <c r="B206" s="84"/>
       <c r="C206" s="84"/>
       <c r="D206" s="84"/>
@@ -22645,7 +22780,7 @@
       <c r="AM206" s="84"/>
     </row>
     <row r="207" spans="1:39">
-      <c r="A207" s="350"/>
+      <c r="A207" s="357"/>
       <c r="B207" s="84"/>
       <c r="C207" s="84"/>
       <c r="D207" s="84"/>
@@ -22686,7 +22821,7 @@
       <c r="AM207" s="84"/>
     </row>
     <row r="208" spans="1:39">
-      <c r="A208" s="350"/>
+      <c r="A208" s="357"/>
       <c r="B208" s="84"/>
       <c r="C208" s="84"/>
       <c r="D208" s="84"/>
@@ -22727,7 +22862,7 @@
       <c r="AM208" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="N1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
@@ -22753,6 +22888,7 @@
     <mergeCell ref="AK2:AK3"/>
     <mergeCell ref="AL1:AL3"/>
     <mergeCell ref="AM1:AM3"/>
+    <mergeCell ref="AN1:AN3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -22853,7 +22989,7 @@
   <sheetData>
     <row r="1" spans="1:97">
       <c r="A1" s="26" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>0</v>
@@ -22865,7 +23001,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -22885,7 +23021,7 @@
       <c r="U1" s="24"/>
       <c r="V1" s="24"/>
       <c r="W1" s="97" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="X1" s="98"/>
       <c r="Y1" s="98"/>
@@ -22954,7 +23090,7 @@
       <c r="CJ1" s="144"/>
       <c r="CK1" s="144"/>
       <c r="CL1" s="86" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="CM1" s="24"/>
       <c r="CN1" s="24"/>
@@ -22970,33 +23106,33 @@
       <c r="C2" s="27"/>
       <c r="D2" s="26"/>
       <c r="E2" s="87" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F2" s="88"/>
       <c r="G2" s="88"/>
       <c r="H2" s="88"/>
       <c r="I2" s="88"/>
       <c r="J2" s="88" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K2" s="88"/>
       <c r="L2" s="88"/>
       <c r="M2" s="88"/>
       <c r="N2" s="88"/>
       <c r="O2" s="88" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
       <c r="R2" s="88"/>
       <c r="S2" s="88" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="T2" s="88"/>
       <c r="U2" s="88"/>
       <c r="V2" s="88"/>
       <c r="W2" s="99" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="X2" s="99"/>
       <c r="Y2" s="99"/>
@@ -23016,7 +23152,7 @@
       <c r="AM2" s="99"/>
       <c r="AN2" s="99"/>
       <c r="AO2" s="99" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AP2" s="99"/>
       <c r="AQ2" s="99"/>
@@ -23037,14 +23173,14 @@
       <c r="BF2" s="99"/>
       <c r="BG2" s="156"/>
       <c r="BH2" s="99" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="BI2" s="99"/>
       <c r="BJ2" s="99"/>
       <c r="BK2" s="99"/>
       <c r="BL2" s="170"/>
       <c r="BM2" s="181" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="BN2" s="181"/>
       <c r="BO2" s="181"/>
@@ -23064,29 +23200,29 @@
       <c r="CC2" s="189"/>
       <c r="CD2" s="189"/>
       <c r="CE2" s="202" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="CF2" s="203" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="CG2" s="203" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="CH2" s="203" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="CI2" s="213" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="CJ2" s="61" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="CK2" s="61"/>
       <c r="CL2" s="86" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="CM2" s="86" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="CN2" s="24"/>
     </row>
@@ -23096,34 +23232,34 @@
       <c r="C3" s="29"/>
       <c r="D3" s="28"/>
       <c r="E3" s="87" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F3" s="88" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G3" s="88" t="s">
+        <v>497</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>498</v>
+      </c>
+      <c r="I3" s="88" t="s">
+        <v>499</v>
+      </c>
+      <c r="J3" s="88" t="s">
         <v>495</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="K3" s="88" t="s">
         <v>496</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="L3" s="88" t="s">
         <v>497</v>
       </c>
-      <c r="J3" s="88" t="s">
-        <v>493</v>
-      </c>
-      <c r="K3" s="88" t="s">
-        <v>494</v>
-      </c>
-      <c r="L3" s="88" t="s">
-        <v>495</v>
-      </c>
       <c r="M3" s="88" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N3" s="88" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O3" s="96"/>
       <c r="P3" s="88"/>
@@ -23134,184 +23270,184 @@
       <c r="U3" s="88"/>
       <c r="V3" s="88"/>
       <c r="W3" s="100" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="X3" s="100" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Y3" s="124" t="s">
+        <v>502</v>
+      </c>
+      <c r="Z3" s="124" t="s">
+        <v>503</v>
+      </c>
+      <c r="AA3" s="124" t="s">
         <v>500</v>
       </c>
-      <c r="Z3" s="124" t="s">
+      <c r="AB3" s="124" t="s">
         <v>501</v>
       </c>
-      <c r="AA3" s="124" t="s">
-        <v>498</v>
-      </c>
-      <c r="AB3" s="124" t="s">
-        <v>499</v>
-      </c>
       <c r="AC3" s="124" t="s">
+        <v>502</v>
+      </c>
+      <c r="AD3" s="124" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE3" s="124" t="s">
         <v>500</v>
       </c>
-      <c r="AD3" s="124" t="s">
+      <c r="AF3" s="126" t="s">
+        <v>504</v>
+      </c>
+      <c r="AG3" s="126" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH3" s="126" t="s">
+        <v>506</v>
+      </c>
+      <c r="AI3" s="136" t="s">
+        <v>507</v>
+      </c>
+      <c r="AJ3" s="136" t="s">
+        <v>508</v>
+      </c>
+      <c r="AK3" s="139" t="s">
+        <v>505</v>
+      </c>
+      <c r="AL3" s="139" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM3" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="AN3" s="140" t="s">
+        <v>508</v>
+      </c>
+      <c r="AO3" s="99" t="s">
+        <v>500</v>
+      </c>
+      <c r="AP3" s="100" t="s">
         <v>501</v>
       </c>
-      <c r="AE3" s="124" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF3" s="126" t="s">
+      <c r="AQ3" s="124" t="s">
         <v>502</v>
       </c>
-      <c r="AG3" s="126" t="s">
+      <c r="AR3" s="124" t="s">
         <v>503</v>
       </c>
-      <c r="AH3" s="126" t="s">
+      <c r="AS3" s="124" t="s">
+        <v>500</v>
+      </c>
+      <c r="AT3" s="124" t="s">
+        <v>501</v>
+      </c>
+      <c r="AU3" s="124" t="s">
+        <v>502</v>
+      </c>
+      <c r="AV3" s="124" t="s">
+        <v>503</v>
+      </c>
+      <c r="AW3" s="124" t="s">
+        <v>500</v>
+      </c>
+      <c r="AX3" s="124" t="s">
+        <v>501</v>
+      </c>
+      <c r="AY3" s="126" t="s">
         <v>504</v>
       </c>
-      <c r="AI3" s="136" t="s">
+      <c r="AZ3" s="126" t="s">
         <v>505</v>
       </c>
-      <c r="AJ3" s="136" t="s">
+      <c r="BA3" s="126" t="s">
         <v>506</v>
       </c>
-      <c r="AK3" s="139" t="s">
+      <c r="BB3" s="136" t="s">
+        <v>507</v>
+      </c>
+      <c r="BC3" s="136" t="s">
+        <v>508</v>
+      </c>
+      <c r="BD3" s="139" t="s">
+        <v>505</v>
+      </c>
+      <c r="BE3" s="139" t="s">
+        <v>506</v>
+      </c>
+      <c r="BF3" s="140" t="s">
+        <v>507</v>
+      </c>
+      <c r="BG3" s="157" t="s">
+        <v>508</v>
+      </c>
+      <c r="BH3" s="158" t="s">
+        <v>502</v>
+      </c>
+      <c r="BI3" s="158" t="s">
         <v>503</v>
       </c>
-      <c r="AL3" s="139" t="s">
+      <c r="BJ3" s="158" t="s">
+        <v>500</v>
+      </c>
+      <c r="BK3" s="158" t="s">
+        <v>501</v>
+      </c>
+      <c r="BL3" s="171" t="s">
+        <v>500</v>
+      </c>
+      <c r="BM3" s="100" t="s">
+        <v>501</v>
+      </c>
+      <c r="BN3" s="124" t="s">
+        <v>502</v>
+      </c>
+      <c r="BO3" s="124" t="s">
+        <v>503</v>
+      </c>
+      <c r="BP3" s="124" t="s">
+        <v>500</v>
+      </c>
+      <c r="BQ3" s="124" t="s">
+        <v>501</v>
+      </c>
+      <c r="BR3" s="124" t="s">
+        <v>502</v>
+      </c>
+      <c r="BS3" s="124" t="s">
+        <v>503</v>
+      </c>
+      <c r="BT3" s="124" t="s">
+        <v>500</v>
+      </c>
+      <c r="BU3" s="124" t="s">
+        <v>501</v>
+      </c>
+      <c r="BV3" s="126" t="s">
         <v>504</v>
       </c>
-      <c r="AM3" s="140" t="s">
+      <c r="BW3" s="126" t="s">
         <v>505</v>
       </c>
-      <c r="AN3" s="140" t="s">
+      <c r="BX3" s="126" t="s">
         <v>506</v>
       </c>
-      <c r="AO3" s="99" t="s">
-        <v>498</v>
-      </c>
-      <c r="AP3" s="100" t="s">
-        <v>499</v>
-      </c>
-      <c r="AQ3" s="124" t="s">
-        <v>500</v>
-      </c>
-      <c r="AR3" s="124" t="s">
-        <v>501</v>
-      </c>
-      <c r="AS3" s="124" t="s">
-        <v>498</v>
-      </c>
-      <c r="AT3" s="124" t="s">
-        <v>499</v>
-      </c>
-      <c r="AU3" s="124" t="s">
-        <v>500</v>
-      </c>
-      <c r="AV3" s="124" t="s">
-        <v>501</v>
-      </c>
-      <c r="AW3" s="124" t="s">
-        <v>498</v>
-      </c>
-      <c r="AX3" s="124" t="s">
-        <v>499</v>
-      </c>
-      <c r="AY3" s="126" t="s">
-        <v>502</v>
-      </c>
-      <c r="AZ3" s="126" t="s">
-        <v>503</v>
-      </c>
-      <c r="BA3" s="126" t="s">
-        <v>504</v>
-      </c>
-      <c r="BB3" s="136" t="s">
+      <c r="BY3" s="136" t="s">
+        <v>507</v>
+      </c>
+      <c r="BZ3" s="190" t="s">
+        <v>508</v>
+      </c>
+      <c r="CA3" s="139" t="s">
         <v>505</v>
       </c>
-      <c r="BC3" s="136" t="s">
+      <c r="CB3" s="139" t="s">
         <v>506</v>
       </c>
-      <c r="BD3" s="139" t="s">
-        <v>503</v>
-      </c>
-      <c r="BE3" s="139" t="s">
-        <v>504</v>
-      </c>
-      <c r="BF3" s="140" t="s">
-        <v>505</v>
-      </c>
-      <c r="BG3" s="157" t="s">
-        <v>506</v>
-      </c>
-      <c r="BH3" s="158" t="s">
-        <v>500</v>
-      </c>
-      <c r="BI3" s="158" t="s">
-        <v>501</v>
-      </c>
-      <c r="BJ3" s="158" t="s">
-        <v>498</v>
-      </c>
-      <c r="BK3" s="158" t="s">
-        <v>499</v>
-      </c>
-      <c r="BL3" s="171" t="s">
-        <v>498</v>
-      </c>
-      <c r="BM3" s="100" t="s">
-        <v>499</v>
-      </c>
-      <c r="BN3" s="124" t="s">
-        <v>500</v>
-      </c>
-      <c r="BO3" s="124" t="s">
-        <v>501</v>
-      </c>
-      <c r="BP3" s="124" t="s">
-        <v>498</v>
-      </c>
-      <c r="BQ3" s="124" t="s">
-        <v>499</v>
-      </c>
-      <c r="BR3" s="124" t="s">
-        <v>500</v>
-      </c>
-      <c r="BS3" s="124" t="s">
-        <v>501</v>
-      </c>
-      <c r="BT3" s="124" t="s">
-        <v>498</v>
-      </c>
-      <c r="BU3" s="124" t="s">
-        <v>499</v>
-      </c>
-      <c r="BV3" s="126" t="s">
-        <v>502</v>
-      </c>
-      <c r="BW3" s="126" t="s">
-        <v>503</v>
-      </c>
-      <c r="BX3" s="126" t="s">
-        <v>504</v>
-      </c>
-      <c r="BY3" s="136" t="s">
-        <v>505</v>
-      </c>
-      <c r="BZ3" s="190" t="s">
-        <v>506</v>
-      </c>
-      <c r="CA3" s="139" t="s">
-        <v>503</v>
-      </c>
-      <c r="CB3" s="139" t="s">
-        <v>504</v>
-      </c>
       <c r="CC3" s="140" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="CD3" s="204" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="CE3" s="202"/>
       <c r="CF3" s="203"/>
@@ -23326,16 +23462,16 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="63" customHeight="1" spans="1:89">
       <c r="A4" s="30" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E4" s="64"/>
       <c r="F4" s="64"/>
@@ -23563,19 +23699,19 @@
         <v>0.671</v>
       </c>
       <c r="CJ4" s="215" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="CK4" s="30"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="61" customHeight="1" spans="1:89">
       <c r="A5" s="33" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>11</v>
@@ -23674,16 +23810,16 @@
         <v>0.1314</v>
       </c>
       <c r="AT5" s="103" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AU5" s="103" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AV5" s="103" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AW5" s="103" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AX5" s="104"/>
       <c r="AY5" s="114">
@@ -23806,19 +23942,19 @@
         <v>0.78</v>
       </c>
       <c r="CJ5" s="217" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="CK5" s="238"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="58" customHeight="1" spans="1:89">
       <c r="A6" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="B6" s="390" t="s">
-        <v>458</v>
+        <v>522</v>
+      </c>
+      <c r="B6" s="402" t="s">
+        <v>460</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>131</v>
@@ -23917,16 +24053,16 @@
         <v>2.8798</v>
       </c>
       <c r="AT6" s="101" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="AU6" s="101" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="AV6" s="101" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="AW6" s="101" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AX6" s="102"/>
       <c r="AY6" s="105">
@@ -24049,22 +24185,22 @@
         <v>9.587</v>
       </c>
       <c r="CJ6" s="218" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="CK6" s="239"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="51" customHeight="1" spans="1:89">
       <c r="A7" s="33" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B7" s="37">
         <v>603688</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -24286,19 +24422,19 @@
         <v>0.5</v>
       </c>
       <c r="CJ7" s="217" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="CK7" s="238"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="63" customHeight="1" spans="1:89">
       <c r="A8" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B8" s="40">
         <v>601677</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>87</v>
@@ -24529,22 +24665,22 @@
         <v>2.12</v>
       </c>
       <c r="CJ8" s="215" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="CK8" s="30"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="53" customHeight="1" spans="1:89">
       <c r="A9" s="42" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9" s="391" t="s">
-        <v>411</v>
+        <v>533</v>
+      </c>
+      <c r="B9" s="403" t="s">
+        <v>412</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E9" s="90"/>
       <c r="F9" s="90"/>
@@ -24772,19 +24908,19 @@
         <v>1.857</v>
       </c>
       <c r="CJ9" s="220" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="CK9" s="240"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="38" customHeight="1" spans="1:89">
       <c r="A10" s="45" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B10" s="46">
         <v>600955</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D10" s="47" t="s">
         <v>83</v>
@@ -24993,19 +25129,19 @@
         <v>4.3</v>
       </c>
       <c r="CJ10" s="222" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="CK10" s="45"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="54" customHeight="1" spans="1:89">
       <c r="A11" s="30" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B11" s="48">
         <v>600779</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D11" s="49" t="s">
         <v>91</v>
@@ -25236,13 +25372,13 @@
         <v>2.053</v>
       </c>
       <c r="CJ11" s="215" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="CK11" s="30"/>
     </row>
     <row r="12" s="6" customFormat="1" ht="61" customHeight="1" spans="1:89">
       <c r="A12" s="50" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B12" s="51">
         <v>600032</v>
@@ -25473,16 +25609,16 @@
         <v>0.21</v>
       </c>
       <c r="CJ12" s="224" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="CK12" s="50"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="47" customHeight="1" spans="1:89">
       <c r="A13" s="33" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>25</v>
@@ -25704,16 +25840,16 @@
         <v>0.428</v>
       </c>
       <c r="CJ13" s="225" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="CK13" s="33"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="37" customHeight="1" spans="1:89">
       <c r="A14" s="33" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>45</v>
@@ -25935,16 +26071,16 @@
         <v>-0.192</v>
       </c>
       <c r="CJ14" s="225" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="CK14" s="33"/>
     </row>
     <row r="15" ht="15" spans="1:89">
       <c r="A15" s="58" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C15" s="60" t="s">
         <v>65</v>
@@ -26122,10 +26258,10 @@
     </row>
     <row r="16" ht="15" spans="1:89">
       <c r="A16" s="58" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C16" s="63" t="s">
         <v>73</v>
@@ -26303,10 +26439,10 @@
     </row>
     <row r="17" s="3" customFormat="1" ht="60" customHeight="1" spans="1:89">
       <c r="A17" s="30" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>105</v>
@@ -26534,16 +26670,16 @@
         <v>0.871</v>
       </c>
       <c r="CJ17" s="215" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="CK17" s="30"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="44" customHeight="1" spans="1:89">
       <c r="A18" s="30" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>125</v>
@@ -26765,19 +26901,19 @@
         <v>0.72</v>
       </c>
       <c r="CJ18" s="215" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="CK18" s="30"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="47" customHeight="1" spans="1:89">
       <c r="A19" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="B19" s="392" t="s">
-        <v>399</v>
+        <v>558</v>
+      </c>
+      <c r="B19" s="404" t="s">
+        <v>400</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>103</v>
@@ -26996,19 +27132,19 @@
         <v>0.842</v>
       </c>
       <c r="CJ19" s="218" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="CK19" s="239"/>
     </row>
     <row r="20" ht="15" spans="1:89">
       <c r="A20" s="58" t="s">
-        <v>558</v>
-      </c>
-      <c r="B20" s="393" t="s">
-        <v>418</v>
+        <v>560</v>
+      </c>
+      <c r="B20" s="405" t="s">
+        <v>419</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D20" s="61" t="s">
         <v>15</v>
@@ -27231,13 +27367,13 @@
     </row>
     <row r="21" spans="1:89">
       <c r="A21" s="58" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B21" s="68">
         <v>600821</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D21" s="61" t="s">
         <v>67</v>
@@ -27460,13 +27596,13 @@
     </row>
     <row r="22" spans="1:89">
       <c r="A22" s="58" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B22" s="70" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D22" s="61" t="s">
         <v>67</v>
@@ -27641,13 +27777,13 @@
     </row>
     <row r="23" spans="1:89">
       <c r="A23" s="58" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B23" s="70" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D23" s="61" t="s">
         <v>35</v>
@@ -27822,13 +27958,13 @@
     </row>
     <row r="24" spans="1:89">
       <c r="A24" s="58" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B24" s="71">
         <v>605028</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D24" s="61" t="s">
         <v>67</v>
@@ -28003,13 +28139,13 @@
     </row>
     <row r="25" s="7" customFormat="1" ht="15" spans="1:89">
       <c r="A25" s="71" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D25" s="69" t="s">
         <v>103</v>
@@ -28190,10 +28326,10 @@
     </row>
     <row r="26" ht="15" spans="1:89">
       <c r="A26" s="58" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>41</v>
@@ -28371,13 +28507,13 @@
     </row>
     <row r="27" s="8" customFormat="1" spans="1:89">
       <c r="A27" s="33" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>15</v>
@@ -28612,13 +28748,13 @@
     </row>
     <row r="28" s="8" customFormat="1" spans="1:89">
       <c r="A28" s="33" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B28" s="73">
         <v>600821</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>67</v>
@@ -28853,13 +28989,13 @@
     </row>
     <row r="29" s="9" customFormat="1" spans="1:89">
       <c r="A29" s="71" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B29" s="74">
         <v>600399</v>
       </c>
       <c r="C29" s="69" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>55</v>
@@ -29088,13 +29224,13 @@
     </row>
     <row r="30" s="10" customFormat="1" ht="74" customHeight="1" spans="1:89">
       <c r="A30" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="B30" s="394" t="s">
-        <v>461</v>
+        <v>571</v>
+      </c>
+      <c r="B30" s="406" t="s">
+        <v>463</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D30" s="76" t="s">
         <v>91</v>
@@ -29317,22 +29453,22 @@
         <v>3.85</v>
       </c>
       <c r="CJ30" s="232" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="CK30" s="241"/>
     </row>
     <row r="31" s="11" customFormat="1" ht="65" customHeight="1" spans="1:89">
       <c r="A31" s="77" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B31" s="78">
         <v>600436</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E31" s="94"/>
       <c r="F31" s="94"/>
@@ -29510,13 +29646,13 @@
         <v>3.33</v>
       </c>
       <c r="CJ31" s="234" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="CK31" s="242"/>
     </row>
     <row r="32" s="10" customFormat="1" ht="64" customHeight="1" spans="1:89">
       <c r="A32" s="30" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B32" s="75">
         <v>600702</v>
@@ -29703,19 +29839,19 @@
         <v>2.92</v>
       </c>
       <c r="CJ32" s="232" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="CK32" s="241"/>
     </row>
     <row r="33" s="12" customFormat="1" ht="51" customHeight="1" spans="1:89">
       <c r="A33" s="33" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B33" s="80">
         <v>600600</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D33" s="81" t="s">
         <v>91</v>
@@ -29894,13 +30030,13 @@
       <c r="CH33" s="95"/>
       <c r="CI33" s="235"/>
       <c r="CJ33" s="236" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="CK33" s="243"/>
     </row>
     <row r="34" spans="1:89">
       <c r="A34" s="82" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B34" s="83"/>
       <c r="C34" s="84"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易分析202112.xlsx
@@ -10411,11 +10411,11 @@
   <dimension ref="A1:AO208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AH70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN79" sqref="AN79"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8"/>
